--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85668B1-1DCD-4330-9880-C813189B606E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B00C78-CEF5-432A-9464-032421796C9E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9900" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="16">
   <si>
     <t>Datum</t>
   </si>
@@ -526,7 +526,7 @@
   <dimension ref="A1:K547"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="C17" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>819</v>
       </c>
       <c r="D17" s="9" t="str">
         <f t="shared" si="4"/>
@@ -1091,11 +1091,11 @@
       </c>
       <c r="I17" s="6">
         <f t="shared" si="1"/>
-        <v>-751</v>
+        <v>68</v>
       </c>
       <c r="J17" s="6">
         <f t="shared" si="2"/>
-        <v>-751</v>
+        <v>68</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" si="3"/>
@@ -1103,27 +1103,33 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="5">
+        <v>43306</v>
+      </c>
+      <c r="B18" s="6">
+        <v>819</v>
+      </c>
       <c r="C18" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>886</v>
       </c>
       <c r="D18" s="9" t="str">
         <f t="shared" si="4"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="G18" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I18" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J18" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K18" s="6">
         <f t="shared" si="3"/>
@@ -1132,26 +1138,30 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
+      <c r="B19" s="6">
+        <v>886</v>
+      </c>
       <c r="C19" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="9">
+        <v>954</v>
+      </c>
+      <c r="D19" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="9"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="G19" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I19" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J19" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K19" s="6">
         <f t="shared" si="3"/>
@@ -1159,27 +1169,33 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="5">
+        <v>43307</v>
+      </c>
+      <c r="B20" s="6">
+        <v>954</v>
+      </c>
       <c r="C20" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D20" s="9">
+        <v>1021</v>
+      </c>
+      <c r="D20" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="9"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="G20" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I20" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J20" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K20" s="6">
         <f t="shared" si="3"/>
@@ -1188,14 +1204,16 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
+      <c r="B21" s="6">
+        <v>1021</v>
+      </c>
       <c r="C21" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>Duwboot 20, Houten</v>
       </c>
       <c r="E21" s="9"/>
       <c r="G21" s="4" t="s">
@@ -1203,11 +1221,11 @@
       </c>
       <c r="I21" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1021</v>
       </c>
       <c r="J21" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1021</v>
       </c>
       <c r="K21" s="6">
         <f t="shared" si="3"/>
@@ -1222,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="9">
-        <f t="shared" si="4"/>
+        <f>E21</f>
         <v>0</v>
       </c>
       <c r="E22" s="9"/>

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B00C78-CEF5-432A-9464-032421796C9E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE86084A-230D-4185-96A4-F397C4DD428F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="19">
   <si>
     <t>Datum</t>
   </si>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Johan Huizingalaan 765, 1066 VH, Amsterdam</t>
+  </si>
+  <si>
+    <t>Privé</t>
+  </si>
+  <si>
+    <t>Stationsstraat 112, Zaandam</t>
+  </si>
+  <si>
+    <t>Zuidervaart 104, Zaandam</t>
   </si>
 </sst>
 </file>
@@ -525,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:K547"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1209,23 +1218,25 @@
       </c>
       <c r="C21" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1089</v>
       </c>
       <c r="D21" s="9" t="str">
         <f t="shared" si="4"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E21" s="9"/>
+      <c r="E21" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="G21" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I21" s="6">
         <f t="shared" si="1"/>
-        <v>-1021</v>
+        <v>68</v>
       </c>
       <c r="J21" s="6">
         <f t="shared" si="2"/>
-        <v>-1021</v>
+        <v>68</v>
       </c>
       <c r="K21" s="6">
         <f t="shared" si="3"/>
@@ -1233,23 +1244,29 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="5">
+        <v>43310</v>
+      </c>
+      <c r="B22" s="6">
+        <v>1089</v>
+      </c>
       <c r="C22" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D22" s="9">
+        <v>1092</v>
+      </c>
+      <c r="D22" s="9" t="str">
         <f>E21</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="G22" s="4" t="s">
-        <v>10</v>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="I22" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" s="6">
         <f t="shared" si="2"/>
@@ -1257,27 +1274,31 @@
       </c>
       <c r="K22" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
+      <c r="B23" s="6">
+        <v>1092</v>
+      </c>
       <c r="C23" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D23" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="G23" s="4" t="s">
-        <v>10</v>
+        <v>1096</v>
+      </c>
+      <c r="D23" s="9" t="str">
+        <f>E22</f>
+        <v>Zuidervaart 104, Zaandam</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="I23" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J23" s="6">
         <f t="shared" si="2"/>
@@ -1285,27 +1306,31 @@
       </c>
       <c r="K23" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
+      <c r="B24" s="6">
+        <v>1096</v>
+      </c>
       <c r="C24" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D24" s="9">
+        <v>1097</v>
+      </c>
+      <c r="D24" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="G24" s="4" t="s">
-        <v>10</v>
+        <v>Stationsstraat 112, Zaandam</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="I24" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="6">
         <f t="shared" si="2"/>
@@ -1313,31 +1338,37 @@
       </c>
       <c r="K24" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="5">
+        <v>43312</v>
+      </c>
+      <c r="B25" s="6">
+        <v>1097</v>
+      </c>
       <c r="C25" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D25" s="9">
+        <v>1165</v>
+      </c>
+      <c r="D25" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="9"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="G25" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J25" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K25" s="6">
         <f t="shared" si="3"/>
@@ -1346,26 +1377,30 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
+      <c r="B26" s="6">
+        <v>1165</v>
+      </c>
       <c r="C26" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="9"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="G26" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I26" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1165</v>
       </c>
       <c r="J26" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1165</v>
       </c>
       <c r="K26" s="6">
         <f t="shared" si="3"/>
@@ -1379,9 +1414,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E27" s="9"/>
       <c r="G27" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE86084A-230D-4185-96A4-F397C4DD428F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861476E5-5A05-4BE0-BB67-BC6486FEE6C5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="19">
   <si>
     <t>Datum</t>
   </si>
@@ -535,7 +535,7 @@
   <dimension ref="A1:K547"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="C26" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1232</v>
       </c>
       <c r="D26" s="9" t="str">
         <f t="shared" si="4"/>
@@ -1396,11 +1396,11 @@
       </c>
       <c r="I26" s="6">
         <f t="shared" si="1"/>
-        <v>-1165</v>
+        <v>67</v>
       </c>
       <c r="J26" s="6">
         <f t="shared" si="2"/>
-        <v>-1165</v>
+        <v>67</v>
       </c>
       <c r="K26" s="6">
         <f t="shared" si="3"/>
@@ -1408,27 +1408,33 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="5">
+        <v>43314</v>
+      </c>
+      <c r="B27" s="6">
+        <v>1232</v>
+      </c>
       <c r="C27" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="D27" s="9" t="str">
         <f t="shared" si="4"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E27" s="9"/>
+      <c r="E27" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="G27" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I27" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J27" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K27" s="6">
         <f t="shared" si="3"/>
@@ -1437,26 +1443,30 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
+      <c r="B28" s="6">
+        <v>1300</v>
+      </c>
       <c r="C28" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="9"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="G28" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I28" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="J28" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="K28" s="6">
         <f t="shared" si="3"/>
@@ -1470,9 +1480,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="9" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E29" s="9"/>
       <c r="G29" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14CE2FB-7897-4AE2-9224-EFE49B646FA1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC587DE-F1AB-450E-AD5D-8E9135A3DC13}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="20">
   <si>
     <t>Datum</t>
   </si>
@@ -536,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:K547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="C32" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1531</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>6</v>
@@ -1593,11 +1593,11 @@
       </c>
       <c r="I32" s="6">
         <f t="shared" si="1"/>
-        <v>-1464</v>
+        <v>67</v>
       </c>
       <c r="J32" s="6">
         <f t="shared" si="2"/>
-        <v>-1464</v>
+        <v>67</v>
       </c>
       <c r="K32" s="6">
         <f t="shared" si="3"/>
@@ -1605,27 +1605,33 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
+      <c r="A33" s="5">
+        <v>43330</v>
+      </c>
+      <c r="B33" s="6">
+        <v>1531</v>
+      </c>
       <c r="C33" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1599</v>
       </c>
       <c r="D33" s="8" t="str">
         <f t="shared" si="4"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E33" s="8"/>
+      <c r="E33" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G33" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I33" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J33" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K33" s="6">
         <f t="shared" si="3"/>
@@ -1634,26 +1640,30 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
+      <c r="B34" s="6">
+        <v>1599</v>
+      </c>
       <c r="C34" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D34" s="8">
+        <v>1666</v>
+      </c>
+      <c r="D34" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G34" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I34" s="6">
         <f t="shared" ref="I34:I65" si="5">(C34-B34)</f>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J34" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K34" s="6">
         <f t="shared" si="3"/>
@@ -1661,27 +1671,33 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
+      <c r="A35" s="5">
+        <v>43331</v>
+      </c>
+      <c r="B35" s="6">
+        <v>1666</v>
+      </c>
       <c r="C35" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D35" s="8">
+        <v>1734</v>
+      </c>
+      <c r="D35" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="8"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G35" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I35" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J35" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K35" s="6">
         <f t="shared" si="3"/>
@@ -1690,26 +1706,30 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
+      <c r="B36" s="6">
+        <v>1734</v>
+      </c>
       <c r="C36" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E36" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G36" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I36" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-1734</v>
       </c>
       <c r="J36" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1734</v>
       </c>
       <c r="K36" s="6">
         <f t="shared" si="3"/>
@@ -1723,9 +1743,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E37" s="8"/>
       <c r="G37" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC587DE-F1AB-450E-AD5D-8E9135A3DC13}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DE09DA-5A93-499A-92B4-B2AFBF3028F4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="20">
   <si>
     <t>Datum</t>
   </si>
@@ -537,7 +537,7 @@
   <dimension ref="A1:K547"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="C36" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1801</v>
       </c>
       <c r="D36" s="8" t="str">
         <f t="shared" si="4"/>
@@ -1725,11 +1725,11 @@
       </c>
       <c r="I36" s="6">
         <f t="shared" si="5"/>
-        <v>-1734</v>
+        <v>67</v>
       </c>
       <c r="J36" s="6">
         <f t="shared" si="2"/>
-        <v>-1734</v>
+        <v>67</v>
       </c>
       <c r="K36" s="6">
         <f t="shared" si="3"/>
@@ -1737,27 +1737,33 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
+      <c r="A37" s="5">
+        <v>43332</v>
+      </c>
+      <c r="B37" s="6">
+        <v>1801</v>
+      </c>
       <c r="C37" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1869</v>
       </c>
       <c r="D37" s="8" t="str">
         <f t="shared" si="4"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E37" s="8"/>
+      <c r="E37" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G37" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I37" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J37" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K37" s="6">
         <f t="shared" si="3"/>
@@ -1766,26 +1772,30 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
+      <c r="B38" s="6">
+        <v>1869</v>
+      </c>
       <c r="C38" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D38" s="8">
+        <v>1936</v>
+      </c>
+      <c r="D38" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E38" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G38" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I38" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J38" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K38" s="6">
         <f t="shared" si="3"/>
@@ -1793,27 +1803,33 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6"/>
+      <c r="A39" s="5">
+        <v>43336</v>
+      </c>
+      <c r="B39" s="6">
+        <v>1936</v>
+      </c>
       <c r="C39" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D39" s="8">
+        <v>2004</v>
+      </c>
+      <c r="D39" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E39" s="8"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G39" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I39" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J39" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K39" s="6">
         <f t="shared" si="3"/>
@@ -1822,26 +1838,30 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
+      <c r="B40" s="6">
+        <v>2004</v>
+      </c>
       <c r="C40" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E40" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G40" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I40" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-2004</v>
       </c>
       <c r="J40" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-2004</v>
       </c>
       <c r="K40" s="6">
         <f t="shared" si="3"/>
@@ -1855,9 +1875,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E41" s="8"/>
       <c r="G41" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DE09DA-5A93-499A-92B4-B2AFBF3028F4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFF1A3C-4753-4697-AC11-F76A1796EA09}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="22">
   <si>
     <t>Datum</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>Zuiderhoofdstraat 32, Krommenie</t>
+  </si>
+  <si>
+    <t>Veluwezoom 4, 1327AG, Almere</t>
+  </si>
+  <si>
+    <t>Garagebezoek, inclusief proefrit monteur</t>
   </si>
 </sst>
 </file>
@@ -536,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:K547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1476,7 +1482,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
-        <v>43327</v>
+        <v>43358</v>
       </c>
       <c r="B29" s="6">
         <v>1371</v>
@@ -1541,7 +1547,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
-        <v>43329</v>
+        <v>43360</v>
       </c>
       <c r="B31" s="6">
         <v>1396</v>
@@ -1606,7 +1612,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
-        <v>43330</v>
+        <v>43361</v>
       </c>
       <c r="B33" s="6">
         <v>1531</v>
@@ -1672,7 +1678,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
-        <v>43331</v>
+        <v>43362</v>
       </c>
       <c r="B35" s="6">
         <v>1666</v>
@@ -1738,7 +1744,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
-        <v>43332</v>
+        <v>43363</v>
       </c>
       <c r="B37" s="6">
         <v>1801</v>
@@ -1804,7 +1810,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
-        <v>43336</v>
+        <v>43367</v>
       </c>
       <c r="B39" s="6">
         <v>1936</v>
@@ -1843,25 +1849,25 @@
       </c>
       <c r="C40" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2052</v>
       </c>
       <c r="D40" s="8" t="str">
         <f t="shared" si="4"/>
         <v>Duwboot 20, Houten</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I40" s="6">
         <f t="shared" si="5"/>
-        <v>-2004</v>
+        <v>48</v>
       </c>
       <c r="J40" s="6">
         <f t="shared" si="2"/>
-        <v>-2004</v>
+        <v>48</v>
       </c>
       <c r="K40" s="6">
         <f t="shared" si="3"/>
@@ -1870,26 +1876,30 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
-      <c r="B41" s="6"/>
+      <c r="B41" s="6">
+        <v>2052</v>
+      </c>
       <c r="C41" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2095</v>
       </c>
       <c r="D41" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>De Boeg 26, Zaandam</v>
-      </c>
-      <c r="E41" s="8"/>
+        <v>Veluwezoom 4, 1327AG, Almere</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G41" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I41" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="J41" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="K41" s="6">
         <f t="shared" si="3"/>
@@ -1897,55 +1907,67 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
-      <c r="B42" s="6"/>
+      <c r="A42" s="5">
+        <v>43368</v>
+      </c>
+      <c r="B42" s="6">
+        <v>2095</v>
+      </c>
       <c r="C42" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D42" s="8">
+        <v>2162</v>
+      </c>
+      <c r="D42" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E42" s="8"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G42" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I42" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J42" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K42" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
-      <c r="B43" s="6"/>
+      <c r="B43" s="6">
+        <v>2162</v>
+      </c>
       <c r="C43" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D43" s="8">
+        <v>2165</v>
+      </c>
+      <c r="D43" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E43" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="G43" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I43" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J43" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K43" s="6">
         <f t="shared" si="3"/>
@@ -1954,26 +1976,30 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
-      <c r="B44" s="6"/>
+      <c r="B44" s="6">
+        <v>2165</v>
+      </c>
       <c r="C44" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D44" s="8">
+        <v>2231</v>
+      </c>
+      <c r="D44" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E44" s="8"/>
+        <v>Waterveste 4, Houten</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G44" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I44" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="J44" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="K44" s="6">
         <f t="shared" si="3"/>
@@ -1981,27 +2007,33 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
-      <c r="B45" s="6"/>
+      <c r="A45" s="5">
+        <v>43370</v>
+      </c>
+      <c r="B45" s="6">
+        <v>2231</v>
+      </c>
       <c r="C45" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D45" s="8">
+        <v>2298</v>
+      </c>
+      <c r="D45" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E45" s="8"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G45" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I45" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J45" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K45" s="6">
         <f t="shared" si="3"/>
@@ -2010,26 +2042,30 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
-      <c r="B46" s="6"/>
+      <c r="B46" s="6">
+        <v>2298</v>
+      </c>
       <c r="C46" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E46" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G46" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I46" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-2298</v>
       </c>
       <c r="J46" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-2298</v>
       </c>
       <c r="K46" s="6">
         <f t="shared" si="3"/>
@@ -2043,9 +2079,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E47" s="8"/>
       <c r="G47" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFF1A3C-4753-4697-AC11-F76A1796EA09}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C34D6D-3313-45CC-A25E-9ACC7E4984AD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="22">
   <si>
     <t>Datum</t>
   </si>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:K547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="C46" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2366</v>
       </c>
       <c r="D46" s="8" t="str">
         <f t="shared" si="4"/>
@@ -2061,11 +2061,11 @@
       </c>
       <c r="I46" s="6">
         <f t="shared" si="5"/>
-        <v>-2298</v>
+        <v>68</v>
       </c>
       <c r="J46" s="6">
         <f t="shared" si="2"/>
-        <v>-2298</v>
+        <v>68</v>
       </c>
       <c r="K46" s="6">
         <f t="shared" si="3"/>
@@ -2073,27 +2073,33 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
-      <c r="B47" s="6"/>
+      <c r="A47" s="5">
+        <v>43371</v>
+      </c>
+      <c r="B47" s="6">
+        <v>2366</v>
+      </c>
       <c r="C47" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2433</v>
       </c>
       <c r="D47" s="8" t="str">
         <f t="shared" si="4"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E47" s="8"/>
+      <c r="E47" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G47" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I47" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J47" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K47" s="6">
         <f t="shared" si="3"/>
@@ -2102,26 +2108,30 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
-      <c r="B48" s="6"/>
+      <c r="B48" s="6">
+        <v>2433</v>
+      </c>
       <c r="C48" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D48" s="8">
+        <v>2501</v>
+      </c>
+      <c r="D48" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E48" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G48" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I48" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J48" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K48" s="6">
         <f t="shared" si="3"/>
@@ -2129,27 +2139,33 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
-      <c r="B49" s="6"/>
+      <c r="A49" s="5">
+        <v>43375</v>
+      </c>
+      <c r="B49" s="6">
+        <v>2501</v>
+      </c>
       <c r="C49" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D49" s="8">
+        <v>2568</v>
+      </c>
+      <c r="D49" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E49" s="8"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G49" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I49" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J49" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K49" s="6">
         <f t="shared" si="3"/>
@@ -2158,26 +2174,30 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
-      <c r="B50" s="6"/>
+      <c r="B50" s="6">
+        <v>2568</v>
+      </c>
       <c r="C50" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E50" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G50" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I50" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-2568</v>
       </c>
       <c r="J50" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-2568</v>
       </c>
       <c r="K50" s="6">
         <f t="shared" si="3"/>
@@ -2191,9 +2211,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E51" s="8"/>
       <c r="G51" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C34D6D-3313-45CC-A25E-9ACC7E4984AD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F4A74E-280E-4EFF-B8ED-2FB6D0C42A56}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="23">
   <si>
     <t>Datum</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>Garagebezoek, inclusief proefrit monteur</t>
+  </si>
+  <si>
+    <t>John F. Kennedylaan 8, 7314PS, Apeldoorn</t>
   </si>
 </sst>
 </file>
@@ -543,7 +546,7 @@
   <dimension ref="A1:K547"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2179,7 +2182,7 @@
       </c>
       <c r="C50" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2636</v>
       </c>
       <c r="D50" s="8" t="str">
         <f t="shared" si="4"/>
@@ -2193,11 +2196,11 @@
       </c>
       <c r="I50" s="6">
         <f t="shared" si="5"/>
-        <v>-2568</v>
+        <v>68</v>
       </c>
       <c r="J50" s="6">
         <f t="shared" si="2"/>
-        <v>-2568</v>
+        <v>68</v>
       </c>
       <c r="K50" s="6">
         <f t="shared" si="3"/>
@@ -2205,27 +2208,33 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="5"/>
-      <c r="B51" s="6"/>
+      <c r="A51" s="5">
+        <v>43376</v>
+      </c>
+      <c r="B51" s="6">
+        <v>2636</v>
+      </c>
       <c r="C51" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2735</v>
       </c>
       <c r="D51" s="8" t="str">
         <f t="shared" si="4"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E51" s="8"/>
+      <c r="E51" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="G51" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I51" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="J51" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="K51" s="6">
         <f t="shared" si="3"/>
@@ -2234,26 +2243,30 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
-      <c r="B52" s="6"/>
+      <c r="B52" s="6">
+        <v>2735</v>
+      </c>
       <c r="C52" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D52" s="8">
+        <v>2808</v>
+      </c>
+      <c r="D52" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E52" s="8"/>
+        <v>John F. Kennedylaan 8, 7314PS, Apeldoorn</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G52" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I52" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="J52" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="K52" s="6">
         <f t="shared" si="3"/>
@@ -2262,26 +2275,30 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
-      <c r="B53" s="6"/>
+      <c r="B53" s="6">
+        <v>2808</v>
+      </c>
       <c r="C53" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E53" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G53" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I53" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-2808</v>
       </c>
       <c r="J53" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-2808</v>
       </c>
       <c r="K53" s="6">
         <f t="shared" si="3"/>
@@ -2295,9 +2312,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E54" s="8"/>
       <c r="G54" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F4A74E-280E-4EFF-B8ED-2FB6D0C42A56}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25D6417-B01D-4F95-9F7D-686921658D46}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="23">
   <si>
     <t>Datum</t>
   </si>
@@ -546,7 +546,7 @@
   <dimension ref="A1:K547"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="C53" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2876</v>
       </c>
       <c r="D53" s="8" t="str">
         <f t="shared" si="4"/>
@@ -2294,11 +2294,11 @@
       </c>
       <c r="I53" s="6">
         <f t="shared" si="5"/>
-        <v>-2808</v>
+        <v>68</v>
       </c>
       <c r="J53" s="6">
         <f t="shared" si="2"/>
-        <v>-2808</v>
+        <v>68</v>
       </c>
       <c r="K53" s="6">
         <f t="shared" si="3"/>
@@ -2306,27 +2306,33 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="5"/>
-      <c r="B54" s="6"/>
+      <c r="A54" s="5">
+        <v>43377</v>
+      </c>
+      <c r="B54" s="6">
+        <v>2876</v>
+      </c>
       <c r="C54" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2943</v>
       </c>
       <c r="D54" s="8" t="str">
         <f t="shared" si="4"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E54" s="8"/>
+      <c r="E54" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G54" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I54" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J54" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K54" s="6">
         <f t="shared" si="3"/>
@@ -2335,26 +2341,30 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
-      <c r="B55" s="6"/>
+      <c r="B55" s="6">
+        <v>2943</v>
+      </c>
       <c r="C55" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E55" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G55" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I55" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-2943</v>
       </c>
       <c r="J55" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-2943</v>
       </c>
       <c r="K55" s="6">
         <f t="shared" si="3"/>
@@ -2368,9 +2378,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E56" s="8"/>
       <c r="G56" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25D6417-B01D-4F95-9F7D-686921658D46}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C385DAD-DE31-432E-9CCB-77801001A470}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="23">
   <si>
     <t>Datum</t>
   </si>
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:K547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="C55" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3010</v>
       </c>
       <c r="D55" s="8" t="str">
         <f t="shared" si="4"/>
@@ -2360,11 +2360,11 @@
       </c>
       <c r="I55" s="6">
         <f t="shared" si="5"/>
-        <v>-2943</v>
+        <v>67</v>
       </c>
       <c r="J55" s="6">
         <f t="shared" si="2"/>
-        <v>-2943</v>
+        <v>67</v>
       </c>
       <c r="K55" s="6">
         <f t="shared" si="3"/>
@@ -2372,27 +2372,33 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="5"/>
-      <c r="B56" s="6"/>
+      <c r="A56" s="5">
+        <v>43378</v>
+      </c>
+      <c r="B56" s="6">
+        <v>3010</v>
+      </c>
       <c r="C56" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3078</v>
       </c>
       <c r="D56" s="8" t="str">
         <f t="shared" si="4"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E56" s="8"/>
+      <c r="E56" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G56" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I56" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J56" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K56" s="6">
         <f t="shared" si="3"/>
@@ -2401,26 +2407,30 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
-      <c r="B57" s="6"/>
+      <c r="B57" s="6">
+        <v>3078</v>
+      </c>
       <c r="C57" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E57" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G57" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I57" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3078</v>
       </c>
       <c r="J57" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-3078</v>
       </c>
       <c r="K57" s="6">
         <f t="shared" si="3"/>
@@ -2434,9 +2444,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D58" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E58" s="8"/>
       <c r="G58" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C385DAD-DE31-432E-9CCB-77801001A470}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CBC911-6A3E-4909-A855-B7049C5A3C58}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="25">
   <si>
     <t>Datum</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>John F. Kennedylaan 8, 7314PS, Apeldoorn</t>
+  </si>
+  <si>
+    <t>Dizzy Gillespiestraat 10, Zaandijk</t>
+  </si>
+  <si>
+    <t>Doktersland 20, Koog aan de Zaan</t>
   </si>
 </sst>
 </file>
@@ -545,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:K547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1505,8 +1511,8 @@
         <v>16</v>
       </c>
       <c r="I29" s="6">
-        <f>(C30-B30)</f>
-        <v>12</v>
+        <f>(C29-B29)</f>
+        <v>13</v>
       </c>
       <c r="J29" s="6">
         <f t="shared" si="2"/>
@@ -1514,7 +1520,7 @@
       </c>
       <c r="K29" s="6">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -1536,8 +1542,8 @@
         <v>16</v>
       </c>
       <c r="I30" s="6">
-        <f>(C31-B31)</f>
-        <v>68</v>
+        <f>(C30-B30)</f>
+        <v>12</v>
       </c>
       <c r="J30" s="6">
         <f t="shared" si="2"/>
@@ -1545,7 +1551,7 @@
       </c>
       <c r="K30" s="6">
         <f t="shared" si="3"/>
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -2412,7 +2418,7 @@
       </c>
       <c r="C57" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3145</v>
       </c>
       <c r="D57" s="8" t="str">
         <f t="shared" si="4"/>
@@ -2426,11 +2432,11 @@
       </c>
       <c r="I57" s="6">
         <f t="shared" si="5"/>
-        <v>-3078</v>
+        <v>67</v>
       </c>
       <c r="J57" s="6">
         <f t="shared" si="2"/>
-        <v>-3078</v>
+        <v>67</v>
       </c>
       <c r="K57" s="6">
         <f t="shared" si="3"/>
@@ -2438,23 +2444,29 @@
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="5"/>
-      <c r="B58" s="6"/>
+      <c r="A58" s="5">
+        <v>43380</v>
+      </c>
+      <c r="B58" s="6">
+        <v>3145</v>
+      </c>
       <c r="C58" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3153</v>
       </c>
       <c r="D58" s="8" t="str">
         <f t="shared" si="4"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E58" s="8"/>
-      <c r="G58" s="4" t="s">
-        <v>10</v>
+      <c r="E58" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="I58" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J58" s="6">
         <f t="shared" si="2"/>
@@ -2462,27 +2474,31 @@
       </c>
       <c r="K58" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="5"/>
-      <c r="B59" s="6"/>
+      <c r="B59" s="6">
+        <v>3153</v>
+      </c>
       <c r="C59" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D59" s="8">
+        <v>3156</v>
+      </c>
+      <c r="D59" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E59" s="8"/>
-      <c r="G59" s="4" t="s">
-        <v>10</v>
+        <v>Dizzy Gillespiestraat 10, Zaandijk</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="I59" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J59" s="6">
         <f t="shared" si="2"/>
@@ -2490,27 +2506,31 @@
       </c>
       <c r="K59" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
-      <c r="B60" s="6"/>
+      <c r="B60" s="6">
+        <v>3156</v>
+      </c>
       <c r="C60" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D60" s="8">
+        <v>3164</v>
+      </c>
+      <c r="D60" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E60" s="8"/>
-      <c r="G60" s="4" t="s">
-        <v>10</v>
+        <v>Doktersland 20, Koog aan de Zaan</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="I60" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J60" s="6">
         <f t="shared" si="2"/>
@@ -2518,31 +2538,37 @@
       </c>
       <c r="K60" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="5"/>
-      <c r="B61" s="6"/>
+      <c r="A61" s="5">
+        <v>43382</v>
+      </c>
+      <c r="B61" s="6">
+        <v>3164</v>
+      </c>
       <c r="C61" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D61" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E61" s="8"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G61" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I61" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3164</v>
       </c>
       <c r="J61" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-3164</v>
       </c>
       <c r="K61" s="6">
         <f t="shared" si="3"/>
@@ -2556,11 +2582,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D62" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E62" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G62" s="4" t="s">
         <v>10</v>
       </c>
@@ -2584,9 +2612,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E63" s="8"/>
       <c r="G63" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CBC911-6A3E-4909-A855-B7049C5A3C58}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2EC156-6E2C-408C-A5A4-D0F5AC567835}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:K547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2550,7 +2550,7 @@
       </c>
       <c r="C61" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3232</v>
       </c>
       <c r="D61" s="8" t="str">
         <f t="shared" si="4"/>
@@ -2564,11 +2564,11 @@
       </c>
       <c r="I61" s="6">
         <f t="shared" si="5"/>
-        <v>-3164</v>
+        <v>68</v>
       </c>
       <c r="J61" s="6">
         <f t="shared" si="2"/>
-        <v>-3164</v>
+        <v>68</v>
       </c>
       <c r="K61" s="6">
         <f t="shared" si="3"/>
@@ -2577,7 +2577,9 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="5"/>
-      <c r="B62" s="6"/>
+      <c r="B62" s="6">
+        <v>3232</v>
+      </c>
       <c r="C62" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2594,11 +2596,11 @@
       </c>
       <c r="I62" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3232</v>
       </c>
       <c r="J62" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-3232</v>
       </c>
       <c r="K62" s="6">
         <f t="shared" si="3"/>

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2EC156-6E2C-408C-A5A4-D0F5AC567835}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA396A1-7B4F-423A-B364-EF1FFA2E7E1B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -552,21 +552,21 @@
   <dimension ref="A1:K547"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="4" customWidth="1"/>
-    <col min="2" max="3" width="32.109375" style="4" customWidth="1"/>
-    <col min="4" max="5" width="39.88671875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="32.109375" style="7" customWidth="1"/>
-    <col min="7" max="9" width="32.109375" style="4" customWidth="1"/>
-    <col min="10" max="11" width="27.21875" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="4"/>
+    <col min="1" max="1" width="15.42578125" style="4" customWidth="1"/>
+    <col min="2" max="3" width="32.140625" style="4" customWidth="1"/>
+    <col min="4" max="5" width="39.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="32.140625" style="7" customWidth="1"/>
+    <col min="7" max="9" width="32.140625" style="4" customWidth="1"/>
+    <col min="10" max="11" width="27.28515625" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,7 +601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>43287</v>
       </c>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6">
         <v>10</v>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>43290</v>
       </c>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6">
         <v>146</v>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>43291</v>
       </c>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="6">
         <v>281</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>43293</v>
       </c>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="6">
         <v>416</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>43297</v>
       </c>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <v>499</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>43299</v>
       </c>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6">
         <v>532</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>43301</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="6">
         <v>616</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>43304</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="6">
         <v>751</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>43306</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6">
         <v>886</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>43307</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6">
         <v>1021</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>43310</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="6">
         <v>1092</v>
@@ -1326,7 +1326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="6">
         <v>1096</v>
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>43312</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <v>1165</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>43314</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="6">
         <v>1300</v>
@@ -1489,7 +1489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>43358</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" s="6">
         <v>1384</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>43360</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="6">
         <v>1464</v>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>43361</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="6">
         <v>1599</v>
@@ -1685,7 +1685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>43362</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="6">
         <v>1734</v>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>43363</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="6">
         <v>1869</v>
@@ -1817,7 +1817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>43367</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="6">
         <v>2004</v>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="6">
         <v>2052</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>43368</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="6">
         <v>2162</v>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="6">
         <v>2165</v>
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>43370</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="6">
         <v>2298</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>43371</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="6">
         <v>2433</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>43375</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="6">
         <v>2568</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>43376</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="6">
         <v>2735</v>
@@ -2279,7 +2279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="6">
         <v>2808</v>
@@ -2311,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>43377</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="6">
         <v>2943</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>43378</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="6">
         <v>3078</v>
@@ -2443,7 +2443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>43380</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="6">
         <v>3153</v>
@@ -2509,7 +2509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="6">
         <v>3156</v>
@@ -2541,7 +2541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>43382</v>
       </c>
@@ -2575,14 +2575,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" s="6">
         <v>3232</v>
       </c>
       <c r="C62" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3299</v>
       </c>
       <c r="D62" s="8" t="str">
         <f t="shared" si="4"/>
@@ -2596,23 +2596,27 @@
       </c>
       <c r="I62" s="6">
         <f t="shared" si="5"/>
-        <v>-3232</v>
+        <v>67</v>
       </c>
       <c r="J62" s="6">
         <f t="shared" si="2"/>
-        <v>-3232</v>
+        <v>67</v>
       </c>
       <c r="K62" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="5"/>
-      <c r="B63" s="6"/>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>43385</v>
+      </c>
+      <c r="B63" s="6">
+        <v>3299</v>
+      </c>
       <c r="C63" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3366</v>
       </c>
       <c r="D63" s="8" t="str">
         <f t="shared" si="4"/>
@@ -2624,20 +2628,22 @@
       </c>
       <c r="I63" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J63" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K63" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
-      <c r="B64" s="6"/>
+      <c r="B64" s="6">
+        <v>3366</v>
+      </c>
       <c r="C64" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2652,18 +2658,18 @@
       </c>
       <c r="I64" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3366</v>
       </c>
       <c r="J64" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-3366</v>
       </c>
       <c r="K64" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6">
@@ -2691,7 +2697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6">
@@ -2719,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6">
@@ -2747,7 +2753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6">
@@ -2775,7 +2781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6">
@@ -2803,7 +2809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6">
@@ -2831,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6">
@@ -2859,7 +2865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6">
@@ -2887,7 +2893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6">
@@ -2915,7 +2921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6">
@@ -2943,7 +2949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6">
@@ -2971,7 +2977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6">
@@ -2999,7 +3005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6">
@@ -3027,7 +3033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="10"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6">
@@ -3055,7 +3061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6">
@@ -3083,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="10"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6">
@@ -3112,7 +3118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="10"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6">
@@ -3140,7 +3146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6">
@@ -3169,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6">
@@ -3198,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6">
@@ -3226,7 +3232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6">
@@ -3255,7 +3261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="10"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6">
@@ -3283,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="10"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6">
@@ -3311,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="10"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6">
@@ -3340,7 +3346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6">
@@ -3368,7 +3374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="10"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6">
@@ -3396,7 +3402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="10"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6">
@@ -3424,7 +3430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="10"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6">
@@ -3452,7 +3458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6">
@@ -3480,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="10"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6">
@@ -3508,7 +3514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="10"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6">
@@ -3536,7 +3542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="10"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6">
@@ -3564,7 +3570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="10"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6">
@@ -3592,7 +3598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="10"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6">
@@ -3620,7 +3626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="10"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6">
@@ -3648,7 +3654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="10"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6">
@@ -3676,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="10"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6">
@@ -3704,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="10"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6">
@@ -3732,7 +3738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="10"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6">
@@ -3760,7 +3766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="10"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6">
@@ -3788,7 +3794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="10"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6">
@@ -3816,7 +3822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="10"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6">
@@ -3844,7 +3850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="10"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6">
@@ -3872,7 +3878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="10"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6">
@@ -3900,7 +3906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="10"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6">
@@ -3928,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="10"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6">
@@ -3956,7 +3962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="10"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6">
@@ -3984,7 +3990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="10"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6">
@@ -4012,7 +4018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="10"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6">
@@ -4040,7 +4046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="10"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6">
@@ -4068,7 +4074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="10"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6">
@@ -4096,7 +4102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="10"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6">
@@ -4124,7 +4130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="10"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6">
@@ -4152,7 +4158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="10"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6">
@@ -4180,7 +4186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="10"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6">
@@ -4208,7 +4214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="12"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6">
@@ -4236,7 +4242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="10"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6">
@@ -4264,7 +4270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="12"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6">
@@ -4292,7 +4298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="10"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6">
@@ -4320,7 +4326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="10"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6">
@@ -4349,7 +4355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="10"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6">
@@ -4377,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="10"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6">
@@ -4405,7 +4411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="10"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6">
@@ -4433,7 +4439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="10"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6">
@@ -4461,7 +4467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="10"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6">
@@ -4489,7 +4495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="10"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6">
@@ -4517,7 +4523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="10"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6">
@@ -4545,7 +4551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="10"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6">
@@ -4573,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="10"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6">
@@ -4601,7 +4607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="10"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6">
@@ -4629,7 +4635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="10"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6">
@@ -4657,7 +4663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="10"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6">
@@ -4685,7 +4691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="10"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6">
@@ -4713,7 +4719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="10"/>
       <c r="B138" s="13"/>
       <c r="C138" s="6">
@@ -4741,7 +4747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="10"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6">
@@ -4769,7 +4775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="10"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6">
@@ -4797,7 +4803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="10"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6">
@@ -4825,7 +4831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="10"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6">
@@ -4853,7 +4859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="10"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6">
@@ -4881,7 +4887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="10"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6">
@@ -4909,7 +4915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="10"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6">
@@ -4937,7 +4943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="10"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6">
@@ -4965,7 +4971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="11"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6">
@@ -4993,7 +4999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="10"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6">
@@ -5022,7 +5028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="11"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6">
@@ -5050,7 +5056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="10"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6">
@@ -5078,7 +5084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="11"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6">
@@ -5106,7 +5112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="10"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6">
@@ -5134,7 +5140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="11"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6">
@@ -5162,7 +5168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="10"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6">
@@ -5190,7 +5196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="11"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6">
@@ -5218,7 +5224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="10"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6">
@@ -5246,7 +5252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="11"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6">
@@ -5274,7 +5280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="10"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6">
@@ -5302,7 +5308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="10"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6">
@@ -5330,7 +5336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="11"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6">
@@ -5358,7 +5364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="10"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6">
@@ -5386,7 +5392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="11"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6">
@@ -5414,7 +5420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="10"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6">
@@ -5442,7 +5448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="11"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6">
@@ -5470,7 +5476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="10"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6">
@@ -5498,7 +5504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="11"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6">
@@ -5526,7 +5532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="10"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6">
@@ -5554,7 +5560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="11"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6">
@@ -5582,7 +5588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="10"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6">
@@ -5610,7 +5616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="11"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6">
@@ -5638,7 +5644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="10"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6">
@@ -5666,7 +5672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="11"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6">
@@ -5694,7 +5700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="10"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6">
@@ -5722,7 +5728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="11"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6">
@@ -5750,7 +5756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="10"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6">
@@ -5778,7 +5784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="11"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6">
@@ -5806,7 +5812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="10"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6">
@@ -5834,7 +5840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="11"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6">
@@ -5862,7 +5868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="10"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6">
@@ -5890,7 +5896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="11"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6">
@@ -5918,7 +5924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="10"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6">
@@ -5946,7 +5952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="11"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6">
@@ -5974,7 +5980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="10"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6">
@@ -6002,7 +6008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="11"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6">
@@ -6030,7 +6036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="10"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6">
@@ -6058,7 +6064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="11"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6">
@@ -6086,7 +6092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="10"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6">
@@ -6114,7 +6120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="11"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6">
@@ -6142,7 +6148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="10"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6">
@@ -6171,7 +6177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="10"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6">
@@ -6199,7 +6205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="11"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6">
@@ -6227,7 +6233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="10"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6">
@@ -6255,7 +6261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="11"/>
       <c r="B193" s="6"/>
       <c r="C193" s="6">
@@ -6283,7 +6289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="10"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6">
@@ -6311,7 +6317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="11"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6">
@@ -6339,7 +6345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="10"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6">
@@ -6367,7 +6373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="11"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6">
@@ -6395,7 +6401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="10"/>
       <c r="B198" s="6"/>
       <c r="C198" s="6">
@@ -6423,7 +6429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="11"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6">
@@ -6451,7 +6457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="10"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6">
@@ -6479,7 +6485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="11"/>
       <c r="B201" s="6"/>
       <c r="C201" s="6">
@@ -6507,7 +6513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="10"/>
       <c r="B202" s="6"/>
       <c r="C202" s="6">
@@ -6535,7 +6541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="11"/>
       <c r="B203" s="6"/>
       <c r="C203" s="6">
@@ -6563,7 +6569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="10"/>
       <c r="B204" s="6"/>
       <c r="C204" s="6">
@@ -6591,7 +6597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="11"/>
       <c r="B205" s="6"/>
       <c r="C205" s="6">
@@ -6619,7 +6625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="10"/>
       <c r="B206" s="6"/>
       <c r="C206" s="6">
@@ -6647,7 +6653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="11"/>
       <c r="B207" s="6"/>
       <c r="C207" s="6">
@@ -6675,7 +6681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="10"/>
       <c r="B208" s="6"/>
       <c r="C208" s="6">
@@ -6703,7 +6709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="11"/>
       <c r="B209" s="6"/>
       <c r="C209" s="6">
@@ -6731,7 +6737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="11"/>
       <c r="B210" s="6"/>
       <c r="C210" s="6">
@@ -6759,7 +6765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="11"/>
       <c r="B211" s="6"/>
       <c r="C211" s="6">
@@ -6787,7 +6793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="10"/>
       <c r="B212" s="6"/>
       <c r="C212" s="6">
@@ -6815,7 +6821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="11"/>
       <c r="B213" s="6"/>
       <c r="C213" s="6">
@@ -6843,7 +6849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="10"/>
       <c r="B214" s="6"/>
       <c r="C214" s="6">
@@ -6871,7 +6877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="11"/>
       <c r="B215" s="6"/>
       <c r="C215" s="6">
@@ -6899,7 +6905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="10"/>
       <c r="B216" s="6"/>
       <c r="C216" s="6">
@@ -6927,7 +6933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="11"/>
       <c r="B217" s="6"/>
       <c r="C217" s="6">
@@ -6955,7 +6961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="11"/>
       <c r="B218" s="6"/>
       <c r="C218" s="6">
@@ -6983,7 +6989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="11"/>
       <c r="B219" s="6"/>
       <c r="C219" s="6">
@@ -7011,7 +7017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="11"/>
       <c r="B220" s="6"/>
       <c r="C220" s="6">
@@ -7039,7 +7045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="11"/>
       <c r="B221" s="6"/>
       <c r="C221" s="6">
@@ -7067,7 +7073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="11"/>
       <c r="B222" s="6"/>
       <c r="C222" s="6">
@@ -7095,7 +7101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="11"/>
       <c r="B223" s="6"/>
       <c r="C223" s="6">
@@ -7123,7 +7129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="11"/>
       <c r="B224" s="6"/>
       <c r="C224" s="6">
@@ -7151,7 +7157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="11"/>
       <c r="B225" s="6"/>
       <c r="C225" s="6">
@@ -7179,7 +7185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="11"/>
       <c r="B226" s="6"/>
       <c r="C226" s="6">
@@ -7207,7 +7213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="11"/>
       <c r="B227" s="6"/>
       <c r="C227" s="6">
@@ -7235,7 +7241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="11"/>
       <c r="B228" s="6"/>
       <c r="C228" s="6">
@@ -7263,7 +7269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="11"/>
       <c r="B229" s="6"/>
       <c r="C229" s="6">
@@ -7291,7 +7297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="11"/>
       <c r="B230" s="6"/>
       <c r="C230" s="6">
@@ -7319,7 +7325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="11"/>
       <c r="B231" s="6"/>
       <c r="C231" s="6">
@@ -7347,7 +7353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="11"/>
       <c r="B232" s="6"/>
       <c r="C232" s="6">
@@ -7375,7 +7381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="11"/>
       <c r="B233" s="6"/>
       <c r="C233" s="6">
@@ -7403,7 +7409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="11"/>
       <c r="B234" s="6"/>
       <c r="C234" s="6">
@@ -7431,7 +7437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="11"/>
       <c r="B235" s="6"/>
       <c r="C235" s="6">
@@ -7459,7 +7465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="11"/>
       <c r="B236" s="6"/>
       <c r="C236" s="6">
@@ -7487,7 +7493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="11"/>
       <c r="B237" s="6"/>
       <c r="C237" s="6">
@@ -7515,7 +7521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="11"/>
       <c r="B238" s="6"/>
       <c r="C238" s="6">
@@ -7543,7 +7549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="11"/>
       <c r="B239" s="6"/>
       <c r="C239" s="6">
@@ -7571,7 +7577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="11"/>
       <c r="B240" s="6"/>
       <c r="C240" s="6">
@@ -7599,7 +7605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="11"/>
       <c r="B241" s="6"/>
       <c r="C241" s="6">
@@ -7627,7 +7633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="11"/>
       <c r="B242" s="6"/>
       <c r="C242" s="6">
@@ -7655,7 +7661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="11"/>
       <c r="B243" s="6"/>
       <c r="C243" s="6">
@@ -7683,7 +7689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="11"/>
       <c r="B244" s="6"/>
       <c r="C244" s="6">
@@ -7711,7 +7717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="11"/>
       <c r="B245" s="6"/>
       <c r="C245" s="6">
@@ -7739,7 +7745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="11"/>
       <c r="B246" s="6"/>
       <c r="C246" s="6">
@@ -7767,7 +7773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="11"/>
       <c r="B247" s="6"/>
       <c r="C247" s="6">
@@ -7795,7 +7801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="11"/>
       <c r="B248" s="6"/>
       <c r="C248" s="6">
@@ -7823,7 +7829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="11"/>
       <c r="B249" s="6"/>
       <c r="C249" s="6">
@@ -7851,7 +7857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="11"/>
       <c r="B250" s="6"/>
       <c r="C250" s="6">
@@ -7879,7 +7885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="11"/>
       <c r="B251" s="6"/>
       <c r="C251" s="6">
@@ -7907,7 +7913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="11"/>
       <c r="B252" s="6"/>
       <c r="C252" s="6">
@@ -7935,7 +7941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="11"/>
       <c r="B253" s="6"/>
       <c r="C253" s="6">
@@ -7963,7 +7969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="11"/>
       <c r="B254" s="6"/>
       <c r="C254" s="6">
@@ -7991,7 +7997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="11"/>
       <c r="B255" s="6"/>
       <c r="C255" s="6">
@@ -8019,7 +8025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="11"/>
       <c r="B256" s="6"/>
       <c r="C256" s="6">
@@ -8047,7 +8053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="11"/>
       <c r="B257" s="6"/>
       <c r="C257" s="6">
@@ -8075,7 +8081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="11"/>
       <c r="B258" s="6"/>
       <c r="C258" s="6">
@@ -8103,7 +8109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="11"/>
       <c r="B259" s="6"/>
       <c r="C259" s="6">
@@ -8131,7 +8137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="11"/>
       <c r="B260" s="6"/>
       <c r="C260" s="6">
@@ -8159,7 +8165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="11"/>
       <c r="B261" s="6"/>
       <c r="C261" s="6">
@@ -8187,7 +8193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="11"/>
       <c r="B262" s="6"/>
       <c r="C262" s="6">
@@ -8215,7 +8221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="11"/>
       <c r="B263" s="6"/>
       <c r="C263" s="6">
@@ -8243,7 +8249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="11"/>
       <c r="B264" s="6"/>
       <c r="C264" s="6">
@@ -8271,7 +8277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="11"/>
       <c r="B265" s="6"/>
       <c r="C265" s="6">
@@ -8299,7 +8305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="11"/>
       <c r="B266" s="6"/>
       <c r="C266" s="6">
@@ -8327,7 +8333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="11"/>
       <c r="B267" s="6"/>
       <c r="C267" s="6">
@@ -8355,7 +8361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="11"/>
       <c r="B268" s="6"/>
       <c r="C268" s="6">
@@ -8383,7 +8389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="11"/>
       <c r="B269" s="6"/>
       <c r="C269" s="6">
@@ -8411,7 +8417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="11"/>
       <c r="B270" s="6"/>
       <c r="C270" s="6">
@@ -8439,7 +8445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="11"/>
       <c r="B271" s="6"/>
       <c r="C271" s="6">
@@ -8467,7 +8473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="11"/>
       <c r="B272" s="6"/>
       <c r="C272" s="6">
@@ -8495,7 +8501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="11"/>
       <c r="B273" s="6"/>
       <c r="C273" s="6">
@@ -8523,7 +8529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="11"/>
       <c r="B274" s="6"/>
       <c r="C274" s="6">
@@ -8551,7 +8557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="11"/>
       <c r="B275" s="6"/>
       <c r="C275" s="6">
@@ -8579,7 +8585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="11"/>
       <c r="B276" s="6"/>
       <c r="C276" s="6">
@@ -8607,7 +8613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="11"/>
       <c r="B277" s="6"/>
       <c r="C277" s="6">
@@ -8635,7 +8641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="11"/>
       <c r="B278" s="6"/>
       <c r="C278" s="6">
@@ -8663,7 +8669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="11"/>
       <c r="B279" s="6"/>
       <c r="C279" s="6">
@@ -8691,7 +8697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="11"/>
       <c r="B280" s="6"/>
       <c r="C280" s="6">
@@ -8719,7 +8725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="11"/>
       <c r="B281" s="6"/>
       <c r="C281" s="6">
@@ -8747,7 +8753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="11"/>
       <c r="B282" s="6"/>
       <c r="C282" s="6">
@@ -8775,7 +8781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="11"/>
       <c r="B283" s="6"/>
       <c r="C283" s="6">
@@ -8803,7 +8809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="11"/>
       <c r="B284" s="6"/>
       <c r="C284" s="6">
@@ -8831,7 +8837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="11"/>
       <c r="B285" s="6"/>
       <c r="C285" s="6">
@@ -8859,7 +8865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="11"/>
       <c r="B286" s="6"/>
       <c r="C286" s="6">
@@ -8887,7 +8893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="11"/>
       <c r="B287" s="6"/>
       <c r="C287" s="6">
@@ -8915,7 +8921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="11"/>
       <c r="B288" s="6"/>
       <c r="C288" s="6">
@@ -8943,7 +8949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="11"/>
       <c r="B289" s="6"/>
       <c r="C289" s="6">
@@ -8971,7 +8977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="11"/>
       <c r="B290" s="6"/>
       <c r="C290" s="6">
@@ -8999,7 +9005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="6"/>
       <c r="B291" s="6"/>
       <c r="C291" s="6">
@@ -9027,7 +9033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="6"/>
       <c r="B292" s="6"/>
       <c r="C292" s="6">
@@ -9055,7 +9061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="6"/>
       <c r="B293" s="6"/>
       <c r="C293" s="6">
@@ -9083,7 +9089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="6"/>
       <c r="B294" s="6"/>
       <c r="C294" s="6">
@@ -9111,7 +9117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="6"/>
       <c r="B295" s="6"/>
       <c r="C295" s="6">
@@ -9139,7 +9145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="6"/>
       <c r="B296" s="6"/>
       <c r="C296" s="6">
@@ -9167,7 +9173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="6"/>
       <c r="B297" s="6"/>
       <c r="C297" s="6">
@@ -9195,7 +9201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="6"/>
       <c r="B298" s="6"/>
       <c r="C298" s="6">
@@ -9223,7 +9229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="6"/>
       <c r="B299" s="6"/>
       <c r="C299" s="6">
@@ -9251,7 +9257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="6"/>
       <c r="B300" s="6"/>
       <c r="C300" s="6">
@@ -9279,7 +9285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="6"/>
       <c r="B301" s="6"/>
       <c r="C301" s="6">
@@ -9307,7 +9313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="6"/>
       <c r="B302" s="6"/>
       <c r="C302" s="6">
@@ -9335,7 +9341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="6"/>
       <c r="B303" s="6"/>
       <c r="C303" s="6">
@@ -9363,7 +9369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="6"/>
       <c r="B304" s="6"/>
       <c r="C304" s="6">
@@ -9391,7 +9397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="6"/>
       <c r="B305" s="6"/>
       <c r="C305" s="6">
@@ -9419,7 +9425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="6"/>
       <c r="B306" s="6"/>
       <c r="C306" s="6">
@@ -9447,7 +9453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="6"/>
       <c r="B307" s="6"/>
       <c r="C307" s="6">
@@ -9475,7 +9481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="6"/>
       <c r="B308" s="6"/>
       <c r="C308" s="6">
@@ -9503,7 +9509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="6"/>
       <c r="B309" s="6"/>
       <c r="C309" s="6">
@@ -9531,7 +9537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="6"/>
       <c r="B310" s="6"/>
       <c r="C310" s="6">
@@ -9559,7 +9565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="6"/>
       <c r="B311" s="6"/>
       <c r="C311" s="6">
@@ -9587,7 +9593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="6"/>
       <c r="B312" s="6"/>
       <c r="C312" s="6">
@@ -9615,7 +9621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="6"/>
       <c r="B313" s="6"/>
       <c r="C313" s="6">
@@ -9643,7 +9649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="6"/>
       <c r="B314" s="6"/>
       <c r="C314" s="6">
@@ -9671,7 +9677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="6"/>
       <c r="B315" s="6"/>
       <c r="C315" s="6">
@@ -9699,7 +9705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="6"/>
       <c r="B316" s="6"/>
       <c r="C316" s="6">
@@ -9727,7 +9733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="6"/>
       <c r="B317" s="6"/>
       <c r="C317" s="6">
@@ -9755,7 +9761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="6"/>
       <c r="B318" s="6"/>
       <c r="C318" s="6">
@@ -9783,7 +9789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="6"/>
       <c r="B319" s="6"/>
       <c r="C319" s="6">
@@ -9811,7 +9817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="14"/>
       <c r="B320" s="6"/>
       <c r="C320" s="6">
@@ -9839,7 +9845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="14"/>
       <c r="B321" s="6"/>
       <c r="C321" s="6">
@@ -9867,7 +9873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="14"/>
       <c r="B322" s="6"/>
       <c r="C322" s="6">
@@ -9895,7 +9901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="14"/>
       <c r="B323" s="6"/>
       <c r="C323" s="6">
@@ -9923,7 +9929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="14"/>
       <c r="B324" s="6"/>
       <c r="C324" s="6">
@@ -9951,7 +9957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="14"/>
       <c r="B325" s="6"/>
       <c r="C325" s="6">
@@ -9979,7 +9985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="14"/>
       <c r="B326" s="6"/>
       <c r="C326" s="6">
@@ -10007,7 +10013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="14"/>
       <c r="B327" s="6"/>
       <c r="C327" s="6">
@@ -10035,7 +10041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="14"/>
       <c r="B328" s="6"/>
       <c r="C328" s="6">
@@ -10063,7 +10069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="14"/>
       <c r="B329" s="6"/>
       <c r="C329" s="6">
@@ -10091,7 +10097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="14"/>
       <c r="B330" s="6"/>
       <c r="C330" s="6">
@@ -10119,7 +10125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="14"/>
       <c r="B331" s="6"/>
       <c r="C331" s="6">
@@ -10147,7 +10153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="14"/>
       <c r="B332" s="6"/>
       <c r="C332" s="6">
@@ -10175,7 +10181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="14"/>
       <c r="B333" s="6"/>
       <c r="C333" s="6">
@@ -10203,7 +10209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="14"/>
       <c r="B334" s="6"/>
       <c r="C334" s="6">
@@ -10231,7 +10237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="14"/>
       <c r="B335" s="6"/>
       <c r="C335" s="6">
@@ -10259,7 +10265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="14"/>
       <c r="B336" s="6"/>
       <c r="C336" s="6">
@@ -10288,7 +10294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="6"/>
       <c r="B337" s="6"/>
       <c r="C337" s="6">
@@ -10316,7 +10322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="6"/>
       <c r="B338" s="6"/>
       <c r="C338" s="6">
@@ -10344,7 +10350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="6"/>
       <c r="B339" s="6"/>
       <c r="C339" s="6">
@@ -10372,7 +10378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="6"/>
       <c r="B340" s="6"/>
       <c r="C340" s="6">
@@ -10400,7 +10406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="6"/>
       <c r="B341" s="6"/>
       <c r="C341" s="6">
@@ -10428,7 +10434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="6"/>
       <c r="B342" s="6"/>
       <c r="C342" s="6">
@@ -10456,7 +10462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="6"/>
       <c r="B343" s="6"/>
       <c r="C343" s="6">
@@ -10484,7 +10490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="6"/>
       <c r="B344" s="6"/>
       <c r="C344" s="6">
@@ -10512,7 +10518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="6"/>
       <c r="B345" s="6"/>
       <c r="C345" s="6">
@@ -10540,7 +10546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="6"/>
       <c r="B346" s="6"/>
       <c r="C346" s="6">
@@ -10568,7 +10574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="6"/>
       <c r="B347" s="6"/>
       <c r="C347" s="6">
@@ -10596,7 +10602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="6"/>
       <c r="B348" s="6"/>
       <c r="C348" s="6">
@@ -10624,7 +10630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="6"/>
       <c r="B349" s="6"/>
       <c r="C349" s="6">
@@ -10652,7 +10658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="6"/>
       <c r="B350" s="6"/>
       <c r="C350" s="6">
@@ -10680,7 +10686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="6"/>
       <c r="B351" s="6"/>
       <c r="C351" s="6">
@@ -10708,7 +10714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="6"/>
       <c r="B352" s="6"/>
       <c r="C352" s="6">
@@ -10736,7 +10742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="6"/>
       <c r="B353" s="6"/>
       <c r="C353" s="6">
@@ -10764,7 +10770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="6"/>
       <c r="B354" s="6"/>
       <c r="C354" s="6">
@@ -10792,7 +10798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="6"/>
       <c r="B355" s="6"/>
       <c r="C355" s="6">
@@ -10820,7 +10826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="6"/>
       <c r="B356" s="6"/>
       <c r="C356" s="6">
@@ -10848,7 +10854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="6"/>
       <c r="B357" s="6"/>
       <c r="C357" s="6">
@@ -10876,7 +10882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="6"/>
       <c r="B358" s="6"/>
       <c r="C358" s="6">
@@ -10904,7 +10910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="6"/>
       <c r="B359" s="6"/>
       <c r="C359" s="6">
@@ -10932,7 +10938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="6"/>
       <c r="B360" s="6"/>
       <c r="C360" s="6">
@@ -10960,7 +10966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="6"/>
       <c r="B361" s="6"/>
       <c r="C361" s="6">
@@ -10988,7 +10994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="6"/>
       <c r="B362" s="6"/>
       <c r="C362" s="6">
@@ -11016,7 +11022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="6"/>
       <c r="B363" s="6"/>
       <c r="C363" s="6">
@@ -11044,7 +11050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="6"/>
       <c r="B364" s="6"/>
       <c r="C364" s="6">
@@ -11072,7 +11078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="6"/>
       <c r="B365" s="6"/>
       <c r="C365" s="6">
@@ -11100,7 +11106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="6"/>
       <c r="B366" s="6"/>
       <c r="C366" s="6">
@@ -11128,7 +11134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="6"/>
       <c r="B367" s="6"/>
       <c r="C367" s="6">
@@ -11156,7 +11162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="6"/>
       <c r="B368" s="6"/>
       <c r="C368" s="6">
@@ -11184,7 +11190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="6"/>
       <c r="B369" s="6"/>
       <c r="C369" s="6">
@@ -11212,7 +11218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="6"/>
       <c r="B370" s="6"/>
       <c r="C370" s="6">
@@ -11240,7 +11246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="6"/>
       <c r="B371" s="6"/>
       <c r="C371" s="6">
@@ -11268,7 +11274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="6"/>
       <c r="B372" s="6"/>
       <c r="C372" s="6">
@@ -11296,7 +11302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="6"/>
       <c r="B373" s="6"/>
       <c r="C373" s="6">
@@ -11324,7 +11330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="6"/>
       <c r="B374" s="6"/>
       <c r="C374" s="6">
@@ -11352,7 +11358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="6"/>
       <c r="B375" s="6"/>
       <c r="C375" s="6">
@@ -11380,7 +11386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="6"/>
       <c r="B376" s="6"/>
       <c r="C376" s="6">
@@ -11408,7 +11414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="6"/>
       <c r="B377" s="6"/>
       <c r="C377" s="6">
@@ -11436,7 +11442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="6"/>
       <c r="B378" s="6"/>
       <c r="C378" s="6">
@@ -11464,7 +11470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="6"/>
       <c r="B379" s="6"/>
       <c r="C379" s="6">
@@ -11492,7 +11498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="6"/>
       <c r="B380" s="6"/>
       <c r="C380" s="6">
@@ -11520,7 +11526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="6"/>
       <c r="B381" s="6"/>
       <c r="C381" s="6">
@@ -11548,7 +11554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="6"/>
       <c r="B382" s="6"/>
       <c r="C382" s="6">
@@ -11576,7 +11582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="6"/>
       <c r="B383" s="6"/>
       <c r="C383" s="6">
@@ -11604,7 +11610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="6"/>
       <c r="B384" s="6"/>
       <c r="C384" s="6">
@@ -11632,7 +11638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="6"/>
       <c r="B385" s="6"/>
       <c r="C385" s="6">
@@ -11660,7 +11666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="6"/>
       <c r="B386" s="6"/>
       <c r="C386" s="6">
@@ -11688,7 +11694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="6"/>
       <c r="B387" s="6"/>
       <c r="C387" s="6">
@@ -11716,7 +11722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="6"/>
       <c r="B388" s="6"/>
       <c r="C388" s="6">
@@ -11744,7 +11750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="6"/>
       <c r="B389" s="6"/>
       <c r="C389" s="6">
@@ -11772,7 +11778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="6"/>
       <c r="B390" s="6"/>
       <c r="C390" s="6">
@@ -11800,7 +11806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="6"/>
       <c r="B391" s="6"/>
       <c r="C391" s="6">
@@ -11828,7 +11834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="6"/>
       <c r="B392" s="6"/>
       <c r="C392" s="6">
@@ -11856,7 +11862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="6"/>
       <c r="B393" s="6"/>
       <c r="C393" s="6">
@@ -11884,7 +11890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="6"/>
       <c r="B394" s="6"/>
       <c r="C394" s="6">
@@ -11912,7 +11918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="6"/>
       <c r="B395" s="6"/>
       <c r="C395" s="6">
@@ -11940,7 +11946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="6"/>
       <c r="B396" s="6"/>
       <c r="C396" s="6">
@@ -11968,7 +11974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="6"/>
       <c r="B397" s="6"/>
       <c r="C397" s="6">
@@ -11996,7 +12002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="6"/>
       <c r="B398" s="6"/>
       <c r="C398" s="6">
@@ -12024,7 +12030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="6"/>
       <c r="B399" s="6"/>
       <c r="C399" s="6">
@@ -12052,7 +12058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="6"/>
       <c r="B400" s="6"/>
       <c r="C400" s="6">
@@ -12080,7 +12086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="6"/>
       <c r="B401" s="6"/>
       <c r="C401" s="6">
@@ -12108,7 +12114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="6"/>
       <c r="B402" s="6"/>
       <c r="C402" s="6">
@@ -12136,7 +12142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="6"/>
       <c r="B403" s="6"/>
       <c r="C403" s="6">
@@ -12164,7 +12170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="6"/>
       <c r="B404" s="6"/>
       <c r="C404" s="6">
@@ -12192,7 +12198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="6"/>
       <c r="B405" s="6"/>
       <c r="C405" s="6">
@@ -12220,7 +12226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="6"/>
       <c r="B406" s="6"/>
       <c r="C406" s="6">
@@ -12248,7 +12254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="6"/>
       <c r="B407" s="6"/>
       <c r="C407" s="6">
@@ -12276,7 +12282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="6"/>
       <c r="B408" s="6"/>
       <c r="C408" s="6">
@@ -12304,7 +12310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="6"/>
       <c r="B409" s="6"/>
       <c r="C409" s="6">
@@ -12332,7 +12338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="6"/>
       <c r="B410" s="6"/>
       <c r="C410" s="6">
@@ -12360,7 +12366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="6"/>
       <c r="B411" s="6"/>
       <c r="C411" s="6">
@@ -12388,7 +12394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="6"/>
       <c r="B412" s="6"/>
       <c r="C412" s="6">
@@ -12416,7 +12422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="6"/>
       <c r="B413" s="6"/>
       <c r="C413" s="6">
@@ -12444,7 +12450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="6"/>
       <c r="B414" s="6"/>
       <c r="C414" s="6">
@@ -12472,7 +12478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="6"/>
       <c r="B415" s="6"/>
       <c r="C415" s="6">
@@ -12500,7 +12506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="6"/>
       <c r="B416" s="6"/>
       <c r="C416" s="6">
@@ -12528,7 +12534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="6"/>
       <c r="B417" s="6"/>
       <c r="C417" s="6">
@@ -12556,7 +12562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="6"/>
       <c r="B418" s="6"/>
       <c r="C418" s="6">
@@ -12584,7 +12590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="6"/>
       <c r="B419" s="6"/>
       <c r="C419" s="6">
@@ -12612,7 +12618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="6"/>
       <c r="B420" s="6"/>
       <c r="C420" s="6">
@@ -12640,7 +12646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="6"/>
       <c r="B421" s="6"/>
       <c r="C421" s="6">
@@ -12668,7 +12674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="6"/>
       <c r="B422" s="6"/>
       <c r="C422" s="6">
@@ -12696,7 +12702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="6"/>
       <c r="B423" s="6"/>
       <c r="C423" s="6">
@@ -12724,7 +12730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="6"/>
       <c r="B424" s="6"/>
       <c r="C424" s="6">
@@ -12752,7 +12758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="6"/>
       <c r="B425" s="6"/>
       <c r="C425" s="6">
@@ -12780,7 +12786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="6"/>
       <c r="B426" s="6"/>
       <c r="C426" s="6">
@@ -12808,7 +12814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="6"/>
       <c r="B427" s="6"/>
       <c r="C427" s="6">
@@ -12836,7 +12842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="6"/>
       <c r="B428" s="6"/>
       <c r="C428" s="6">
@@ -12864,7 +12870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="6"/>
       <c r="B429" s="6"/>
       <c r="C429" s="6">
@@ -12892,7 +12898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="6"/>
       <c r="B430" s="6"/>
       <c r="C430" s="6">
@@ -12920,7 +12926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="6"/>
       <c r="B431" s="6"/>
       <c r="C431" s="6">
@@ -12948,7 +12954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="6"/>
       <c r="B432" s="6"/>
       <c r="C432" s="6">
@@ -12976,7 +12982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="6"/>
       <c r="B433" s="6"/>
       <c r="C433" s="6">
@@ -13004,7 +13010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="6"/>
       <c r="B434" s="6"/>
       <c r="C434" s="6">
@@ -13032,7 +13038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="6"/>
       <c r="B435" s="6"/>
       <c r="C435" s="6">
@@ -13060,7 +13066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="6"/>
       <c r="B436" s="6"/>
       <c r="C436" s="6">
@@ -13088,7 +13094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="6"/>
       <c r="B437" s="6"/>
       <c r="C437" s="6">
@@ -13116,7 +13122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="6"/>
       <c r="B438" s="6"/>
       <c r="C438" s="6">
@@ -13144,7 +13150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="6"/>
       <c r="B439" s="6"/>
       <c r="C439" s="6">
@@ -13172,7 +13178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="6"/>
       <c r="B440" s="6"/>
       <c r="C440" s="6">
@@ -13200,7 +13206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="6"/>
       <c r="B441" s="6"/>
       <c r="C441" s="6">
@@ -13228,7 +13234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="6"/>
       <c r="B442" s="6"/>
       <c r="C442" s="6">
@@ -13256,7 +13262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="6"/>
       <c r="B443" s="6"/>
       <c r="C443" s="6">
@@ -13284,7 +13290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="6"/>
       <c r="B444" s="6"/>
       <c r="C444" s="6">
@@ -13312,7 +13318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="6"/>
       <c r="B445" s="6"/>
       <c r="C445" s="6">
@@ -13340,7 +13346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="6"/>
       <c r="B446" s="6"/>
       <c r="C446" s="6">
@@ -13368,7 +13374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="6"/>
       <c r="B447" s="6"/>
       <c r="C447" s="6">
@@ -13396,7 +13402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="6"/>
       <c r="B448" s="6"/>
       <c r="C448" s="6">
@@ -13424,7 +13430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="6"/>
       <c r="B449" s="6"/>
       <c r="C449" s="6">
@@ -13452,7 +13458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="6"/>
       <c r="B450" s="6"/>
       <c r="C450" s="6">
@@ -13480,7 +13486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="6"/>
       <c r="B451" s="6"/>
       <c r="C451" s="6">
@@ -13508,7 +13514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="6"/>
       <c r="B452" s="6"/>
       <c r="C452" s="6">
@@ -13536,7 +13542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="6"/>
       <c r="B453" s="6"/>
       <c r="C453" s="6">
@@ -13564,7 +13570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="6"/>
       <c r="B454" s="6"/>
       <c r="C454" s="6">
@@ -13592,7 +13598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="6"/>
       <c r="B455" s="6"/>
       <c r="C455" s="6">
@@ -13620,7 +13626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="6"/>
       <c r="B456" s="6"/>
       <c r="C456" s="6">
@@ -13648,7 +13654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="6"/>
       <c r="B457" s="6"/>
       <c r="C457" s="6">
@@ -13676,7 +13682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="6"/>
       <c r="B458" s="6"/>
       <c r="C458" s="6">
@@ -13704,7 +13710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="6"/>
       <c r="B459" s="6"/>
       <c r="C459" s="6">
@@ -13732,7 +13738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="6"/>
       <c r="B460" s="6"/>
       <c r="C460" s="6">
@@ -13760,7 +13766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="6"/>
       <c r="B461" s="6"/>
       <c r="C461" s="6">
@@ -13788,7 +13794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="6"/>
       <c r="B462" s="6"/>
       <c r="C462" s="6">
@@ -13816,7 +13822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="6"/>
       <c r="B463" s="6"/>
       <c r="C463" s="6">
@@ -13844,7 +13850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="6"/>
       <c r="B464" s="6"/>
       <c r="C464" s="6">
@@ -13872,7 +13878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="6"/>
       <c r="B465" s="6"/>
       <c r="C465" s="6">
@@ -13900,7 +13906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="6"/>
       <c r="B466" s="6"/>
       <c r="C466" s="6">
@@ -13928,7 +13934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="6"/>
       <c r="B467" s="6"/>
       <c r="C467" s="6">
@@ -13956,7 +13962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="6"/>
       <c r="B468" s="6"/>
       <c r="C468" s="6">
@@ -13984,7 +13990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="6"/>
       <c r="B469" s="6"/>
       <c r="C469" s="6">
@@ -14012,7 +14018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="6"/>
       <c r="B470" s="6"/>
       <c r="C470" s="6">
@@ -14040,7 +14046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="6"/>
       <c r="B471" s="6"/>
       <c r="C471" s="6">
@@ -14068,7 +14074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="6"/>
       <c r="B472" s="6"/>
       <c r="C472" s="6">
@@ -14096,7 +14102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="6"/>
       <c r="B473" s="6"/>
       <c r="C473" s="6">
@@ -14124,7 +14130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="6"/>
       <c r="B474" s="6"/>
       <c r="C474" s="6">
@@ -14152,7 +14158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="6"/>
       <c r="B475" s="6"/>
       <c r="C475" s="6">
@@ -14180,7 +14186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="6"/>
       <c r="B476" s="6"/>
       <c r="C476" s="6">
@@ -14208,7 +14214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="6"/>
       <c r="B477" s="6"/>
       <c r="C477" s="6">
@@ -14236,7 +14242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="6"/>
       <c r="B478" s="6"/>
       <c r="C478" s="6">
@@ -14264,7 +14270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="6"/>
       <c r="B479" s="6"/>
       <c r="C479" s="6">
@@ -14292,7 +14298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="6"/>
       <c r="B480" s="6"/>
       <c r="C480" s="6">
@@ -14320,7 +14326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="6"/>
       <c r="B481" s="6"/>
       <c r="C481" s="6">
@@ -14348,7 +14354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="6"/>
       <c r="B482" s="6"/>
       <c r="C482" s="6">
@@ -14376,7 +14382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="6"/>
       <c r="B483" s="6"/>
       <c r="C483" s="6">
@@ -14404,7 +14410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="6"/>
       <c r="B484" s="6"/>
       <c r="C484" s="6">
@@ -14432,7 +14438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="6"/>
       <c r="B485" s="6"/>
       <c r="C485" s="6">
@@ -14460,7 +14466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="6"/>
       <c r="B486" s="6"/>
       <c r="C486" s="6"/>
@@ -14480,7 +14486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="6"/>
       <c r="B487" s="6"/>
       <c r="C487" s="6"/>
@@ -14500,7 +14506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="6"/>
       <c r="B488" s="6"/>
       <c r="C488" s="6"/>
@@ -14520,7 +14526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="6"/>
       <c r="B489" s="6"/>
       <c r="C489" s="6"/>
@@ -14540,7 +14546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="6"/>
       <c r="B490" s="6"/>
       <c r="C490" s="6"/>
@@ -14560,7 +14566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="6"/>
       <c r="B491" s="6"/>
       <c r="C491" s="6"/>
@@ -14580,7 +14586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="6"/>
       <c r="B492" s="6"/>
       <c r="C492" s="6"/>
@@ -14600,7 +14606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="6"/>
       <c r="B493" s="6"/>
       <c r="C493" s="6"/>
@@ -14620,7 +14626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="6"/>
       <c r="B494" s="6"/>
       <c r="C494" s="6"/>
@@ -14640,7 +14646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="6"/>
       <c r="B495" s="6"/>
       <c r="C495" s="6"/>
@@ -14660,7 +14666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="6"/>
       <c r="B496" s="6"/>
       <c r="C496" s="6"/>
@@ -14680,7 +14686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="6"/>
       <c r="B497" s="6"/>
       <c r="C497" s="6"/>
@@ -14700,7 +14706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="6"/>
       <c r="B498" s="6"/>
       <c r="C498" s="6"/>
@@ -14720,7 +14726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="6"/>
       <c r="B499" s="6"/>
       <c r="C499" s="6"/>
@@ -14740,7 +14746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="6"/>
       <c r="B500" s="6"/>
       <c r="C500" s="6"/>
@@ -14760,7 +14766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="6"/>
       <c r="B501" s="6"/>
       <c r="C501" s="6"/>
@@ -14780,7 +14786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="6"/>
       <c r="B502" s="6"/>
       <c r="C502" s="6"/>
@@ -14800,7 +14806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="6"/>
       <c r="B503" s="6"/>
       <c r="C503" s="6"/>
@@ -14820,7 +14826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="6"/>
       <c r="B504" s="6"/>
       <c r="C504" s="6"/>
@@ -14840,7 +14846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="6"/>
       <c r="B505" s="6"/>
       <c r="C505" s="6"/>
@@ -14860,7 +14866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="6"/>
       <c r="B506" s="6"/>
       <c r="C506" s="6"/>
@@ -14880,7 +14886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="6"/>
       <c r="B507" s="6"/>
       <c r="C507" s="6"/>
@@ -14900,7 +14906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="6"/>
       <c r="B508" s="6"/>
       <c r="C508" s="6"/>
@@ -14920,7 +14926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="6"/>
       <c r="B509" s="6"/>
       <c r="C509" s="6"/>
@@ -14940,7 +14946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="6"/>
       <c r="B510" s="6"/>
       <c r="C510" s="6"/>
@@ -14960,7 +14966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="6"/>
       <c r="B511" s="6"/>
       <c r="C511" s="6"/>
@@ -14980,7 +14986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="6"/>
       <c r="B512" s="6"/>
       <c r="C512" s="6"/>
@@ -15000,7 +15006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="6"/>
       <c r="B513" s="6"/>
       <c r="C513" s="6"/>
@@ -15020,7 +15026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="6"/>
       <c r="B514" s="6"/>
       <c r="C514" s="6"/>
@@ -15040,7 +15046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="6"/>
       <c r="B515" s="6"/>
       <c r="C515" s="6"/>
@@ -15060,7 +15066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="6"/>
       <c r="B516" s="6"/>
       <c r="C516" s="6"/>
@@ -15080,7 +15086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="6"/>
       <c r="B517" s="6"/>
       <c r="C517" s="6"/>
@@ -15100,7 +15106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="6"/>
       <c r="B518" s="6"/>
       <c r="C518" s="6"/>
@@ -15120,7 +15126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="6"/>
       <c r="B519" s="6"/>
       <c r="C519" s="6"/>
@@ -15140,7 +15146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="6"/>
       <c r="B520" s="6"/>
       <c r="C520" s="6"/>
@@ -15160,7 +15166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="6"/>
       <c r="B521" s="6"/>
       <c r="C521" s="6"/>
@@ -15180,7 +15186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="6"/>
       <c r="B522" s="6"/>
       <c r="C522" s="6"/>
@@ -15200,7 +15206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="6"/>
       <c r="B523" s="6"/>
       <c r="C523" s="6"/>
@@ -15220,7 +15226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="6"/>
       <c r="B524" s="6"/>
       <c r="C524" s="6"/>
@@ -15240,7 +15246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="6"/>
       <c r="B525" s="6"/>
       <c r="C525" s="6"/>
@@ -15260,7 +15266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="6"/>
       <c r="B526" s="6"/>
       <c r="C526" s="6"/>
@@ -15280,7 +15286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="6"/>
       <c r="B527" s="6"/>
       <c r="C527" s="6"/>
@@ -15300,7 +15306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="6"/>
       <c r="B528" s="6"/>
       <c r="C528" s="6"/>
@@ -15320,7 +15326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="6"/>
       <c r="B529" s="6"/>
       <c r="C529" s="6"/>
@@ -15340,7 +15346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="6"/>
       <c r="B530" s="6"/>
       <c r="C530" s="6"/>
@@ -15360,7 +15366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="6"/>
       <c r="B531" s="6"/>
       <c r="C531" s="6"/>
@@ -15380,7 +15386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="6"/>
       <c r="B532" s="6"/>
       <c r="C532" s="6"/>
@@ -15400,7 +15406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="6"/>
       <c r="B533" s="6"/>
       <c r="C533" s="6"/>
@@ -15420,7 +15426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="6"/>
       <c r="B534" s="6"/>
       <c r="C534" s="6"/>
@@ -15440,7 +15446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="6"/>
       <c r="B535" s="6"/>
       <c r="C535" s="6"/>
@@ -15460,7 +15466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="6"/>
       <c r="B536" s="6"/>
       <c r="C536" s="6"/>
@@ -15480,7 +15486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="6"/>
       <c r="B537" s="6"/>
       <c r="C537" s="6"/>
@@ -15500,7 +15506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="6"/>
       <c r="B538" s="6"/>
       <c r="C538" s="6"/>
@@ -15520,7 +15526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="6"/>
       <c r="B539" s="6"/>
       <c r="C539" s="6"/>
@@ -15540,7 +15546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="6"/>
       <c r="B540" s="6"/>
       <c r="C540" s="6"/>
@@ -15560,7 +15566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="6"/>
       <c r="B541" s="6"/>
       <c r="C541" s="6"/>
@@ -15580,7 +15586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="6"/>
       <c r="B542" s="6"/>
       <c r="C542" s="6"/>
@@ -15600,7 +15606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="6"/>
       <c r="B543" s="6"/>
       <c r="C543" s="6"/>
@@ -15620,7 +15626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="6"/>
       <c r="B544" s="6"/>
       <c r="C544" s="6"/>
@@ -15640,7 +15646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="6"/>
       <c r="B545" s="6"/>
       <c r="C545" s="6"/>
@@ -15660,12 +15666,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="6"/>
       <c r="B546" s="6"/>
       <c r="C546" s="6"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="6"/>
       <c r="B547" s="6"/>
       <c r="C547" s="6"/>

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA396A1-7B4F-423A-B364-EF1FFA2E7E1B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D066B6BA-2AE1-45CA-95BC-D0DCAE49FEB7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="25">
   <si>
     <t>Datum</t>
   </si>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:K547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2622,7 +2622,9 @@
         <f t="shared" si="4"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E63" s="8"/>
+      <c r="E63" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G63" s="4" t="s">
         <v>10</v>
       </c>
@@ -2646,23 +2648,25 @@
       </c>
       <c r="C64" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D64" s="8">
+        <v>3434</v>
+      </c>
+      <c r="D64" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E64" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G64" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I64" s="6">
         <f t="shared" si="5"/>
-        <v>-3366</v>
+        <v>68</v>
       </c>
       <c r="J64" s="6">
         <f t="shared" si="2"/>
-        <v>-3366</v>
+        <v>68</v>
       </c>
       <c r="K64" s="6">
         <f t="shared" si="3"/>
@@ -2670,27 +2674,33 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
-      <c r="B65" s="6"/>
+      <c r="A65" s="5">
+        <v>43389</v>
+      </c>
+      <c r="B65" s="6">
+        <v>3434</v>
+      </c>
       <c r="C65" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D65" s="8">
+        <v>3501</v>
+      </c>
+      <c r="D65" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E65" s="8"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G65" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I65" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J65" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K65" s="6">
         <f t="shared" si="3"/>
@@ -2699,26 +2709,30 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
-      <c r="B66" s="6"/>
+      <c r="B66" s="6">
+        <v>3501</v>
+      </c>
       <c r="C66" s="6">
         <f t="shared" ref="C66:C129" si="6">B67</f>
-        <v>0</v>
-      </c>
-      <c r="D66" s="8">
+        <v>3569</v>
+      </c>
+      <c r="D66" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E66" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G66" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I66" s="6">
         <f t="shared" ref="I66:I97" si="7">(C66-B66)</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J66" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K66" s="6">
         <f t="shared" si="3"/>
@@ -2726,27 +2740,33 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
-      <c r="B67" s="6"/>
+      <c r="A67" s="5">
+        <v>43390</v>
+      </c>
+      <c r="B67" s="6">
+        <v>3569</v>
+      </c>
       <c r="C67" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D67" s="8">
+        <v>3636</v>
+      </c>
+      <c r="D67" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E67" s="8"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G67" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I67" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J67" s="6">
         <f t="shared" ref="J67:J130" si="8">IF(AND(G67 = "Zakelijk", H67 = ""), I67, IF(AND(G67 = "Zakelijk", NOT(H67 = "")), I67 - H67, 0))</f>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K67" s="6">
         <f t="shared" ref="K67:K130" si="9">IF(AND(G67 = "Zakelijk", NOT(H67 = "")), H67, IF(G67 = "Privé", I67, 0))</f>
@@ -2755,26 +2775,30 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
-      <c r="B68" s="6"/>
+      <c r="B68" s="6">
+        <v>3636</v>
+      </c>
       <c r="C68" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D68" s="8">
+      <c r="D68" s="8" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E68" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G68" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I68" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-3636</v>
       </c>
       <c r="J68" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-3636</v>
       </c>
       <c r="K68" s="6">
         <f t="shared" si="9"/>
@@ -2788,9 +2812,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D69" s="8" t="str">
         <f t="shared" ref="D69:D132" si="10">E68</f>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E69" s="8"/>
       <c r="G69" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D066B6BA-2AE1-45CA-95BC-D0DCAE49FEB7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4034D083-B966-4DC1-BD4B-C0B47F2C982C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="25">
   <si>
     <t>Datum</t>
   </si>
@@ -552,7 +552,7 @@
   <dimension ref="A1:K547"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="C68" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3703</v>
       </c>
       <c r="D68" s="8" t="str">
         <f t="shared" si="4"/>
@@ -2794,11 +2794,11 @@
       </c>
       <c r="I68" s="6">
         <f t="shared" si="7"/>
-        <v>-3636</v>
+        <v>67</v>
       </c>
       <c r="J68" s="6">
         <f t="shared" si="8"/>
-        <v>-3636</v>
+        <v>67</v>
       </c>
       <c r="K68" s="6">
         <f t="shared" si="9"/>
@@ -2806,27 +2806,33 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="5"/>
-      <c r="B69" s="6"/>
+      <c r="A69" s="5">
+        <v>43391</v>
+      </c>
+      <c r="B69" s="6">
+        <v>3703</v>
+      </c>
       <c r="C69" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3771</v>
       </c>
       <c r="D69" s="8" t="str">
         <f t="shared" ref="D69:D132" si="10">E68</f>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E69" s="8"/>
+      <c r="E69" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G69" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I69" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J69" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K69" s="6">
         <f t="shared" si="9"/>
@@ -2835,26 +2841,30 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
-      <c r="B70" s="6"/>
+      <c r="B70" s="6">
+        <v>3771</v>
+      </c>
       <c r="C70" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D70" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E70" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G70" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I70" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-3771</v>
       </c>
       <c r="J70" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-3771</v>
       </c>
       <c r="K70" s="6">
         <f t="shared" si="9"/>
@@ -2868,9 +2878,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D71" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E71" s="8"/>
       <c r="G71" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4034D083-B966-4DC1-BD4B-C0B47F2C982C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0D689C-4FE6-49D1-997A-8F7BD5D194D3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="26">
   <si>
     <t>Datum</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>Doktersland 20, Koog aan de Zaan</t>
+  </si>
+  <si>
+    <t>Eikendonklaan 2, Waalwijk</t>
   </si>
 </sst>
 </file>
@@ -551,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:K547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2846,7 +2849,7 @@
       </c>
       <c r="C70" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3838</v>
       </c>
       <c r="D70" s="8" t="str">
         <f t="shared" si="10"/>
@@ -2860,11 +2863,11 @@
       </c>
       <c r="I70" s="6">
         <f t="shared" si="7"/>
-        <v>-3771</v>
+        <v>67</v>
       </c>
       <c r="J70" s="6">
         <f t="shared" si="8"/>
-        <v>-3771</v>
+        <v>67</v>
       </c>
       <c r="K70" s="6">
         <f t="shared" si="9"/>
@@ -2872,27 +2875,33 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
-      <c r="B71" s="6"/>
+      <c r="A71" s="5">
+        <v>43392</v>
+      </c>
+      <c r="B71" s="6">
+        <v>3838</v>
+      </c>
       <c r="C71" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3906</v>
       </c>
       <c r="D71" s="8" t="str">
         <f t="shared" si="10"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E71" s="8"/>
+      <c r="E71" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G71" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I71" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J71" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K71" s="6">
         <f t="shared" si="9"/>
@@ -2901,26 +2910,30 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
-      <c r="B72" s="6"/>
+      <c r="B72" s="6">
+        <v>3906</v>
+      </c>
       <c r="C72" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D72" s="8">
+        <v>3972</v>
+      </c>
+      <c r="D72" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E72" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="G72" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I72" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="J72" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="K72" s="6">
         <f t="shared" si="9"/>
@@ -2929,26 +2942,30 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
-      <c r="B73" s="6"/>
+      <c r="B73" s="6">
+        <v>3972</v>
+      </c>
       <c r="C73" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D73" s="8">
+        <v>4096</v>
+      </c>
+      <c r="D73" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E73" s="8"/>
+        <v>Eikendonklaan 2, Waalwijk</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G73" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I73" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="J73" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="K73" s="6">
         <f t="shared" si="9"/>
@@ -2956,27 +2973,33 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="10"/>
-      <c r="B74" s="6"/>
+      <c r="A74" s="10">
+        <v>43395</v>
+      </c>
+      <c r="B74" s="6">
+        <v>4096</v>
+      </c>
       <c r="C74" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D74" s="8">
+        <v>4163</v>
+      </c>
+      <c r="D74" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E74" s="8"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G74" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I74" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J74" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K74" s="6">
         <f t="shared" si="9"/>
@@ -2985,26 +3008,30 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
-      <c r="B75" s="6"/>
+      <c r="B75" s="6">
+        <v>4163</v>
+      </c>
       <c r="C75" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D75" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E75" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G75" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I75" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-4163</v>
       </c>
       <c r="J75" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-4163</v>
       </c>
       <c r="K75" s="6">
         <f t="shared" si="9"/>
@@ -3018,9 +3045,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D76" s="8">
+      <c r="D76" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E76" s="8"/>
       <c r="G76" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0D689C-4FE6-49D1-997A-8F7BD5D194D3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BD75F8C-05CB-45B6-BCE6-09B9D16A9FEA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$501</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="26">
   <si>
     <t>Datum</t>
   </si>
@@ -554,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:K547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3013,7 +3014,7 @@
       </c>
       <c r="C75" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4231</v>
       </c>
       <c r="D75" s="8" t="str">
         <f t="shared" si="10"/>
@@ -3027,11 +3028,11 @@
       </c>
       <c r="I75" s="6">
         <f t="shared" si="7"/>
-        <v>-4163</v>
+        <v>68</v>
       </c>
       <c r="J75" s="6">
         <f t="shared" si="8"/>
-        <v>-4163</v>
+        <v>68</v>
       </c>
       <c r="K75" s="6">
         <f t="shared" si="9"/>
@@ -3039,27 +3040,33 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="10"/>
-      <c r="B76" s="6"/>
+      <c r="A76" s="10">
+        <v>43397</v>
+      </c>
+      <c r="B76" s="6">
+        <v>4231</v>
+      </c>
       <c r="C76" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4298</v>
       </c>
       <c r="D76" s="8" t="str">
         <f t="shared" si="10"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E76" s="8"/>
+      <c r="E76" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G76" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I76" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J76" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K76" s="6">
         <f t="shared" si="9"/>
@@ -3068,26 +3075,30 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
-      <c r="B77" s="6"/>
+      <c r="B77" s="6">
+        <v>4298</v>
+      </c>
       <c r="C77" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D77" s="8">
+        <v>4366</v>
+      </c>
+      <c r="D77" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E77" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G77" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I77" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J77" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K77" s="6">
         <f t="shared" si="9"/>
@@ -3095,27 +3106,33 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="10"/>
-      <c r="B78" s="6"/>
+      <c r="A78" s="10">
+        <v>43399</v>
+      </c>
+      <c r="B78" s="6">
+        <v>4366</v>
+      </c>
       <c r="C78" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D78" s="8">
+        <v>4433</v>
+      </c>
+      <c r="D78" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E78" s="8"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G78" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I78" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J78" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K78" s="6">
         <f t="shared" si="9"/>
@@ -3124,26 +3141,30 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
-      <c r="B79" s="6"/>
+      <c r="B79" s="6">
+        <v>4433</v>
+      </c>
       <c r="C79" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D79" s="8">
+        <v>4501</v>
+      </c>
+      <c r="D79" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E79" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G79" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I79" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J79" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K79" s="6">
         <f t="shared" si="9"/>
@@ -3151,28 +3172,33 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="10"/>
-      <c r="B80" s="6"/>
+      <c r="A80" s="10">
+        <v>43400</v>
+      </c>
+      <c r="B80" s="6">
+        <v>4501</v>
+      </c>
       <c r="C80" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D80" s="8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E80" s="8"/>
+        <v>4513</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="F80" s="9"/>
       <c r="G80" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I80" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J80" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K80" s="6">
         <f t="shared" si="9"/>
@@ -3181,26 +3207,30 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="10"/>
-      <c r="B81" s="6"/>
+      <c r="B81" s="6">
+        <v>4513</v>
+      </c>
       <c r="C81" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D81" s="8">
+        <v>4525</v>
+      </c>
+      <c r="D81" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E81" s="8"/>
+        <v>Zuiderhoofdstraat 32, Krommenie</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G81" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I81" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J81" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K81" s="6">
         <f t="shared" si="9"/>
@@ -3208,28 +3238,33 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="10"/>
-      <c r="B82" s="6"/>
+      <c r="A82" s="10">
+        <v>43402</v>
+      </c>
+      <c r="B82" s="6">
+        <v>4525</v>
+      </c>
       <c r="C82" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D82" s="8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E82" s="8"/>
+        <v>4593</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="F82" s="9"/>
       <c r="G82" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I82" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J82" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K82" s="6">
         <f t="shared" si="9"/>
@@ -3238,27 +3273,31 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
-      <c r="B83" s="6"/>
+      <c r="B83" s="6">
+        <v>4593</v>
+      </c>
       <c r="C83" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D83" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E83" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="F83" s="9"/>
       <c r="G83" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I83" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-4593</v>
       </c>
       <c r="J83" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-4593</v>
       </c>
       <c r="K83" s="6">
         <f t="shared" si="9"/>
@@ -3272,9 +3311,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D84" s="8">
+      <c r="D84" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E84" s="8"/>
       <c r="G84" s="4" t="s">
@@ -15659,11 +15698,11 @@
         <v>0</v>
       </c>
       <c r="J542" s="6">
-        <f t="shared" ref="J542:J545" si="47">IF(AND(G542 = "Zakelijk", H542 = ""), I542, IF(AND(G542 = "Zakelijk", NOT(H542 = "")), I542 - H542, 0))</f>
+        <f>IF(AND(G542 = "Zakelijk", H542 = ""), I542, IF(AND(G542 = "Zakelijk", NOT(H542 = "")), I542 - H542, 0))</f>
         <v>0</v>
       </c>
       <c r="K542" s="6">
-        <f t="shared" ref="K542:K545" si="48">IF(AND(G542 = "Zakelijk", NOT(H542 = "")), H542, IF(G542 = "Privé", I542, 0))</f>
+        <f>IF(AND(G542 = "Zakelijk", NOT(H542 = "")), H542, IF(G542 = "Privé", I542, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -15679,11 +15718,11 @@
         <v>0</v>
       </c>
       <c r="J543" s="6">
-        <f t="shared" si="47"/>
+        <f>IF(AND(G543 = "Zakelijk", H543 = ""), I543, IF(AND(G543 = "Zakelijk", NOT(H543 = "")), I543 - H543, 0))</f>
         <v>0</v>
       </c>
       <c r="K543" s="6">
-        <f t="shared" si="48"/>
+        <f>IF(AND(G543 = "Zakelijk", NOT(H543 = "")), H543, IF(G543 = "Privé", I543, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -15699,11 +15738,11 @@
         <v>0</v>
       </c>
       <c r="J544" s="6">
-        <f t="shared" si="47"/>
+        <f>IF(AND(G544 = "Zakelijk", H544 = ""), I544, IF(AND(G544 = "Zakelijk", NOT(H544 = "")), I544 - H544, 0))</f>
         <v>0</v>
       </c>
       <c r="K544" s="6">
-        <f t="shared" si="48"/>
+        <f>IF(AND(G544 = "Zakelijk", NOT(H544 = "")), H544, IF(G544 = "Privé", I544, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -15719,11 +15758,11 @@
         <v>0</v>
       </c>
       <c r="J545" s="6">
-        <f t="shared" si="47"/>
+        <f>IF(AND(G545 = "Zakelijk", H545 = ""), I545, IF(AND(G545 = "Zakelijk", NOT(H545 = "")), I545 - H545, 0))</f>
         <v>0</v>
       </c>
       <c r="K545" s="6">
-        <f t="shared" si="48"/>
+        <f>IF(AND(G545 = "Zakelijk", NOT(H545 = "")), H545, IF(G545 = "Privé", I545, 0))</f>
         <v>0</v>
       </c>
     </row>

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BD75F8C-05CB-45B6-BCE6-09B9D16A9FEA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA080054-9506-443E-A90F-AEB38BD73FA6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$501</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="26">
   <si>
     <t>Datum</t>
   </si>
@@ -555,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:K547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3278,7 +3277,7 @@
       </c>
       <c r="C83" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4660</v>
       </c>
       <c r="D83" s="8" t="str">
         <f t="shared" si="10"/>
@@ -3293,11 +3292,11 @@
       </c>
       <c r="I83" s="6">
         <f t="shared" si="7"/>
-        <v>-4593</v>
+        <v>67</v>
       </c>
       <c r="J83" s="6">
         <f t="shared" si="8"/>
-        <v>-4593</v>
+        <v>67</v>
       </c>
       <c r="K83" s="6">
         <f t="shared" si="9"/>
@@ -3305,27 +3304,33 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="10"/>
-      <c r="B84" s="6"/>
+      <c r="A84" s="10">
+        <v>43403</v>
+      </c>
+      <c r="B84" s="6">
+        <v>4660</v>
+      </c>
       <c r="C84" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4728</v>
       </c>
       <c r="D84" s="8" t="str">
         <f t="shared" si="10"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E84" s="8"/>
+      <c r="E84" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G84" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I84" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J84" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K84" s="6">
         <f t="shared" si="9"/>
@@ -3334,27 +3339,31 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
-      <c r="B85" s="6"/>
+      <c r="B85" s="6">
+        <v>4728</v>
+      </c>
       <c r="C85" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D85" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E85" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="F85" s="9"/>
       <c r="G85" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I85" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-4728</v>
       </c>
       <c r="J85" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-4728</v>
       </c>
       <c r="K85" s="6">
         <f t="shared" si="9"/>
@@ -3368,9 +3377,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D86" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E86" s="8"/>
       <c r="G86" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA080054-9506-443E-A90F-AEB38BD73FA6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B259E84E-9C46-40DC-8A24-B781703E5244}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="26">
   <si>
     <t>Datum</t>
   </si>
@@ -555,7 +555,7 @@
   <dimension ref="A1:K547"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3344,7 +3344,7 @@
       </c>
       <c r="C85" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4795</v>
       </c>
       <c r="D85" s="8" t="str">
         <f t="shared" si="10"/>
@@ -3359,11 +3359,11 @@
       </c>
       <c r="I85" s="6">
         <f t="shared" si="7"/>
-        <v>-4728</v>
+        <v>67</v>
       </c>
       <c r="J85" s="6">
         <f t="shared" si="8"/>
-        <v>-4728</v>
+        <v>67</v>
       </c>
       <c r="K85" s="6">
         <f t="shared" si="9"/>
@@ -3371,27 +3371,33 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="10"/>
-      <c r="B86" s="6"/>
+      <c r="A86" s="10">
+        <v>43405</v>
+      </c>
+      <c r="B86" s="6">
+        <v>4795</v>
+      </c>
       <c r="C86" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4863</v>
       </c>
       <c r="D86" s="8" t="str">
         <f t="shared" si="10"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E86" s="8"/>
+      <c r="E86" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G86" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I86" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J86" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K86" s="6">
         <f t="shared" si="9"/>
@@ -3400,26 +3406,30 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="10"/>
-      <c r="B87" s="6"/>
+      <c r="B87" s="6">
+        <v>4863</v>
+      </c>
       <c r="C87" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D87" s="8">
+        <v>4930</v>
+      </c>
+      <c r="D87" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E87" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G87" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I87" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J87" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K87" s="6">
         <f t="shared" si="9"/>
@@ -3427,28 +3437,34 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="10"/>
-      <c r="B88" s="6"/>
+      <c r="A88" s="10">
+        <v>43409</v>
+      </c>
+      <c r="B88" s="6">
+        <v>4930</v>
+      </c>
       <c r="C88" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D88" s="8">
+        <v>4998</v>
+      </c>
+      <c r="D88" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E88" s="8"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="F88" s="9"/>
       <c r="G88" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I88" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J88" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K88" s="6">
         <f t="shared" si="9"/>
@@ -3457,26 +3473,30 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
-      <c r="B89" s="6"/>
+      <c r="B89" s="6">
+        <v>4998</v>
+      </c>
       <c r="C89" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D89" s="8">
+      <c r="D89" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E89" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G89" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I89" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-4998</v>
       </c>
       <c r="J89" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-4998</v>
       </c>
       <c r="K89" s="6">
         <f t="shared" si="9"/>
@@ -3490,9 +3510,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D90" s="8">
+      <c r="D90" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E90" s="8"/>
       <c r="G90" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B259E84E-9C46-40DC-8A24-B781703E5244}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAF5C47-8389-47F6-A67D-D4FA54BF6FA7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="26">
   <si>
     <t>Datum</t>
   </si>
@@ -555,7 +555,7 @@
   <dimension ref="A1:K547"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3478,7 +3478,7 @@
       </c>
       <c r="C89" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5065</v>
       </c>
       <c r="D89" s="8" t="str">
         <f t="shared" si="10"/>
@@ -3492,11 +3492,11 @@
       </c>
       <c r="I89" s="6">
         <f t="shared" si="7"/>
-        <v>-4998</v>
+        <v>67</v>
       </c>
       <c r="J89" s="6">
         <f t="shared" si="8"/>
-        <v>-4998</v>
+        <v>67</v>
       </c>
       <c r="K89" s="6">
         <f t="shared" si="9"/>
@@ -3504,27 +3504,33 @@
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="10"/>
-      <c r="B90" s="6"/>
+      <c r="A90" s="10">
+        <v>43410</v>
+      </c>
+      <c r="B90" s="6">
+        <v>5065</v>
+      </c>
       <c r="C90" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5132</v>
       </c>
       <c r="D90" s="8" t="str">
         <f t="shared" si="10"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E90" s="8"/>
+      <c r="E90" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G90" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I90" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J90" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K90" s="6">
         <f t="shared" si="9"/>
@@ -3533,26 +3539,30 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="10"/>
-      <c r="B91" s="6"/>
+      <c r="B91" s="6">
+        <v>5132</v>
+      </c>
       <c r="C91" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D91" s="8">
+      <c r="D91" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E91" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G91" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I91" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-5132</v>
       </c>
       <c r="J91" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-5132</v>
       </c>
       <c r="K91" s="6">
         <f t="shared" si="9"/>
@@ -3566,9 +3576,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D92" s="8">
+      <c r="D92" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E92" s="8"/>
       <c r="G92" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAF5C47-8389-47F6-A67D-D4FA54BF6FA7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C268C330-4C5A-456B-890E-019CC0156AE9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="26">
   <si>
     <t>Datum</t>
   </si>
@@ -555,7 +555,7 @@
   <dimension ref="A1:K547"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F91" sqref="F91"/>
+      <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3544,7 +3544,7 @@
       </c>
       <c r="C91" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5200</v>
       </c>
       <c r="D91" s="8" t="str">
         <f t="shared" si="10"/>
@@ -3558,11 +3558,11 @@
       </c>
       <c r="I91" s="6">
         <f t="shared" si="7"/>
-        <v>-5132</v>
+        <v>68</v>
       </c>
       <c r="J91" s="6">
         <f t="shared" si="8"/>
-        <v>-5132</v>
+        <v>68</v>
       </c>
       <c r="K91" s="6">
         <f t="shared" si="9"/>
@@ -3570,27 +3570,33 @@
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="10"/>
-      <c r="B92" s="6"/>
+      <c r="A92" s="10">
+        <v>43412</v>
+      </c>
+      <c r="B92" s="6">
+        <v>5200</v>
+      </c>
       <c r="C92" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5267</v>
       </c>
       <c r="D92" s="8" t="str">
         <f t="shared" si="10"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E92" s="8"/>
+      <c r="E92" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G92" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I92" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J92" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K92" s="6">
         <f t="shared" si="9"/>
@@ -3599,26 +3605,30 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
-      <c r="B93" s="6"/>
+      <c r="B93" s="6">
+        <v>5267</v>
+      </c>
       <c r="C93" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D93" s="8">
+      <c r="D93" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E93" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G93" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I93" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-5267</v>
       </c>
       <c r="J93" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-5267</v>
       </c>
       <c r="K93" s="6">
         <f t="shared" si="9"/>
@@ -3632,9 +3642,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D94" s="8">
+      <c r="D94" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E94" s="8"/>
       <c r="G94" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C268C330-4C5A-456B-890E-019CC0156AE9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580FB8F9-1B8D-485C-A7AE-EDA29EBFFFEF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="26">
   <si>
     <t>Datum</t>
   </si>
@@ -554,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:K547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3610,7 +3610,7 @@
       </c>
       <c r="C93" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5335</v>
       </c>
       <c r="D93" s="8" t="str">
         <f t="shared" si="10"/>
@@ -3624,11 +3624,11 @@
       </c>
       <c r="I93" s="6">
         <f t="shared" si="7"/>
-        <v>-5267</v>
+        <v>68</v>
       </c>
       <c r="J93" s="6">
         <f t="shared" si="8"/>
-        <v>-5267</v>
+        <v>68</v>
       </c>
       <c r="K93" s="6">
         <f t="shared" si="9"/>
@@ -3636,27 +3636,33 @@
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="10"/>
-      <c r="B94" s="6"/>
+      <c r="A94" s="10">
+        <v>43413</v>
+      </c>
+      <c r="B94" s="6">
+        <v>5335</v>
+      </c>
       <c r="C94" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5403</v>
       </c>
       <c r="D94" s="8" t="str">
         <f t="shared" si="10"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E94" s="8"/>
+      <c r="E94" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G94" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I94" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J94" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K94" s="6">
         <f t="shared" si="9"/>
@@ -3665,26 +3671,30 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="10"/>
-      <c r="B95" s="6"/>
+      <c r="B95" s="6">
+        <v>5403</v>
+      </c>
       <c r="C95" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D95" s="8">
+        <v>5470</v>
+      </c>
+      <c r="D95" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E95" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G95" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I95" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J95" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K95" s="6">
         <f t="shared" si="9"/>
@@ -3692,27 +3702,33 @@
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="10"/>
-      <c r="B96" s="6"/>
+      <c r="A96" s="10">
+        <v>43416</v>
+      </c>
+      <c r="B96" s="6">
+        <v>5470</v>
+      </c>
       <c r="C96" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D96" s="8">
+        <v>5538</v>
+      </c>
+      <c r="D96" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E96" s="8"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G96" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I96" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J96" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K96" s="6">
         <f t="shared" si="9"/>
@@ -3721,26 +3737,30 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="10"/>
-      <c r="B97" s="6"/>
+      <c r="B97" s="6">
+        <v>5538</v>
+      </c>
       <c r="C97" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D97" s="8">
+      <c r="D97" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E97" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="G97" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I97" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-5538</v>
       </c>
       <c r="J97" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-5538</v>
       </c>
       <c r="K97" s="6">
         <f t="shared" si="9"/>
@@ -3754,11 +3774,13 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D98" s="8">
+      <c r="D98" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E98" s="8"/>
+        <v>Waterveste 4, Houten</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G98" s="4" t="s">
         <v>10</v>
       </c>
@@ -3782,11 +3804,13 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D99" s="8">
+      <c r="D99" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E99" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G99" s="4" t="s">
         <v>10</v>
       </c>
@@ -3810,9 +3834,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D100" s="8">
+      <c r="D100" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E100" s="8"/>
       <c r="G100" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580FB8F9-1B8D-485C-A7AE-EDA29EBFFFEF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B891A4-9790-4A21-8624-F07440CBC3FC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="27">
   <si>
     <t>Datum</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>Eikendonklaan 2, Waalwijk</t>
+  </si>
+  <si>
+    <t>Garagebezoeken winterbanden</t>
   </si>
 </sst>
 </file>
@@ -554,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:K547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3719,6 +3722,9 @@
       <c r="E96" s="8" t="s">
         <v>6</v>
       </c>
+      <c r="F96" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="G96" s="4" t="s">
         <v>10</v>
       </c>
@@ -3742,7 +3748,7 @@
       </c>
       <c r="C97" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5540</v>
       </c>
       <c r="D97" s="8" t="str">
         <f t="shared" si="10"/>
@@ -3756,11 +3762,11 @@
       </c>
       <c r="I97" s="6">
         <f t="shared" si="7"/>
-        <v>-5538</v>
+        <v>2</v>
       </c>
       <c r="J97" s="6">
         <f t="shared" si="8"/>
-        <v>-5538</v>
+        <v>2</v>
       </c>
       <c r="K97" s="6">
         <f t="shared" si="9"/>
@@ -3769,10 +3775,12 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="10"/>
-      <c r="B98" s="6"/>
+      <c r="B98" s="6">
+        <v>5540</v>
+      </c>
       <c r="C98" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5542</v>
       </c>
       <c r="D98" s="8" t="str">
         <f t="shared" si="10"/>
@@ -3786,11 +3794,11 @@
       </c>
       <c r="I98" s="6">
         <f t="shared" ref="I98:I129" si="11">(C98-B98)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J98" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K98" s="6">
         <f t="shared" si="9"/>
@@ -3799,28 +3807,30 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="10"/>
-      <c r="B99" s="6"/>
+      <c r="B99" s="6">
+        <v>5542</v>
+      </c>
       <c r="C99" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5543</v>
       </c>
       <c r="D99" s="8" t="str">
         <f t="shared" si="10"/>
         <v>Duwboot 20, Houten</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I99" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99" s="6">
         <f t="shared" si="9"/>
@@ -3829,26 +3839,30 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="10"/>
-      <c r="B100" s="6"/>
+      <c r="B100" s="6">
+        <v>5543</v>
+      </c>
       <c r="C100" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5545</v>
       </c>
       <c r="D100" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>De Boeg 26, Zaandam</v>
-      </c>
-      <c r="E100" s="8"/>
+        <v>Waterveste 4, Houten</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G100" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I100" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J100" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K100" s="6">
         <f t="shared" si="9"/>
@@ -3857,26 +3871,30 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="10"/>
-      <c r="B101" s="6"/>
+      <c r="B101" s="6">
+        <v>5545</v>
+      </c>
       <c r="C101" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D101" s="8">
+        <v>5547</v>
+      </c>
+      <c r="D101" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E101" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="G101" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I101" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J101" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K101" s="6">
         <f t="shared" si="9"/>
@@ -3885,26 +3903,30 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="10"/>
-      <c r="B102" s="6"/>
+      <c r="B102" s="6">
+        <v>5547</v>
+      </c>
       <c r="C102" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D102" s="8">
+        <v>5613</v>
+      </c>
+      <c r="D102" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E102" s="8"/>
+        <v>Waterveste 4, Houten</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G102" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I102" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="J102" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="K102" s="6">
         <f t="shared" si="9"/>
@@ -3912,27 +3934,33 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="10"/>
-      <c r="B103" s="6"/>
+      <c r="A103" s="10">
+        <v>43417</v>
+      </c>
+      <c r="B103" s="6">
+        <v>5613</v>
+      </c>
       <c r="C103" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D103" s="8">
+        <v>5681</v>
+      </c>
+      <c r="D103" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E103" s="8"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G103" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I103" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J103" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K103" s="6">
         <f t="shared" si="9"/>
@@ -3941,26 +3969,30 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="10"/>
-      <c r="B104" s="6"/>
+      <c r="B104" s="6">
+        <v>5681</v>
+      </c>
       <c r="C104" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D104" s="8">
+      <c r="D104" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E104" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G104" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I104" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-5681</v>
       </c>
       <c r="J104" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-5681</v>
       </c>
       <c r="K104" s="6">
         <f t="shared" si="9"/>
@@ -3974,9 +4006,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D105" s="8">
+      <c r="D105" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E105" s="8"/>
       <c r="G105" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B891A4-9790-4A21-8624-F07440CBC3FC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242E7168-DC04-4F93-89DD-9388DA26933E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$501</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="27">
   <si>
     <t>Datum</t>
   </si>
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:K547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3974,7 +3974,7 @@
       </c>
       <c r="C104" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5748</v>
       </c>
       <c r="D104" s="8" t="str">
         <f t="shared" si="10"/>
@@ -3988,11 +3988,11 @@
       </c>
       <c r="I104" s="6">
         <f t="shared" si="11"/>
-        <v>-5681</v>
+        <v>67</v>
       </c>
       <c r="J104" s="6">
         <f t="shared" si="8"/>
-        <v>-5681</v>
+        <v>67</v>
       </c>
       <c r="K104" s="6">
         <f t="shared" si="9"/>
@@ -4000,27 +4000,33 @@
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="10"/>
-      <c r="B105" s="6"/>
+      <c r="A105" s="10">
+        <v>43420</v>
+      </c>
+      <c r="B105" s="6">
+        <v>5748</v>
+      </c>
       <c r="C105" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5816</v>
       </c>
       <c r="D105" s="8" t="str">
         <f t="shared" si="10"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E105" s="8"/>
+      <c r="E105" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G105" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I105" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J105" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K105" s="6">
         <f t="shared" si="9"/>
@@ -4029,26 +4035,30 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="10"/>
-      <c r="B106" s="6"/>
+      <c r="B106" s="6">
+        <v>5816</v>
+      </c>
       <c r="C106" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D106" s="8">
+        <v>5884</v>
+      </c>
+      <c r="D106" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E106" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G106" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I106" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J106" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K106" s="6">
         <f t="shared" si="9"/>
@@ -4056,27 +4066,33 @@
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="10"/>
-      <c r="B107" s="6"/>
+      <c r="A107" s="10">
+        <v>43424</v>
+      </c>
+      <c r="B107" s="6">
+        <v>5884</v>
+      </c>
       <c r="C107" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D107" s="8">
+        <v>5951</v>
+      </c>
+      <c r="D107" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E107" s="8"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G107" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I107" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J107" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K107" s="6">
         <f t="shared" si="9"/>
@@ -4085,26 +4101,30 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="10"/>
-      <c r="B108" s="6"/>
+      <c r="B108" s="6">
+        <v>5951</v>
+      </c>
       <c r="C108" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D108" s="8">
+      <c r="D108" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E108" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G108" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I108" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-5951</v>
       </c>
       <c r="J108" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-5951</v>
       </c>
       <c r="K108" s="6">
         <f t="shared" si="9"/>
@@ -4118,9 +4138,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D109" s="8">
+      <c r="D109" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E109" s="8"/>
       <c r="G109" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242E7168-DC04-4F93-89DD-9388DA26933E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0773E031-E3CD-482F-AC90-CFB5B402FD87}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="27">
   <si>
     <t>Datum</t>
   </si>
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:K547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4106,7 +4106,7 @@
       </c>
       <c r="C108" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6019</v>
       </c>
       <c r="D108" s="8" t="str">
         <f t="shared" si="10"/>
@@ -4120,11 +4120,11 @@
       </c>
       <c r="I108" s="6">
         <f t="shared" si="11"/>
-        <v>-5951</v>
+        <v>68</v>
       </c>
       <c r="J108" s="6">
         <f t="shared" si="8"/>
-        <v>-5951</v>
+        <v>68</v>
       </c>
       <c r="K108" s="6">
         <f t="shared" si="9"/>
@@ -4132,27 +4132,33 @@
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="10"/>
-      <c r="B109" s="6"/>
+      <c r="A109" s="10">
+        <v>43426</v>
+      </c>
+      <c r="B109" s="6">
+        <v>6019</v>
+      </c>
       <c r="C109" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6087</v>
       </c>
       <c r="D109" s="8" t="str">
         <f t="shared" si="10"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E109" s="8"/>
+      <c r="E109" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G109" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I109" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J109" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K109" s="6">
         <f t="shared" si="9"/>
@@ -4161,26 +4167,30 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="10"/>
-      <c r="B110" s="6"/>
+      <c r="B110" s="6">
+        <v>6087</v>
+      </c>
       <c r="C110" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D110" s="8">
+        <v>6154</v>
+      </c>
+      <c r="D110" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E110" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G110" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I110" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J110" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K110" s="6">
         <f t="shared" si="9"/>
@@ -4188,27 +4198,33 @@
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="10"/>
-      <c r="B111" s="6"/>
+      <c r="A111" s="10">
+        <v>43427</v>
+      </c>
+      <c r="B111" s="6">
+        <v>6154</v>
+      </c>
       <c r="C111" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D111" s="8">
+        <v>6223</v>
+      </c>
+      <c r="D111" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E111" s="8"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G111" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I111" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="J111" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="K111" s="6">
         <f t="shared" si="9"/>
@@ -4217,26 +4233,30 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="10"/>
-      <c r="B112" s="6"/>
+      <c r="B112" s="6">
+        <v>6223</v>
+      </c>
       <c r="C112" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D112" s="8">
+      <c r="D112" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E112" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G112" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I112" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-6223</v>
       </c>
       <c r="J112" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-6223</v>
       </c>
       <c r="K112" s="6">
         <f t="shared" si="9"/>
@@ -4250,9 +4270,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D113" s="8">
+      <c r="D113" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E113" s="8"/>
       <c r="G113" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0773E031-E3CD-482F-AC90-CFB5B402FD87}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1B4D47-769C-4C96-8E6C-10FA9710B2DB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="27">
   <si>
     <t>Datum</t>
   </si>
@@ -558,7 +558,7 @@
   <dimension ref="A1:K547"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="F112" sqref="F112"/>
+      <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4205,8 +4205,8 @@
         <v>6154</v>
       </c>
       <c r="C111" s="6">
-        <f t="shared" si="6"/>
-        <v>6223</v>
+        <f>B112</f>
+        <v>6222</v>
       </c>
       <c r="D111" s="8" t="str">
         <f t="shared" si="10"/>
@@ -4220,11 +4220,11 @@
       </c>
       <c r="I111" s="6">
         <f t="shared" si="11"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J111" s="6">
         <f t="shared" si="8"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K111" s="6">
         <f t="shared" si="9"/>
@@ -4234,11 +4234,11 @@
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="10"/>
       <c r="B112" s="6">
-        <v>6223</v>
+        <v>6222</v>
       </c>
       <c r="C112" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6290</v>
       </c>
       <c r="D112" s="8" t="str">
         <f t="shared" si="10"/>
@@ -4252,11 +4252,11 @@
       </c>
       <c r="I112" s="6">
         <f t="shared" si="11"/>
-        <v>-6223</v>
+        <v>68</v>
       </c>
       <c r="J112" s="6">
         <f t="shared" si="8"/>
-        <v>-6223</v>
+        <v>68</v>
       </c>
       <c r="K112" s="6">
         <f t="shared" si="9"/>
@@ -4264,27 +4264,33 @@
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="10"/>
-      <c r="B113" s="6"/>
+      <c r="A113" s="10">
+        <v>43430</v>
+      </c>
+      <c r="B113" s="6">
+        <v>6290</v>
+      </c>
       <c r="C113" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6357</v>
       </c>
       <c r="D113" s="8" t="str">
         <f t="shared" si="10"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E113" s="8"/>
+      <c r="E113" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G113" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I113" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J113" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K113" s="6">
         <f t="shared" si="9"/>
@@ -4293,26 +4299,30 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="10"/>
-      <c r="B114" s="6"/>
+      <c r="B114" s="6">
+        <v>6357</v>
+      </c>
       <c r="C114" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D114" s="8">
+      <c r="D114" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E114" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G114" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I114" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-6357</v>
       </c>
       <c r="J114" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-6357</v>
       </c>
       <c r="K114" s="6">
         <f t="shared" si="9"/>
@@ -4326,9 +4336,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D115" s="8">
+      <c r="D115" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E115" s="8"/>
       <c r="G115" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1B4D47-769C-4C96-8E6C-10FA9710B2DB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DB27F1-A6F8-46F1-B506-E6E379A0C5AB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="27">
   <si>
     <t>Datum</t>
   </si>
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:K547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114"/>
+    <sheetView tabSelected="1" topLeftCell="D85" workbookViewId="0">
+      <selection activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4304,7 +4304,7 @@
       </c>
       <c r="C114" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6425</v>
       </c>
       <c r="D114" s="8" t="str">
         <f t="shared" si="10"/>
@@ -4318,11 +4318,11 @@
       </c>
       <c r="I114" s="6">
         <f t="shared" si="11"/>
-        <v>-6357</v>
+        <v>68</v>
       </c>
       <c r="J114" s="6">
         <f t="shared" si="8"/>
-        <v>-6357</v>
+        <v>68</v>
       </c>
       <c r="K114" s="6">
         <f t="shared" si="9"/>
@@ -4330,27 +4330,33 @@
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="10"/>
-      <c r="B115" s="6"/>
+      <c r="A115" s="10">
+        <v>43431</v>
+      </c>
+      <c r="B115" s="6">
+        <v>6425</v>
+      </c>
       <c r="C115" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6492</v>
       </c>
       <c r="D115" s="8" t="str">
         <f t="shared" si="10"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E115" s="8"/>
+      <c r="E115" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G115" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I115" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J115" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K115" s="6">
         <f t="shared" si="9"/>
@@ -4359,26 +4365,30 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="10"/>
-      <c r="B116" s="6"/>
+      <c r="B116" s="6">
+        <v>6492</v>
+      </c>
       <c r="C116" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D116" s="8">
+      <c r="D116" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E116" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G116" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I116" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-6492</v>
       </c>
       <c r="J116" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-6492</v>
       </c>
       <c r="K116" s="6">
         <f t="shared" si="9"/>
@@ -4392,9 +4402,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D117" s="8">
+      <c r="D117" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E117" s="8"/>
       <c r="G117" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DB27F1-A6F8-46F1-B506-E6E379A0C5AB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6174CFD8-42B5-49A6-A17E-AC173EB3C185}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="27">
   <si>
     <t>Datum</t>
   </si>
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:K547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D85" workbookViewId="0">
-      <selection activeCell="H116" sqref="H116"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4370,7 +4370,7 @@
       </c>
       <c r="C116" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6560</v>
       </c>
       <c r="D116" s="8" t="str">
         <f t="shared" si="10"/>
@@ -4384,11 +4384,11 @@
       </c>
       <c r="I116" s="6">
         <f t="shared" si="11"/>
-        <v>-6492</v>
+        <v>68</v>
       </c>
       <c r="J116" s="6">
         <f t="shared" si="8"/>
-        <v>-6492</v>
+        <v>68</v>
       </c>
       <c r="K116" s="6">
         <f t="shared" si="9"/>
@@ -4396,27 +4396,33 @@
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="10"/>
-      <c r="B117" s="6"/>
+      <c r="A117" s="10">
+        <v>43432</v>
+      </c>
+      <c r="B117" s="6">
+        <v>6560</v>
+      </c>
       <c r="C117" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6569</v>
       </c>
       <c r="D117" s="8" t="str">
         <f t="shared" si="10"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E117" s="8"/>
+      <c r="E117" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="G117" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I117" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J117" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K117" s="6">
         <f t="shared" si="9"/>
@@ -4425,26 +4431,30 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="10"/>
-      <c r="B118" s="6"/>
+      <c r="B118" s="6">
+        <v>6569</v>
+      </c>
       <c r="C118" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D118" s="8">
+        <v>6576</v>
+      </c>
+      <c r="D118" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E118" s="8"/>
+        <v>Doktersland 20, Koog aan de Zaan</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G118" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I118" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J118" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K118" s="6">
         <f t="shared" si="9"/>
@@ -4452,27 +4462,33 @@
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="10"/>
-      <c r="B119" s="6"/>
+      <c r="A119" s="10">
+        <v>43433</v>
+      </c>
+      <c r="B119" s="6">
+        <v>6576</v>
+      </c>
       <c r="C119" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D119" s="8">
+        <v>6644</v>
+      </c>
+      <c r="D119" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E119" s="8"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G119" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I119" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J119" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K119" s="6">
         <f t="shared" si="9"/>
@@ -4481,26 +4497,30 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="12"/>
-      <c r="B120" s="6"/>
+      <c r="B120" s="6">
+        <v>6644</v>
+      </c>
       <c r="C120" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D120" s="8">
+      <c r="D120" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E120" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G120" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I120" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-6644</v>
       </c>
       <c r="J120" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-6644</v>
       </c>
       <c r="K120" s="6">
         <f t="shared" si="9"/>
@@ -4514,9 +4534,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D121" s="8">
+      <c r="D121" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E121" s="8"/>
       <c r="G121" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6174CFD8-42B5-49A6-A17E-AC173EB3C185}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AED2011-1753-4792-A8EB-EDAD215B1895}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="27">
   <si>
     <t>Datum</t>
   </si>
@@ -558,7 +558,7 @@
   <dimension ref="A1:K547"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4502,7 +4502,7 @@
       </c>
       <c r="C120" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6712</v>
       </c>
       <c r="D120" s="8" t="str">
         <f t="shared" si="10"/>
@@ -4516,11 +4516,11 @@
       </c>
       <c r="I120" s="6">
         <f t="shared" si="11"/>
-        <v>-6644</v>
+        <v>68</v>
       </c>
       <c r="J120" s="6">
         <f t="shared" si="8"/>
-        <v>-6644</v>
+        <v>68</v>
       </c>
       <c r="K120" s="6">
         <f t="shared" si="9"/>
@@ -4528,27 +4528,33 @@
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="10"/>
-      <c r="B121" s="6"/>
+      <c r="A121" s="10">
+        <v>43434</v>
+      </c>
+      <c r="B121" s="6">
+        <v>6712</v>
+      </c>
       <c r="C121" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6780</v>
       </c>
       <c r="D121" s="8" t="str">
         <f t="shared" si="10"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E121" s="8"/>
+      <c r="E121" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G121" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I121" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J121" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K121" s="6">
         <f t="shared" si="9"/>
@@ -4557,26 +4563,30 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="12"/>
-      <c r="B122" s="6"/>
+      <c r="B122" s="6">
+        <v>6780</v>
+      </c>
       <c r="C122" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D122" s="8">
+      <c r="D122" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E122" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G122" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I122" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-6780</v>
       </c>
       <c r="J122" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-6780</v>
       </c>
       <c r="K122" s="6">
         <f t="shared" si="9"/>
@@ -4590,9 +4600,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D123" s="8">
+      <c r="D123" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E123" s="8"/>
       <c r="G123" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AED2011-1753-4792-A8EB-EDAD215B1895}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9573CA41-8C85-48C7-9051-E4FC0E1E8291}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="27">
   <si>
     <t>Datum</t>
   </si>
@@ -558,7 +558,7 @@
   <dimension ref="A1:K547"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+      <selection activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4568,7 +4568,7 @@
       </c>
       <c r="C122" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6847</v>
       </c>
       <c r="D122" s="8" t="str">
         <f t="shared" si="10"/>
@@ -4582,11 +4582,11 @@
       </c>
       <c r="I122" s="6">
         <f t="shared" si="11"/>
-        <v>-6780</v>
+        <v>67</v>
       </c>
       <c r="J122" s="6">
         <f t="shared" si="8"/>
-        <v>-6780</v>
+        <v>67</v>
       </c>
       <c r="K122" s="6">
         <f t="shared" si="9"/>
@@ -4594,27 +4594,33 @@
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="10"/>
-      <c r="B123" s="6"/>
+      <c r="A123" s="10">
+        <v>43437</v>
+      </c>
+      <c r="B123" s="6">
+        <v>6847</v>
+      </c>
       <c r="C123" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6915</v>
       </c>
       <c r="D123" s="8" t="str">
         <f t="shared" si="10"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E123" s="8"/>
+      <c r="E123" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G123" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I123" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J123" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K123" s="6">
         <f t="shared" si="9"/>
@@ -4623,27 +4629,31 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="10"/>
-      <c r="B124" s="6"/>
+      <c r="B124" s="6">
+        <v>6915</v>
+      </c>
       <c r="C124" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D124" s="8">
+      <c r="D124" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E124" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="F124" s="9"/>
       <c r="G124" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I124" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-6915</v>
       </c>
       <c r="J124" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-6915</v>
       </c>
       <c r="K124" s="6">
         <f t="shared" si="9"/>
@@ -4657,9 +4667,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D125" s="8">
+      <c r="D125" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E125" s="8"/>
       <c r="G125" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9573CA41-8C85-48C7-9051-E4FC0E1E8291}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBF8B04-0899-4D27-8CF2-D7251DC430C6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="30">
   <si>
     <t>Datum</t>
   </si>
@@ -149,6 +149,15 @@
   </si>
   <si>
     <t>Garagebezoeken winterbanden</t>
+  </si>
+  <si>
+    <t>Symon Spiersweg 6, 1506 RZ, Zaandam</t>
+  </si>
+  <si>
+    <t>Atoomweg 488, Utrecht</t>
+  </si>
+  <si>
+    <t>Korte omleiding</t>
   </si>
 </sst>
 </file>
@@ -558,7 +567,7 @@
   <dimension ref="A1:K547"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A124" sqref="A124"/>
+      <selection activeCell="F126" sqref="F126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4634,7 +4643,7 @@
       </c>
       <c r="C124" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6983</v>
       </c>
       <c r="D124" s="8" t="str">
         <f t="shared" si="10"/>
@@ -4649,11 +4658,11 @@
       </c>
       <c r="I124" s="6">
         <f t="shared" si="11"/>
-        <v>-6915</v>
+        <v>68</v>
       </c>
       <c r="J124" s="6">
         <f t="shared" si="8"/>
-        <v>-6915</v>
+        <v>68</v>
       </c>
       <c r="K124" s="6">
         <f t="shared" si="9"/>
@@ -4662,22 +4671,29 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="10"/>
-      <c r="B125" s="6"/>
+      <c r="B125" s="6">
+        <v>6983</v>
+      </c>
       <c r="C125" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6988</v>
       </c>
       <c r="D125" s="8" t="str">
         <f t="shared" si="10"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E125" s="8"/>
-      <c r="G125" s="4" t="s">
-        <v>10</v>
+      <c r="E125" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G125" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="I125" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J125" s="6">
         <f t="shared" si="8"/>
@@ -4685,27 +4701,31 @@
       </c>
       <c r="K125" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="10"/>
-      <c r="B126" s="6"/>
+      <c r="B126" s="6">
+        <v>6988</v>
+      </c>
       <c r="C126" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D126" s="8">
+        <v>6992</v>
+      </c>
+      <c r="D126" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E126" s="8"/>
-      <c r="G126" s="4" t="s">
-        <v>10</v>
+        <v>Symon Spiersweg 6, 1506 RZ, Zaandam</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G126" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="I126" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J126" s="6">
         <f t="shared" si="8"/>
@@ -4713,31 +4733,37 @@
       </c>
       <c r="K126" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="10"/>
-      <c r="B127" s="6"/>
+      <c r="A127" s="10">
+        <v>43438</v>
+      </c>
+      <c r="B127" s="6">
+        <v>6992</v>
+      </c>
       <c r="C127" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D127" s="8">
+        <v>7060</v>
+      </c>
+      <c r="D127" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E127" s="8"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G127" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I127" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J127" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K127" s="6">
         <f t="shared" si="9"/>
@@ -4746,26 +4772,30 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="10"/>
-      <c r="B128" s="6"/>
+      <c r="B128" s="6">
+        <v>7060</v>
+      </c>
       <c r="C128" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D128" s="8">
+        <v>7127</v>
+      </c>
+      <c r="D128" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E128" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G128" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I128" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J128" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K128" s="6">
         <f t="shared" si="9"/>
@@ -4773,27 +4803,33 @@
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="10"/>
-      <c r="B129" s="6"/>
+      <c r="A129" s="10">
+        <v>43439</v>
+      </c>
+      <c r="B129" s="6">
+        <v>7127</v>
+      </c>
       <c r="C129" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D129" s="8">
+        <v>7195</v>
+      </c>
+      <c r="D129" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E129" s="8"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G129" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I129" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J129" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K129" s="6">
         <f t="shared" si="9"/>
@@ -4802,26 +4838,30 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="10"/>
-      <c r="B130" s="6"/>
+      <c r="B130" s="6">
+        <v>7195</v>
+      </c>
       <c r="C130" s="6">
         <f t="shared" ref="C130:C193" si="12">B131</f>
-        <v>0</v>
-      </c>
-      <c r="D130" s="8">
+        <v>7214</v>
+      </c>
+      <c r="D130" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E130" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="G130" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I130" s="6">
         <f t="shared" ref="I130:I191" si="13">(C130-B130)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J130" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K130" s="6">
         <f t="shared" si="9"/>
@@ -4830,26 +4870,30 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="10"/>
-      <c r="B131" s="6"/>
+      <c r="B131" s="6">
+        <v>7214</v>
+      </c>
       <c r="C131" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D131" s="8">
+        <v>7232</v>
+      </c>
+      <c r="D131" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E131" s="8"/>
+        <v>Atoomweg 488, Utrecht</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G131" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I131" s="6">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J131" s="6">
         <f t="shared" ref="J131:J159" si="14">IF(AND(G131 = "Zakelijk", H131 = ""), I131, IF(AND(G131 = "Zakelijk", NOT(H131 = "")), I131 - H131, 0))</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K131" s="6">
         <f t="shared" ref="K131:K159" si="15">IF(AND(G131 = "Zakelijk", NOT(H131 = "")), H131, IF(G131 = "Privé", I131, 0))</f>
@@ -4858,26 +4902,30 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="10"/>
-      <c r="B132" s="6"/>
+      <c r="B132" s="6">
+        <v>7232</v>
+      </c>
       <c r="C132" s="6">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="D132" s="8">
+      <c r="D132" s="8" t="str">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E132" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G132" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I132" s="6">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-7232</v>
       </c>
       <c r="J132" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-7232</v>
       </c>
       <c r="K132" s="6">
         <f t="shared" si="15"/>
@@ -4891,9 +4939,9 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="D133" s="8">
+      <c r="D133" s="8" t="str">
         <f t="shared" ref="D133:D196" si="16">E132</f>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E133" s="8"/>
       <c r="G133" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBF8B04-0899-4D27-8CF2-D7251DC430C6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2740CAA-41B6-47FD-92DC-67B179E23F11}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="30">
   <si>
     <t>Datum</t>
   </si>
@@ -567,7 +567,7 @@
   <dimension ref="A1:K547"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="F126" sqref="F126"/>
+      <selection activeCell="F138" sqref="F138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4907,7 +4907,7 @@
       </c>
       <c r="C132" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>7300</v>
       </c>
       <c r="D132" s="8" t="str">
         <f t="shared" si="10"/>
@@ -4921,11 +4921,11 @@
       </c>
       <c r="I132" s="6">
         <f t="shared" si="13"/>
-        <v>-7232</v>
+        <v>68</v>
       </c>
       <c r="J132" s="6">
         <f t="shared" si="14"/>
-        <v>-7232</v>
+        <v>68</v>
       </c>
       <c r="K132" s="6">
         <f t="shared" si="15"/>
@@ -4933,27 +4933,33 @@
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="10"/>
-      <c r="B133" s="6"/>
+      <c r="A133" s="10">
+        <v>43440</v>
+      </c>
+      <c r="B133" s="6">
+        <v>7300</v>
+      </c>
       <c r="C133" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>7368</v>
       </c>
       <c r="D133" s="8" t="str">
         <f t="shared" ref="D133:D196" si="16">E132</f>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E133" s="8"/>
+      <c r="E133" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G133" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I133" s="6">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J133" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K133" s="6">
         <f t="shared" si="15"/>
@@ -4962,26 +4968,30 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="10"/>
-      <c r="B134" s="6"/>
+      <c r="B134" s="6">
+        <v>7368</v>
+      </c>
       <c r="C134" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D134" s="8">
+        <v>7435</v>
+      </c>
+      <c r="D134" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E134" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G134" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I134" s="6">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J134" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K134" s="6">
         <f t="shared" si="15"/>
@@ -4989,27 +4999,33 @@
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="10"/>
-      <c r="B135" s="6"/>
+      <c r="A135" s="10">
+        <v>43445</v>
+      </c>
+      <c r="B135" s="6">
+        <v>7435</v>
+      </c>
       <c r="C135" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D135" s="8">
+        <v>7503</v>
+      </c>
+      <c r="D135" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E135" s="8"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G135" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I135" s="6">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J135" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K135" s="6">
         <f t="shared" si="15"/>
@@ -5018,26 +5034,30 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="10"/>
-      <c r="B136" s="6"/>
+      <c r="B136" s="6">
+        <v>7503</v>
+      </c>
       <c r="C136" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D136" s="8">
+        <v>7570</v>
+      </c>
+      <c r="D136" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E136" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G136" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I136" s="6">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J136" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K136" s="6">
         <f t="shared" si="15"/>
@@ -5045,27 +5065,33 @@
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="10"/>
-      <c r="B137" s="6"/>
+      <c r="A137" s="10">
+        <v>43448</v>
+      </c>
+      <c r="B137" s="6">
+        <v>7570</v>
+      </c>
       <c r="C137" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D137" s="8">
+        <v>7638</v>
+      </c>
+      <c r="D137" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E137" s="8"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G137" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I137" s="6">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J137" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K137" s="6">
         <f t="shared" si="15"/>
@@ -5074,26 +5100,30 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="10"/>
-      <c r="B138" s="13"/>
+      <c r="B138" s="13">
+        <v>7638</v>
+      </c>
       <c r="C138" s="6">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="D138" s="8">
+      <c r="D138" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E138" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G138" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I138" s="6">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-7638</v>
       </c>
       <c r="J138" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-7638</v>
       </c>
       <c r="K138" s="6">
         <f t="shared" si="15"/>
@@ -5107,9 +5137,9 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="D139" s="8">
+      <c r="D139" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E139" s="8"/>
       <c r="G139" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2740CAA-41B6-47FD-92DC-67B179E23F11}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2FD360-C68D-4213-BEFC-14DF869B3241}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="31">
   <si>
     <t>Datum</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>Korte omleiding</t>
+  </si>
+  <si>
+    <t>Vlietlaan, Assendelft</t>
   </si>
 </sst>
 </file>
@@ -566,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:K547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="F138" sqref="F138"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="F146" sqref="F146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5105,7 +5108,7 @@
       </c>
       <c r="C138" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>7706</v>
       </c>
       <c r="D138" s="8" t="str">
         <f t="shared" si="16"/>
@@ -5119,11 +5122,11 @@
       </c>
       <c r="I138" s="6">
         <f t="shared" si="13"/>
-        <v>-7638</v>
+        <v>68</v>
       </c>
       <c r="J138" s="6">
         <f t="shared" si="14"/>
-        <v>-7638</v>
+        <v>68</v>
       </c>
       <c r="K138" s="6">
         <f t="shared" si="15"/>
@@ -5131,27 +5134,33 @@
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="10"/>
-      <c r="B139" s="6"/>
+      <c r="A139" s="10">
+        <v>43454</v>
+      </c>
+      <c r="B139" s="6">
+        <v>7706</v>
+      </c>
       <c r="C139" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>7773</v>
       </c>
       <c r="D139" s="8" t="str">
         <f t="shared" si="16"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E139" s="8"/>
+      <c r="E139" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G139" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I139" s="6">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J139" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K139" s="6">
         <f t="shared" si="15"/>
@@ -5160,26 +5169,30 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="10"/>
-      <c r="B140" s="6"/>
+      <c r="B140" s="6">
+        <v>7773</v>
+      </c>
       <c r="C140" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D140" s="8">
+        <v>7841</v>
+      </c>
+      <c r="D140" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E140" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G140" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I140" s="6">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J140" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K140" s="6">
         <f t="shared" si="15"/>
@@ -5187,23 +5200,29 @@
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="10"/>
-      <c r="B141" s="6"/>
+      <c r="A141" s="10">
+        <v>43459</v>
+      </c>
+      <c r="B141" s="6">
+        <v>7841</v>
+      </c>
       <c r="C141" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D141" s="8">
+        <v>7849</v>
+      </c>
+      <c r="D141" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E141" s="8"/>
-      <c r="G141" s="4" t="s">
-        <v>10</v>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G141" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="I141" s="6">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J141" s="6">
         <f t="shared" si="14"/>
@@ -5211,27 +5230,31 @@
       </c>
       <c r="K141" s="6">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="10"/>
-      <c r="B142" s="6"/>
+      <c r="B142" s="6">
+        <v>7849</v>
+      </c>
       <c r="C142" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D142" s="8">
+        <v>7856</v>
+      </c>
+      <c r="D142" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E142" s="8"/>
-      <c r="G142" s="4" t="s">
-        <v>10</v>
+        <v>Doktersland 20, Koog aan de Zaan</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G142" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="I142" s="6">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J142" s="6">
         <f t="shared" si="14"/>
@@ -5239,27 +5262,31 @@
       </c>
       <c r="K142" s="6">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="10"/>
-      <c r="B143" s="6"/>
+      <c r="B143" s="6">
+        <v>7856</v>
+      </c>
       <c r="C143" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D143" s="8">
+        <v>7863</v>
+      </c>
+      <c r="D143" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E143" s="8"/>
-      <c r="G143" s="4" t="s">
-        <v>10</v>
+        <v>Vlietlaan, Assendelft</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G143" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="I143" s="6">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J143" s="6">
         <f t="shared" si="14"/>
@@ -5267,27 +5294,31 @@
       </c>
       <c r="K143" s="6">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="10"/>
-      <c r="B144" s="6"/>
+      <c r="B144" s="6">
+        <v>7863</v>
+      </c>
       <c r="C144" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D144" s="8">
+        <v>7870</v>
+      </c>
+      <c r="D144" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E144" s="8"/>
-      <c r="G144" s="4" t="s">
-        <v>10</v>
+        <v>Doktersland 20, Koog aan de Zaan</v>
+      </c>
+      <c r="E144" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G144" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="I144" s="6">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J144" s="6">
         <f t="shared" si="14"/>
@@ -5295,27 +5326,33 @@
       </c>
       <c r="K144" s="6">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="10"/>
-      <c r="B145" s="6"/>
+      <c r="A145" s="10">
+        <v>43465</v>
+      </c>
+      <c r="B145" s="6">
+        <v>7870</v>
+      </c>
       <c r="C145" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D145" s="8">
+        <v>7883</v>
+      </c>
+      <c r="D145" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E145" s="8"/>
-      <c r="G145" s="4" t="s">
-        <v>10</v>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G145" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="I145" s="6">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J145" s="6">
         <f t="shared" si="14"/>
@@ -5323,27 +5360,31 @@
       </c>
       <c r="K145" s="6">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="10"/>
-      <c r="B146" s="6"/>
+      <c r="B146" s="6">
+        <v>7883</v>
+      </c>
       <c r="C146" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D146" s="8">
+        <v>7895</v>
+      </c>
+      <c r="D146" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E146" s="8"/>
-      <c r="G146" s="4" t="s">
-        <v>10</v>
+        <v>Zuiderhoofdstraat 32, Krommenie</v>
+      </c>
+      <c r="E146" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G146" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="I146" s="6">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J146" s="6">
         <f t="shared" si="14"/>
@@ -5351,31 +5392,36 @@
       </c>
       <c r="K146" s="6">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="11"/>
-      <c r="B147" s="6"/>
+      <c r="A147" s="10">
+        <v>43102</v>
+      </c>
+      <c r="B147" s="6">
+        <v>7895</v>
+      </c>
       <c r="C147" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D147" s="8">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E147" s="8"/>
+        <v>7963</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E147" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G147" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I147" s="6">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J147" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K147" s="6">
         <f t="shared" si="15"/>
@@ -5384,27 +5430,31 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="10"/>
-      <c r="B148" s="6"/>
+      <c r="B148" s="6">
+        <v>7963</v>
+      </c>
       <c r="C148" s="6">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="D148" s="8">
+      <c r="D148" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E148" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E148" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="F148" s="9"/>
       <c r="G148" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I148" s="6">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-7963</v>
       </c>
       <c r="J148" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-7963</v>
       </c>
       <c r="K148" s="6">
         <f t="shared" si="15"/>
@@ -5418,9 +5468,9 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="D149" s="8">
+      <c r="D149" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E149" s="8"/>
       <c r="G149" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2FD360-C68D-4213-BEFC-14DF869B3241}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F3A63A-859A-46A2-8DFC-3145A4CDECBB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="31">
   <si>
     <t>Datum</t>
   </si>
@@ -570,7 +570,7 @@
   <dimension ref="A1:K547"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="F146" sqref="F146"/>
+      <selection activeCell="A152" sqref="A152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5397,7 +5397,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="10">
-        <v>43102</v>
+        <v>43467</v>
       </c>
       <c r="B147" s="6">
         <v>7895</v>
@@ -5435,7 +5435,7 @@
       </c>
       <c r="C148" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>8030</v>
       </c>
       <c r="D148" s="8" t="str">
         <f t="shared" si="16"/>
@@ -5450,11 +5450,11 @@
       </c>
       <c r="I148" s="6">
         <f t="shared" si="13"/>
-        <v>-7963</v>
+        <v>67</v>
       </c>
       <c r="J148" s="6">
         <f t="shared" si="14"/>
-        <v>-7963</v>
+        <v>67</v>
       </c>
       <c r="K148" s="6">
         <f t="shared" si="15"/>
@@ -5462,27 +5462,33 @@
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="11"/>
-      <c r="B149" s="6"/>
+      <c r="A149" s="10">
+        <v>43468</v>
+      </c>
+      <c r="B149" s="6">
+        <v>8030</v>
+      </c>
       <c r="C149" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>8098</v>
       </c>
       <c r="D149" s="8" t="str">
         <f t="shared" si="16"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E149" s="8"/>
+      <c r="E149" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G149" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I149" s="6">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J149" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K149" s="6">
         <f t="shared" si="15"/>
@@ -5491,26 +5497,30 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="10"/>
-      <c r="B150" s="6"/>
+      <c r="B150" s="6">
+        <v>8098</v>
+      </c>
       <c r="C150" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D150" s="8">
+        <v>8165</v>
+      </c>
+      <c r="D150" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E150" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E150" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G150" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I150" s="6">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J150" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K150" s="6">
         <f t="shared" si="15"/>
@@ -5518,27 +5528,33 @@
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="11"/>
-      <c r="B151" s="6"/>
+      <c r="A151" s="10">
+        <v>43472</v>
+      </c>
+      <c r="B151" s="6">
+        <v>8165</v>
+      </c>
       <c r="C151" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D151" s="8">
+        <v>8233</v>
+      </c>
+      <c r="D151" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E151" s="8"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G151" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I151" s="6">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J151" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K151" s="6">
         <f t="shared" si="15"/>
@@ -5547,14 +5563,16 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="10"/>
-      <c r="B152" s="6"/>
+      <c r="B152" s="6">
+        <v>8233</v>
+      </c>
       <c r="C152" s="6">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="D152" s="8">
+      <c r="D152" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>Duwboot 20, Houten</v>
       </c>
       <c r="E152" s="8"/>
       <c r="G152" s="4" t="s">
@@ -5562,11 +5580,11 @@
       </c>
       <c r="I152" s="6">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-8233</v>
       </c>
       <c r="J152" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-8233</v>
       </c>
       <c r="K152" s="6">
         <f t="shared" si="15"/>

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F3A63A-859A-46A2-8DFC-3145A4CDECBB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454653BD-4937-40F3-AFF8-C96101FFC853}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="31">
   <si>
     <t>Datum</t>
   </si>
@@ -570,7 +570,7 @@
   <dimension ref="A1:K547"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A152" sqref="A152"/>
+      <selection activeCell="B156" sqref="B156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5568,23 +5568,25 @@
       </c>
       <c r="C152" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>8300</v>
       </c>
       <c r="D152" s="8" t="str">
         <f t="shared" si="16"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E152" s="8"/>
+      <c r="E152" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G152" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I152" s="6">
         <f t="shared" si="13"/>
-        <v>-8233</v>
+        <v>67</v>
       </c>
       <c r="J152" s="6">
         <f t="shared" si="14"/>
-        <v>-8233</v>
+        <v>67</v>
       </c>
       <c r="K152" s="6">
         <f t="shared" si="15"/>
@@ -5592,27 +5594,33 @@
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="11"/>
-      <c r="B153" s="6"/>
+      <c r="A153" s="10">
+        <v>43473</v>
+      </c>
+      <c r="B153" s="6">
+        <v>8300</v>
+      </c>
       <c r="C153" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D153" s="8">
+        <v>8368</v>
+      </c>
+      <c r="D153" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E153" s="8"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E153" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G153" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I153" s="6">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J153" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K153" s="6">
         <f t="shared" si="15"/>
@@ -5621,26 +5629,29 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="10"/>
-      <c r="B154" s="6"/>
+      <c r="B154" s="6">
+        <v>8368</v>
+      </c>
       <c r="C154" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D154" s="8">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E154" s="8"/>
+        <v>8436</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E154" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G154" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I154" s="6">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J154" s="6">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K154" s="6">
         <f t="shared" si="15"/>
@@ -5648,27 +5659,32 @@
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="11"/>
-      <c r="B155" s="6"/>
+      <c r="A155" s="10">
+        <v>43475</v>
+      </c>
+      <c r="B155" s="6">
+        <v>8436</v>
+      </c>
       <c r="C155" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D155" s="8">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E155" s="8"/>
+        <v>8504</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E155" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G155" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I155" s="13">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J155" s="13">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K155" s="13">
         <f t="shared" si="15"/>
@@ -5677,26 +5693,29 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="10"/>
-      <c r="B156" s="6"/>
+      <c r="B156" s="6">
+        <v>8504</v>
+      </c>
       <c r="C156" s="6">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="D156" s="8">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E156" s="8"/>
+      <c r="D156" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E156" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G156" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I156" s="13">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-8504</v>
       </c>
       <c r="J156" s="13">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-8504</v>
       </c>
       <c r="K156" s="13">
         <f t="shared" si="15"/>
@@ -5710,9 +5729,9 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="D157" s="8">
+      <c r="D157" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E157" s="8"/>
       <c r="G157" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454653BD-4937-40F3-AFF8-C96101FFC853}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C961BA-EAE0-4019-B1EE-98657FF6A49C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="32">
   <si>
     <t>Datum</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>Vlietlaan, Assendelft</t>
+  </si>
+  <si>
+    <t>Stormhoek 21, 1506 SW, Zaandam</t>
   </si>
 </sst>
 </file>
@@ -569,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:K547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B156" sqref="B156"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="F166" sqref="F166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5364,7 +5367,9 @@
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="10"/>
+      <c r="A146" s="10">
+        <v>43466</v>
+      </c>
       <c r="B146" s="6">
         <v>7883</v>
       </c>
@@ -5698,7 +5703,7 @@
       </c>
       <c r="C156" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>8571</v>
       </c>
       <c r="D156" s="8" t="s">
         <v>6</v>
@@ -5711,11 +5716,11 @@
       </c>
       <c r="I156" s="13">
         <f t="shared" si="13"/>
-        <v>-8504</v>
+        <v>67</v>
       </c>
       <c r="J156" s="13">
         <f t="shared" si="14"/>
-        <v>-8504</v>
+        <v>67</v>
       </c>
       <c r="K156" s="13">
         <f t="shared" si="15"/>
@@ -5723,27 +5728,33 @@
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="11"/>
-      <c r="B157" s="6"/>
+      <c r="A157" s="10">
+        <v>43476</v>
+      </c>
+      <c r="B157" s="6">
+        <v>8571</v>
+      </c>
       <c r="C157" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>8639</v>
       </c>
       <c r="D157" s="8" t="str">
         <f t="shared" si="16"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E157" s="8"/>
+      <c r="E157" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G157" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I157" s="13">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J157" s="13">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K157" s="13">
         <f t="shared" si="15"/>
@@ -5752,26 +5763,30 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="10"/>
-      <c r="B158" s="6"/>
+      <c r="B158" s="6">
+        <v>8639</v>
+      </c>
       <c r="C158" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D158" s="8">
+        <v>8706</v>
+      </c>
+      <c r="D158" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E158" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E158" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G158" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I158" s="13">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J158" s="13">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K158" s="13">
         <f t="shared" si="15"/>
@@ -5779,23 +5794,29 @@
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="10"/>
-      <c r="B159" s="6"/>
+      <c r="A159" s="10">
+        <v>43477</v>
+      </c>
+      <c r="B159" s="6">
+        <v>8706</v>
+      </c>
       <c r="C159" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D159" s="8">
+        <v>8710</v>
+      </c>
+      <c r="D159" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E159" s="8"/>
-      <c r="G159" s="4" t="s">
-        <v>10</v>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E159" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G159" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="I159" s="13">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J159" s="13">
         <f t="shared" si="14"/>
@@ -5803,27 +5824,31 @@
       </c>
       <c r="K159" s="13">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="11"/>
-      <c r="B160" s="6"/>
+      <c r="B160" s="6">
+        <v>8710</v>
+      </c>
       <c r="C160" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D160" s="8">
+        <v>8714</v>
+      </c>
+      <c r="D160" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E160" s="8"/>
-      <c r="G160" s="4" t="s">
-        <v>10</v>
+        <v>Stormhoek 21, 1506 SW, Zaandam</v>
+      </c>
+      <c r="E160" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G160" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="I160" s="13">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J160" s="6">
         <f t="shared" ref="J160:J221" si="17">IF(AND(G160 = "Zakelijk", H160 = ""), I160, IF(AND(G160 = "Zakelijk", NOT(H160 = "")), I160 - H160, 0))</f>
@@ -5831,27 +5856,33 @@
       </c>
       <c r="K160" s="6">
         <f t="shared" ref="K160:K221" si="18">IF(AND(G160 = "Zakelijk", NOT(H160 = "")), H160, IF(G160 = "Privé", I160, 0))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="10"/>
-      <c r="B161" s="6"/>
+      <c r="A161" s="10">
+        <v>43478</v>
+      </c>
+      <c r="B161" s="6">
+        <v>8714</v>
+      </c>
       <c r="C161" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D161" s="8">
+        <v>8718</v>
+      </c>
+      <c r="D161" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E161" s="8"/>
-      <c r="G161" s="4" t="s">
-        <v>10</v>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G161" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="I161" s="13">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J161" s="6">
         <f t="shared" si="17"/>
@@ -5859,27 +5890,31 @@
       </c>
       <c r="K161" s="6">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="11"/>
-      <c r="B162" s="6"/>
+      <c r="B162" s="6">
+        <v>8718</v>
+      </c>
       <c r="C162" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D162" s="8">
+        <v>8723</v>
+      </c>
+      <c r="D162" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E162" s="8"/>
-      <c r="G162" s="4" t="s">
-        <v>10</v>
+        <v>Stormhoek 21, 1506 SW, Zaandam</v>
+      </c>
+      <c r="E162" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G162" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="I162" s="13">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J162" s="6">
         <f t="shared" si="17"/>
@@ -5887,31 +5922,36 @@
       </c>
       <c r="K162" s="6">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="10"/>
-      <c r="B163" s="6"/>
+      <c r="A163" s="10">
+        <v>43479</v>
+      </c>
+      <c r="B163" s="6">
+        <v>8723</v>
+      </c>
       <c r="C163" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D163" s="8">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E163" s="8"/>
+        <v>8790</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G163" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I163" s="13">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J163" s="6">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K163" s="6">
         <f t="shared" si="18"/>
@@ -5920,26 +5960,30 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="11"/>
-      <c r="B164" s="6"/>
+      <c r="B164" s="6">
+        <v>8790</v>
+      </c>
       <c r="C164" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D164" s="8">
+        <v>8858</v>
+      </c>
+      <c r="D164" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E164" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E164" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G164" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I164" s="13">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J164" s="13">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K164" s="13">
         <f t="shared" si="18"/>
@@ -5947,27 +5991,33 @@
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" s="10"/>
-      <c r="B165" s="6"/>
+      <c r="A165" s="10">
+        <v>43481</v>
+      </c>
+      <c r="B165" s="6">
+        <v>8858</v>
+      </c>
       <c r="C165" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D165" s="8">
+        <v>8926</v>
+      </c>
+      <c r="D165" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E165" s="8"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G165" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I165" s="13">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J165" s="13">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K165" s="13">
         <f t="shared" si="18"/>
@@ -5976,26 +6026,30 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="11"/>
-      <c r="B166" s="6"/>
+      <c r="B166" s="6">
+        <v>8926</v>
+      </c>
       <c r="C166" s="6">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="D166" s="8">
+      <c r="D166" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E166" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E166" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G166" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I166" s="13">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-8926</v>
       </c>
       <c r="J166" s="13">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>-8926</v>
       </c>
       <c r="K166" s="13">
         <f t="shared" si="18"/>
@@ -6009,9 +6063,9 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="D167" s="8">
+      <c r="D167" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E167" s="8"/>
       <c r="G167" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C961BA-EAE0-4019-B1EE-98657FF6A49C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36776DC6-D547-468F-A8B7-5C10BA5B09B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
+    <workbookView xWindow="-4425" yWindow="-21720" windowWidth="38640" windowHeight="21390" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="33">
   <si>
     <t>Datum</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>Stormhoek 21, 1506 SW, Zaandam</t>
+  </si>
+  <si>
+    <t>Pieter Ghijsenlaan 21a, 1506 PW, Zaandam</t>
   </si>
 </sst>
 </file>
@@ -573,7 +576,7 @@
   <dimension ref="A1:K547"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="F166" sqref="F166"/>
+      <selection activeCell="A173" sqref="A173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6031,7 +6034,7 @@
       </c>
       <c r="C166" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>8993</v>
       </c>
       <c r="D166" s="8" t="str">
         <f t="shared" si="16"/>
@@ -6045,11 +6048,11 @@
       </c>
       <c r="I166" s="13">
         <f t="shared" si="13"/>
-        <v>-8926</v>
+        <v>67</v>
       </c>
       <c r="J166" s="13">
         <f t="shared" si="17"/>
-        <v>-8926</v>
+        <v>67</v>
       </c>
       <c r="K166" s="13">
         <f t="shared" si="18"/>
@@ -6057,23 +6060,29 @@
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167" s="10"/>
-      <c r="B167" s="6"/>
+      <c r="A167" s="10">
+        <v>43482</v>
+      </c>
+      <c r="B167" s="6">
+        <v>8993</v>
+      </c>
       <c r="C167" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>8997</v>
       </c>
       <c r="D167" s="8" t="str">
         <f t="shared" si="16"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E167" s="8"/>
-      <c r="G167" s="4" t="s">
-        <v>10</v>
+      <c r="E167" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G167" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="I167" s="13">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J167" s="13">
         <f t="shared" si="17"/>
@@ -6081,27 +6090,31 @@
       </c>
       <c r="K167" s="13">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="11"/>
-      <c r="B168" s="6"/>
+      <c r="B168" s="6">
+        <v>8997</v>
+      </c>
       <c r="C168" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D168" s="8">
+        <v>8998</v>
+      </c>
+      <c r="D168" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E168" s="8"/>
-      <c r="G168" s="4" t="s">
-        <v>10</v>
+        <v>Pieter Ghijsenlaan 21a, 1506 PW, Zaandam</v>
+      </c>
+      <c r="E168" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G168" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="I168" s="13">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" s="13">
         <f t="shared" si="17"/>
@@ -6109,27 +6122,31 @@
       </c>
       <c r="K168" s="13">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="10"/>
-      <c r="B169" s="6"/>
+      <c r="B169" s="6">
+        <v>8998</v>
+      </c>
       <c r="C169" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D169" s="8">
+        <v>9002</v>
+      </c>
+      <c r="D169" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E169" s="8"/>
-      <c r="G169" s="4" t="s">
-        <v>10</v>
+        <v>Stormhoek 21, 1506 SW, Zaandam</v>
+      </c>
+      <c r="E169" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G169" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="I169" s="13">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J169" s="6">
         <f t="shared" si="17"/>
@@ -6137,31 +6154,37 @@
       </c>
       <c r="K169" s="6">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" s="11"/>
-      <c r="B170" s="6"/>
+      <c r="A170" s="10">
+        <v>43483</v>
+      </c>
+      <c r="B170" s="6">
+        <v>9002</v>
+      </c>
       <c r="C170" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D170" s="8">
+        <v>9070</v>
+      </c>
+      <c r="D170" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E170" s="8"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E170" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G170" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I170" s="13">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J170" s="6">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K170" s="6">
         <f t="shared" si="18"/>
@@ -6170,26 +6193,30 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="10"/>
-      <c r="B171" s="6"/>
+      <c r="B171" s="6">
+        <v>9070</v>
+      </c>
       <c r="C171" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D171" s="8">
+        <v>9138</v>
+      </c>
+      <c r="D171" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E171" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E171" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G171" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I171" s="13">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J171" s="6">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K171" s="6">
         <f t="shared" si="18"/>
@@ -6197,27 +6224,33 @@
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172" s="11"/>
-      <c r="B172" s="6"/>
+      <c r="A172" s="10">
+        <v>43488</v>
+      </c>
+      <c r="B172" s="6">
+        <v>9138</v>
+      </c>
       <c r="C172" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D172" s="8">
+        <v>9206</v>
+      </c>
+      <c r="D172" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E172" s="8"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E172" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G172" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I172" s="13">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J172" s="6">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K172" s="6">
         <f t="shared" si="18"/>
@@ -6226,26 +6259,30 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="10"/>
-      <c r="B173" s="6"/>
+      <c r="B173" s="6">
+        <v>9206</v>
+      </c>
       <c r="C173" s="6">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="D173" s="8">
+      <c r="D173" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E173" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E173" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G173" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I173" s="13">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-9206</v>
       </c>
       <c r="J173" s="13">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>-9206</v>
       </c>
       <c r="K173" s="13">
         <f t="shared" si="18"/>
@@ -6259,9 +6296,9 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="D174" s="8">
+      <c r="D174" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E174" s="8"/>
       <c r="G174" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36776DC6-D547-468F-A8B7-5C10BA5B09B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B77A88-0002-404C-9490-2DA967F55BED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4425" yWindow="-21720" windowWidth="38640" windowHeight="21390" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="33">
   <si>
     <t>Datum</t>
   </si>
@@ -576,7 +576,7 @@
   <dimension ref="A1:K547"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A173" sqref="A173"/>
+      <selection activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6264,7 +6264,7 @@
       </c>
       <c r="C173" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>9273</v>
       </c>
       <c r="D173" s="8" t="str">
         <f t="shared" si="16"/>
@@ -6278,11 +6278,11 @@
       </c>
       <c r="I173" s="13">
         <f t="shared" si="13"/>
-        <v>-9206</v>
+        <v>67</v>
       </c>
       <c r="J173" s="13">
         <f t="shared" si="17"/>
-        <v>-9206</v>
+        <v>67</v>
       </c>
       <c r="K173" s="13">
         <f t="shared" si="18"/>
@@ -6290,27 +6290,33 @@
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="11"/>
-      <c r="B174" s="6"/>
+      <c r="A174" s="10">
+        <v>43490</v>
+      </c>
+      <c r="B174" s="6">
+        <v>9273</v>
+      </c>
       <c r="C174" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>9341</v>
       </c>
       <c r="D174" s="8" t="str">
         <f t="shared" si="16"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E174" s="8"/>
+      <c r="E174" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G174" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I174" s="13">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J174" s="13">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K174" s="13">
         <f t="shared" si="18"/>
@@ -6319,26 +6325,30 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="10"/>
-      <c r="B175" s="6"/>
+      <c r="B175" s="6">
+        <v>9341</v>
+      </c>
       <c r="C175" s="6">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="D175" s="8">
+      <c r="D175" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E175" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E175" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G175" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I175" s="13">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-9341</v>
       </c>
       <c r="J175" s="13">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>-9341</v>
       </c>
       <c r="K175" s="13">
         <f t="shared" si="18"/>
@@ -6352,9 +6362,9 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="D176" s="8">
+      <c r="D176" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E176" s="8"/>
       <c r="G176" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B77A88-0002-404C-9490-2DA967F55BED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4583F5D2-FE83-4B5E-9F35-7D772DF2251E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4425" yWindow="-21720" windowWidth="38640" windowHeight="21390" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="33">
   <si>
     <t>Datum</t>
   </si>
@@ -576,7 +576,7 @@
   <dimension ref="A1:K547"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B176" sqref="B176"/>
+      <selection activeCell="F179" sqref="F179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6330,7 +6330,7 @@
       </c>
       <c r="C175" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>9409</v>
       </c>
       <c r="D175" s="8" t="str">
         <f t="shared" si="16"/>
@@ -6344,11 +6344,11 @@
       </c>
       <c r="I175" s="13">
         <f t="shared" si="13"/>
-        <v>-9341</v>
+        <v>68</v>
       </c>
       <c r="J175" s="13">
         <f t="shared" si="17"/>
-        <v>-9341</v>
+        <v>68</v>
       </c>
       <c r="K175" s="13">
         <f t="shared" si="18"/>
@@ -6356,27 +6356,33 @@
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A176" s="11"/>
-      <c r="B176" s="6"/>
+      <c r="A176" s="10">
+        <v>43493</v>
+      </c>
+      <c r="B176" s="6">
+        <v>9409</v>
+      </c>
       <c r="C176" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>9476</v>
       </c>
       <c r="D176" s="8" t="str">
         <f t="shared" si="16"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E176" s="8"/>
+      <c r="E176" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G176" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I176" s="13">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J176" s="13">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K176" s="13">
         <f t="shared" si="18"/>
@@ -6385,26 +6391,30 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="10"/>
-      <c r="B177" s="6"/>
+      <c r="B177" s="6">
+        <v>9476</v>
+      </c>
       <c r="C177" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D177" s="8">
+        <v>9544</v>
+      </c>
+      <c r="D177" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E177" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E177" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G177" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I177" s="13">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J177" s="13">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K177" s="13">
         <f t="shared" si="18"/>
@@ -6412,27 +6422,33 @@
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A178" s="11"/>
-      <c r="B178" s="6"/>
+      <c r="A178" s="10">
+        <v>43495</v>
+      </c>
+      <c r="B178" s="6">
+        <v>9544</v>
+      </c>
       <c r="C178" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D178" s="8">
+        <v>9612</v>
+      </c>
+      <c r="D178" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E178" s="8"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E178" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="G178" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I178" s="13">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J178" s="6">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K178" s="6">
         <f t="shared" si="18"/>
@@ -6441,26 +6457,30 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="10"/>
-      <c r="B179" s="6"/>
+      <c r="B179" s="6">
+        <v>9612</v>
+      </c>
       <c r="C179" s="6">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="D179" s="8">
+      <c r="D179" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E179" s="8"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E179" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="G179" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I179" s="13">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-9612</v>
       </c>
       <c r="J179" s="6">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>-9612</v>
       </c>
       <c r="K179" s="6">
         <f t="shared" si="18"/>
@@ -6474,9 +6494,9 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="D180" s="8">
+      <c r="D180" s="8" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E180" s="8"/>
       <c r="G180" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EE6922-5E14-4D56-A1C2-E88C2C067D96}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB3F38E-E304-4447-BA1C-F32B853D1AC7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4425" yWindow="-21720" windowWidth="38640" windowHeight="21390" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="35">
   <si>
     <t>Datum</t>
   </si>
@@ -169,6 +170,9 @@
   </si>
   <si>
     <t>Dalsteindreef 2002, 1112 XC, Diemen</t>
+  </si>
+  <si>
+    <t>Fraijlemaborg 141, 1102 CV, Amsterdam</t>
   </si>
 </sst>
 </file>
@@ -575,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:K547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="F185" sqref="F185"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="A187" sqref="A187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6599,8 +6603,8 @@
       <c r="E183" t="s">
         <v>7</v>
       </c>
-      <c r="G183" s="4" t="s">
-        <v>10</v>
+      <c r="G183" t="s">
+        <v>16</v>
       </c>
       <c r="I183" s="11">
         <f t="shared" si="13"/>
@@ -6608,11 +6612,11 @@
       </c>
       <c r="J183" s="11">
         <f t="shared" si="17"/>
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="K183" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
@@ -6623,7 +6627,6 @@
         <v>9867</v>
       </c>
       <c r="C184" s="6">
-        <f t="shared" si="12"/>
         <v>9935</v>
       </c>
       <c r="D184" t="str">
@@ -6655,8 +6658,7 @@
         <v>9935</v>
       </c>
       <c r="C185" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <v>10002</v>
       </c>
       <c r="D185" t="str">
         <f t="shared" si="16"/>
@@ -6670,11 +6672,11 @@
       </c>
       <c r="I185" s="11">
         <f t="shared" si="13"/>
-        <v>-9935</v>
+        <v>67</v>
       </c>
       <c r="J185" s="6">
         <f t="shared" si="17"/>
-        <v>-9935</v>
+        <v>67</v>
       </c>
       <c r="K185" s="6">
         <f t="shared" si="18"/>
@@ -6682,26 +6684,33 @@
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B186" s="6"/>
+      <c r="A186" s="9">
+        <v>43502</v>
+      </c>
+      <c r="B186" s="6">
+        <v>10002</v>
+      </c>
       <c r="C186" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>10028</v>
       </c>
       <c r="D186" t="str">
         <f t="shared" si="16"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E186"/>
+      <c r="E186" t="s">
+        <v>34</v>
+      </c>
       <c r="G186" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I186" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J186" s="6">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="K186" s="6">
         <f t="shared" si="18"/>
@@ -6710,26 +6719,29 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="9"/>
-      <c r="B187" s="6"/>
+      <c r="B187" s="6">
+        <v>10028</v>
+      </c>
       <c r="C187" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D187">
+        <v>10056</v>
+      </c>
+      <c r="D187" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E187"/>
+        <v>Fraijlemaborg 141, 1102 CV, Amsterdam</v>
+      </c>
+      <c r="E187" t="s">
+        <v>7</v>
+      </c>
       <c r="G187" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I187" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J187" s="6">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="K187" s="6">
         <f t="shared" si="18"/>
@@ -6742,9 +6754,9 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="D188">
+      <c r="D188" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E188"/>
       <c r="G188" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB3F38E-E304-4447-BA1C-F32B853D1AC7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD014315-BB80-4124-A287-81D08C861D25}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$501</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="35">
   <si>
     <t>Datum</t>
   </si>
@@ -580,7 +581,7 @@
   <dimension ref="A1:K547"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="A187" sqref="A187"/>
+      <selection activeCell="A188" sqref="A188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6749,26 +6750,33 @@
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B188" s="6"/>
+      <c r="A188" s="9">
+        <v>43503</v>
+      </c>
+      <c r="B188" s="6">
+        <v>10056</v>
+      </c>
       <c r="C188" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>10124</v>
       </c>
       <c r="D188" t="str">
         <f t="shared" si="16"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E188"/>
+      <c r="E188" t="s">
+        <v>6</v>
+      </c>
       <c r="G188" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I188" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J188" s="6">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K188" s="6">
         <f t="shared" si="18"/>
@@ -6777,27 +6785,31 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="9"/>
-      <c r="B189" s="6"/>
+      <c r="B189" s="6">
+        <v>10124</v>
+      </c>
       <c r="C189" s="6">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="D189">
+      <c r="D189" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E189"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E189" t="s">
+        <v>7</v>
+      </c>
       <c r="F189" s="8"/>
       <c r="G189" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I189" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-10124</v>
       </c>
       <c r="J189" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>-10124</v>
       </c>
       <c r="K189" s="11">
         <f t="shared" si="18"/>
@@ -6811,9 +6823,9 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="D190">
+      <c r="D190" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E190"/>
       <c r="G190" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD014315-BB80-4124-A287-81D08C861D25}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B570AE0-DA0B-4117-A669-F87894BEBE42}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$501</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="36">
   <si>
     <t>Datum</t>
   </si>
@@ -174,6 +173,9 @@
   </si>
   <si>
     <t>Fraijlemaborg 141, 1102 CV, Amsterdam</t>
+  </si>
+  <si>
+    <t>Laan van Decima 1, 2031 CX, Haarlem</t>
   </si>
 </sst>
 </file>
@@ -580,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:K547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="A188" sqref="A188"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3214,8 +3216,8 @@
         <v>19</v>
       </c>
       <c r="F80" s="8"/>
-      <c r="G80" s="4" t="s">
-        <v>10</v>
+      <c r="G80" t="s">
+        <v>16</v>
       </c>
       <c r="I80" s="6">
         <f t="shared" si="7"/>
@@ -3223,11 +3225,11 @@
       </c>
       <c r="J80" s="6">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K80" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -3246,8 +3248,8 @@
       <c r="E81" t="s">
         <v>7</v>
       </c>
-      <c r="G81" s="4" t="s">
-        <v>10</v>
+      <c r="G81" t="s">
+        <v>16</v>
       </c>
       <c r="I81" s="6">
         <f t="shared" si="7"/>
@@ -3255,11 +3257,11 @@
       </c>
       <c r="J81" s="6">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K81" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -4436,8 +4438,8 @@
       <c r="E117" t="s">
         <v>24</v>
       </c>
-      <c r="G117" s="4" t="s">
-        <v>10</v>
+      <c r="G117" t="s">
+        <v>16</v>
       </c>
       <c r="I117" s="6">
         <f t="shared" si="11"/>
@@ -4445,11 +4447,11 @@
       </c>
       <c r="J117" s="6">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K117" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -4468,8 +4470,8 @@
       <c r="E118" t="s">
         <v>7</v>
       </c>
-      <c r="G118" s="4" t="s">
-        <v>10</v>
+      <c r="G118" t="s">
+        <v>16</v>
       </c>
       <c r="I118" s="6">
         <f t="shared" si="11"/>
@@ -4477,11 +4479,11 @@
       </c>
       <c r="J118" s="6">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K118" s="6">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -6790,7 +6792,7 @@
       </c>
       <c r="C189" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>10195</v>
       </c>
       <c r="D189" t="str">
         <f t="shared" si="16"/>
@@ -6805,11 +6807,11 @@
       </c>
       <c r="I189" s="11">
         <f t="shared" si="13"/>
-        <v>-10124</v>
+        <v>71</v>
       </c>
       <c r="J189" s="11">
         <f t="shared" si="17"/>
-        <v>-10124</v>
+        <v>71</v>
       </c>
       <c r="K189" s="11">
         <f t="shared" si="18"/>
@@ -6817,27 +6819,33 @@
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A190" s="9"/>
-      <c r="B190" s="6"/>
+      <c r="A190" s="9">
+        <v>43504</v>
+      </c>
+      <c r="B190" s="6">
+        <v>10195</v>
+      </c>
       <c r="C190" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>10259</v>
       </c>
       <c r="D190" t="str">
         <f t="shared" si="16"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E190"/>
+      <c r="E190" t="s">
+        <v>6</v>
+      </c>
       <c r="G190" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I190" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="J190" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="K190" s="11">
         <f t="shared" si="18"/>
@@ -6845,26 +6853,30 @@
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B191" s="6"/>
+      <c r="B191" s="6">
+        <v>10259</v>
+      </c>
       <c r="C191" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D191">
+        <v>10327</v>
+      </c>
+      <c r="D191" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E191"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E191" t="s">
+        <v>7</v>
+      </c>
       <c r="G191" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I191" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J191" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K191" s="11">
         <f t="shared" si="18"/>
@@ -6872,23 +6884,28 @@
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A192" s="9"/>
-      <c r="B192" s="6"/>
+      <c r="A192" s="9">
+        <v>43505</v>
+      </c>
+      <c r="B192" s="6">
+        <v>10327</v>
+      </c>
       <c r="C192" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D192">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E192"/>
-      <c r="G192" s="4" t="s">
-        <v>10</v>
+        <v>10354</v>
+      </c>
+      <c r="D192" t="s">
+        <v>7</v>
+      </c>
+      <c r="E192" t="s">
+        <v>35</v>
+      </c>
+      <c r="G192" t="s">
+        <v>16</v>
       </c>
       <c r="I192" s="11">
         <f t="shared" ref="I192:I255" si="19">(C192-B192)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J192" s="11">
         <f t="shared" si="17"/>
@@ -6896,26 +6913,30 @@
       </c>
       <c r="K192" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B193" s="6"/>
+      <c r="B193" s="6">
+        <v>10354</v>
+      </c>
       <c r="C193" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="D193">
+        <v>10390</v>
+      </c>
+      <c r="D193" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E193"/>
-      <c r="G193" s="4" t="s">
-        <v>10</v>
+        <v>Laan van Decima 1, 2031 CX, Haarlem</v>
+      </c>
+      <c r="E193" t="s">
+        <v>31</v>
+      </c>
+      <c r="G193" t="s">
+        <v>16</v>
       </c>
       <c r="I193" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="J193" s="11">
         <f t="shared" si="17"/>
@@ -6923,27 +6944,31 @@
       </c>
       <c r="K193" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="9"/>
-      <c r="B194" s="6"/>
+      <c r="B194" s="6">
+        <v>10390</v>
+      </c>
       <c r="C194" s="6">
         <f t="shared" ref="C194:C257" si="20">B195</f>
-        <v>0</v>
-      </c>
-      <c r="D194">
+        <v>10394</v>
+      </c>
+      <c r="D194" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E194"/>
-      <c r="G194" s="4" t="s">
-        <v>10</v>
+        <v>Stormhoek 21, 1506 SW, Zaandam</v>
+      </c>
+      <c r="E194" t="s">
+        <v>7</v>
+      </c>
+      <c r="G194" t="s">
+        <v>16</v>
       </c>
       <c r="I194" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J194" s="6">
         <f t="shared" si="17"/>
@@ -6951,30 +6976,37 @@
       </c>
       <c r="K194" s="6">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B195" s="6"/>
+      <c r="A195" s="9">
+        <v>43508</v>
+      </c>
+      <c r="B195" s="6">
+        <v>10394</v>
+      </c>
       <c r="C195" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="D195">
+        <v>10462</v>
+      </c>
+      <c r="D195" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E195"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E195" t="s">
+        <v>6</v>
+      </c>
       <c r="G195" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I195" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J195" s="6">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K195" s="6">
         <f t="shared" si="18"/>
@@ -6983,26 +7015,30 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="9"/>
-      <c r="B196" s="6"/>
+      <c r="B196" s="6">
+        <v>10462</v>
+      </c>
       <c r="C196" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="D196">
+        <v>10529</v>
+      </c>
+      <c r="D196" t="str">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E196"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E196" t="s">
+        <v>7</v>
+      </c>
       <c r="G196" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I196" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J196" s="6">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K196" s="6">
         <f t="shared" si="18"/>
@@ -7010,26 +7046,33 @@
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B197" s="6"/>
+      <c r="A197" s="9">
+        <v>43509</v>
+      </c>
+      <c r="B197" s="6">
+        <v>10529</v>
+      </c>
       <c r="C197" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="D197">
+        <v>10597</v>
+      </c>
+      <c r="D197" t="str">
         <f t="shared" ref="D197:D260" si="21">E196</f>
-        <v>0</v>
-      </c>
-      <c r="E197"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E197" t="s">
+        <v>6</v>
+      </c>
       <c r="G197" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I197" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J197" s="6">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K197" s="6">
         <f t="shared" si="18"/>
@@ -7038,26 +7081,30 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="9"/>
-      <c r="B198" s="6"/>
+      <c r="B198" s="6">
+        <v>10597</v>
+      </c>
       <c r="C198" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="D198">
+        <v>10665</v>
+      </c>
+      <c r="D198" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E198"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E198" t="s">
+        <v>7</v>
+      </c>
       <c r="G198" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I198" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J198" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K198" s="11">
         <f t="shared" si="18"/>
@@ -7065,26 +7112,33 @@
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B199" s="6"/>
+      <c r="A199" s="9">
+        <v>43510</v>
+      </c>
+      <c r="B199" s="6">
+        <v>10665</v>
+      </c>
       <c r="C199" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="D199">
+        <v>10732</v>
+      </c>
+      <c r="D199" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E199"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E199" t="s">
+        <v>6</v>
+      </c>
       <c r="G199" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I199" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J199" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K199" s="11">
         <f t="shared" si="18"/>
@@ -7093,26 +7147,30 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="9"/>
-      <c r="B200" s="6"/>
+      <c r="B200" s="6">
+        <v>10732</v>
+      </c>
       <c r="C200" s="6">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="D200">
+      <c r="D200" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E200"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E200" t="s">
+        <v>7</v>
+      </c>
       <c r="G200" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I200" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>-10732</v>
       </c>
       <c r="J200" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>-10732</v>
       </c>
       <c r="K200" s="11">
         <f t="shared" si="18"/>
@@ -7125,9 +7183,9 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="D201">
+      <c r="D201" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E201"/>
       <c r="G201" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B570AE0-DA0B-4117-A669-F87894BEBE42}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068CC20C-D286-40B7-AC53-358565A943B4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="37">
   <si>
     <t>Datum</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>Laan van Decima 1, 2031 CX, Haarlem</t>
+  </si>
+  <si>
+    <t>Kleine Tocht 19, 1507 CB, Zaandam</t>
   </si>
 </sst>
 </file>
@@ -583,7 +586,7 @@
   <dimension ref="A1:K547"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="E125" sqref="E125"/>
+      <selection activeCell="B206" sqref="B206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7152,7 +7155,7 @@
       </c>
       <c r="C200" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>10800</v>
       </c>
       <c r="D200" t="str">
         <f t="shared" si="21"/>
@@ -7166,11 +7169,11 @@
       </c>
       <c r="I200" s="11">
         <f t="shared" si="19"/>
-        <v>-10732</v>
+        <v>68</v>
       </c>
       <c r="J200" s="11">
         <f t="shared" si="17"/>
-        <v>-10732</v>
+        <v>68</v>
       </c>
       <c r="K200" s="11">
         <f t="shared" si="18"/>
@@ -7178,22 +7181,29 @@
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B201" s="6"/>
+      <c r="A201" s="9">
+        <v>43511</v>
+      </c>
+      <c r="B201" s="6">
+        <v>10800</v>
+      </c>
       <c r="C201" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>10803</v>
       </c>
       <c r="D201" t="str">
         <f t="shared" si="21"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E201"/>
-      <c r="G201" s="4" t="s">
-        <v>10</v>
+      <c r="E201" t="s">
+        <v>36</v>
+      </c>
+      <c r="G201" t="s">
+        <v>16</v>
       </c>
       <c r="I201" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J201" s="11">
         <f t="shared" si="17"/>
@@ -7201,27 +7211,31 @@
       </c>
       <c r="K201" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="9"/>
-      <c r="B202" s="6"/>
+      <c r="B202" s="6">
+        <v>10803</v>
+      </c>
       <c r="C202" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="D202">
+        <v>10806</v>
+      </c>
+      <c r="D202" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E202"/>
-      <c r="G202" s="4" t="s">
-        <v>10</v>
+        <v>Kleine Tocht 19, 1507 CB, Zaandam</v>
+      </c>
+      <c r="E202" t="s">
+        <v>7</v>
+      </c>
+      <c r="G202" t="s">
+        <v>16</v>
       </c>
       <c r="I202" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J202" s="11">
         <f t="shared" si="17"/>
@@ -7229,30 +7243,37 @@
       </c>
       <c r="K202" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B203" s="6"/>
+      <c r="A203" s="9">
+        <v>43514</v>
+      </c>
+      <c r="B203" s="6">
+        <v>10806</v>
+      </c>
       <c r="C203" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="D203">
+        <v>10873</v>
+      </c>
+      <c r="D203" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E203"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E203" t="s">
+        <v>6</v>
+      </c>
       <c r="G203" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I203" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J203" s="6">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K203" s="6">
         <f t="shared" si="18"/>
@@ -7261,26 +7282,30 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="9"/>
-      <c r="B204" s="6"/>
+      <c r="B204" s="6">
+        <v>10873</v>
+      </c>
       <c r="C204" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="D204">
+        <v>10941</v>
+      </c>
+      <c r="D204" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E204"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E204" t="s">
+        <v>7</v>
+      </c>
       <c r="G204" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I204" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J204" s="6">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K204" s="6">
         <f t="shared" si="18"/>
@@ -7288,26 +7313,33 @@
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B205" s="6"/>
+      <c r="A205" s="9">
+        <v>43517</v>
+      </c>
+      <c r="B205" s="6">
+        <v>10941</v>
+      </c>
       <c r="C205" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="D205">
+        <v>11008</v>
+      </c>
+      <c r="D205" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E205"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E205" t="s">
+        <v>6</v>
+      </c>
       <c r="G205" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I205" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J205" s="6">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K205" s="6">
         <f t="shared" si="18"/>
@@ -7316,26 +7348,30 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="9"/>
-      <c r="B206" s="6"/>
+      <c r="B206" s="6">
+        <v>11008</v>
+      </c>
       <c r="C206" s="6">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="D206">
+      <c r="D206" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E206"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E206" t="s">
+        <v>7</v>
+      </c>
       <c r="G206" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I206" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>-11008</v>
       </c>
       <c r="J206" s="6">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>-11008</v>
       </c>
       <c r="K206" s="6">
         <f t="shared" si="18"/>
@@ -7348,9 +7384,9 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="D207">
+      <c r="D207" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E207"/>
       <c r="G207" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068CC20C-D286-40B7-AC53-358565A943B4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B924B7F-74D4-45EA-9B99-5BE0E8A81B50}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="37">
   <si>
     <t>Datum</t>
   </si>
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:K547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="B206" sqref="B206"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="A210" sqref="A210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7353,7 +7353,7 @@
       </c>
       <c r="C206" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>11076</v>
       </c>
       <c r="D206" t="str">
         <f t="shared" si="21"/>
@@ -7367,11 +7367,11 @@
       </c>
       <c r="I206" s="11">
         <f t="shared" si="19"/>
-        <v>-11008</v>
+        <v>68</v>
       </c>
       <c r="J206" s="6">
         <f t="shared" si="17"/>
-        <v>-11008</v>
+        <v>68</v>
       </c>
       <c r="K206" s="6">
         <f t="shared" si="18"/>
@@ -7379,26 +7379,33 @@
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B207" s="6"/>
+      <c r="A207" s="9">
+        <v>43518</v>
+      </c>
+      <c r="B207" s="6">
+        <v>11076</v>
+      </c>
       <c r="C207" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>11144</v>
       </c>
       <c r="D207" t="str">
         <f t="shared" si="21"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E207"/>
+      <c r="E207" t="s">
+        <v>6</v>
+      </c>
       <c r="G207" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I207" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J207" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K207" s="11">
         <f t="shared" si="18"/>
@@ -7407,26 +7414,30 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="9"/>
-      <c r="B208" s="6"/>
+      <c r="B208" s="6">
+        <v>11144</v>
+      </c>
       <c r="C208" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="D208">
+        <v>11211</v>
+      </c>
+      <c r="D208" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E208"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E208" t="s">
+        <v>7</v>
+      </c>
       <c r="G208" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I208" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J208" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K208" s="11">
         <f t="shared" si="18"/>
@@ -7434,26 +7445,33 @@
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B209" s="6"/>
+      <c r="A209" s="9">
+        <v>43521</v>
+      </c>
+      <c r="B209" s="6">
+        <v>11211</v>
+      </c>
       <c r="C209" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="D209">
+        <v>11279</v>
+      </c>
+      <c r="D209" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E209"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E209" t="s">
+        <v>6</v>
+      </c>
       <c r="G209" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I209" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J209" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K209" s="11">
         <f t="shared" si="18"/>
@@ -7461,26 +7479,30 @@
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B210" s="6"/>
+      <c r="B210" s="6">
+        <v>11279</v>
+      </c>
       <c r="C210" s="6">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="D210">
+      <c r="D210" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E210"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E210" t="s">
+        <v>7</v>
+      </c>
       <c r="G210" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I210" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>-11279</v>
       </c>
       <c r="J210" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>-11279</v>
       </c>
       <c r="K210" s="11">
         <f t="shared" si="18"/>
@@ -7493,9 +7515,9 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="D211">
+      <c r="D211" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E211"/>
       <c r="G211" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B924B7F-74D4-45EA-9B99-5BE0E8A81B50}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005A63B5-A311-4E5E-9110-2E7652B92195}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="37">
   <si>
     <t>Datum</t>
   </si>
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:K547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="A210" sqref="A210"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="F212" sqref="F212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7484,7 +7484,7 @@
       </c>
       <c r="C210" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>11346</v>
       </c>
       <c r="D210" t="str">
         <f t="shared" si="21"/>
@@ -7498,11 +7498,11 @@
       </c>
       <c r="I210" s="11">
         <f t="shared" si="19"/>
-        <v>-11279</v>
+        <v>67</v>
       </c>
       <c r="J210" s="11">
         <f t="shared" si="17"/>
-        <v>-11279</v>
+        <v>67</v>
       </c>
       <c r="K210" s="11">
         <f t="shared" si="18"/>
@@ -7510,26 +7510,33 @@
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B211" s="6"/>
+      <c r="A211" s="9">
+        <v>43523</v>
+      </c>
+      <c r="B211" s="6">
+        <v>11346</v>
+      </c>
       <c r="C211" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>11414</v>
       </c>
       <c r="D211" t="str">
         <f t="shared" si="21"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E211"/>
+      <c r="E211" t="s">
+        <v>6</v>
+      </c>
       <c r="G211" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I211" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J211" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K211" s="11">
         <f t="shared" si="18"/>
@@ -7538,26 +7545,30 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="9"/>
-      <c r="B212" s="6"/>
+      <c r="B212" s="6">
+        <v>11414</v>
+      </c>
       <c r="C212" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="D212">
+        <v>11481</v>
+      </c>
+      <c r="D212" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E212"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E212" t="s">
+        <v>7</v>
+      </c>
       <c r="G212" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I212" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J212" s="6">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K212" s="6">
         <f t="shared" si="18"/>
@@ -7565,14 +7576,16 @@
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B213" s="6"/>
+      <c r="B213" s="6">
+        <v>11481</v>
+      </c>
       <c r="C213" s="6">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="D213">
+      <c r="D213" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E213"/>
       <c r="G213" s="4" t="s">
@@ -7580,11 +7593,11 @@
       </c>
       <c r="I213" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>-11481</v>
       </c>
       <c r="J213" s="6">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>-11481</v>
       </c>
       <c r="K213" s="6">
         <f t="shared" si="18"/>

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005A63B5-A311-4E5E-9110-2E7652B92195}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CF0CD0-65C6-4773-BDD6-9FF6B7E73226}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="37">
   <si>
     <t>Datum</t>
   </si>
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:K547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="F212" sqref="F212"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="A216" sqref="A216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7576,28 +7576,33 @@
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A213" s="9">
+        <v>43501</v>
+      </c>
       <c r="B213" s="6">
         <v>11481</v>
       </c>
       <c r="C213" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>11549</v>
       </c>
       <c r="D213" t="str">
         <f t="shared" si="21"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E213"/>
+      <c r="E213" t="s">
+        <v>6</v>
+      </c>
       <c r="G213" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I213" s="11">
         <f t="shared" si="19"/>
-        <v>-11481</v>
+        <v>68</v>
       </c>
       <c r="J213" s="6">
         <f t="shared" si="17"/>
-        <v>-11481</v>
+        <v>68</v>
       </c>
       <c r="K213" s="6">
         <f t="shared" si="18"/>
@@ -7606,26 +7611,30 @@
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="9"/>
-      <c r="B214" s="6"/>
+      <c r="B214" s="6">
+        <v>11549</v>
+      </c>
       <c r="C214" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="D214">
+        <v>11616</v>
+      </c>
+      <c r="D214" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E214"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E214" t="s">
+        <v>7</v>
+      </c>
       <c r="G214" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I214" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J214" s="6">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K214" s="6">
         <f t="shared" si="18"/>
@@ -7633,22 +7642,29 @@
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B215" s="6"/>
+      <c r="A215" s="9">
+        <v>43502</v>
+      </c>
+      <c r="B215" s="6">
+        <v>11616</v>
+      </c>
       <c r="C215" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="D215">
+        <v>11625</v>
+      </c>
+      <c r="D215" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E215"/>
-      <c r="G215" s="4" t="s">
-        <v>10</v>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E215" t="s">
+        <v>24</v>
+      </c>
+      <c r="G215" t="s">
+        <v>16</v>
       </c>
       <c r="I215" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J215" s="6">
         <f t="shared" si="17"/>
@@ -7656,27 +7672,31 @@
       </c>
       <c r="K215" s="6">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="9"/>
-      <c r="B216" s="6"/>
+      <c r="B216" s="6">
+        <v>11625</v>
+      </c>
       <c r="C216" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="D216">
+        <v>11633</v>
+      </c>
+      <c r="D216" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E216"/>
-      <c r="G216" s="4" t="s">
-        <v>10</v>
+        <v>Doktersland 20, Koog aan de Zaan</v>
+      </c>
+      <c r="E216" t="s">
+        <v>7</v>
+      </c>
+      <c r="G216" t="s">
+        <v>16</v>
       </c>
       <c r="I216" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J216" s="11">
         <f t="shared" si="17"/>
@@ -7684,30 +7704,37 @@
       </c>
       <c r="K216" s="11">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B217" s="6"/>
+      <c r="A217" s="9">
+        <v>43503</v>
+      </c>
+      <c r="B217" s="6">
+        <v>11633</v>
+      </c>
       <c r="C217" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="D217">
+        <v>11701</v>
+      </c>
+      <c r="D217" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E217"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E217" t="s">
+        <v>6</v>
+      </c>
       <c r="G217" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I217" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J217" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K217" s="11">
         <f t="shared" si="18"/>
@@ -7715,14 +7742,16 @@
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B218" s="6"/>
+      <c r="B218" s="6">
+        <v>11701</v>
+      </c>
       <c r="C218" s="6">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="D218">
+      <c r="D218" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>Duwboot 20, Houten</v>
       </c>
       <c r="E218"/>
       <c r="G218" s="4" t="s">
@@ -7730,11 +7759,11 @@
       </c>
       <c r="I218" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>-11701</v>
       </c>
       <c r="J218" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>-11701</v>
       </c>
       <c r="K218" s="11">
         <f t="shared" si="18"/>

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CF0CD0-65C6-4773-BDD6-9FF6B7E73226}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0E68B6-D1C5-454F-90DA-688741CF0AD4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="37">
   <si>
     <t>Datum</t>
   </si>
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:K547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="A216" sqref="A216"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="A222" sqref="A222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7747,23 +7747,25 @@
       </c>
       <c r="C218" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>11768</v>
       </c>
       <c r="D218" t="str">
         <f t="shared" si="21"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E218"/>
+      <c r="E218" t="s">
+        <v>7</v>
+      </c>
       <c r="G218" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I218" s="11">
         <f t="shared" si="19"/>
-        <v>-11701</v>
+        <v>67</v>
       </c>
       <c r="J218" s="11">
         <f t="shared" si="17"/>
-        <v>-11701</v>
+        <v>67</v>
       </c>
       <c r="K218" s="11">
         <f t="shared" si="18"/>
@@ -7771,26 +7773,33 @@
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B219" s="6"/>
+      <c r="A219" s="9">
+        <v>43504</v>
+      </c>
+      <c r="B219" s="6">
+        <v>11768</v>
+      </c>
       <c r="C219" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="D219">
+        <v>11836</v>
+      </c>
+      <c r="D219" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E219"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E219" t="s">
+        <v>6</v>
+      </c>
       <c r="G219" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I219" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J219" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K219" s="11">
         <f t="shared" si="18"/>
@@ -7798,26 +7807,30 @@
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B220" s="6"/>
+      <c r="B220" s="6">
+        <v>11836</v>
+      </c>
       <c r="C220" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="D220">
+        <v>11903</v>
+      </c>
+      <c r="D220" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E220"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E220" t="s">
+        <v>7</v>
+      </c>
       <c r="G220" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I220" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J220" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K220" s="11">
         <f t="shared" si="18"/>
@@ -7825,26 +7838,33 @@
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B221" s="6"/>
+      <c r="A221" s="9">
+        <v>43507</v>
+      </c>
+      <c r="B221" s="6">
+        <v>11903</v>
+      </c>
       <c r="C221" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="D221">
+        <v>11971</v>
+      </c>
+      <c r="D221" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E221"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E221" t="s">
+        <v>6</v>
+      </c>
       <c r="G221" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I221" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J221" s="6">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K221" s="6">
         <f t="shared" si="18"/>
@@ -7852,26 +7872,30 @@
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B222" s="6"/>
+      <c r="B222" s="6">
+        <v>11971</v>
+      </c>
       <c r="C222" s="6">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="D222">
+      <c r="D222" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E222"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E222" t="s">
+        <v>7</v>
+      </c>
       <c r="G222" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I222" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>-11971</v>
       </c>
       <c r="J222" s="6">
         <f t="shared" ref="J222:J285" si="22">IF(AND(G222 = "Zakelijk", H222 = ""), I222, IF(AND(G222 = "Zakelijk", NOT(H222 = "")), I222 - H222, 0))</f>
-        <v>0</v>
+        <v>-11971</v>
       </c>
       <c r="K222" s="6">
         <f t="shared" ref="K222:K285" si="23">IF(AND(G222 = "Zakelijk", NOT(H222 = "")), H222, IF(G222 = "Privé", I222, 0))</f>
@@ -7884,9 +7908,9 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="D223">
+      <c r="D223" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E223"/>
       <c r="G223" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0E68B6-D1C5-454F-90DA-688741CF0AD4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59655388-72D4-49E1-BA12-10170BE44D5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="37">
   <si>
     <t>Datum</t>
   </si>
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:K547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="A222" sqref="A222"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="F230" sqref="F230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7877,7 +7877,7 @@
       </c>
       <c r="C222" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>12039</v>
       </c>
       <c r="D222" t="str">
         <f t="shared" si="21"/>
@@ -7891,11 +7891,11 @@
       </c>
       <c r="I222" s="11">
         <f t="shared" si="19"/>
-        <v>-11971</v>
+        <v>68</v>
       </c>
       <c r="J222" s="6">
         <f t="shared" ref="J222:J285" si="22">IF(AND(G222 = "Zakelijk", H222 = ""), I222, IF(AND(G222 = "Zakelijk", NOT(H222 = "")), I222 - H222, 0))</f>
-        <v>-11971</v>
+        <v>68</v>
       </c>
       <c r="K222" s="6">
         <f t="shared" ref="K222:K285" si="23">IF(AND(G222 = "Zakelijk", NOT(H222 = "")), H222, IF(G222 = "Privé", I222, 0))</f>
@@ -7903,26 +7903,33 @@
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B223" s="6"/>
+      <c r="A223" s="9">
+        <v>43509</v>
+      </c>
+      <c r="B223" s="6">
+        <v>12039</v>
+      </c>
       <c r="C223" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>12106</v>
       </c>
       <c r="D223" t="str">
         <f t="shared" si="21"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E223"/>
+      <c r="E223" t="s">
+        <v>6</v>
+      </c>
       <c r="G223" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I223" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J223" s="6">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K223" s="6">
         <f t="shared" si="23"/>
@@ -7930,203 +7937,241 @@
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B224" s="6"/>
+      <c r="B224" s="6">
+        <v>12106</v>
+      </c>
       <c r="C224" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="D224">
+        <v>12171</v>
+      </c>
+      <c r="D224" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E224"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E224" t="s">
+        <v>7</v>
+      </c>
       <c r="G224" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I224" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="J224" s="6">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="K224" s="6">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B225" s="6"/>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A225" s="9">
+        <v>43510</v>
+      </c>
+      <c r="B225" s="6">
+        <v>12171</v>
+      </c>
       <c r="C225" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="D225">
+        <v>12238</v>
+      </c>
+      <c r="D225" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E225"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E225" t="s">
+        <v>6</v>
+      </c>
       <c r="G225" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I225" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J225" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K225" s="11">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B226" s="6"/>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B226" s="6">
+        <v>12238</v>
+      </c>
       <c r="C226" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="D226">
+        <v>12306</v>
+      </c>
+      <c r="D226" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E226"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E226" t="s">
+        <v>7</v>
+      </c>
       <c r="G226" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I226" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J226" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K226" s="11">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B227" s="6"/>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A227" s="9">
+        <v>43512</v>
+      </c>
+      <c r="B227" s="6">
+        <v>12306</v>
+      </c>
       <c r="C227" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="D227">
+        <v>12310</v>
+      </c>
+      <c r="D227" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E227"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E227" t="s">
+        <v>31</v>
+      </c>
       <c r="G227" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I227" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J227" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K227" s="11">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B228" s="6"/>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A228" s="9"/>
+      <c r="B228" s="6">
+        <v>12310</v>
+      </c>
       <c r="C228" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="D228">
+        <v>12314</v>
+      </c>
+      <c r="D228" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E228"/>
+        <v>Stormhoek 21, 1506 SW, Zaandam</v>
+      </c>
+      <c r="E228" t="s">
+        <v>7</v>
+      </c>
       <c r="G228" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I228" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J228" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K228" s="11">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B229" s="6"/>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A229" s="9">
+        <v>43514</v>
+      </c>
+      <c r="B229" s="6">
+        <v>12314</v>
+      </c>
       <c r="C229" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="D229">
+        <v>12382</v>
+      </c>
+      <c r="D229" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E229"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E229" t="s">
+        <v>6</v>
+      </c>
       <c r="G229" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I229" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J229" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K229" s="11">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B230" s="6"/>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B230" s="6">
+        <v>12382</v>
+      </c>
       <c r="C230" s="6">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="D230">
+      <c r="D230" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E230"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E230" t="s">
+        <v>7</v>
+      </c>
       <c r="G230" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I230" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>-12382</v>
       </c>
       <c r="J230" s="6">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-12382</v>
       </c>
       <c r="K230" s="6">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B231" s="6"/>
       <c r="C231" s="6">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="D231">
+      <c r="D231" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E231"/>
       <c r="G231" s="4" t="s">
@@ -8145,7 +8190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B232" s="6"/>
       <c r="C232" s="6">
         <f t="shared" si="20"/>
@@ -8172,7 +8217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B233" s="6"/>
       <c r="C233" s="6">
         <f t="shared" si="20"/>
@@ -8199,7 +8244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B234" s="6"/>
       <c r="C234" s="6">
         <f t="shared" si="20"/>
@@ -8226,7 +8271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B235" s="6"/>
       <c r="C235" s="6">
         <f t="shared" si="20"/>
@@ -8253,7 +8298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B236" s="6"/>
       <c r="C236" s="6">
         <f t="shared" si="20"/>
@@ -8280,7 +8325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B237" s="6"/>
       <c r="C237" s="6">
         <f t="shared" si="20"/>
@@ -8307,7 +8352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B238" s="6"/>
       <c r="C238" s="6">
         <f t="shared" si="20"/>
@@ -8334,7 +8379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B239" s="6"/>
       <c r="C239" s="6">
         <f t="shared" si="20"/>
@@ -8361,7 +8406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B240" s="6"/>
       <c r="C240" s="6">
         <f t="shared" si="20"/>

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59655388-72D4-49E1-BA12-10170BE44D5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495D48EC-5A18-437E-B3FC-8D612A2BECFE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:K547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="F230" sqref="F230"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="A231" sqref="A231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7577,7 +7577,7 @@
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="9">
-        <v>43501</v>
+        <v>43529</v>
       </c>
       <c r="B213" s="6">
         <v>11481</v>
@@ -7643,7 +7643,7 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="9">
-        <v>43502</v>
+        <v>43530</v>
       </c>
       <c r="B215" s="6">
         <v>11616</v>
@@ -7709,7 +7709,7 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="9">
-        <v>43503</v>
+        <v>43531</v>
       </c>
       <c r="B217" s="6">
         <v>11633</v>
@@ -7774,7 +7774,7 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="9">
-        <v>43504</v>
+        <v>43532</v>
       </c>
       <c r="B219" s="6">
         <v>11768</v>
@@ -7839,7 +7839,7 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="9">
-        <v>43507</v>
+        <v>43535</v>
       </c>
       <c r="B221" s="6">
         <v>11903</v>
@@ -7904,7 +7904,7 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="9">
-        <v>43509</v>
+        <v>43537</v>
       </c>
       <c r="B223" s="6">
         <v>12039</v>
@@ -7969,7 +7969,7 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="9">
-        <v>43510</v>
+        <v>43538</v>
       </c>
       <c r="B225" s="6">
         <v>12171</v>
@@ -8034,7 +8034,7 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="9">
-        <v>43512</v>
+        <v>43540</v>
       </c>
       <c r="B227" s="6">
         <v>12306</v>
@@ -8100,7 +8100,7 @@
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="9">
-        <v>43514</v>
+        <v>43542</v>
       </c>
       <c r="B229" s="6">
         <v>12314</v>

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495D48EC-5A18-437E-B3FC-8D612A2BECFE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA85BD28-7F4F-4308-A853-5A5F724AFFAD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="37">
   <si>
     <t>Datum</t>
   </si>
@@ -586,7 +586,7 @@
   <dimension ref="A1:K547"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="A231" sqref="A231"/>
+      <selection activeCell="F232" sqref="F232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8138,7 +8138,7 @@
       </c>
       <c r="C230" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>12449</v>
       </c>
       <c r="D230" t="str">
         <f t="shared" si="21"/>
@@ -8152,11 +8152,11 @@
       </c>
       <c r="I230" s="11">
         <f t="shared" si="19"/>
-        <v>-12382</v>
+        <v>67</v>
       </c>
       <c r="J230" s="6">
         <f t="shared" si="22"/>
-        <v>-12382</v>
+        <v>67</v>
       </c>
       <c r="K230" s="6">
         <f t="shared" si="23"/>
@@ -8164,26 +8164,33 @@
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B231" s="6"/>
+      <c r="A231" s="9">
+        <v>43544</v>
+      </c>
+      <c r="B231" s="6">
+        <v>12449</v>
+      </c>
       <c r="C231" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>12517</v>
       </c>
       <c r="D231" t="str">
         <f t="shared" si="21"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E231"/>
+      <c r="E231" t="s">
+        <v>6</v>
+      </c>
       <c r="G231" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I231" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J231" s="6">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K231" s="6">
         <f t="shared" si="23"/>
@@ -8191,26 +8198,30 @@
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B232" s="6"/>
+      <c r="B232" s="6">
+        <v>12517</v>
+      </c>
       <c r="C232" s="6">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="D232">
+      <c r="D232" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E232"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E232" t="s">
+        <v>7</v>
+      </c>
       <c r="G232" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I232" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>-12517</v>
       </c>
       <c r="J232" s="6">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-12517</v>
       </c>
       <c r="K232" s="6">
         <f t="shared" si="23"/>
@@ -8223,9 +8234,9 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="D233">
+      <c r="D233" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E233"/>
       <c r="G233" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA85BD28-7F4F-4308-A853-5A5F724AFFAD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0D02CB-662B-4E00-814D-70AF19C50205}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="37">
   <si>
     <t>Datum</t>
   </si>
@@ -237,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -269,6 +269,7 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:K547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="F232" sqref="F232"/>
+    <sheetView tabSelected="1" topLeftCell="C199" workbookViewId="0">
+      <selection activeCell="I234" sqref="I234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8203,7 +8204,7 @@
       </c>
       <c r="C232" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>12585</v>
       </c>
       <c r="D232" t="str">
         <f t="shared" si="21"/>
@@ -8217,11 +8218,11 @@
       </c>
       <c r="I232" s="11">
         <f t="shared" si="19"/>
-        <v>-12517</v>
+        <v>68</v>
       </c>
       <c r="J232" s="6">
         <f t="shared" si="22"/>
-        <v>-12517</v>
+        <v>68</v>
       </c>
       <c r="K232" s="6">
         <f t="shared" si="23"/>
@@ -8229,26 +8230,33 @@
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B233" s="6"/>
+      <c r="A233" s="9">
+        <v>43546</v>
+      </c>
+      <c r="B233" s="6">
+        <v>12585</v>
+      </c>
       <c r="C233" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>12653</v>
       </c>
       <c r="D233" t="str">
         <f t="shared" si="21"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E233"/>
+      <c r="E233" t="s">
+        <v>6</v>
+      </c>
       <c r="G233" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I233" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J233" s="6">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K233" s="6">
         <f t="shared" si="23"/>
@@ -8256,26 +8264,31 @@
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B234" s="6"/>
+      <c r="A234" s="13"/>
+      <c r="B234" s="6">
+        <v>12653</v>
+      </c>
       <c r="C234" s="6">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="D234">
+      <c r="D234" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E234"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E234" t="s">
+        <v>7</v>
+      </c>
       <c r="G234" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I234" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>-12653</v>
       </c>
       <c r="J234" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-12653</v>
       </c>
       <c r="K234" s="11">
         <f t="shared" si="23"/>
@@ -8288,9 +8301,9 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="D235">
+      <c r="D235" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E235"/>
       <c r="G235" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0D02CB-662B-4E00-814D-70AF19C50205}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3727AA-3654-426C-94EA-FDED1FA286E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="37">
   <si>
     <t>Datum</t>
   </si>
@@ -237,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -269,7 +269,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:K547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C199" workbookViewId="0">
-      <selection activeCell="I234" sqref="I234"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="A240" sqref="A240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8264,13 +8263,13 @@
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A234" s="13"/>
+      <c r="A234"/>
       <c r="B234" s="6">
         <v>12653</v>
       </c>
       <c r="C234" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>12720</v>
       </c>
       <c r="D234" t="str">
         <f t="shared" si="21"/>
@@ -8284,11 +8283,11 @@
       </c>
       <c r="I234" s="11">
         <f t="shared" si="19"/>
-        <v>-12653</v>
+        <v>67</v>
       </c>
       <c r="J234" s="11">
         <f t="shared" si="22"/>
-        <v>-12653</v>
+        <v>67</v>
       </c>
       <c r="K234" s="11">
         <f t="shared" si="23"/>
@@ -8296,26 +8295,33 @@
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B235" s="6"/>
+      <c r="A235" s="9">
+        <v>43550</v>
+      </c>
+      <c r="B235" s="6">
+        <v>12720</v>
+      </c>
       <c r="C235" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>12788</v>
       </c>
       <c r="D235" t="str">
         <f t="shared" si="21"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E235"/>
+      <c r="E235" t="s">
+        <v>6</v>
+      </c>
       <c r="G235" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I235" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J235" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K235" s="11">
         <f t="shared" si="23"/>
@@ -8323,26 +8329,30 @@
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B236" s="6"/>
+      <c r="B236" s="6">
+        <v>12788</v>
+      </c>
       <c r="C236" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="D236">
+        <v>12855</v>
+      </c>
+      <c r="D236" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E236"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E236" t="s">
+        <v>7</v>
+      </c>
       <c r="G236" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I236" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J236" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K236" s="11">
         <f t="shared" si="23"/>
@@ -8350,26 +8360,33 @@
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B237" s="6"/>
+      <c r="A237" s="9">
+        <v>43552</v>
+      </c>
+      <c r="B237" s="6">
+        <v>12855</v>
+      </c>
       <c r="C237" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="D237">
+        <v>12923</v>
+      </c>
+      <c r="D237" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E237"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E237" t="s">
+        <v>6</v>
+      </c>
       <c r="G237" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I237" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J237" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K237" s="11">
         <f t="shared" si="23"/>
@@ -8377,26 +8394,30 @@
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B238" s="6"/>
+      <c r="B238" s="6">
+        <v>12923</v>
+      </c>
       <c r="C238" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="D238">
+        <v>12990</v>
+      </c>
+      <c r="D238" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E238"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E238" t="s">
+        <v>7</v>
+      </c>
       <c r="G238" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I238" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J238" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K238" s="11">
         <f t="shared" si="23"/>
@@ -8404,26 +8425,33 @@
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B239" s="6"/>
+      <c r="A239" s="9">
+        <v>43553</v>
+      </c>
+      <c r="B239" s="6">
+        <v>12990</v>
+      </c>
       <c r="C239" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="D239">
+        <v>13058</v>
+      </c>
+      <c r="D239" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E239"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E239" t="s">
+        <v>6</v>
+      </c>
       <c r="G239" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I239" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J239" s="6">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K239" s="6">
         <f t="shared" si="23"/>
@@ -8431,26 +8459,30 @@
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B240" s="6"/>
+      <c r="B240" s="6">
+        <v>13058</v>
+      </c>
       <c r="C240" s="6">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="D240">
+      <c r="D240" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E240"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E240" t="s">
+        <v>7</v>
+      </c>
       <c r="G240" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I240" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>-13058</v>
       </c>
       <c r="J240" s="6">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-13058</v>
       </c>
       <c r="K240" s="6">
         <f t="shared" si="23"/>
@@ -8463,9 +8495,9 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="D241">
+      <c r="D241" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E241"/>
       <c r="G241" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3727AA-3654-426C-94EA-FDED1FA286E6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCF4467-5663-48D7-AA17-1ECAAB89FBCA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
+    <workbookView xWindow="-4425" yWindow="-21720" windowWidth="38640" windowHeight="21390" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="37">
   <si>
     <t>Datum</t>
   </si>
@@ -237,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -269,6 +269,7 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:K547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="A240" sqref="A240"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="A243" sqref="A243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8464,7 +8465,7 @@
       </c>
       <c r="C240" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>13126</v>
       </c>
       <c r="D240" t="str">
         <f t="shared" si="21"/>
@@ -8478,142 +8479,170 @@
       </c>
       <c r="I240" s="11">
         <f t="shared" si="19"/>
-        <v>-13058</v>
+        <v>68</v>
       </c>
       <c r="J240" s="6">
         <f t="shared" si="22"/>
-        <v>-13058</v>
+        <v>68</v>
       </c>
       <c r="K240" s="6">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B241" s="6"/>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A241" s="9">
+        <v>43557</v>
+      </c>
+      <c r="B241" s="6">
+        <v>13126</v>
+      </c>
       <c r="C241" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>13193</v>
       </c>
       <c r="D241" t="str">
         <f t="shared" si="21"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E241"/>
+      <c r="E241" t="s">
+        <v>6</v>
+      </c>
       <c r="G241" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I241" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J241" s="6">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K241" s="6">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B242" s="6"/>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B242" s="6">
+        <v>13193</v>
+      </c>
       <c r="C242" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="D242">
+        <v>13261</v>
+      </c>
+      <c r="D242" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E242"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E242" t="s">
+        <v>7</v>
+      </c>
       <c r="G242" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I242" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J242" s="6">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K242" s="6">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B243" s="6"/>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A243" s="9">
+        <v>43559</v>
+      </c>
+      <c r="B243" s="6">
+        <v>13261</v>
+      </c>
       <c r="C243" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="D243">
+        <v>13328</v>
+      </c>
+      <c r="D243" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E243"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E243" t="s">
+        <v>6</v>
+      </c>
       <c r="G243" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I243" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J243" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K243" s="11">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B244" s="6"/>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B244" s="6">
+        <v>13328</v>
+      </c>
       <c r="C244" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="D244">
+        <v>13396</v>
+      </c>
+      <c r="D244" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E244"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E244" t="s">
+        <v>7</v>
+      </c>
       <c r="G244" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I244" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J244" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K244" s="11">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B245" s="6"/>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A245" s="9">
+        <v>43561</v>
+      </c>
+      <c r="B245" s="6">
+        <v>13396</v>
+      </c>
       <c r="C245" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="D245">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E245"/>
-      <c r="G245" s="4" t="s">
-        <v>10</v>
+        <v>13399</v>
+      </c>
+      <c r="D245" t="s">
+        <v>7</v>
+      </c>
+      <c r="E245" t="s">
+        <v>18</v>
+      </c>
+      <c r="G245" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="I245" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J245" s="11">
         <f t="shared" si="22"/>
@@ -8621,26 +8650,30 @@
       </c>
       <c r="K245" s="11">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B246" s="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B246" s="6">
+        <v>13399</v>
+      </c>
       <c r="C246" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="D246">
+        <v>13402</v>
+      </c>
+      <c r="D246" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E246"/>
-      <c r="G246" s="4" t="s">
-        <v>10</v>
+        <v>Zuidervaart 104, Zaandam</v>
+      </c>
+      <c r="E246" t="s">
+        <v>7</v>
+      </c>
+      <c r="G246" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="I246" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J246" s="11">
         <f t="shared" si="22"/>
@@ -8648,126 +8681,148 @@
       </c>
       <c r="K246" s="11">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B247" s="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A247" s="9">
+        <v>43563</v>
+      </c>
+      <c r="B247" s="6">
+        <v>13402</v>
+      </c>
       <c r="C247" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="D247">
+        <v>13470</v>
+      </c>
+      <c r="D247" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E247"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E247" t="s">
+        <v>6</v>
+      </c>
       <c r="G247" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I247" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J247" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K247" s="11">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B248" s="6"/>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B248" s="6">
+        <v>13470</v>
+      </c>
       <c r="C248" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="D248">
+        <v>13537</v>
+      </c>
+      <c r="D248" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E248"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E248" t="s">
+        <v>7</v>
+      </c>
       <c r="G248" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I248" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J248" s="6">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K248" s="6">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B249" s="6"/>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A249" s="9">
+        <v>43565</v>
+      </c>
+      <c r="B249" s="6">
+        <v>13537</v>
+      </c>
       <c r="C249" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="D249">
+        <v>13605</v>
+      </c>
+      <c r="D249" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E249"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E249" t="s">
+        <v>6</v>
+      </c>
       <c r="G249" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I249" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J249" s="6">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K249" s="6">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B250" s="6"/>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B250" s="6">
+        <v>13605</v>
+      </c>
       <c r="C250" s="6">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="D250">
+      <c r="D250" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E250"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E250" t="s">
+        <v>7</v>
+      </c>
       <c r="G250" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I250" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>-13605</v>
       </c>
       <c r="J250" s="6">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-13605</v>
       </c>
       <c r="K250" s="6">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B251" s="6"/>
       <c r="C251" s="6">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="D251">
+      <c r="D251" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E251"/>
       <c r="G251" s="4" t="s">
@@ -8786,7 +8841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B252" s="6"/>
       <c r="C252" s="6">
         <f t="shared" si="20"/>
@@ -8813,7 +8868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B253" s="6"/>
       <c r="C253" s="6">
         <f t="shared" si="20"/>
@@ -8840,7 +8895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B254" s="6"/>
       <c r="C254" s="6">
         <f t="shared" si="20"/>
@@ -8867,7 +8922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B255" s="6"/>
       <c r="C255" s="6">
         <f t="shared" si="20"/>
@@ -8894,7 +8949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B256" s="6"/>
       <c r="C256" s="6">
         <f t="shared" si="20"/>

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCF4467-5663-48D7-AA17-1ECAAB89FBCA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCED243-6663-4655-B940-4131309A902D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4425" yWindow="-21720" windowWidth="38640" windowHeight="21390" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="37">
   <si>
     <t>Datum</t>
   </si>
@@ -587,7 +587,7 @@
   <dimension ref="A1:K547"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="A243" sqref="A243"/>
+      <selection activeCell="F256" sqref="F256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8789,7 +8789,7 @@
       </c>
       <c r="C250" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>13673</v>
       </c>
       <c r="D250" t="str">
         <f t="shared" si="21"/>
@@ -8803,11 +8803,11 @@
       </c>
       <c r="I250" s="11">
         <f t="shared" si="19"/>
-        <v>-13605</v>
+        <v>68</v>
       </c>
       <c r="J250" s="6">
         <f t="shared" si="22"/>
-        <v>-13605</v>
+        <v>68</v>
       </c>
       <c r="K250" s="6">
         <f t="shared" si="23"/>
@@ -8815,26 +8815,33 @@
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B251" s="6"/>
+      <c r="A251" s="9">
+        <v>43566</v>
+      </c>
+      <c r="B251" s="6">
+        <v>13673</v>
+      </c>
       <c r="C251" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>13741</v>
       </c>
       <c r="D251" t="str">
         <f t="shared" si="21"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E251"/>
+      <c r="E251" t="s">
+        <v>6</v>
+      </c>
       <c r="G251" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I251" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J251" s="6">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K251" s="6">
         <f t="shared" si="23"/>
@@ -8842,26 +8849,30 @@
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B252" s="6"/>
+      <c r="B252" s="6">
+        <v>13741</v>
+      </c>
       <c r="C252" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="D252">
+        <v>13808</v>
+      </c>
+      <c r="D252" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E252"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E252" t="s">
+        <v>7</v>
+      </c>
       <c r="G252" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I252" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J252" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K252" s="11">
         <f t="shared" si="23"/>
@@ -8869,26 +8880,33 @@
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B253" s="6"/>
+      <c r="A253" s="9">
+        <v>43570</v>
+      </c>
+      <c r="B253" s="6">
+        <v>13808</v>
+      </c>
       <c r="C253" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="D253">
+        <v>13876</v>
+      </c>
+      <c r="D253" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E253"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E253" t="s">
+        <v>6</v>
+      </c>
       <c r="G253" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I253" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J253" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K253" s="11">
         <f t="shared" si="23"/>
@@ -8896,26 +8914,30 @@
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B254" s="6"/>
+      <c r="B254" s="6">
+        <v>13876</v>
+      </c>
       <c r="C254" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="D254">
+        <v>13944</v>
+      </c>
+      <c r="D254" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E254"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E254" t="s">
+        <v>7</v>
+      </c>
       <c r="G254" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I254" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J254" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K254" s="11">
         <f t="shared" si="23"/>
@@ -8923,26 +8945,33 @@
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B255" s="6"/>
+      <c r="A255" s="9">
+        <v>43571</v>
+      </c>
+      <c r="B255" s="6">
+        <v>13944</v>
+      </c>
       <c r="C255" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="D255">
+        <v>14011</v>
+      </c>
+      <c r="D255" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E255"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E255" t="s">
+        <v>6</v>
+      </c>
       <c r="G255" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I255" s="11">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J255" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K255" s="11">
         <f t="shared" si="23"/>
@@ -8950,26 +8979,30 @@
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B256" s="6"/>
+      <c r="B256" s="6">
+        <v>14011</v>
+      </c>
       <c r="C256" s="6">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="D256">
+      <c r="D256" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E256"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E256" t="s">
+        <v>7</v>
+      </c>
       <c r="G256" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I256" s="11">
         <f t="shared" ref="I256:I319" si="24">(C256-B256)</f>
-        <v>0</v>
+        <v>-14011</v>
       </c>
       <c r="J256" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-14011</v>
       </c>
       <c r="K256" s="11">
         <f t="shared" si="23"/>
@@ -8982,9 +9015,9 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="D257">
+      <c r="D257" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E257"/>
       <c r="G257" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCED243-6663-4655-B940-4131309A902D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA2F0A7-AC23-488E-9C2C-801CBC19875A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4425" yWindow="-21720" windowWidth="38640" windowHeight="21390" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="37">
   <si>
     <t>Datum</t>
   </si>
@@ -586,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:K547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="F256" sqref="F256"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="A260" sqref="A260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8984,7 +8984,7 @@
       </c>
       <c r="C256" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>14079</v>
       </c>
       <c r="D256" t="str">
         <f t="shared" si="21"/>
@@ -8998,242 +8998,286 @@
       </c>
       <c r="I256" s="11">
         <f t="shared" ref="I256:I319" si="24">(C256-B256)</f>
-        <v>-14011</v>
+        <v>68</v>
       </c>
       <c r="J256" s="11">
         <f t="shared" si="22"/>
-        <v>-14011</v>
+        <v>68</v>
       </c>
       <c r="K256" s="11">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B257" s="6"/>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A257" s="9">
+        <v>43574</v>
+      </c>
+      <c r="B257" s="6">
+        <v>14079</v>
+      </c>
       <c r="C257" s="6">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>14147</v>
       </c>
       <c r="D257" t="str">
         <f t="shared" si="21"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E257"/>
+      <c r="E257" t="s">
+        <v>6</v>
+      </c>
       <c r="G257" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I257" s="11">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J257" s="6">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K257" s="6">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B258" s="6"/>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B258" s="6">
+        <v>14147</v>
+      </c>
       <c r="C258" s="6">
         <f t="shared" ref="C258:C321" si="25">B259</f>
-        <v>0</v>
-      </c>
-      <c r="D258">
+        <v>14214</v>
+      </c>
+      <c r="D258" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E258"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E258" t="s">
+        <v>7</v>
+      </c>
       <c r="G258" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I258" s="11">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J258" s="6">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K258" s="6">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B259" s="6"/>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A259" s="9">
+        <v>43578</v>
+      </c>
+      <c r="B259" s="6">
+        <v>14214</v>
+      </c>
       <c r="C259" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D259">
+        <v>14281</v>
+      </c>
+      <c r="D259" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E259"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E259" t="s">
+        <v>6</v>
+      </c>
       <c r="G259" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I259" s="11">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J259" s="6">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K259" s="6">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B260" s="6"/>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B260" s="6">
+        <v>14281</v>
+      </c>
       <c r="C260" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D260">
+        <v>14346</v>
+      </c>
+      <c r="D260" t="str">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E260"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E260" t="s">
+        <v>7</v>
+      </c>
       <c r="G260" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I260" s="11">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="J260" s="6">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="K260" s="6">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B261" s="6"/>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A261" s="9">
+        <v>43580</v>
+      </c>
+      <c r="B261" s="6">
+        <v>14346</v>
+      </c>
       <c r="C261" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D261">
+        <v>14414</v>
+      </c>
+      <c r="D261" t="str">
         <f t="shared" ref="D261:D324" si="26">E260</f>
-        <v>0</v>
-      </c>
-      <c r="E261"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E261" t="s">
+        <v>6</v>
+      </c>
       <c r="G261" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I261" s="11">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J261" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K261" s="11">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B262" s="6"/>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B262" s="6">
+        <v>14414</v>
+      </c>
       <c r="C262" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D262">
+        <v>14481</v>
+      </c>
+      <c r="D262" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E262"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E262" t="s">
+        <v>7</v>
+      </c>
       <c r="G262" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I262" s="11">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J262" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K262" s="11">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B263" s="6"/>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A263" s="9">
+        <v>43584</v>
+      </c>
+      <c r="B263" s="6">
+        <v>14481</v>
+      </c>
       <c r="C263" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D263">
+        <v>14549</v>
+      </c>
+      <c r="D263" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E263"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E263" t="s">
+        <v>6</v>
+      </c>
       <c r="G263" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I263" s="11">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J263" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K263" s="11">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B264" s="6"/>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B264" s="6">
+        <v>14549</v>
+      </c>
       <c r="C264" s="6">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="D264">
+      <c r="D264" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E264"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E264" t="s">
+        <v>7</v>
+      </c>
       <c r="G264" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I264" s="11">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>-14549</v>
       </c>
       <c r="J264" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-14549</v>
       </c>
       <c r="K264" s="11">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B265" s="6"/>
       <c r="C265" s="6">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="D265">
+      <c r="D265" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E265"/>
       <c r="G265" s="4" t="s">
@@ -9252,7 +9296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B266" s="6"/>
       <c r="C266" s="6">
         <f t="shared" si="25"/>
@@ -9279,7 +9323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B267" s="6"/>
       <c r="C267" s="6">
         <f t="shared" si="25"/>
@@ -9306,7 +9350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B268" s="6"/>
       <c r="C268" s="6">
         <f t="shared" si="25"/>
@@ -9333,7 +9377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B269" s="6"/>
       <c r="C269" s="6">
         <f t="shared" si="25"/>
@@ -9360,7 +9404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B270" s="6"/>
       <c r="C270" s="6">
         <f t="shared" si="25"/>
@@ -9387,7 +9431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B271" s="6"/>
       <c r="C271" s="6">
         <f t="shared" si="25"/>
@@ -9414,7 +9458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B272" s="6"/>
       <c r="C272" s="6">
         <f t="shared" si="25"/>

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA2F0A7-AC23-488E-9C2C-801CBC19875A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7ED4C7A-C354-4D02-A8D9-E8D5679D0680}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4425" yWindow="-21720" windowWidth="38640" windowHeight="21390" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="39">
   <si>
     <t>Datum</t>
   </si>
@@ -179,6 +179,12 @@
   </si>
   <si>
     <t>Kleine Tocht 19, 1507 CB, Zaandam</t>
+  </si>
+  <si>
+    <t>Kleinpolderplein 5a, Rotterdam</t>
+  </si>
+  <si>
+    <t>Omgeleid via Den Haag Centrum en Wassenaar</t>
   </si>
 </sst>
 </file>
@@ -586,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:K547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="A260" sqref="A260"/>
+    <sheetView tabSelected="1" topLeftCell="B256" workbookViewId="0">
+      <selection activeCell="F267" sqref="F267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9244,7 +9250,7 @@
       </c>
       <c r="C264" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>14617</v>
       </c>
       <c r="D264" t="str">
         <f t="shared" si="26"/>
@@ -9258,11 +9264,11 @@
       </c>
       <c r="I264" s="11">
         <f t="shared" si="24"/>
-        <v>-14549</v>
+        <v>68</v>
       </c>
       <c r="J264" s="11">
         <f t="shared" si="22"/>
-        <v>-14549</v>
+        <v>68</v>
       </c>
       <c r="K264" s="11">
         <f t="shared" si="23"/>
@@ -9270,53 +9276,67 @@
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B265" s="6"/>
+      <c r="A265" s="9">
+        <v>43586</v>
+      </c>
+      <c r="B265" s="6">
+        <v>14617</v>
+      </c>
       <c r="C265" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>14696</v>
       </c>
       <c r="D265" t="str">
         <f t="shared" si="26"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E265"/>
+      <c r="E265" t="s">
+        <v>37</v>
+      </c>
       <c r="G265" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I265" s="11">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="J265" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="K265" s="11">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B266" s="6"/>
+    <row r="266" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A266" s="9"/>
+      <c r="B266" s="6">
+        <v>14696</v>
+      </c>
       <c r="C266" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D266">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E266"/>
+        <v>14783</v>
+      </c>
+      <c r="D266" t="s">
+        <v>37</v>
+      </c>
+      <c r="E266" t="s">
+        <v>7</v>
+      </c>
+      <c r="F266" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="G266" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I266" s="11">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="J266" s="6">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="K266" s="6">
         <f t="shared" si="23"/>
@@ -9324,14 +9344,16 @@
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B267" s="6"/>
+      <c r="B267" s="6">
+        <v>14783</v>
+      </c>
       <c r="C267" s="6">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="D267">
+      <c r="D267" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E267"/>
       <c r="G267" s="4" t="s">
@@ -9339,11 +9361,11 @@
       </c>
       <c r="I267" s="11">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>-14783</v>
       </c>
       <c r="J267" s="6">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-14783</v>
       </c>
       <c r="K267" s="6">
         <f t="shared" si="23"/>

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7ED4C7A-C354-4D02-A8D9-E8D5679D0680}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DCA2C2-CABA-4456-AB4B-57F8FE2C654F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
+    <workbookView xWindow="-4425" yWindow="-21720" windowWidth="38640" windowHeight="21390" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="39">
   <si>
     <t>Datum</t>
   </si>
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:K547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B256" workbookViewId="0">
-      <selection activeCell="F267" sqref="F267"/>
+    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="A273" sqref="A273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9344,28 +9344,33 @@
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A267" s="9">
+        <v>43587</v>
+      </c>
       <c r="B267" s="6">
         <v>14783</v>
       </c>
       <c r="C267" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>14850</v>
       </c>
       <c r="D267" t="str">
         <f t="shared" si="26"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E267"/>
+      <c r="E267" t="s">
+        <v>6</v>
+      </c>
       <c r="G267" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I267" s="11">
         <f t="shared" si="24"/>
-        <v>-14783</v>
+        <v>67</v>
       </c>
       <c r="J267" s="6">
         <f t="shared" si="22"/>
-        <v>-14783</v>
+        <v>67</v>
       </c>
       <c r="K267" s="6">
         <f t="shared" si="23"/>
@@ -9373,26 +9378,30 @@
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B268" s="6"/>
+      <c r="B268" s="6">
+        <v>14850</v>
+      </c>
       <c r="C268" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D268">
+        <v>14918</v>
+      </c>
+      <c r="D268" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E268"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E268" t="s">
+        <v>7</v>
+      </c>
       <c r="G268" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I268" s="11">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J268" s="6">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K268" s="6">
         <f t="shared" si="23"/>
@@ -9400,26 +9409,33 @@
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B269" s="6"/>
+      <c r="A269" s="9">
+        <v>43591</v>
+      </c>
+      <c r="B269" s="6">
+        <v>14918</v>
+      </c>
       <c r="C269" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D269">
+        <v>14986</v>
+      </c>
+      <c r="D269" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E269"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E269" t="s">
+        <v>6</v>
+      </c>
       <c r="G269" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I269" s="11">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J269" s="6">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K269" s="6">
         <f t="shared" si="23"/>
@@ -9427,26 +9443,30 @@
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B270" s="6"/>
+      <c r="B270" s="6">
+        <v>14986</v>
+      </c>
       <c r="C270" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D270">
+        <v>15053</v>
+      </c>
+      <c r="D270" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E270"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E270" t="s">
+        <v>7</v>
+      </c>
       <c r="G270" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I270" s="11">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J270" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K270" s="11">
         <f t="shared" si="23"/>
@@ -9454,26 +9474,33 @@
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B271" s="6"/>
+      <c r="A271" s="9">
+        <v>43592</v>
+      </c>
+      <c r="B271" s="6">
+        <v>15053</v>
+      </c>
       <c r="C271" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D271">
+        <v>15121</v>
+      </c>
+      <c r="D271" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E271"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E271" t="s">
+        <v>6</v>
+      </c>
       <c r="G271" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I271" s="11">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J271" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K271" s="11">
         <f t="shared" si="23"/>
@@ -9481,95 +9508,110 @@
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B272" s="6"/>
+      <c r="B272" s="6">
+        <v>15121</v>
+      </c>
       <c r="C272" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D272">
+        <v>15188</v>
+      </c>
+      <c r="D272" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E272"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E272" t="s">
+        <v>7</v>
+      </c>
       <c r="G272" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I272" s="11">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J272" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K272" s="11">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B273" s="6"/>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A273" s="9">
+        <v>43595</v>
+      </c>
+      <c r="B273" s="6">
+        <v>15188</v>
+      </c>
       <c r="C273" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D273">
+        <v>15256</v>
+      </c>
+      <c r="D273" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E273"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E273" t="s">
+        <v>6</v>
+      </c>
       <c r="G273" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I273" s="11">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J273" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K273" s="11">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B274" s="6"/>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B274" s="6">
+        <v>15256</v>
+      </c>
       <c r="C274" s="6">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="D274">
+      <c r="D274" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E274"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E274" t="s">
+        <v>7</v>
+      </c>
       <c r="G274" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I274" s="11">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>-15256</v>
       </c>
       <c r="J274" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-15256</v>
       </c>
       <c r="K274" s="11">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B275" s="6"/>
       <c r="C275" s="6">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="D275">
+      <c r="D275" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E275"/>
       <c r="G275" s="4" t="s">
@@ -9588,7 +9630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B276" s="6"/>
       <c r="C276" s="6">
         <f t="shared" si="25"/>
@@ -9615,7 +9657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B277" s="6"/>
       <c r="C277" s="6">
         <f t="shared" si="25"/>
@@ -9642,7 +9684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B278" s="6"/>
       <c r="C278" s="6">
         <f t="shared" si="25"/>
@@ -9669,7 +9711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B279" s="6"/>
       <c r="C279" s="6">
         <f t="shared" si="25"/>
@@ -9696,7 +9738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B280" s="6"/>
       <c r="C280" s="6">
         <f t="shared" si="25"/>
@@ -9723,7 +9765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B281" s="6"/>
       <c r="C281" s="6">
         <f t="shared" si="25"/>
@@ -9750,7 +9792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B282" s="6"/>
       <c r="C282" s="6">
         <f t="shared" si="25"/>
@@ -9777,7 +9819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B283" s="6"/>
       <c r="C283" s="6">
         <f t="shared" si="25"/>
@@ -9804,7 +9846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B284" s="6"/>
       <c r="C284" s="6">
         <f t="shared" si="25"/>
@@ -9831,7 +9873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B285" s="6"/>
       <c r="C285" s="6">
         <f t="shared" si="25"/>
@@ -9858,7 +9900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B286" s="6"/>
       <c r="C286" s="6">
         <f t="shared" si="25"/>
@@ -9885,7 +9927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B287" s="6"/>
       <c r="C287" s="6">
         <f t="shared" si="25"/>
@@ -9912,7 +9954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B288" s="6"/>
       <c r="C288" s="6">
         <f t="shared" si="25"/>

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DCA2C2-CABA-4456-AB4B-57F8FE2C654F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A43FE1-7633-4275-B327-51C4BCFDD737}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4425" yWindow="-21720" windowWidth="38640" windowHeight="21390" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="40">
   <si>
     <t>Datum</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>Omgeleid via Den Haag Centrum en Wassenaar</t>
+  </si>
+  <si>
+    <t>Dizze Gillespiestraat 10, Zaandijk</t>
   </si>
 </sst>
 </file>
@@ -592,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:K547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="A273" sqref="A273"/>
+    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
+      <selection activeCell="E280" sqref="E280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9578,7 +9581,7 @@
       </c>
       <c r="C274" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>15323</v>
       </c>
       <c r="D274" t="str">
         <f t="shared" si="26"/>
@@ -9588,38 +9591,45 @@
         <v>7</v>
       </c>
       <c r="G274" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I274" s="11">
         <f t="shared" si="24"/>
-        <v>-15256</v>
+        <v>67</v>
       </c>
       <c r="J274" s="11">
         <f t="shared" si="22"/>
-        <v>-15256</v>
+        <v>0</v>
       </c>
       <c r="K274" s="11">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B275" s="6"/>
+      <c r="A275" s="9">
+        <v>43597</v>
+      </c>
+      <c r="B275" s="6">
+        <v>15323</v>
+      </c>
       <c r="C275" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>15332</v>
       </c>
       <c r="D275" t="str">
         <f t="shared" si="26"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E275"/>
+      <c r="E275" t="s">
+        <v>39</v>
+      </c>
       <c r="G275" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I275" s="11">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J275" s="6">
         <f t="shared" si="22"/>
@@ -9627,26 +9637,30 @@
       </c>
       <c r="K275" s="6">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B276" s="6"/>
+      <c r="B276" s="6">
+        <v>15332</v>
+      </c>
       <c r="C276" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D276">
+        <v>15335</v>
+      </c>
+      <c r="D276" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E276"/>
+        <v>Dizze Gillespiestraat 10, Zaandijk</v>
+      </c>
+      <c r="E276" t="s">
+        <v>24</v>
+      </c>
       <c r="G276" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I276" s="11">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J276" s="6">
         <f t="shared" si="22"/>
@@ -9654,30 +9668,34 @@
       </c>
       <c r="K276" s="6">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B277" s="6"/>
+      <c r="B277" s="6">
+        <v>15335</v>
+      </c>
       <c r="C277" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D277">
+        <v>15343</v>
+      </c>
+      <c r="D277" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E277"/>
+        <v>Doktersland 20, Koog aan de Zaan</v>
+      </c>
+      <c r="E277" t="s">
+        <v>7</v>
+      </c>
       <c r="G277" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I277" s="11">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J277" s="6">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K277" s="6">
         <f t="shared" si="23"/>
@@ -9685,26 +9703,33 @@
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B278" s="6"/>
+      <c r="A278" s="9">
+        <v>43598</v>
+      </c>
+      <c r="B278" s="6">
+        <v>15343</v>
+      </c>
       <c r="C278" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D278">
+        <v>15410</v>
+      </c>
+      <c r="D278" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E278"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E278" t="s">
+        <v>6</v>
+      </c>
       <c r="G278" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I278" s="11">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J278" s="6">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K278" s="6">
         <f t="shared" si="23"/>
@@ -9712,26 +9737,30 @@
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B279" s="6"/>
+      <c r="B279" s="6">
+        <v>15410</v>
+      </c>
       <c r="C279" s="6">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="D279">
+      <c r="D279" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E279"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E279" t="s">
+        <v>7</v>
+      </c>
       <c r="G279" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I279" s="11">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>-15410</v>
       </c>
       <c r="J279" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-15410</v>
       </c>
       <c r="K279" s="11">
         <f t="shared" si="23"/>
@@ -9744,9 +9773,9 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="D280">
+      <c r="D280" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E280"/>
       <c r="G280" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A43FE1-7633-4275-B327-51C4BCFDD737}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFEB0E9-4CAA-4D6B-951C-CE6B6D4CC897}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
+    <workbookView xWindow="-4425" yWindow="-21720" windowWidth="38640" windowHeight="21390" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="40">
   <si>
     <t>Datum</t>
   </si>
@@ -596,7 +596,7 @@
   <dimension ref="A1:K547"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
-      <selection activeCell="E280" sqref="E280"/>
+      <selection activeCell="F283" sqref="F283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9742,7 +9742,7 @@
       </c>
       <c r="C279" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>15478</v>
       </c>
       <c r="D279" t="str">
         <f t="shared" si="26"/>
@@ -9756,11 +9756,11 @@
       </c>
       <c r="I279" s="11">
         <f t="shared" si="24"/>
-        <v>-15410</v>
+        <v>68</v>
       </c>
       <c r="J279" s="11">
         <f t="shared" si="22"/>
-        <v>-15410</v>
+        <v>68</v>
       </c>
       <c r="K279" s="11">
         <f t="shared" si="23"/>
@@ -9768,26 +9768,33 @@
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B280" s="6"/>
+      <c r="A280" s="9">
+        <v>43600</v>
+      </c>
+      <c r="B280" s="6">
+        <v>15478</v>
+      </c>
       <c r="C280" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>15546</v>
       </c>
       <c r="D280" t="str">
         <f t="shared" si="26"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E280"/>
+      <c r="E280" t="s">
+        <v>6</v>
+      </c>
       <c r="G280" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I280" s="11">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J280" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K280" s="11">
         <f t="shared" si="23"/>
@@ -9795,26 +9802,30 @@
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B281" s="6"/>
+      <c r="B281" s="6">
+        <v>15546</v>
+      </c>
       <c r="C281" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D281">
+        <v>15610</v>
+      </c>
+      <c r="D281" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E281"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E281" t="s">
+        <v>7</v>
+      </c>
       <c r="G281" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I281" s="11">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="J281" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="K281" s="11">
         <f t="shared" si="23"/>
@@ -9822,26 +9833,33 @@
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B282" s="6"/>
+      <c r="A282" s="9">
+        <v>43602</v>
+      </c>
+      <c r="B282" s="6">
+        <v>15610</v>
+      </c>
       <c r="C282" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D282">
+        <v>15678</v>
+      </c>
+      <c r="D282" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E282"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E282" t="s">
+        <v>6</v>
+      </c>
       <c r="G282" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I282" s="11">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J282" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K282" s="11">
         <f t="shared" si="23"/>
@@ -9849,26 +9867,30 @@
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B283" s="6"/>
+      <c r="B283" s="6">
+        <v>15678</v>
+      </c>
       <c r="C283" s="6">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="D283">
+      <c r="D283" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E283"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E283" t="s">
+        <v>7</v>
+      </c>
       <c r="G283" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I283" s="11">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>-15678</v>
       </c>
       <c r="J283" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>-15678</v>
       </c>
       <c r="K283" s="11">
         <f t="shared" si="23"/>
@@ -9881,9 +9903,9 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="D284">
+      <c r="D284" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E284"/>
       <c r="G284" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFEB0E9-4CAA-4D6B-951C-CE6B6D4CC897}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99249167-0E7A-476F-AC7F-A40B9A48B1EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4425" yWindow="-21720" windowWidth="38640" windowHeight="21390" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="43">
   <si>
     <t>Datum</t>
   </si>
@@ -189,6 +189,15 @@
   <si>
     <t>Dizze Gillespiestraat 10, Zaandijk</t>
   </si>
+  <si>
+    <t xml:space="preserve">Onderhoudsbeurt </t>
+  </si>
+  <si>
+    <t>Omgekeerd via S113, enorme drukte</t>
+  </si>
+  <si>
+    <t>Wezelstraat 3-A, 1541 LZ, Koog aan de Zaan</t>
+  </si>
 </sst>
 </file>
 
@@ -246,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -270,8 +279,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -279,6 +286,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,13 +607,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:K547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
-      <selection activeCell="F283" sqref="F283"/>
+    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
+      <selection activeCell="A297" sqref="A297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="13" customWidth="1"/>
     <col min="2" max="3" width="32.140625" style="4" customWidth="1"/>
     <col min="4" max="5" width="39.85546875" style="4" customWidth="1"/>
     <col min="6" max="6" width="32.140625" style="7" customWidth="1"/>
@@ -611,7 +623,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2950,7 +2962,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="9"/>
+      <c r="A72" s="14"/>
       <c r="B72" s="6">
         <v>3906</v>
       </c>
@@ -2982,7 +2994,7 @@
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="9"/>
+      <c r="A73" s="14"/>
       <c r="B73" s="6">
         <v>3972</v>
       </c>
@@ -3014,7 +3026,7 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="9">
+      <c r="A74" s="14">
         <v>43395</v>
       </c>
       <c r="B74" s="6">
@@ -3048,7 +3060,7 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="9"/>
+      <c r="A75" s="14"/>
       <c r="B75" s="6">
         <v>4163</v>
       </c>
@@ -3080,7 +3092,7 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="9">
+      <c r="A76" s="14">
         <v>43397</v>
       </c>
       <c r="B76" s="6">
@@ -3114,7 +3126,7 @@
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="9"/>
+      <c r="A77" s="14"/>
       <c r="B77" s="6">
         <v>4298</v>
       </c>
@@ -3146,7 +3158,7 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="9">
+      <c r="A78" s="14">
         <v>43399</v>
       </c>
       <c r="B78" s="6">
@@ -3180,7 +3192,7 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="9"/>
+      <c r="A79" s="14"/>
       <c r="B79" s="6">
         <v>4433</v>
       </c>
@@ -3212,7 +3224,7 @@
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="9">
+      <c r="A80" s="14">
         <v>43400</v>
       </c>
       <c r="B80" s="6">
@@ -3246,7 +3258,7 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="9"/>
+      <c r="A81" s="14"/>
       <c r="B81" s="6">
         <v>4513</v>
       </c>
@@ -3278,7 +3290,7 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="9">
+      <c r="A82" s="14">
         <v>43402</v>
       </c>
       <c r="B82" s="6">
@@ -3312,7 +3324,7 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="9"/>
+      <c r="A83" s="14"/>
       <c r="B83" s="6">
         <v>4593</v>
       </c>
@@ -3345,7 +3357,7 @@
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="9">
+      <c r="A84" s="14">
         <v>43403</v>
       </c>
       <c r="B84" s="6">
@@ -3379,7 +3391,7 @@
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="9"/>
+      <c r="A85" s="14"/>
       <c r="B85" s="6">
         <v>4728</v>
       </c>
@@ -3412,7 +3424,7 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="9">
+      <c r="A86" s="14">
         <v>43405</v>
       </c>
       <c r="B86" s="6">
@@ -3446,7 +3458,7 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="9"/>
+      <c r="A87" s="14"/>
       <c r="B87" s="6">
         <v>4863</v>
       </c>
@@ -3478,7 +3490,7 @@
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="9">
+      <c r="A88" s="14">
         <v>43409</v>
       </c>
       <c r="B88" s="6">
@@ -3513,7 +3525,7 @@
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="9"/>
+      <c r="A89" s="14"/>
       <c r="B89" s="6">
         <v>4998</v>
       </c>
@@ -3545,7 +3557,7 @@
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="9">
+      <c r="A90" s="14">
         <v>43410</v>
       </c>
       <c r="B90" s="6">
@@ -3579,7 +3591,7 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="9"/>
+      <c r="A91" s="14"/>
       <c r="B91" s="6">
         <v>5132</v>
       </c>
@@ -3611,7 +3623,7 @@
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="9">
+      <c r="A92" s="14">
         <v>43412</v>
       </c>
       <c r="B92" s="6">
@@ -3645,7 +3657,7 @@
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="9"/>
+      <c r="A93" s="14"/>
       <c r="B93" s="6">
         <v>5267</v>
       </c>
@@ -3677,7 +3689,7 @@
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="9">
+      <c r="A94" s="14">
         <v>43413</v>
       </c>
       <c r="B94" s="6">
@@ -3711,7 +3723,7 @@
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="9"/>
+      <c r="A95" s="14"/>
       <c r="B95" s="6">
         <v>5403</v>
       </c>
@@ -3743,7 +3755,7 @@
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="9">
+      <c r="A96" s="14">
         <v>43416</v>
       </c>
       <c r="B96" s="6">
@@ -3780,7 +3792,7 @@
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="9"/>
+      <c r="A97" s="14"/>
       <c r="B97" s="6">
         <v>5538</v>
       </c>
@@ -3812,7 +3824,7 @@
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="9"/>
+      <c r="A98" s="14"/>
       <c r="B98" s="6">
         <v>5540</v>
       </c>
@@ -3844,7 +3856,7 @@
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="9"/>
+      <c r="A99" s="14"/>
       <c r="B99" s="6">
         <v>5542</v>
       </c>
@@ -3876,7 +3888,7 @@
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="9"/>
+      <c r="A100" s="14"/>
       <c r="B100" s="6">
         <v>5543</v>
       </c>
@@ -3908,7 +3920,7 @@
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="9"/>
+      <c r="A101" s="14"/>
       <c r="B101" s="6">
         <v>5545</v>
       </c>
@@ -3940,7 +3952,7 @@
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="9"/>
+      <c r="A102" s="14"/>
       <c r="B102" s="6">
         <v>5547</v>
       </c>
@@ -3972,7 +3984,7 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="9">
+      <c r="A103" s="14">
         <v>43417</v>
       </c>
       <c r="B103" s="6">
@@ -4006,7 +4018,7 @@
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="9"/>
+      <c r="A104" s="14"/>
       <c r="B104" s="6">
         <v>5681</v>
       </c>
@@ -4038,7 +4050,7 @@
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="9">
+      <c r="A105" s="14">
         <v>43420</v>
       </c>
       <c r="B105" s="6">
@@ -4072,7 +4084,7 @@
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="9"/>
+      <c r="A106" s="14"/>
       <c r="B106" s="6">
         <v>5816</v>
       </c>
@@ -4104,7 +4116,7 @@
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="9">
+      <c r="A107" s="14">
         <v>43424</v>
       </c>
       <c r="B107" s="6">
@@ -4138,7 +4150,7 @@
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="9"/>
+      <c r="A108" s="14"/>
       <c r="B108" s="6">
         <v>5951</v>
       </c>
@@ -4170,7 +4182,7 @@
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="9">
+      <c r="A109" s="14">
         <v>43426</v>
       </c>
       <c r="B109" s="6">
@@ -4204,7 +4216,7 @@
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="9"/>
+      <c r="A110" s="14"/>
       <c r="B110" s="6">
         <v>6087</v>
       </c>
@@ -4236,7 +4248,7 @@
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="9">
+      <c r="A111" s="14">
         <v>43427</v>
       </c>
       <c r="B111" s="6">
@@ -4270,7 +4282,7 @@
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="9"/>
+      <c r="A112" s="14"/>
       <c r="B112" s="6">
         <v>6222</v>
       </c>
@@ -4302,7 +4314,7 @@
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="9">
+      <c r="A113" s="14">
         <v>43430</v>
       </c>
       <c r="B113" s="6">
@@ -4336,7 +4348,7 @@
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="9"/>
+      <c r="A114" s="14"/>
       <c r="B114" s="6">
         <v>6357</v>
       </c>
@@ -4368,7 +4380,7 @@
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="9">
+      <c r="A115" s="14">
         <v>43431</v>
       </c>
       <c r="B115" s="6">
@@ -4402,7 +4414,7 @@
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="9"/>
+      <c r="A116" s="14"/>
       <c r="B116" s="6">
         <v>6492</v>
       </c>
@@ -4434,7 +4446,7 @@
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="9">
+      <c r="A117" s="14">
         <v>43432</v>
       </c>
       <c r="B117" s="6">
@@ -4468,7 +4480,7 @@
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="9"/>
+      <c r="A118" s="14"/>
       <c r="B118" s="6">
         <v>6569</v>
       </c>
@@ -4500,7 +4512,7 @@
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="9">
+      <c r="A119" s="14">
         <v>43433</v>
       </c>
       <c r="B119" s="6">
@@ -4534,7 +4546,7 @@
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="10"/>
+      <c r="A120" s="15"/>
       <c r="B120" s="6">
         <v>6644</v>
       </c>
@@ -4566,7 +4578,7 @@
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="9">
+      <c r="A121" s="14">
         <v>43434</v>
       </c>
       <c r="B121" s="6">
@@ -4600,7 +4612,7 @@
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="10"/>
+      <c r="A122" s="15"/>
       <c r="B122" s="6">
         <v>6780</v>
       </c>
@@ -4632,7 +4644,7 @@
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="9">
+      <c r="A123" s="14">
         <v>43437</v>
       </c>
       <c r="B123" s="6">
@@ -4666,7 +4678,7 @@
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="9"/>
+      <c r="A124" s="14"/>
       <c r="B124" s="6">
         <v>6915</v>
       </c>
@@ -4699,7 +4711,7 @@
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="9"/>
+      <c r="A125" s="14"/>
       <c r="B125" s="6">
         <v>6983</v>
       </c>
@@ -4734,7 +4746,7 @@
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="9"/>
+      <c r="A126" s="14"/>
       <c r="B126" s="6">
         <v>6988</v>
       </c>
@@ -4766,7 +4778,7 @@
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="9">
+      <c r="A127" s="14">
         <v>43438</v>
       </c>
       <c r="B127" s="6">
@@ -4800,7 +4812,7 @@
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="9"/>
+      <c r="A128" s="14"/>
       <c r="B128" s="6">
         <v>7060</v>
       </c>
@@ -4832,7 +4844,7 @@
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="9">
+      <c r="A129" s="14">
         <v>43439</v>
       </c>
       <c r="B129" s="6">
@@ -4866,7 +4878,7 @@
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="9"/>
+      <c r="A130" s="14"/>
       <c r="B130" s="6">
         <v>7195</v>
       </c>
@@ -4898,7 +4910,7 @@
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="9"/>
+      <c r="A131" s="14"/>
       <c r="B131" s="6">
         <v>7214</v>
       </c>
@@ -4930,7 +4942,7 @@
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="9"/>
+      <c r="A132" s="14"/>
       <c r="B132" s="6">
         <v>7232</v>
       </c>
@@ -4962,7 +4974,7 @@
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="9">
+      <c r="A133" s="14">
         <v>43440</v>
       </c>
       <c r="B133" s="6">
@@ -4996,7 +5008,7 @@
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="9"/>
+      <c r="A134" s="14"/>
       <c r="B134" s="6">
         <v>7368</v>
       </c>
@@ -5028,7 +5040,7 @@
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="9">
+      <c r="A135" s="14">
         <v>43445</v>
       </c>
       <c r="B135" s="6">
@@ -5062,7 +5074,7 @@
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="9"/>
+      <c r="A136" s="14"/>
       <c r="B136" s="6">
         <v>7503</v>
       </c>
@@ -5094,7 +5106,7 @@
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="9">
+      <c r="A137" s="14">
         <v>43448</v>
       </c>
       <c r="B137" s="6">
@@ -5128,8 +5140,8 @@
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="9"/>
-      <c r="B138" s="11">
+      <c r="A138" s="14"/>
+      <c r="B138" s="9">
         <v>7638</v>
       </c>
       <c r="C138" s="6">
@@ -5160,7 +5172,7 @@
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="9">
+      <c r="A139" s="14">
         <v>43454</v>
       </c>
       <c r="B139" s="6">
@@ -5194,7 +5206,7 @@
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="9"/>
+      <c r="A140" s="14"/>
       <c r="B140" s="6">
         <v>7773</v>
       </c>
@@ -5226,7 +5238,7 @@
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="9">
+      <c r="A141" s="14">
         <v>43459</v>
       </c>
       <c r="B141" s="6">
@@ -5260,7 +5272,7 @@
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="9"/>
+      <c r="A142" s="14"/>
       <c r="B142" s="6">
         <v>7849</v>
       </c>
@@ -5292,7 +5304,7 @@
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="9"/>
+      <c r="A143" s="14"/>
       <c r="B143" s="6">
         <v>7856</v>
       </c>
@@ -5324,7 +5336,7 @@
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="9"/>
+      <c r="A144" s="14"/>
       <c r="B144" s="6">
         <v>7863</v>
       </c>
@@ -5356,7 +5368,7 @@
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="9">
+      <c r="A145" s="14">
         <v>43465</v>
       </c>
       <c r="B145" s="6">
@@ -5390,7 +5402,7 @@
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="9">
+      <c r="A146" s="14">
         <v>43466</v>
       </c>
       <c r="B146" s="6">
@@ -5424,7 +5436,7 @@
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="9">
+      <c r="A147" s="14">
         <v>43467</v>
       </c>
       <c r="B147" s="6">
@@ -5457,7 +5469,7 @@
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="9"/>
+      <c r="A148" s="14"/>
       <c r="B148" s="6">
         <v>7963</v>
       </c>
@@ -5490,7 +5502,7 @@
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="9">
+      <c r="A149" s="14">
         <v>43468</v>
       </c>
       <c r="B149" s="6">
@@ -5524,7 +5536,7 @@
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" s="9"/>
+      <c r="A150" s="14"/>
       <c r="B150" s="6">
         <v>8098</v>
       </c>
@@ -5556,7 +5568,7 @@
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="9">
+      <c r="A151" s="14">
         <v>43472</v>
       </c>
       <c r="B151" s="6">
@@ -5590,7 +5602,7 @@
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="9"/>
+      <c r="A152" s="14"/>
       <c r="B152" s="6">
         <v>8233</v>
       </c>
@@ -5622,7 +5634,7 @@
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="9">
+      <c r="A153" s="14">
         <v>43473</v>
       </c>
       <c r="B153" s="6">
@@ -5656,7 +5668,7 @@
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="9"/>
+      <c r="A154" s="14"/>
       <c r="B154" s="6">
         <v>8368</v>
       </c>
@@ -5687,7 +5699,7 @@
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="9">
+      <c r="A155" s="14">
         <v>43475</v>
       </c>
       <c r="B155" s="6">
@@ -5706,21 +5718,21 @@
       <c r="G155" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I155" s="11">
+      <c r="I155" s="9">
         <f t="shared" si="13"/>
         <v>68</v>
       </c>
-      <c r="J155" s="11">
+      <c r="J155" s="9">
         <f t="shared" si="14"/>
         <v>68</v>
       </c>
-      <c r="K155" s="11">
+      <c r="K155" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="9"/>
+      <c r="A156" s="14"/>
       <c r="B156" s="6">
         <v>8504</v>
       </c>
@@ -5737,21 +5749,21 @@
       <c r="G156" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I156" s="11">
+      <c r="I156" s="9">
         <f t="shared" si="13"/>
         <v>67</v>
       </c>
-      <c r="J156" s="11">
+      <c r="J156" s="9">
         <f t="shared" si="14"/>
         <v>67</v>
       </c>
-      <c r="K156" s="11">
+      <c r="K156" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="9">
+      <c r="A157" s="14">
         <v>43476</v>
       </c>
       <c r="B157" s="6">
@@ -5771,21 +5783,21 @@
       <c r="G157" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I157" s="11">
+      <c r="I157" s="9">
         <f t="shared" si="13"/>
         <v>68</v>
       </c>
-      <c r="J157" s="11">
+      <c r="J157" s="9">
         <f t="shared" si="14"/>
         <v>68</v>
       </c>
-      <c r="K157" s="11">
+      <c r="K157" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="9"/>
+      <c r="A158" s="14"/>
       <c r="B158" s="6">
         <v>8639</v>
       </c>
@@ -5803,21 +5815,21 @@
       <c r="G158" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I158" s="11">
+      <c r="I158" s="9">
         <f t="shared" si="13"/>
         <v>67</v>
       </c>
-      <c r="J158" s="11">
+      <c r="J158" s="9">
         <f t="shared" si="14"/>
         <v>67</v>
       </c>
-      <c r="K158" s="11">
+      <c r="K158" s="9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="9">
+      <c r="A159" s="14">
         <v>43477</v>
       </c>
       <c r="B159" s="6">
@@ -5837,15 +5849,15 @@
       <c r="G159" t="s">
         <v>16</v>
       </c>
-      <c r="I159" s="11">
+      <c r="I159" s="9">
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="J159" s="11">
+      <c r="J159" s="9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K159" s="11">
+      <c r="K159" s="9">
         <f t="shared" si="15"/>
         <v>4</v>
       </c>
@@ -5868,7 +5880,7 @@
       <c r="G160" t="s">
         <v>16</v>
       </c>
-      <c r="I160" s="11">
+      <c r="I160" s="9">
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
@@ -5882,7 +5894,7 @@
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="9">
+      <c r="A161" s="14">
         <v>43478</v>
       </c>
       <c r="B161" s="6">
@@ -5902,7 +5914,7 @@
       <c r="G161" t="s">
         <v>16</v>
       </c>
-      <c r="I161" s="11">
+      <c r="I161" s="9">
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
@@ -5933,7 +5945,7 @@
       <c r="G162" t="s">
         <v>16</v>
       </c>
-      <c r="I162" s="11">
+      <c r="I162" s="9">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
@@ -5947,7 +5959,7 @@
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="9">
+      <c r="A163" s="14">
         <v>43479</v>
       </c>
       <c r="B163" s="6">
@@ -5966,7 +5978,7 @@
       <c r="G163" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I163" s="11">
+      <c r="I163" s="9">
         <f t="shared" si="13"/>
         <v>67</v>
       </c>
@@ -5997,21 +6009,21 @@
       <c r="G164" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I164" s="11">
+      <c r="I164" s="9">
         <f t="shared" si="13"/>
         <v>68</v>
       </c>
-      <c r="J164" s="11">
+      <c r="J164" s="9">
         <f t="shared" si="17"/>
         <v>68</v>
       </c>
-      <c r="K164" s="11">
+      <c r="K164" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" s="9">
+      <c r="A165" s="14">
         <v>43481</v>
       </c>
       <c r="B165" s="6">
@@ -6031,15 +6043,15 @@
       <c r="G165" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I165" s="11">
+      <c r="I165" s="9">
         <f t="shared" si="13"/>
         <v>68</v>
       </c>
-      <c r="J165" s="11">
+      <c r="J165" s="9">
         <f t="shared" si="17"/>
         <v>68</v>
       </c>
-      <c r="K165" s="11">
+      <c r="K165" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -6062,21 +6074,21 @@
       <c r="G166" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I166" s="11">
+      <c r="I166" s="9">
         <f t="shared" si="13"/>
         <v>67</v>
       </c>
-      <c r="J166" s="11">
+      <c r="J166" s="9">
         <f t="shared" si="17"/>
         <v>67</v>
       </c>
-      <c r="K166" s="11">
+      <c r="K166" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167" s="9">
+      <c r="A167" s="14">
         <v>43482</v>
       </c>
       <c r="B167" s="6">
@@ -6096,15 +6108,15 @@
       <c r="G167" t="s">
         <v>16</v>
       </c>
-      <c r="I167" s="11">
+      <c r="I167" s="9">
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="J167" s="11">
+      <c r="J167" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K167" s="11">
+      <c r="K167" s="9">
         <f t="shared" si="18"/>
         <v>4</v>
       </c>
@@ -6127,21 +6139,21 @@
       <c r="G168" t="s">
         <v>16</v>
       </c>
-      <c r="I168" s="11">
+      <c r="I168" s="9">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="J168" s="11">
+      <c r="J168" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K168" s="11">
+      <c r="K168" s="9">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169" s="9"/>
+      <c r="A169" s="14"/>
       <c r="B169" s="6">
         <v>8998</v>
       </c>
@@ -6159,7 +6171,7 @@
       <c r="G169" t="s">
         <v>16</v>
       </c>
-      <c r="I169" s="11">
+      <c r="I169" s="9">
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
@@ -6173,7 +6185,7 @@
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" s="9">
+      <c r="A170" s="14">
         <v>43483</v>
       </c>
       <c r="B170" s="6">
@@ -6193,7 +6205,7 @@
       <c r="G170" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I170" s="11">
+      <c r="I170" s="9">
         <f t="shared" si="13"/>
         <v>68</v>
       </c>
@@ -6207,7 +6219,7 @@
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171" s="9"/>
+      <c r="A171" s="14"/>
       <c r="B171" s="6">
         <v>9070</v>
       </c>
@@ -6225,7 +6237,7 @@
       <c r="G171" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I171" s="11">
+      <c r="I171" s="9">
         <f t="shared" si="13"/>
         <v>68</v>
       </c>
@@ -6239,7 +6251,7 @@
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172" s="9">
+      <c r="A172" s="14">
         <v>43488</v>
       </c>
       <c r="B172" s="6">
@@ -6259,7 +6271,7 @@
       <c r="G172" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I172" s="11">
+      <c r="I172" s="9">
         <f t="shared" si="13"/>
         <v>68</v>
       </c>
@@ -6273,7 +6285,7 @@
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" s="9"/>
+      <c r="A173" s="14"/>
       <c r="B173" s="6">
         <v>9206</v>
       </c>
@@ -6291,21 +6303,21 @@
       <c r="G173" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I173" s="11">
+      <c r="I173" s="9">
         <f t="shared" si="13"/>
         <v>67</v>
       </c>
-      <c r="J173" s="11">
+      <c r="J173" s="9">
         <f t="shared" si="17"/>
         <v>67</v>
       </c>
-      <c r="K173" s="11">
+      <c r="K173" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="9">
+      <c r="A174" s="14">
         <v>43490</v>
       </c>
       <c r="B174" s="6">
@@ -6325,21 +6337,21 @@
       <c r="G174" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I174" s="11">
+      <c r="I174" s="9">
         <f t="shared" si="13"/>
         <v>68</v>
       </c>
-      <c r="J174" s="11">
+      <c r="J174" s="9">
         <f t="shared" si="17"/>
         <v>68</v>
       </c>
-      <c r="K174" s="11">
+      <c r="K174" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" s="9"/>
+      <c r="A175" s="14"/>
       <c r="B175" s="6">
         <v>9341</v>
       </c>
@@ -6357,21 +6369,21 @@
       <c r="G175" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I175" s="11">
+      <c r="I175" s="9">
         <f t="shared" si="13"/>
         <v>68</v>
       </c>
-      <c r="J175" s="11">
+      <c r="J175" s="9">
         <f t="shared" si="17"/>
         <v>68</v>
       </c>
-      <c r="K175" s="11">
+      <c r="K175" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A176" s="9">
+      <c r="A176" s="14">
         <v>43493</v>
       </c>
       <c r="B176" s="6">
@@ -6391,21 +6403,21 @@
       <c r="G176" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I176" s="11">
+      <c r="I176" s="9">
         <f t="shared" si="13"/>
         <v>67</v>
       </c>
-      <c r="J176" s="11">
+      <c r="J176" s="9">
         <f t="shared" si="17"/>
         <v>67</v>
       </c>
-      <c r="K176" s="11">
+      <c r="K176" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" s="9"/>
+      <c r="A177" s="14"/>
       <c r="B177" s="6">
         <v>9476</v>
       </c>
@@ -6423,21 +6435,21 @@
       <c r="G177" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I177" s="11">
+      <c r="I177" s="9">
         <f t="shared" si="13"/>
         <v>68</v>
       </c>
-      <c r="J177" s="11">
+      <c r="J177" s="9">
         <f t="shared" si="17"/>
         <v>68</v>
       </c>
-      <c r="K177" s="11">
+      <c r="K177" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A178" s="9">
+      <c r="A178" s="14">
         <v>43495</v>
       </c>
       <c r="B178" s="6">
@@ -6457,7 +6469,7 @@
       <c r="G178" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I178" s="11">
+      <c r="I178" s="9">
         <f t="shared" si="13"/>
         <v>68</v>
       </c>
@@ -6471,7 +6483,7 @@
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A179" s="9"/>
+      <c r="A179" s="14"/>
       <c r="B179" s="6">
         <v>9612</v>
       </c>
@@ -6489,7 +6501,7 @@
       <c r="G179" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I179" s="11">
+      <c r="I179" s="9">
         <f t="shared" si="13"/>
         <v>67</v>
       </c>
@@ -6503,7 +6515,7 @@
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A180" s="9">
+      <c r="A180" s="14">
         <v>43497</v>
       </c>
       <c r="B180" s="6">
@@ -6523,7 +6535,7 @@
       <c r="G180" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I180" s="11">
+      <c r="I180" s="9">
         <f t="shared" si="13"/>
         <v>68</v>
       </c>
@@ -6537,7 +6549,7 @@
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A181" s="9"/>
+      <c r="A181" s="14"/>
       <c r="B181" s="6">
         <v>9747</v>
       </c>
@@ -6557,21 +6569,21 @@
       <c r="H181" s="4">
         <v>2</v>
       </c>
-      <c r="I181" s="11">
+      <c r="I181" s="9">
         <f t="shared" si="13"/>
         <v>69</v>
       </c>
-      <c r="J181" s="11">
+      <c r="J181" s="9">
         <f t="shared" si="17"/>
         <v>67</v>
       </c>
-      <c r="K181" s="11">
+      <c r="K181" s="9">
         <f t="shared" si="18"/>
         <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A182" s="9">
+      <c r="A182" s="14">
         <v>43499</v>
       </c>
       <c r="B182" s="6">
@@ -6590,21 +6602,21 @@
       <c r="G182" t="s">
         <v>16</v>
       </c>
-      <c r="I182" s="11">
+      <c r="I182" s="9">
         <f t="shared" si="13"/>
         <v>25</v>
       </c>
-      <c r="J182" s="11">
+      <c r="J182" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K182" s="11">
+      <c r="K182" s="9">
         <f t="shared" si="18"/>
         <v>25</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A183" s="9"/>
+      <c r="A183" s="14"/>
       <c r="B183" s="6">
         <v>9841</v>
       </c>
@@ -6622,21 +6634,21 @@
       <c r="G183" t="s">
         <v>16</v>
       </c>
-      <c r="I183" s="11">
+      <c r="I183" s="9">
         <f t="shared" si="13"/>
         <v>26</v>
       </c>
-      <c r="J183" s="11">
+      <c r="J183" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K183" s="11">
+      <c r="K183" s="9">
         <f t="shared" si="18"/>
         <v>26</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A184" s="9">
+      <c r="A184" s="14">
         <v>43501</v>
       </c>
       <c r="B184" s="6">
@@ -6655,21 +6667,21 @@
       <c r="G184" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I184" s="11">
+      <c r="I184" s="9">
         <f t="shared" si="13"/>
         <v>68</v>
       </c>
-      <c r="J184" s="11">
+      <c r="J184" s="9">
         <f t="shared" si="17"/>
         <v>68</v>
       </c>
-      <c r="K184" s="11">
+      <c r="K184" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185" s="9"/>
+      <c r="A185" s="14"/>
       <c r="B185" s="6">
         <v>9935</v>
       </c>
@@ -6686,7 +6698,7 @@
       <c r="G185" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I185" s="11">
+      <c r="I185" s="9">
         <f t="shared" si="13"/>
         <v>67</v>
       </c>
@@ -6700,7 +6712,7 @@
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A186" s="9">
+      <c r="A186" s="14">
         <v>43502</v>
       </c>
       <c r="B186" s="6">
@@ -6720,7 +6732,7 @@
       <c r="G186" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I186" s="11">
+      <c r="I186" s="9">
         <f t="shared" si="13"/>
         <v>26</v>
       </c>
@@ -6734,7 +6746,7 @@
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" s="9"/>
+      <c r="A187" s="14"/>
       <c r="B187" s="6">
         <v>10028</v>
       </c>
@@ -6751,7 +6763,7 @@
       <c r="G187" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I187" s="11">
+      <c r="I187" s="9">
         <f t="shared" si="13"/>
         <v>28</v>
       </c>
@@ -6765,7 +6777,7 @@
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A188" s="9">
+      <c r="A188" s="14">
         <v>43503</v>
       </c>
       <c r="B188" s="6">
@@ -6785,7 +6797,7 @@
       <c r="G188" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I188" s="11">
+      <c r="I188" s="9">
         <f t="shared" si="13"/>
         <v>68</v>
       </c>
@@ -6799,7 +6811,7 @@
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A189" s="9"/>
+      <c r="A189" s="14"/>
       <c r="B189" s="6">
         <v>10124</v>
       </c>
@@ -6818,21 +6830,21 @@
       <c r="G189" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I189" s="11">
+      <c r="I189" s="9">
         <f t="shared" si="13"/>
         <v>71</v>
       </c>
-      <c r="J189" s="11">
+      <c r="J189" s="9">
         <f t="shared" si="17"/>
         <v>71</v>
       </c>
-      <c r="K189" s="11">
+      <c r="K189" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A190" s="9">
+      <c r="A190" s="14">
         <v>43504</v>
       </c>
       <c r="B190" s="6">
@@ -6852,15 +6864,15 @@
       <c r="G190" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I190" s="11">
+      <c r="I190" s="9">
         <f t="shared" si="13"/>
         <v>64</v>
       </c>
-      <c r="J190" s="11">
+      <c r="J190" s="9">
         <f t="shared" si="17"/>
         <v>64</v>
       </c>
-      <c r="K190" s="11">
+      <c r="K190" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -6883,21 +6895,21 @@
       <c r="G191" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I191" s="11">
+      <c r="I191" s="9">
         <f t="shared" si="13"/>
         <v>68</v>
       </c>
-      <c r="J191" s="11">
+      <c r="J191" s="9">
         <f t="shared" si="17"/>
         <v>68</v>
       </c>
-      <c r="K191" s="11">
+      <c r="K191" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A192" s="9">
+      <c r="A192" s="14">
         <v>43505</v>
       </c>
       <c r="B192" s="6">
@@ -6916,15 +6928,15 @@
       <c r="G192" t="s">
         <v>16</v>
       </c>
-      <c r="I192" s="11">
+      <c r="I192" s="9">
         <f t="shared" ref="I192:I255" si="19">(C192-B192)</f>
         <v>27</v>
       </c>
-      <c r="J192" s="11">
+      <c r="J192" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K192" s="11">
+      <c r="K192" s="9">
         <f t="shared" si="18"/>
         <v>27</v>
       </c>
@@ -6947,21 +6959,21 @@
       <c r="G193" t="s">
         <v>16</v>
       </c>
-      <c r="I193" s="11">
+      <c r="I193" s="9">
         <f t="shared" si="19"/>
         <v>36</v>
       </c>
-      <c r="J193" s="11">
+      <c r="J193" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K193" s="11">
+      <c r="K193" s="9">
         <f t="shared" si="18"/>
         <v>36</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A194" s="9"/>
+      <c r="A194" s="14"/>
       <c r="B194" s="6">
         <v>10390</v>
       </c>
@@ -6979,7 +6991,7 @@
       <c r="G194" t="s">
         <v>16</v>
       </c>
-      <c r="I194" s="11">
+      <c r="I194" s="9">
         <f t="shared" si="19"/>
         <v>4</v>
       </c>
@@ -6993,7 +7005,7 @@
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A195" s="9">
+      <c r="A195" s="14">
         <v>43508</v>
       </c>
       <c r="B195" s="6">
@@ -7013,7 +7025,7 @@
       <c r="G195" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I195" s="11">
+      <c r="I195" s="9">
         <f t="shared" si="19"/>
         <v>68</v>
       </c>
@@ -7027,7 +7039,7 @@
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A196" s="9"/>
+      <c r="A196" s="14"/>
       <c r="B196" s="6">
         <v>10462</v>
       </c>
@@ -7045,7 +7057,7 @@
       <c r="G196" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I196" s="11">
+      <c r="I196" s="9">
         <f t="shared" si="19"/>
         <v>67</v>
       </c>
@@ -7059,7 +7071,7 @@
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" s="9">
+      <c r="A197" s="14">
         <v>43509</v>
       </c>
       <c r="B197" s="6">
@@ -7079,7 +7091,7 @@
       <c r="G197" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I197" s="11">
+      <c r="I197" s="9">
         <f t="shared" si="19"/>
         <v>68</v>
       </c>
@@ -7093,7 +7105,7 @@
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" s="9"/>
+      <c r="A198" s="14"/>
       <c r="B198" s="6">
         <v>10597</v>
       </c>
@@ -7111,21 +7123,21 @@
       <c r="G198" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I198" s="11">
+      <c r="I198" s="9">
         <f t="shared" si="19"/>
         <v>68</v>
       </c>
-      <c r="J198" s="11">
+      <c r="J198" s="9">
         <f t="shared" si="17"/>
         <v>68</v>
       </c>
-      <c r="K198" s="11">
+      <c r="K198" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" s="9">
+      <c r="A199" s="14">
         <v>43510</v>
       </c>
       <c r="B199" s="6">
@@ -7145,21 +7157,21 @@
       <c r="G199" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I199" s="11">
+      <c r="I199" s="9">
         <f t="shared" si="19"/>
         <v>67</v>
       </c>
-      <c r="J199" s="11">
+      <c r="J199" s="9">
         <f t="shared" si="17"/>
         <v>67</v>
       </c>
-      <c r="K199" s="11">
+      <c r="K199" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A200" s="9"/>
+      <c r="A200" s="14"/>
       <c r="B200" s="6">
         <v>10732</v>
       </c>
@@ -7177,21 +7189,21 @@
       <c r="G200" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I200" s="11">
+      <c r="I200" s="9">
         <f t="shared" si="19"/>
         <v>68</v>
       </c>
-      <c r="J200" s="11">
+      <c r="J200" s="9">
         <f t="shared" si="17"/>
         <v>68</v>
       </c>
-      <c r="K200" s="11">
+      <c r="K200" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A201" s="9">
+      <c r="A201" s="14">
         <v>43511</v>
       </c>
       <c r="B201" s="6">
@@ -7211,21 +7223,21 @@
       <c r="G201" t="s">
         <v>16</v>
       </c>
-      <c r="I201" s="11">
+      <c r="I201" s="9">
         <f t="shared" si="19"/>
         <v>3</v>
       </c>
-      <c r="J201" s="11">
+      <c r="J201" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K201" s="11">
+      <c r="K201" s="9">
         <f t="shared" si="18"/>
         <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A202" s="9"/>
+      <c r="A202" s="14"/>
       <c r="B202" s="6">
         <v>10803</v>
       </c>
@@ -7243,21 +7255,21 @@
       <c r="G202" t="s">
         <v>16</v>
       </c>
-      <c r="I202" s="11">
+      <c r="I202" s="9">
         <f t="shared" si="19"/>
         <v>3</v>
       </c>
-      <c r="J202" s="11">
+      <c r="J202" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K202" s="11">
+      <c r="K202" s="9">
         <f t="shared" si="18"/>
         <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A203" s="9">
+      <c r="A203" s="14">
         <v>43514</v>
       </c>
       <c r="B203" s="6">
@@ -7277,7 +7289,7 @@
       <c r="G203" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I203" s="11">
+      <c r="I203" s="9">
         <f t="shared" si="19"/>
         <v>67</v>
       </c>
@@ -7291,7 +7303,7 @@
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A204" s="9"/>
+      <c r="A204" s="14"/>
       <c r="B204" s="6">
         <v>10873</v>
       </c>
@@ -7309,7 +7321,7 @@
       <c r="G204" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I204" s="11">
+      <c r="I204" s="9">
         <f t="shared" si="19"/>
         <v>68</v>
       </c>
@@ -7323,7 +7335,7 @@
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A205" s="9">
+      <c r="A205" s="14">
         <v>43517</v>
       </c>
       <c r="B205" s="6">
@@ -7343,7 +7355,7 @@
       <c r="G205" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I205" s="11">
+      <c r="I205" s="9">
         <f t="shared" si="19"/>
         <v>67</v>
       </c>
@@ -7357,7 +7369,7 @@
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A206" s="9"/>
+      <c r="A206" s="14"/>
       <c r="B206" s="6">
         <v>11008</v>
       </c>
@@ -7375,7 +7387,7 @@
       <c r="G206" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I206" s="11">
+      <c r="I206" s="9">
         <f t="shared" si="19"/>
         <v>68</v>
       </c>
@@ -7389,7 +7401,7 @@
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A207" s="9">
+      <c r="A207" s="14">
         <v>43518</v>
       </c>
       <c r="B207" s="6">
@@ -7409,21 +7421,21 @@
       <c r="G207" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I207" s="11">
+      <c r="I207" s="9">
         <f t="shared" si="19"/>
         <v>68</v>
       </c>
-      <c r="J207" s="11">
+      <c r="J207" s="9">
         <f t="shared" si="17"/>
         <v>68</v>
       </c>
-      <c r="K207" s="11">
+      <c r="K207" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208" s="9"/>
+      <c r="A208" s="14"/>
       <c r="B208" s="6">
         <v>11144</v>
       </c>
@@ -7441,21 +7453,21 @@
       <c r="G208" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I208" s="11">
+      <c r="I208" s="9">
         <f t="shared" si="19"/>
         <v>67</v>
       </c>
-      <c r="J208" s="11">
+      <c r="J208" s="9">
         <f t="shared" si="17"/>
         <v>67</v>
       </c>
-      <c r="K208" s="11">
+      <c r="K208" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A209" s="9">
+      <c r="A209" s="14">
         <v>43521</v>
       </c>
       <c r="B209" s="6">
@@ -7475,15 +7487,15 @@
       <c r="G209" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I209" s="11">
+      <c r="I209" s="9">
         <f t="shared" si="19"/>
         <v>68</v>
       </c>
-      <c r="J209" s="11">
+      <c r="J209" s="9">
         <f t="shared" si="17"/>
         <v>68</v>
       </c>
-      <c r="K209" s="11">
+      <c r="K209" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -7506,21 +7518,21 @@
       <c r="G210" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I210" s="11">
+      <c r="I210" s="9">
         <f t="shared" si="19"/>
         <v>67</v>
       </c>
-      <c r="J210" s="11">
+      <c r="J210" s="9">
         <f t="shared" si="17"/>
         <v>67</v>
       </c>
-      <c r="K210" s="11">
+      <c r="K210" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A211" s="9">
+      <c r="A211" s="14">
         <v>43523</v>
       </c>
       <c r="B211" s="6">
@@ -7540,21 +7552,21 @@
       <c r="G211" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I211" s="11">
+      <c r="I211" s="9">
         <f t="shared" si="19"/>
         <v>68</v>
       </c>
-      <c r="J211" s="11">
+      <c r="J211" s="9">
         <f t="shared" si="17"/>
         <v>68</v>
       </c>
-      <c r="K211" s="11">
+      <c r="K211" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A212" s="9"/>
+      <c r="A212" s="14"/>
       <c r="B212" s="6">
         <v>11414</v>
       </c>
@@ -7572,7 +7584,7 @@
       <c r="G212" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I212" s="11">
+      <c r="I212" s="9">
         <f t="shared" si="19"/>
         <v>67</v>
       </c>
@@ -7586,7 +7598,7 @@
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A213" s="9">
+      <c r="A213" s="14">
         <v>43529</v>
       </c>
       <c r="B213" s="6">
@@ -7606,7 +7618,7 @@
       <c r="G213" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I213" s="11">
+      <c r="I213" s="9">
         <f t="shared" si="19"/>
         <v>68</v>
       </c>
@@ -7620,7 +7632,7 @@
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A214" s="9"/>
+      <c r="A214" s="14"/>
       <c r="B214" s="6">
         <v>11549</v>
       </c>
@@ -7638,7 +7650,7 @@
       <c r="G214" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I214" s="11">
+      <c r="I214" s="9">
         <f t="shared" si="19"/>
         <v>67</v>
       </c>
@@ -7652,7 +7664,7 @@
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A215" s="9">
+      <c r="A215" s="14">
         <v>43530</v>
       </c>
       <c r="B215" s="6">
@@ -7672,7 +7684,7 @@
       <c r="G215" t="s">
         <v>16</v>
       </c>
-      <c r="I215" s="11">
+      <c r="I215" s="9">
         <f t="shared" si="19"/>
         <v>9</v>
       </c>
@@ -7686,7 +7698,7 @@
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A216" s="9"/>
+      <c r="A216" s="14"/>
       <c r="B216" s="6">
         <v>11625</v>
       </c>
@@ -7704,21 +7716,21 @@
       <c r="G216" t="s">
         <v>16</v>
       </c>
-      <c r="I216" s="11">
+      <c r="I216" s="9">
         <f t="shared" si="19"/>
         <v>8</v>
       </c>
-      <c r="J216" s="11">
+      <c r="J216" s="9">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K216" s="11">
+      <c r="K216" s="9">
         <f t="shared" si="18"/>
         <v>8</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A217" s="9">
+      <c r="A217" s="14">
         <v>43531</v>
       </c>
       <c r="B217" s="6">
@@ -7738,15 +7750,15 @@
       <c r="G217" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I217" s="11">
+      <c r="I217" s="9">
         <f t="shared" si="19"/>
         <v>68</v>
       </c>
-      <c r="J217" s="11">
+      <c r="J217" s="9">
         <f t="shared" si="17"/>
         <v>68</v>
       </c>
-      <c r="K217" s="11">
+      <c r="K217" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -7769,21 +7781,21 @@
       <c r="G218" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I218" s="11">
+      <c r="I218" s="9">
         <f t="shared" si="19"/>
         <v>67</v>
       </c>
-      <c r="J218" s="11">
+      <c r="J218" s="9">
         <f t="shared" si="17"/>
         <v>67</v>
       </c>
-      <c r="K218" s="11">
+      <c r="K218" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A219" s="9">
+      <c r="A219" s="14">
         <v>43532</v>
       </c>
       <c r="B219" s="6">
@@ -7803,15 +7815,15 @@
       <c r="G219" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I219" s="11">
+      <c r="I219" s="9">
         <f t="shared" si="19"/>
         <v>68</v>
       </c>
-      <c r="J219" s="11">
+      <c r="J219" s="9">
         <f t="shared" si="17"/>
         <v>68</v>
       </c>
-      <c r="K219" s="11">
+      <c r="K219" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -7834,21 +7846,21 @@
       <c r="G220" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I220" s="11">
+      <c r="I220" s="9">
         <f t="shared" si="19"/>
         <v>67</v>
       </c>
-      <c r="J220" s="11">
+      <c r="J220" s="9">
         <f t="shared" si="17"/>
         <v>67</v>
       </c>
-      <c r="K220" s="11">
+      <c r="K220" s="9">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A221" s="9">
+      <c r="A221" s="14">
         <v>43535</v>
       </c>
       <c r="B221" s="6">
@@ -7868,7 +7880,7 @@
       <c r="G221" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I221" s="11">
+      <c r="I221" s="9">
         <f t="shared" si="19"/>
         <v>68</v>
       </c>
@@ -7899,7 +7911,7 @@
       <c r="G222" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I222" s="11">
+      <c r="I222" s="9">
         <f t="shared" si="19"/>
         <v>68</v>
       </c>
@@ -7913,7 +7925,7 @@
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A223" s="9">
+      <c r="A223" s="14">
         <v>43537</v>
       </c>
       <c r="B223" s="6">
@@ -7933,7 +7945,7 @@
       <c r="G223" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I223" s="11">
+      <c r="I223" s="9">
         <f t="shared" si="19"/>
         <v>67</v>
       </c>
@@ -7964,7 +7976,7 @@
       <c r="G224" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I224" s="11">
+      <c r="I224" s="9">
         <f t="shared" si="19"/>
         <v>65</v>
       </c>
@@ -7978,7 +7990,7 @@
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A225" s="9">
+      <c r="A225" s="14">
         <v>43538</v>
       </c>
       <c r="B225" s="6">
@@ -7998,15 +8010,15 @@
       <c r="G225" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I225" s="11">
+      <c r="I225" s="9">
         <f t="shared" si="19"/>
         <v>67</v>
       </c>
-      <c r="J225" s="11">
+      <c r="J225" s="9">
         <f t="shared" si="22"/>
         <v>67</v>
       </c>
-      <c r="K225" s="11">
+      <c r="K225" s="9">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -8029,21 +8041,21 @@
       <c r="G226" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I226" s="11">
+      <c r="I226" s="9">
         <f t="shared" si="19"/>
         <v>68</v>
       </c>
-      <c r="J226" s="11">
+      <c r="J226" s="9">
         <f t="shared" si="22"/>
         <v>68</v>
       </c>
-      <c r="K226" s="11">
+      <c r="K226" s="9">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A227" s="9">
+      <c r="A227" s="14">
         <v>43540</v>
       </c>
       <c r="B227" s="6">
@@ -8063,21 +8075,21 @@
       <c r="G227" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I227" s="11">
+      <c r="I227" s="9">
         <f t="shared" si="19"/>
         <v>4</v>
       </c>
-      <c r="J227" s="11">
+      <c r="J227" s="9">
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="K227" s="11">
+      <c r="K227" s="9">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A228" s="9"/>
+      <c r="A228" s="14"/>
       <c r="B228" s="6">
         <v>12310</v>
       </c>
@@ -8095,21 +8107,21 @@
       <c r="G228" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I228" s="11">
+      <c r="I228" s="9">
         <f t="shared" si="19"/>
         <v>4</v>
       </c>
-      <c r="J228" s="11">
+      <c r="J228" s="9">
         <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="K228" s="11">
+      <c r="K228" s="9">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A229" s="9">
+      <c r="A229" s="14">
         <v>43542</v>
       </c>
       <c r="B229" s="6">
@@ -8129,15 +8141,15 @@
       <c r="G229" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I229" s="11">
+      <c r="I229" s="9">
         <f t="shared" si="19"/>
         <v>68</v>
       </c>
-      <c r="J229" s="11">
+      <c r="J229" s="9">
         <f t="shared" si="22"/>
         <v>68</v>
       </c>
-      <c r="K229" s="11">
+      <c r="K229" s="9">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -8160,7 +8172,7 @@
       <c r="G230" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I230" s="11">
+      <c r="I230" s="9">
         <f t="shared" si="19"/>
         <v>67</v>
       </c>
@@ -8174,7 +8186,7 @@
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A231" s="9">
+      <c r="A231" s="14">
         <v>43544</v>
       </c>
       <c r="B231" s="6">
@@ -8194,7 +8206,7 @@
       <c r="G231" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I231" s="11">
+      <c r="I231" s="9">
         <f t="shared" si="19"/>
         <v>68</v>
       </c>
@@ -8225,7 +8237,7 @@
       <c r="G232" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I232" s="11">
+      <c r="I232" s="9">
         <f t="shared" si="19"/>
         <v>68</v>
       </c>
@@ -8239,7 +8251,7 @@
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A233" s="9">
+      <c r="A233" s="14">
         <v>43546</v>
       </c>
       <c r="B233" s="6">
@@ -8259,7 +8271,7 @@
       <c r="G233" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I233" s="11">
+      <c r="I233" s="9">
         <f t="shared" si="19"/>
         <v>68</v>
       </c>
@@ -8273,7 +8285,7 @@
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A234"/>
+      <c r="A234" s="16"/>
       <c r="B234" s="6">
         <v>12653</v>
       </c>
@@ -8291,21 +8303,21 @@
       <c r="G234" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I234" s="11">
+      <c r="I234" s="9">
         <f t="shared" si="19"/>
         <v>67</v>
       </c>
-      <c r="J234" s="11">
+      <c r="J234" s="9">
         <f t="shared" si="22"/>
         <v>67</v>
       </c>
-      <c r="K234" s="11">
+      <c r="K234" s="9">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A235" s="9">
+      <c r="A235" s="14">
         <v>43550</v>
       </c>
       <c r="B235" s="6">
@@ -8325,15 +8337,15 @@
       <c r="G235" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I235" s="11">
+      <c r="I235" s="9">
         <f t="shared" si="19"/>
         <v>68</v>
       </c>
-      <c r="J235" s="11">
+      <c r="J235" s="9">
         <f t="shared" si="22"/>
         <v>68</v>
       </c>
-      <c r="K235" s="11">
+      <c r="K235" s="9">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -8356,21 +8368,21 @@
       <c r="G236" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I236" s="11">
+      <c r="I236" s="9">
         <f t="shared" si="19"/>
         <v>67</v>
       </c>
-      <c r="J236" s="11">
+      <c r="J236" s="9">
         <f t="shared" si="22"/>
         <v>67</v>
       </c>
-      <c r="K236" s="11">
+      <c r="K236" s="9">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A237" s="9">
+      <c r="A237" s="14">
         <v>43552</v>
       </c>
       <c r="B237" s="6">
@@ -8390,15 +8402,15 @@
       <c r="G237" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I237" s="11">
+      <c r="I237" s="9">
         <f t="shared" si="19"/>
         <v>68</v>
       </c>
-      <c r="J237" s="11">
+      <c r="J237" s="9">
         <f t="shared" si="22"/>
         <v>68</v>
       </c>
-      <c r="K237" s="11">
+      <c r="K237" s="9">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -8421,21 +8433,21 @@
       <c r="G238" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I238" s="11">
+      <c r="I238" s="9">
         <f t="shared" si="19"/>
         <v>67</v>
       </c>
-      <c r="J238" s="11">
+      <c r="J238" s="9">
         <f t="shared" si="22"/>
         <v>67</v>
       </c>
-      <c r="K238" s="11">
+      <c r="K238" s="9">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A239" s="9">
+      <c r="A239" s="14">
         <v>43553</v>
       </c>
       <c r="B239" s="6">
@@ -8455,7 +8467,7 @@
       <c r="G239" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I239" s="11">
+      <c r="I239" s="9">
         <f t="shared" si="19"/>
         <v>68</v>
       </c>
@@ -8486,7 +8498,7 @@
       <c r="G240" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I240" s="11">
+      <c r="I240" s="9">
         <f t="shared" si="19"/>
         <v>68</v>
       </c>
@@ -8500,7 +8512,7 @@
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A241" s="9">
+      <c r="A241" s="14">
         <v>43557</v>
       </c>
       <c r="B241" s="6">
@@ -8520,7 +8532,7 @@
       <c r="G241" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I241" s="11">
+      <c r="I241" s="9">
         <f t="shared" si="19"/>
         <v>67</v>
       </c>
@@ -8551,7 +8563,7 @@
       <c r="G242" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I242" s="11">
+      <c r="I242" s="9">
         <f t="shared" si="19"/>
         <v>68</v>
       </c>
@@ -8565,7 +8577,7 @@
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A243" s="9">
+      <c r="A243" s="14">
         <v>43559</v>
       </c>
       <c r="B243" s="6">
@@ -8585,15 +8597,15 @@
       <c r="G243" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I243" s="11">
+      <c r="I243" s="9">
         <f t="shared" si="19"/>
         <v>67</v>
       </c>
-      <c r="J243" s="11">
+      <c r="J243" s="9">
         <f t="shared" si="22"/>
         <v>67</v>
       </c>
-      <c r="K243" s="11">
+      <c r="K243" s="9">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -8616,21 +8628,21 @@
       <c r="G244" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I244" s="11">
+      <c r="I244" s="9">
         <f t="shared" si="19"/>
         <v>68</v>
       </c>
-      <c r="J244" s="11">
+      <c r="J244" s="9">
         <f t="shared" si="22"/>
         <v>68</v>
       </c>
-      <c r="K244" s="11">
+      <c r="K244" s="9">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A245" s="9">
+      <c r="A245" s="14">
         <v>43561</v>
       </c>
       <c r="B245" s="6">
@@ -8646,18 +8658,18 @@
       <c r="E245" t="s">
         <v>18</v>
       </c>
-      <c r="G245" s="13" t="s">
+      <c r="G245" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I245" s="11">
+      <c r="I245" s="9">
         <f t="shared" si="19"/>
         <v>3</v>
       </c>
-      <c r="J245" s="11">
+      <c r="J245" s="9">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="K245" s="11">
+      <c r="K245" s="9">
         <f t="shared" si="23"/>
         <v>3</v>
       </c>
@@ -8677,24 +8689,24 @@
       <c r="E246" t="s">
         <v>7</v>
       </c>
-      <c r="G246" s="13" t="s">
+      <c r="G246" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I246" s="11">
+      <c r="I246" s="9">
         <f t="shared" si="19"/>
         <v>3</v>
       </c>
-      <c r="J246" s="11">
+      <c r="J246" s="9">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="K246" s="11">
+      <c r="K246" s="9">
         <f t="shared" si="23"/>
         <v>3</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A247" s="9">
+      <c r="A247" s="14">
         <v>43563</v>
       </c>
       <c r="B247" s="6">
@@ -8714,15 +8726,15 @@
       <c r="G247" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I247" s="11">
+      <c r="I247" s="9">
         <f t="shared" si="19"/>
         <v>68</v>
       </c>
-      <c r="J247" s="11">
+      <c r="J247" s="9">
         <f t="shared" si="22"/>
         <v>68</v>
       </c>
-      <c r="K247" s="11">
+      <c r="K247" s="9">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -8745,7 +8757,7 @@
       <c r="G248" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I248" s="11">
+      <c r="I248" s="9">
         <f t="shared" si="19"/>
         <v>67</v>
       </c>
@@ -8759,7 +8771,7 @@
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A249" s="9">
+      <c r="A249" s="14">
         <v>43565</v>
       </c>
       <c r="B249" s="6">
@@ -8779,7 +8791,7 @@
       <c r="G249" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I249" s="11">
+      <c r="I249" s="9">
         <f t="shared" si="19"/>
         <v>68</v>
       </c>
@@ -8810,7 +8822,7 @@
       <c r="G250" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I250" s="11">
+      <c r="I250" s="9">
         <f t="shared" si="19"/>
         <v>68</v>
       </c>
@@ -8824,7 +8836,7 @@
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A251" s="9">
+      <c r="A251" s="14">
         <v>43566</v>
       </c>
       <c r="B251" s="6">
@@ -8844,7 +8856,7 @@
       <c r="G251" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I251" s="11">
+      <c r="I251" s="9">
         <f t="shared" si="19"/>
         <v>68</v>
       </c>
@@ -8875,21 +8887,21 @@
       <c r="G252" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I252" s="11">
+      <c r="I252" s="9">
         <f t="shared" si="19"/>
         <v>67</v>
       </c>
-      <c r="J252" s="11">
+      <c r="J252" s="9">
         <f t="shared" si="22"/>
         <v>67</v>
       </c>
-      <c r="K252" s="11">
+      <c r="K252" s="9">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A253" s="9">
+      <c r="A253" s="14">
         <v>43570</v>
       </c>
       <c r="B253" s="6">
@@ -8909,15 +8921,15 @@
       <c r="G253" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I253" s="11">
+      <c r="I253" s="9">
         <f t="shared" si="19"/>
         <v>68</v>
       </c>
-      <c r="J253" s="11">
+      <c r="J253" s="9">
         <f t="shared" si="22"/>
         <v>68</v>
       </c>
-      <c r="K253" s="11">
+      <c r="K253" s="9">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -8940,21 +8952,21 @@
       <c r="G254" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I254" s="11">
+      <c r="I254" s="9">
         <f t="shared" si="19"/>
         <v>68</v>
       </c>
-      <c r="J254" s="11">
+      <c r="J254" s="9">
         <f t="shared" si="22"/>
         <v>68</v>
       </c>
-      <c r="K254" s="11">
+      <c r="K254" s="9">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A255" s="9">
+      <c r="A255" s="14">
         <v>43571</v>
       </c>
       <c r="B255" s="6">
@@ -8974,15 +8986,15 @@
       <c r="G255" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I255" s="11">
+      <c r="I255" s="9">
         <f t="shared" si="19"/>
         <v>67</v>
       </c>
-      <c r="J255" s="11">
+      <c r="J255" s="9">
         <f t="shared" si="22"/>
         <v>67</v>
       </c>
-      <c r="K255" s="11">
+      <c r="K255" s="9">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -9005,21 +9017,21 @@
       <c r="G256" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I256" s="11">
+      <c r="I256" s="9">
         <f t="shared" ref="I256:I319" si="24">(C256-B256)</f>
         <v>68</v>
       </c>
-      <c r="J256" s="11">
+      <c r="J256" s="9">
         <f t="shared" si="22"/>
         <v>68</v>
       </c>
-      <c r="K256" s="11">
+      <c r="K256" s="9">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A257" s="9">
+      <c r="A257" s="14">
         <v>43574</v>
       </c>
       <c r="B257" s="6">
@@ -9039,7 +9051,7 @@
       <c r="G257" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I257" s="11">
+      <c r="I257" s="9">
         <f t="shared" si="24"/>
         <v>68</v>
       </c>
@@ -9070,7 +9082,7 @@
       <c r="G258" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I258" s="11">
+      <c r="I258" s="9">
         <f t="shared" si="24"/>
         <v>67</v>
       </c>
@@ -9084,7 +9096,7 @@
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A259" s="9">
+      <c r="A259" s="14">
         <v>43578</v>
       </c>
       <c r="B259" s="6">
@@ -9104,7 +9116,7 @@
       <c r="G259" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I259" s="11">
+      <c r="I259" s="9">
         <f t="shared" si="24"/>
         <v>67</v>
       </c>
@@ -9135,7 +9147,7 @@
       <c r="G260" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I260" s="11">
+      <c r="I260" s="9">
         <f t="shared" si="24"/>
         <v>65</v>
       </c>
@@ -9149,7 +9161,7 @@
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A261" s="9">
+      <c r="A261" s="14">
         <v>43580</v>
       </c>
       <c r="B261" s="6">
@@ -9169,15 +9181,15 @@
       <c r="G261" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I261" s="11">
+      <c r="I261" s="9">
         <f t="shared" si="24"/>
         <v>68</v>
       </c>
-      <c r="J261" s="11">
+      <c r="J261" s="9">
         <f t="shared" si="22"/>
         <v>68</v>
       </c>
-      <c r="K261" s="11">
+      <c r="K261" s="9">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -9200,21 +9212,21 @@
       <c r="G262" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I262" s="11">
+      <c r="I262" s="9">
         <f t="shared" si="24"/>
         <v>67</v>
       </c>
-      <c r="J262" s="11">
+      <c r="J262" s="9">
         <f t="shared" si="22"/>
         <v>67</v>
       </c>
-      <c r="K262" s="11">
+      <c r="K262" s="9">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A263" s="9">
+      <c r="A263" s="14">
         <v>43584</v>
       </c>
       <c r="B263" s="6">
@@ -9234,15 +9246,15 @@
       <c r="G263" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I263" s="11">
+      <c r="I263" s="9">
         <f t="shared" si="24"/>
         <v>68</v>
       </c>
-      <c r="J263" s="11">
+      <c r="J263" s="9">
         <f t="shared" si="22"/>
         <v>68</v>
       </c>
-      <c r="K263" s="11">
+      <c r="K263" s="9">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -9265,21 +9277,21 @@
       <c r="G264" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I264" s="11">
+      <c r="I264" s="9">
         <f t="shared" si="24"/>
         <v>68</v>
       </c>
-      <c r="J264" s="11">
+      <c r="J264" s="9">
         <f t="shared" si="22"/>
         <v>68</v>
       </c>
-      <c r="K264" s="11">
+      <c r="K264" s="9">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A265" s="9">
+      <c r="A265" s="14">
         <v>43586</v>
       </c>
       <c r="B265" s="6">
@@ -9299,21 +9311,21 @@
       <c r="G265" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I265" s="11">
+      <c r="I265" s="9">
         <f t="shared" si="24"/>
         <v>79</v>
       </c>
-      <c r="J265" s="11">
+      <c r="J265" s="9">
         <f t="shared" si="22"/>
         <v>79</v>
       </c>
-      <c r="K265" s="11">
+      <c r="K265" s="9">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A266" s="9"/>
+      <c r="A266" s="14"/>
       <c r="B266" s="6">
         <v>14696</v>
       </c>
@@ -9333,7 +9345,7 @@
       <c r="G266" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I266" s="11">
+      <c r="I266" s="9">
         <f t="shared" si="24"/>
         <v>87</v>
       </c>
@@ -9347,7 +9359,7 @@
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A267" s="9">
+      <c r="A267" s="14">
         <v>43587</v>
       </c>
       <c r="B267" s="6">
@@ -9367,7 +9379,7 @@
       <c r="G267" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I267" s="11">
+      <c r="I267" s="9">
         <f t="shared" si="24"/>
         <v>67</v>
       </c>
@@ -9398,7 +9410,7 @@
       <c r="G268" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I268" s="11">
+      <c r="I268" s="9">
         <f t="shared" si="24"/>
         <v>68</v>
       </c>
@@ -9412,7 +9424,7 @@
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A269" s="9">
+      <c r="A269" s="14">
         <v>43591</v>
       </c>
       <c r="B269" s="6">
@@ -9432,7 +9444,7 @@
       <c r="G269" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I269" s="11">
+      <c r="I269" s="9">
         <f t="shared" si="24"/>
         <v>68</v>
       </c>
@@ -9463,21 +9475,21 @@
       <c r="G270" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I270" s="11">
+      <c r="I270" s="9">
         <f t="shared" si="24"/>
         <v>67</v>
       </c>
-      <c r="J270" s="11">
+      <c r="J270" s="9">
         <f t="shared" si="22"/>
         <v>67</v>
       </c>
-      <c r="K270" s="11">
+      <c r="K270" s="9">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A271" s="9">
+      <c r="A271" s="14">
         <v>43592</v>
       </c>
       <c r="B271" s="6">
@@ -9497,15 +9509,15 @@
       <c r="G271" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I271" s="11">
+      <c r="I271" s="9">
         <f t="shared" si="24"/>
         <v>68</v>
       </c>
-      <c r="J271" s="11">
+      <c r="J271" s="9">
         <f t="shared" si="22"/>
         <v>68</v>
       </c>
-      <c r="K271" s="11">
+      <c r="K271" s="9">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -9528,21 +9540,21 @@
       <c r="G272" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I272" s="11">
+      <c r="I272" s="9">
         <f t="shared" si="24"/>
         <v>67</v>
       </c>
-      <c r="J272" s="11">
+      <c r="J272" s="9">
         <f t="shared" si="22"/>
         <v>67</v>
       </c>
-      <c r="K272" s="11">
+      <c r="K272" s="9">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A273" s="9">
+      <c r="A273" s="14">
         <v>43595</v>
       </c>
       <c r="B273" s="6">
@@ -9562,15 +9574,15 @@
       <c r="G273" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I273" s="11">
+      <c r="I273" s="9">
         <f t="shared" si="24"/>
         <v>68</v>
       </c>
-      <c r="J273" s="11">
+      <c r="J273" s="9">
         <f t="shared" si="22"/>
         <v>68</v>
       </c>
-      <c r="K273" s="11">
+      <c r="K273" s="9">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -9593,21 +9605,21 @@
       <c r="G274" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I274" s="11">
+      <c r="I274" s="9">
         <f t="shared" si="24"/>
         <v>67</v>
       </c>
-      <c r="J274" s="11">
+      <c r="J274" s="9">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="K274" s="11">
+      <c r="K274" s="9">
         <f t="shared" si="23"/>
         <v>67</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A275" s="9">
+      <c r="A275" s="14">
         <v>43597</v>
       </c>
       <c r="B275" s="6">
@@ -9627,7 +9639,7 @@
       <c r="G275" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I275" s="11">
+      <c r="I275" s="9">
         <f t="shared" si="24"/>
         <v>9</v>
       </c>
@@ -9658,7 +9670,7 @@
       <c r="G276" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I276" s="11">
+      <c r="I276" s="9">
         <f t="shared" si="24"/>
         <v>3</v>
       </c>
@@ -9689,7 +9701,7 @@
       <c r="G277" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I277" s="11">
+      <c r="I277" s="9">
         <f t="shared" si="24"/>
         <v>8</v>
       </c>
@@ -9703,7 +9715,7 @@
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A278" s="9">
+      <c r="A278" s="14">
         <v>43598</v>
       </c>
       <c r="B278" s="6">
@@ -9723,7 +9735,7 @@
       <c r="G278" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I278" s="11">
+      <c r="I278" s="9">
         <f t="shared" si="24"/>
         <v>67</v>
       </c>
@@ -9754,21 +9766,21 @@
       <c r="G279" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I279" s="11">
+      <c r="I279" s="9">
         <f t="shared" si="24"/>
         <v>68</v>
       </c>
-      <c r="J279" s="11">
+      <c r="J279" s="9">
         <f t="shared" si="22"/>
         <v>68</v>
       </c>
-      <c r="K279" s="11">
+      <c r="K279" s="9">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A280" s="9">
+      <c r="A280" s="14">
         <v>43600</v>
       </c>
       <c r="B280" s="6">
@@ -9788,15 +9800,15 @@
       <c r="G280" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I280" s="11">
+      <c r="I280" s="9">
         <f t="shared" si="24"/>
         <v>68</v>
       </c>
-      <c r="J280" s="11">
+      <c r="J280" s="9">
         <f t="shared" si="22"/>
         <v>68</v>
       </c>
-      <c r="K280" s="11">
+      <c r="K280" s="9">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -9819,21 +9831,21 @@
       <c r="G281" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I281" s="11">
+      <c r="I281" s="9">
         <f t="shared" si="24"/>
         <v>64</v>
       </c>
-      <c r="J281" s="11">
+      <c r="J281" s="9">
         <f t="shared" si="22"/>
         <v>64</v>
       </c>
-      <c r="K281" s="11">
+      <c r="K281" s="9">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A282" s="9">
+      <c r="A282" s="14">
         <v>43602</v>
       </c>
       <c r="B282" s="6">
@@ -9853,15 +9865,15 @@
       <c r="G282" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I282" s="11">
+      <c r="I282" s="9">
         <f t="shared" si="24"/>
         <v>68</v>
       </c>
-      <c r="J282" s="11">
+      <c r="J282" s="9">
         <f t="shared" si="22"/>
         <v>68</v>
       </c>
-      <c r="K282" s="11">
+      <c r="K282" s="9">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -9872,7 +9884,7 @@
       </c>
       <c r="C283" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>16015</v>
       </c>
       <c r="D283" t="str">
         <f t="shared" si="26"/>
@@ -9884,40 +9896,47 @@
       <c r="G283" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I283" s="11">
+      <c r="I283" s="9">
         <f t="shared" si="24"/>
-        <v>-15678</v>
-      </c>
-      <c r="J283" s="11">
+        <v>337</v>
+      </c>
+      <c r="J283" s="9">
         <f t="shared" si="22"/>
-        <v>-15678</v>
-      </c>
-      <c r="K283" s="11">
+        <v>337</v>
+      </c>
+      <c r="K283" s="9">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B284" s="6"/>
+      <c r="A284" s="14">
+        <v>43605</v>
+      </c>
+      <c r="B284" s="6">
+        <v>16015</v>
+      </c>
       <c r="C284" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>16083</v>
       </c>
       <c r="D284" t="str">
         <f t="shared" si="26"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E284"/>
+      <c r="E284" t="s">
+        <v>6</v>
+      </c>
       <c r="G284" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I284" s="11">
+      <c r="I284" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J284" s="6">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K284" s="6">
         <f t="shared" si="23"/>
@@ -9925,26 +9944,30 @@
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B285" s="6"/>
+      <c r="B285" s="6">
+        <v>16083</v>
+      </c>
       <c r="C285" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D285">
+        <v>16151</v>
+      </c>
+      <c r="D285" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E285"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E285" t="s">
+        <v>7</v>
+      </c>
       <c r="G285" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I285" s="11">
+      <c r="I285" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J285" s="6">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K285" s="6">
         <f t="shared" si="23"/>
@@ -9952,26 +9975,33 @@
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B286" s="6"/>
+      <c r="A286" s="14">
+        <v>43612</v>
+      </c>
+      <c r="B286" s="6">
+        <v>16151</v>
+      </c>
       <c r="C286" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D286">
+        <v>16218</v>
+      </c>
+      <c r="D286" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E286"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E286" t="s">
+        <v>6</v>
+      </c>
       <c r="G286" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I286" s="11">
+      <c r="I286" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J286" s="6">
         <f t="shared" ref="J286:J349" si="27">IF(AND(G286 = "Zakelijk", H286 = ""), I286, IF(AND(G286 = "Zakelijk", NOT(H286 = "")), I286 - H286, 0))</f>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K286" s="6">
         <f t="shared" ref="K286:K349" si="28">IF(AND(G286 = "Zakelijk", NOT(H286 = "")), H286, IF(G286 = "Privé", I286, 0))</f>
@@ -9979,26 +10009,30 @@
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B287" s="6"/>
+      <c r="B287" s="6">
+        <v>16218</v>
+      </c>
       <c r="C287" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D287">
+        <v>16286</v>
+      </c>
+      <c r="D287" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E287"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E287" t="s">
+        <v>7</v>
+      </c>
       <c r="G287" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I287" s="11">
+      <c r="I287" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J287" s="6">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K287" s="6">
         <f t="shared" si="28"/>
@@ -10006,164 +10040,197 @@
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B288" s="6"/>
+      <c r="A288" s="14">
+        <v>43614</v>
+      </c>
+      <c r="B288" s="6">
+        <v>16286</v>
+      </c>
       <c r="C288" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D288">
+        <v>16353</v>
+      </c>
+      <c r="D288" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E288"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E288" t="s">
+        <v>6</v>
+      </c>
       <c r="G288" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I288" s="11">
+      <c r="I288" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J288" s="11">
+        <v>67</v>
+      </c>
+      <c r="J288" s="9">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="K288" s="11">
+        <v>67</v>
+      </c>
+      <c r="K288" s="9">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B289" s="6"/>
+      <c r="B289" s="6">
+        <v>16353</v>
+      </c>
       <c r="C289" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D289">
+        <v>16421</v>
+      </c>
+      <c r="D289" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E289"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E289" t="s">
+        <v>7</v>
+      </c>
       <c r="G289" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I289" s="11">
+      <c r="I289" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J289" s="11">
+        <v>68</v>
+      </c>
+      <c r="J289" s="9">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="K289" s="11">
+        <v>68</v>
+      </c>
+      <c r="K289" s="9">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B290" s="6"/>
+      <c r="A290" s="14">
+        <v>43619</v>
+      </c>
+      <c r="B290" s="6">
+        <v>16421</v>
+      </c>
       <c r="C290" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D290">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E290"/>
+        <v>16488</v>
+      </c>
+      <c r="D290" t="s">
+        <v>7</v>
+      </c>
+      <c r="E290" t="s">
+        <v>6</v>
+      </c>
       <c r="G290" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I290" s="11">
+      <c r="I290" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J290" s="11">
+        <v>67</v>
+      </c>
+      <c r="J290" s="9">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="K290" s="11">
+        <v>67</v>
+      </c>
+      <c r="K290" s="9">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="6"/>
-      <c r="B291" s="6"/>
+      <c r="B291" s="6">
+        <v>16488</v>
+      </c>
       <c r="C291" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D291">
+        <v>16556</v>
+      </c>
+      <c r="D291" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E291"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E291" t="s">
+        <v>7</v>
+      </c>
       <c r="G291" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I291" s="11">
+      <c r="I291" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J291" s="11">
+        <v>68</v>
+      </c>
+      <c r="J291" s="9">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="K291" s="11">
+        <v>68</v>
+      </c>
+      <c r="K291" s="9">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A292" s="6"/>
-      <c r="B292" s="6"/>
+      <c r="A292" s="14">
+        <v>43620</v>
+      </c>
+      <c r="B292" s="6">
+        <v>16556</v>
+      </c>
       <c r="C292" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D292">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E292"/>
+        <v>16624</v>
+      </c>
+      <c r="D292" t="s">
+        <v>7</v>
+      </c>
+      <c r="E292" t="s">
+        <v>6</v>
+      </c>
       <c r="G292" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I292" s="11">
+      <c r="I292" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J292" s="11">
+        <v>68</v>
+      </c>
+      <c r="J292" s="9">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="K292" s="11">
+        <v>68</v>
+      </c>
+      <c r="K292" s="9">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="6"/>
-      <c r="B293" s="6"/>
+      <c r="B293" s="6">
+        <v>16624</v>
+      </c>
       <c r="C293" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D293">
+        <v>16625</v>
+      </c>
+      <c r="D293" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E293"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E293" t="s">
+        <v>14</v>
+      </c>
+      <c r="F293" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="G293" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I293" s="11">
+      <c r="I293" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J293" s="6">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K293" s="6">
         <f t="shared" si="28"/>
@@ -10172,54 +10239,67 @@
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="6"/>
-      <c r="B294" s="6"/>
+      <c r="B294" s="6">
+        <v>16625</v>
+      </c>
       <c r="C294" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D294">
+        <v>16692</v>
+      </c>
+      <c r="D294" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E294"/>
+        <v>Waterveste 4, Houten</v>
+      </c>
+      <c r="E294" t="s">
+        <v>7</v>
+      </c>
       <c r="G294" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I294" s="11">
+      <c r="I294" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J294" s="6">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K294" s="6">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A295" s="6"/>
-      <c r="B295" s="6"/>
+    <row r="295" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A295" s="10">
+        <v>43622</v>
+      </c>
+      <c r="B295" s="6">
+        <v>16692</v>
+      </c>
       <c r="C295" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D295">
+        <v>16733</v>
+      </c>
+      <c r="D295" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E295"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E295" t="s">
+        <v>7</v>
+      </c>
+      <c r="F295" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="G295" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I295" s="11">
+      <c r="I295" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="J295" s="6">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="K295" s="6">
         <f t="shared" si="28"/>
@@ -10227,23 +10307,29 @@
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A296" s="6"/>
-      <c r="B296" s="6"/>
+      <c r="A296" s="10">
+        <v>43623</v>
+      </c>
+      <c r="B296" s="6">
+        <v>16733</v>
+      </c>
       <c r="C296" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D296">
+        <v>16739</v>
+      </c>
+      <c r="D296" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E296"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E296" t="s">
+        <v>42</v>
+      </c>
       <c r="G296" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I296" s="11">
+        <v>16</v>
+      </c>
+      <c r="I296" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J296" s="6">
         <f t="shared" si="27"/>
@@ -10251,96 +10337,109 @@
       </c>
       <c r="K296" s="6">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="6"/>
-      <c r="B297" s="6"/>
+      <c r="B297" s="6">
+        <v>16739</v>
+      </c>
       <c r="C297" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D297">
+        <v>16746</v>
+      </c>
+      <c r="D297" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E297"/>
+        <v>Wezelstraat 3-A, 1541 LZ, Koog aan de Zaan</v>
+      </c>
+      <c r="E297" t="s">
+        <v>7</v>
+      </c>
       <c r="G297" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I297" s="11">
+        <v>16</v>
+      </c>
+      <c r="I297" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J297" s="11">
+        <v>7</v>
+      </c>
+      <c r="J297" s="9">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="K297" s="11">
+      <c r="K297" s="9">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A298" s="6"/>
-      <c r="B298" s="6"/>
+      <c r="A298" s="10">
+        <v>43627</v>
+      </c>
+      <c r="B298" s="6">
+        <v>16746</v>
+      </c>
       <c r="C298" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D298">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E298"/>
+        <v>16813</v>
+      </c>
+      <c r="D298" t="s">
+        <v>7</v>
+      </c>
+      <c r="E298" t="s">
+        <v>6</v>
+      </c>
       <c r="G298" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I298" s="11">
+      <c r="I298" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J298" s="11">
+        <v>67</v>
+      </c>
+      <c r="J298" s="9">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="K298" s="11">
+        <v>67</v>
+      </c>
+      <c r="K298" s="9">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="6"/>
-      <c r="B299" s="6"/>
+      <c r="B299" s="6">
+        <v>16813</v>
+      </c>
       <c r="C299" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D299">
+        <v>16878</v>
+      </c>
+      <c r="D299" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>Duwboot 20, Houten</v>
       </c>
       <c r="E299"/>
       <c r="G299" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I299" s="11">
+      <c r="I299" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J299" s="11">
+        <v>65</v>
+      </c>
+      <c r="J299" s="9">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="K299" s="11">
+        <v>65</v>
+      </c>
+      <c r="K299" s="9">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="6"/>
-      <c r="B300" s="6"/>
+      <c r="B300" s="6">
+        <v>16878</v>
+      </c>
       <c r="C300" s="6">
         <f t="shared" si="25"/>
         <v>0</v>
@@ -10353,15 +10452,15 @@
       <c r="G300" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I300" s="11">
+      <c r="I300" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J300" s="11">
+        <v>-16878</v>
+      </c>
+      <c r="J300" s="9">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="K300" s="11">
+        <v>-16878</v>
+      </c>
+      <c r="K300" s="9">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -10381,15 +10480,15 @@
       <c r="G301" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I301" s="11">
+      <c r="I301" s="9">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="J301" s="11">
+      <c r="J301" s="9">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="K301" s="11">
+      <c r="K301" s="9">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -10409,7 +10508,7 @@
       <c r="G302" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I302" s="11">
+      <c r="I302" s="9">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
@@ -10437,7 +10536,7 @@
       <c r="G303" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I303" s="11">
+      <c r="I303" s="9">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
@@ -10465,7 +10564,7 @@
       <c r="G304" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I304" s="11">
+      <c r="I304" s="9">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
@@ -10493,7 +10592,7 @@
       <c r="G305" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I305" s="11">
+      <c r="I305" s="9">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
@@ -10521,15 +10620,15 @@
       <c r="G306" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I306" s="11">
+      <c r="I306" s="9">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="J306" s="11">
+      <c r="J306" s="9">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="K306" s="11">
+      <c r="K306" s="9">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -10549,15 +10648,15 @@
       <c r="G307" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I307" s="11">
+      <c r="I307" s="9">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="J307" s="11">
+      <c r="J307" s="9">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="K307" s="11">
+      <c r="K307" s="9">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -10577,15 +10676,15 @@
       <c r="G308" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I308" s="11">
+      <c r="I308" s="9">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="J308" s="11">
+      <c r="J308" s="9">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="K308" s="11">
+      <c r="K308" s="9">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -10605,15 +10704,15 @@
       <c r="G309" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I309" s="11">
+      <c r="I309" s="9">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="J309" s="11">
+      <c r="J309" s="9">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="K309" s="11">
+      <c r="K309" s="9">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -10633,15 +10732,15 @@
       <c r="G310" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I310" s="11">
+      <c r="I310" s="9">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="J310" s="11">
+      <c r="J310" s="9">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="K310" s="11">
+      <c r="K310" s="9">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -10661,7 +10760,7 @@
       <c r="G311" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I311" s="11">
+      <c r="I311" s="9">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
@@ -10689,7 +10788,7 @@
       <c r="G312" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I312" s="11">
+      <c r="I312" s="9">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
@@ -10717,7 +10816,7 @@
       <c r="G313" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I313" s="11">
+      <c r="I313" s="9">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
@@ -10745,7 +10844,7 @@
       <c r="G314" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I314" s="11">
+      <c r="I314" s="9">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
@@ -10773,15 +10872,15 @@
       <c r="G315" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I315" s="11">
+      <c r="I315" s="9">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="J315" s="11">
+      <c r="J315" s="9">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="K315" s="11">
+      <c r="K315" s="9">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -10801,15 +10900,15 @@
       <c r="G316" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I316" s="11">
+      <c r="I316" s="9">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="J316" s="11">
+      <c r="J316" s="9">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="K316" s="11">
+      <c r="K316" s="9">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -10829,15 +10928,15 @@
       <c r="G317" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I317" s="11">
+      <c r="I317" s="9">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="J317" s="11">
+      <c r="J317" s="9">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="K317" s="11">
+      <c r="K317" s="9">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -10857,15 +10956,15 @@
       <c r="G318" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I318" s="11">
+      <c r="I318" s="9">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="J318" s="11">
+      <c r="J318" s="9">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="K318" s="11">
+      <c r="K318" s="9">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -10885,21 +10984,21 @@
       <c r="G319" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I319" s="11">
+      <c r="I319" s="9">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="J319" s="11">
+      <c r="J319" s="9">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="K319" s="11">
+      <c r="K319" s="9">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A320" s="12"/>
+      <c r="A320" s="10"/>
       <c r="B320" s="6"/>
       <c r="C320" s="6">
         <f t="shared" si="25"/>
@@ -10913,7 +11012,7 @@
       <c r="G320" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I320" s="11">
+      <c r="I320" s="9">
         <f t="shared" ref="I320:I383" si="29">(C320-B320)</f>
         <v>0</v>
       </c>
@@ -10927,7 +11026,7 @@
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A321" s="12"/>
+      <c r="A321" s="10"/>
       <c r="B321" s="6"/>
       <c r="C321" s="6">
         <f t="shared" si="25"/>
@@ -10941,7 +11040,7 @@
       <c r="G321" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I321" s="11">
+      <c r="I321" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -10955,7 +11054,7 @@
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A322" s="12"/>
+      <c r="A322" s="10"/>
       <c r="B322" s="6"/>
       <c r="C322" s="6">
         <f t="shared" ref="C322:C338" si="30">B323</f>
@@ -10969,7 +11068,7 @@
       <c r="G322" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I322" s="11">
+      <c r="I322" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -10983,7 +11082,7 @@
       </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A323" s="12"/>
+      <c r="A323" s="10"/>
       <c r="B323" s="6"/>
       <c r="C323" s="6">
         <f t="shared" si="30"/>
@@ -10997,7 +11096,7 @@
       <c r="G323" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I323" s="11">
+      <c r="I323" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -11011,7 +11110,7 @@
       </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A324" s="12"/>
+      <c r="A324" s="10"/>
       <c r="B324" s="6"/>
       <c r="C324" s="6">
         <f t="shared" si="30"/>
@@ -11025,21 +11124,21 @@
       <c r="G324" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I324" s="11">
+      <c r="I324" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J324" s="11">
+      <c r="J324" s="9">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="K324" s="11">
+      <c r="K324" s="9">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A325" s="12"/>
+      <c r="A325" s="10"/>
       <c r="B325" s="6"/>
       <c r="C325" s="6">
         <f t="shared" si="30"/>
@@ -11053,21 +11152,21 @@
       <c r="G325" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I325" s="11">
+      <c r="I325" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J325" s="11">
+      <c r="J325" s="9">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="K325" s="11">
+      <c r="K325" s="9">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A326" s="12"/>
+      <c r="A326" s="10"/>
       <c r="B326" s="6"/>
       <c r="C326" s="6">
         <f t="shared" si="30"/>
@@ -11081,21 +11180,21 @@
       <c r="G326" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I326" s="11">
+      <c r="I326" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J326" s="11">
+      <c r="J326" s="9">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="K326" s="11">
+      <c r="K326" s="9">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A327" s="12"/>
+      <c r="A327" s="10"/>
       <c r="B327" s="6"/>
       <c r="C327" s="6">
         <f t="shared" si="30"/>
@@ -11109,21 +11208,21 @@
       <c r="G327" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I327" s="11">
+      <c r="I327" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J327" s="11">
+      <c r="J327" s="9">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="K327" s="11">
+      <c r="K327" s="9">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A328" s="12"/>
+      <c r="A328" s="10"/>
       <c r="B328" s="6"/>
       <c r="C328" s="6">
         <f t="shared" si="30"/>
@@ -11137,21 +11236,21 @@
       <c r="G328" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I328" s="11">
+      <c r="I328" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J328" s="11">
+      <c r="J328" s="9">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="K328" s="11">
+      <c r="K328" s="9">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A329" s="12"/>
+      <c r="A329" s="10"/>
       <c r="B329" s="6"/>
       <c r="C329" s="6">
         <f t="shared" si="30"/>
@@ -11165,7 +11264,7 @@
       <c r="G329" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I329" s="11">
+      <c r="I329" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -11179,7 +11278,7 @@
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A330" s="12"/>
+      <c r="A330" s="10"/>
       <c r="B330" s="6"/>
       <c r="C330" s="6">
         <f t="shared" si="30"/>
@@ -11193,7 +11292,7 @@
       <c r="G330" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I330" s="11">
+      <c r="I330" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -11207,7 +11306,7 @@
       </c>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A331" s="12"/>
+      <c r="A331" s="10"/>
       <c r="B331" s="6"/>
       <c r="C331" s="6">
         <f t="shared" si="30"/>
@@ -11221,7 +11320,7 @@
       <c r="G331" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I331" s="11">
+      <c r="I331" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -11235,7 +11334,7 @@
       </c>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A332" s="12"/>
+      <c r="A332" s="10"/>
       <c r="B332" s="6"/>
       <c r="C332" s="6">
         <f t="shared" si="30"/>
@@ -11249,7 +11348,7 @@
       <c r="G332" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I332" s="11">
+      <c r="I332" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -11263,7 +11362,7 @@
       </c>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A333" s="12"/>
+      <c r="A333" s="10"/>
       <c r="B333" s="6"/>
       <c r="C333" s="6">
         <f t="shared" si="30"/>
@@ -11277,21 +11376,21 @@
       <c r="G333" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I333" s="11">
+      <c r="I333" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J333" s="11">
+      <c r="J333" s="9">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="K333" s="11">
+      <c r="K333" s="9">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A334" s="12"/>
+      <c r="A334" s="10"/>
       <c r="B334" s="6"/>
       <c r="C334" s="6">
         <f t="shared" si="30"/>
@@ -11305,21 +11404,21 @@
       <c r="G334" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I334" s="11">
+      <c r="I334" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J334" s="11">
+      <c r="J334" s="9">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="K334" s="11">
+      <c r="K334" s="9">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A335" s="12"/>
+      <c r="A335" s="10"/>
       <c r="B335" s="6"/>
       <c r="C335" s="6">
         <f t="shared" si="30"/>
@@ -11333,21 +11432,21 @@
       <c r="G335" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I335" s="11">
+      <c r="I335" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J335" s="11">
+      <c r="J335" s="9">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="K335" s="11">
+      <c r="K335" s="9">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A336" s="12"/>
+      <c r="A336" s="10"/>
       <c r="B336" s="6"/>
       <c r="C336" s="6">
         <f t="shared" si="30"/>
@@ -11362,15 +11461,15 @@
       <c r="G336" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I336" s="11">
+      <c r="I336" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J336" s="11">
+      <c r="J336" s="9">
         <f>IF(AND(G336 = "Zakelijk", F336 = ""), I336, IF(AND(G336 = "Zakelijk", NOT(F336 = "")), I336 - F336, 0))</f>
         <v>0</v>
       </c>
-      <c r="K336" s="11">
+      <c r="K336" s="9">
         <f>IF(AND(G336 = "Zakelijk", NOT(F336 = "")), F336, IF(G336 = "Privé", I336, 0))</f>
         <v>0</v>
       </c>
@@ -11390,15 +11489,15 @@
       <c r="G337" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I337" s="11">
+      <c r="I337" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J337" s="11">
+      <c r="J337" s="9">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="K337" s="11">
+      <c r="K337" s="9">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -11418,7 +11517,7 @@
       <c r="G338" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I338" s="11">
+      <c r="I338" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -11446,7 +11545,7 @@
       <c r="G339" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I339" s="11">
+      <c r="I339" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -11474,7 +11573,7 @@
       <c r="G340" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I340" s="11">
+      <c r="I340" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -11502,7 +11601,7 @@
       <c r="G341" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I341" s="11">
+      <c r="I341" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -11530,15 +11629,15 @@
       <c r="G342" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I342" s="11">
+      <c r="I342" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J342" s="11">
+      <c r="J342" s="9">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="K342" s="11">
+      <c r="K342" s="9">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -11558,15 +11657,15 @@
       <c r="G343" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I343" s="11">
+      <c r="I343" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J343" s="11">
+      <c r="J343" s="9">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="K343" s="11">
+      <c r="K343" s="9">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -11586,15 +11685,15 @@
       <c r="G344" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I344" s="11">
+      <c r="I344" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J344" s="11">
+      <c r="J344" s="9">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="K344" s="11">
+      <c r="K344" s="9">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -11614,15 +11713,15 @@
       <c r="G345" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I345" s="11">
+      <c r="I345" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J345" s="11">
+      <c r="J345" s="9">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="K345" s="11">
+      <c r="K345" s="9">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -11642,15 +11741,15 @@
       <c r="G346" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I346" s="11">
+      <c r="I346" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J346" s="11">
+      <c r="J346" s="9">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="K346" s="11">
+      <c r="K346" s="9">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -11670,7 +11769,7 @@
       <c r="G347" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I347" s="11">
+      <c r="I347" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -11698,7 +11797,7 @@
       <c r="G348" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I348" s="11">
+      <c r="I348" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -11726,7 +11825,7 @@
       <c r="G349" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I349" s="11">
+      <c r="I349" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -11754,7 +11853,7 @@
       <c r="G350" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I350" s="11">
+      <c r="I350" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -11782,15 +11881,15 @@
       <c r="G351" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I351" s="11">
+      <c r="I351" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J351" s="11">
+      <c r="J351" s="9">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K351" s="11">
+      <c r="K351" s="9">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
@@ -11810,15 +11909,15 @@
       <c r="G352" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I352" s="11">
+      <c r="I352" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J352" s="11">
+      <c r="J352" s="9">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K352" s="11">
+      <c r="K352" s="9">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
@@ -11838,15 +11937,15 @@
       <c r="G353" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I353" s="11">
+      <c r="I353" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J353" s="11">
+      <c r="J353" s="9">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K353" s="11">
+      <c r="K353" s="9">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
@@ -11866,15 +11965,15 @@
       <c r="G354" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I354" s="11">
+      <c r="I354" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J354" s="11">
+      <c r="J354" s="9">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K354" s="11">
+      <c r="K354" s="9">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
@@ -11894,15 +11993,15 @@
       <c r="G355" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I355" s="11">
+      <c r="I355" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J355" s="11">
+      <c r="J355" s="9">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K355" s="11">
+      <c r="K355" s="9">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
@@ -11922,7 +12021,7 @@
       <c r="G356" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I356" s="11">
+      <c r="I356" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -11950,7 +12049,7 @@
       <c r="G357" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I357" s="11">
+      <c r="I357" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -11978,7 +12077,7 @@
       <c r="G358" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I358" s="11">
+      <c r="I358" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -12006,7 +12105,7 @@
       <c r="G359" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I359" s="11">
+      <c r="I359" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -12034,15 +12133,15 @@
       <c r="G360" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I360" s="11">
+      <c r="I360" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J360" s="11">
+      <c r="J360" s="9">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K360" s="11">
+      <c r="K360" s="9">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
@@ -12062,15 +12161,15 @@
       <c r="G361" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I361" s="11">
+      <c r="I361" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J361" s="11">
+      <c r="J361" s="9">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K361" s="11">
+      <c r="K361" s="9">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
@@ -12090,15 +12189,15 @@
       <c r="G362" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I362" s="11">
+      <c r="I362" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J362" s="11">
+      <c r="J362" s="9">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K362" s="11">
+      <c r="K362" s="9">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
@@ -12118,15 +12217,15 @@
       <c r="G363" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I363" s="11">
+      <c r="I363" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J363" s="11">
+      <c r="J363" s="9">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K363" s="11">
+      <c r="K363" s="9">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
@@ -12146,15 +12245,15 @@
       <c r="G364" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I364" s="11">
+      <c r="I364" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J364" s="11">
+      <c r="J364" s="9">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K364" s="11">
+      <c r="K364" s="9">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
@@ -12174,7 +12273,7 @@
       <c r="G365" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I365" s="11">
+      <c r="I365" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -12202,7 +12301,7 @@
       <c r="G366" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I366" s="11">
+      <c r="I366" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -12230,7 +12329,7 @@
       <c r="G367" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I367" s="11">
+      <c r="I367" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -12258,7 +12357,7 @@
       <c r="G368" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I368" s="11">
+      <c r="I368" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -12286,15 +12385,15 @@
       <c r="G369" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I369" s="11">
+      <c r="I369" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J369" s="11">
+      <c r="J369" s="9">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K369" s="11">
+      <c r="K369" s="9">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
@@ -12314,15 +12413,15 @@
       <c r="G370" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I370" s="11">
+      <c r="I370" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J370" s="11">
+      <c r="J370" s="9">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K370" s="11">
+      <c r="K370" s="9">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
@@ -12342,15 +12441,15 @@
       <c r="G371" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I371" s="11">
+      <c r="I371" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J371" s="11">
+      <c r="J371" s="9">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K371" s="11">
+      <c r="K371" s="9">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
@@ -12370,15 +12469,15 @@
       <c r="G372" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I372" s="11">
+      <c r="I372" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J372" s="11">
+      <c r="J372" s="9">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K372" s="11">
+      <c r="K372" s="9">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
@@ -12398,15 +12497,15 @@
       <c r="G373" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I373" s="11">
+      <c r="I373" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J373" s="11">
+      <c r="J373" s="9">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K373" s="11">
+      <c r="K373" s="9">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
@@ -12426,7 +12525,7 @@
       <c r="G374" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I374" s="11">
+      <c r="I374" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -12454,7 +12553,7 @@
       <c r="G375" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I375" s="11">
+      <c r="I375" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -12482,7 +12581,7 @@
       <c r="G376" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I376" s="11">
+      <c r="I376" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -12510,7 +12609,7 @@
       <c r="G377" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I377" s="11">
+      <c r="I377" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -12538,15 +12637,15 @@
       <c r="G378" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I378" s="11">
+      <c r="I378" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J378" s="11">
+      <c r="J378" s="9">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K378" s="11">
+      <c r="K378" s="9">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
@@ -12566,15 +12665,15 @@
       <c r="G379" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I379" s="11">
+      <c r="I379" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J379" s="11">
+      <c r="J379" s="9">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K379" s="11">
+      <c r="K379" s="9">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
@@ -12594,15 +12693,15 @@
       <c r="G380" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I380" s="11">
+      <c r="I380" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J380" s="11">
+      <c r="J380" s="9">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K380" s="11">
+      <c r="K380" s="9">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
@@ -12622,15 +12721,15 @@
       <c r="G381" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I381" s="11">
+      <c r="I381" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J381" s="11">
+      <c r="J381" s="9">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K381" s="11">
+      <c r="K381" s="9">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
@@ -12650,15 +12749,15 @@
       <c r="G382" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I382" s="11">
+      <c r="I382" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J382" s="11">
+      <c r="J382" s="9">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K382" s="11">
+      <c r="K382" s="9">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
@@ -12678,7 +12777,7 @@
       <c r="G383" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I383" s="11">
+      <c r="I383" s="9">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
@@ -12706,7 +12805,7 @@
       <c r="G384" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I384" s="11">
+      <c r="I384" s="9">
         <f t="shared" ref="I384:I447" si="36">(C384-B384)</f>
         <v>0</v>
       </c>
@@ -12734,7 +12833,7 @@
       <c r="G385" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I385" s="11">
+      <c r="I385" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
@@ -12762,7 +12861,7 @@
       <c r="G386" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I386" s="11">
+      <c r="I386" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
@@ -12790,15 +12889,15 @@
       <c r="G387" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I387" s="11">
+      <c r="I387" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J387" s="11">
+      <c r="J387" s="9">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K387" s="11">
+      <c r="K387" s="9">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
@@ -12818,15 +12917,15 @@
       <c r="G388" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I388" s="11">
+      <c r="I388" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J388" s="11">
+      <c r="J388" s="9">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K388" s="11">
+      <c r="K388" s="9">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
@@ -12846,15 +12945,15 @@
       <c r="G389" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I389" s="11">
+      <c r="I389" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J389" s="11">
+      <c r="J389" s="9">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K389" s="11">
+      <c r="K389" s="9">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
@@ -12874,15 +12973,15 @@
       <c r="G390" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I390" s="11">
+      <c r="I390" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J390" s="11">
+      <c r="J390" s="9">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K390" s="11">
+      <c r="K390" s="9">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
@@ -12902,15 +13001,15 @@
       <c r="G391" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I391" s="11">
+      <c r="I391" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J391" s="11">
+      <c r="J391" s="9">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K391" s="11">
+      <c r="K391" s="9">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
@@ -12930,7 +13029,7 @@
       <c r="G392" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I392" s="11">
+      <c r="I392" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
@@ -12958,7 +13057,7 @@
       <c r="G393" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I393" s="11">
+      <c r="I393" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
@@ -12986,7 +13085,7 @@
       <c r="G394" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I394" s="11">
+      <c r="I394" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
@@ -13014,7 +13113,7 @@
       <c r="G395" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I395" s="11">
+      <c r="I395" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
@@ -13042,15 +13141,15 @@
       <c r="G396" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I396" s="11">
+      <c r="I396" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J396" s="11">
+      <c r="J396" s="9">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K396" s="11">
+      <c r="K396" s="9">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
@@ -13070,15 +13169,15 @@
       <c r="G397" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I397" s="11">
+      <c r="I397" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J397" s="11">
+      <c r="J397" s="9">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K397" s="11">
+      <c r="K397" s="9">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
@@ -13098,15 +13197,15 @@
       <c r="G398" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I398" s="11">
+      <c r="I398" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J398" s="11">
+      <c r="J398" s="9">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K398" s="11">
+      <c r="K398" s="9">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
@@ -13126,15 +13225,15 @@
       <c r="G399" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I399" s="11">
+      <c r="I399" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J399" s="11">
+      <c r="J399" s="9">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K399" s="11">
+      <c r="K399" s="9">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
@@ -13154,15 +13253,15 @@
       <c r="G400" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I400" s="11">
+      <c r="I400" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J400" s="11">
+      <c r="J400" s="9">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K400" s="11">
+      <c r="K400" s="9">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
@@ -13182,7 +13281,7 @@
       <c r="G401" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I401" s="11">
+      <c r="I401" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
@@ -13210,7 +13309,7 @@
       <c r="G402" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I402" s="11">
+      <c r="I402" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
@@ -13238,7 +13337,7 @@
       <c r="G403" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I403" s="11">
+      <c r="I403" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
@@ -13266,7 +13365,7 @@
       <c r="G404" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I404" s="11">
+      <c r="I404" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
@@ -13294,15 +13393,15 @@
       <c r="G405" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I405" s="11">
+      <c r="I405" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J405" s="11">
+      <c r="J405" s="9">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K405" s="11">
+      <c r="K405" s="9">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
@@ -13322,15 +13421,15 @@
       <c r="G406" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I406" s="11">
+      <c r="I406" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J406" s="11">
+      <c r="J406" s="9">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K406" s="11">
+      <c r="K406" s="9">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
@@ -13350,15 +13449,15 @@
       <c r="G407" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I407" s="11">
+      <c r="I407" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J407" s="11">
+      <c r="J407" s="9">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K407" s="11">
+      <c r="K407" s="9">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
@@ -13378,15 +13477,15 @@
       <c r="G408" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I408" s="11">
+      <c r="I408" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J408" s="11">
+      <c r="J408" s="9">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K408" s="11">
+      <c r="K408" s="9">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
@@ -13406,15 +13505,15 @@
       <c r="G409" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I409" s="11">
+      <c r="I409" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J409" s="11">
+      <c r="J409" s="9">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="K409" s="11">
+      <c r="K409" s="9">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
@@ -13434,7 +13533,7 @@
       <c r="G410" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I410" s="11">
+      <c r="I410" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
@@ -13462,7 +13561,7 @@
       <c r="G411" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I411" s="11">
+      <c r="I411" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
@@ -13490,7 +13589,7 @@
       <c r="G412" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I412" s="11">
+      <c r="I412" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
@@ -13518,7 +13617,7 @@
       <c r="G413" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I413" s="11">
+      <c r="I413" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
@@ -13546,15 +13645,15 @@
       <c r="G414" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I414" s="11">
+      <c r="I414" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J414" s="11">
+      <c r="J414" s="9">
         <f t="shared" ref="J414:J477" si="39">IF(AND(G414 = "Zakelijk", H414 = ""), I414, IF(AND(G414 = "Zakelijk", NOT(H414 = "")), I414 - H414, 0))</f>
         <v>0</v>
       </c>
-      <c r="K414" s="11">
+      <c r="K414" s="9">
         <f t="shared" ref="K414:K477" si="40">IF(AND(G414 = "Zakelijk", NOT(H414 = "")), H414, IF(G414 = "Privé", I414, 0))</f>
         <v>0</v>
       </c>
@@ -13574,15 +13673,15 @@
       <c r="G415" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I415" s="11">
+      <c r="I415" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J415" s="11">
+      <c r="J415" s="9">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="K415" s="11">
+      <c r="K415" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -13602,15 +13701,15 @@
       <c r="G416" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I416" s="11">
+      <c r="I416" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J416" s="11">
+      <c r="J416" s="9">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="K416" s="11">
+      <c r="K416" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -13630,15 +13729,15 @@
       <c r="G417" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I417" s="11">
+      <c r="I417" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J417" s="11">
+      <c r="J417" s="9">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="K417" s="11">
+      <c r="K417" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -13658,15 +13757,15 @@
       <c r="G418" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I418" s="11">
+      <c r="I418" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J418" s="11">
+      <c r="J418" s="9">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="K418" s="11">
+      <c r="K418" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -13686,7 +13785,7 @@
       <c r="G419" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I419" s="11">
+      <c r="I419" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
@@ -13714,7 +13813,7 @@
       <c r="G420" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I420" s="11">
+      <c r="I420" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
@@ -13742,7 +13841,7 @@
       <c r="G421" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I421" s="11">
+      <c r="I421" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
@@ -13770,7 +13869,7 @@
       <c r="G422" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I422" s="11">
+      <c r="I422" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
@@ -13798,15 +13897,15 @@
       <c r="G423" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I423" s="11">
+      <c r="I423" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J423" s="11">
+      <c r="J423" s="9">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="K423" s="11">
+      <c r="K423" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -13826,15 +13925,15 @@
       <c r="G424" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I424" s="11">
+      <c r="I424" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J424" s="11">
+      <c r="J424" s="9">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="K424" s="11">
+      <c r="K424" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -13854,15 +13953,15 @@
       <c r="G425" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I425" s="11">
+      <c r="I425" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J425" s="11">
+      <c r="J425" s="9">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="K425" s="11">
+      <c r="K425" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -13882,15 +13981,15 @@
       <c r="G426" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I426" s="11">
+      <c r="I426" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J426" s="11">
+      <c r="J426" s="9">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="K426" s="11">
+      <c r="K426" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -13910,15 +14009,15 @@
       <c r="G427" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I427" s="11">
+      <c r="I427" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J427" s="11">
+      <c r="J427" s="9">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="K427" s="11">
+      <c r="K427" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -13938,7 +14037,7 @@
       <c r="G428" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I428" s="11">
+      <c r="I428" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
@@ -13966,7 +14065,7 @@
       <c r="G429" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I429" s="11">
+      <c r="I429" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
@@ -13994,7 +14093,7 @@
       <c r="G430" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I430" s="11">
+      <c r="I430" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
@@ -14022,7 +14121,7 @@
       <c r="G431" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I431" s="11">
+      <c r="I431" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
@@ -14050,15 +14149,15 @@
       <c r="G432" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I432" s="11">
+      <c r="I432" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J432" s="11">
+      <c r="J432" s="9">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="K432" s="11">
+      <c r="K432" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -14078,15 +14177,15 @@
       <c r="G433" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I433" s="11">
+      <c r="I433" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J433" s="11">
+      <c r="J433" s="9">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="K433" s="11">
+      <c r="K433" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -14106,15 +14205,15 @@
       <c r="G434" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I434" s="11">
+      <c r="I434" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J434" s="11">
+      <c r="J434" s="9">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="K434" s="11">
+      <c r="K434" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -14134,15 +14233,15 @@
       <c r="G435" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I435" s="11">
+      <c r="I435" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J435" s="11">
+      <c r="J435" s="9">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="K435" s="11">
+      <c r="K435" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -14162,15 +14261,15 @@
       <c r="G436" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I436" s="11">
+      <c r="I436" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J436" s="11">
+      <c r="J436" s="9">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="K436" s="11">
+      <c r="K436" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -14190,7 +14289,7 @@
       <c r="G437" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I437" s="11">
+      <c r="I437" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
@@ -14218,7 +14317,7 @@
       <c r="G438" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I438" s="11">
+      <c r="I438" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
@@ -14246,7 +14345,7 @@
       <c r="G439" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I439" s="11">
+      <c r="I439" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
@@ -14274,7 +14373,7 @@
       <c r="G440" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I440" s="11">
+      <c r="I440" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
@@ -14302,15 +14401,15 @@
       <c r="G441" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I441" s="11">
+      <c r="I441" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J441" s="11">
+      <c r="J441" s="9">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="K441" s="11">
+      <c r="K441" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -14330,15 +14429,15 @@
       <c r="G442" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I442" s="11">
+      <c r="I442" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J442" s="11">
+      <c r="J442" s="9">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="K442" s="11">
+      <c r="K442" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -14358,15 +14457,15 @@
       <c r="G443" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I443" s="11">
+      <c r="I443" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J443" s="11">
+      <c r="J443" s="9">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="K443" s="11">
+      <c r="K443" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -14386,15 +14485,15 @@
       <c r="G444" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I444" s="11">
+      <c r="I444" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J444" s="11">
+      <c r="J444" s="9">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="K444" s="11">
+      <c r="K444" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -14414,15 +14513,15 @@
       <c r="G445" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I445" s="11">
+      <c r="I445" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J445" s="11">
+      <c r="J445" s="9">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="K445" s="11">
+      <c r="K445" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -14442,7 +14541,7 @@
       <c r="G446" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I446" s="11">
+      <c r="I446" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
@@ -14470,7 +14569,7 @@
       <c r="G447" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I447" s="11">
+      <c r="I447" s="9">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
@@ -14498,7 +14597,7 @@
       <c r="G448" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I448" s="11">
+      <c r="I448" s="9">
         <f t="shared" ref="I448:I511" si="41">(C448-B448)</f>
         <v>0</v>
       </c>
@@ -14526,7 +14625,7 @@
       <c r="G449" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I449" s="11">
+      <c r="I449" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -14554,15 +14653,15 @@
       <c r="G450" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I450" s="11">
+      <c r="I450" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J450" s="11">
+      <c r="J450" s="9">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="K450" s="11">
+      <c r="K450" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -14582,15 +14681,15 @@
       <c r="G451" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I451" s="11">
+      <c r="I451" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J451" s="11">
+      <c r="J451" s="9">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="K451" s="11">
+      <c r="K451" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -14610,15 +14709,15 @@
       <c r="G452" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I452" s="11">
+      <c r="I452" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J452" s="11">
+      <c r="J452" s="9">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="K452" s="11">
+      <c r="K452" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -14638,15 +14737,15 @@
       <c r="G453" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I453" s="11">
+      <c r="I453" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J453" s="11">
+      <c r="J453" s="9">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="K453" s="11">
+      <c r="K453" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -14666,15 +14765,15 @@
       <c r="G454" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I454" s="11">
+      <c r="I454" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J454" s="11">
+      <c r="J454" s="9">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="K454" s="11">
+      <c r="K454" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -14694,7 +14793,7 @@
       <c r="G455" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I455" s="11">
+      <c r="I455" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -14722,7 +14821,7 @@
       <c r="G456" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I456" s="11">
+      <c r="I456" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -14750,7 +14849,7 @@
       <c r="G457" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I457" s="11">
+      <c r="I457" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -14778,7 +14877,7 @@
       <c r="G458" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I458" s="11">
+      <c r="I458" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -14806,15 +14905,15 @@
       <c r="G459" t="s">
         <v>10</v>
       </c>
-      <c r="I459" s="11">
+      <c r="I459" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J459" s="11">
+      <c r="J459" s="9">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="K459" s="11">
+      <c r="K459" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -14834,15 +14933,15 @@
       <c r="G460" t="s">
         <v>10</v>
       </c>
-      <c r="I460" s="11">
+      <c r="I460" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J460" s="11">
+      <c r="J460" s="9">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="K460" s="11">
+      <c r="K460" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -14862,15 +14961,15 @@
       <c r="G461" t="s">
         <v>10</v>
       </c>
-      <c r="I461" s="11">
+      <c r="I461" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J461" s="11">
+      <c r="J461" s="9">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="K461" s="11">
+      <c r="K461" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -14890,15 +14989,15 @@
       <c r="G462" t="s">
         <v>10</v>
       </c>
-      <c r="I462" s="11">
+      <c r="I462" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J462" s="11">
+      <c r="J462" s="9">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="K462" s="11">
+      <c r="K462" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -14918,15 +15017,15 @@
       <c r="G463" t="s">
         <v>10</v>
       </c>
-      <c r="I463" s="11">
+      <c r="I463" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J463" s="11">
+      <c r="J463" s="9">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="K463" s="11">
+      <c r="K463" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -14946,7 +15045,7 @@
       <c r="G464" t="s">
         <v>10</v>
       </c>
-      <c r="I464" s="11">
+      <c r="I464" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -14974,7 +15073,7 @@
       <c r="G465" t="s">
         <v>10</v>
       </c>
-      <c r="I465" s="11">
+      <c r="I465" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -15002,7 +15101,7 @@
       <c r="G466" t="s">
         <v>10</v>
       </c>
-      <c r="I466" s="11">
+      <c r="I466" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -15030,7 +15129,7 @@
       <c r="G467" t="s">
         <v>10</v>
       </c>
-      <c r="I467" s="11">
+      <c r="I467" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -15058,15 +15157,15 @@
       <c r="G468" t="s">
         <v>10</v>
       </c>
-      <c r="I468" s="11">
+      <c r="I468" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J468" s="11">
+      <c r="J468" s="9">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="K468" s="11">
+      <c r="K468" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -15086,15 +15185,15 @@
       <c r="G469" t="s">
         <v>10</v>
       </c>
-      <c r="I469" s="11">
+      <c r="I469" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J469" s="11">
+      <c r="J469" s="9">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="K469" s="11">
+      <c r="K469" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -15114,15 +15213,15 @@
       <c r="G470" t="s">
         <v>10</v>
       </c>
-      <c r="I470" s="11">
+      <c r="I470" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J470" s="11">
+      <c r="J470" s="9">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="K470" s="11">
+      <c r="K470" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -15142,15 +15241,15 @@
       <c r="G471" t="s">
         <v>10</v>
       </c>
-      <c r="I471" s="11">
+      <c r="I471" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J471" s="11">
+      <c r="J471" s="9">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="K471" s="11">
+      <c r="K471" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -15170,15 +15269,15 @@
       <c r="G472" t="s">
         <v>10</v>
       </c>
-      <c r="I472" s="11">
+      <c r="I472" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J472" s="11">
+      <c r="J472" s="9">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="K472" s="11">
+      <c r="K472" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -15198,7 +15297,7 @@
       <c r="G473" t="s">
         <v>10</v>
       </c>
-      <c r="I473" s="11">
+      <c r="I473" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -15226,7 +15325,7 @@
       <c r="G474" t="s">
         <v>10</v>
       </c>
-      <c r="I474" s="11">
+      <c r="I474" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -15254,7 +15353,7 @@
       <c r="G475" t="s">
         <v>10</v>
       </c>
-      <c r="I475" s="11">
+      <c r="I475" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -15282,7 +15381,7 @@
       <c r="G476" t="s">
         <v>10</v>
       </c>
-      <c r="I476" s="11">
+      <c r="I476" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -15310,15 +15409,15 @@
       <c r="G477" t="s">
         <v>10</v>
       </c>
-      <c r="I477" s="11">
+      <c r="I477" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J477" s="11">
+      <c r="J477" s="9">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="K477" s="11">
+      <c r="K477" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -15338,15 +15437,15 @@
       <c r="G478" t="s">
         <v>10</v>
       </c>
-      <c r="I478" s="11">
+      <c r="I478" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J478" s="11">
+      <c r="J478" s="9">
         <f t="shared" ref="J478:J541" si="44">IF(AND(G478 = "Zakelijk", H478 = ""), I478, IF(AND(G478 = "Zakelijk", NOT(H478 = "")), I478 - H478, 0))</f>
         <v>0</v>
       </c>
-      <c r="K478" s="11">
+      <c r="K478" s="9">
         <f t="shared" ref="K478:K541" si="45">IF(AND(G478 = "Zakelijk", NOT(H478 = "")), H478, IF(G478 = "Privé", I478, 0))</f>
         <v>0</v>
       </c>
@@ -15366,15 +15465,15 @@
       <c r="G479" t="s">
         <v>10</v>
       </c>
-      <c r="I479" s="11">
+      <c r="I479" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J479" s="11">
+      <c r="J479" s="9">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="K479" s="11">
+      <c r="K479" s="9">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
@@ -15394,15 +15493,15 @@
       <c r="G480" t="s">
         <v>10</v>
       </c>
-      <c r="I480" s="11">
+      <c r="I480" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J480" s="11">
+      <c r="J480" s="9">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="K480" s="11">
+      <c r="K480" s="9">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
@@ -15422,15 +15521,15 @@
       <c r="G481" t="s">
         <v>10</v>
       </c>
-      <c r="I481" s="11">
+      <c r="I481" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J481" s="11">
+      <c r="J481" s="9">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="K481" s="11">
+      <c r="K481" s="9">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
@@ -15450,7 +15549,7 @@
       <c r="G482" t="s">
         <v>10</v>
       </c>
-      <c r="I482" s="11">
+      <c r="I482" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -15478,7 +15577,7 @@
       <c r="G483" t="s">
         <v>10</v>
       </c>
-      <c r="I483" s="11">
+      <c r="I483" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -15506,7 +15605,7 @@
       <c r="G484" t="s">
         <v>10</v>
       </c>
-      <c r="I484" s="11">
+      <c r="I484" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -15534,7 +15633,7 @@
       <c r="G485" t="s">
         <v>10</v>
       </c>
-      <c r="I485" s="11">
+      <c r="I485" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -15554,15 +15653,15 @@
       <c r="G486" t="s">
         <v>10</v>
       </c>
-      <c r="I486" s="11">
+      <c r="I486" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J486" s="11">
+      <c r="J486" s="9">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="K486" s="11">
+      <c r="K486" s="9">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
@@ -15574,15 +15673,15 @@
       <c r="G487" t="s">
         <v>10</v>
       </c>
-      <c r="I487" s="11">
+      <c r="I487" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J487" s="11">
+      <c r="J487" s="9">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="K487" s="11">
+      <c r="K487" s="9">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
@@ -15594,15 +15693,15 @@
       <c r="G488" t="s">
         <v>10</v>
       </c>
-      <c r="I488" s="11">
+      <c r="I488" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J488" s="11">
+      <c r="J488" s="9">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="K488" s="11">
+      <c r="K488" s="9">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
@@ -15614,15 +15713,15 @@
       <c r="G489" t="s">
         <v>10</v>
       </c>
-      <c r="I489" s="11">
+      <c r="I489" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J489" s="11">
+      <c r="J489" s="9">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="K489" s="11">
+      <c r="K489" s="9">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
@@ -15634,15 +15733,15 @@
       <c r="G490" t="s">
         <v>10</v>
       </c>
-      <c r="I490" s="11">
+      <c r="I490" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J490" s="11">
+      <c r="J490" s="9">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="K490" s="11">
+      <c r="K490" s="9">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
@@ -15654,7 +15753,7 @@
       <c r="G491" t="s">
         <v>10</v>
       </c>
-      <c r="I491" s="11">
+      <c r="I491" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -15674,7 +15773,7 @@
       <c r="G492" t="s">
         <v>10</v>
       </c>
-      <c r="I492" s="11">
+      <c r="I492" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -15694,7 +15793,7 @@
       <c r="G493" t="s">
         <v>10</v>
       </c>
-      <c r="I493" s="11">
+      <c r="I493" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -15714,7 +15813,7 @@
       <c r="G494" t="s">
         <v>10</v>
       </c>
-      <c r="I494" s="11">
+      <c r="I494" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -15734,15 +15833,15 @@
       <c r="G495" t="s">
         <v>10</v>
       </c>
-      <c r="I495" s="11">
+      <c r="I495" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J495" s="11">
+      <c r="J495" s="9">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="K495" s="11">
+      <c r="K495" s="9">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
@@ -15754,15 +15853,15 @@
       <c r="G496" t="s">
         <v>10</v>
       </c>
-      <c r="I496" s="11">
+      <c r="I496" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J496" s="11">
+      <c r="J496" s="9">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="K496" s="11">
+      <c r="K496" s="9">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
@@ -15774,15 +15873,15 @@
       <c r="G497" t="s">
         <v>10</v>
       </c>
-      <c r="I497" s="11">
+      <c r="I497" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J497" s="11">
+      <c r="J497" s="9">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="K497" s="11">
+      <c r="K497" s="9">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
@@ -15794,15 +15893,15 @@
       <c r="G498" t="s">
         <v>10</v>
       </c>
-      <c r="I498" s="11">
+      <c r="I498" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J498" s="11">
+      <c r="J498" s="9">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="K498" s="11">
+      <c r="K498" s="9">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
@@ -15814,15 +15913,15 @@
       <c r="G499" t="s">
         <v>10</v>
       </c>
-      <c r="I499" s="11">
+      <c r="I499" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J499" s="11">
+      <c r="J499" s="9">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="K499" s="11">
+      <c r="K499" s="9">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
@@ -15834,7 +15933,7 @@
       <c r="G500" t="s">
         <v>10</v>
       </c>
-      <c r="I500" s="11">
+      <c r="I500" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -15854,7 +15953,7 @@
       <c r="G501" t="s">
         <v>10</v>
       </c>
-      <c r="I501" s="11">
+      <c r="I501" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -15874,7 +15973,7 @@
       <c r="G502" t="s">
         <v>10</v>
       </c>
-      <c r="I502" s="11">
+      <c r="I502" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -15894,7 +15993,7 @@
       <c r="G503" t="s">
         <v>10</v>
       </c>
-      <c r="I503" s="11">
+      <c r="I503" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -15914,7 +16013,7 @@
       <c r="G504" t="s">
         <v>10</v>
       </c>
-      <c r="I504" s="11">
+      <c r="I504" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -15934,7 +16033,7 @@
       <c r="G505" t="s">
         <v>10</v>
       </c>
-      <c r="I505" s="11">
+      <c r="I505" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -15954,7 +16053,7 @@
       <c r="G506" t="s">
         <v>10</v>
       </c>
-      <c r="I506" s="11">
+      <c r="I506" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -15974,7 +16073,7 @@
       <c r="G507" t="s">
         <v>10</v>
       </c>
-      <c r="I507" s="11">
+      <c r="I507" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -15994,7 +16093,7 @@
       <c r="G508" t="s">
         <v>10</v>
       </c>
-      <c r="I508" s="11">
+      <c r="I508" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -16014,7 +16113,7 @@
       <c r="G509" t="s">
         <v>10</v>
       </c>
-      <c r="I509" s="11">
+      <c r="I509" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -16034,7 +16133,7 @@
       <c r="G510" t="s">
         <v>10</v>
       </c>
-      <c r="I510" s="11">
+      <c r="I510" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -16054,7 +16153,7 @@
       <c r="G511" t="s">
         <v>10</v>
       </c>
-      <c r="I511" s="11">
+      <c r="I511" s="9">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
@@ -16074,7 +16173,7 @@
       <c r="G512" t="s">
         <v>10</v>
       </c>
-      <c r="I512" s="11">
+      <c r="I512" s="9">
         <f t="shared" ref="I512:I545" si="46">(C512-B512)</f>
         <v>0</v>
       </c>
@@ -16094,7 +16193,7 @@
       <c r="G513" t="s">
         <v>10</v>
       </c>
-      <c r="I513" s="11">
+      <c r="I513" s="9">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
@@ -16114,7 +16213,7 @@
       <c r="G514" t="s">
         <v>10</v>
       </c>
-      <c r="I514" s="11">
+      <c r="I514" s="9">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
@@ -16134,7 +16233,7 @@
       <c r="G515" t="s">
         <v>10</v>
       </c>
-      <c r="I515" s="11">
+      <c r="I515" s="9">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
@@ -16154,7 +16253,7 @@
       <c r="G516" t="s">
         <v>10</v>
       </c>
-      <c r="I516" s="11">
+      <c r="I516" s="9">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
@@ -16174,7 +16273,7 @@
       <c r="G517" t="s">
         <v>10</v>
       </c>
-      <c r="I517" s="11">
+      <c r="I517" s="9">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
@@ -16194,7 +16293,7 @@
       <c r="G518" t="s">
         <v>10</v>
       </c>
-      <c r="I518" s="11">
+      <c r="I518" s="9">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
@@ -16214,7 +16313,7 @@
       <c r="G519" t="s">
         <v>10</v>
       </c>
-      <c r="I519" s="11">
+      <c r="I519" s="9">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
@@ -16234,7 +16333,7 @@
       <c r="G520" t="s">
         <v>10</v>
       </c>
-      <c r="I520" s="11">
+      <c r="I520" s="9">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
@@ -16254,7 +16353,7 @@
       <c r="G521" t="s">
         <v>10</v>
       </c>
-      <c r="I521" s="11">
+      <c r="I521" s="9">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
@@ -16274,7 +16373,7 @@
       <c r="G522" t="s">
         <v>10</v>
       </c>
-      <c r="I522" s="11">
+      <c r="I522" s="9">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
@@ -16294,7 +16393,7 @@
       <c r="G523" t="s">
         <v>10</v>
       </c>
-      <c r="I523" s="11">
+      <c r="I523" s="9">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
@@ -16314,7 +16413,7 @@
       <c r="G524" t="s">
         <v>10</v>
       </c>
-      <c r="I524" s="11">
+      <c r="I524" s="9">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
@@ -16334,7 +16433,7 @@
       <c r="G525" t="s">
         <v>10</v>
       </c>
-      <c r="I525" s="11">
+      <c r="I525" s="9">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
@@ -16354,7 +16453,7 @@
       <c r="G526" t="s">
         <v>10</v>
       </c>
-      <c r="I526" s="11">
+      <c r="I526" s="9">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
@@ -16374,7 +16473,7 @@
       <c r="G527" t="s">
         <v>10</v>
       </c>
-      <c r="I527" s="11">
+      <c r="I527" s="9">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
@@ -16394,7 +16493,7 @@
       <c r="G528" t="s">
         <v>10</v>
       </c>
-      <c r="I528" s="11">
+      <c r="I528" s="9">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
@@ -16414,7 +16513,7 @@
       <c r="G529" t="s">
         <v>10</v>
       </c>
-      <c r="I529" s="11">
+      <c r="I529" s="9">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
@@ -16434,7 +16533,7 @@
       <c r="G530" t="s">
         <v>10</v>
       </c>
-      <c r="I530" s="11">
+      <c r="I530" s="9">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
@@ -16454,7 +16553,7 @@
       <c r="G531" t="s">
         <v>10</v>
       </c>
-      <c r="I531" s="11">
+      <c r="I531" s="9">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
@@ -16474,7 +16573,7 @@
       <c r="G532" t="s">
         <v>10</v>
       </c>
-      <c r="I532" s="11">
+      <c r="I532" s="9">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
@@ -16494,7 +16593,7 @@
       <c r="G533" t="s">
         <v>10</v>
       </c>
-      <c r="I533" s="11">
+      <c r="I533" s="9">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
@@ -16514,7 +16613,7 @@
       <c r="G534" t="s">
         <v>10</v>
       </c>
-      <c r="I534" s="11">
+      <c r="I534" s="9">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
@@ -16534,7 +16633,7 @@
       <c r="G535" t="s">
         <v>10</v>
       </c>
-      <c r="I535" s="11">
+      <c r="I535" s="9">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
@@ -16554,7 +16653,7 @@
       <c r="G536" t="s">
         <v>10</v>
       </c>
-      <c r="I536" s="11">
+      <c r="I536" s="9">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
@@ -16574,7 +16673,7 @@
       <c r="G537" t="s">
         <v>10</v>
       </c>
-      <c r="I537" s="11">
+      <c r="I537" s="9">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
@@ -16594,7 +16693,7 @@
       <c r="G538" t="s">
         <v>10</v>
       </c>
-      <c r="I538" s="11">
+      <c r="I538" s="9">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
@@ -16614,7 +16713,7 @@
       <c r="G539" t="s">
         <v>10</v>
       </c>
-      <c r="I539" s="11">
+      <c r="I539" s="9">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
@@ -16634,7 +16733,7 @@
       <c r="G540" t="s">
         <v>10</v>
       </c>
-      <c r="I540" s="11">
+      <c r="I540" s="9">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
@@ -16654,7 +16753,7 @@
       <c r="G541" t="s">
         <v>10</v>
       </c>
-      <c r="I541" s="11">
+      <c r="I541" s="9">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
@@ -16674,7 +16773,7 @@
       <c r="G542" t="s">
         <v>10</v>
       </c>
-      <c r="I542" s="11">
+      <c r="I542" s="9">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
@@ -16694,7 +16793,7 @@
       <c r="G543" t="s">
         <v>10</v>
       </c>
-      <c r="I543" s="11">
+      <c r="I543" s="9">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
@@ -16714,7 +16813,7 @@
       <c r="G544" t="s">
         <v>10</v>
       </c>
-      <c r="I544" s="11">
+      <c r="I544" s="9">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
@@ -16734,7 +16833,7 @@
       <c r="G545" t="s">
         <v>10</v>
       </c>
-      <c r="I545" s="11">
+      <c r="I545" s="9">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99249167-0E7A-476F-AC7F-A40B9A48B1EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06AA40A-0E37-4B04-B85E-367DDBE000D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="44">
   <si>
     <t>Datum</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>Wezelstraat 3-A, 1541 LZ, Koog aan de Zaan</t>
+  </si>
+  <si>
+    <t>Koedijk 1, Houten</t>
   </si>
 </sst>
 </file>
@@ -607,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:K547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
-      <selection activeCell="A297" sqref="A297"/>
+    <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
+      <selection activeCell="F308" sqref="F308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10418,7 +10421,9 @@
         <f t="shared" si="26"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E299"/>
+      <c r="E299" t="s">
+        <v>7</v>
+      </c>
       <c r="G299" s="4" t="s">
         <v>10</v>
       </c>
@@ -10436,29 +10441,33 @@
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A300" s="6"/>
+      <c r="A300" s="10">
+        <v>43629</v>
+      </c>
       <c r="B300" s="6">
         <v>16878</v>
       </c>
       <c r="C300" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D300">
+        <v>16894</v>
+      </c>
+      <c r="D300" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E300"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E300" t="s">
+        <v>15</v>
+      </c>
       <c r="G300" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I300" s="9">
         <f t="shared" si="24"/>
-        <v>-16878</v>
+        <v>16</v>
       </c>
       <c r="J300" s="9">
         <f t="shared" si="27"/>
-        <v>-16878</v>
+        <v>16</v>
       </c>
       <c r="K300" s="9">
         <f t="shared" si="28"/>
@@ -10467,26 +10476,30 @@
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="6"/>
-      <c r="B301" s="6"/>
+      <c r="B301" s="6">
+        <v>16894</v>
+      </c>
       <c r="C301" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D301">
+        <v>16910</v>
+      </c>
+      <c r="D301" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E301"/>
+        <v>Johan Huizingalaan 765, 1066 VH, Amsterdam</v>
+      </c>
+      <c r="E301" t="s">
+        <v>7</v>
+      </c>
       <c r="G301" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I301" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J301" s="9">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K301" s="9">
         <f t="shared" si="28"/>
@@ -10494,27 +10507,33 @@
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A302" s="6"/>
-      <c r="B302" s="6"/>
+      <c r="A302" s="10">
+        <v>43630</v>
+      </c>
+      <c r="B302" s="6">
+        <v>16910</v>
+      </c>
       <c r="C302" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D302">
+        <v>16978</v>
+      </c>
+      <c r="D302" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E302"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E302" t="s">
+        <v>6</v>
+      </c>
       <c r="G302" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I302" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J302" s="6">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K302" s="6">
         <f t="shared" si="28"/>
@@ -10523,26 +10542,30 @@
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="6"/>
-      <c r="B303" s="6"/>
+      <c r="B303" s="6">
+        <v>16978</v>
+      </c>
       <c r="C303" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D303">
+        <v>17046</v>
+      </c>
+      <c r="D303" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E303"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E303" t="s">
+        <v>7</v>
+      </c>
       <c r="G303" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I303" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J303" s="6">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K303" s="6">
         <f t="shared" si="28"/>
@@ -10550,27 +10573,33 @@
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A304" s="6"/>
-      <c r="B304" s="6"/>
+      <c r="A304" s="10">
+        <v>43634</v>
+      </c>
+      <c r="B304" s="6">
+        <v>17046</v>
+      </c>
       <c r="C304" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D304">
+        <v>17113</v>
+      </c>
+      <c r="D304" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E304"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E304" t="s">
+        <v>6</v>
+      </c>
       <c r="G304" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I304" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J304" s="6">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K304" s="6">
         <f t="shared" si="28"/>
@@ -10579,26 +10608,30 @@
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="6"/>
-      <c r="B305" s="6"/>
+      <c r="B305" s="6">
+        <v>17113</v>
+      </c>
       <c r="C305" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D305">
+        <v>17115</v>
+      </c>
+      <c r="D305" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E305"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E305" t="s">
+        <v>43</v>
+      </c>
       <c r="G305" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I305" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J305" s="6">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K305" s="6">
         <f t="shared" si="28"/>
@@ -10607,26 +10640,30 @@
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="6"/>
-      <c r="B306" s="6"/>
+      <c r="B306" s="6">
+        <v>17115</v>
+      </c>
       <c r="C306" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D306">
+        <v>17183</v>
+      </c>
+      <c r="D306" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E306"/>
+        <v>Koedijk 1, Houten</v>
+      </c>
+      <c r="E306" t="s">
+        <v>7</v>
+      </c>
       <c r="G306" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I306" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J306" s="9">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K306" s="9">
         <f t="shared" si="28"/>
@@ -10634,27 +10671,33 @@
       </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A307" s="6"/>
-      <c r="B307" s="6"/>
+      <c r="A307" s="10">
+        <v>43635</v>
+      </c>
+      <c r="B307" s="6">
+        <v>17183</v>
+      </c>
       <c r="C307" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D307">
+        <v>17250</v>
+      </c>
+      <c r="D307" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E307"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E307" t="s">
+        <v>6</v>
+      </c>
       <c r="G307" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I307" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J307" s="9">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K307" s="9">
         <f t="shared" si="28"/>
@@ -10663,26 +10706,30 @@
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="6"/>
-      <c r="B308" s="6"/>
+      <c r="B308" s="6">
+        <v>17250</v>
+      </c>
       <c r="C308" s="6">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="D308">
+      <c r="D308" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E308"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E308" t="s">
+        <v>7</v>
+      </c>
       <c r="G308" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I308" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>-17250</v>
       </c>
       <c r="J308" s="9">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>-17250</v>
       </c>
       <c r="K308" s="9">
         <f t="shared" si="28"/>
@@ -10696,9 +10743,9 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="D309">
+      <c r="D309" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E309"/>
       <c r="G309" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06AA40A-0E37-4B04-B85E-367DDBE000D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7421FB2D-C848-44BE-B004-6A6BFABBED04}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
+    <workbookView xWindow="-4425" yWindow="-21720" windowWidth="38640" windowHeight="21390" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="44">
   <si>
     <t>Datum</t>
   </si>
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:K547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
-      <selection activeCell="F308" sqref="F308"/>
+    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
+      <selection activeCell="I313" sqref="I313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10711,7 +10711,7 @@
       </c>
       <c r="C308" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>17318</v>
       </c>
       <c r="D308" t="str">
         <f t="shared" si="26"/>
@@ -10725,11 +10725,11 @@
       </c>
       <c r="I308" s="9">
         <f t="shared" si="24"/>
-        <v>-17250</v>
+        <v>68</v>
       </c>
       <c r="J308" s="9">
         <f t="shared" si="27"/>
-        <v>-17250</v>
+        <v>68</v>
       </c>
       <c r="K308" s="9">
         <f t="shared" si="28"/>
@@ -10737,27 +10737,32 @@
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A309" s="6"/>
-      <c r="B309" s="6"/>
+      <c r="A309" s="10">
+        <v>43640</v>
+      </c>
+      <c r="B309" s="6">
+        <v>17318</v>
+      </c>
       <c r="C309" s="6">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <v>17386</v>
       </c>
       <c r="D309" t="str">
         <f t="shared" si="26"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E309"/>
+      <c r="E309" t="s">
+        <v>6</v>
+      </c>
       <c r="G309" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I309" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J309" s="9">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K309" s="9">
         <f t="shared" si="28"/>
@@ -10766,26 +10771,30 @@
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="6"/>
-      <c r="B310" s="6"/>
+      <c r="B310" s="6">
+        <v>17386</v>
+      </c>
       <c r="C310" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D310">
+        <v>17453</v>
+      </c>
+      <c r="D310" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E310"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E310" t="s">
+        <v>7</v>
+      </c>
       <c r="G310" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I310" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J310" s="9">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K310" s="9">
         <f t="shared" si="28"/>
@@ -10793,27 +10802,33 @@
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A311" s="6"/>
-      <c r="B311" s="6"/>
+      <c r="A311" s="10">
+        <v>43641</v>
+      </c>
+      <c r="B311" s="6">
+        <v>17453</v>
+      </c>
       <c r="C311" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D311">
+        <v>17521</v>
+      </c>
+      <c r="D311" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E311"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E311" t="s">
+        <v>6</v>
+      </c>
       <c r="G311" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I311" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J311" s="6">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K311" s="6">
         <f t="shared" si="28"/>
@@ -10822,26 +10837,30 @@
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="6"/>
-      <c r="B312" s="6"/>
+      <c r="B312" s="6">
+        <v>17521</v>
+      </c>
       <c r="C312" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D312">
+        <v>17588</v>
+      </c>
+      <c r="D312" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E312"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E312" t="s">
+        <v>7</v>
+      </c>
       <c r="G312" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I312" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J312" s="6">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K312" s="6">
         <f t="shared" si="28"/>
@@ -10849,27 +10868,33 @@
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A313" s="6"/>
-      <c r="B313" s="6"/>
+      <c r="A313" s="10">
+        <v>43642</v>
+      </c>
+      <c r="B313" s="6">
+        <v>17588</v>
+      </c>
       <c r="C313" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D313">
+        <v>17656</v>
+      </c>
+      <c r="D313" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E313"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E313" t="s">
+        <v>6</v>
+      </c>
       <c r="G313" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I313" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J313" s="6">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K313" s="6">
         <f t="shared" si="28"/>
@@ -10878,26 +10903,30 @@
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="6"/>
-      <c r="B314" s="6"/>
+      <c r="B314" s="6">
+        <v>17656</v>
+      </c>
       <c r="C314" s="6">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="D314">
+      <c r="D314" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E314"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E314" t="s">
+        <v>7</v>
+      </c>
       <c r="G314" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I314" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>-17656</v>
       </c>
       <c r="J314" s="6">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>-17656</v>
       </c>
       <c r="K314" s="6">
         <f t="shared" si="28"/>
@@ -10911,9 +10940,9 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="D315">
+      <c r="D315" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E315"/>
       <c r="G315" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7421FB2D-C848-44BE-B004-6A6BFABBED04}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60AE245-D941-4934-82C1-444D838E24B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4425" yWindow="-21720" windowWidth="38640" windowHeight="21390" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="44">
   <si>
     <t>Datum</t>
   </si>
@@ -610,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:K547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
-      <selection activeCell="I313" sqref="I313"/>
+    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
+      <selection activeCell="E329" sqref="E329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10908,7 +10910,7 @@
       </c>
       <c r="C314" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>17723</v>
       </c>
       <c r="D314" t="str">
         <f t="shared" si="26"/>
@@ -10922,11 +10924,11 @@
       </c>
       <c r="I314" s="9">
         <f t="shared" si="24"/>
-        <v>-17656</v>
+        <v>67</v>
       </c>
       <c r="J314" s="6">
         <f t="shared" si="27"/>
-        <v>-17656</v>
+        <v>67</v>
       </c>
       <c r="K314" s="6">
         <f t="shared" si="28"/>
@@ -10934,27 +10936,33 @@
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A315" s="6"/>
-      <c r="B315" s="6"/>
+      <c r="A315" s="10">
+        <v>43643</v>
+      </c>
+      <c r="B315" s="6">
+        <v>17723</v>
+      </c>
       <c r="C315" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>17791</v>
       </c>
       <c r="D315" t="str">
         <f t="shared" si="26"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E315"/>
+      <c r="E315" t="s">
+        <v>6</v>
+      </c>
       <c r="G315" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I315" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J315" s="9">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K315" s="9">
         <f t="shared" si="28"/>
@@ -10963,26 +10971,30 @@
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="6"/>
-      <c r="B316" s="6"/>
+      <c r="B316" s="6">
+        <v>17791</v>
+      </c>
       <c r="C316" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D316">
+        <v>17859</v>
+      </c>
+      <c r="D316" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E316"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E316" t="s">
+        <v>7</v>
+      </c>
       <c r="G316" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I316" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J316" s="9">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K316" s="9">
         <f t="shared" si="28"/>
@@ -10990,27 +11002,33 @@
       </c>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A317" s="6"/>
-      <c r="B317" s="6"/>
+      <c r="A317" s="10">
+        <v>43644</v>
+      </c>
+      <c r="B317" s="6">
+        <v>17859</v>
+      </c>
       <c r="C317" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D317">
+        <v>17926</v>
+      </c>
+      <c r="D317" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E317"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E317" t="s">
+        <v>6</v>
+      </c>
       <c r="G317" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I317" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J317" s="9">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K317" s="9">
         <f t="shared" si="28"/>
@@ -11019,26 +11037,30 @@
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="6"/>
-      <c r="B318" s="6"/>
+      <c r="B318" s="6">
+        <v>17926</v>
+      </c>
       <c r="C318" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D318">
+        <v>17994</v>
+      </c>
+      <c r="D318" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E318"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E318" t="s">
+        <v>7</v>
+      </c>
       <c r="G318" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I318" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J318" s="9">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K318" s="9">
         <f t="shared" si="28"/>
@@ -11046,27 +11068,33 @@
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A319" s="6"/>
-      <c r="B319" s="6"/>
+      <c r="A319" s="10">
+        <v>43648</v>
+      </c>
+      <c r="B319" s="6">
+        <v>17994</v>
+      </c>
       <c r="C319" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D319">
+        <v>18061</v>
+      </c>
+      <c r="D319" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E319"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E319" t="s">
+        <v>6</v>
+      </c>
       <c r="G319" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I319" s="9">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J319" s="9">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K319" s="9">
         <f t="shared" si="28"/>
@@ -11075,26 +11103,30 @@
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="10"/>
-      <c r="B320" s="6"/>
+      <c r="B320" s="6">
+        <v>18061</v>
+      </c>
       <c r="C320" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D320">
+        <v>18129</v>
+      </c>
+      <c r="D320" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E320"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E320" t="s">
+        <v>7</v>
+      </c>
       <c r="G320" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I320" s="9">
         <f t="shared" ref="I320:I383" si="29">(C320-B320)</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J320" s="6">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K320" s="6">
         <f t="shared" si="28"/>
@@ -11102,27 +11134,33 @@
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A321" s="10"/>
-      <c r="B321" s="6"/>
+      <c r="A321" s="10">
+        <v>43649</v>
+      </c>
+      <c r="B321" s="6">
+        <v>18129</v>
+      </c>
       <c r="C321" s="6">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D321">
+        <v>18197</v>
+      </c>
+      <c r="D321" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E321"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E321" t="s">
+        <v>6</v>
+      </c>
       <c r="G321" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I321" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J321" s="6">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K321" s="6">
         <f t="shared" si="28"/>
@@ -11131,26 +11169,30 @@
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="10"/>
-      <c r="B322" s="6"/>
+      <c r="B322" s="6">
+        <v>18197</v>
+      </c>
       <c r="C322" s="6">
         <f t="shared" ref="C322:C338" si="30">B323</f>
-        <v>0</v>
-      </c>
-      <c r="D322">
+        <v>18264</v>
+      </c>
+      <c r="D322" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E322"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E322" t="s">
+        <v>7</v>
+      </c>
       <c r="G322" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I322" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J322" s="6">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K322" s="6">
         <f t="shared" si="28"/>
@@ -11158,27 +11200,33 @@
       </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A323" s="10"/>
-      <c r="B323" s="6"/>
+      <c r="A323" s="10">
+        <v>43650</v>
+      </c>
+      <c r="B323" s="6">
+        <v>18264</v>
+      </c>
       <c r="C323" s="6">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="D323">
+        <v>18332</v>
+      </c>
+      <c r="D323" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E323"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E323" t="s">
+        <v>6</v>
+      </c>
       <c r="G323" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I323" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J323" s="6">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K323" s="6">
         <f t="shared" si="28"/>
@@ -11187,26 +11235,30 @@
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="10"/>
-      <c r="B324" s="6"/>
+      <c r="B324" s="6">
+        <v>18332</v>
+      </c>
       <c r="C324" s="6">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="D324">
+        <v>18400</v>
+      </c>
+      <c r="D324" t="str">
         <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E324"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E324" t="s">
+        <v>7</v>
+      </c>
       <c r="G324" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I324" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J324" s="9">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K324" s="9">
         <f t="shared" si="28"/>
@@ -11214,27 +11266,33 @@
       </c>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A325" s="10"/>
-      <c r="B325" s="6"/>
+      <c r="A325" s="10">
+        <v>43654</v>
+      </c>
+      <c r="B325" s="6">
+        <v>18400</v>
+      </c>
       <c r="C325" s="6">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="D325">
+        <v>18468</v>
+      </c>
+      <c r="D325" t="str">
         <f t="shared" ref="D325:D388" si="31">E324</f>
-        <v>0</v>
-      </c>
-      <c r="E325"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E325" t="s">
+        <v>6</v>
+      </c>
       <c r="G325" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I325" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J325" s="9">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K325" s="9">
         <f t="shared" si="28"/>
@@ -11243,26 +11301,30 @@
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="10"/>
-      <c r="B326" s="6"/>
+      <c r="B326" s="6">
+        <v>18468</v>
+      </c>
       <c r="C326" s="6">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="D326">
+        <v>18535</v>
+      </c>
+      <c r="D326" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E326"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E326" t="s">
+        <v>7</v>
+      </c>
       <c r="G326" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I326" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J326" s="9">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K326" s="9">
         <f t="shared" si="28"/>
@@ -11270,27 +11332,33 @@
       </c>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A327" s="10"/>
-      <c r="B327" s="6"/>
+      <c r="A327" s="10">
+        <v>43655</v>
+      </c>
+      <c r="B327" s="6">
+        <v>18535</v>
+      </c>
       <c r="C327" s="6">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="D327">
+        <v>18627</v>
+      </c>
+      <c r="D327" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E327"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E327" t="s">
+        <v>6</v>
+      </c>
       <c r="G327" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I327" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="J327" s="9">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="K327" s="9">
         <f t="shared" si="28"/>
@@ -11299,26 +11367,30 @@
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="10"/>
-      <c r="B328" s="6"/>
+      <c r="B328" s="6">
+        <v>18627</v>
+      </c>
       <c r="C328" s="6">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="D328">
+        <v>18721</v>
+      </c>
+      <c r="D328" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E328"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E328" t="s">
+        <v>7</v>
+      </c>
       <c r="G328" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I328" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="J328" s="9">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="K328" s="9">
         <f t="shared" si="28"/>
@@ -11326,27 +11398,32 @@
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A329" s="10"/>
-      <c r="B329" s="6"/>
+      <c r="A329" s="10">
+        <v>43656</v>
+      </c>
+      <c r="B329" s="6">
+        <v>18721</v>
+      </c>
       <c r="C329" s="6">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="D329">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E329"/>
+        <v>18789</v>
+      </c>
+      <c r="D329" t="s">
+        <v>7</v>
+      </c>
+      <c r="E329" t="s">
+        <v>6</v>
+      </c>
       <c r="G329" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I329" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J329" s="6">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K329" s="6">
         <f t="shared" si="28"/>
@@ -11355,14 +11432,16 @@
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="10"/>
-      <c r="B330" s="6"/>
+      <c r="B330" s="6">
+        <v>18789</v>
+      </c>
       <c r="C330" s="6">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="D330">
+      <c r="D330" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>Duwboot 20, Houten</v>
       </c>
       <c r="E330"/>
       <c r="G330" s="4" t="s">
@@ -11370,11 +11449,11 @@
       </c>
       <c r="I330" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>-18789</v>
       </c>
       <c r="J330" s="6">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>-18789</v>
       </c>
       <c r="K330" s="6">
         <f t="shared" si="28"/>

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60AE245-D941-4934-82C1-444D838E24B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F12F7BF-91BC-409A-B2F6-CB4EBECBF407}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4425" yWindow="-21720" windowWidth="38640" windowHeight="21390" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Kilometers" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$501</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Kilometers!$A$1:$K$501</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="47">
   <si>
     <t>Datum</t>
   </si>
@@ -203,6 +203,15 @@
   <si>
     <t>Koedijk 1, Houten</t>
   </si>
+  <si>
+    <t>De Noorderlaaik 8, 1511 BX, Landsmeer</t>
+  </si>
+  <si>
+    <t>Privé cumulatief 2018</t>
+  </si>
+  <si>
+    <t>Privé cumulatief 2019</t>
+  </si>
 </sst>
 </file>
 
@@ -260,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -296,6 +305,12 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
-  <dimension ref="A1:K547"/>
+  <dimension ref="A1:L547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
-      <selection activeCell="E329" sqref="E329"/>
+    <sheetView tabSelected="1" topLeftCell="A315" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L347" sqref="L347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,10 +639,11 @@
     <col min="6" max="6" width="32.140625" style="7" customWidth="1"/>
     <col min="7" max="9" width="32.140625" style="4" customWidth="1"/>
     <col min="10" max="11" width="27.28515625" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="4"/>
+    <col min="12" max="12" width="25.5703125" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -661,8 +677,9 @@
       <c r="K1" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="17"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>43287</v>
       </c>
@@ -695,7 +712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6">
         <v>10</v>
@@ -727,7 +744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>43290</v>
       </c>
@@ -761,7 +778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6">
         <v>146</v>
@@ -793,7 +810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>43291</v>
       </c>
@@ -827,7 +844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="6">
         <v>281</v>
@@ -859,7 +876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>43293</v>
       </c>
@@ -893,7 +910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="6">
         <v>416</v>
@@ -925,7 +942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>43297</v>
       </c>
@@ -959,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <v>499</v>
@@ -991,7 +1008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>43299</v>
       </c>
@@ -1025,7 +1042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6">
         <v>532</v>
@@ -1057,7 +1074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>43301</v>
       </c>
@@ -1091,7 +1108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="6">
         <v>616</v>
@@ -1123,7 +1140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>43304</v>
       </c>
@@ -4848,7 +4865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="14">
         <v>43439</v>
       </c>
@@ -4882,7 +4899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="14"/>
       <c r="B130" s="6">
         <v>7195</v>
@@ -4914,7 +4931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="14"/>
       <c r="B131" s="6">
         <v>7214</v>
@@ -4946,7 +4963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="14"/>
       <c r="B132" s="6">
         <v>7232</v>
@@ -4978,7 +4995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="14">
         <v>43440</v>
       </c>
@@ -5012,7 +5029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="14"/>
       <c r="B134" s="6">
         <v>7368</v>
@@ -5044,7 +5061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="14">
         <v>43445</v>
       </c>
@@ -5078,7 +5095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="14"/>
       <c r="B136" s="6">
         <v>7503</v>
@@ -5110,7 +5127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="14">
         <v>43448</v>
       </c>
@@ -5144,7 +5161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="14"/>
       <c r="B138" s="9">
         <v>7638</v>
@@ -5176,7 +5193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="14">
         <v>43454</v>
       </c>
@@ -5210,7 +5227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="14"/>
       <c r="B140" s="6">
         <v>7773</v>
@@ -5242,7 +5259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="14">
         <v>43459</v>
       </c>
@@ -5276,7 +5293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="14"/>
       <c r="B142" s="6">
         <v>7849</v>
@@ -5308,7 +5325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="14"/>
       <c r="B143" s="6">
         <v>7856</v>
@@ -5340,7 +5357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="14"/>
       <c r="B144" s="6">
         <v>7863</v>
@@ -5371,8 +5388,11 @@
         <f t="shared" si="15"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L144" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="14">
         <v>43465</v>
       </c>
@@ -5405,8 +5425,12 @@
         <f t="shared" si="15"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L145" s="4">
+        <f>SUM(K2:K145)</f>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="14">
         <v>43466</v>
       </c>
@@ -5440,7 +5464,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="14">
         <v>43467</v>
       </c>
@@ -5473,7 +5497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="14"/>
       <c r="B148" s="6">
         <v>7963</v>
@@ -5506,7 +5530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="14">
         <v>43468</v>
       </c>
@@ -5540,7 +5564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="14"/>
       <c r="B150" s="6">
         <v>8098</v>
@@ -5572,7 +5596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="14">
         <v>43472</v>
       </c>
@@ -5606,7 +5630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="14"/>
       <c r="B152" s="6">
         <v>8233</v>
@@ -5638,7 +5662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="14">
         <v>43473</v>
       </c>
@@ -5672,7 +5696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="14"/>
       <c r="B154" s="6">
         <v>8368</v>
@@ -5703,7 +5727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="14">
         <v>43475</v>
       </c>
@@ -5736,7 +5760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="14"/>
       <c r="B156" s="6">
         <v>8504</v>
@@ -5767,7 +5791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="14">
         <v>43476</v>
       </c>
@@ -5801,7 +5825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="14"/>
       <c r="B158" s="6">
         <v>8639</v>
@@ -5833,7 +5857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="14">
         <v>43477</v>
       </c>
@@ -5867,7 +5891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B160" s="6">
         <v>8710</v>
       </c>
@@ -9608,7 +9632,7 @@
         <v>7</v>
       </c>
       <c r="G274" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I274" s="9">
         <f t="shared" si="24"/>
@@ -9616,11 +9640,11 @@
       </c>
       <c r="J274" s="9">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K274" s="9">
         <f t="shared" si="23"/>
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
@@ -11437,23 +11461,25 @@
       </c>
       <c r="C330" s="6">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>18857</v>
       </c>
       <c r="D330" t="str">
         <f t="shared" si="31"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E330"/>
+      <c r="E330" t="s">
+        <v>7</v>
+      </c>
       <c r="G330" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I330" s="9">
         <f t="shared" si="29"/>
-        <v>-18789</v>
+        <v>68</v>
       </c>
       <c r="J330" s="6">
         <f t="shared" si="27"/>
-        <v>-18789</v>
+        <v>68</v>
       </c>
       <c r="K330" s="6">
         <f t="shared" si="28"/>
@@ -11461,27 +11487,33 @@
       </c>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A331" s="10"/>
-      <c r="B331" s="6"/>
+      <c r="A331" s="10">
+        <v>43658</v>
+      </c>
+      <c r="B331" s="6">
+        <v>18857</v>
+      </c>
       <c r="C331" s="6">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="D331">
+        <v>18924</v>
+      </c>
+      <c r="D331" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E331"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E331" t="s">
+        <v>6</v>
+      </c>
       <c r="G331" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I331" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J331" s="6">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K331" s="6">
         <f t="shared" si="28"/>
@@ -11490,26 +11522,30 @@
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="10"/>
-      <c r="B332" s="6"/>
+      <c r="B332" s="6">
+        <v>18924</v>
+      </c>
       <c r="C332" s="6">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="D332">
+        <v>18992</v>
+      </c>
+      <c r="D332" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E332"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E332" t="s">
+        <v>7</v>
+      </c>
       <c r="G332" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I332" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J332" s="6">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K332" s="6">
         <f t="shared" si="28"/>
@@ -11517,164 +11553,193 @@
       </c>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A333" s="10"/>
-      <c r="B333" s="6"/>
+      <c r="A333" s="10">
+        <v>43662</v>
+      </c>
+      <c r="B333" s="6">
+        <v>18992</v>
+      </c>
       <c r="C333" s="6">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="D333">
+        <v>19059</v>
+      </c>
+      <c r="D333" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E333"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E333" t="s">
+        <v>6</v>
+      </c>
       <c r="G333" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I333" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="J333" s="9">
+        <v>67</v>
+      </c>
+      <c r="J333" s="6">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="K333" s="9">
+        <v>67</v>
+      </c>
+      <c r="K333" s="6">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="10"/>
-      <c r="B334" s="6"/>
+      <c r="B334" s="6">
+        <v>19059</v>
+      </c>
       <c r="C334" s="6">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="D334">
+        <v>19127</v>
+      </c>
+      <c r="D334" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E334"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E334" t="s">
+        <v>7</v>
+      </c>
       <c r="G334" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I334" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="J334" s="9">
+        <v>68</v>
+      </c>
+      <c r="J334" s="6">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="K334" s="9">
+        <v>68</v>
+      </c>
+      <c r="K334" s="6">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A335" s="10"/>
-      <c r="B335" s="6"/>
+      <c r="A335" s="10">
+        <v>43633</v>
+      </c>
+      <c r="B335" s="6">
+        <v>19127</v>
+      </c>
       <c r="C335" s="6">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="D335">
+        <v>19195</v>
+      </c>
+      <c r="D335" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E335"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E335" t="s">
+        <v>6</v>
+      </c>
       <c r="G335" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I335" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="J335" s="9">
+        <v>68</v>
+      </c>
+      <c r="J335" s="6">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="K335" s="9">
+        <v>68</v>
+      </c>
+      <c r="K335" s="6">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="10"/>
-      <c r="B336" s="6"/>
+      <c r="B336" s="6">
+        <v>19195</v>
+      </c>
       <c r="C336" s="6">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="D336">
+        <v>19262</v>
+      </c>
+      <c r="D336" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E336"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E336" t="s">
+        <v>7</v>
+      </c>
       <c r="F336"/>
       <c r="G336" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I336" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="J336" s="9">
-        <f>IF(AND(G336 = "Zakelijk", F336 = ""), I336, IF(AND(G336 = "Zakelijk", NOT(F336 = "")), I336 - F336, 0))</f>
-        <v>0</v>
-      </c>
-      <c r="K336" s="9">
-        <f>IF(AND(G336 = "Zakelijk", NOT(F336 = "")), F336, IF(G336 = "Privé", I336, 0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A337" s="6"/>
-      <c r="B337" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="J336" s="6">
+        <f t="shared" si="27"/>
+        <v>67</v>
+      </c>
+      <c r="K336" s="6">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A337" s="10">
+        <v>43664</v>
+      </c>
+      <c r="B337" s="6">
+        <v>19262</v>
+      </c>
       <c r="C337" s="6">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="D337">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E337"/>
+        <v>19270</v>
+      </c>
+      <c r="D337" t="s">
+        <v>7</v>
+      </c>
+      <c r="E337" t="s">
+        <v>44</v>
+      </c>
       <c r="G337" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I337" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="J337" s="9">
+        <v>8</v>
+      </c>
+      <c r="J337" s="6">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="K337" s="9">
+      <c r="K337" s="6">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338" s="6"/>
-      <c r="B338" s="6"/>
+      <c r="B338" s="6">
+        <v>19270</v>
+      </c>
       <c r="C338" s="6">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="D338">
+        <v>19279</v>
+      </c>
+      <c r="D338" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E338"/>
+        <v>De Noorderlaaik 8, 1511 BX, Landsmeer</v>
+      </c>
+      <c r="E338" t="s">
+        <v>7</v>
+      </c>
       <c r="G338" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I338" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J338" s="6">
         <f t="shared" si="27"/>
@@ -11682,243 +11747,285 @@
       </c>
       <c r="K338" s="6">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A339" s="6"/>
-      <c r="B339" s="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A339" s="10">
+        <v>43668</v>
+      </c>
+      <c r="B339" s="6">
+        <v>19279</v>
+      </c>
       <c r="C339" s="6">
         <f t="shared" ref="C339:C346" si="32">B340</f>
-        <v>0</v>
-      </c>
-      <c r="D339">
+        <v>19347</v>
+      </c>
+      <c r="D339" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E339"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E339" t="s">
+        <v>6</v>
+      </c>
       <c r="G339" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I339" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J339" s="6">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K339" s="6">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340" s="6"/>
-      <c r="B340" s="6"/>
+      <c r="B340" s="6">
+        <v>19347</v>
+      </c>
       <c r="C340" s="6">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="D340">
+        <v>19415</v>
+      </c>
+      <c r="D340" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E340"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E340" t="s">
+        <v>7</v>
+      </c>
       <c r="G340" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I340" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J340" s="6">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K340" s="6">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A341" s="6"/>
-      <c r="B341" s="6"/>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A341" s="10">
+        <v>43669</v>
+      </c>
+      <c r="B341" s="6">
+        <v>19415</v>
+      </c>
       <c r="C341" s="6">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="D341">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E341"/>
+        <v>19482</v>
+      </c>
+      <c r="D341" t="s">
+        <v>7</v>
+      </c>
+      <c r="E341" t="s">
+        <v>6</v>
+      </c>
       <c r="G341" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I341" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J341" s="6">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K341" s="6">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342" s="6"/>
-      <c r="B342" s="6"/>
+      <c r="B342" s="6">
+        <v>19482</v>
+      </c>
       <c r="C342" s="6">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="D342">
+        <v>19550</v>
+      </c>
+      <c r="D342" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E342"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E342" t="s">
+        <v>7</v>
+      </c>
       <c r="G342" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I342" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="J342" s="9">
+        <v>68</v>
+      </c>
+      <c r="J342" s="6">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="K342" s="9">
+        <v>68</v>
+      </c>
+      <c r="K342" s="6">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A343" s="6"/>
-      <c r="B343" s="6"/>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A343" s="10">
+        <v>43609</v>
+      </c>
+      <c r="B343" s="6">
+        <v>19550</v>
+      </c>
       <c r="C343" s="6">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="D343">
+        <v>19617</v>
+      </c>
+      <c r="D343" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E343"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E343" t="s">
+        <v>6</v>
+      </c>
       <c r="G343" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I343" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="J343" s="9">
+        <v>67</v>
+      </c>
+      <c r="J343" s="6">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="K343" s="9">
+        <v>67</v>
+      </c>
+      <c r="K343" s="6">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344" s="6"/>
-      <c r="B344" s="6"/>
+      <c r="B344" s="6">
+        <v>19617</v>
+      </c>
       <c r="C344" s="6">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="D344">
+        <v>19685</v>
+      </c>
+      <c r="D344" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E344"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E344" t="s">
+        <v>7</v>
+      </c>
       <c r="G344" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I344" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="J344" s="9">
+        <v>68</v>
+      </c>
+      <c r="J344" s="6">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="K344" s="9">
+        <v>68</v>
+      </c>
+      <c r="K344" s="6">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A345" s="6"/>
-      <c r="B345" s="6"/>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A345" s="10">
+        <v>43610</v>
+      </c>
+      <c r="B345" s="6">
+        <v>19685</v>
+      </c>
       <c r="C345" s="6">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="D345">
+        <v>19752</v>
+      </c>
+      <c r="D345" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E345"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E345" t="s">
+        <v>6</v>
+      </c>
       <c r="G345" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I345" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="J345" s="9">
+        <v>67</v>
+      </c>
+      <c r="J345" s="6">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="K345" s="9">
+        <v>67</v>
+      </c>
+      <c r="K345" s="6">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346" s="6"/>
-      <c r="B346" s="6"/>
+      <c r="B346" s="6">
+        <v>19752</v>
+      </c>
       <c r="C346" s="6">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="D346">
+      <c r="D346" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E346"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E346" t="s">
+        <v>7</v>
+      </c>
       <c r="G346" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I346" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="J346" s="9">
+        <v>-19752</v>
+      </c>
+      <c r="J346" s="6">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>-19752</v>
       </c>
       <c r="K346" s="9">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L346" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347" s="6"/>
       <c r="B347" s="6"/>
       <c r="C347" s="6">
         <f t="shared" ref="C347:C410" si="33">B348</f>
         <v>0</v>
       </c>
-      <c r="D347">
+      <c r="D347" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E347"/>
       <c r="G347" s="4" t="s">
@@ -11936,8 +12043,12 @@
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L347" s="4">
+        <f>SUM(K146:K346)</f>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348" s="6"/>
       <c r="B348" s="6"/>
       <c r="C348" s="6">
@@ -11965,7 +12076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349" s="6"/>
       <c r="B349" s="6"/>
       <c r="C349" s="6">
@@ -11993,7 +12104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350" s="6"/>
       <c r="B350" s="6"/>
       <c r="C350" s="6">
@@ -12021,7 +12132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351" s="6"/>
       <c r="B351" s="6"/>
       <c r="C351" s="6">
@@ -12040,7 +12151,7 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J351" s="9">
+      <c r="J351" s="6">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
@@ -12049,7 +12160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352" s="6"/>
       <c r="B352" s="6"/>
       <c r="C352" s="6">
@@ -12068,7 +12179,7 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J352" s="9">
+      <c r="J352" s="6">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
@@ -12096,7 +12207,7 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J353" s="9">
+      <c r="J353" s="6">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
@@ -12124,7 +12235,7 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J354" s="9">
+      <c r="J354" s="6">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
@@ -12152,7 +12263,7 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J355" s="9">
+      <c r="J355" s="6">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
@@ -12292,7 +12403,7 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J360" s="9">
+      <c r="J360" s="6">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
@@ -12320,7 +12431,7 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J361" s="9">
+      <c r="J361" s="6">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
@@ -12348,7 +12459,7 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J362" s="9">
+      <c r="J362" s="6">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
@@ -12376,7 +12487,7 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J363" s="9">
+      <c r="J363" s="6">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
@@ -12404,7 +12515,7 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J364" s="9">
+      <c r="J364" s="6">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
@@ -12544,7 +12655,7 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J369" s="9">
+      <c r="J369" s="6">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
@@ -12572,7 +12683,7 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J370" s="9">
+      <c r="J370" s="6">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
@@ -12600,7 +12711,7 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J371" s="9">
+      <c r="J371" s="6">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
@@ -12628,7 +12739,7 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J372" s="9">
+      <c r="J372" s="6">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
@@ -12656,7 +12767,7 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J373" s="9">
+      <c r="J373" s="6">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
@@ -12796,7 +12907,7 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J378" s="9">
+      <c r="J378" s="6">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
@@ -12824,7 +12935,7 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J379" s="9">
+      <c r="J379" s="6">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
@@ -12852,7 +12963,7 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J380" s="9">
+      <c r="J380" s="6">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
@@ -12880,7 +12991,7 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J381" s="9">
+      <c r="J381" s="6">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
@@ -12908,7 +13019,7 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="J382" s="9">
+      <c r="J382" s="6">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
@@ -13048,7 +13159,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J387" s="9">
+      <c r="J387" s="6">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
@@ -13076,7 +13187,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J388" s="9">
+      <c r="J388" s="6">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
@@ -13104,7 +13215,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J389" s="9">
+      <c r="J389" s="6">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
@@ -13132,7 +13243,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J390" s="9">
+      <c r="J390" s="6">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
@@ -13160,7 +13271,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J391" s="9">
+      <c r="J391" s="6">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
@@ -13300,7 +13411,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J396" s="9">
+      <c r="J396" s="6">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
@@ -13328,7 +13439,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J397" s="9">
+      <c r="J397" s="6">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
@@ -13356,7 +13467,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J398" s="9">
+      <c r="J398" s="6">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
@@ -13384,7 +13495,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J399" s="9">
+      <c r="J399" s="6">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
@@ -13412,7 +13523,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J400" s="9">
+      <c r="J400" s="6">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
@@ -13552,7 +13663,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J405" s="9">
+      <c r="J405" s="6">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
@@ -13580,7 +13691,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J406" s="9">
+      <c r="J406" s="6">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
@@ -13608,7 +13719,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J407" s="9">
+      <c r="J407" s="6">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
@@ -13636,7 +13747,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J408" s="9">
+      <c r="J408" s="6">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
@@ -13664,7 +13775,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J409" s="9">
+      <c r="J409" s="6">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
@@ -13804,7 +13915,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J414" s="9">
+      <c r="J414" s="6">
         <f t="shared" ref="J414:J477" si="39">IF(AND(G414 = "Zakelijk", H414 = ""), I414, IF(AND(G414 = "Zakelijk", NOT(H414 = "")), I414 - H414, 0))</f>
         <v>0</v>
       </c>
@@ -13832,7 +13943,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J415" s="9">
+      <c r="J415" s="6">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -13860,7 +13971,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J416" s="9">
+      <c r="J416" s="6">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -13888,7 +13999,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J417" s="9">
+      <c r="J417" s="6">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -13916,7 +14027,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J418" s="9">
+      <c r="J418" s="6">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -14056,7 +14167,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J423" s="9">
+      <c r="J423" s="6">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -14084,7 +14195,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J424" s="9">
+      <c r="J424" s="6">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -14112,7 +14223,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J425" s="9">
+      <c r="J425" s="6">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -14140,7 +14251,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J426" s="9">
+      <c r="J426" s="6">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -14168,7 +14279,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J427" s="9">
+      <c r="J427" s="6">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -14308,7 +14419,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J432" s="9">
+      <c r="J432" s="6">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -14336,7 +14447,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J433" s="9">
+      <c r="J433" s="6">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -14364,7 +14475,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J434" s="9">
+      <c r="J434" s="6">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -14392,7 +14503,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J435" s="9">
+      <c r="J435" s="6">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -14420,7 +14531,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J436" s="9">
+      <c r="J436" s="6">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -14560,7 +14671,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J441" s="9">
+      <c r="J441" s="6">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -14588,7 +14699,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J442" s="9">
+      <c r="J442" s="6">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -14616,7 +14727,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J443" s="9">
+      <c r="J443" s="6">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -14644,7 +14755,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J444" s="9">
+      <c r="J444" s="6">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -14672,7 +14783,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="J445" s="9">
+      <c r="J445" s="6">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -14812,7 +14923,7 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J450" s="9">
+      <c r="J450" s="6">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -14840,7 +14951,7 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J451" s="9">
+      <c r="J451" s="6">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -14868,7 +14979,7 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J452" s="9">
+      <c r="J452" s="6">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -14896,7 +15007,7 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J453" s="9">
+      <c r="J453" s="6">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -14924,7 +15035,7 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J454" s="9">
+      <c r="J454" s="6">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -15064,7 +15175,7 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J459" s="9">
+      <c r="J459" s="6">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -15092,7 +15203,7 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J460" s="9">
+      <c r="J460" s="6">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -15120,7 +15231,7 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J461" s="9">
+      <c r="J461" s="6">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -15148,7 +15259,7 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J462" s="9">
+      <c r="J462" s="6">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -15176,7 +15287,7 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J463" s="9">
+      <c r="J463" s="6">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -15316,7 +15427,7 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J468" s="9">
+      <c r="J468" s="6">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -15344,7 +15455,7 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J469" s="9">
+      <c r="J469" s="6">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -15372,7 +15483,7 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J470" s="9">
+      <c r="J470" s="6">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -15400,7 +15511,7 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J471" s="9">
+      <c r="J471" s="6">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -15428,7 +15539,7 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J472" s="9">
+      <c r="J472" s="6">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -15568,7 +15679,7 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J477" s="9">
+      <c r="J477" s="6">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -15596,8 +15707,8 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J478" s="9">
-        <f t="shared" ref="J478:J541" si="44">IF(AND(G478 = "Zakelijk", H478 = ""), I478, IF(AND(G478 = "Zakelijk", NOT(H478 = "")), I478 - H478, 0))</f>
+      <c r="J478" s="6">
+        <f t="shared" ref="J478:J533" si="44">IF(AND(G478 = "Zakelijk", H478 = ""), I478, IF(AND(G478 = "Zakelijk", NOT(H478 = "")), I478 - H478, 0))</f>
         <v>0</v>
       </c>
       <c r="K478" s="9">
@@ -15624,7 +15735,7 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J479" s="9">
+      <c r="J479" s="6">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
@@ -15652,7 +15763,7 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J480" s="9">
+      <c r="J480" s="6">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
@@ -15680,7 +15791,7 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J481" s="9">
+      <c r="J481" s="6">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
@@ -15812,7 +15923,7 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J486" s="9">
+      <c r="J486" s="6">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
@@ -15832,7 +15943,7 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J487" s="9">
+      <c r="J487" s="6">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
@@ -15852,7 +15963,7 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J488" s="9">
+      <c r="J488" s="6">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
@@ -15872,7 +15983,7 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J489" s="9">
+      <c r="J489" s="6">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
@@ -15892,7 +16003,7 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J490" s="9">
+      <c r="J490" s="6">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
@@ -15992,7 +16103,7 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J495" s="9">
+      <c r="J495" s="6">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
@@ -16012,7 +16123,7 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J496" s="9">
+      <c r="J496" s="6">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
@@ -16032,7 +16143,7 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J497" s="9">
+      <c r="J497" s="6">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
@@ -16052,7 +16163,7 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J498" s="9">
+      <c r="J498" s="6">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
@@ -16072,7 +16183,7 @@
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="J499" s="9">
+      <c r="J499" s="6">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
@@ -16773,7 +16884,7 @@
         <v>0</v>
       </c>
       <c r="J534" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="J478:J541" si="47">IF(AND(G534 = "Zakelijk", H534 = ""), I534, IF(AND(G534 = "Zakelijk", NOT(H534 = "")), I534 - H534, 0))</f>
         <v>0</v>
       </c>
       <c r="K534" s="6">
@@ -16793,7 +16904,7 @@
         <v>0</v>
       </c>
       <c r="J535" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="K535" s="6">
@@ -16813,7 +16924,7 @@
         <v>0</v>
       </c>
       <c r="J536" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="K536" s="6">
@@ -16833,7 +16944,7 @@
         <v>0</v>
       </c>
       <c r="J537" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="K537" s="6">
@@ -16853,7 +16964,7 @@
         <v>0</v>
       </c>
       <c r="J538" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="K538" s="6">
@@ -16873,7 +16984,7 @@
         <v>0</v>
       </c>
       <c r="J539" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="K539" s="6">
@@ -16893,7 +17004,7 @@
         <v>0</v>
       </c>
       <c r="J540" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="K540" s="6">
@@ -16913,7 +17024,7 @@
         <v>0</v>
       </c>
       <c r="J541" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="K541" s="6">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F12F7BF-91BC-409A-B2F6-CB4EBECBF407}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2463B85-050E-4C35-B8E9-9EE53E551F7F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="49">
   <si>
     <t>Datum</t>
   </si>
@@ -212,12 +212,29 @@
   <si>
     <t>Privé cumulatief 2019</t>
   </si>
+  <si>
+    <t xml:space="preserve">1511  BX, Landsmeer </t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Kleine Tocht 19, 1507 CB Zaandam</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +265,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -269,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -311,6 +341,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:L547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A315" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L347" sqref="L347"/>
+    <sheetView tabSelected="1" topLeftCell="A328" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A365" sqref="A365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9728,7 +9759,7 @@
         <v>7</v>
       </c>
       <c r="G277" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I277" s="9">
         <f t="shared" si="24"/>
@@ -9736,11 +9767,11 @@
       </c>
       <c r="J277" s="6">
         <f t="shared" si="22"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K277" s="6">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
@@ -11883,7 +11914,7 @@
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343" s="10">
-        <v>43609</v>
+        <v>43670</v>
       </c>
       <c r="B343" s="6">
         <v>19550</v>
@@ -11949,7 +11980,7 @@
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345" s="10">
-        <v>43610</v>
+        <v>43671</v>
       </c>
       <c r="B345" s="6">
         <v>19685</v>
@@ -11988,7 +12019,7 @@
       </c>
       <c r="C346" s="6">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>19820</v>
       </c>
       <c r="D346" t="str">
         <f t="shared" si="31"/>
@@ -12002,11 +12033,11 @@
       </c>
       <c r="I346" s="9">
         <f t="shared" si="29"/>
-        <v>-19752</v>
+        <v>68</v>
       </c>
       <c r="J346" s="6">
         <f t="shared" si="27"/>
-        <v>-19752</v>
+        <v>68</v>
       </c>
       <c r="K346" s="9">
         <f t="shared" si="28"/>
@@ -12017,23 +12048,29 @@
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A347" s="6"/>
-      <c r="B347" s="6"/>
+      <c r="A347" s="10">
+        <v>43671</v>
+      </c>
+      <c r="B347" s="6">
+        <v>19820</v>
+      </c>
       <c r="C347" s="6">
         <f t="shared" ref="C347:C410" si="33">B348</f>
-        <v>0</v>
+        <v>19826</v>
       </c>
       <c r="D347" t="str">
         <f t="shared" si="31"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E347"/>
+      <c r="E347" t="s">
+        <v>47</v>
+      </c>
       <c r="G347" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I347" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J347" s="6">
         <f t="shared" si="27"/>
@@ -12041,31 +12078,35 @@
       </c>
       <c r="K347" s="6">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L347" s="4">
-        <f>SUM(K146:K346)</f>
-        <v>229</v>
+        <f>SUM(K146:K400)</f>
+        <v>276</v>
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348" s="6"/>
-      <c r="B348" s="6"/>
+      <c r="B348" s="6">
+        <v>19826</v>
+      </c>
       <c r="C348" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D348">
+        <v>19833</v>
+      </c>
+      <c r="D348" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E348"/>
+        <v xml:space="preserve">1511  BX, Landsmeer </v>
+      </c>
+      <c r="E348" t="s">
+        <v>7</v>
+      </c>
       <c r="G348" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I348" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J348" s="6">
         <f t="shared" si="27"/>
@@ -12073,31 +12114,37 @@
       </c>
       <c r="K348" s="6">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A349" s="6"/>
-      <c r="B349" s="6"/>
+      <c r="A349" s="10">
+        <v>43675</v>
+      </c>
+      <c r="B349" s="6">
+        <v>19833</v>
+      </c>
       <c r="C349" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D349">
+        <v>19900</v>
+      </c>
+      <c r="D349" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E349"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E349" t="s">
+        <v>6</v>
+      </c>
       <c r="G349" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I349" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J349" s="6">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K349" s="6">
         <f t="shared" si="28"/>
@@ -12106,26 +12153,30 @@
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350" s="6"/>
-      <c r="B350" s="6"/>
+      <c r="B350" s="6">
+        <v>19900</v>
+      </c>
       <c r="C350" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D350">
+        <v>19968</v>
+      </c>
+      <c r="D350" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E350"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E350" t="s">
+        <v>7</v>
+      </c>
       <c r="G350" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I350" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J350" s="6">
         <f t="shared" ref="J350:J413" si="34">IF(AND(G350 = "Zakelijk", H350 = ""), I350, IF(AND(G350 = "Zakelijk", NOT(H350 = "")), I350 - H350, 0))</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K350" s="6">
         <f t="shared" ref="K350:K413" si="35">IF(AND(G350 = "Zakelijk", NOT(H350 = "")), H350, IF(G350 = "Privé", I350, 0))</f>
@@ -12133,27 +12184,33 @@
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A351" s="6"/>
-      <c r="B351" s="6"/>
+      <c r="A351" s="10">
+        <v>43677</v>
+      </c>
+      <c r="B351" s="6">
+        <v>19968</v>
+      </c>
       <c r="C351" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D351">
+        <v>20035</v>
+      </c>
+      <c r="D351" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E351"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E351" t="s">
+        <v>6</v>
+      </c>
       <c r="G351" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I351" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J351" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K351" s="9">
         <f t="shared" si="35"/>
@@ -12162,26 +12219,30 @@
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352" s="6"/>
-      <c r="B352" s="6"/>
+      <c r="B352" s="6">
+        <v>20035</v>
+      </c>
       <c r="C352" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D352">
+        <v>20103</v>
+      </c>
+      <c r="D352" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E352"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E352" t="s">
+        <v>7</v>
+      </c>
       <c r="G352" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I352" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J352" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K352" s="9">
         <f t="shared" si="35"/>
@@ -12189,27 +12250,33 @@
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A353" s="6"/>
-      <c r="B353" s="6"/>
+      <c r="A353" s="10">
+        <v>43678</v>
+      </c>
+      <c r="B353" s="6">
+        <v>20103</v>
+      </c>
       <c r="C353" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D353">
+        <v>20170</v>
+      </c>
+      <c r="D353" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E353"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E353" t="s">
+        <v>6</v>
+      </c>
       <c r="G353" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I353" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J353" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K353" s="9">
         <f t="shared" si="35"/>
@@ -12218,26 +12285,30 @@
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="6"/>
-      <c r="B354" s="6"/>
+      <c r="B354" s="6">
+        <v>20170</v>
+      </c>
       <c r="C354" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D354">
+        <v>20238</v>
+      </c>
+      <c r="D354" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E354"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E354" t="s">
+        <v>7</v>
+      </c>
       <c r="G354" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I354" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J354" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K354" s="9">
         <f t="shared" si="35"/>
@@ -12245,23 +12316,28 @@
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A355" s="6"/>
-      <c r="B355" s="6"/>
+      <c r="A355" s="10">
+        <v>43689</v>
+      </c>
+      <c r="B355" s="6">
+        <v>20238</v>
+      </c>
       <c r="C355" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D355">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E355"/>
+        <v>20243</v>
+      </c>
+      <c r="D355" t="s">
+        <v>7</v>
+      </c>
+      <c r="E355" s="19" t="s">
+        <v>48</v>
+      </c>
       <c r="G355" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I355" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J355" s="6">
         <f t="shared" si="34"/>
@@ -12269,27 +12345,31 @@
       </c>
       <c r="K355" s="9">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A356" s="6"/>
-      <c r="B356" s="6"/>
+      <c r="A356" s="10"/>
+      <c r="B356" s="6">
+        <v>20243</v>
+      </c>
       <c r="C356" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D356">
+        <v>20248</v>
+      </c>
+      <c r="D356" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E356"/>
+        <v> Kleine Tocht 19, 1507 CB Zaandam</v>
+      </c>
+      <c r="E356" t="s">
+        <v>7</v>
+      </c>
       <c r="G356" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I356" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J356" s="6">
         <f t="shared" si="34"/>
@@ -12297,27 +12377,33 @@
       </c>
       <c r="K356" s="6">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A357" s="6"/>
-      <c r="B357" s="6"/>
+      <c r="A357" s="10">
+        <v>43692</v>
+      </c>
+      <c r="B357" s="6">
+        <v>20248</v>
+      </c>
       <c r="C357" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D357">
+        <v>20256</v>
+      </c>
+      <c r="D357" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E357"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E357" t="s">
+        <v>39</v>
+      </c>
       <c r="G357" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I357" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J357" s="6">
         <f t="shared" si="34"/>
@@ -12325,27 +12411,31 @@
       </c>
       <c r="K357" s="6">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A358" s="6"/>
-      <c r="B358" s="6"/>
+      <c r="A358" s="10"/>
+      <c r="B358" s="6">
+        <v>20256</v>
+      </c>
       <c r="C358" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D358">
+        <v>20264</v>
+      </c>
+      <c r="D358" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E358"/>
+        <v>Dizze Gillespiestraat 10, Zaandijk</v>
+      </c>
+      <c r="E358" t="s">
+        <v>7</v>
+      </c>
       <c r="G358" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I358" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J358" s="6">
         <f t="shared" si="34"/>
@@ -12353,31 +12443,37 @@
       </c>
       <c r="K358" s="6">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A359" s="6"/>
-      <c r="B359" s="6"/>
+      <c r="A359" s="10">
+        <v>43696</v>
+      </c>
+      <c r="B359" s="6">
+        <v>20264</v>
+      </c>
       <c r="C359" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D359">
+        <v>20332</v>
+      </c>
+      <c r="D359" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E359"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E359" t="s">
+        <v>6</v>
+      </c>
       <c r="G359" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I359" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J359" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K359" s="6">
         <f t="shared" si="35"/>
@@ -12385,27 +12481,31 @@
       </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A360" s="6"/>
-      <c r="B360" s="6"/>
+      <c r="A360" s="10"/>
+      <c r="B360" s="6">
+        <v>20332</v>
+      </c>
       <c r="C360" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D360">
+        <v>20400</v>
+      </c>
+      <c r="D360" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E360"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E360" t="s">
+        <v>7</v>
+      </c>
       <c r="G360" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I360" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J360" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K360" s="9">
         <f t="shared" si="35"/>
@@ -12413,27 +12513,33 @@
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A361" s="6"/>
-      <c r="B361" s="6"/>
+      <c r="A361" s="10">
+        <v>43697</v>
+      </c>
+      <c r="B361" s="6">
+        <v>20400</v>
+      </c>
       <c r="C361" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D361">
+        <v>20467</v>
+      </c>
+      <c r="D361" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E361"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E361" t="s">
+        <v>6</v>
+      </c>
       <c r="G361" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I361" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J361" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K361" s="9">
         <f t="shared" si="35"/>
@@ -12441,27 +12547,31 @@
       </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A362" s="6"/>
-      <c r="B362" s="6"/>
+      <c r="A362" s="10"/>
+      <c r="B362" s="6">
+        <v>20467</v>
+      </c>
       <c r="C362" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D362">
+        <v>20535</v>
+      </c>
+      <c r="D362" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E362"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E362" t="s">
+        <v>7</v>
+      </c>
       <c r="G362" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I362" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J362" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K362" s="9">
         <f t="shared" si="35"/>
@@ -12469,27 +12579,33 @@
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A363" s="6"/>
-      <c r="B363" s="6"/>
+      <c r="A363" s="10">
+        <v>43698</v>
+      </c>
+      <c r="B363" s="6">
+        <v>20535</v>
+      </c>
       <c r="C363" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D363">
+        <v>20602</v>
+      </c>
+      <c r="D363" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E363"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E363" t="s">
+        <v>6</v>
+      </c>
       <c r="G363" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I363" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J363" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K363" s="9">
         <f t="shared" si="35"/>
@@ -12498,26 +12614,30 @@
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="6"/>
-      <c r="B364" s="6"/>
+      <c r="B364" s="6">
+        <v>20602</v>
+      </c>
       <c r="C364" s="6">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="D364">
+      <c r="D364" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E364"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E364" t="s">
+        <v>7</v>
+      </c>
       <c r="G364" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I364" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>-20602</v>
       </c>
       <c r="J364" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>-20602</v>
       </c>
       <c r="K364" s="9">
         <f t="shared" si="35"/>
@@ -12531,9 +12651,9 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="D365">
+      <c r="D365" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E365"/>
       <c r="G365" s="4" t="s">
@@ -16884,7 +17004,7 @@
         <v>0</v>
       </c>
       <c r="J534" s="6">
-        <f t="shared" ref="J478:J541" si="47">IF(AND(G534 = "Zakelijk", H534 = ""), I534, IF(AND(G534 = "Zakelijk", NOT(H534 = "")), I534 - H534, 0))</f>
+        <f t="shared" ref="J534:J541" si="47">IF(AND(G534 = "Zakelijk", H534 = ""), I534, IF(AND(G534 = "Zakelijk", NOT(H534 = "")), I534 - H534, 0))</f>
         <v>0</v>
       </c>
       <c r="K534" s="6">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2463B85-050E-4C35-B8E9-9EE53E551F7F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AA626F-17DA-4BCD-B70E-D9897DA6049E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="49">
   <si>
     <t>Datum</t>
   </si>
@@ -659,7 +659,7 @@
   <dimension ref="A1:L547"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A328" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A365" sqref="A365"/>
+      <selection activeCell="G358" sqref="G358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12619,7 +12619,7 @@
       </c>
       <c r="C364" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>20670</v>
       </c>
       <c r="D364" t="str">
         <f t="shared" si="31"/>
@@ -12633,11 +12633,11 @@
       </c>
       <c r="I364" s="9">
         <f t="shared" si="29"/>
-        <v>-20602</v>
+        <v>68</v>
       </c>
       <c r="J364" s="6">
         <f t="shared" si="34"/>
-        <v>-20602</v>
+        <v>68</v>
       </c>
       <c r="K364" s="9">
         <f t="shared" si="35"/>
@@ -12645,27 +12645,33 @@
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A365" s="6"/>
-      <c r="B365" s="6"/>
+      <c r="A365" s="10">
+        <v>43699</v>
+      </c>
+      <c r="B365" s="6">
+        <v>20670</v>
+      </c>
       <c r="C365" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>20737</v>
       </c>
       <c r="D365" t="str">
         <f t="shared" si="31"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E365"/>
+      <c r="E365" t="s">
+        <v>6</v>
+      </c>
       <c r="G365" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I365" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J365" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K365" s="6">
         <f t="shared" si="35"/>
@@ -12674,26 +12680,30 @@
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="6"/>
-      <c r="B366" s="6"/>
+      <c r="B366" s="6">
+        <v>20737</v>
+      </c>
       <c r="C366" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D366">
+        <v>20805</v>
+      </c>
+      <c r="D366" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E366"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E366" t="s">
+        <v>7</v>
+      </c>
       <c r="G366" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I366" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J366" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K366" s="6">
         <f t="shared" si="35"/>
@@ -12701,27 +12711,33 @@
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A367" s="6"/>
-      <c r="B367" s="6"/>
+      <c r="A367" s="10">
+        <v>43703</v>
+      </c>
+      <c r="B367" s="6">
+        <v>20805</v>
+      </c>
       <c r="C367" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D367">
+        <v>20873</v>
+      </c>
+      <c r="D367" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E367"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E367" t="s">
+        <v>6</v>
+      </c>
       <c r="G367" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I367" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J367" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K367" s="6">
         <f t="shared" si="35"/>
@@ -12730,26 +12746,30 @@
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="6"/>
-      <c r="B368" s="6"/>
+      <c r="B368" s="6">
+        <v>20873</v>
+      </c>
       <c r="C368" s="6">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="D368">
+      <c r="D368" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E368"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E368" t="s">
+        <v>7</v>
+      </c>
       <c r="G368" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I368" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>-20873</v>
       </c>
       <c r="J368" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>-20873</v>
       </c>
       <c r="K368" s="6">
         <f t="shared" si="35"/>
@@ -12763,9 +12783,9 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="D369">
+      <c r="D369" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E369"/>
       <c r="G369" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AA626F-17DA-4BCD-B70E-D9897DA6049E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00780726-6BD3-4B9C-86A3-11E98F9CE752}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="49">
   <si>
     <t>Datum</t>
   </si>
@@ -659,7 +659,7 @@
   <dimension ref="A1:L547"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A328" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G358" sqref="G358"/>
+      <selection activeCell="H369" sqref="H369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12751,7 +12751,7 @@
       </c>
       <c r="C368" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>20940</v>
       </c>
       <c r="D368" t="str">
         <f t="shared" si="31"/>
@@ -12765,11 +12765,11 @@
       </c>
       <c r="I368" s="9">
         <f t="shared" si="29"/>
-        <v>-20873</v>
+        <v>67</v>
       </c>
       <c r="J368" s="6">
         <f t="shared" si="34"/>
-        <v>-20873</v>
+        <v>67</v>
       </c>
       <c r="K368" s="6">
         <f t="shared" si="35"/>
@@ -12777,27 +12777,33 @@
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A369" s="6"/>
-      <c r="B369" s="6"/>
+      <c r="A369" s="10">
+        <v>43705</v>
+      </c>
+      <c r="B369" s="6">
+        <v>20940</v>
+      </c>
       <c r="C369" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>21008</v>
       </c>
       <c r="D369" t="str">
         <f t="shared" si="31"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E369"/>
+      <c r="E369" t="s">
+        <v>6</v>
+      </c>
       <c r="G369" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I369" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J369" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K369" s="9">
         <f t="shared" si="35"/>
@@ -12806,26 +12812,30 @@
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="6"/>
-      <c r="B370" s="6"/>
+      <c r="B370" s="6">
+        <v>21008</v>
+      </c>
       <c r="C370" s="6">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="D370">
+      <c r="D370" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E370"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E370" t="s">
+        <v>7</v>
+      </c>
       <c r="G370" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I370" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>-21008</v>
       </c>
       <c r="J370" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>-21008</v>
       </c>
       <c r="K370" s="9">
         <f t="shared" si="35"/>
@@ -12839,9 +12849,9 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="D371">
+      <c r="D371" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E371"/>
       <c r="G371" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00780726-6BD3-4B9C-86A3-11E98F9CE752}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16167F3C-9A46-42D3-9233-27270152D60F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="49">
   <si>
     <t>Datum</t>
   </si>
@@ -659,7 +659,7 @@
   <dimension ref="A1:L547"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A328" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H369" sqref="H369"/>
+      <selection activeCell="H372" sqref="H372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12817,7 +12817,7 @@
       </c>
       <c r="C370" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>21075</v>
       </c>
       <c r="D370" t="str">
         <f t="shared" si="31"/>
@@ -12831,11 +12831,11 @@
       </c>
       <c r="I370" s="9">
         <f t="shared" si="29"/>
-        <v>-21008</v>
+        <v>67</v>
       </c>
       <c r="J370" s="6">
         <f t="shared" si="34"/>
-        <v>-21008</v>
+        <v>67</v>
       </c>
       <c r="K370" s="9">
         <f t="shared" si="35"/>
@@ -12843,27 +12843,33 @@
       </c>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A371" s="6"/>
-      <c r="B371" s="6"/>
+      <c r="A371" s="10">
+        <v>43707</v>
+      </c>
+      <c r="B371" s="6">
+        <v>21075</v>
+      </c>
       <c r="C371" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>21143</v>
       </c>
       <c r="D371" t="str">
         <f t="shared" si="31"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E371"/>
+      <c r="E371" t="s">
+        <v>6</v>
+      </c>
       <c r="G371" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I371" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J371" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K371" s="9">
         <f t="shared" si="35"/>
@@ -12872,26 +12878,30 @@
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="6"/>
-      <c r="B372" s="6"/>
+      <c r="B372" s="6">
+        <v>21143</v>
+      </c>
       <c r="C372" s="6">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="D372">
+      <c r="D372" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E372"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E372" t="s">
+        <v>7</v>
+      </c>
       <c r="G372" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I372" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>-21143</v>
       </c>
       <c r="J372" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>-21143</v>
       </c>
       <c r="K372" s="9">
         <f t="shared" si="35"/>
@@ -12905,9 +12915,9 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="D373">
+      <c r="D373" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E373"/>
       <c r="G373" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16167F3C-9A46-42D3-9233-27270152D60F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAD75CD-EEB3-40A8-BB9A-24BB91304251}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="50">
   <si>
     <t>Datum</t>
   </si>
@@ -228,6 +228,9 @@
       </rPr>
       <t>Kleine Tocht 19, 1507 CB Zaandam</t>
     </r>
+  </si>
+  <si>
+    <t>Vivaldiplantsoen 100, Utrecht</t>
   </si>
 </sst>
 </file>
@@ -658,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:L547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H372" sqref="H372"/>
+    <sheetView tabSelected="1" topLeftCell="A335" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J380" sqref="J380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12883,7 +12886,7 @@
       </c>
       <c r="C372" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>21211</v>
       </c>
       <c r="D372" t="str">
         <f t="shared" si="31"/>
@@ -12897,11 +12900,11 @@
       </c>
       <c r="I372" s="9">
         <f t="shared" si="29"/>
-        <v>-21143</v>
+        <v>68</v>
       </c>
       <c r="J372" s="6">
         <f t="shared" si="34"/>
-        <v>-21143</v>
+        <v>68</v>
       </c>
       <c r="K372" s="9">
         <f t="shared" si="35"/>
@@ -12909,27 +12912,33 @@
       </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A373" s="6"/>
-      <c r="B373" s="6"/>
+      <c r="A373" s="10">
+        <v>43710</v>
+      </c>
+      <c r="B373" s="6">
+        <v>21211</v>
+      </c>
       <c r="C373" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>21278</v>
       </c>
       <c r="D373" t="str">
         <f t="shared" si="31"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E373"/>
+      <c r="E373" t="s">
+        <v>6</v>
+      </c>
       <c r="G373" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I373" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J373" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K373" s="9">
         <f t="shared" si="35"/>
@@ -12938,26 +12947,30 @@
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="6"/>
-      <c r="B374" s="6"/>
+      <c r="B374" s="6">
+        <v>21278</v>
+      </c>
       <c r="C374" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D374">
+        <v>21346</v>
+      </c>
+      <c r="D374" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E374"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E374" t="s">
+        <v>7</v>
+      </c>
       <c r="G374" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I374" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J374" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K374" s="6">
         <f t="shared" si="35"/>
@@ -12965,27 +12978,33 @@
       </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A375" s="6"/>
-      <c r="B375" s="6"/>
+      <c r="A375" s="10">
+        <v>43711</v>
+      </c>
+      <c r="B375" s="6">
+        <v>21346</v>
+      </c>
       <c r="C375" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D375">
+        <v>21414</v>
+      </c>
+      <c r="D375" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E375"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E375" t="s">
+        <v>6</v>
+      </c>
       <c r="G375" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I375" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J375" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K375" s="6">
         <f t="shared" si="35"/>
@@ -12994,26 +13013,30 @@
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="6"/>
-      <c r="B376" s="6"/>
+      <c r="B376" s="6">
+        <v>21414</v>
+      </c>
       <c r="C376" s="6">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D376">
+        <f>B377</f>
+        <v>21481</v>
+      </c>
+      <c r="D376" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E376"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E376" t="s">
+        <v>7</v>
+      </c>
       <c r="G376" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I376" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J376" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K376" s="6">
         <f t="shared" si="35"/>
@@ -13021,27 +13044,33 @@
       </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A377" s="6"/>
-      <c r="B377" s="6"/>
+      <c r="A377" s="10">
+        <v>43713</v>
+      </c>
+      <c r="B377" s="6">
+        <v>21481</v>
+      </c>
       <c r="C377" s="6">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D377">
+        <f>B378</f>
+        <v>21549</v>
+      </c>
+      <c r="D377" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E377"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E377" t="s">
+        <v>6</v>
+      </c>
       <c r="G377" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I377" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J377" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K377" s="6">
         <f t="shared" si="35"/>
@@ -13050,26 +13079,30 @@
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="6"/>
-      <c r="B378" s="6"/>
+      <c r="B378" s="6">
+        <v>21549</v>
+      </c>
       <c r="C378" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D378">
+        <v>21616</v>
+      </c>
+      <c r="D378" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E378"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E378" t="s">
+        <v>7</v>
+      </c>
       <c r="G378" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I378" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J378" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K378" s="9">
         <f t="shared" si="35"/>
@@ -13077,27 +13110,33 @@
       </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A379" s="6"/>
-      <c r="B379" s="6"/>
+      <c r="A379" s="10">
+        <v>43714</v>
+      </c>
+      <c r="B379" s="6">
+        <v>21616</v>
+      </c>
       <c r="C379" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D379">
+        <v>21672</v>
+      </c>
+      <c r="D379" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E379"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E379" t="s">
+        <v>49</v>
+      </c>
       <c r="G379" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I379" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="J379" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="K379" s="9">
         <f t="shared" si="35"/>
@@ -13106,26 +13145,30 @@
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="6"/>
-      <c r="B380" s="6"/>
+      <c r="B380" s="6">
+        <v>21672</v>
+      </c>
       <c r="C380" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D380">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E380"/>
+        <v>21684</v>
+      </c>
+      <c r="D380" t="str">
+        <f>E379</f>
+        <v>Vivaldiplantsoen 100, Utrecht</v>
+      </c>
+      <c r="E380" t="s">
+        <v>6</v>
+      </c>
       <c r="G380" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I380" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J380" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K380" s="9">
         <f t="shared" si="35"/>
@@ -13134,26 +13177,30 @@
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="6"/>
-      <c r="B381" s="6"/>
+      <c r="B381" s="6">
+        <v>21684</v>
+      </c>
       <c r="C381" s="6">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="D381">
+      <c r="D381" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E381"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E381" t="s">
+        <v>7</v>
+      </c>
       <c r="G381" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I381" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>-21684</v>
       </c>
       <c r="J381" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>-21684</v>
       </c>
       <c r="K381" s="9">
         <f t="shared" si="35"/>
@@ -13161,15 +13208,15 @@
       </c>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A382" s="6"/>
+      <c r="A382" s="10"/>
       <c r="B382" s="6"/>
       <c r="C382" s="6">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="D382">
+      <c r="D382" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E382"/>
       <c r="G382" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAD75CD-EEB3-40A8-BB9A-24BB91304251}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F536C23D-B31D-4FA6-8822-43A3A46C04C1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="50">
   <si>
     <t>Datum</t>
   </si>
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:L547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A335" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J380" sqref="J380"/>
+    <sheetView tabSelected="1" topLeftCell="A343" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L386" sqref="L386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12084,8 +12084,8 @@
         <v>6</v>
       </c>
       <c r="L347" s="4">
-        <f>SUM(K146:K400)</f>
-        <v>276</v>
+        <f>SUM(K146:K500)</f>
+        <v>294</v>
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.25">
@@ -13182,7 +13182,7 @@
       </c>
       <c r="C381" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>21751</v>
       </c>
       <c r="D381" t="str">
         <f t="shared" si="31"/>
@@ -13196,11 +13196,11 @@
       </c>
       <c r="I381" s="9">
         <f t="shared" si="29"/>
-        <v>-21684</v>
+        <v>67</v>
       </c>
       <c r="J381" s="6">
         <f t="shared" si="34"/>
-        <v>-21684</v>
+        <v>67</v>
       </c>
       <c r="K381" s="9">
         <f t="shared" si="35"/>
@@ -13209,22 +13209,26 @@
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="10"/>
-      <c r="B382" s="6"/>
+      <c r="B382" s="6">
+        <v>21751</v>
+      </c>
       <c r="C382" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>21760</v>
       </c>
       <c r="D382" t="str">
         <f t="shared" si="31"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E382"/>
+      <c r="E382" t="s">
+        <v>39</v>
+      </c>
       <c r="G382" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I382" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J382" s="6">
         <f t="shared" si="34"/>
@@ -13232,27 +13236,31 @@
       </c>
       <c r="K382" s="9">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="6"/>
-      <c r="B383" s="6"/>
+      <c r="B383" s="6">
+        <v>21760</v>
+      </c>
       <c r="C383" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D383">
+        <v>21769</v>
+      </c>
+      <c r="D383" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E383"/>
+        <v>Dizze Gillespiestraat 10, Zaandijk</v>
+      </c>
+      <c r="E383" t="s">
+        <v>7</v>
+      </c>
       <c r="G383" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I383" s="9">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J383" s="6">
         <f t="shared" si="34"/>
@@ -13260,31 +13268,37 @@
       </c>
       <c r="K383" s="6">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A384" s="6"/>
-      <c r="B384" s="6"/>
+      <c r="A384" s="10">
+        <v>43717</v>
+      </c>
+      <c r="B384" s="6">
+        <v>21769</v>
+      </c>
       <c r="C384" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D384">
+        <v>21836</v>
+      </c>
+      <c r="D384" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E384"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E384" t="s">
+        <v>6</v>
+      </c>
       <c r="G384" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I384" s="9">
         <f t="shared" ref="I384:I447" si="36">(C384-B384)</f>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J384" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K384" s="6">
         <f t="shared" si="35"/>
@@ -13293,26 +13307,30 @@
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="6"/>
-      <c r="B385" s="6"/>
+      <c r="B385" s="6">
+        <v>21836</v>
+      </c>
       <c r="C385" s="6">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="D385">
+      <c r="D385" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E385"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E385" t="s">
+        <v>7</v>
+      </c>
       <c r="G385" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I385" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>-21836</v>
       </c>
       <c r="J385" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>-21836</v>
       </c>
       <c r="K385" s="6">
         <f t="shared" si="35"/>
@@ -13326,9 +13344,9 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="D386">
+      <c r="D386" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E386"/>
       <c r="G386" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F536C23D-B31D-4FA6-8822-43A3A46C04C1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF11E12-5A69-408A-B24F-03A71710F231}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="52">
   <si>
     <t>Datum</t>
   </si>
@@ -231,6 +231,12 @@
   </si>
   <si>
     <t>Vivaldiplantsoen 100, Utrecht</t>
+  </si>
+  <si>
+    <t>Zuidelijk Halfrond 11, 2801 DD Gouda</t>
+  </si>
+  <si>
+    <t>Verkeerde afslag, paar kilometer omgereden</t>
   </si>
 </sst>
 </file>
@@ -661,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:L547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A343" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L386" sqref="L386"/>
+    <sheetView tabSelected="1" topLeftCell="A361" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A392" sqref="A392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13312,25 +13318,25 @@
       </c>
       <c r="C385" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>21838</v>
       </c>
       <c r="D385" t="str">
         <f t="shared" si="31"/>
         <v>Duwboot 20, Houten</v>
       </c>
       <c r="E385" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G385" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I385" s="9">
         <f t="shared" si="36"/>
-        <v>-21836</v>
+        <v>2</v>
       </c>
       <c r="J385" s="6">
         <f t="shared" si="34"/>
-        <v>-21836</v>
+        <v>2</v>
       </c>
       <c r="K385" s="6">
         <f t="shared" si="35"/>
@@ -13338,27 +13344,31 @@
       </c>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A386" s="6"/>
-      <c r="B386" s="6"/>
+      <c r="A386" s="10"/>
+      <c r="B386" s="6">
+        <v>21838</v>
+      </c>
       <c r="C386" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>21904</v>
       </c>
       <c r="D386" t="str">
         <f t="shared" si="31"/>
-        <v>De Boeg 26, Zaandam</v>
-      </c>
-      <c r="E386"/>
+        <v>Waterveste 4, Houten</v>
+      </c>
+      <c r="E386" t="s">
+        <v>7</v>
+      </c>
       <c r="G386" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I386" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="J386" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="K386" s="6">
         <f t="shared" si="35"/>
@@ -13366,27 +13376,33 @@
       </c>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A387" s="6"/>
-      <c r="B387" s="6"/>
+      <c r="A387" s="10">
+        <v>43718</v>
+      </c>
+      <c r="B387" s="6">
+        <v>21904</v>
+      </c>
       <c r="C387" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D387">
+        <v>21972</v>
+      </c>
+      <c r="D387" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E387"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E387" t="s">
+        <v>6</v>
+      </c>
       <c r="G387" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I387" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J387" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K387" s="9">
         <f t="shared" si="35"/>
@@ -13395,26 +13411,30 @@
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="6"/>
-      <c r="B388" s="6"/>
+      <c r="B388" s="6">
+        <v>21972</v>
+      </c>
       <c r="C388" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D388">
+        <v>22039</v>
+      </c>
+      <c r="D388" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="E388"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E388" t="s">
+        <v>7</v>
+      </c>
       <c r="G388" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I388" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J388" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K388" s="9">
         <f t="shared" si="35"/>
@@ -13422,27 +13442,33 @@
       </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A389" s="6"/>
-      <c r="B389" s="6"/>
+      <c r="A389" s="10">
+        <v>43720</v>
+      </c>
+      <c r="B389" s="6">
+        <v>22039</v>
+      </c>
       <c r="C389" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D389">
+        <v>22107</v>
+      </c>
+      <c r="D389" t="str">
         <f t="shared" ref="D389:D452" si="37">E388</f>
-        <v>0</v>
-      </c>
-      <c r="E389"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E389" t="s">
+        <v>6</v>
+      </c>
       <c r="G389" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I389" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J389" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K389" s="9">
         <f t="shared" si="35"/>
@@ -13451,26 +13477,30 @@
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="6"/>
-      <c r="B390" s="6"/>
+      <c r="B390" s="6">
+        <v>22107</v>
+      </c>
       <c r="C390" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D390">
+        <v>22174</v>
+      </c>
+      <c r="D390" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E390"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E390" t="s">
+        <v>7</v>
+      </c>
       <c r="G390" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I390" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J390" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K390" s="9">
         <f t="shared" si="35"/>
@@ -13478,27 +13508,33 @@
       </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A391" s="6"/>
-      <c r="B391" s="6"/>
+      <c r="A391" s="10">
+        <v>43725</v>
+      </c>
+      <c r="B391" s="6">
+        <v>22174</v>
+      </c>
       <c r="C391" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D391">
+        <v>22241</v>
+      </c>
+      <c r="D391" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E391"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E391" t="s">
+        <v>6</v>
+      </c>
       <c r="G391" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I391" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J391" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K391" s="9">
         <f t="shared" si="35"/>
@@ -13507,26 +13543,30 @@
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="6"/>
-      <c r="B392" s="6"/>
+      <c r="B392" s="6">
+        <v>22241</v>
+      </c>
       <c r="C392" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D392">
+        <v>22309</v>
+      </c>
+      <c r="D392" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E392"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E392" t="s">
+        <v>7</v>
+      </c>
       <c r="G392" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I392" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J392" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K392" s="6">
         <f t="shared" si="35"/>
@@ -13534,27 +13574,33 @@
       </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A393" s="6"/>
-      <c r="B393" s="6"/>
+      <c r="A393" s="10">
+        <v>43726</v>
+      </c>
+      <c r="B393" s="6">
+        <v>22309</v>
+      </c>
       <c r="C393" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D393">
+        <v>22376</v>
+      </c>
+      <c r="D393" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E393"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E393" t="s">
+        <v>6</v>
+      </c>
       <c r="G393" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I393" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J393" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K393" s="6">
         <f t="shared" si="35"/>
@@ -13563,26 +13609,30 @@
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="6"/>
-      <c r="B394" s="6"/>
+      <c r="B394" s="6">
+        <v>22376</v>
+      </c>
       <c r="C394" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D394">
+        <v>22444</v>
+      </c>
+      <c r="D394" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E394"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E394" t="s">
+        <v>7</v>
+      </c>
       <c r="G394" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I394" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J394" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K394" s="6">
         <f t="shared" si="35"/>
@@ -13590,27 +13640,33 @@
       </c>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A395" s="6"/>
-      <c r="B395" s="6"/>
+      <c r="A395" s="10">
+        <v>43727</v>
+      </c>
+      <c r="B395" s="6">
+        <v>22444</v>
+      </c>
       <c r="C395" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D395">
+        <v>22511</v>
+      </c>
+      <c r="D395" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E395"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E395" t="s">
+        <v>6</v>
+      </c>
       <c r="G395" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I395" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J395" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K395" s="6">
         <f t="shared" si="35"/>
@@ -13619,26 +13675,30 @@
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="6"/>
-      <c r="B396" s="6"/>
+      <c r="B396" s="6">
+        <v>22511</v>
+      </c>
       <c r="C396" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D396">
+        <v>22579</v>
+      </c>
+      <c r="D396" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E396"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E396" t="s">
+        <v>7</v>
+      </c>
       <c r="G396" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I396" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J396" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K396" s="9">
         <f t="shared" si="35"/>
@@ -13646,27 +13706,33 @@
       </c>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A397" s="6"/>
-      <c r="B397" s="6"/>
+      <c r="A397" s="10">
+        <v>43728</v>
+      </c>
+      <c r="B397" s="6">
+        <v>22579</v>
+      </c>
       <c r="C397" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D397">
+        <v>22647</v>
+      </c>
+      <c r="D397" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E397"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E397" t="s">
+        <v>6</v>
+      </c>
       <c r="G397" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I397" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J397" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K397" s="9">
         <f t="shared" si="35"/>
@@ -13675,26 +13741,30 @@
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="6"/>
-      <c r="B398" s="6"/>
+      <c r="B398" s="6">
+        <v>22647</v>
+      </c>
       <c r="C398" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D398">
+        <v>22714</v>
+      </c>
+      <c r="D398" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E398"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E398" t="s">
+        <v>7</v>
+      </c>
       <c r="G398" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I398" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J398" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K398" s="9">
         <f t="shared" si="35"/>
@@ -13702,27 +13772,33 @@
       </c>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A399" s="6"/>
-      <c r="B399" s="6"/>
+      <c r="A399" s="10">
+        <v>43731</v>
+      </c>
+      <c r="B399" s="6">
+        <v>22714</v>
+      </c>
       <c r="C399" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D399">
+        <v>22781</v>
+      </c>
+      <c r="D399" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E399"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E399" t="s">
+        <v>6</v>
+      </c>
       <c r="G399" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I399" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J399" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K399" s="9">
         <f t="shared" si="35"/>
@@ -13731,26 +13807,30 @@
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="6"/>
-      <c r="B400" s="6"/>
+      <c r="B400" s="6">
+        <v>22781</v>
+      </c>
       <c r="C400" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D400">
+        <v>22849</v>
+      </c>
+      <c r="D400" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E400"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E400" t="s">
+        <v>7</v>
+      </c>
       <c r="G400" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I400" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J400" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K400" s="9">
         <f t="shared" si="35"/>
@@ -13758,55 +13838,67 @@
       </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A401" s="6"/>
-      <c r="B401" s="6"/>
+      <c r="A401" s="10">
+        <v>43733</v>
+      </c>
+      <c r="B401" s="6">
+        <v>22849</v>
+      </c>
       <c r="C401" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D401">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E401"/>
+        <v>22932</v>
+      </c>
+      <c r="D401" t="s">
+        <v>7</v>
+      </c>
+      <c r="E401" t="s">
+        <v>50</v>
+      </c>
       <c r="G401" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I401" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="J401" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="K401" s="6">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A402" s="6"/>
-      <c r="B402" s="6"/>
+      <c r="B402" s="6">
+        <v>22932</v>
+      </c>
       <c r="C402" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D402">
+        <v>23024</v>
+      </c>
+      <c r="D402" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E402"/>
+        <v>Zuidelijk Halfrond 11, 2801 DD Gouda</v>
+      </c>
+      <c r="E402" t="s">
+        <v>7</v>
+      </c>
+      <c r="F402" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="G402" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I402" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="J402" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="K402" s="6">
         <f t="shared" si="35"/>
@@ -13814,27 +13906,33 @@
       </c>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A403" s="6"/>
-      <c r="B403" s="6"/>
+      <c r="A403" s="10">
+        <v>43734</v>
+      </c>
+      <c r="B403" s="6">
+        <v>23024</v>
+      </c>
       <c r="C403" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D403">
+        <v>23092</v>
+      </c>
+      <c r="D403" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E403"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E403" t="s">
+        <v>6</v>
+      </c>
       <c r="G403" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I403" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J403" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K403" s="6">
         <f t="shared" si="35"/>
@@ -13843,26 +13941,30 @@
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="6"/>
-      <c r="B404" s="6"/>
+      <c r="B404" s="6">
+        <v>23092</v>
+      </c>
       <c r="C404" s="6">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="D404">
+      <c r="D404" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E404"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E404" t="s">
+        <v>7</v>
+      </c>
       <c r="G404" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I404" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>-23092</v>
       </c>
       <c r="J404" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>-23092</v>
       </c>
       <c r="K404" s="6">
         <f t="shared" si="35"/>
@@ -13876,9 +13978,9 @@
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="D405">
+      <c r="D405" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E405"/>
       <c r="G405" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF11E12-5A69-408A-B24F-03A71710F231}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52D7611-BE51-4A67-AC58-9725F40BB126}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="52">
   <si>
     <t>Datum</t>
   </si>
@@ -667,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:L547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A361" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A392" sqref="A392"/>
+    <sheetView tabSelected="1" topLeftCell="A364" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G380" sqref="G380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12091,7 +12091,7 @@
       </c>
       <c r="L347" s="4">
         <f>SUM(K146:K500)</f>
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.25">
@@ -13946,7 +13946,7 @@
       </c>
       <c r="C404" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>23160</v>
       </c>
       <c r="D404" t="str">
         <f t="shared" si="37"/>
@@ -13960,11 +13960,11 @@
       </c>
       <c r="I404" s="9">
         <f t="shared" si="36"/>
-        <v>-23092</v>
+        <v>68</v>
       </c>
       <c r="J404" s="6">
         <f t="shared" si="34"/>
-        <v>-23092</v>
+        <v>68</v>
       </c>
       <c r="K404" s="6">
         <f t="shared" si="35"/>
@@ -13972,27 +13972,33 @@
       </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A405" s="6"/>
-      <c r="B405" s="6"/>
+      <c r="A405" s="10">
+        <v>43735</v>
+      </c>
+      <c r="B405" s="6">
+        <v>23160</v>
+      </c>
       <c r="C405" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>23226</v>
       </c>
       <c r="D405" t="str">
         <f t="shared" si="37"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E405"/>
+      <c r="E405" t="s">
+        <v>6</v>
+      </c>
       <c r="G405" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I405" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="J405" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="K405" s="9">
         <f t="shared" si="35"/>
@@ -14001,26 +14007,30 @@
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="6"/>
-      <c r="B406" s="6"/>
+      <c r="B406" s="6">
+        <v>23226</v>
+      </c>
       <c r="C406" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D406">
+        <v>23293</v>
+      </c>
+      <c r="D406" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E406"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E406" t="s">
+        <v>7</v>
+      </c>
       <c r="G406" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I406" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J406" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K406" s="9">
         <f t="shared" si="35"/>
@@ -14028,23 +14038,29 @@
       </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A407" s="6"/>
-      <c r="B407" s="6"/>
+      <c r="A407" s="10">
+        <v>43736</v>
+      </c>
+      <c r="B407" s="6">
+        <v>23293</v>
+      </c>
       <c r="C407" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D407">
+        <v>23297</v>
+      </c>
+      <c r="D407" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E407"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E407" t="s">
+        <v>32</v>
+      </c>
       <c r="G407" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I407" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J407" s="6">
         <f t="shared" si="34"/>
@@ -14052,27 +14068,31 @@
       </c>
       <c r="K407" s="9">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="6"/>
-      <c r="B408" s="6"/>
+      <c r="B408" s="6">
+        <v>23297</v>
+      </c>
       <c r="C408" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D408">
+        <v>23301</v>
+      </c>
+      <c r="D408" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E408"/>
+        <v>Pieter Ghijsenlaan 21a, 1506 PW, Zaandam</v>
+      </c>
+      <c r="E408" t="s">
+        <v>7</v>
+      </c>
       <c r="G408" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I408" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J408" s="6">
         <f t="shared" si="34"/>
@@ -14080,31 +14100,37 @@
       </c>
       <c r="K408" s="9">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A409" s="6"/>
-      <c r="B409" s="6"/>
+      <c r="A409" s="10">
+        <v>43738</v>
+      </c>
+      <c r="B409" s="6">
+        <v>23301</v>
+      </c>
       <c r="C409" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="D409">
+        <v>23369</v>
+      </c>
+      <c r="D409" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E409"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E409" t="s">
+        <v>6</v>
+      </c>
       <c r="G409" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I409" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J409" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K409" s="9">
         <f t="shared" si="35"/>
@@ -14113,26 +14139,30 @@
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="6"/>
-      <c r="B410" s="6"/>
+      <c r="B410" s="6">
+        <v>23369</v>
+      </c>
       <c r="C410" s="6">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="D410">
+      <c r="D410" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E410"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E410" t="s">
+        <v>7</v>
+      </c>
       <c r="G410" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I410" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>-23369</v>
       </c>
       <c r="J410" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>-23369</v>
       </c>
       <c r="K410" s="6">
         <f t="shared" si="35"/>
@@ -14146,9 +14176,9 @@
         <f t="shared" ref="C411:C474" si="38">B412</f>
         <v>0</v>
       </c>
-      <c r="D411">
+      <c r="D411" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E411"/>
       <c r="G411" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52D7611-BE51-4A67-AC58-9725F40BB126}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBA73F9-1AB7-4198-8FA1-6849011D2375}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="54">
   <si>
     <t>Datum</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>Verkeerde afslag, paar kilometer omgereden</t>
+  </si>
+  <si>
+    <t>Meerkoetenweg 26, 8218 NA, Lelystad</t>
+  </si>
+  <si>
+    <t>De Flinesstraat 6, 1114 AL, Amsterdam</t>
   </si>
 </sst>
 </file>
@@ -667,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:L547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A364" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G380" sqref="G380"/>
+    <sheetView tabSelected="1" topLeftCell="A385" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L417" sqref="L417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11725,7 +11731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="10">
         <v>43664</v>
       </c>
@@ -11758,7 +11764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="6"/>
       <c r="B338" s="6">
         <v>19270</v>
@@ -11790,7 +11796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="10">
         <v>43668</v>
       </c>
@@ -11824,7 +11830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="6"/>
       <c r="B340" s="6">
         <v>19347</v>
@@ -11856,7 +11862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="10">
         <v>43669</v>
       </c>
@@ -11889,7 +11895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="6"/>
       <c r="B342" s="6">
         <v>19482</v>
@@ -11921,7 +11927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="10">
         <v>43670</v>
       </c>
@@ -11955,7 +11961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="6"/>
       <c r="B344" s="6">
         <v>19617</v>
@@ -11987,7 +11993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="10">
         <v>43671</v>
       </c>
@@ -12021,7 +12027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="6"/>
       <c r="B346" s="6">
         <v>19752</v>
@@ -12052,11 +12058,8 @@
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="L346" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="10">
         <v>43671</v>
       </c>
@@ -12089,12 +12092,8 @@
         <f t="shared" si="28"/>
         <v>6</v>
       </c>
-      <c r="L347" s="4">
-        <f>SUM(K146:K500)</f>
-        <v>302</v>
-      </c>
-    </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="6"/>
       <c r="B348" s="6">
         <v>19826</v>
@@ -12126,7 +12125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="10">
         <v>43675</v>
       </c>
@@ -12160,7 +12159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="6"/>
       <c r="B350" s="6">
         <v>19900</v>
@@ -12192,7 +12191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="10">
         <v>43677</v>
       </c>
@@ -12226,7 +12225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="6"/>
       <c r="B352" s="6">
         <v>20035</v>
@@ -14144,7 +14143,7 @@
       </c>
       <c r="C410" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>23437</v>
       </c>
       <c r="D410" t="str">
         <f t="shared" si="37"/>
@@ -14158,11 +14157,11 @@
       </c>
       <c r="I410" s="9">
         <f t="shared" si="36"/>
-        <v>-23369</v>
+        <v>68</v>
       </c>
       <c r="J410" s="6">
         <f t="shared" si="34"/>
-        <v>-23369</v>
+        <v>68</v>
       </c>
       <c r="K410" s="6">
         <f t="shared" si="35"/>
@@ -14170,27 +14169,33 @@
       </c>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A411" s="6"/>
-      <c r="B411" s="6"/>
+      <c r="A411" s="10">
+        <v>43739</v>
+      </c>
+      <c r="B411" s="6">
+        <v>23437</v>
+      </c>
       <c r="C411" s="6">
         <f t="shared" ref="C411:C474" si="38">B412</f>
-        <v>0</v>
+        <v>23504</v>
       </c>
       <c r="D411" t="str">
         <f t="shared" si="37"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E411"/>
+      <c r="E411" t="s">
+        <v>6</v>
+      </c>
       <c r="G411" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I411" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J411" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K411" s="6">
         <f t="shared" si="35"/>
@@ -14199,26 +14204,30 @@
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="6"/>
-      <c r="B412" s="6"/>
+      <c r="B412" s="6">
+        <v>23504</v>
+      </c>
       <c r="C412" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="D412">
+        <v>23572</v>
+      </c>
+      <c r="D412" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E412"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E412" t="s">
+        <v>7</v>
+      </c>
       <c r="G412" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I412" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J412" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K412" s="6">
         <f t="shared" si="35"/>
@@ -14226,27 +14235,33 @@
       </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A413" s="6"/>
-      <c r="B413" s="6"/>
+      <c r="A413" s="10">
+        <v>43740</v>
+      </c>
+      <c r="B413" s="6">
+        <v>23572</v>
+      </c>
       <c r="C413" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="D413">
+        <v>23641</v>
+      </c>
+      <c r="D413" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E413"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E413" t="s">
+        <v>52</v>
+      </c>
       <c r="G413" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I413" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="J413" s="6">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="K413" s="6">
         <f t="shared" si="35"/>
@@ -14255,26 +14270,30 @@
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="6"/>
-      <c r="B414" s="6"/>
+      <c r="B414" s="6">
+        <v>23641</v>
+      </c>
       <c r="C414" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="D414">
+        <v>23712</v>
+      </c>
+      <c r="D414" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E414"/>
+        <v>Meerkoetenweg 26, 8218 NA, Lelystad</v>
+      </c>
+      <c r="E414" t="s">
+        <v>7</v>
+      </c>
       <c r="G414" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I414" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="J414" s="6">
         <f t="shared" ref="J414:J477" si="39">IF(AND(G414 = "Zakelijk", H414 = ""), I414, IF(AND(G414 = "Zakelijk", NOT(H414 = "")), I414 - H414, 0))</f>
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="K414" s="9">
         <f t="shared" ref="K414:K477" si="40">IF(AND(G414 = "Zakelijk", NOT(H414 = "")), H414, IF(G414 = "Privé", I414, 0))</f>
@@ -14283,22 +14302,26 @@
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="6"/>
-      <c r="B415" s="6"/>
+      <c r="B415" s="6">
+        <v>23712</v>
+      </c>
       <c r="C415" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="D415">
+        <v>23736</v>
+      </c>
+      <c r="D415" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E415"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E415" t="s">
+        <v>53</v>
+      </c>
       <c r="G415" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I415" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J415" s="6">
         <f t="shared" si="39"/>
@@ -14306,27 +14329,31 @@
       </c>
       <c r="K415" s="9">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="6"/>
-      <c r="B416" s="6"/>
+      <c r="B416" s="6">
+        <v>23736</v>
+      </c>
       <c r="C416" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="D416">
+        <v>23761</v>
+      </c>
+      <c r="D416" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E416"/>
+        <v>De Flinesstraat 6, 1114 AL, Amsterdam</v>
+      </c>
+      <c r="E416" t="s">
+        <v>7</v>
+      </c>
       <c r="G416" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I416" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J416" s="6">
         <f t="shared" si="39"/>
@@ -14334,75 +14361,85 @@
       </c>
       <c r="K416" s="9">
         <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A417" s="6"/>
-      <c r="B417" s="6"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A417" s="10">
+        <v>43741</v>
+      </c>
+      <c r="B417" s="6">
+        <v>23761</v>
+      </c>
       <c r="C417" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="D417">
+        <v>23828</v>
+      </c>
+      <c r="D417" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E417"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E417" t="s">
+        <v>6</v>
+      </c>
       <c r="G417" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I417" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J417" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K417" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A418" s="6"/>
-      <c r="B418" s="6"/>
+      <c r="B418" s="6">
+        <v>23828</v>
+      </c>
       <c r="C418" s="6">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="D418">
+      <c r="D418" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E418"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E418" t="s">
+        <v>7</v>
+      </c>
       <c r="G418" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I418" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>-23828</v>
       </c>
       <c r="J418" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>-23828</v>
       </c>
       <c r="K418" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A419" s="6"/>
       <c r="B419" s="6"/>
       <c r="C419" s="6">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="D419">
+      <c r="D419" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E419"/>
       <c r="G419" s="4" t="s">
@@ -14421,7 +14458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A420" s="6"/>
       <c r="B420" s="6"/>
       <c r="C420" s="6">
@@ -14449,7 +14486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A421" s="6"/>
       <c r="B421" s="6"/>
       <c r="C421" s="6">
@@ -14477,7 +14514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A422" s="6"/>
       <c r="B422" s="6"/>
       <c r="C422" s="6">
@@ -14505,7 +14542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A423" s="6"/>
       <c r="B423" s="6"/>
       <c r="C423" s="6">
@@ -14533,7 +14570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A424" s="6"/>
       <c r="B424" s="6"/>
       <c r="C424" s="6">
@@ -14561,7 +14598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A425" s="6"/>
       <c r="B425" s="6"/>
       <c r="C425" s="6">
@@ -14589,7 +14626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A426" s="6"/>
       <c r="B426" s="6"/>
       <c r="C426" s="6">
@@ -14616,8 +14653,11 @@
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L426" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A427" s="6"/>
       <c r="B427" s="6"/>
       <c r="C427" s="6">
@@ -14644,8 +14684,12 @@
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L427" s="4">
+        <f>SUM(K146:K800)</f>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A428" s="6"/>
       <c r="B428" s="6"/>
       <c r="C428" s="6">
@@ -14673,7 +14717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A429" s="6"/>
       <c r="B429" s="6"/>
       <c r="C429" s="6">
@@ -14701,7 +14745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A430" s="6"/>
       <c r="B430" s="6"/>
       <c r="C430" s="6">
@@ -14729,7 +14773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A431" s="6"/>
       <c r="B431" s="6"/>
       <c r="C431" s="6">
@@ -14757,7 +14801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A432" s="6"/>
       <c r="B432" s="6"/>
       <c r="C432" s="6">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBA73F9-1AB7-4198-8FA1-6849011D2375}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D781E50-CBA1-46CB-803D-A4B9719D798C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="54">
   <si>
     <t>Datum</t>
   </si>
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:L547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A385" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L417" sqref="L417"/>
+    <sheetView tabSelected="1" topLeftCell="A393" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K422" sqref="K422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14405,7 +14405,7 @@
       </c>
       <c r="C418" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>23896</v>
       </c>
       <c r="D418" t="str">
         <f t="shared" si="37"/>
@@ -14419,11 +14419,11 @@
       </c>
       <c r="I418" s="9">
         <f t="shared" si="36"/>
-        <v>-23828</v>
+        <v>68</v>
       </c>
       <c r="J418" s="6">
         <f t="shared" si="39"/>
-        <v>-23828</v>
+        <v>68</v>
       </c>
       <c r="K418" s="9">
         <f t="shared" si="40"/>
@@ -14431,27 +14431,33 @@
       </c>
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A419" s="6"/>
-      <c r="B419" s="6"/>
+      <c r="A419" s="10">
+        <v>43742</v>
+      </c>
+      <c r="B419" s="6">
+        <v>23896</v>
+      </c>
       <c r="C419" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>23963</v>
       </c>
       <c r="D419" t="str">
         <f t="shared" si="37"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E419"/>
+      <c r="E419" t="s">
+        <v>6</v>
+      </c>
       <c r="G419" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I419" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J419" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K419" s="6">
         <f t="shared" si="40"/>
@@ -14460,26 +14466,30 @@
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A420" s="6"/>
-      <c r="B420" s="6"/>
+      <c r="B420" s="6">
+        <v>23963</v>
+      </c>
       <c r="C420" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="D420">
+        <v>24031</v>
+      </c>
+      <c r="D420" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E420"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E420" t="s">
+        <v>7</v>
+      </c>
       <c r="G420" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I420" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J420" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K420" s="6">
         <f t="shared" si="40"/>
@@ -14487,27 +14497,33 @@
       </c>
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A421" s="6"/>
-      <c r="B421" s="6"/>
+      <c r="A421" s="10">
+        <v>43745</v>
+      </c>
+      <c r="B421" s="6">
+        <v>24031</v>
+      </c>
       <c r="C421" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="D421">
+        <v>24099</v>
+      </c>
+      <c r="D421" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E421"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E421" t="s">
+        <v>6</v>
+      </c>
       <c r="G421" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I421" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J421" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K421" s="6">
         <f t="shared" si="40"/>
@@ -14516,26 +14532,30 @@
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A422" s="6"/>
-      <c r="B422" s="6"/>
+      <c r="B422" s="6">
+        <v>24099</v>
+      </c>
       <c r="C422" s="6">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="D422">
+      <c r="D422" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E422"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E422" t="s">
+        <v>7</v>
+      </c>
       <c r="G422" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I422" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>-24099</v>
       </c>
       <c r="J422" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>-24099</v>
       </c>
       <c r="K422" s="6">
         <f t="shared" si="40"/>
@@ -14549,9 +14569,9 @@
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="D423">
+      <c r="D423" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E423"/>
       <c r="G423" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D781E50-CBA1-46CB-803D-A4B9719D798C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EA27A9-46A1-478D-BAB3-F4D0707C04A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="55">
   <si>
     <t>Datum</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>De Flinesstraat 6, 1114 AL, Amsterdam</t>
+  </si>
+  <si>
+    <t>Hogeweg 3, 5301 LB, Zaltbommel</t>
   </si>
 </sst>
 </file>
@@ -674,7 +677,7 @@
   <dimension ref="A1:L547"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A393" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K422" sqref="K422"/>
+      <selection activeCell="I426" sqref="I426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14537,7 +14540,7 @@
       </c>
       <c r="C422" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>24166</v>
       </c>
       <c r="D422" t="str">
         <f t="shared" si="37"/>
@@ -14551,11 +14554,11 @@
       </c>
       <c r="I422" s="9">
         <f t="shared" si="36"/>
-        <v>-24099</v>
+        <v>67</v>
       </c>
       <c r="J422" s="6">
         <f t="shared" si="39"/>
-        <v>-24099</v>
+        <v>67</v>
       </c>
       <c r="K422" s="6">
         <f t="shared" si="40"/>
@@ -14563,27 +14566,33 @@
       </c>
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A423" s="6"/>
-      <c r="B423" s="6"/>
+      <c r="A423" s="10">
+        <v>43747</v>
+      </c>
+      <c r="B423" s="6">
+        <v>24166</v>
+      </c>
       <c r="C423" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>24260</v>
       </c>
       <c r="D423" t="str">
         <f t="shared" si="37"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E423"/>
+      <c r="E423" t="s">
+        <v>54</v>
+      </c>
       <c r="G423" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I423" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="J423" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="K423" s="9">
         <f t="shared" si="40"/>
@@ -14592,26 +14601,30 @@
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A424" s="6"/>
-      <c r="B424" s="6"/>
+      <c r="B424" s="6">
+        <v>24260</v>
+      </c>
       <c r="C424" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="D424">
+        <v>24354</v>
+      </c>
+      <c r="D424" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E424"/>
+        <v>Hogeweg 3, 5301 LB, Zaltbommel</v>
+      </c>
+      <c r="E424" t="s">
+        <v>7</v>
+      </c>
       <c r="G424" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I424" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="J424" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="K424" s="9">
         <f t="shared" si="40"/>
@@ -14619,27 +14632,33 @@
       </c>
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A425" s="6"/>
-      <c r="B425" s="6"/>
+      <c r="A425" s="10">
+        <v>43749</v>
+      </c>
+      <c r="B425" s="6">
+        <v>24354</v>
+      </c>
       <c r="C425" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="D425">
+        <v>24421</v>
+      </c>
+      <c r="D425" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E425"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E425" t="s">
+        <v>6</v>
+      </c>
       <c r="G425" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I425" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J425" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K425" s="9">
         <f t="shared" si="40"/>
@@ -14648,26 +14667,30 @@
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A426" s="6"/>
-      <c r="B426" s="6"/>
+      <c r="B426" s="6">
+        <v>24421</v>
+      </c>
       <c r="C426" s="6">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="D426">
+      <c r="D426" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E426"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E426" t="s">
+        <v>7</v>
+      </c>
       <c r="G426" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I426" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>-24421</v>
       </c>
       <c r="J426" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>-24421</v>
       </c>
       <c r="K426" s="9">
         <f t="shared" si="40"/>
@@ -14678,15 +14701,15 @@
       </c>
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A427" s="6"/>
+      <c r="A427" s="10"/>
       <c r="B427" s="6"/>
       <c r="C427" s="6">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="D427">
+      <c r="D427" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E427"/>
       <c r="G427" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EA27A9-46A1-478D-BAB3-F4D0707C04A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0221BC-CB93-4289-BB9E-3030BF56029E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="56">
   <si>
     <t>Datum</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>Hogeweg 3, 5301 LB, Zaltbommel</t>
+  </si>
+  <si>
+    <t>Prinsenstraat 35, Zaandam</t>
   </si>
 </sst>
 </file>
@@ -677,7 +680,7 @@
   <dimension ref="A1:L547"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A393" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I426" sqref="I426"/>
+      <selection activeCell="F430" sqref="F430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14672,7 +14675,7 @@
       </c>
       <c r="C426" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>24489</v>
       </c>
       <c r="D426" t="str">
         <f t="shared" si="37"/>
@@ -14686,11 +14689,11 @@
       </c>
       <c r="I426" s="9">
         <f t="shared" si="36"/>
-        <v>-24421</v>
+        <v>68</v>
       </c>
       <c r="J426" s="6">
         <f t="shared" si="39"/>
-        <v>-24421</v>
+        <v>68</v>
       </c>
       <c r="K426" s="9">
         <f t="shared" si="40"/>
@@ -14702,26 +14705,30 @@
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A427" s="10"/>
-      <c r="B427" s="6"/>
+      <c r="B427" s="6">
+        <v>24489</v>
+      </c>
       <c r="C427" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>24490</v>
       </c>
       <c r="D427" t="str">
         <f t="shared" si="37"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E427"/>
+      <c r="E427" t="s">
+        <v>55</v>
+      </c>
       <c r="G427" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I427" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J427" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K427" s="9">
         <f t="shared" si="40"/>
@@ -14733,27 +14740,33 @@
       </c>
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A428" s="6"/>
-      <c r="B428" s="6"/>
+      <c r="A428" s="10">
+        <v>43752</v>
+      </c>
+      <c r="B428" s="6">
+        <v>24490</v>
+      </c>
       <c r="C428" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="D428">
+        <v>24584</v>
+      </c>
+      <c r="D428" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E428"/>
+        <v>Prinsenstraat 35, Zaandam</v>
+      </c>
+      <c r="E428" t="s">
+        <v>6</v>
+      </c>
       <c r="G428" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I428" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="J428" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="K428" s="6">
         <f t="shared" si="40"/>
@@ -14761,27 +14774,31 @@
       </c>
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A429" s="6"/>
-      <c r="B429" s="6"/>
+      <c r="A429" s="10"/>
+      <c r="B429" s="6">
+        <v>24584</v>
+      </c>
       <c r="C429" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="D429">
+        <v>24678</v>
+      </c>
+      <c r="D429" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E429"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E429" t="s">
+        <v>7</v>
+      </c>
       <c r="G429" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I429" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="J429" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="K429" s="6">
         <f t="shared" si="40"/>
@@ -14789,27 +14806,33 @@
       </c>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A430" s="6"/>
-      <c r="B430" s="6"/>
+      <c r="A430" s="10">
+        <v>43753</v>
+      </c>
+      <c r="B430" s="6">
+        <v>24678</v>
+      </c>
       <c r="C430" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="D430">
+        <v>24772</v>
+      </c>
+      <c r="D430" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E430"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E430" t="s">
+        <v>7</v>
+      </c>
       <c r="G430" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I430" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="J430" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="K430" s="6">
         <f t="shared" si="40"/>
@@ -14817,27 +14840,31 @@
       </c>
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A431" s="6"/>
-      <c r="B431" s="6"/>
+      <c r="A431" s="10"/>
+      <c r="B431" s="6">
+        <v>24772</v>
+      </c>
       <c r="C431" s="6">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="D431">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E431"/>
+      <c r="D431" t="str">
+        <f>E430</f>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E431" t="s">
+        <v>54</v>
+      </c>
       <c r="G431" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I431" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>-24772</v>
       </c>
       <c r="J431" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>-24772</v>
       </c>
       <c r="K431" s="6">
         <f t="shared" si="40"/>
@@ -14851,11 +14878,13 @@
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="D432">
+      <c r="D432" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E432"/>
+        <v>Hogeweg 3, 5301 LB, Zaltbommel</v>
+      </c>
+      <c r="E432" t="s">
+        <v>7</v>
+      </c>
       <c r="G432" s="4" t="s">
         <v>10</v>
       </c>
@@ -14879,9 +14908,9 @@
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="D433">
+      <c r="D433" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E433"/>
       <c r="G433" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0221BC-CB93-4289-BB9E-3030BF56029E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AC9A8B-7BEE-4C57-9E31-0F4629CF1821}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
+    <workbookView xWindow="-4425" yWindow="-21720" windowWidth="38640" windowHeight="21390" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
   <sheets>
     <sheet name="Kilometers" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="59">
   <si>
     <t>Datum</t>
   </si>
@@ -249,6 +249,15 @@
   </si>
   <si>
     <t>Prinsenstraat 35, Zaandam</t>
+  </si>
+  <si>
+    <t>Burgemeester Crezeelaan 40, De Lier</t>
+  </si>
+  <si>
+    <t>Omleiding via A5 door verkeershinder</t>
+  </si>
+  <si>
+    <t>Omleiding via Houten-Oost door wegwerkzaamheden</t>
   </si>
 </sst>
 </file>
@@ -680,7 +689,7 @@
   <dimension ref="A1:L547"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A393" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F430" sqref="F430"/>
+      <selection activeCell="F435" sqref="F435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14755,7 +14764,7 @@
         <v>Prinsenstraat 35, Zaandam</v>
       </c>
       <c r="E428" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="G428" s="4" t="s">
         <v>10</v>
@@ -14784,7 +14793,7 @@
       </c>
       <c r="D429" t="str">
         <f t="shared" si="37"/>
-        <v>Duwboot 20, Houten</v>
+        <v>Hogeweg 3, 5301 LB, Zaltbommel</v>
       </c>
       <c r="E429" t="s">
         <v>7</v>
@@ -14821,7 +14830,7 @@
         <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E430" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="G430" s="4" t="s">
         <v>10</v>
@@ -14846,25 +14855,25 @@
       </c>
       <c r="C431" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>24865</v>
       </c>
       <c r="D431" t="str">
         <f>E430</f>
-        <v>De Boeg 26, Zaandam</v>
+        <v>Hogeweg 3, 5301 LB, Zaltbommel</v>
       </c>
       <c r="E431" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="G431" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I431" s="9">
         <f t="shared" si="36"/>
-        <v>-24772</v>
+        <v>93</v>
       </c>
       <c r="J431" s="6">
         <f t="shared" si="39"/>
-        <v>-24772</v>
+        <v>93</v>
       </c>
       <c r="K431" s="6">
         <f t="shared" si="40"/>
@@ -14872,85 +14881,105 @@
       </c>
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A432" s="6"/>
-      <c r="B432" s="6"/>
+      <c r="A432" s="10">
+        <v>43755</v>
+      </c>
+      <c r="B432" s="6">
+        <v>24865</v>
+      </c>
       <c r="C432" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>24944</v>
       </c>
       <c r="D432" t="str">
         <f t="shared" si="37"/>
-        <v>Hogeweg 3, 5301 LB, Zaltbommel</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E432" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="G432" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I432" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="J432" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="K432" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A433" s="6"/>
-      <c r="B433" s="6"/>
+      <c r="B433" s="6">
+        <v>24944</v>
+      </c>
       <c r="C433" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>25020</v>
       </c>
       <c r="D433" t="str">
         <f t="shared" si="37"/>
-        <v>De Boeg 26, Zaandam</v>
-      </c>
-      <c r="E433"/>
+        <v>Burgemeester Crezeelaan 40, De Lier</v>
+      </c>
+      <c r="E433" t="s">
+        <v>7</v>
+      </c>
+      <c r="F433" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="G433" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I433" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="J433" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="K433" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A434" s="6"/>
-      <c r="B434" s="6"/>
+    <row r="434" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A434" s="10">
+        <v>43756</v>
+      </c>
+      <c r="B434" s="6">
+        <v>25020</v>
+      </c>
       <c r="C434" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="D434">
+        <v>25095</v>
+      </c>
+      <c r="D434" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E434"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E434" t="s">
+        <v>6</v>
+      </c>
+      <c r="F434" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="G434" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I434" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J434" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="K434" s="9">
         <f t="shared" si="40"/>
@@ -14959,14 +14988,16 @@
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="6"/>
-      <c r="B435" s="6"/>
+      <c r="B435" s="6">
+        <v>25095</v>
+      </c>
       <c r="C435" s="6">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="D435">
+      <c r="D435" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>Duwboot 20, Houten</v>
       </c>
       <c r="E435"/>
       <c r="G435" s="4" t="s">
@@ -14974,11 +15005,11 @@
       </c>
       <c r="I435" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>-25095</v>
       </c>
       <c r="J435" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>-25095</v>
       </c>
       <c r="K435" s="9">
         <f t="shared" si="40"/>

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AC9A8B-7BEE-4C57-9E31-0F4629CF1821}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9065F327-BAA3-45A5-ABD5-F0E8D9BF65D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4425" yWindow="-21720" windowWidth="38640" windowHeight="21390" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="59">
   <si>
     <t>Datum</t>
   </si>
@@ -689,7 +689,7 @@
   <dimension ref="A1:L547"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A393" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F435" sqref="F435"/>
+      <selection activeCell="B438" sqref="B438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14993,51 +14993,62 @@
       </c>
       <c r="C435" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>25164</v>
       </c>
       <c r="D435" t="str">
         <f t="shared" si="37"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E435"/>
+      <c r="E435" t="s">
+        <v>7</v>
+      </c>
       <c r="G435" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I435" s="9">
         <f t="shared" si="36"/>
-        <v>-25095</v>
+        <v>69</v>
       </c>
       <c r="J435" s="6">
         <f t="shared" si="39"/>
-        <v>-25095</v>
+        <v>69</v>
       </c>
       <c r="K435" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A436" s="6"/>
-      <c r="B436" s="6"/>
+    <row r="436" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A436" s="10">
+        <v>43759</v>
+      </c>
+      <c r="B436" s="6">
+        <v>25164</v>
+      </c>
       <c r="C436" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="D436">
+        <v>25238</v>
+      </c>
+      <c r="D436" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E436"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E436" t="s">
+        <v>6</v>
+      </c>
+      <c r="F436" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="G436" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I436" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="J436" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="K436" s="9">
         <f t="shared" si="40"/>
@@ -15046,26 +15057,30 @@
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="6"/>
-      <c r="B437" s="6"/>
+      <c r="B437" s="6">
+        <v>25238</v>
+      </c>
       <c r="C437" s="6">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="D437">
+      <c r="D437" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E437"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E437" t="s">
+        <v>7</v>
+      </c>
       <c r="G437" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I437" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>-25238</v>
       </c>
       <c r="J437" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>-25238</v>
       </c>
       <c r="K437" s="6">
         <f t="shared" si="40"/>
@@ -15079,9 +15094,9 @@
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="D438">
+      <c r="D438" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E438"/>
       <c r="G438" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9065F327-BAA3-45A5-ABD5-F0E8D9BF65D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188B04F9-D627-4B30-924B-A0F38D0CE4EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4425" yWindow="-21720" windowWidth="38640" windowHeight="21390" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
   <sheets>
     <sheet name="Kilometers" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="59">
   <si>
     <t>Datum</t>
   </si>
@@ -688,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:L547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A393" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B438" sqref="B438"/>
+    <sheetView tabSelected="1" topLeftCell="A401" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A439" sqref="A439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15062,7 +15062,7 @@
       </c>
       <c r="C437" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>25305</v>
       </c>
       <c r="D437" t="str">
         <f t="shared" si="37"/>
@@ -15076,39 +15076,48 @@
       </c>
       <c r="I437" s="9">
         <f t="shared" si="36"/>
-        <v>-25238</v>
+        <v>67</v>
       </c>
       <c r="J437" s="6">
         <f t="shared" si="39"/>
-        <v>-25238</v>
+        <v>67</v>
       </c>
       <c r="K437" s="6">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A438" s="6"/>
-      <c r="B438" s="6"/>
+    <row r="438" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A438" s="10">
+        <v>43761</v>
+      </c>
+      <c r="B438" s="6">
+        <v>25305</v>
+      </c>
       <c r="C438" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>25381</v>
       </c>
       <c r="D438" t="str">
         <f t="shared" si="37"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E438"/>
+      <c r="E438" t="s">
+        <v>6</v>
+      </c>
+      <c r="F438" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="G438" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I438" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="J438" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="K438" s="6">
         <f t="shared" si="40"/>
@@ -15117,26 +15126,30 @@
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="6"/>
-      <c r="B439" s="6"/>
+      <c r="B439" s="6">
+        <v>25381</v>
+      </c>
       <c r="C439" s="6">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="D439">
+      <c r="D439" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E439"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E439" t="s">
+        <v>7</v>
+      </c>
       <c r="G439" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I439" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>-25381</v>
       </c>
       <c r="J439" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>-25381</v>
       </c>
       <c r="K439" s="6">
         <f t="shared" si="40"/>
@@ -15150,9 +15163,9 @@
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="D440">
+      <c r="D440" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E440"/>
       <c r="G440" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188B04F9-D627-4B30-924B-A0F38D0CE4EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD31019-3E09-47D6-BB4D-75ACF3072C64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="59">
   <si>
     <t>Datum</t>
   </si>
@@ -688,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:L547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A401" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A439" sqref="A439"/>
+    <sheetView tabSelected="1" topLeftCell="A411" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A446" sqref="A446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15131,7 +15131,7 @@
       </c>
       <c r="C439" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>25448</v>
       </c>
       <c r="D439" t="str">
         <f t="shared" si="37"/>
@@ -15145,39 +15145,48 @@
       </c>
       <c r="I439" s="9">
         <f t="shared" si="36"/>
-        <v>-25381</v>
+        <v>67</v>
       </c>
       <c r="J439" s="6">
         <f t="shared" si="39"/>
-        <v>-25381</v>
+        <v>67</v>
       </c>
       <c r="K439" s="6">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A440" s="6"/>
-      <c r="B440" s="6"/>
+    <row r="440" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A440" s="10">
+        <v>43763</v>
+      </c>
+      <c r="B440" s="6">
+        <v>25448</v>
+      </c>
       <c r="C440" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>25523</v>
       </c>
       <c r="D440" t="str">
         <f t="shared" si="37"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E440"/>
+      <c r="E440" t="s">
+        <v>6</v>
+      </c>
+      <c r="F440" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="G440" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I440" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J440" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="K440" s="6">
         <f t="shared" si="40"/>
@@ -15186,54 +15195,67 @@
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="6"/>
-      <c r="B441" s="6"/>
+      <c r="B441" s="6">
+        <v>25523</v>
+      </c>
       <c r="C441" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="D441">
+        <v>25591</v>
+      </c>
+      <c r="D441" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E441"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E441" t="s">
+        <v>7</v>
+      </c>
       <c r="G441" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I441" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J441" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K441" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A442" s="6"/>
-      <c r="B442" s="6"/>
+    <row r="442" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A442" s="10">
+        <v>43767</v>
+      </c>
+      <c r="B442" s="6">
+        <v>25591</v>
+      </c>
       <c r="C442" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="D442">
+        <v>25666</v>
+      </c>
+      <c r="D442" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E442"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E442" t="s">
+        <v>6</v>
+      </c>
+      <c r="F442" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="G442" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I442" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="J442" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="K442" s="9">
         <f t="shared" si="40"/>
@@ -15242,54 +15264,67 @@
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="6"/>
-      <c r="B443" s="6"/>
+      <c r="B443" s="6">
+        <v>25666</v>
+      </c>
       <c r="C443" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="D443">
+        <v>25734</v>
+      </c>
+      <c r="D443" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E443"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E443" t="s">
+        <v>7</v>
+      </c>
       <c r="G443" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I443" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J443" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K443" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A444" s="6"/>
-      <c r="B444" s="6"/>
+    <row r="444" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A444" s="10">
+        <v>43768</v>
+      </c>
+      <c r="B444" s="6">
+        <v>25734</v>
+      </c>
       <c r="C444" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="D444">
+        <v>25805</v>
+      </c>
+      <c r="D444" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E444"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E444" t="s">
+        <v>6</v>
+      </c>
+      <c r="F444" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="G444" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I444" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="J444" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="K444" s="9">
         <f t="shared" si="40"/>
@@ -15298,26 +15333,30 @@
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="6"/>
-      <c r="B445" s="6"/>
+      <c r="B445" s="6">
+        <v>25805</v>
+      </c>
       <c r="C445" s="6">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="D445">
+      <c r="D445" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E445"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E445" t="s">
+        <v>7</v>
+      </c>
       <c r="G445" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I445" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>-25805</v>
       </c>
       <c r="J445" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>-25805</v>
       </c>
       <c r="K445" s="9">
         <f t="shared" si="40"/>
@@ -15331,9 +15370,9 @@
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="D446">
+      <c r="D446" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E446"/>
       <c r="G446" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD31019-3E09-47D6-BB4D-75ACF3072C64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359C74ED-0391-44EB-9F96-9654C6AB86EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="60">
   <si>
     <t>Datum</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>Omleiding via Houten-Oost door wegwerkzaamheden</t>
+  </si>
+  <si>
+    <t>Alternatieve route via A1, daarna verkeerde afslag genomen bij Weesp. Extra omrijkilometers</t>
   </si>
 </sst>
 </file>
@@ -689,7 +692,7 @@
   <dimension ref="A1:L547"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A411" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A446" sqref="A446"/>
+      <selection activeCell="F449" sqref="F449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14745,7 +14748,7 @@
       </c>
       <c r="L427" s="4">
         <f>SUM(K146:K800)</f>
-        <v>351</v>
+        <v>364</v>
       </c>
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.25">
@@ -15338,7 +15341,7 @@
       </c>
       <c r="C445" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>25872</v>
       </c>
       <c r="D445" t="str">
         <f t="shared" si="37"/>
@@ -15352,11 +15355,11 @@
       </c>
       <c r="I445" s="9">
         <f t="shared" si="36"/>
-        <v>-25805</v>
+        <v>67</v>
       </c>
       <c r="J445" s="6">
         <f t="shared" si="39"/>
-        <v>-25805</v>
+        <v>67</v>
       </c>
       <c r="K445" s="9">
         <f t="shared" si="40"/>
@@ -15364,23 +15367,29 @@
       </c>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A446" s="6"/>
-      <c r="B446" s="6"/>
+      <c r="A446" s="10">
+        <v>43769</v>
+      </c>
+      <c r="B446" s="6">
+        <v>25872</v>
+      </c>
       <c r="C446" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>25879</v>
       </c>
       <c r="D446" t="str">
         <f t="shared" si="37"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E446"/>
+      <c r="E446" t="s">
+        <v>47</v>
+      </c>
       <c r="G446" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I446" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J446" s="6">
         <f t="shared" si="39"/>
@@ -15388,27 +15397,31 @@
       </c>
       <c r="K446" s="6">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="6"/>
-      <c r="B447" s="6"/>
+      <c r="B447" s="6">
+        <v>25879</v>
+      </c>
       <c r="C447" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="D447">
+        <v>25885</v>
+      </c>
+      <c r="D447" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E447"/>
+        <v xml:space="preserve">1511  BX, Landsmeer </v>
+      </c>
+      <c r="E447" t="s">
+        <v>7</v>
+      </c>
       <c r="G447" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I447" s="9">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J447" s="6">
         <f t="shared" si="39"/>
@@ -15416,31 +15429,40 @@
       </c>
       <c r="K447" s="6">
         <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A448" s="6"/>
-      <c r="B448" s="6"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="448" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A448" s="10">
+        <v>43770</v>
+      </c>
+      <c r="B448" s="6">
+        <v>25885</v>
+      </c>
       <c r="C448" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="D448">
+        <v>25963</v>
+      </c>
+      <c r="D448" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E448"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E448" t="s">
+        <v>6</v>
+      </c>
+      <c r="F448" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="G448" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I448" s="9">
         <f t="shared" ref="I448:I511" si="41">(C448-B448)</f>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="J448" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="K448" s="6">
         <f t="shared" si="40"/>
@@ -15449,26 +15471,30 @@
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="6"/>
-      <c r="B449" s="6"/>
+      <c r="B449" s="6">
+        <v>25963</v>
+      </c>
       <c r="C449" s="6">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="D449">
+      <c r="D449" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E449"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E449" t="s">
+        <v>7</v>
+      </c>
       <c r="G449" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I449" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>-25963</v>
       </c>
       <c r="J449" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>-25963</v>
       </c>
       <c r="K449" s="6">
         <f t="shared" si="40"/>
@@ -15482,9 +15508,9 @@
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="D450">
+      <c r="D450" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E450"/>
       <c r="G450" s="4" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359C74ED-0391-44EB-9F96-9654C6AB86EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9DF298-D347-4700-B5F7-A2EE5D406EF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
   <sheets>
     <sheet name="Kilometers" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Kilometers!$A$1:$K$501</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Kilometers!$A$1:$K$502</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="63">
   <si>
     <t>Datum</t>
   </si>
@@ -261,6 +261,15 @@
   </si>
   <si>
     <t>Alternatieve route via A1, daarna verkeerde afslag genomen bij Weesp. Extra omrijkilometers</t>
+  </si>
+  <si>
+    <t>Oosmolenweg 101, 4481PM, Kloetinge</t>
+  </si>
+  <si>
+    <t>Hollandschdiep, Zaandam</t>
+  </si>
+  <si>
+    <t>1511 BX, Landsmeer</t>
   </si>
 </sst>
 </file>
@@ -689,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
-  <dimension ref="A1:L547"/>
+  <dimension ref="A1:L548"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A411" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F449" sqref="F449"/>
+    <sheetView tabSelected="1" topLeftCell="A433" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A455" sqref="A455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14194,7 +14203,7 @@
         <v>23437</v>
       </c>
       <c r="C411" s="6">
-        <f t="shared" ref="C411:C474" si="38">B412</f>
+        <f t="shared" ref="C411:C475" si="38">B412</f>
         <v>23504</v>
       </c>
       <c r="D411" t="str">
@@ -14310,11 +14319,11 @@
         <v>71</v>
       </c>
       <c r="J414" s="6">
-        <f t="shared" ref="J414:J477" si="39">IF(AND(G414 = "Zakelijk", H414 = ""), I414, IF(AND(G414 = "Zakelijk", NOT(H414 = "")), I414 - H414, 0))</f>
+        <f t="shared" ref="J414:J478" si="39">IF(AND(G414 = "Zakelijk", H414 = ""), I414, IF(AND(G414 = "Zakelijk", NOT(H414 = "")), I414 - H414, 0))</f>
         <v>71</v>
       </c>
       <c r="K414" s="9">
-        <f t="shared" ref="K414:K477" si="40">IF(AND(G414 = "Zakelijk", NOT(H414 = "")), H414, IF(G414 = "Privé", I414, 0))</f>
+        <f t="shared" ref="K414:K478" si="40">IF(AND(G414 = "Zakelijk", NOT(H414 = "")), H414, IF(G414 = "Privé", I414, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -14747,8 +14756,8 @@
         <v>0</v>
       </c>
       <c r="L427" s="4">
-        <f>SUM(K146:K800)</f>
-        <v>364</v>
+        <f>SUM(K146:K801)</f>
+        <v>399</v>
       </c>
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.25">
@@ -15457,7 +15466,7 @@
         <v>10</v>
       </c>
       <c r="I448" s="9">
-        <f t="shared" ref="I448:I511" si="41">(C448-B448)</f>
+        <f t="shared" ref="I448:I512" si="41">(C448-B448)</f>
         <v>78</v>
       </c>
       <c r="J448" s="6">
@@ -15476,7 +15485,7 @@
       </c>
       <c r="C449" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>26030</v>
       </c>
       <c r="D449" t="str">
         <f t="shared" si="37"/>
@@ -15490,11 +15499,11 @@
       </c>
       <c r="I449" s="9">
         <f t="shared" si="41"/>
-        <v>-25963</v>
+        <v>67</v>
       </c>
       <c r="J449" s="6">
         <f t="shared" si="39"/>
-        <v>-25963</v>
+        <v>67</v>
       </c>
       <c r="K449" s="6">
         <f t="shared" si="40"/>
@@ -15503,22 +15512,26 @@
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="6"/>
-      <c r="B450" s="6"/>
+      <c r="B450" s="6">
+        <v>26030</v>
+      </c>
       <c r="C450" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>26035</v>
       </c>
       <c r="D450" t="str">
         <f t="shared" si="37"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E450"/>
+      <c r="E450" t="s">
+        <v>62</v>
+      </c>
       <c r="G450" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I450" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J450" s="6">
         <f t="shared" si="39"/>
@@ -15526,27 +15539,31 @@
       </c>
       <c r="K450" s="9">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="6"/>
-      <c r="B451" s="6"/>
+      <c r="B451" s="6">
+        <v>26035</v>
+      </c>
       <c r="C451" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="D451">
+        <v>26039</v>
+      </c>
+      <c r="D451" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E451"/>
+        <v>1511 BX, Landsmeer</v>
+      </c>
+      <c r="E451" t="s">
+        <v>7</v>
+      </c>
       <c r="G451" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I451" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J451" s="6">
         <f t="shared" si="39"/>
@@ -15554,31 +15571,37 @@
       </c>
       <c r="K451" s="9">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A452" s="6"/>
-      <c r="B452" s="6"/>
+      <c r="A452" s="10">
+        <v>43773</v>
+      </c>
+      <c r="B452" s="6">
+        <v>26039</v>
+      </c>
       <c r="C452" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="D452">
+        <v>26107</v>
+      </c>
+      <c r="D452" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E452"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E452" t="s">
+        <v>6</v>
+      </c>
       <c r="G452" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I452" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J452" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K452" s="9">
         <f t="shared" si="40"/>
@@ -15587,26 +15610,30 @@
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="6"/>
-      <c r="B453" s="6"/>
+      <c r="B453" s="6">
+        <v>26107</v>
+      </c>
       <c r="C453" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="D453">
-        <f t="shared" ref="D453:D485" si="42">E452</f>
-        <v>0</v>
-      </c>
-      <c r="E453"/>
+        <v>26174</v>
+      </c>
+      <c r="D453" t="str">
+        <f t="shared" ref="D453:D486" si="42">E452</f>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E453" t="s">
+        <v>7</v>
+      </c>
       <c r="G453" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I453" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J453" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K453" s="9">
         <f t="shared" si="40"/>
@@ -15614,27 +15641,33 @@
       </c>
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A454" s="6"/>
-      <c r="B454" s="6"/>
+      <c r="A454" s="10">
+        <v>43774</v>
+      </c>
+      <c r="B454" s="6">
+        <v>26174</v>
+      </c>
       <c r="C454" s="6">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="D454">
+        <f>B455</f>
+        <v>26242</v>
+      </c>
+      <c r="D454" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="E454"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E454" t="s">
+        <v>6</v>
+      </c>
       <c r="G454" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I454" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J454" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K454" s="9">
         <f t="shared" si="40"/>
@@ -15643,26 +15676,29 @@
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="6"/>
-      <c r="B455" s="6"/>
+      <c r="B455" s="6">
+        <v>26242</v>
+      </c>
       <c r="C455" s="6">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="D455">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="E455"/>
+        <v>26310</v>
+      </c>
+      <c r="D455" t="str">
+        <f>E454</f>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E455" t="s">
+        <v>7</v>
+      </c>
       <c r="G455" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I455" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J455" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K455" s="6">
         <f t="shared" si="40"/>
@@ -15670,27 +15706,31 @@
       </c>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A456" s="6"/>
-      <c r="B456" s="6"/>
+      <c r="A456" s="10">
+        <v>43776</v>
+      </c>
+      <c r="B456" s="6">
+        <v>26310</v>
+      </c>
       <c r="C456" s="6">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="D456">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="E456"/>
-      <c r="G456" s="4" t="s">
+        <v>26377</v>
+      </c>
+      <c r="D456" t="s">
+        <v>7</v>
+      </c>
+      <c r="E456" t="s">
+        <v>6</v>
+      </c>
+      <c r="G456" s="11" t="s">
         <v>10</v>
       </c>
       <c r="I456" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J456" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K456" s="6">
         <f t="shared" si="40"/>
@@ -15699,26 +15739,29 @@
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="6"/>
-      <c r="B457" s="6"/>
+      <c r="B457" s="6">
+        <v>26377</v>
+      </c>
       <c r="C457" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="D457">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="E457"/>
+        <v>26445</v>
+      </c>
+      <c r="D457" t="s">
+        <v>6</v>
+      </c>
+      <c r="E457" t="s">
+        <v>7</v>
+      </c>
       <c r="G457" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I457" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J457" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K457" s="6">
         <f t="shared" si="40"/>
@@ -15726,23 +15769,29 @@
       </c>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A458" s="6"/>
-      <c r="B458" s="6"/>
+      <c r="A458" s="10">
+        <v>43778</v>
+      </c>
+      <c r="B458" s="6">
+        <v>26445</v>
+      </c>
       <c r="C458" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="D458">
+        <v>26450</v>
+      </c>
+      <c r="D458" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="E458"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E458" t="s">
+        <v>61</v>
+      </c>
       <c r="G458" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I458" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J458" s="6">
         <f t="shared" si="39"/>
@@ -15750,55 +15799,65 @@
       </c>
       <c r="K458" s="6">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="6"/>
-      <c r="B459" s="6"/>
+      <c r="B459" s="6">
+        <v>26450</v>
+      </c>
       <c r="C459" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="D459">
+        <v>26455</v>
+      </c>
+      <c r="D459" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="E459"/>
-      <c r="G459" t="s">
-        <v>10</v>
+        <v>Hollandschdiep, Zaandam</v>
+      </c>
+      <c r="E459" t="s">
+        <v>7</v>
+      </c>
+      <c r="G459" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="I459" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J459" s="6">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="K459" s="9">
+      <c r="K459" s="6">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A460" s="6"/>
-      <c r="B460" s="6"/>
+      <c r="A460" s="10">
+        <v>43779</v>
+      </c>
+      <c r="B460" s="6">
+        <v>26455</v>
+      </c>
       <c r="C460" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="D460">
+        <v>26463</v>
+      </c>
+      <c r="D460" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="E460"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E460" t="s">
+        <v>24</v>
+      </c>
       <c r="G460" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I460" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J460" s="6">
         <f t="shared" si="39"/>
@@ -15806,27 +15865,31 @@
       </c>
       <c r="K460" s="9">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="6"/>
-      <c r="B461" s="6"/>
+      <c r="B461" s="6">
+        <v>26463</v>
+      </c>
       <c r="C461" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="D461">
+        <v>26471</v>
+      </c>
+      <c r="D461" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="E461"/>
+        <v>Doktersland 20, Koog aan de Zaan</v>
+      </c>
+      <c r="E461" t="s">
+        <v>7</v>
+      </c>
       <c r="G461" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I461" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J461" s="6">
         <f t="shared" si="39"/>
@@ -15834,31 +15897,36 @@
       </c>
       <c r="K461" s="9">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A462" s="6"/>
-      <c r="B462" s="6"/>
+      <c r="A462" s="10">
+        <v>43781</v>
+      </c>
+      <c r="B462" s="6">
+        <v>26471</v>
+      </c>
       <c r="C462" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="D462">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="E462"/>
+        <v>26658</v>
+      </c>
+      <c r="D462" t="s">
+        <v>7</v>
+      </c>
+      <c r="E462" t="s">
+        <v>60</v>
+      </c>
       <c r="G462" t="s">
         <v>10</v>
       </c>
       <c r="I462" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="J462" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="K462" s="9">
         <f t="shared" si="40"/>
@@ -15866,27 +15934,31 @@
       </c>
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A463" s="6"/>
-      <c r="B463" s="6"/>
+      <c r="A463" s="10"/>
+      <c r="B463" s="6">
+        <v>26658</v>
+      </c>
       <c r="C463" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="D463">
+        <v>26846</v>
+      </c>
+      <c r="D463" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="E463"/>
+        <v>Oosmolenweg 101, 4481PM, Kloetinge</v>
+      </c>
+      <c r="E463" t="s">
+        <v>7</v>
+      </c>
       <c r="G463" t="s">
         <v>10</v>
       </c>
       <c r="I463" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="J463" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="K463" s="9">
         <f t="shared" si="40"/>
@@ -15894,55 +15966,65 @@
       </c>
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A464" s="6"/>
-      <c r="B464" s="6"/>
+      <c r="A464" s="10">
+        <v>43782</v>
+      </c>
+      <c r="B464" s="6">
+        <v>26846</v>
+      </c>
       <c r="C464" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="D464">
+        <v>26889</v>
+      </c>
+      <c r="D464" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="E464"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E464" t="s">
+        <v>20</v>
+      </c>
       <c r="G464" t="s">
         <v>10</v>
       </c>
       <c r="I464" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="J464" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="K464" s="6">
+        <v>43</v>
+      </c>
+      <c r="K464" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A465" s="6"/>
-      <c r="B465" s="6"/>
+      <c r="A465" s="10"/>
+      <c r="B465" s="6">
+        <v>26889</v>
+      </c>
       <c r="C465" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="D465">
+        <v>26932</v>
+      </c>
+      <c r="D465" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="E465"/>
+        <v>Veluwezoom 4, 1327AG, Almere</v>
+      </c>
+      <c r="E465" t="s">
+        <v>7</v>
+      </c>
       <c r="G465" t="s">
         <v>10</v>
       </c>
       <c r="I465" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="J465" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="K465" s="6">
         <f t="shared" si="40"/>
@@ -15950,27 +16032,33 @@
       </c>
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A466" s="6"/>
-      <c r="B466" s="6"/>
+      <c r="A466" s="10">
+        <v>43787</v>
+      </c>
+      <c r="B466" s="6">
+        <v>26932</v>
+      </c>
       <c r="C466" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="D466">
+        <v>27001</v>
+      </c>
+      <c r="D466" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="E466"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E466" t="s">
+        <v>6</v>
+      </c>
       <c r="G466" t="s">
         <v>10</v>
       </c>
       <c r="I466" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="J466" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="K466" s="6">
         <f t="shared" si="40"/>
@@ -15978,27 +16066,31 @@
       </c>
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A467" s="6"/>
-      <c r="B467" s="6"/>
+      <c r="A467" s="10"/>
+      <c r="B467" s="6">
+        <v>27001</v>
+      </c>
       <c r="C467" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="D467">
+        <v>27069</v>
+      </c>
+      <c r="D467" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="E467"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E467" t="s">
+        <v>7</v>
+      </c>
       <c r="G467" t="s">
         <v>10</v>
       </c>
       <c r="I467" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J467" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K467" s="6">
         <f t="shared" si="40"/>
@@ -16006,55 +16098,65 @@
       </c>
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A468" s="6"/>
-      <c r="B468" s="6"/>
+      <c r="A468" s="10">
+        <v>43789</v>
+      </c>
+      <c r="B468" s="6">
+        <v>27069</v>
+      </c>
       <c r="C468" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="D468">
+        <v>27137</v>
+      </c>
+      <c r="D468" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="E468"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E468" t="s">
+        <v>6</v>
+      </c>
       <c r="G468" t="s">
         <v>10</v>
       </c>
       <c r="I468" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J468" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="K468" s="9">
+        <v>68</v>
+      </c>
+      <c r="K468" s="6">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A469" s="6"/>
-      <c r="B469" s="6"/>
+      <c r="A469" s="10"/>
+      <c r="B469" s="6">
+        <v>27137</v>
+      </c>
       <c r="C469" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="D469">
+        <v>27205</v>
+      </c>
+      <c r="D469" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="E469"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E469" t="s">
+        <v>7</v>
+      </c>
       <c r="G469" t="s">
         <v>10</v>
       </c>
       <c r="I469" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J469" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K469" s="9">
         <f t="shared" si="40"/>
@@ -16062,27 +16164,33 @@
       </c>
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A470" s="6"/>
-      <c r="B470" s="6"/>
+      <c r="A470" s="10">
+        <v>43791</v>
+      </c>
+      <c r="B470" s="6">
+        <v>27205</v>
+      </c>
       <c r="C470" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="D470">
+        <v>27272</v>
+      </c>
+      <c r="D470" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="E470"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E470" t="s">
+        <v>6</v>
+      </c>
       <c r="G470" t="s">
         <v>10</v>
       </c>
       <c r="I470" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J470" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K470" s="9">
         <f t="shared" si="40"/>
@@ -16091,26 +16199,30 @@
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="6"/>
-      <c r="B471" s="6"/>
+      <c r="B471" s="6">
+        <v>27272</v>
+      </c>
       <c r="C471" s="6">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="D471">
+      <c r="D471" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="E471"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E471" t="s">
+        <v>7</v>
+      </c>
       <c r="G471" t="s">
         <v>10</v>
       </c>
       <c r="I471" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>-27272</v>
       </c>
       <c r="J471" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>-27272</v>
       </c>
       <c r="K471" s="9">
         <f t="shared" si="40"/>
@@ -16124,9 +16236,9 @@
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="D472">
+      <c r="D472" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E472"/>
       <c r="G472" t="s">
@@ -16168,7 +16280,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="K473" s="6">
+      <c r="K473" s="9">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -16205,7 +16317,7 @@
       <c r="A475" s="6"/>
       <c r="B475" s="6"/>
       <c r="C475" s="6">
-        <f t="shared" ref="C475:C485" si="43">B476</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="D475">
@@ -16233,7 +16345,7 @@
       <c r="A476" s="6"/>
       <c r="B476" s="6"/>
       <c r="C476" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="C476:C486" si="43">B477</f>
         <v>0</v>
       </c>
       <c r="D476">
@@ -16280,7 +16392,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="K477" s="9">
+      <c r="K477" s="6">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -16305,11 +16417,11 @@
         <v>0</v>
       </c>
       <c r="J478" s="6">
-        <f t="shared" ref="J478:J533" si="44">IF(AND(G478 = "Zakelijk", H478 = ""), I478, IF(AND(G478 = "Zakelijk", NOT(H478 = "")), I478 - H478, 0))</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="K478" s="9">
-        <f t="shared" ref="K478:K541" si="45">IF(AND(G478 = "Zakelijk", NOT(H478 = "")), H478, IF(G478 = "Privé", I478, 0))</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
@@ -16333,11 +16445,11 @@
         <v>0</v>
       </c>
       <c r="J479" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="J479:J534" si="44">IF(AND(G479 = "Zakelijk", H479 = ""), I479, IF(AND(G479 = "Zakelijk", NOT(H479 = "")), I479 - H479, 0))</f>
         <v>0</v>
       </c>
       <c r="K479" s="9">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="K479:K542" si="45">IF(AND(G479 = "Zakelijk", NOT(H479 = "")), H479, IF(G479 = "Privé", I479, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -16420,7 +16532,7 @@
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="K482" s="6">
+      <c r="K482" s="9">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
@@ -16512,7 +16624,15 @@
     <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="6"/>
       <c r="B486" s="6"/>
-      <c r="C486" s="6"/>
+      <c r="C486" s="6">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="D486">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="E486"/>
       <c r="G486" t="s">
         <v>10</v>
       </c>
@@ -16524,7 +16644,7 @@
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="K486" s="9">
+      <c r="K486" s="6">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
@@ -16624,7 +16744,7 @@
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="K491" s="6">
+      <c r="K491" s="9">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
@@ -16704,7 +16824,7 @@
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="K495" s="9">
+      <c r="K495" s="6">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
@@ -16804,7 +16924,7 @@
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="K500" s="6">
+      <c r="K500" s="9">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
@@ -17037,7 +17157,7 @@
         <v>10</v>
       </c>
       <c r="I512" s="9">
-        <f t="shared" ref="I512:I545" si="46">(C512-B512)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="J512" s="6">
@@ -17057,7 +17177,7 @@
         <v>10</v>
       </c>
       <c r="I513" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="I513:I546" si="46">(C513-B513)</f>
         <v>0</v>
       </c>
       <c r="J513" s="6">
@@ -17481,7 +17601,7 @@
         <v>0</v>
       </c>
       <c r="J534" s="6">
-        <f t="shared" ref="J534:J541" si="47">IF(AND(G534 = "Zakelijk", H534 = ""), I534, IF(AND(G534 = "Zakelijk", NOT(H534 = "")), I534 - H534, 0))</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="K534" s="6">
@@ -17501,7 +17621,7 @@
         <v>0</v>
       </c>
       <c r="J535" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="J535:J542" si="47">IF(AND(G535 = "Zakelijk", H535 = ""), I535, IF(AND(G535 = "Zakelijk", NOT(H535 = "")), I535 - H535, 0))</f>
         <v>0</v>
       </c>
       <c r="K535" s="6">
@@ -17641,11 +17761,11 @@
         <v>0</v>
       </c>
       <c r="J542" s="6">
-        <f>IF(AND(G542 = "Zakelijk", H542 = ""), I542, IF(AND(G542 = "Zakelijk", NOT(H542 = "")), I542 - H542, 0))</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="K542" s="6">
-        <f>IF(AND(G542 = "Zakelijk", NOT(H542 = "")), H542, IF(G542 = "Privé", I542, 0))</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
@@ -17713,14 +17833,34 @@
       <c r="A546" s="6"/>
       <c r="B546" s="6"/>
       <c r="C546" s="6"/>
+      <c r="G546" t="s">
+        <v>10</v>
+      </c>
+      <c r="I546" s="9">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J546" s="6">
+        <f>IF(AND(G546 = "Zakelijk", H546 = ""), I546, IF(AND(G546 = "Zakelijk", NOT(H546 = "")), I546 - H546, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="K546" s="6">
+        <f>IF(AND(G546 = "Zakelijk", NOT(H546 = "")), H546, IF(G546 = "Privé", I546, 0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="6"/>
       <c r="B547" s="6"/>
       <c r="C547" s="6"/>
     </row>
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A548" s="6"/>
+      <c r="B548" s="6"/>
+      <c r="C548" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K501" xr:uid="{456FFE04-82F2-4B53-8F25-83E6DFC8A407}"/>
+  <autoFilter ref="A1:K502" xr:uid="{456FFE04-82F2-4B53-8F25-83E6DFC8A407}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9DF298-D347-4700-B5F7-A2EE5D406EF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078A9BE9-BDAF-4E52-A531-02489D9A5642}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
+    <workbookView xWindow="1995" yWindow="-15870" windowWidth="25440" windowHeight="15540" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
   <sheets>
     <sheet name="Kilometers" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="63">
   <si>
     <t>Datum</t>
   </si>
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:L548"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A433" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A455" sqref="A455"/>
+    <sheetView tabSelected="1" topLeftCell="A445" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A478" sqref="A478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14757,7 +14757,7 @@
       </c>
       <c r="L427" s="4">
         <f>SUM(K146:K801)</f>
-        <v>399</v>
+        <v>415</v>
       </c>
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.25">
@@ -16204,7 +16204,7 @@
       </c>
       <c r="C471" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>27340</v>
       </c>
       <c r="D471" t="str">
         <f t="shared" si="42"/>
@@ -16218,11 +16218,11 @@
       </c>
       <c r="I471" s="9">
         <f t="shared" si="41"/>
-        <v>-27272</v>
+        <v>68</v>
       </c>
       <c r="J471" s="6">
         <f t="shared" si="39"/>
-        <v>-27272</v>
+        <v>68</v>
       </c>
       <c r="K471" s="9">
         <f t="shared" si="40"/>
@@ -16230,27 +16230,33 @@
       </c>
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A472" s="6"/>
-      <c r="B472" s="6"/>
+      <c r="A472" s="10">
+        <v>43794</v>
+      </c>
+      <c r="B472" s="6">
+        <v>27340</v>
+      </c>
       <c r="C472" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>27408</v>
       </c>
       <c r="D472" t="str">
         <f t="shared" si="42"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E472"/>
+      <c r="E472" t="s">
+        <v>6</v>
+      </c>
       <c r="G472" t="s">
         <v>10</v>
       </c>
       <c r="I472" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J472" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K472" s="9">
         <f t="shared" si="40"/>
@@ -16259,26 +16265,30 @@
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="6"/>
-      <c r="B473" s="6"/>
+      <c r="B473" s="6">
+        <v>27408</v>
+      </c>
       <c r="C473" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="D473">
+        <v>27476</v>
+      </c>
+      <c r="D473" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="E473"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E473" t="s">
+        <v>7</v>
+      </c>
       <c r="G473" t="s">
         <v>10</v>
       </c>
       <c r="I473" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J473" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K473" s="9">
         <f t="shared" si="40"/>
@@ -16286,27 +16296,33 @@
       </c>
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A474" s="6"/>
-      <c r="B474" s="6"/>
+      <c r="A474" s="10">
+        <v>43798</v>
+      </c>
+      <c r="B474" s="6">
+        <v>27476</v>
+      </c>
       <c r="C474" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="D474">
+        <v>27544</v>
+      </c>
+      <c r="D474" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="E474"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E474" t="s">
+        <v>6</v>
+      </c>
       <c r="G474" t="s">
         <v>10</v>
       </c>
       <c r="I474" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J474" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K474" s="6">
         <f t="shared" si="40"/>
@@ -16315,26 +16331,30 @@
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="6"/>
-      <c r="B475" s="6"/>
+      <c r="B475" s="6">
+        <v>27544</v>
+      </c>
       <c r="C475" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="D475">
+        <v>27611</v>
+      </c>
+      <c r="D475" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="E475"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E475" t="s">
+        <v>7</v>
+      </c>
       <c r="G475" t="s">
         <v>10</v>
       </c>
       <c r="I475" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J475" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K475" s="6">
         <f t="shared" si="40"/>
@@ -16342,23 +16362,28 @@
       </c>
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A476" s="6"/>
-      <c r="B476" s="6"/>
+      <c r="A476" s="10">
+        <v>43799</v>
+      </c>
+      <c r="B476" s="6">
+        <v>27611</v>
+      </c>
       <c r="C476" s="6">
         <f t="shared" ref="C476:C486" si="43">B477</f>
-        <v>0</v>
-      </c>
-      <c r="D476">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="E476"/>
+        <v>27620</v>
+      </c>
+      <c r="D476" t="s">
+        <v>7</v>
+      </c>
+      <c r="E476" t="s">
+        <v>19</v>
+      </c>
       <c r="G476" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I476" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J476" s="6">
         <f t="shared" si="39"/>
@@ -16366,27 +16391,31 @@
       </c>
       <c r="K476" s="6">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="6"/>
-      <c r="B477" s="6"/>
+      <c r="B477" s="6">
+        <v>27620</v>
+      </c>
       <c r="C477" s="6">
         <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="D477">
+        <v>27627</v>
+      </c>
+      <c r="D477" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="E477"/>
+        <v>Zuiderhoofdstraat 32, Krommenie</v>
+      </c>
+      <c r="E477" t="s">
+        <v>7</v>
+      </c>
       <c r="G477" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I477" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J477" s="6">
         <f t="shared" si="39"/>
@@ -16394,31 +16423,37 @@
       </c>
       <c r="K477" s="6">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A478" s="6"/>
-      <c r="B478" s="6"/>
+      <c r="A478" s="10">
+        <v>43771</v>
+      </c>
+      <c r="B478" s="6">
+        <v>27627</v>
+      </c>
       <c r="C478" s="6">
         <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="D478">
+        <v>27695</v>
+      </c>
+      <c r="D478" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="E478"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E478" t="s">
+        <v>6</v>
+      </c>
       <c r="G478" t="s">
         <v>10</v>
       </c>
       <c r="I478" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J478" s="6">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K478" s="9">
         <f t="shared" si="40"/>
@@ -16427,26 +16462,30 @@
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="6"/>
-      <c r="B479" s="6"/>
+      <c r="B479" s="6">
+        <v>27695</v>
+      </c>
       <c r="C479" s="6">
         <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="D479">
+        <v>27763</v>
+      </c>
+      <c r="D479" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="E479"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E479" t="s">
+        <v>7</v>
+      </c>
       <c r="G479" t="s">
         <v>10</v>
       </c>
       <c r="I479" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J479" s="6">
         <f t="shared" ref="J479:J534" si="44">IF(AND(G479 = "Zakelijk", H479 = ""), I479, IF(AND(G479 = "Zakelijk", NOT(H479 = "")), I479 - H479, 0))</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K479" s="9">
         <f t="shared" ref="K479:K542" si="45">IF(AND(G479 = "Zakelijk", NOT(H479 = "")), H479, IF(G479 = "Privé", I479, 0))</f>
@@ -16454,27 +16493,32 @@
       </c>
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A480" s="6"/>
-      <c r="B480" s="6"/>
+      <c r="A480" s="10">
+        <v>43772</v>
+      </c>
+      <c r="B480" s="6">
+        <v>27763</v>
+      </c>
       <c r="C480" s="6">
         <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="D480">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="E480"/>
+        <v>27831</v>
+      </c>
+      <c r="D480" t="s">
+        <v>7</v>
+      </c>
+      <c r="E480" t="s">
+        <v>6</v>
+      </c>
       <c r="G480" t="s">
         <v>10</v>
       </c>
       <c r="I480" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J480" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K480" s="9">
         <f t="shared" si="45"/>
@@ -16483,26 +16527,30 @@
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="6"/>
-      <c r="B481" s="6"/>
+      <c r="B481" s="6">
+        <v>27831</v>
+      </c>
       <c r="C481" s="6">
         <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="D481">
+        <v>27899</v>
+      </c>
+      <c r="D481" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="E481"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E481" t="s">
+        <v>7</v>
+      </c>
       <c r="G481" t="s">
         <v>10</v>
       </c>
       <c r="I481" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J481" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K481" s="9">
         <f t="shared" si="45"/>
@@ -16510,27 +16558,32 @@
       </c>
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A482" s="6"/>
-      <c r="B482" s="6"/>
+      <c r="A482" s="10">
+        <v>43803</v>
+      </c>
+      <c r="B482" s="6">
+        <v>27899</v>
+      </c>
       <c r="C482" s="6">
         <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="D482">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="E482"/>
+        <v>27967</v>
+      </c>
+      <c r="D482" t="s">
+        <v>7</v>
+      </c>
+      <c r="E482" t="s">
+        <v>6</v>
+      </c>
       <c r="G482" t="s">
         <v>10</v>
       </c>
       <c r="I482" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J482" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K482" s="9">
         <f t="shared" si="45"/>
@@ -16539,26 +16592,30 @@
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="6"/>
-      <c r="B483" s="6"/>
+      <c r="B483" s="6">
+        <v>27967</v>
+      </c>
       <c r="C483" s="6">
         <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="D483">
+        <v>28034</v>
+      </c>
+      <c r="D483" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="E483"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E483" t="s">
+        <v>7</v>
+      </c>
       <c r="G483" t="s">
         <v>10</v>
       </c>
       <c r="I483" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J483" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K483" s="6">
         <f t="shared" si="45"/>
@@ -16566,27 +16623,32 @@
       </c>
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A484" s="6"/>
-      <c r="B484" s="6"/>
+      <c r="A484" s="10">
+        <v>43804</v>
+      </c>
+      <c r="B484" s="6">
+        <v>28034</v>
+      </c>
       <c r="C484" s="6">
         <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="D484">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="E484"/>
+        <v>28125</v>
+      </c>
+      <c r="D484" t="s">
+        <v>7</v>
+      </c>
+      <c r="E484" t="s">
+        <v>54</v>
+      </c>
       <c r="G484" t="s">
         <v>10</v>
       </c>
       <c r="I484" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="J484" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="K484" s="6">
         <f t="shared" si="45"/>
@@ -16595,26 +16657,30 @@
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="6"/>
-      <c r="B485" s="6"/>
+      <c r="B485" s="6">
+        <v>28125</v>
+      </c>
       <c r="C485" s="6">
         <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="D485">
+        <v>28218</v>
+      </c>
+      <c r="D485" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="E485"/>
+        <v>Hogeweg 3, 5301 LB, Zaltbommel</v>
+      </c>
+      <c r="E485" t="s">
+        <v>7</v>
+      </c>
       <c r="G485" t="s">
         <v>10</v>
       </c>
       <c r="I485" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="J485" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="K485" s="6">
         <f t="shared" si="45"/>
@@ -16622,27 +16688,33 @@
       </c>
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A486" s="6"/>
-      <c r="B486" s="6"/>
+      <c r="A486" s="10">
+        <v>43808</v>
+      </c>
+      <c r="B486" s="6">
+        <v>28218</v>
+      </c>
       <c r="C486" s="6">
         <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="D486">
+        <v>28286</v>
+      </c>
+      <c r="D486" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="E486"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E486" t="s">
+        <v>6</v>
+      </c>
       <c r="G486" t="s">
         <v>10</v>
       </c>
       <c r="I486" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J486" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K486" s="6">
         <f t="shared" si="45"/>
@@ -16651,18 +16723,26 @@
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="6"/>
-      <c r="B487" s="6"/>
+      <c r="B487" s="6">
+        <v>28286</v>
+      </c>
       <c r="C487" s="6"/>
+      <c r="D487" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E487" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="G487" t="s">
         <v>10</v>
       </c>
       <c r="I487" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>-28286</v>
       </c>
       <c r="J487" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>-28286</v>
       </c>
       <c r="K487" s="9">
         <f t="shared" si="45"/>

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078A9BE9-BDAF-4E52-A531-02489D9A5642}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E832E1B9-86EE-4872-95AC-97C01814D07E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1995" yWindow="-15870" windowWidth="25440" windowHeight="15540" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
   <sheets>
     <sheet name="Kilometers" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="63">
   <si>
     <t>Datum</t>
   </si>
@@ -698,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
-  <dimension ref="A1:L548"/>
+  <dimension ref="A1:L613"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A445" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A478" sqref="A478"/>
+    <sheetView tabSelected="1" topLeftCell="A472" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D457" sqref="D457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15618,7 +15618,7 @@
         <v>26174</v>
       </c>
       <c r="D453" t="str">
-        <f t="shared" ref="D453:D486" si="42">E452</f>
+        <f t="shared" ref="D453:D516" si="42">E452</f>
         <v>Duwboot 20, Houten</v>
       </c>
       <c r="E453" t="s">
@@ -15715,8 +15715,9 @@
       <c r="C456" s="6">
         <v>26377</v>
       </c>
-      <c r="D456" t="s">
-        <v>7</v>
+      <c r="D456" t="str">
+        <f>E455</f>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E456" t="s">
         <v>6</v>
@@ -15746,8 +15747,9 @@
         <f t="shared" si="38"/>
         <v>26445</v>
       </c>
-      <c r="D457" t="s">
-        <v>6</v>
+      <c r="D457" t="str">
+        <f>E456</f>
+        <v>Duwboot 20, Houten</v>
       </c>
       <c r="E457" t="s">
         <v>7</v>
@@ -15911,8 +15913,9 @@
         <f t="shared" si="38"/>
         <v>26658</v>
       </c>
-      <c r="D462" t="s">
-        <v>7</v>
+      <c r="D462" t="str">
+        <f>E461</f>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E462" t="s">
         <v>60</v>
@@ -16307,7 +16310,7 @@
         <v>27544</v>
       </c>
       <c r="D474" t="str">
-        <f t="shared" si="42"/>
+        <f>E473</f>
         <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E474" t="s">
@@ -16372,8 +16375,9 @@
         <f t="shared" ref="C476:C486" si="43">B477</f>
         <v>27620</v>
       </c>
-      <c r="D476" t="s">
-        <v>7</v>
+      <c r="D476" t="str">
+        <f t="shared" si="42"/>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E476" t="s">
         <v>19</v>
@@ -16503,8 +16507,9 @@
         <f t="shared" si="43"/>
         <v>27831</v>
       </c>
-      <c r="D480" t="s">
-        <v>7</v>
+      <c r="D480" t="str">
+        <f t="shared" si="42"/>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E480" t="s">
         <v>6</v>
@@ -16568,8 +16573,9 @@
         <f t="shared" si="43"/>
         <v>27967</v>
       </c>
-      <c r="D482" t="s">
-        <v>7</v>
+      <c r="D482" t="str">
+        <f t="shared" si="42"/>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E482" t="s">
         <v>6</v>
@@ -16633,8 +16639,9 @@
         <f t="shared" si="43"/>
         <v>28125</v>
       </c>
-      <c r="D484" t="s">
-        <v>7</v>
+      <c r="D484" t="str">
+        <f t="shared" si="42"/>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E484" t="s">
         <v>54</v>
@@ -16699,7 +16706,7 @@
         <v>28286</v>
       </c>
       <c r="D486" t="str">
-        <f t="shared" si="42"/>
+        <f>E485</f>
         <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="E486" t="s">
@@ -16726,9 +16733,12 @@
       <c r="B487" s="6">
         <v>28286</v>
       </c>
-      <c r="C487" s="6"/>
-      <c r="D487" s="4" t="s">
-        <v>6</v>
+      <c r="C487" s="6">
+        <v>28354</v>
+      </c>
+      <c r="D487" t="str">
+        <f t="shared" si="42"/>
+        <v>Duwboot 20, Houten</v>
       </c>
       <c r="E487" s="4" t="s">
         <v>7</v>
@@ -16738,11 +16748,11 @@
       </c>
       <c r="I487" s="9">
         <f t="shared" si="41"/>
-        <v>-28286</v>
+        <v>68</v>
       </c>
       <c r="J487" s="6">
         <f t="shared" si="44"/>
-        <v>-28286</v>
+        <v>68</v>
       </c>
       <c r="K487" s="9">
         <f t="shared" si="45"/>
@@ -16750,19 +16760,32 @@
       </c>
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A488" s="6"/>
-      <c r="B488" s="6"/>
-      <c r="C488" s="6"/>
+      <c r="A488" s="10">
+        <v>43809</v>
+      </c>
+      <c r="B488" s="6">
+        <v>28354</v>
+      </c>
+      <c r="C488" s="6">
+        <v>28422</v>
+      </c>
+      <c r="D488" t="str">
+        <f t="shared" si="42"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E488" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="G488" t="s">
         <v>10</v>
       </c>
       <c r="I488" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J488" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K488" s="9">
         <f t="shared" si="45"/>
@@ -16771,18 +16794,27 @@
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="6"/>
-      <c r="B489" s="6"/>
+      <c r="B489" s="6">
+        <v>28422</v>
+      </c>
       <c r="C489" s="6"/>
+      <c r="D489" t="str">
+        <f t="shared" si="42"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E489" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="G489" t="s">
         <v>10</v>
       </c>
       <c r="I489" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>-28422</v>
       </c>
       <c r="J489" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>-28422</v>
       </c>
       <c r="K489" s="9">
         <f t="shared" si="45"/>
@@ -16793,6 +16825,10 @@
       <c r="A490" s="6"/>
       <c r="B490" s="6"/>
       <c r="C490" s="6"/>
+      <c r="D490" t="str">
+        <f t="shared" si="42"/>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
       <c r="G490" t="s">
         <v>10</v>
       </c>
@@ -16813,6 +16849,10 @@
       <c r="A491" s="6"/>
       <c r="B491" s="6"/>
       <c r="C491" s="6"/>
+      <c r="D491">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="G491" t="s">
         <v>10</v>
       </c>
@@ -16833,6 +16873,10 @@
       <c r="A492" s="6"/>
       <c r="B492" s="6"/>
       <c r="C492" s="6"/>
+      <c r="D492">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="G492" t="s">
         <v>10</v>
       </c>
@@ -16853,6 +16897,10 @@
       <c r="A493" s="6"/>
       <c r="B493" s="6"/>
       <c r="C493" s="6"/>
+      <c r="D493">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="G493" t="s">
         <v>10</v>
       </c>
@@ -16873,6 +16921,10 @@
       <c r="A494" s="6"/>
       <c r="B494" s="6"/>
       <c r="C494" s="6"/>
+      <c r="D494">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="G494" t="s">
         <v>10</v>
       </c>
@@ -16893,6 +16945,10 @@
       <c r="A495" s="6"/>
       <c r="B495" s="6"/>
       <c r="C495" s="6"/>
+      <c r="D495">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="G495" t="s">
         <v>10</v>
       </c>
@@ -16913,6 +16969,10 @@
       <c r="A496" s="6"/>
       <c r="B496" s="6"/>
       <c r="C496" s="6"/>
+      <c r="D496">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="G496" t="s">
         <v>10</v>
       </c>
@@ -16933,6 +16993,10 @@
       <c r="A497" s="6"/>
       <c r="B497" s="6"/>
       <c r="C497" s="6"/>
+      <c r="D497">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="G497" t="s">
         <v>10</v>
       </c>
@@ -16953,6 +17017,10 @@
       <c r="A498" s="6"/>
       <c r="B498" s="6"/>
       <c r="C498" s="6"/>
+      <c r="D498">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="G498" t="s">
         <v>10</v>
       </c>
@@ -16973,6 +17041,10 @@
       <c r="A499" s="6"/>
       <c r="B499" s="6"/>
       <c r="C499" s="6"/>
+      <c r="D499">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="G499" t="s">
         <v>10</v>
       </c>
@@ -16993,6 +17065,10 @@
       <c r="A500" s="6"/>
       <c r="B500" s="6"/>
       <c r="C500" s="6"/>
+      <c r="D500">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="G500" t="s">
         <v>10</v>
       </c>
@@ -17013,6 +17089,10 @@
       <c r="A501" s="6"/>
       <c r="B501" s="6"/>
       <c r="C501" s="6"/>
+      <c r="D501">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="G501" t="s">
         <v>10</v>
       </c>
@@ -17033,6 +17113,10 @@
       <c r="A502" s="6"/>
       <c r="B502" s="6"/>
       <c r="C502" s="6"/>
+      <c r="D502">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="G502" t="s">
         <v>10</v>
       </c>
@@ -17053,6 +17137,10 @@
       <c r="A503" s="6"/>
       <c r="B503" s="6"/>
       <c r="C503" s="6"/>
+      <c r="D503">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="G503" t="s">
         <v>10</v>
       </c>
@@ -17073,6 +17161,10 @@
       <c r="A504" s="6"/>
       <c r="B504" s="6"/>
       <c r="C504" s="6"/>
+      <c r="D504">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="G504" t="s">
         <v>10</v>
       </c>
@@ -17093,6 +17185,10 @@
       <c r="A505" s="6"/>
       <c r="B505" s="6"/>
       <c r="C505" s="6"/>
+      <c r="D505">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="G505" t="s">
         <v>10</v>
       </c>
@@ -17113,6 +17209,10 @@
       <c r="A506" s="6"/>
       <c r="B506" s="6"/>
       <c r="C506" s="6"/>
+      <c r="D506">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="G506" t="s">
         <v>10</v>
       </c>
@@ -17133,6 +17233,10 @@
       <c r="A507" s="6"/>
       <c r="B507" s="6"/>
       <c r="C507" s="6"/>
+      <c r="D507">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="G507" t="s">
         <v>10</v>
       </c>
@@ -17153,6 +17257,10 @@
       <c r="A508" s="6"/>
       <c r="B508" s="6"/>
       <c r="C508" s="6"/>
+      <c r="D508">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="G508" t="s">
         <v>10</v>
       </c>
@@ -17173,6 +17281,10 @@
       <c r="A509" s="6"/>
       <c r="B509" s="6"/>
       <c r="C509" s="6"/>
+      <c r="D509">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="G509" t="s">
         <v>10</v>
       </c>
@@ -17193,6 +17305,10 @@
       <c r="A510" s="6"/>
       <c r="B510" s="6"/>
       <c r="C510" s="6"/>
+      <c r="D510">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="G510" t="s">
         <v>10</v>
       </c>
@@ -17213,6 +17329,10 @@
       <c r="A511" s="6"/>
       <c r="B511" s="6"/>
       <c r="C511" s="6"/>
+      <c r="D511">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="G511" t="s">
         <v>10</v>
       </c>
@@ -17233,6 +17353,10 @@
       <c r="A512" s="6"/>
       <c r="B512" s="6"/>
       <c r="C512" s="6"/>
+      <c r="D512">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="G512" t="s">
         <v>10</v>
       </c>
@@ -17253,6 +17377,10 @@
       <c r="A513" s="6"/>
       <c r="B513" s="6"/>
       <c r="C513" s="6"/>
+      <c r="D513">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="G513" t="s">
         <v>10</v>
       </c>
@@ -17273,6 +17401,10 @@
       <c r="A514" s="6"/>
       <c r="B514" s="6"/>
       <c r="C514" s="6"/>
+      <c r="D514">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="G514" t="s">
         <v>10</v>
       </c>
@@ -17293,6 +17425,10 @@
       <c r="A515" s="6"/>
       <c r="B515" s="6"/>
       <c r="C515" s="6"/>
+      <c r="D515">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="G515" t="s">
         <v>10</v>
       </c>
@@ -17313,6 +17449,10 @@
       <c r="A516" s="6"/>
       <c r="B516" s="6"/>
       <c r="C516" s="6"/>
+      <c r="D516">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="G516" t="s">
         <v>10</v>
       </c>
@@ -17333,6 +17473,10 @@
       <c r="A517" s="6"/>
       <c r="B517" s="6"/>
       <c r="C517" s="6"/>
+      <c r="D517">
+        <f t="shared" ref="D517:D580" si="47">E516</f>
+        <v>0</v>
+      </c>
       <c r="G517" t="s">
         <v>10</v>
       </c>
@@ -17353,6 +17497,10 @@
       <c r="A518" s="6"/>
       <c r="B518" s="6"/>
       <c r="C518" s="6"/>
+      <c r="D518">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
       <c r="G518" t="s">
         <v>10</v>
       </c>
@@ -17373,6 +17521,10 @@
       <c r="A519" s="6"/>
       <c r="B519" s="6"/>
       <c r="C519" s="6"/>
+      <c r="D519">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
       <c r="G519" t="s">
         <v>10</v>
       </c>
@@ -17393,6 +17545,10 @@
       <c r="A520" s="6"/>
       <c r="B520" s="6"/>
       <c r="C520" s="6"/>
+      <c r="D520">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
       <c r="G520" t="s">
         <v>10</v>
       </c>
@@ -17413,6 +17569,10 @@
       <c r="A521" s="6"/>
       <c r="B521" s="6"/>
       <c r="C521" s="6"/>
+      <c r="D521">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
       <c r="G521" t="s">
         <v>10</v>
       </c>
@@ -17433,6 +17593,10 @@
       <c r="A522" s="6"/>
       <c r="B522" s="6"/>
       <c r="C522" s="6"/>
+      <c r="D522">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
       <c r="G522" t="s">
         <v>10</v>
       </c>
@@ -17453,6 +17617,10 @@
       <c r="A523" s="6"/>
       <c r="B523" s="6"/>
       <c r="C523" s="6"/>
+      <c r="D523">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
       <c r="G523" t="s">
         <v>10</v>
       </c>
@@ -17473,6 +17641,10 @@
       <c r="A524" s="6"/>
       <c r="B524" s="6"/>
       <c r="C524" s="6"/>
+      <c r="D524">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
       <c r="G524" t="s">
         <v>10</v>
       </c>
@@ -17493,6 +17665,10 @@
       <c r="A525" s="6"/>
       <c r="B525" s="6"/>
       <c r="C525" s="6"/>
+      <c r="D525">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
       <c r="G525" t="s">
         <v>10</v>
       </c>
@@ -17513,6 +17689,10 @@
       <c r="A526" s="6"/>
       <c r="B526" s="6"/>
       <c r="C526" s="6"/>
+      <c r="D526">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
       <c r="G526" t="s">
         <v>10</v>
       </c>
@@ -17533,6 +17713,10 @@
       <c r="A527" s="6"/>
       <c r="B527" s="6"/>
       <c r="C527" s="6"/>
+      <c r="D527">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
       <c r="G527" t="s">
         <v>10</v>
       </c>
@@ -17553,6 +17737,10 @@
       <c r="A528" s="6"/>
       <c r="B528" s="6"/>
       <c r="C528" s="6"/>
+      <c r="D528">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
       <c r="G528" t="s">
         <v>10</v>
       </c>
@@ -17573,6 +17761,10 @@
       <c r="A529" s="6"/>
       <c r="B529" s="6"/>
       <c r="C529" s="6"/>
+      <c r="D529">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
       <c r="G529" t="s">
         <v>10</v>
       </c>
@@ -17593,6 +17785,10 @@
       <c r="A530" s="6"/>
       <c r="B530" s="6"/>
       <c r="C530" s="6"/>
+      <c r="D530">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
       <c r="G530" t="s">
         <v>10</v>
       </c>
@@ -17613,6 +17809,10 @@
       <c r="A531" s="6"/>
       <c r="B531" s="6"/>
       <c r="C531" s="6"/>
+      <c r="D531">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
       <c r="G531" t="s">
         <v>10</v>
       </c>
@@ -17633,6 +17833,10 @@
       <c r="A532" s="6"/>
       <c r="B532" s="6"/>
       <c r="C532" s="6"/>
+      <c r="D532">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
       <c r="G532" t="s">
         <v>10</v>
       </c>
@@ -17653,6 +17857,10 @@
       <c r="A533" s="6"/>
       <c r="B533" s="6"/>
       <c r="C533" s="6"/>
+      <c r="D533">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
       <c r="G533" t="s">
         <v>10</v>
       </c>
@@ -17673,6 +17881,10 @@
       <c r="A534" s="6"/>
       <c r="B534" s="6"/>
       <c r="C534" s="6"/>
+      <c r="D534">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
       <c r="G534" t="s">
         <v>10</v>
       </c>
@@ -17693,6 +17905,10 @@
       <c r="A535" s="6"/>
       <c r="B535" s="6"/>
       <c r="C535" s="6"/>
+      <c r="D535">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
       <c r="G535" t="s">
         <v>10</v>
       </c>
@@ -17701,7 +17917,7 @@
         <v>0</v>
       </c>
       <c r="J535" s="6">
-        <f t="shared" ref="J535:J542" si="47">IF(AND(G535 = "Zakelijk", H535 = ""), I535, IF(AND(G535 = "Zakelijk", NOT(H535 = "")), I535 - H535, 0))</f>
+        <f t="shared" ref="J535:J542" si="48">IF(AND(G535 = "Zakelijk", H535 = ""), I535, IF(AND(G535 = "Zakelijk", NOT(H535 = "")), I535 - H535, 0))</f>
         <v>0</v>
       </c>
       <c r="K535" s="6">
@@ -17713,6 +17929,10 @@
       <c r="A536" s="6"/>
       <c r="B536" s="6"/>
       <c r="C536" s="6"/>
+      <c r="D536">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
       <c r="G536" t="s">
         <v>10</v>
       </c>
@@ -17721,7 +17941,7 @@
         <v>0</v>
       </c>
       <c r="J536" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="K536" s="6">
@@ -17733,6 +17953,10 @@
       <c r="A537" s="6"/>
       <c r="B537" s="6"/>
       <c r="C537" s="6"/>
+      <c r="D537">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
       <c r="G537" t="s">
         <v>10</v>
       </c>
@@ -17741,7 +17965,7 @@
         <v>0</v>
       </c>
       <c r="J537" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="K537" s="6">
@@ -17753,6 +17977,10 @@
       <c r="A538" s="6"/>
       <c r="B538" s="6"/>
       <c r="C538" s="6"/>
+      <c r="D538">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
       <c r="G538" t="s">
         <v>10</v>
       </c>
@@ -17761,7 +17989,7 @@
         <v>0</v>
       </c>
       <c r="J538" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="K538" s="6">
@@ -17773,6 +18001,10 @@
       <c r="A539" s="6"/>
       <c r="B539" s="6"/>
       <c r="C539" s="6"/>
+      <c r="D539">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
       <c r="G539" t="s">
         <v>10</v>
       </c>
@@ -17781,7 +18013,7 @@
         <v>0</v>
       </c>
       <c r="J539" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="K539" s="6">
@@ -17793,6 +18025,10 @@
       <c r="A540" s="6"/>
       <c r="B540" s="6"/>
       <c r="C540" s="6"/>
+      <c r="D540">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
       <c r="G540" t="s">
         <v>10</v>
       </c>
@@ -17801,7 +18037,7 @@
         <v>0</v>
       </c>
       <c r="J540" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="K540" s="6">
@@ -17813,6 +18049,10 @@
       <c r="A541" s="6"/>
       <c r="B541" s="6"/>
       <c r="C541" s="6"/>
+      <c r="D541">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
       <c r="G541" t="s">
         <v>10</v>
       </c>
@@ -17821,7 +18061,7 @@
         <v>0</v>
       </c>
       <c r="J541" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="K541" s="6">
@@ -17833,6 +18073,10 @@
       <c r="A542" s="6"/>
       <c r="B542" s="6"/>
       <c r="C542" s="6"/>
+      <c r="D542">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
       <c r="G542" t="s">
         <v>10</v>
       </c>
@@ -17841,7 +18085,7 @@
         <v>0</v>
       </c>
       <c r="J542" s="6">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="K542" s="6">
@@ -17853,6 +18097,10 @@
       <c r="A543" s="6"/>
       <c r="B543" s="6"/>
       <c r="C543" s="6"/>
+      <c r="D543">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
       <c r="G543" t="s">
         <v>10</v>
       </c>
@@ -17873,6 +18121,10 @@
       <c r="A544" s="6"/>
       <c r="B544" s="6"/>
       <c r="C544" s="6"/>
+      <c r="D544">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
       <c r="G544" t="s">
         <v>10</v>
       </c>
@@ -17893,6 +18145,10 @@
       <c r="A545" s="6"/>
       <c r="B545" s="6"/>
       <c r="C545" s="6"/>
+      <c r="D545">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
       <c r="G545" t="s">
         <v>10</v>
       </c>
@@ -17913,6 +18169,10 @@
       <c r="A546" s="6"/>
       <c r="B546" s="6"/>
       <c r="C546" s="6"/>
+      <c r="D546">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
       <c r="G546" t="s">
         <v>10</v>
       </c>
@@ -17933,11 +18193,606 @@
       <c r="A547" s="6"/>
       <c r="B547" s="6"/>
       <c r="C547" s="6"/>
+      <c r="D547">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G547" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="6"/>
       <c r="B548" s="6"/>
       <c r="C548" s="6"/>
+      <c r="D548">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G548" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D549">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G549" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D550">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G550" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D551">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G551" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D552">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G552" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D553">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G553" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D554">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G554" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D555">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G555" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D556">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G556" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D557">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G557" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D558">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G558" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D559">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G559" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D560">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G560" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="561" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D561">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G561" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="562" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D562">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G562" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="563" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D563">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G563" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="564" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D564">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G564" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="565" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D565">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G565" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="566" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D566">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G566" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="567" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D567">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G567" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="568" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D568">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G568" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="569" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D569">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G569" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="570" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D570">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G570" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="571" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D571">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G571" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="572" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D572">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G572" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="573" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D573">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G573" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="574" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D574">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G574" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="575" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D575">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G575" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="576" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D576">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G576" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="577" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D577">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G577" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="578" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D578">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G578" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="579" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D579">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G579" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="580" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D580">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G580" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="581" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D581">
+        <f t="shared" ref="D581:D612" si="49">E580</f>
+        <v>0</v>
+      </c>
+      <c r="G581" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="582" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D582">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G582" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="583" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D583">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G583" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="584" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D584">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G584" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="585" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D585">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G585" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="586" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D586">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G586" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="587" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D587">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G587" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="588" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D588">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G588" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="589" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D589">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G589" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="590" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D590">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G590" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="591" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D591">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G591" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="592" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D592">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G592" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="593" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D593">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G593" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="594" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D594">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G594" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="595" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D595">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G595" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="596" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D596">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G596" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="597" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D597">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G597" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="598" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D598">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G598" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="599" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D599">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G599" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="600" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D600">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G600" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="601" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D601">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G601" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="602" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D602">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G602" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="603" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D603">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G603" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="604" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D604">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G604" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="605" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D605">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G605" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="606" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D606">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G606" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="607" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D607">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G607" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="608" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D608">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G608" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="609" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D609">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G609" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="610" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D610">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G610" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="611" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D611">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G611" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="612" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D612">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G612" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="613" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G613" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K502" xr:uid="{456FFE04-82F2-4B53-8F25-83E6DFC8A407}"/>

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E832E1B9-86EE-4872-95AC-97C01814D07E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB84705-3E64-49BA-9EAE-02129D9FEE61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="64">
   <si>
     <t>Datum</t>
   </si>
@@ -271,6 +271,9 @@
   <si>
     <t>1511 BX, Landsmeer</t>
   </si>
+  <si>
+    <t>Hoofdveste 25, 3992 DH, Houten</t>
+  </si>
 </sst>
 </file>
 
@@ -341,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -384,6 +387,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:L613"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A472" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D457" sqref="D457"/>
+    <sheetView tabSelected="1" topLeftCell="A473" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A502" sqref="A502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16797,7 +16801,10 @@
       <c r="B489" s="6">
         <v>28422</v>
       </c>
-      <c r="C489" s="6"/>
+      <c r="C489" s="6">
+        <f t="shared" ref="C489:C552" si="46">B490</f>
+        <v>28489</v>
+      </c>
       <c r="D489" t="str">
         <f t="shared" si="42"/>
         <v>Duwboot 20, Houten</v>
@@ -16810,11 +16817,11 @@
       </c>
       <c r="I489" s="9">
         <f t="shared" si="41"/>
-        <v>-28422</v>
+        <v>67</v>
       </c>
       <c r="J489" s="6">
         <f t="shared" si="44"/>
-        <v>-28422</v>
+        <v>67</v>
       </c>
       <c r="K489" s="9">
         <f t="shared" si="45"/>
@@ -16822,23 +16829,33 @@
       </c>
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A490" s="6"/>
-      <c r="B490" s="6"/>
-      <c r="C490" s="6"/>
+      <c r="A490" s="10">
+        <v>43811</v>
+      </c>
+      <c r="B490" s="6">
+        <v>28489</v>
+      </c>
+      <c r="C490" s="6">
+        <f t="shared" si="46"/>
+        <v>28582</v>
+      </c>
       <c r="D490" t="str">
         <f t="shared" si="42"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
+      <c r="E490" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="G490" t="s">
         <v>10</v>
       </c>
       <c r="I490" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="J490" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="K490" s="9">
         <f t="shared" si="45"/>
@@ -16847,22 +16864,30 @@
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="6"/>
-      <c r="B491" s="6"/>
-      <c r="C491" s="6"/>
-      <c r="D491">
+      <c r="B491" s="6">
+        <v>28582</v>
+      </c>
+      <c r="C491" s="6">
+        <f t="shared" si="46"/>
+        <v>28650</v>
+      </c>
+      <c r="D491" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>Veluwezoom 4, 1327AG, Almere</v>
+      </c>
+      <c r="E491" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="G491" t="s">
         <v>10</v>
       </c>
       <c r="I491" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J491" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K491" s="9">
         <f t="shared" si="45"/>
@@ -16870,23 +16895,33 @@
       </c>
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A492" s="6"/>
-      <c r="B492" s="6"/>
-      <c r="C492" s="6"/>
-      <c r="D492">
+      <c r="A492" s="10">
+        <v>43813</v>
+      </c>
+      <c r="B492" s="6">
+        <v>28650</v>
+      </c>
+      <c r="C492" s="6">
+        <f t="shared" si="46"/>
+        <v>28718</v>
+      </c>
+      <c r="D492" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E492" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="G492" t="s">
         <v>10</v>
       </c>
       <c r="I492" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J492" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K492" s="6">
         <f t="shared" si="45"/>
@@ -16895,22 +16930,30 @@
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="6"/>
-      <c r="B493" s="6"/>
-      <c r="C493" s="6"/>
-      <c r="D493">
+      <c r="B493" s="6">
+        <v>28718</v>
+      </c>
+      <c r="C493" s="6">
+        <f t="shared" si="46"/>
+        <v>28784</v>
+      </c>
+      <c r="D493" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E493" s="20" t="s">
+        <v>63</v>
       </c>
       <c r="G493" t="s">
         <v>10</v>
       </c>
       <c r="I493" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="J493" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="K493" s="6">
         <f t="shared" si="45"/>
@@ -16918,23 +16961,33 @@
       </c>
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A494" s="6"/>
-      <c r="B494" s="6"/>
-      <c r="C494" s="6"/>
-      <c r="D494">
+      <c r="A494" s="10">
+        <v>43813</v>
+      </c>
+      <c r="B494" s="6">
+        <v>28784</v>
+      </c>
+      <c r="C494" s="6">
+        <f t="shared" si="46"/>
+        <v>28786</v>
+      </c>
+      <c r="D494" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>Hoofdveste 25, 3992 DH, Houten</v>
+      </c>
+      <c r="E494" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="G494" t="s">
         <v>10</v>
       </c>
       <c r="I494" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J494" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K494" s="6">
         <f t="shared" si="45"/>
@@ -16943,22 +16996,30 @@
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="6"/>
-      <c r="B495" s="6"/>
-      <c r="C495" s="6"/>
-      <c r="D495">
+      <c r="B495" s="6">
+        <v>28786</v>
+      </c>
+      <c r="C495" s="6">
+        <f t="shared" si="46"/>
+        <v>28787</v>
+      </c>
+      <c r="D495" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E495" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="G495" t="s">
         <v>10</v>
       </c>
       <c r="I495" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J495" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K495" s="6">
         <f t="shared" si="45"/>
@@ -16966,23 +17027,33 @@
       </c>
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A496" s="6"/>
-      <c r="B496" s="6"/>
-      <c r="C496" s="6"/>
-      <c r="D496">
+      <c r="A496" s="10">
+        <v>43814</v>
+      </c>
+      <c r="B496" s="6">
+        <v>28787</v>
+      </c>
+      <c r="C496" s="6">
+        <f t="shared" si="46"/>
+        <v>28854</v>
+      </c>
+      <c r="D496" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>Hoofdveste 25, 3992 DH, Houten</v>
+      </c>
+      <c r="E496" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="G496" t="s">
         <v>10</v>
       </c>
       <c r="I496" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J496" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K496" s="9">
         <f t="shared" si="45"/>
@@ -16990,23 +17061,33 @@
       </c>
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A497" s="6"/>
-      <c r="B497" s="6"/>
-      <c r="C497" s="6"/>
-      <c r="D497">
+      <c r="A497" s="10">
+        <v>43815</v>
+      </c>
+      <c r="B497" s="6">
+        <v>28854</v>
+      </c>
+      <c r="C497" s="6">
+        <f t="shared" si="46"/>
+        <v>28897</v>
+      </c>
+      <c r="D497" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E497" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="G497" t="s">
         <v>10</v>
       </c>
       <c r="I497" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="J497" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="K497" s="9">
         <f t="shared" si="45"/>
@@ -17014,23 +17095,31 @@
       </c>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A498" s="6"/>
-      <c r="B498" s="6"/>
-      <c r="C498" s="6"/>
-      <c r="D498">
+      <c r="A498" s="10"/>
+      <c r="B498" s="6">
+        <v>28897</v>
+      </c>
+      <c r="C498" s="6">
+        <f t="shared" si="46"/>
+        <v>28944</v>
+      </c>
+      <c r="D498" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>Veluwezoom 4, 1327AG, Almere</v>
+      </c>
+      <c r="E498" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="G498" t="s">
         <v>10</v>
       </c>
       <c r="I498" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="J498" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="K498" s="9">
         <f t="shared" si="45"/>
@@ -17039,22 +17128,30 @@
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="6"/>
-      <c r="B499" s="6"/>
-      <c r="C499" s="6"/>
-      <c r="D499">
+      <c r="B499" s="6">
+        <v>28944</v>
+      </c>
+      <c r="C499" s="6">
+        <f t="shared" si="46"/>
+        <v>28946</v>
+      </c>
+      <c r="D499" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E499" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="G499" t="s">
         <v>10</v>
       </c>
       <c r="I499" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J499" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K499" s="9">
         <f t="shared" si="45"/>
@@ -17063,22 +17160,30 @@
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="6"/>
-      <c r="B500" s="6"/>
-      <c r="C500" s="6"/>
-      <c r="D500">
+      <c r="B500" s="6">
+        <v>28946</v>
+      </c>
+      <c r="C500" s="6">
+        <f t="shared" si="46"/>
+        <v>29012</v>
+      </c>
+      <c r="D500" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>Waterveste 4, Houten</v>
+      </c>
+      <c r="E500" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="G500" t="s">
         <v>10</v>
       </c>
       <c r="I500" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="J500" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="K500" s="9">
         <f t="shared" si="45"/>
@@ -17086,23 +17191,32 @@
       </c>
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A501" s="6"/>
-      <c r="B501" s="6"/>
-      <c r="C501" s="6"/>
-      <c r="D501">
+      <c r="A501" s="10">
+        <v>43816</v>
+      </c>
+      <c r="B501" s="6">
+        <v>29012</v>
+      </c>
+      <c r="C501" s="6">
+        <v>28490</v>
+      </c>
+      <c r="D501" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E501" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="G501" t="s">
         <v>10</v>
       </c>
       <c r="I501" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>-522</v>
       </c>
       <c r="J501" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>-522</v>
       </c>
       <c r="K501" s="6">
         <f t="shared" si="45"/>
@@ -17110,23 +17224,30 @@
       </c>
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A502" s="6"/>
-      <c r="B502" s="6"/>
-      <c r="C502" s="6"/>
-      <c r="D502">
+      <c r="A502" s="10"/>
+      <c r="B502" s="6">
+        <v>29080</v>
+      </c>
+      <c r="C502" s="6">
+        <v>28558</v>
+      </c>
+      <c r="D502" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E502" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="G502" t="s">
         <v>10</v>
       </c>
       <c r="I502" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>-522</v>
       </c>
       <c r="J502" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>-522</v>
       </c>
       <c r="K502" s="6">
         <f t="shared" si="45"/>
@@ -17135,22 +17256,27 @@
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="6"/>
-      <c r="B503" s="6"/>
-      <c r="C503" s="6"/>
-      <c r="D503">
+      <c r="B503" s="6">
+        <v>29148</v>
+      </c>
+      <c r="C503" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="D503" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="G503" t="s">
         <v>10</v>
       </c>
       <c r="I503" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>-29148</v>
       </c>
       <c r="J503" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>-29148</v>
       </c>
       <c r="K503" s="6">
         <f t="shared" si="45"/>
@@ -17160,7 +17286,10 @@
     <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="6"/>
       <c r="B504" s="6"/>
-      <c r="C504" s="6"/>
+      <c r="C504" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D504">
         <f t="shared" si="42"/>
         <v>0</v>
@@ -17184,7 +17313,10 @@
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="6"/>
       <c r="B505" s="6"/>
-      <c r="C505" s="6"/>
+      <c r="C505" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D505">
         <f t="shared" si="42"/>
         <v>0</v>
@@ -17208,7 +17340,10 @@
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="6"/>
       <c r="B506" s="6"/>
-      <c r="C506" s="6"/>
+      <c r="C506" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D506">
         <f t="shared" si="42"/>
         <v>0</v>
@@ -17232,7 +17367,10 @@
     <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="6"/>
       <c r="B507" s="6"/>
-      <c r="C507" s="6"/>
+      <c r="C507" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D507">
         <f t="shared" si="42"/>
         <v>0</v>
@@ -17256,7 +17394,10 @@
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="6"/>
       <c r="B508" s="6"/>
-      <c r="C508" s="6"/>
+      <c r="C508" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D508">
         <f t="shared" si="42"/>
         <v>0</v>
@@ -17280,7 +17421,10 @@
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="6"/>
       <c r="B509" s="6"/>
-      <c r="C509" s="6"/>
+      <c r="C509" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D509">
         <f t="shared" si="42"/>
         <v>0</v>
@@ -17304,7 +17448,10 @@
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="6"/>
       <c r="B510" s="6"/>
-      <c r="C510" s="6"/>
+      <c r="C510" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D510">
         <f t="shared" si="42"/>
         <v>0</v>
@@ -17328,7 +17475,10 @@
     <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="6"/>
       <c r="B511" s="6"/>
-      <c r="C511" s="6"/>
+      <c r="C511" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D511">
         <f t="shared" si="42"/>
         <v>0</v>
@@ -17352,7 +17502,10 @@
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="6"/>
       <c r="B512" s="6"/>
-      <c r="C512" s="6"/>
+      <c r="C512" s="6">
+        <f>B513</f>
+        <v>0</v>
+      </c>
       <c r="D512">
         <f t="shared" si="42"/>
         <v>0</v>
@@ -17376,7 +17529,10 @@
     <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="6"/>
       <c r="B513" s="6"/>
-      <c r="C513" s="6"/>
+      <c r="C513" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D513">
         <f t="shared" si="42"/>
         <v>0</v>
@@ -17385,7 +17541,7 @@
         <v>10</v>
       </c>
       <c r="I513" s="9">
-        <f t="shared" ref="I513:I546" si="46">(C513-B513)</f>
+        <f t="shared" ref="I513:I546" si="47">(C513-B513)</f>
         <v>0</v>
       </c>
       <c r="J513" s="6">
@@ -17400,7 +17556,10 @@
     <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="6"/>
       <c r="B514" s="6"/>
-      <c r="C514" s="6"/>
+      <c r="C514" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D514">
         <f t="shared" si="42"/>
         <v>0</v>
@@ -17409,7 +17568,7 @@
         <v>10</v>
       </c>
       <c r="I514" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="J514" s="6">
@@ -17424,7 +17583,10 @@
     <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="6"/>
       <c r="B515" s="6"/>
-      <c r="C515" s="6"/>
+      <c r="C515" s="6">
+        <f>B516</f>
+        <v>0</v>
+      </c>
       <c r="D515">
         <f t="shared" si="42"/>
         <v>0</v>
@@ -17433,7 +17595,7 @@
         <v>10</v>
       </c>
       <c r="I515" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="J515" s="6">
@@ -17448,7 +17610,10 @@
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="6"/>
       <c r="B516" s="6"/>
-      <c r="C516" s="6"/>
+      <c r="C516" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D516">
         <f t="shared" si="42"/>
         <v>0</v>
@@ -17457,7 +17622,7 @@
         <v>10</v>
       </c>
       <c r="I516" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="J516" s="6">
@@ -17472,16 +17637,19 @@
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="6"/>
       <c r="B517" s="6"/>
-      <c r="C517" s="6"/>
+      <c r="C517" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D517">
-        <f t="shared" ref="D517:D580" si="47">E516</f>
+        <f t="shared" ref="D517:D580" si="48">E516</f>
         <v>0</v>
       </c>
       <c r="G517" t="s">
         <v>10</v>
       </c>
       <c r="I517" s="9">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="J517" s="6">
@@ -17496,16 +17664,19 @@
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="6"/>
       <c r="B518" s="6"/>
-      <c r="C518" s="6"/>
+      <c r="C518" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D518">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G518" t="s">
+        <v>10</v>
+      </c>
+      <c r="I518" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="G518" t="s">
-        <v>10</v>
-      </c>
-      <c r="I518" s="9">
-        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="J518" s="6">
@@ -17520,16 +17691,19 @@
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="6"/>
       <c r="B519" s="6"/>
-      <c r="C519" s="6"/>
+      <c r="C519" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D519">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G519" t="s">
+        <v>10</v>
+      </c>
+      <c r="I519" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="G519" t="s">
-        <v>10</v>
-      </c>
-      <c r="I519" s="9">
-        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="J519" s="6">
@@ -17544,16 +17718,19 @@
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="6"/>
       <c r="B520" s="6"/>
-      <c r="C520" s="6"/>
+      <c r="C520" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D520">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G520" t="s">
+        <v>10</v>
+      </c>
+      <c r="I520" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="G520" t="s">
-        <v>10</v>
-      </c>
-      <c r="I520" s="9">
-        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="J520" s="6">
@@ -17568,16 +17745,19 @@
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="6"/>
       <c r="B521" s="6"/>
-      <c r="C521" s="6"/>
+      <c r="C521" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D521">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G521" t="s">
+        <v>10</v>
+      </c>
+      <c r="I521" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="G521" t="s">
-        <v>10</v>
-      </c>
-      <c r="I521" s="9">
-        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="J521" s="6">
@@ -17592,16 +17772,19 @@
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="6"/>
       <c r="B522" s="6"/>
-      <c r="C522" s="6"/>
+      <c r="C522" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D522">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G522" t="s">
+        <v>10</v>
+      </c>
+      <c r="I522" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="G522" t="s">
-        <v>10</v>
-      </c>
-      <c r="I522" s="9">
-        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="J522" s="6">
@@ -17616,16 +17799,19 @@
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="6"/>
       <c r="B523" s="6"/>
-      <c r="C523" s="6"/>
+      <c r="C523" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D523">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G523" t="s">
+        <v>10</v>
+      </c>
+      <c r="I523" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="G523" t="s">
-        <v>10</v>
-      </c>
-      <c r="I523" s="9">
-        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="J523" s="6">
@@ -17640,16 +17826,19 @@
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="6"/>
       <c r="B524" s="6"/>
-      <c r="C524" s="6"/>
+      <c r="C524" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D524">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G524" t="s">
+        <v>10</v>
+      </c>
+      <c r="I524" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="G524" t="s">
-        <v>10</v>
-      </c>
-      <c r="I524" s="9">
-        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="J524" s="6">
@@ -17664,16 +17853,19 @@
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="6"/>
       <c r="B525" s="6"/>
-      <c r="C525" s="6"/>
+      <c r="C525" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D525">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G525" t="s">
+        <v>10</v>
+      </c>
+      <c r="I525" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="G525" t="s">
-        <v>10</v>
-      </c>
-      <c r="I525" s="9">
-        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="J525" s="6">
@@ -17688,16 +17880,19 @@
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="6"/>
       <c r="B526" s="6"/>
-      <c r="C526" s="6"/>
+      <c r="C526" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D526">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G526" t="s">
+        <v>10</v>
+      </c>
+      <c r="I526" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="G526" t="s">
-        <v>10</v>
-      </c>
-      <c r="I526" s="9">
-        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="J526" s="6">
@@ -17712,16 +17907,19 @@
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="6"/>
       <c r="B527" s="6"/>
-      <c r="C527" s="6"/>
+      <c r="C527" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D527">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G527" t="s">
+        <v>10</v>
+      </c>
+      <c r="I527" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="G527" t="s">
-        <v>10</v>
-      </c>
-      <c r="I527" s="9">
-        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="J527" s="6">
@@ -17736,16 +17934,19 @@
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="6"/>
       <c r="B528" s="6"/>
-      <c r="C528" s="6"/>
+      <c r="C528" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D528">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G528" t="s">
+        <v>10</v>
+      </c>
+      <c r="I528" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="G528" t="s">
-        <v>10</v>
-      </c>
-      <c r="I528" s="9">
-        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="J528" s="6">
@@ -17760,16 +17961,19 @@
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="6"/>
       <c r="B529" s="6"/>
-      <c r="C529" s="6"/>
+      <c r="C529" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D529">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G529" t="s">
+        <v>10</v>
+      </c>
+      <c r="I529" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="G529" t="s">
-        <v>10</v>
-      </c>
-      <c r="I529" s="9">
-        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="J529" s="6">
@@ -17784,16 +17988,19 @@
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="6"/>
       <c r="B530" s="6"/>
-      <c r="C530" s="6"/>
+      <c r="C530" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D530">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G530" t="s">
+        <v>10</v>
+      </c>
+      <c r="I530" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="G530" t="s">
-        <v>10</v>
-      </c>
-      <c r="I530" s="9">
-        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="J530" s="6">
@@ -17808,16 +18015,19 @@
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="6"/>
       <c r="B531" s="6"/>
-      <c r="C531" s="6"/>
+      <c r="C531" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D531">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G531" t="s">
+        <v>10</v>
+      </c>
+      <c r="I531" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="G531" t="s">
-        <v>10</v>
-      </c>
-      <c r="I531" s="9">
-        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="J531" s="6">
@@ -17832,16 +18042,19 @@
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="6"/>
       <c r="B532" s="6"/>
-      <c r="C532" s="6"/>
+      <c r="C532" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D532">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G532" t="s">
+        <v>10</v>
+      </c>
+      <c r="I532" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="G532" t="s">
-        <v>10</v>
-      </c>
-      <c r="I532" s="9">
-        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="J532" s="6">
@@ -17856,16 +18069,19 @@
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="6"/>
       <c r="B533" s="6"/>
-      <c r="C533" s="6"/>
+      <c r="C533" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D533">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G533" t="s">
+        <v>10</v>
+      </c>
+      <c r="I533" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="G533" t="s">
-        <v>10</v>
-      </c>
-      <c r="I533" s="9">
-        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="J533" s="6">
@@ -17880,16 +18096,19 @@
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="6"/>
       <c r="B534" s="6"/>
-      <c r="C534" s="6"/>
+      <c r="C534" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D534">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G534" t="s">
+        <v>10</v>
+      </c>
+      <c r="I534" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="G534" t="s">
-        <v>10</v>
-      </c>
-      <c r="I534" s="9">
-        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="J534" s="6">
@@ -17904,20 +18123,23 @@
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="6"/>
       <c r="B535" s="6"/>
-      <c r="C535" s="6"/>
+      <c r="C535" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D535">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G535" t="s">
+        <v>10</v>
+      </c>
+      <c r="I535" s="9">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="G535" t="s">
-        <v>10</v>
-      </c>
-      <c r="I535" s="9">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
       <c r="J535" s="6">
-        <f t="shared" ref="J535:J542" si="48">IF(AND(G535 = "Zakelijk", H535 = ""), I535, IF(AND(G535 = "Zakelijk", NOT(H535 = "")), I535 - H535, 0))</f>
+        <f t="shared" ref="J535:J542" si="49">IF(AND(G535 = "Zakelijk", H535 = ""), I535, IF(AND(G535 = "Zakelijk", NOT(H535 = "")), I535 - H535, 0))</f>
         <v>0</v>
       </c>
       <c r="K535" s="6">
@@ -17928,20 +18150,23 @@
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="6"/>
       <c r="B536" s="6"/>
-      <c r="C536" s="6"/>
+      <c r="C536" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D536">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G536" t="s">
+        <v>10</v>
+      </c>
+      <c r="I536" s="9">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="G536" t="s">
-        <v>10</v>
-      </c>
-      <c r="I536" s="9">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
       <c r="J536" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="K536" s="6">
@@ -17952,20 +18177,23 @@
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="6"/>
       <c r="B537" s="6"/>
-      <c r="C537" s="6"/>
+      <c r="C537" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D537">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G537" t="s">
+        <v>10</v>
+      </c>
+      <c r="I537" s="9">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="G537" t="s">
-        <v>10</v>
-      </c>
-      <c r="I537" s="9">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
       <c r="J537" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="K537" s="6">
@@ -17976,20 +18204,23 @@
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="6"/>
       <c r="B538" s="6"/>
-      <c r="C538" s="6"/>
+      <c r="C538" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D538">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G538" t="s">
+        <v>10</v>
+      </c>
+      <c r="I538" s="9">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="G538" t="s">
-        <v>10</v>
-      </c>
-      <c r="I538" s="9">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
       <c r="J538" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="K538" s="6">
@@ -18000,20 +18231,23 @@
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="6"/>
       <c r="B539" s="6"/>
-      <c r="C539" s="6"/>
+      <c r="C539" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D539">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G539" t="s">
+        <v>10</v>
+      </c>
+      <c r="I539" s="9">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="G539" t="s">
-        <v>10</v>
-      </c>
-      <c r="I539" s="9">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
       <c r="J539" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="K539" s="6">
@@ -18024,20 +18258,23 @@
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="6"/>
       <c r="B540" s="6"/>
-      <c r="C540" s="6"/>
+      <c r="C540" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D540">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G540" t="s">
+        <v>10</v>
+      </c>
+      <c r="I540" s="9">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="G540" t="s">
-        <v>10</v>
-      </c>
-      <c r="I540" s="9">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
       <c r="J540" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="K540" s="6">
@@ -18048,20 +18285,23 @@
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="6"/>
       <c r="B541" s="6"/>
-      <c r="C541" s="6"/>
+      <c r="C541" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D541">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G541" t="s">
+        <v>10</v>
+      </c>
+      <c r="I541" s="9">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="G541" t="s">
-        <v>10</v>
-      </c>
-      <c r="I541" s="9">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
       <c r="J541" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="K541" s="6">
@@ -18072,20 +18312,23 @@
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="6"/>
       <c r="B542" s="6"/>
-      <c r="C542" s="6"/>
+      <c r="C542" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D542">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G542" t="s">
+        <v>10</v>
+      </c>
+      <c r="I542" s="9">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="G542" t="s">
-        <v>10</v>
-      </c>
-      <c r="I542" s="9">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
       <c r="J542" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="K542" s="6">
@@ -18096,16 +18339,19 @@
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="6"/>
       <c r="B543" s="6"/>
-      <c r="C543" s="6"/>
+      <c r="C543" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D543">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G543" t="s">
+        <v>10</v>
+      </c>
+      <c r="I543" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="G543" t="s">
-        <v>10</v>
-      </c>
-      <c r="I543" s="9">
-        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="J543" s="6">
@@ -18120,16 +18366,19 @@
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="6"/>
       <c r="B544" s="6"/>
-      <c r="C544" s="6"/>
+      <c r="C544" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D544">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G544" t="s">
+        <v>10</v>
+      </c>
+      <c r="I544" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="G544" t="s">
-        <v>10</v>
-      </c>
-      <c r="I544" s="9">
-        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="J544" s="6">
@@ -18144,16 +18393,19 @@
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="6"/>
       <c r="B545" s="6"/>
-      <c r="C545" s="6"/>
+      <c r="C545" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D545">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G545" t="s">
+        <v>10</v>
+      </c>
+      <c r="I545" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="G545" t="s">
-        <v>10</v>
-      </c>
-      <c r="I545" s="9">
-        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="J545" s="6">
@@ -18168,16 +18420,19 @@
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="6"/>
       <c r="B546" s="6"/>
-      <c r="C546" s="6"/>
+      <c r="C546" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D546">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="G546" t="s">
+        <v>10</v>
+      </c>
+      <c r="I546" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="G546" t="s">
-        <v>10</v>
-      </c>
-      <c r="I546" s="9">
-        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="J546" s="6">
@@ -18192,9 +18447,12 @@
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="6"/>
       <c r="B547" s="6"/>
-      <c r="C547" s="6"/>
+      <c r="C547" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D547">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G547" t="s">
@@ -18204,9 +18462,12 @@
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="6"/>
       <c r="B548" s="6"/>
-      <c r="C548" s="6"/>
+      <c r="C548" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D548">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G548" t="s">
@@ -18214,8 +18475,12 @@
       </c>
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C549" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D549">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G549" t="s">
@@ -18223,8 +18488,12 @@
       </c>
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C550" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D550">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G550" t="s">
@@ -18232,8 +18501,12 @@
       </c>
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C551" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D551">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G551" t="s">
@@ -18241,8 +18514,12 @@
       </c>
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C552" s="6">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="D552">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G552" t="s">
@@ -18250,8 +18527,12 @@
       </c>
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C553" s="6">
+        <f t="shared" ref="C553:C609" si="50">B554</f>
+        <v>0</v>
+      </c>
       <c r="D553">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G553" t="s">
@@ -18259,8 +18540,12 @@
       </c>
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C554" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D554">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G554" t="s">
@@ -18268,8 +18553,12 @@
       </c>
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C555" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D555">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G555" t="s">
@@ -18277,8 +18566,12 @@
       </c>
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C556" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D556">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G556" t="s">
@@ -18286,8 +18579,12 @@
       </c>
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C557" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D557">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G557" t="s">
@@ -18295,8 +18592,12 @@
       </c>
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C558" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D558">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G558" t="s">
@@ -18304,8 +18605,12 @@
       </c>
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C559" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D559">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G559" t="s">
@@ -18313,483 +18618,683 @@
       </c>
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C560" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D560">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G560" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="561" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="561" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C561" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D561">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G561" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="562" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="562" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C562" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D562">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G562" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="563" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="563" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C563" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D563">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G563" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="564" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="564" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C564" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D564">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G564" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="565" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="565" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C565" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D565">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G565" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="566" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="566" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C566" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D566">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G566" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="567" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="567" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C567" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D567">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G567" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="568" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="568" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C568" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D568">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G568" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="569" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="569" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C569" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D569">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G569" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="570" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="570" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C570" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D570">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G570" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="571" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C571" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D571">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G571" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="572" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="572" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C572" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D572">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G572" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="573" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="573" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C573" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D573">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G573" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="574" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="574" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C574" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D574">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G574" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="575" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="575" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C575" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D575">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G575" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="576" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="576" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C576" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D576">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G576" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="577" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="577" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C577" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D577">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G577" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="578" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="578" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C578" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D578">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G578" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="579" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="579" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C579" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D579">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G579" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="580" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="580" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C580" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D580">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="G580" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="581" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="581" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C581" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D581">
-        <f t="shared" ref="D581:D612" si="49">E580</f>
+        <f t="shared" ref="D581:D612" si="51">E580</f>
         <v>0</v>
       </c>
       <c r="G581" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="582" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="582" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C582" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D582">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="G582" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="583" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="583" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C583" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D583">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="G583" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="584" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="584" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C584" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D584">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="G584" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="585" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="585" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C585" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D585">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="G585" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="586" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="586" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C586" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D586">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="G586" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="587" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="587" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C587" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D587">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="G587" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="588" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="588" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C588" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D588">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="G588" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="589" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="589" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C589" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D589">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="G589" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="590" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="590" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C590" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D590">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="G590" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="591" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="591" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C591" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D591">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="G591" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="592" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="592" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C592" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D592">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="G592" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="593" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="593" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C593" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D593">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="G593" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="594" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="594" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C594" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D594">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="G594" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="595" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="595" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C595" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D595">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="G595" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="596" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="596" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C596" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D596">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="G596" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="597" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="597" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C597" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D597">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="G597" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="598" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="598" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C598" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D598">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="G598" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="599" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="599" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C599" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D599">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="G599" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="600" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="600" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C600" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D600">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="G600" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="601" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="601" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C601" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D601">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="G601" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="602" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="602" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C602" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D602">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="G602" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="603" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="603" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C603" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D603">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="G603" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="604" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="604" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C604" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D604">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="G604" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="605" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="605" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C605" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D605">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="G605" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="606" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="606" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C606" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D606">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="G606" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="607" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="607" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C607" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D607">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="G607" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="608" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="608" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C608" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D608">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="G608" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="609" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="609" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C609" s="6">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
       <c r="D609">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="G609" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="610" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="610" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D610">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="G610" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="611" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="611" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D611">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="G611" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="612" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="612" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D612">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="G612" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="613" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="613" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G613" t="s">
         <v>10</v>
       </c>

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB84705-3E64-49BA-9EAE-02129D9FEE61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224E4F6A-8D8F-4C63-B560-577F17BDBD3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
   <sheets>
     <sheet name="Kilometers" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="69">
   <si>
     <t>Datum</t>
   </si>
@@ -216,20 +216,6 @@
     <t xml:space="preserve">1511  BX, Landsmeer </t>
   </si>
   <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Kleine Tocht 19, 1507 CB Zaandam</t>
-    </r>
-  </si>
-  <si>
     <t>Vivaldiplantsoen 100, Utrecht</t>
   </si>
   <si>
@@ -274,12 +260,30 @@
   <si>
     <t>Hoofdveste 25, 3992 DH, Houten</t>
   </si>
+  <si>
+    <t>Gemiste afslag, enkele kilometers omgereden</t>
+  </si>
+  <si>
+    <t>Duin- en Kruidbergerweg 60, 2071 LE Santpoort-Noord</t>
+  </si>
+  <si>
+    <t>Kleine Tocht 19, 1507 CB Zaandam</t>
+  </si>
+  <si>
+    <t>Privé cumulatief 2020</t>
+  </si>
+  <si>
+    <t>Klampersstraat 43, Zaandam</t>
+  </si>
+  <si>
+    <t>Privé parkeerplaats bezet</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,13 +313,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -386,8 +383,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,14 +706,15 @@
   <dimension ref="A1:L613"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A473" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A502" sqref="A502"/>
+      <selection activeCell="A509" sqref="A509"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" style="13" customWidth="1"/>
     <col min="2" max="3" width="32.140625" style="4" customWidth="1"/>
-    <col min="4" max="5" width="39.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="48.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="47.5703125" style="7" customWidth="1"/>
     <col min="6" max="6" width="32.140625" style="7" customWidth="1"/>
     <col min="7" max="9" width="32.140625" style="4" customWidth="1"/>
     <col min="10" max="11" width="27.28515625" style="4" customWidth="1"/>
@@ -730,10 +732,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -767,10 +769,10 @@
         <f t="shared" ref="C2:C65" si="0">B3</f>
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -798,11 +800,11 @@
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="D3" t="str">
+      <c r="D3" s="8" t="str">
         <f>E2</f>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -832,11 +834,11 @@
         <f t="shared" si="0"/>
         <v>146</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D4" s="8" t="str">
         <f>E3</f>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -864,11 +866,11 @@
         <f t="shared" si="0"/>
         <v>213</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D5" s="8" t="str">
         <f t="shared" ref="D5:D68" si="4">E4</f>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -898,11 +900,11 @@
         <f t="shared" si="0"/>
         <v>281</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D6" s="8" t="str">
         <f t="shared" si="4"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -930,11 +932,11 @@
         <f t="shared" si="0"/>
         <v>348</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D7" s="8" t="str">
         <f t="shared" si="4"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -964,11 +966,11 @@
         <f t="shared" si="0"/>
         <v>416</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D8" s="8" t="str">
         <f t="shared" si="4"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -996,11 +998,11 @@
         <f t="shared" si="0"/>
         <v>483</v>
       </c>
-      <c r="D9" t="str">
+      <c r="D9" s="8" t="str">
         <f t="shared" si="4"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -1019,7 +1021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>43297</v>
       </c>
@@ -1030,11 +1032,11 @@
         <f t="shared" si="0"/>
         <v>499</v>
       </c>
-      <c r="D10" t="str">
+      <c r="D10" s="8" t="str">
         <f t="shared" si="4"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -1053,7 +1055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <v>499</v>
@@ -1062,11 +1064,11 @@
         <f t="shared" si="0"/>
         <v>516</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D11" s="8" t="str">
         <f t="shared" si="4"/>
         <v>Johan Huizingalaan 765, 1066 VH, Amsterdam</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G11" s="4" t="s">
@@ -1085,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>43299</v>
       </c>
@@ -1096,11 +1098,11 @@
         <f t="shared" si="0"/>
         <v>532</v>
       </c>
-      <c r="D12" t="str">
+      <c r="D12" s="8" t="str">
         <f t="shared" si="4"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -1119,7 +1121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6">
         <v>532</v>
@@ -1128,11 +1130,11 @@
         <f t="shared" si="0"/>
         <v>548</v>
       </c>
-      <c r="D13" t="str">
+      <c r="D13" s="8" t="str">
         <f t="shared" si="4"/>
         <v>Johan Huizingalaan 765, 1066 VH, Amsterdam</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -1162,11 +1164,11 @@
         <f t="shared" si="0"/>
         <v>616</v>
       </c>
-      <c r="D14" t="str">
+      <c r="D14" s="8" t="str">
         <f t="shared" si="4"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -1194,11 +1196,11 @@
         <f t="shared" si="0"/>
         <v>684</v>
       </c>
-      <c r="D15" t="str">
+      <c r="D15" s="8" t="str">
         <f t="shared" si="4"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -1228,11 +1230,11 @@
         <f t="shared" si="0"/>
         <v>751</v>
       </c>
-      <c r="D16" t="str">
+      <c r="D16" s="8" t="str">
         <f t="shared" si="4"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G16" s="4" t="s">
@@ -1260,11 +1262,11 @@
         <f t="shared" si="0"/>
         <v>819</v>
       </c>
-      <c r="D17" t="str">
+      <c r="D17" s="8" t="str">
         <f t="shared" si="4"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G17" s="4" t="s">
@@ -1294,11 +1296,11 @@
         <f t="shared" si="0"/>
         <v>886</v>
       </c>
-      <c r="D18" t="str">
+      <c r="D18" s="8" t="str">
         <f t="shared" si="4"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G18" s="4" t="s">
@@ -1326,11 +1328,11 @@
         <f t="shared" si="0"/>
         <v>954</v>
       </c>
-      <c r="D19" t="str">
+      <c r="D19" s="8" t="str">
         <f t="shared" si="4"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G19" s="4" t="s">
@@ -1360,11 +1362,11 @@
         <f t="shared" si="0"/>
         <v>1021</v>
       </c>
-      <c r="D20" t="str">
+      <c r="D20" s="8" t="str">
         <f t="shared" si="4"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G20" s="4" t="s">
@@ -1392,11 +1394,11 @@
         <f t="shared" si="0"/>
         <v>1089</v>
       </c>
-      <c r="D21" t="str">
+      <c r="D21" s="8" t="str">
         <f t="shared" si="4"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G21" s="4" t="s">
@@ -1426,11 +1428,11 @@
         <f t="shared" si="0"/>
         <v>1092</v>
       </c>
-      <c r="D22" t="str">
+      <c r="D22" s="8" t="str">
         <f>E21</f>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G22" t="s">
@@ -1458,11 +1460,11 @@
         <f t="shared" si="0"/>
         <v>1096</v>
       </c>
-      <c r="D23" t="str">
+      <c r="D23" s="8" t="str">
         <f>E22</f>
         <v>Zuidervaart 104, Zaandam</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="8" t="s">
         <v>17</v>
       </c>
       <c r="G23" t="s">
@@ -1490,11 +1492,11 @@
         <f t="shared" si="0"/>
         <v>1097</v>
       </c>
-      <c r="D24" t="str">
+      <c r="D24" s="8" t="str">
         <f t="shared" si="4"/>
         <v>Stationsstraat 112, Zaandam</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G24" t="s">
@@ -1524,11 +1526,11 @@
         <f t="shared" si="0"/>
         <v>1165</v>
       </c>
-      <c r="D25" t="str">
+      <c r="D25" s="8" t="str">
         <f t="shared" si="4"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G25" s="4" t="s">
@@ -1556,11 +1558,11 @@
         <f t="shared" si="0"/>
         <v>1232</v>
       </c>
-      <c r="D26" t="str">
+      <c r="D26" s="8" t="str">
         <f t="shared" si="4"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G26" s="4" t="s">
@@ -1590,11 +1592,11 @@
         <f t="shared" si="0"/>
         <v>1300</v>
       </c>
-      <c r="D27" t="str">
+      <c r="D27" s="8" t="str">
         <f t="shared" si="4"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G27" s="4" t="s">
@@ -1621,11 +1623,11 @@
       <c r="C28" s="6">
         <v>1371</v>
       </c>
-      <c r="D28" t="str">
+      <c r="D28" s="8" t="str">
         <f t="shared" si="4"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G28" s="4" t="s">
@@ -1655,11 +1657,11 @@
         <f t="shared" si="0"/>
         <v>1384</v>
       </c>
-      <c r="D29" t="str">
+      <c r="D29" s="8" t="str">
         <f t="shared" si="4"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G29" t="s">
@@ -1686,11 +1688,11 @@
         <f t="shared" si="0"/>
         <v>1396</v>
       </c>
-      <c r="D30" t="str">
+      <c r="D30" s="8" t="str">
         <f t="shared" si="4"/>
         <v>Zuiderhoofdstraat 32, Krommenie</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G30" t="s">
@@ -1720,11 +1722,11 @@
         <f t="shared" si="0"/>
         <v>1464</v>
       </c>
-      <c r="D31" t="str">
+      <c r="D31" s="8" t="str">
         <f t="shared" si="4"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G31" s="4" t="s">
@@ -1752,10 +1754,10 @@
         <f t="shared" si="0"/>
         <v>1531</v>
       </c>
-      <c r="D32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="D32" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G32" s="4" t="s">
@@ -1785,11 +1787,11 @@
         <f t="shared" si="0"/>
         <v>1599</v>
       </c>
-      <c r="D33" t="str">
+      <c r="D33" s="8" t="str">
         <f t="shared" si="4"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G33" s="4" t="s">
@@ -1817,11 +1819,11 @@
         <f t="shared" si="0"/>
         <v>1666</v>
       </c>
-      <c r="D34" t="str">
+      <c r="D34" s="8" t="str">
         <f t="shared" si="4"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G34" s="4" t="s">
@@ -1851,11 +1853,11 @@
         <f t="shared" si="0"/>
         <v>1734</v>
       </c>
-      <c r="D35" t="str">
+      <c r="D35" s="8" t="str">
         <f t="shared" si="4"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G35" s="4" t="s">
@@ -1883,11 +1885,11 @@
         <f t="shared" si="0"/>
         <v>1801</v>
       </c>
-      <c r="D36" t="str">
+      <c r="D36" s="8" t="str">
         <f t="shared" si="4"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G36" s="4" t="s">
@@ -1917,11 +1919,11 @@
         <f t="shared" si="0"/>
         <v>1869</v>
       </c>
-      <c r="D37" t="str">
+      <c r="D37" s="8" t="str">
         <f t="shared" si="4"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G37" s="4" t="s">
@@ -1949,11 +1951,11 @@
         <f t="shared" si="0"/>
         <v>1936</v>
       </c>
-      <c r="D38" t="str">
+      <c r="D38" s="8" t="str">
         <f t="shared" si="4"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G38" s="4" t="s">
@@ -1983,11 +1985,11 @@
         <f t="shared" si="0"/>
         <v>2004</v>
       </c>
-      <c r="D39" t="str">
+      <c r="D39" s="8" t="str">
         <f t="shared" si="4"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G39" s="4" t="s">
@@ -2015,11 +2017,11 @@
         <f t="shared" si="0"/>
         <v>2052</v>
       </c>
-      <c r="D40" t="str">
+      <c r="D40" s="8" t="str">
         <f t="shared" si="4"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="8" t="s">
         <v>20</v>
       </c>
       <c r="G40" s="4" t="s">
@@ -2047,11 +2049,11 @@
         <f t="shared" si="0"/>
         <v>2095</v>
       </c>
-      <c r="D41" t="str">
+      <c r="D41" s="8" t="str">
         <f t="shared" si="4"/>
         <v>Veluwezoom 4, 1327AG, Almere</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G41" s="4" t="s">
@@ -2081,11 +2083,11 @@
         <f t="shared" si="0"/>
         <v>2162</v>
       </c>
-      <c r="D42" t="str">
+      <c r="D42" s="8" t="str">
         <f t="shared" si="4"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G42" s="4" t="s">
@@ -2112,11 +2114,11 @@
       <c r="C43" s="6">
         <v>2165</v>
       </c>
-      <c r="D43" t="str">
+      <c r="D43" s="8" t="str">
         <f t="shared" si="4"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F43" s="8" t="s">
@@ -2147,11 +2149,11 @@
         <f t="shared" si="0"/>
         <v>2231</v>
       </c>
-      <c r="D44" t="str">
+      <c r="D44" s="8" t="str">
         <f t="shared" si="4"/>
         <v>Waterveste 4, Houten</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G44" s="4" t="s">
@@ -2181,11 +2183,11 @@
         <f t="shared" si="0"/>
         <v>2298</v>
       </c>
-      <c r="D45" t="str">
+      <c r="D45" s="8" t="str">
         <f t="shared" si="4"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G45" s="4" t="s">
@@ -2213,11 +2215,11 @@
         <f t="shared" si="0"/>
         <v>2366</v>
       </c>
-      <c r="D46" t="str">
+      <c r="D46" s="8" t="str">
         <f t="shared" si="4"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G46" s="4" t="s">
@@ -2247,11 +2249,11 @@
         <f t="shared" si="0"/>
         <v>2433</v>
       </c>
-      <c r="D47" t="str">
+      <c r="D47" s="8" t="str">
         <f t="shared" si="4"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G47" s="4" t="s">
@@ -2279,11 +2281,11 @@
         <f t="shared" si="0"/>
         <v>2501</v>
       </c>
-      <c r="D48" t="str">
+      <c r="D48" s="8" t="str">
         <f t="shared" si="4"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G48" s="4" t="s">
@@ -2313,11 +2315,11 @@
         <f t="shared" si="0"/>
         <v>2568</v>
       </c>
-      <c r="D49" t="str">
+      <c r="D49" s="8" t="str">
         <f t="shared" si="4"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G49" s="4" t="s">
@@ -2345,11 +2347,11 @@
         <f t="shared" si="0"/>
         <v>2636</v>
       </c>
-      <c r="D50" t="str">
+      <c r="D50" s="8" t="str">
         <f t="shared" si="4"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G50" s="4" t="s">
@@ -2379,11 +2381,11 @@
         <f t="shared" si="0"/>
         <v>2735</v>
       </c>
-      <c r="D51" t="str">
+      <c r="D51" s="8" t="str">
         <f t="shared" si="4"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="8" t="s">
         <v>22</v>
       </c>
       <c r="G51" s="4" t="s">
@@ -2411,11 +2413,11 @@
         <f t="shared" si="0"/>
         <v>2808</v>
       </c>
-      <c r="D52" t="str">
+      <c r="D52" s="8" t="str">
         <f t="shared" si="4"/>
         <v>John F. Kennedylaan 8, 7314PS, Apeldoorn</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G52" s="4" t="s">
@@ -2443,11 +2445,11 @@
         <f t="shared" si="0"/>
         <v>2876</v>
       </c>
-      <c r="D53" t="str">
+      <c r="D53" s="8" t="str">
         <f t="shared" si="4"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G53" s="4" t="s">
@@ -2477,11 +2479,11 @@
         <f t="shared" si="0"/>
         <v>2943</v>
       </c>
-      <c r="D54" t="str">
+      <c r="D54" s="8" t="str">
         <f t="shared" si="4"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G54" s="4" t="s">
@@ -2509,11 +2511,11 @@
         <f t="shared" si="0"/>
         <v>3010</v>
       </c>
-      <c r="D55" t="str">
+      <c r="D55" s="8" t="str">
         <f t="shared" si="4"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G55" s="4" t="s">
@@ -2543,11 +2545,11 @@
         <f t="shared" si="0"/>
         <v>3078</v>
       </c>
-      <c r="D56" t="str">
+      <c r="D56" s="8" t="str">
         <f t="shared" si="4"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G56" s="4" t="s">
@@ -2575,11 +2577,11 @@
         <f t="shared" si="0"/>
         <v>3145</v>
       </c>
-      <c r="D57" t="str">
+      <c r="D57" s="8" t="str">
         <f t="shared" si="4"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G57" s="4" t="s">
@@ -2609,11 +2611,11 @@
         <f t="shared" si="0"/>
         <v>3153</v>
       </c>
-      <c r="D58" t="str">
+      <c r="D58" s="8" t="str">
         <f t="shared" si="4"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="8" t="s">
         <v>23</v>
       </c>
       <c r="G58" t="s">
@@ -2641,11 +2643,11 @@
         <f t="shared" si="0"/>
         <v>3156</v>
       </c>
-      <c r="D59" t="str">
+      <c r="D59" s="8" t="str">
         <f t="shared" si="4"/>
         <v>Dizzy Gillespiestraat 10, Zaandijk</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="8" t="s">
         <v>24</v>
       </c>
       <c r="G59" t="s">
@@ -2673,11 +2675,11 @@
         <f t="shared" si="0"/>
         <v>3164</v>
       </c>
-      <c r="D60" t="str">
+      <c r="D60" s="8" t="str">
         <f t="shared" si="4"/>
         <v>Doktersland 20, Koog aan de Zaan</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G60" t="s">
@@ -2707,11 +2709,11 @@
         <f t="shared" si="0"/>
         <v>3232</v>
       </c>
-      <c r="D61" t="str">
+      <c r="D61" s="8" t="str">
         <f t="shared" si="4"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G61" s="4" t="s">
@@ -2739,11 +2741,11 @@
         <f t="shared" si="0"/>
         <v>3299</v>
       </c>
-      <c r="D62" t="str">
+      <c r="D62" s="8" t="str">
         <f t="shared" si="4"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G62" s="4" t="s">
@@ -2773,11 +2775,11 @@
         <f t="shared" si="0"/>
         <v>3366</v>
       </c>
-      <c r="D63" t="str">
+      <c r="D63" s="8" t="str">
         <f t="shared" si="4"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G63" s="4" t="s">
@@ -2805,11 +2807,11 @@
         <f t="shared" si="0"/>
         <v>3434</v>
       </c>
-      <c r="D64" t="str">
+      <c r="D64" s="8" t="str">
         <f t="shared" si="4"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G64" s="4" t="s">
@@ -2839,11 +2841,11 @@
         <f t="shared" si="0"/>
         <v>3501</v>
       </c>
-      <c r="D65" t="str">
+      <c r="D65" s="8" t="str">
         <f t="shared" si="4"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G65" s="4" t="s">
@@ -2871,11 +2873,11 @@
         <f t="shared" ref="C66:C129" si="6">B67</f>
         <v>3569</v>
       </c>
-      <c r="D66" t="str">
+      <c r="D66" s="8" t="str">
         <f t="shared" si="4"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G66" s="4" t="s">
@@ -2905,11 +2907,11 @@
         <f t="shared" si="6"/>
         <v>3636</v>
       </c>
-      <c r="D67" t="str">
+      <c r="D67" s="8" t="str">
         <f t="shared" si="4"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G67" s="4" t="s">
@@ -2937,11 +2939,11 @@
         <f t="shared" si="6"/>
         <v>3703</v>
       </c>
-      <c r="D68" t="str">
+      <c r="D68" s="8" t="str">
         <f t="shared" si="4"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G68" s="4" t="s">
@@ -2971,11 +2973,11 @@
         <f t="shared" si="6"/>
         <v>3771</v>
       </c>
-      <c r="D69" t="str">
+      <c r="D69" s="8" t="str">
         <f t="shared" ref="D69:D132" si="10">E68</f>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G69" s="4" t="s">
@@ -3003,11 +3005,11 @@
         <f t="shared" si="6"/>
         <v>3838</v>
       </c>
-      <c r="D70" t="str">
+      <c r="D70" s="8" t="str">
         <f t="shared" si="10"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G70" s="4" t="s">
@@ -3037,11 +3039,11 @@
         <f t="shared" si="6"/>
         <v>3906</v>
       </c>
-      <c r="D71" t="str">
+      <c r="D71" s="8" t="str">
         <f t="shared" si="10"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G71" s="4" t="s">
@@ -3069,11 +3071,11 @@
         <f t="shared" si="6"/>
         <v>3972</v>
       </c>
-      <c r="D72" t="str">
+      <c r="D72" s="8" t="str">
         <f t="shared" si="10"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="8" t="s">
         <v>25</v>
       </c>
       <c r="G72" s="4" t="s">
@@ -3101,11 +3103,11 @@
         <f t="shared" si="6"/>
         <v>4096</v>
       </c>
-      <c r="D73" t="str">
+      <c r="D73" s="8" t="str">
         <f t="shared" si="10"/>
         <v>Eikendonklaan 2, Waalwijk</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G73" s="4" t="s">
@@ -3135,11 +3137,11 @@
         <f t="shared" si="6"/>
         <v>4163</v>
       </c>
-      <c r="D74" t="str">
+      <c r="D74" s="8" t="str">
         <f t="shared" si="10"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G74" s="4" t="s">
@@ -3167,11 +3169,11 @@
         <f t="shared" si="6"/>
         <v>4231</v>
       </c>
-      <c r="D75" t="str">
+      <c r="D75" s="8" t="str">
         <f t="shared" si="10"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G75" s="4" t="s">
@@ -3201,11 +3203,11 @@
         <f t="shared" si="6"/>
         <v>4298</v>
       </c>
-      <c r="D76" t="str">
+      <c r="D76" s="8" t="str">
         <f t="shared" si="10"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G76" s="4" t="s">
@@ -3233,11 +3235,11 @@
         <f t="shared" si="6"/>
         <v>4366</v>
       </c>
-      <c r="D77" t="str">
+      <c r="D77" s="8" t="str">
         <f t="shared" si="10"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G77" s="4" t="s">
@@ -3267,11 +3269,11 @@
         <f t="shared" si="6"/>
         <v>4433</v>
       </c>
-      <c r="D78" t="str">
+      <c r="D78" s="8" t="str">
         <f t="shared" si="10"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G78" s="4" t="s">
@@ -3299,11 +3301,11 @@
         <f t="shared" si="6"/>
         <v>4501</v>
       </c>
-      <c r="D79" t="str">
+      <c r="D79" s="8" t="str">
         <f t="shared" si="10"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G79" s="4" t="s">
@@ -3333,10 +3335,10 @@
         <f t="shared" si="6"/>
         <v>4513</v>
       </c>
-      <c r="D80" t="s">
-        <v>7</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="D80" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="8" t="s">
         <v>19</v>
       </c>
       <c r="F80" s="8"/>
@@ -3365,11 +3367,11 @@
         <f t="shared" si="6"/>
         <v>4525</v>
       </c>
-      <c r="D81" t="str">
+      <c r="D81" s="8" t="str">
         <f t="shared" si="10"/>
         <v>Zuiderhoofdstraat 32, Krommenie</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G81" t="s">
@@ -3399,10 +3401,10 @@
         <f t="shared" si="6"/>
         <v>4593</v>
       </c>
-      <c r="D82" t="s">
-        <v>7</v>
-      </c>
-      <c r="E82" t="s">
+      <c r="D82" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F82" s="8"/>
@@ -3431,11 +3433,11 @@
         <f t="shared" si="6"/>
         <v>4660</v>
       </c>
-      <c r="D83" t="str">
+      <c r="D83" s="8" t="str">
         <f t="shared" si="10"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F83" s="8"/>
@@ -3466,11 +3468,11 @@
         <f t="shared" si="6"/>
         <v>4728</v>
       </c>
-      <c r="D84" t="str">
+      <c r="D84" s="8" t="str">
         <f t="shared" si="10"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G84" s="4" t="s">
@@ -3498,11 +3500,11 @@
         <f t="shared" si="6"/>
         <v>4795</v>
       </c>
-      <c r="D85" t="str">
+      <c r="D85" s="8" t="str">
         <f t="shared" si="10"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F85" s="8"/>
@@ -3533,11 +3535,11 @@
         <f t="shared" si="6"/>
         <v>4863</v>
       </c>
-      <c r="D86" t="str">
+      <c r="D86" s="8" t="str">
         <f t="shared" si="10"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G86" s="4" t="s">
@@ -3565,11 +3567,11 @@
         <f t="shared" si="6"/>
         <v>4930</v>
       </c>
-      <c r="D87" t="str">
+      <c r="D87" s="8" t="str">
         <f t="shared" si="10"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G87" s="4" t="s">
@@ -3599,11 +3601,11 @@
         <f t="shared" si="6"/>
         <v>4998</v>
       </c>
-      <c r="D88" t="str">
+      <c r="D88" s="8" t="str">
         <f t="shared" si="10"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F88" s="8"/>
@@ -3632,11 +3634,11 @@
         <f t="shared" si="6"/>
         <v>5065</v>
       </c>
-      <c r="D89" t="str">
+      <c r="D89" s="8" t="str">
         <f t="shared" si="10"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G89" s="4" t="s">
@@ -3666,11 +3668,11 @@
         <f t="shared" si="6"/>
         <v>5132</v>
       </c>
-      <c r="D90" t="str">
+      <c r="D90" s="8" t="str">
         <f t="shared" si="10"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G90" s="4" t="s">
@@ -3698,11 +3700,11 @@
         <f t="shared" si="6"/>
         <v>5200</v>
       </c>
-      <c r="D91" t="str">
+      <c r="D91" s="8" t="str">
         <f t="shared" si="10"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G91" s="4" t="s">
@@ -3732,11 +3734,11 @@
         <f t="shared" si="6"/>
         <v>5267</v>
       </c>
-      <c r="D92" t="str">
+      <c r="D92" s="8" t="str">
         <f t="shared" si="10"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G92" s="4" t="s">
@@ -3764,11 +3766,11 @@
         <f t="shared" si="6"/>
         <v>5335</v>
       </c>
-      <c r="D93" t="str">
+      <c r="D93" s="8" t="str">
         <f t="shared" si="10"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G93" s="4" t="s">
@@ -3798,11 +3800,11 @@
         <f t="shared" si="6"/>
         <v>5403</v>
       </c>
-      <c r="D94" t="str">
+      <c r="D94" s="8" t="str">
         <f t="shared" si="10"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G94" s="4" t="s">
@@ -3830,11 +3832,11 @@
         <f t="shared" si="6"/>
         <v>5470</v>
       </c>
-      <c r="D95" t="str">
+      <c r="D95" s="8" t="str">
         <f t="shared" si="10"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G95" s="4" t="s">
@@ -3864,11 +3866,11 @@
         <f t="shared" si="6"/>
         <v>5538</v>
       </c>
-      <c r="D96" t="str">
+      <c r="D96" s="8" t="str">
         <f t="shared" si="10"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F96" s="8" t="s">
@@ -3899,11 +3901,11 @@
         <f t="shared" si="6"/>
         <v>5540</v>
       </c>
-      <c r="D97" t="str">
+      <c r="D97" s="8" t="str">
         <f t="shared" si="10"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G97" s="4" t="s">
@@ -3931,11 +3933,11 @@
         <f t="shared" si="6"/>
         <v>5542</v>
       </c>
-      <c r="D98" t="str">
+      <c r="D98" s="8" t="str">
         <f t="shared" si="10"/>
         <v>Waterveste 4, Houten</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G98" s="4" t="s">
@@ -3963,11 +3965,11 @@
         <f t="shared" si="6"/>
         <v>5543</v>
       </c>
-      <c r="D99" t="str">
+      <c r="D99" s="8" t="str">
         <f t="shared" si="10"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G99" s="4" t="s">
@@ -3995,11 +3997,11 @@
         <f t="shared" si="6"/>
         <v>5545</v>
       </c>
-      <c r="D100" t="str">
+      <c r="D100" s="8" t="str">
         <f t="shared" si="10"/>
         <v>Waterveste 4, Houten</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G100" s="4" t="s">
@@ -4027,11 +4029,11 @@
         <f t="shared" si="6"/>
         <v>5547</v>
       </c>
-      <c r="D101" t="str">
+      <c r="D101" s="8" t="str">
         <f t="shared" si="10"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G101" s="4" t="s">
@@ -4059,11 +4061,11 @@
         <f t="shared" si="6"/>
         <v>5613</v>
       </c>
-      <c r="D102" t="str">
+      <c r="D102" s="8" t="str">
         <f t="shared" si="10"/>
         <v>Waterveste 4, Houten</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G102" s="4" t="s">
@@ -4093,11 +4095,11 @@
         <f t="shared" si="6"/>
         <v>5681</v>
       </c>
-      <c r="D103" t="str">
+      <c r="D103" s="8" t="str">
         <f t="shared" si="10"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G103" s="4" t="s">
@@ -4125,11 +4127,11 @@
         <f t="shared" si="6"/>
         <v>5748</v>
       </c>
-      <c r="D104" t="str">
+      <c r="D104" s="8" t="str">
         <f t="shared" si="10"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G104" s="4" t="s">
@@ -4159,11 +4161,11 @@
         <f t="shared" si="6"/>
         <v>5816</v>
       </c>
-      <c r="D105" t="str">
+      <c r="D105" s="8" t="str">
         <f t="shared" si="10"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G105" s="4" t="s">
@@ -4191,11 +4193,11 @@
         <f t="shared" si="6"/>
         <v>5884</v>
       </c>
-      <c r="D106" t="str">
+      <c r="D106" s="8" t="str">
         <f t="shared" si="10"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G106" s="4" t="s">
@@ -4225,11 +4227,11 @@
         <f t="shared" si="6"/>
         <v>5951</v>
       </c>
-      <c r="D107" t="str">
+      <c r="D107" s="8" t="str">
         <f t="shared" si="10"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G107" s="4" t="s">
@@ -4257,11 +4259,11 @@
         <f t="shared" si="6"/>
         <v>6019</v>
       </c>
-      <c r="D108" t="str">
+      <c r="D108" s="8" t="str">
         <f t="shared" si="10"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G108" s="4" t="s">
@@ -4291,11 +4293,11 @@
         <f t="shared" si="6"/>
         <v>6087</v>
       </c>
-      <c r="D109" t="str">
+      <c r="D109" s="8" t="str">
         <f t="shared" si="10"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G109" s="4" t="s">
@@ -4323,11 +4325,11 @@
         <f t="shared" si="6"/>
         <v>6154</v>
       </c>
-      <c r="D110" t="str">
+      <c r="D110" s="8" t="str">
         <f t="shared" si="10"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E110" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G110" s="4" t="s">
@@ -4357,11 +4359,11 @@
         <f>B112</f>
         <v>6222</v>
       </c>
-      <c r="D111" t="str">
+      <c r="D111" s="8" t="str">
         <f t="shared" si="10"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G111" s="4" t="s">
@@ -4389,11 +4391,11 @@
         <f t="shared" si="6"/>
         <v>6290</v>
       </c>
-      <c r="D112" t="str">
+      <c r="D112" s="8" t="str">
         <f t="shared" si="10"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G112" s="4" t="s">
@@ -4423,11 +4425,11 @@
         <f t="shared" si="6"/>
         <v>6357</v>
       </c>
-      <c r="D113" t="str">
+      <c r="D113" s="8" t="str">
         <f t="shared" si="10"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E113" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G113" s="4" t="s">
@@ -4455,11 +4457,11 @@
         <f t="shared" si="6"/>
         <v>6425</v>
       </c>
-      <c r="D114" t="str">
+      <c r="D114" s="8" t="str">
         <f t="shared" si="10"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E114" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G114" s="4" t="s">
@@ -4489,11 +4491,11 @@
         <f t="shared" si="6"/>
         <v>6492</v>
       </c>
-      <c r="D115" t="str">
+      <c r="D115" s="8" t="str">
         <f t="shared" si="10"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E115" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G115" s="4" t="s">
@@ -4521,11 +4523,11 @@
         <f t="shared" si="6"/>
         <v>6560</v>
       </c>
-      <c r="D116" t="str">
+      <c r="D116" s="8" t="str">
         <f t="shared" si="10"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G116" s="4" t="s">
@@ -4555,11 +4557,11 @@
         <f t="shared" si="6"/>
         <v>6569</v>
       </c>
-      <c r="D117" t="str">
+      <c r="D117" s="8" t="str">
         <f t="shared" si="10"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E117" s="8" t="s">
         <v>24</v>
       </c>
       <c r="G117" t="s">
@@ -4587,11 +4589,11 @@
         <f t="shared" si="6"/>
         <v>6576</v>
       </c>
-      <c r="D118" t="str">
+      <c r="D118" s="8" t="str">
         <f t="shared" si="10"/>
         <v>Doktersland 20, Koog aan de Zaan</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E118" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G118" t="s">
@@ -4621,11 +4623,11 @@
         <f t="shared" si="6"/>
         <v>6644</v>
       </c>
-      <c r="D119" t="str">
+      <c r="D119" s="8" t="str">
         <f t="shared" si="10"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E119" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G119" s="4" t="s">
@@ -4653,11 +4655,11 @@
         <f t="shared" si="6"/>
         <v>6712</v>
       </c>
-      <c r="D120" t="str">
+      <c r="D120" s="8" t="str">
         <f t="shared" si="10"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E120" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G120" s="4" t="s">
@@ -4687,11 +4689,11 @@
         <f t="shared" si="6"/>
         <v>6780</v>
       </c>
-      <c r="D121" t="str">
+      <c r="D121" s="8" t="str">
         <f t="shared" si="10"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E121" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G121" s="4" t="s">
@@ -4719,11 +4721,11 @@
         <f t="shared" si="6"/>
         <v>6847</v>
       </c>
-      <c r="D122" t="str">
+      <c r="D122" s="8" t="str">
         <f t="shared" si="10"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E122" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G122" s="4" t="s">
@@ -4753,11 +4755,11 @@
         <f t="shared" si="6"/>
         <v>6915</v>
       </c>
-      <c r="D123" t="str">
+      <c r="D123" s="8" t="str">
         <f t="shared" si="10"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E123" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G123" s="4" t="s">
@@ -4785,11 +4787,11 @@
         <f t="shared" si="6"/>
         <v>6983</v>
       </c>
-      <c r="D124" t="str">
+      <c r="D124" s="8" t="str">
         <f t="shared" si="10"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E124" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F124" s="8"/>
@@ -4818,11 +4820,11 @@
         <f t="shared" si="6"/>
         <v>6988</v>
       </c>
-      <c r="D125" t="str">
+      <c r="D125" s="8" t="str">
         <f t="shared" si="10"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E125" s="8" t="s">
         <v>27</v>
       </c>
       <c r="F125" s="8" t="s">
@@ -4853,11 +4855,11 @@
         <f t="shared" si="6"/>
         <v>6992</v>
       </c>
-      <c r="D126" t="str">
+      <c r="D126" s="8" t="str">
         <f t="shared" si="10"/>
         <v>Symon Spiersweg 6, 1506 RZ, Zaandam</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E126" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G126" t="s">
@@ -4887,11 +4889,11 @@
         <f t="shared" si="6"/>
         <v>7060</v>
       </c>
-      <c r="D127" t="str">
+      <c r="D127" s="8" t="str">
         <f t="shared" si="10"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E127" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G127" s="4" t="s">
@@ -4919,11 +4921,11 @@
         <f t="shared" si="6"/>
         <v>7127</v>
       </c>
-      <c r="D128" t="str">
+      <c r="D128" s="8" t="str">
         <f t="shared" si="10"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E128" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G128" s="4" t="s">
@@ -4953,11 +4955,11 @@
         <f t="shared" si="6"/>
         <v>7195</v>
       </c>
-      <c r="D129" t="str">
+      <c r="D129" s="8" t="str">
         <f t="shared" si="10"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E129" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G129" s="4" t="s">
@@ -4985,11 +4987,11 @@
         <f t="shared" ref="C130:C193" si="12">B131</f>
         <v>7214</v>
       </c>
-      <c r="D130" t="str">
+      <c r="D130" s="8" t="str">
         <f t="shared" si="10"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E130" s="8" t="s">
         <v>28</v>
       </c>
       <c r="G130" s="4" t="s">
@@ -5017,11 +5019,11 @@
         <f t="shared" si="12"/>
         <v>7232</v>
       </c>
-      <c r="D131" t="str">
+      <c r="D131" s="8" t="str">
         <f t="shared" si="10"/>
         <v>Atoomweg 488, Utrecht</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E131" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G131" s="4" t="s">
@@ -5049,11 +5051,11 @@
         <f t="shared" si="12"/>
         <v>7300</v>
       </c>
-      <c r="D132" t="str">
+      <c r="D132" s="8" t="str">
         <f t="shared" si="10"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E132" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G132" s="4" t="s">
@@ -5083,11 +5085,11 @@
         <f t="shared" si="12"/>
         <v>7368</v>
       </c>
-      <c r="D133" t="str">
+      <c r="D133" s="8" t="str">
         <f t="shared" ref="D133:D196" si="16">E132</f>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E133" t="s">
+      <c r="E133" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G133" s="4" t="s">
@@ -5115,11 +5117,11 @@
         <f t="shared" si="12"/>
         <v>7435</v>
       </c>
-      <c r="D134" t="str">
+      <c r="D134" s="8" t="str">
         <f t="shared" si="16"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E134" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G134" s="4" t="s">
@@ -5149,11 +5151,11 @@
         <f t="shared" si="12"/>
         <v>7503</v>
       </c>
-      <c r="D135" t="str">
+      <c r="D135" s="8" t="str">
         <f t="shared" si="16"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E135" t="s">
+      <c r="E135" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G135" s="4" t="s">
@@ -5181,11 +5183,11 @@
         <f t="shared" si="12"/>
         <v>7570</v>
       </c>
-      <c r="D136" t="str">
+      <c r="D136" s="8" t="str">
         <f t="shared" si="16"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E136" t="s">
+      <c r="E136" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G136" s="4" t="s">
@@ -5215,11 +5217,11 @@
         <f t="shared" si="12"/>
         <v>7638</v>
       </c>
-      <c r="D137" t="str">
+      <c r="D137" s="8" t="str">
         <f t="shared" si="16"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E137" t="s">
+      <c r="E137" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G137" s="4" t="s">
@@ -5247,11 +5249,11 @@
         <f t="shared" si="12"/>
         <v>7706</v>
       </c>
-      <c r="D138" t="str">
+      <c r="D138" s="8" t="str">
         <f t="shared" si="16"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E138" t="s">
+      <c r="E138" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G138" s="4" t="s">
@@ -5281,11 +5283,11 @@
         <f t="shared" si="12"/>
         <v>7773</v>
       </c>
-      <c r="D139" t="str">
+      <c r="D139" s="8" t="str">
         <f t="shared" si="16"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E139" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G139" s="4" t="s">
@@ -5313,11 +5315,11 @@
         <f t="shared" si="12"/>
         <v>7841</v>
       </c>
-      <c r="D140" t="str">
+      <c r="D140" s="8" t="str">
         <f t="shared" si="16"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E140" t="s">
+      <c r="E140" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G140" s="4" t="s">
@@ -5347,11 +5349,11 @@
         <f t="shared" si="12"/>
         <v>7849</v>
       </c>
-      <c r="D141" t="str">
+      <c r="D141" s="8" t="str">
         <f t="shared" si="16"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E141" t="s">
+      <c r="E141" s="8" t="s">
         <v>24</v>
       </c>
       <c r="G141" t="s">
@@ -5379,11 +5381,11 @@
         <f t="shared" si="12"/>
         <v>7856</v>
       </c>
-      <c r="D142" t="str">
+      <c r="D142" s="8" t="str">
         <f t="shared" si="16"/>
         <v>Doktersland 20, Koog aan de Zaan</v>
       </c>
-      <c r="E142" t="s">
+      <c r="E142" s="8" t="s">
         <v>30</v>
       </c>
       <c r="G142" t="s">
@@ -5411,11 +5413,11 @@
         <f t="shared" si="12"/>
         <v>7863</v>
       </c>
-      <c r="D143" t="str">
+      <c r="D143" s="8" t="str">
         <f t="shared" si="16"/>
         <v>Vlietlaan, Assendelft</v>
       </c>
-      <c r="E143" t="s">
+      <c r="E143" s="8" t="s">
         <v>24</v>
       </c>
       <c r="G143" t="s">
@@ -5443,11 +5445,11 @@
         <f t="shared" si="12"/>
         <v>7870</v>
       </c>
-      <c r="D144" t="str">
+      <c r="D144" s="8" t="str">
         <f t="shared" si="16"/>
         <v>Doktersland 20, Koog aan de Zaan</v>
       </c>
-      <c r="E144" t="s">
+      <c r="E144" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G144" t="s">
@@ -5480,11 +5482,11 @@
         <f t="shared" si="12"/>
         <v>7883</v>
       </c>
-      <c r="D145" t="str">
+      <c r="D145" s="8" t="str">
         <f t="shared" si="16"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E145" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G145" t="s">
@@ -5518,11 +5520,11 @@
         <f t="shared" si="12"/>
         <v>7895</v>
       </c>
-      <c r="D146" t="str">
+      <c r="D146" s="8" t="str">
         <f t="shared" si="16"/>
         <v>Zuiderhoofdstraat 32, Krommenie</v>
       </c>
-      <c r="E146" t="s">
+      <c r="E146" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G146" t="s">
@@ -5552,10 +5554,10 @@
         <f t="shared" si="12"/>
         <v>7963</v>
       </c>
-      <c r="D147" t="s">
-        <v>7</v>
-      </c>
-      <c r="E147" t="s">
+      <c r="D147" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E147" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G147" s="4" t="s">
@@ -5583,11 +5585,11 @@
         <f t="shared" si="12"/>
         <v>8030</v>
       </c>
-      <c r="D148" t="str">
+      <c r="D148" s="8" t="str">
         <f t="shared" si="16"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E148" t="s">
+      <c r="E148" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F148" s="8"/>
@@ -5618,11 +5620,11 @@
         <f t="shared" si="12"/>
         <v>8098</v>
       </c>
-      <c r="D149" t="str">
+      <c r="D149" s="8" t="str">
         <f t="shared" si="16"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E149" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G149" s="4" t="s">
@@ -5650,11 +5652,11 @@
         <f t="shared" si="12"/>
         <v>8165</v>
       </c>
-      <c r="D150" t="str">
+      <c r="D150" s="8" t="str">
         <f t="shared" si="16"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E150" t="s">
+      <c r="E150" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G150" s="4" t="s">
@@ -5684,11 +5686,11 @@
         <f t="shared" si="12"/>
         <v>8233</v>
       </c>
-      <c r="D151" t="str">
+      <c r="D151" s="8" t="str">
         <f t="shared" si="16"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E151" t="s">
+      <c r="E151" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G151" s="4" t="s">
@@ -5716,11 +5718,11 @@
         <f t="shared" si="12"/>
         <v>8300</v>
       </c>
-      <c r="D152" t="str">
+      <c r="D152" s="8" t="str">
         <f t="shared" si="16"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E152" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G152" s="4" t="s">
@@ -5750,11 +5752,11 @@
         <f t="shared" si="12"/>
         <v>8368</v>
       </c>
-      <c r="D153" t="str">
+      <c r="D153" s="8" t="str">
         <f t="shared" si="16"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E153" t="s">
+      <c r="E153" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G153" s="4" t="s">
@@ -5782,10 +5784,10 @@
         <f t="shared" si="12"/>
         <v>8436</v>
       </c>
-      <c r="D154" t="s">
-        <v>6</v>
-      </c>
-      <c r="E154" t="s">
+      <c r="D154" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E154" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G154" s="4" t="s">
@@ -5815,10 +5817,10 @@
         <f t="shared" si="12"/>
         <v>8504</v>
       </c>
-      <c r="D155" t="s">
-        <v>7</v>
-      </c>
-      <c r="E155" t="s">
+      <c r="D155" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E155" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G155" s="4" t="s">
@@ -5846,10 +5848,10 @@
         <f t="shared" si="12"/>
         <v>8571</v>
       </c>
-      <c r="D156" t="s">
-        <v>6</v>
-      </c>
-      <c r="E156" t="s">
+      <c r="D156" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E156" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G156" s="4" t="s">
@@ -5879,11 +5881,11 @@
         <f t="shared" si="12"/>
         <v>8639</v>
       </c>
-      <c r="D157" t="str">
+      <c r="D157" s="8" t="str">
         <f t="shared" si="16"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E157" t="s">
+      <c r="E157" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G157" s="4" t="s">
@@ -5911,11 +5913,11 @@
         <f t="shared" si="12"/>
         <v>8706</v>
       </c>
-      <c r="D158" t="str">
+      <c r="D158" s="8" t="str">
         <f t="shared" si="16"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E158" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G158" s="4" t="s">
@@ -5945,11 +5947,11 @@
         <f t="shared" si="12"/>
         <v>8710</v>
       </c>
-      <c r="D159" t="str">
+      <c r="D159" s="8" t="str">
         <f t="shared" si="16"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E159" t="s">
+      <c r="E159" s="8" t="s">
         <v>31</v>
       </c>
       <c r="G159" t="s">
@@ -5976,11 +5978,11 @@
         <f t="shared" si="12"/>
         <v>8714</v>
       </c>
-      <c r="D160" t="str">
+      <c r="D160" s="8" t="str">
         <f t="shared" si="16"/>
         <v>Stormhoek 21, 1506 SW, Zaandam</v>
       </c>
-      <c r="E160" t="s">
+      <c r="E160" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G160" t="s">
@@ -6010,11 +6012,11 @@
         <f t="shared" si="12"/>
         <v>8718</v>
       </c>
-      <c r="D161" t="str">
+      <c r="D161" s="8" t="str">
         <f t="shared" si="16"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E161" t="s">
+      <c r="E161" s="8" t="s">
         <v>31</v>
       </c>
       <c r="G161" t="s">
@@ -6041,11 +6043,11 @@
         <f t="shared" si="12"/>
         <v>8723</v>
       </c>
-      <c r="D162" t="str">
+      <c r="D162" s="8" t="str">
         <f t="shared" si="16"/>
         <v>Stormhoek 21, 1506 SW, Zaandam</v>
       </c>
-      <c r="E162" t="s">
+      <c r="E162" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G162" t="s">
@@ -6075,10 +6077,10 @@
         <f t="shared" si="12"/>
         <v>8790</v>
       </c>
-      <c r="D163" t="s">
-        <v>7</v>
-      </c>
-      <c r="E163" t="s">
+      <c r="D163" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E163" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G163" s="4" t="s">
@@ -6105,11 +6107,11 @@
         <f t="shared" si="12"/>
         <v>8858</v>
       </c>
-      <c r="D164" t="str">
+      <c r="D164" s="8" t="str">
         <f t="shared" si="16"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E164" t="s">
+      <c r="E164" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G164" s="4" t="s">
@@ -6139,11 +6141,11 @@
         <f t="shared" si="12"/>
         <v>8926</v>
       </c>
-      <c r="D165" t="str">
+      <c r="D165" s="8" t="str">
         <f t="shared" si="16"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E165" t="s">
+      <c r="E165" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G165" s="4" t="s">
@@ -6170,11 +6172,11 @@
         <f t="shared" si="12"/>
         <v>8993</v>
       </c>
-      <c r="D166" t="str">
+      <c r="D166" s="8" t="str">
         <f t="shared" si="16"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E166" t="s">
+      <c r="E166" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G166" s="4" t="s">
@@ -6204,11 +6206,11 @@
         <f t="shared" si="12"/>
         <v>8997</v>
       </c>
-      <c r="D167" t="str">
+      <c r="D167" s="8" t="str">
         <f t="shared" si="16"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E167" t="s">
+      <c r="E167" s="8" t="s">
         <v>32</v>
       </c>
       <c r="G167" t="s">
@@ -6235,11 +6237,11 @@
         <f t="shared" si="12"/>
         <v>8998</v>
       </c>
-      <c r="D168" t="str">
+      <c r="D168" s="8" t="str">
         <f t="shared" si="16"/>
         <v>Pieter Ghijsenlaan 21a, 1506 PW, Zaandam</v>
       </c>
-      <c r="E168" t="s">
+      <c r="E168" s="8" t="s">
         <v>31</v>
       </c>
       <c r="G168" t="s">
@@ -6267,11 +6269,11 @@
         <f t="shared" si="12"/>
         <v>9002</v>
       </c>
-      <c r="D169" t="str">
+      <c r="D169" s="8" t="str">
         <f t="shared" si="16"/>
         <v>Stormhoek 21, 1506 SW, Zaandam</v>
       </c>
-      <c r="E169" t="s">
+      <c r="E169" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G169" t="s">
@@ -6301,11 +6303,11 @@
         <f t="shared" si="12"/>
         <v>9070</v>
       </c>
-      <c r="D170" t="str">
+      <c r="D170" s="8" t="str">
         <f t="shared" si="16"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E170" t="s">
+      <c r="E170" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G170" s="4" t="s">
@@ -6333,11 +6335,11 @@
         <f t="shared" si="12"/>
         <v>9138</v>
       </c>
-      <c r="D171" t="str">
+      <c r="D171" s="8" t="str">
         <f t="shared" si="16"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E171" t="s">
+      <c r="E171" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G171" s="4" t="s">
@@ -6367,11 +6369,11 @@
         <f t="shared" si="12"/>
         <v>9206</v>
       </c>
-      <c r="D172" t="str">
+      <c r="D172" s="8" t="str">
         <f t="shared" si="16"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E172" t="s">
+      <c r="E172" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G172" s="4" t="s">
@@ -6399,11 +6401,11 @@
         <f t="shared" si="12"/>
         <v>9273</v>
       </c>
-      <c r="D173" t="str">
+      <c r="D173" s="8" t="str">
         <f t="shared" si="16"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E173" t="s">
+      <c r="E173" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G173" s="4" t="s">
@@ -6433,11 +6435,11 @@
         <f t="shared" si="12"/>
         <v>9341</v>
       </c>
-      <c r="D174" t="str">
+      <c r="D174" s="8" t="str">
         <f t="shared" si="16"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E174" t="s">
+      <c r="E174" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G174" s="4" t="s">
@@ -6465,11 +6467,11 @@
         <f t="shared" si="12"/>
         <v>9409</v>
       </c>
-      <c r="D175" t="str">
+      <c r="D175" s="8" t="str">
         <f t="shared" si="16"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E175" t="s">
+      <c r="E175" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G175" s="4" t="s">
@@ -6499,11 +6501,11 @@
         <f t="shared" si="12"/>
         <v>9476</v>
       </c>
-      <c r="D176" t="str">
+      <c r="D176" s="8" t="str">
         <f t="shared" si="16"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E176" t="s">
+      <c r="E176" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G176" s="4" t="s">
@@ -6531,11 +6533,11 @@
         <f t="shared" si="12"/>
         <v>9544</v>
       </c>
-      <c r="D177" t="str">
+      <c r="D177" s="8" t="str">
         <f t="shared" si="16"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E177" t="s">
+      <c r="E177" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G177" s="4" t="s">
@@ -6565,11 +6567,11 @@
         <f t="shared" si="12"/>
         <v>9612</v>
       </c>
-      <c r="D178" t="str">
+      <c r="D178" s="8" t="str">
         <f t="shared" si="16"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E178" t="s">
+      <c r="E178" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G178" s="4" t="s">
@@ -6597,11 +6599,11 @@
         <f t="shared" si="12"/>
         <v>9679</v>
       </c>
-      <c r="D179" t="str">
+      <c r="D179" s="8" t="str">
         <f t="shared" si="16"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E179" t="s">
+      <c r="E179" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G179" s="4" t="s">
@@ -6631,11 +6633,11 @@
         <f t="shared" si="12"/>
         <v>9747</v>
       </c>
-      <c r="D180" t="str">
+      <c r="D180" s="8" t="str">
         <f t="shared" si="16"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E180" t="s">
+      <c r="E180" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G180" s="4" t="s">
@@ -6663,10 +6665,10 @@
         <f t="shared" si="12"/>
         <v>9816</v>
       </c>
-      <c r="D181" t="s">
-        <v>6</v>
-      </c>
-      <c r="E181" t="s">
+      <c r="D181" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E181" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G181" s="4" t="s">
@@ -6698,11 +6700,11 @@
       <c r="C182" s="6">
         <v>9841</v>
       </c>
-      <c r="D182" t="str">
+      <c r="D182" s="8" t="str">
         <f t="shared" si="16"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E182" t="s">
+      <c r="E182" s="8" t="s">
         <v>33</v>
       </c>
       <c r="G182" t="s">
@@ -6730,11 +6732,11 @@
         <f t="shared" si="12"/>
         <v>9867</v>
       </c>
-      <c r="D183" t="str">
+      <c r="D183" s="8" t="str">
         <f t="shared" si="16"/>
         <v>Dalsteindreef 2002, 1112 XC, Diemen</v>
       </c>
-      <c r="E183" t="s">
+      <c r="E183" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G183" t="s">
@@ -6763,11 +6765,11 @@
       <c r="C184" s="6">
         <v>9935</v>
       </c>
-      <c r="D184" t="str">
+      <c r="D184" s="8" t="str">
         <f t="shared" si="16"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E184" t="s">
+      <c r="E184" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G184" s="4" t="s">
@@ -6794,11 +6796,11 @@
       <c r="C185" s="6">
         <v>10002</v>
       </c>
-      <c r="D185" t="str">
+      <c r="D185" s="8" t="str">
         <f t="shared" si="16"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E185" t="s">
+      <c r="E185" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G185" s="4" t="s">
@@ -6828,11 +6830,11 @@
         <f t="shared" si="12"/>
         <v>10028</v>
       </c>
-      <c r="D186" t="str">
+      <c r="D186" s="8" t="str">
         <f t="shared" si="16"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E186" t="s">
+      <c r="E186" s="8" t="s">
         <v>34</v>
       </c>
       <c r="G186" s="4" t="s">
@@ -6859,11 +6861,11 @@
       <c r="C187" s="6">
         <v>10056</v>
       </c>
-      <c r="D187" t="str">
+      <c r="D187" s="8" t="str">
         <f t="shared" si="16"/>
         <v>Fraijlemaborg 141, 1102 CV, Amsterdam</v>
       </c>
-      <c r="E187" t="s">
+      <c r="E187" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G187" s="4" t="s">
@@ -6893,11 +6895,11 @@
         <f t="shared" si="12"/>
         <v>10124</v>
       </c>
-      <c r="D188" t="str">
+      <c r="D188" s="8" t="str">
         <f t="shared" si="16"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E188" t="s">
+      <c r="E188" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G188" s="4" t="s">
@@ -6925,11 +6927,11 @@
         <f t="shared" si="12"/>
         <v>10195</v>
       </c>
-      <c r="D189" t="str">
+      <c r="D189" s="8" t="str">
         <f t="shared" si="16"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E189" t="s">
+      <c r="E189" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F189" s="8"/>
@@ -6960,11 +6962,11 @@
         <f t="shared" si="12"/>
         <v>10259</v>
       </c>
-      <c r="D190" t="str">
+      <c r="D190" s="8" t="str">
         <f t="shared" si="16"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E190" t="s">
+      <c r="E190" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G190" s="4" t="s">
@@ -6991,11 +6993,11 @@
         <f t="shared" si="12"/>
         <v>10327</v>
       </c>
-      <c r="D191" t="str">
+      <c r="D191" s="8" t="str">
         <f t="shared" si="16"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E191" t="s">
+      <c r="E191" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G191" s="4" t="s">
@@ -7025,10 +7027,10 @@
         <f t="shared" si="12"/>
         <v>10354</v>
       </c>
-      <c r="D192" t="s">
-        <v>7</v>
-      </c>
-      <c r="E192" t="s">
+      <c r="D192" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E192" s="8" t="s">
         <v>35</v>
       </c>
       <c r="G192" t="s">
@@ -7055,11 +7057,11 @@
         <f t="shared" si="12"/>
         <v>10390</v>
       </c>
-      <c r="D193" t="str">
+      <c r="D193" s="8" t="str">
         <f t="shared" si="16"/>
         <v>Laan van Decima 1, 2031 CX, Haarlem</v>
       </c>
-      <c r="E193" t="s">
+      <c r="E193" s="8" t="s">
         <v>31</v>
       </c>
       <c r="G193" t="s">
@@ -7087,11 +7089,11 @@
         <f t="shared" ref="C194:C257" si="20">B195</f>
         <v>10394</v>
       </c>
-      <c r="D194" t="str">
+      <c r="D194" s="8" t="str">
         <f t="shared" si="16"/>
         <v>Stormhoek 21, 1506 SW, Zaandam</v>
       </c>
-      <c r="E194" t="s">
+      <c r="E194" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G194" t="s">
@@ -7121,11 +7123,11 @@
         <f t="shared" si="20"/>
         <v>10462</v>
       </c>
-      <c r="D195" t="str">
+      <c r="D195" s="8" t="str">
         <f t="shared" si="16"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E195" t="s">
+      <c r="E195" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G195" s="4" t="s">
@@ -7153,11 +7155,11 @@
         <f t="shared" si="20"/>
         <v>10529</v>
       </c>
-      <c r="D196" t="str">
+      <c r="D196" s="8" t="str">
         <f t="shared" si="16"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E196" t="s">
+      <c r="E196" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G196" s="4" t="s">
@@ -7187,11 +7189,11 @@
         <f t="shared" si="20"/>
         <v>10597</v>
       </c>
-      <c r="D197" t="str">
+      <c r="D197" s="8" t="str">
         <f t="shared" ref="D197:D260" si="21">E196</f>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E197" t="s">
+      <c r="E197" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G197" s="4" t="s">
@@ -7219,11 +7221,11 @@
         <f t="shared" si="20"/>
         <v>10665</v>
       </c>
-      <c r="D198" t="str">
+      <c r="D198" s="8" t="str">
         <f t="shared" si="21"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E198" t="s">
+      <c r="E198" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G198" s="4" t="s">
@@ -7253,11 +7255,11 @@
         <f t="shared" si="20"/>
         <v>10732</v>
       </c>
-      <c r="D199" t="str">
+      <c r="D199" s="8" t="str">
         <f t="shared" si="21"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E199" t="s">
+      <c r="E199" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G199" s="4" t="s">
@@ -7285,11 +7287,11 @@
         <f t="shared" si="20"/>
         <v>10800</v>
       </c>
-      <c r="D200" t="str">
+      <c r="D200" s="8" t="str">
         <f t="shared" si="21"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E200" t="s">
+      <c r="E200" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G200" s="4" t="s">
@@ -7319,11 +7321,11 @@
         <f t="shared" si="20"/>
         <v>10803</v>
       </c>
-      <c r="D201" t="str">
+      <c r="D201" s="8" t="str">
         <f t="shared" si="21"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E201" t="s">
+      <c r="E201" s="8" t="s">
         <v>36</v>
       </c>
       <c r="G201" t="s">
@@ -7351,11 +7353,11 @@
         <f t="shared" si="20"/>
         <v>10806</v>
       </c>
-      <c r="D202" t="str">
+      <c r="D202" s="8" t="str">
         <f t="shared" si="21"/>
         <v>Kleine Tocht 19, 1507 CB, Zaandam</v>
       </c>
-      <c r="E202" t="s">
+      <c r="E202" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G202" t="s">
@@ -7385,11 +7387,11 @@
         <f t="shared" si="20"/>
         <v>10873</v>
       </c>
-      <c r="D203" t="str">
+      <c r="D203" s="8" t="str">
         <f t="shared" si="21"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E203" t="s">
+      <c r="E203" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G203" s="4" t="s">
@@ -7417,11 +7419,11 @@
         <f t="shared" si="20"/>
         <v>10941</v>
       </c>
-      <c r="D204" t="str">
+      <c r="D204" s="8" t="str">
         <f t="shared" si="21"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E204" t="s">
+      <c r="E204" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G204" s="4" t="s">
@@ -7451,11 +7453,11 @@
         <f t="shared" si="20"/>
         <v>11008</v>
       </c>
-      <c r="D205" t="str">
+      <c r="D205" s="8" t="str">
         <f t="shared" si="21"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E205" t="s">
+      <c r="E205" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G205" s="4" t="s">
@@ -7483,11 +7485,11 @@
         <f t="shared" si="20"/>
         <v>11076</v>
       </c>
-      <c r="D206" t="str">
+      <c r="D206" s="8" t="str">
         <f t="shared" si="21"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E206" t="s">
+      <c r="E206" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G206" s="4" t="s">
@@ -7517,11 +7519,11 @@
         <f t="shared" si="20"/>
         <v>11144</v>
       </c>
-      <c r="D207" t="str">
+      <c r="D207" s="8" t="str">
         <f t="shared" si="21"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E207" t="s">
+      <c r="E207" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G207" s="4" t="s">
@@ -7549,11 +7551,11 @@
         <f t="shared" si="20"/>
         <v>11211</v>
       </c>
-      <c r="D208" t="str">
+      <c r="D208" s="8" t="str">
         <f t="shared" si="21"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E208" t="s">
+      <c r="E208" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G208" s="4" t="s">
@@ -7583,11 +7585,11 @@
         <f t="shared" si="20"/>
         <v>11279</v>
       </c>
-      <c r="D209" t="str">
+      <c r="D209" s="8" t="str">
         <f t="shared" si="21"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E209" t="s">
+      <c r="E209" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G209" s="4" t="s">
@@ -7614,11 +7616,11 @@
         <f t="shared" si="20"/>
         <v>11346</v>
       </c>
-      <c r="D210" t="str">
+      <c r="D210" s="8" t="str">
         <f t="shared" si="21"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E210" t="s">
+      <c r="E210" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G210" s="4" t="s">
@@ -7648,11 +7650,11 @@
         <f t="shared" si="20"/>
         <v>11414</v>
       </c>
-      <c r="D211" t="str">
+      <c r="D211" s="8" t="str">
         <f t="shared" si="21"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E211" t="s">
+      <c r="E211" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G211" s="4" t="s">
@@ -7680,11 +7682,11 @@
         <f t="shared" si="20"/>
         <v>11481</v>
       </c>
-      <c r="D212" t="str">
+      <c r="D212" s="8" t="str">
         <f t="shared" si="21"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E212" t="s">
+      <c r="E212" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G212" s="4" t="s">
@@ -7714,11 +7716,11 @@
         <f t="shared" si="20"/>
         <v>11549</v>
       </c>
-      <c r="D213" t="str">
+      <c r="D213" s="8" t="str">
         <f t="shared" si="21"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E213" t="s">
+      <c r="E213" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G213" s="4" t="s">
@@ -7746,11 +7748,11 @@
         <f t="shared" si="20"/>
         <v>11616</v>
       </c>
-      <c r="D214" t="str">
+      <c r="D214" s="8" t="str">
         <f t="shared" si="21"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E214" t="s">
+      <c r="E214" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G214" s="4" t="s">
@@ -7780,11 +7782,11 @@
         <f t="shared" si="20"/>
         <v>11625</v>
       </c>
-      <c r="D215" t="str">
+      <c r="D215" s="8" t="str">
         <f t="shared" si="21"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E215" t="s">
+      <c r="E215" s="8" t="s">
         <v>24</v>
       </c>
       <c r="G215" t="s">
@@ -7812,11 +7814,11 @@
         <f t="shared" si="20"/>
         <v>11633</v>
       </c>
-      <c r="D216" t="str">
+      <c r="D216" s="8" t="str">
         <f t="shared" si="21"/>
         <v>Doktersland 20, Koog aan de Zaan</v>
       </c>
-      <c r="E216" t="s">
+      <c r="E216" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G216" t="s">
@@ -7846,11 +7848,11 @@
         <f t="shared" si="20"/>
         <v>11701</v>
       </c>
-      <c r="D217" t="str">
+      <c r="D217" s="8" t="str">
         <f t="shared" si="21"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E217" t="s">
+      <c r="E217" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G217" s="4" t="s">
@@ -7877,11 +7879,11 @@
         <f t="shared" si="20"/>
         <v>11768</v>
       </c>
-      <c r="D218" t="str">
+      <c r="D218" s="8" t="str">
         <f t="shared" si="21"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E218" t="s">
+      <c r="E218" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G218" s="4" t="s">
@@ -7911,11 +7913,11 @@
         <f t="shared" si="20"/>
         <v>11836</v>
       </c>
-      <c r="D219" t="str">
+      <c r="D219" s="8" t="str">
         <f t="shared" si="21"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E219" t="s">
+      <c r="E219" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G219" s="4" t="s">
@@ -7942,11 +7944,11 @@
         <f t="shared" si="20"/>
         <v>11903</v>
       </c>
-      <c r="D220" t="str">
+      <c r="D220" s="8" t="str">
         <f t="shared" si="21"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E220" t="s">
+      <c r="E220" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G220" s="4" t="s">
@@ -7976,11 +7978,11 @@
         <f t="shared" si="20"/>
         <v>11971</v>
       </c>
-      <c r="D221" t="str">
+      <c r="D221" s="8" t="str">
         <f t="shared" si="21"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E221" t="s">
+      <c r="E221" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G221" s="4" t="s">
@@ -8007,11 +8009,11 @@
         <f t="shared" si="20"/>
         <v>12039</v>
       </c>
-      <c r="D222" t="str">
+      <c r="D222" s="8" t="str">
         <f t="shared" si="21"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E222" t="s">
+      <c r="E222" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G222" s="4" t="s">
@@ -8041,11 +8043,11 @@
         <f t="shared" si="20"/>
         <v>12106</v>
       </c>
-      <c r="D223" t="str">
+      <c r="D223" s="8" t="str">
         <f t="shared" si="21"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E223" t="s">
+      <c r="E223" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G223" s="4" t="s">
@@ -8072,11 +8074,11 @@
         <f t="shared" si="20"/>
         <v>12171</v>
       </c>
-      <c r="D224" t="str">
+      <c r="D224" s="8" t="str">
         <f t="shared" si="21"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E224" t="s">
+      <c r="E224" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G224" s="4" t="s">
@@ -8106,11 +8108,11 @@
         <f t="shared" si="20"/>
         <v>12238</v>
       </c>
-      <c r="D225" t="str">
+      <c r="D225" s="8" t="str">
         <f t="shared" si="21"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E225" t="s">
+      <c r="E225" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G225" s="4" t="s">
@@ -8137,11 +8139,11 @@
         <f t="shared" si="20"/>
         <v>12306</v>
       </c>
-      <c r="D226" t="str">
+      <c r="D226" s="8" t="str">
         <f t="shared" si="21"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E226" t="s">
+      <c r="E226" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G226" s="4" t="s">
@@ -8171,11 +8173,11 @@
         <f t="shared" si="20"/>
         <v>12310</v>
       </c>
-      <c r="D227" t="str">
+      <c r="D227" s="8" t="str">
         <f t="shared" si="21"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E227" t="s">
+      <c r="E227" s="8" t="s">
         <v>31</v>
       </c>
       <c r="G227" s="4" t="s">
@@ -8203,11 +8205,11 @@
         <f t="shared" si="20"/>
         <v>12314</v>
       </c>
-      <c r="D228" t="str">
+      <c r="D228" s="8" t="str">
         <f t="shared" si="21"/>
         <v>Stormhoek 21, 1506 SW, Zaandam</v>
       </c>
-      <c r="E228" t="s">
+      <c r="E228" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G228" s="4" t="s">
@@ -8237,11 +8239,11 @@
         <f t="shared" si="20"/>
         <v>12382</v>
       </c>
-      <c r="D229" t="str">
+      <c r="D229" s="8" t="str">
         <f t="shared" si="21"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E229" t="s">
+      <c r="E229" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G229" s="4" t="s">
@@ -8268,11 +8270,11 @@
         <f t="shared" si="20"/>
         <v>12449</v>
       </c>
-      <c r="D230" t="str">
+      <c r="D230" s="8" t="str">
         <f t="shared" si="21"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E230" t="s">
+      <c r="E230" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G230" s="4" t="s">
@@ -8302,11 +8304,11 @@
         <f t="shared" si="20"/>
         <v>12517</v>
       </c>
-      <c r="D231" t="str">
+      <c r="D231" s="8" t="str">
         <f t="shared" si="21"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E231" t="s">
+      <c r="E231" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G231" s="4" t="s">
@@ -8333,11 +8335,11 @@
         <f t="shared" si="20"/>
         <v>12585</v>
       </c>
-      <c r="D232" t="str">
+      <c r="D232" s="8" t="str">
         <f t="shared" si="21"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E232" t="s">
+      <c r="E232" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G232" s="4" t="s">
@@ -8367,11 +8369,11 @@
         <f t="shared" si="20"/>
         <v>12653</v>
       </c>
-      <c r="D233" t="str">
+      <c r="D233" s="8" t="str">
         <f t="shared" si="21"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E233" t="s">
+      <c r="E233" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G233" s="4" t="s">
@@ -8399,11 +8401,11 @@
         <f t="shared" si="20"/>
         <v>12720</v>
       </c>
-      <c r="D234" t="str">
+      <c r="D234" s="8" t="str">
         <f t="shared" si="21"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E234" t="s">
+      <c r="E234" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G234" s="4" t="s">
@@ -8433,11 +8435,11 @@
         <f t="shared" si="20"/>
         <v>12788</v>
       </c>
-      <c r="D235" t="str">
+      <c r="D235" s="8" t="str">
         <f t="shared" si="21"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E235" t="s">
+      <c r="E235" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G235" s="4" t="s">
@@ -8464,11 +8466,11 @@
         <f t="shared" si="20"/>
         <v>12855</v>
       </c>
-      <c r="D236" t="str">
+      <c r="D236" s="8" t="str">
         <f t="shared" si="21"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E236" t="s">
+      <c r="E236" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G236" s="4" t="s">
@@ -8498,11 +8500,11 @@
         <f t="shared" si="20"/>
         <v>12923</v>
       </c>
-      <c r="D237" t="str">
+      <c r="D237" s="8" t="str">
         <f t="shared" si="21"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E237" t="s">
+      <c r="E237" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G237" s="4" t="s">
@@ -8529,11 +8531,11 @@
         <f t="shared" si="20"/>
         <v>12990</v>
       </c>
-      <c r="D238" t="str">
+      <c r="D238" s="8" t="str">
         <f t="shared" si="21"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E238" t="s">
+      <c r="E238" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G238" s="4" t="s">
@@ -8563,11 +8565,11 @@
         <f t="shared" si="20"/>
         <v>13058</v>
       </c>
-      <c r="D239" t="str">
+      <c r="D239" s="8" t="str">
         <f t="shared" si="21"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E239" t="s">
+      <c r="E239" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G239" s="4" t="s">
@@ -8594,11 +8596,11 @@
         <f t="shared" si="20"/>
         <v>13126</v>
       </c>
-      <c r="D240" t="str">
+      <c r="D240" s="8" t="str">
         <f t="shared" si="21"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E240" t="s">
+      <c r="E240" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G240" s="4" t="s">
@@ -8628,11 +8630,11 @@
         <f t="shared" si="20"/>
         <v>13193</v>
       </c>
-      <c r="D241" t="str">
+      <c r="D241" s="8" t="str">
         <f t="shared" si="21"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E241" t="s">
+      <c r="E241" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G241" s="4" t="s">
@@ -8659,11 +8661,11 @@
         <f t="shared" si="20"/>
         <v>13261</v>
       </c>
-      <c r="D242" t="str">
+      <c r="D242" s="8" t="str">
         <f t="shared" si="21"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E242" t="s">
+      <c r="E242" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G242" s="4" t="s">
@@ -8693,11 +8695,11 @@
         <f t="shared" si="20"/>
         <v>13328</v>
       </c>
-      <c r="D243" t="str">
+      <c r="D243" s="8" t="str">
         <f t="shared" si="21"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E243" t="s">
+      <c r="E243" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G243" s="4" t="s">
@@ -8724,11 +8726,11 @@
         <f t="shared" si="20"/>
         <v>13396</v>
       </c>
-      <c r="D244" t="str">
+      <c r="D244" s="8" t="str">
         <f t="shared" si="21"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E244" t="s">
+      <c r="E244" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G244" s="4" t="s">
@@ -8758,10 +8760,10 @@
         <f t="shared" si="20"/>
         <v>13399</v>
       </c>
-      <c r="D245" t="s">
-        <v>7</v>
-      </c>
-      <c r="E245" t="s">
+      <c r="D245" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E245" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G245" s="11" t="s">
@@ -8788,11 +8790,11 @@
         <f t="shared" si="20"/>
         <v>13402</v>
       </c>
-      <c r="D246" t="str">
+      <c r="D246" s="8" t="str">
         <f t="shared" si="21"/>
         <v>Zuidervaart 104, Zaandam</v>
       </c>
-      <c r="E246" t="s">
+      <c r="E246" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G246" s="11" t="s">
@@ -8822,11 +8824,11 @@
         <f t="shared" si="20"/>
         <v>13470</v>
       </c>
-      <c r="D247" t="str">
+      <c r="D247" s="8" t="str">
         <f t="shared" si="21"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E247" t="s">
+      <c r="E247" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G247" s="4" t="s">
@@ -8853,11 +8855,11 @@
         <f t="shared" si="20"/>
         <v>13537</v>
       </c>
-      <c r="D248" t="str">
+      <c r="D248" s="8" t="str">
         <f t="shared" si="21"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E248" t="s">
+      <c r="E248" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G248" s="4" t="s">
@@ -8887,11 +8889,11 @@
         <f t="shared" si="20"/>
         <v>13605</v>
       </c>
-      <c r="D249" t="str">
+      <c r="D249" s="8" t="str">
         <f t="shared" si="21"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E249" t="s">
+      <c r="E249" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G249" s="4" t="s">
@@ -8918,11 +8920,11 @@
         <f t="shared" si="20"/>
         <v>13673</v>
       </c>
-      <c r="D250" t="str">
+      <c r="D250" s="8" t="str">
         <f t="shared" si="21"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E250" t="s">
+      <c r="E250" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G250" s="4" t="s">
@@ -8952,11 +8954,11 @@
         <f t="shared" si="20"/>
         <v>13741</v>
       </c>
-      <c r="D251" t="str">
+      <c r="D251" s="8" t="str">
         <f t="shared" si="21"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E251" t="s">
+      <c r="E251" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G251" s="4" t="s">
@@ -8983,11 +8985,11 @@
         <f t="shared" si="20"/>
         <v>13808</v>
       </c>
-      <c r="D252" t="str">
+      <c r="D252" s="8" t="str">
         <f t="shared" si="21"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E252" t="s">
+      <c r="E252" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G252" s="4" t="s">
@@ -9017,11 +9019,11 @@
         <f t="shared" si="20"/>
         <v>13876</v>
       </c>
-      <c r="D253" t="str">
+      <c r="D253" s="8" t="str">
         <f t="shared" si="21"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E253" t="s">
+      <c r="E253" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G253" s="4" t="s">
@@ -9048,11 +9050,11 @@
         <f t="shared" si="20"/>
         <v>13944</v>
       </c>
-      <c r="D254" t="str">
+      <c r="D254" s="8" t="str">
         <f t="shared" si="21"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E254" t="s">
+      <c r="E254" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G254" s="4" t="s">
@@ -9082,11 +9084,11 @@
         <f t="shared" si="20"/>
         <v>14011</v>
       </c>
-      <c r="D255" t="str">
+      <c r="D255" s="8" t="str">
         <f t="shared" si="21"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E255" t="s">
+      <c r="E255" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G255" s="4" t="s">
@@ -9113,11 +9115,11 @@
         <f t="shared" si="20"/>
         <v>14079</v>
       </c>
-      <c r="D256" t="str">
+      <c r="D256" s="8" t="str">
         <f t="shared" si="21"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E256" t="s">
+      <c r="E256" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G256" s="4" t="s">
@@ -9147,11 +9149,11 @@
         <f t="shared" si="20"/>
         <v>14147</v>
       </c>
-      <c r="D257" t="str">
+      <c r="D257" s="8" t="str">
         <f t="shared" si="21"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E257" t="s">
+      <c r="E257" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G257" s="4" t="s">
@@ -9178,11 +9180,11 @@
         <f t="shared" ref="C258:C321" si="25">B259</f>
         <v>14214</v>
       </c>
-      <c r="D258" t="str">
+      <c r="D258" s="8" t="str">
         <f t="shared" si="21"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E258" t="s">
+      <c r="E258" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G258" s="4" t="s">
@@ -9212,11 +9214,11 @@
         <f t="shared" si="25"/>
         <v>14281</v>
       </c>
-      <c r="D259" t="str">
+      <c r="D259" s="8" t="str">
         <f t="shared" si="21"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E259" t="s">
+      <c r="E259" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G259" s="4" t="s">
@@ -9243,11 +9245,11 @@
         <f t="shared" si="25"/>
         <v>14346</v>
       </c>
-      <c r="D260" t="str">
+      <c r="D260" s="8" t="str">
         <f t="shared" si="21"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E260" t="s">
+      <c r="E260" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G260" s="4" t="s">
@@ -9277,11 +9279,11 @@
         <f t="shared" si="25"/>
         <v>14414</v>
       </c>
-      <c r="D261" t="str">
+      <c r="D261" s="8" t="str">
         <f t="shared" ref="D261:D324" si="26">E260</f>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E261" t="s">
+      <c r="E261" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G261" s="4" t="s">
@@ -9308,11 +9310,11 @@
         <f t="shared" si="25"/>
         <v>14481</v>
       </c>
-      <c r="D262" t="str">
+      <c r="D262" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E262" t="s">
+      <c r="E262" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G262" s="4" t="s">
@@ -9342,11 +9344,11 @@
         <f t="shared" si="25"/>
         <v>14549</v>
       </c>
-      <c r="D263" t="str">
+      <c r="D263" s="8" t="str">
         <f t="shared" si="26"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E263" t="s">
+      <c r="E263" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G263" s="4" t="s">
@@ -9373,11 +9375,11 @@
         <f t="shared" si="25"/>
         <v>14617</v>
       </c>
-      <c r="D264" t="str">
+      <c r="D264" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E264" t="s">
+      <c r="E264" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G264" s="4" t="s">
@@ -9407,11 +9409,11 @@
         <f t="shared" si="25"/>
         <v>14696</v>
       </c>
-      <c r="D265" t="str">
+      <c r="D265" s="8" t="str">
         <f t="shared" si="26"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E265" t="s">
+      <c r="E265" s="8" t="s">
         <v>37</v>
       </c>
       <c r="G265" s="4" t="s">
@@ -9439,10 +9441,10 @@
         <f t="shared" si="25"/>
         <v>14783</v>
       </c>
-      <c r="D266" t="s">
+      <c r="D266" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E266" t="s">
+      <c r="E266" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F266" s="7" t="s">
@@ -9475,11 +9477,11 @@
         <f t="shared" si="25"/>
         <v>14850</v>
       </c>
-      <c r="D267" t="str">
+      <c r="D267" s="8" t="str">
         <f t="shared" si="26"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E267" t="s">
+      <c r="E267" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G267" s="4" t="s">
@@ -9506,11 +9508,11 @@
         <f t="shared" si="25"/>
         <v>14918</v>
       </c>
-      <c r="D268" t="str">
+      <c r="D268" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E268" t="s">
+      <c r="E268" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G268" s="4" t="s">
@@ -9540,11 +9542,11 @@
         <f t="shared" si="25"/>
         <v>14986</v>
       </c>
-      <c r="D269" t="str">
+      <c r="D269" s="8" t="str">
         <f t="shared" si="26"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E269" t="s">
+      <c r="E269" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G269" s="4" t="s">
@@ -9571,11 +9573,11 @@
         <f t="shared" si="25"/>
         <v>15053</v>
       </c>
-      <c r="D270" t="str">
+      <c r="D270" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E270" t="s">
+      <c r="E270" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G270" s="4" t="s">
@@ -9605,11 +9607,11 @@
         <f t="shared" si="25"/>
         <v>15121</v>
       </c>
-      <c r="D271" t="str">
+      <c r="D271" s="8" t="str">
         <f t="shared" si="26"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E271" t="s">
+      <c r="E271" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G271" s="4" t="s">
@@ -9636,11 +9638,11 @@
         <f t="shared" si="25"/>
         <v>15188</v>
       </c>
-      <c r="D272" t="str">
+      <c r="D272" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E272" t="s">
+      <c r="E272" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G272" s="4" t="s">
@@ -9670,11 +9672,11 @@
         <f t="shared" si="25"/>
         <v>15256</v>
       </c>
-      <c r="D273" t="str">
+      <c r="D273" s="8" t="str">
         <f t="shared" si="26"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E273" t="s">
+      <c r="E273" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G273" s="4" t="s">
@@ -9701,11 +9703,11 @@
         <f t="shared" si="25"/>
         <v>15323</v>
       </c>
-      <c r="D274" t="str">
+      <c r="D274" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E274" t="s">
+      <c r="E274" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G274" s="4" t="s">
@@ -9735,11 +9737,11 @@
         <f t="shared" si="25"/>
         <v>15332</v>
       </c>
-      <c r="D275" t="str">
+      <c r="D275" s="8" t="str">
         <f t="shared" si="26"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E275" t="s">
+      <c r="E275" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G275" s="4" t="s">
@@ -9766,11 +9768,11 @@
         <f t="shared" si="25"/>
         <v>15335</v>
       </c>
-      <c r="D276" t="str">
+      <c r="D276" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Dizze Gillespiestraat 10, Zaandijk</v>
       </c>
-      <c r="E276" t="s">
+      <c r="E276" s="8" t="s">
         <v>24</v>
       </c>
       <c r="G276" s="4" t="s">
@@ -9797,11 +9799,11 @@
         <f t="shared" si="25"/>
         <v>15343</v>
       </c>
-      <c r="D277" t="str">
+      <c r="D277" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Doktersland 20, Koog aan de Zaan</v>
       </c>
-      <c r="E277" t="s">
+      <c r="E277" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G277" s="4" t="s">
@@ -9831,11 +9833,11 @@
         <f t="shared" si="25"/>
         <v>15410</v>
       </c>
-      <c r="D278" t="str">
+      <c r="D278" s="8" t="str">
         <f t="shared" si="26"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E278" t="s">
+      <c r="E278" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G278" s="4" t="s">
@@ -9862,11 +9864,11 @@
         <f t="shared" si="25"/>
         <v>15478</v>
       </c>
-      <c r="D279" t="str">
+      <c r="D279" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E279" t="s">
+      <c r="E279" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G279" s="4" t="s">
@@ -9896,11 +9898,11 @@
         <f t="shared" si="25"/>
         <v>15546</v>
       </c>
-      <c r="D280" t="str">
+      <c r="D280" s="8" t="str">
         <f t="shared" si="26"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E280" t="s">
+      <c r="E280" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G280" s="4" t="s">
@@ -9927,11 +9929,11 @@
         <f t="shared" si="25"/>
         <v>15610</v>
       </c>
-      <c r="D281" t="str">
+      <c r="D281" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E281" t="s">
+      <c r="E281" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G281" s="4" t="s">
@@ -9961,11 +9963,11 @@
         <f t="shared" si="25"/>
         <v>15678</v>
       </c>
-      <c r="D282" t="str">
+      <c r="D282" s="8" t="str">
         <f t="shared" si="26"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E282" t="s">
+      <c r="E282" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G282" s="4" t="s">
@@ -9992,11 +9994,11 @@
         <f t="shared" si="25"/>
         <v>16015</v>
       </c>
-      <c r="D283" t="str">
+      <c r="D283" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E283" t="s">
+      <c r="E283" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G283" s="4" t="s">
@@ -10026,11 +10028,11 @@
         <f t="shared" si="25"/>
         <v>16083</v>
       </c>
-      <c r="D284" t="str">
+      <c r="D284" s="8" t="str">
         <f t="shared" si="26"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E284" t="s">
+      <c r="E284" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G284" s="4" t="s">
@@ -10057,11 +10059,11 @@
         <f t="shared" si="25"/>
         <v>16151</v>
       </c>
-      <c r="D285" t="str">
+      <c r="D285" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E285" t="s">
+      <c r="E285" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G285" s="4" t="s">
@@ -10091,11 +10093,11 @@
         <f t="shared" si="25"/>
         <v>16218</v>
       </c>
-      <c r="D286" t="str">
+      <c r="D286" s="8" t="str">
         <f t="shared" si="26"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E286" t="s">
+      <c r="E286" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G286" s="4" t="s">
@@ -10122,11 +10124,11 @@
         <f t="shared" si="25"/>
         <v>16286</v>
       </c>
-      <c r="D287" t="str">
+      <c r="D287" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E287" t="s">
+      <c r="E287" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G287" s="4" t="s">
@@ -10156,11 +10158,11 @@
         <f t="shared" si="25"/>
         <v>16353</v>
       </c>
-      <c r="D288" t="str">
+      <c r="D288" s="8" t="str">
         <f t="shared" si="26"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E288" t="s">
+      <c r="E288" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G288" s="4" t="s">
@@ -10187,11 +10189,11 @@
         <f t="shared" si="25"/>
         <v>16421</v>
       </c>
-      <c r="D289" t="str">
+      <c r="D289" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E289" t="s">
+      <c r="E289" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G289" s="4" t="s">
@@ -10221,10 +10223,10 @@
         <f t="shared" si="25"/>
         <v>16488</v>
       </c>
-      <c r="D290" t="s">
-        <v>7</v>
-      </c>
-      <c r="E290" t="s">
+      <c r="D290" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E290" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G290" s="4" t="s">
@@ -10252,11 +10254,11 @@
         <f t="shared" si="25"/>
         <v>16556</v>
       </c>
-      <c r="D291" t="str">
+      <c r="D291" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E291" t="s">
+      <c r="E291" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G291" s="4" t="s">
@@ -10286,10 +10288,10 @@
         <f t="shared" si="25"/>
         <v>16624</v>
       </c>
-      <c r="D292" t="s">
-        <v>7</v>
-      </c>
-      <c r="E292" t="s">
+      <c r="D292" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E292" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G292" s="4" t="s">
@@ -10317,11 +10319,11 @@
         <f t="shared" si="25"/>
         <v>16625</v>
       </c>
-      <c r="D293" t="str">
+      <c r="D293" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E293" t="s">
+      <c r="E293" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F293" s="7" t="s">
@@ -10352,11 +10354,11 @@
         <f t="shared" si="25"/>
         <v>16692</v>
       </c>
-      <c r="D294" t="str">
+      <c r="D294" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Waterveste 4, Houten</v>
       </c>
-      <c r="E294" t="s">
+      <c r="E294" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G294" s="4" t="s">
@@ -10386,11 +10388,11 @@
         <f t="shared" si="25"/>
         <v>16733</v>
       </c>
-      <c r="D295" t="str">
+      <c r="D295" s="8" t="str">
         <f t="shared" si="26"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E295" t="s">
+      <c r="E295" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F295" s="7" t="s">
@@ -10423,11 +10425,11 @@
         <f t="shared" si="25"/>
         <v>16739</v>
       </c>
-      <c r="D296" t="str">
+      <c r="D296" s="8" t="str">
         <f t="shared" si="26"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E296" t="s">
+      <c r="E296" s="8" t="s">
         <v>42</v>
       </c>
       <c r="G296" s="4" t="s">
@@ -10455,11 +10457,11 @@
         <f t="shared" si="25"/>
         <v>16746</v>
       </c>
-      <c r="D297" t="str">
+      <c r="D297" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Wezelstraat 3-A, 1541 LZ, Koog aan de Zaan</v>
       </c>
-      <c r="E297" t="s">
+      <c r="E297" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G297" s="4" t="s">
@@ -10489,10 +10491,10 @@
         <f t="shared" si="25"/>
         <v>16813</v>
       </c>
-      <c r="D298" t="s">
-        <v>7</v>
-      </c>
-      <c r="E298" t="s">
+      <c r="D298" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E298" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G298" s="4" t="s">
@@ -10520,11 +10522,11 @@
         <f t="shared" si="25"/>
         <v>16878</v>
       </c>
-      <c r="D299" t="str">
+      <c r="D299" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E299" t="s">
+      <c r="E299" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G299" s="4" t="s">
@@ -10543,7 +10545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A300" s="10">
         <v>43629</v>
       </c>
@@ -10554,11 +10556,11 @@
         <f t="shared" si="25"/>
         <v>16894</v>
       </c>
-      <c r="D300" t="str">
+      <c r="D300" s="8" t="str">
         <f t="shared" si="26"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E300" t="s">
+      <c r="E300" s="8" t="s">
         <v>15</v>
       </c>
       <c r="G300" s="4" t="s">
@@ -10577,7 +10579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A301" s="6"/>
       <c r="B301" s="6">
         <v>16894</v>
@@ -10586,11 +10588,11 @@
         <f t="shared" si="25"/>
         <v>16910</v>
       </c>
-      <c r="D301" t="str">
+      <c r="D301" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Johan Huizingalaan 765, 1066 VH, Amsterdam</v>
       </c>
-      <c r="E301" t="s">
+      <c r="E301" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G301" s="4" t="s">
@@ -10620,11 +10622,11 @@
         <f t="shared" si="25"/>
         <v>16978</v>
       </c>
-      <c r="D302" t="str">
+      <c r="D302" s="8" t="str">
         <f t="shared" si="26"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E302" t="s">
+      <c r="E302" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G302" s="4" t="s">
@@ -10652,11 +10654,11 @@
         <f t="shared" si="25"/>
         <v>17046</v>
       </c>
-      <c r="D303" t="str">
+      <c r="D303" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E303" t="s">
+      <c r="E303" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G303" s="4" t="s">
@@ -10686,11 +10688,11 @@
         <f t="shared" si="25"/>
         <v>17113</v>
       </c>
-      <c r="D304" t="str">
+      <c r="D304" s="8" t="str">
         <f t="shared" si="26"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E304" t="s">
+      <c r="E304" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G304" s="4" t="s">
@@ -10718,11 +10720,11 @@
         <f t="shared" si="25"/>
         <v>17115</v>
       </c>
-      <c r="D305" t="str">
+      <c r="D305" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E305" t="s">
+      <c r="E305" s="8" t="s">
         <v>43</v>
       </c>
       <c r="G305" s="4" t="s">
@@ -10750,11 +10752,11 @@
         <f t="shared" si="25"/>
         <v>17183</v>
       </c>
-      <c r="D306" t="str">
+      <c r="D306" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Koedijk 1, Houten</v>
       </c>
-      <c r="E306" t="s">
+      <c r="E306" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G306" s="4" t="s">
@@ -10784,11 +10786,11 @@
         <f t="shared" si="25"/>
         <v>17250</v>
       </c>
-      <c r="D307" t="str">
+      <c r="D307" s="8" t="str">
         <f t="shared" si="26"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E307" t="s">
+      <c r="E307" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G307" s="4" t="s">
@@ -10816,11 +10818,11 @@
         <f t="shared" si="25"/>
         <v>17318</v>
       </c>
-      <c r="D308" t="str">
+      <c r="D308" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E308" t="s">
+      <c r="E308" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G308" s="4" t="s">
@@ -10849,11 +10851,11 @@
       <c r="C309" s="6">
         <v>17386</v>
       </c>
-      <c r="D309" t="str">
+      <c r="D309" s="8" t="str">
         <f t="shared" si="26"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E309" t="s">
+      <c r="E309" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G309" s="4" t="s">
@@ -10881,11 +10883,11 @@
         <f t="shared" si="25"/>
         <v>17453</v>
       </c>
-      <c r="D310" t="str">
+      <c r="D310" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E310" t="s">
+      <c r="E310" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G310" s="4" t="s">
@@ -10915,11 +10917,11 @@
         <f t="shared" si="25"/>
         <v>17521</v>
       </c>
-      <c r="D311" t="str">
+      <c r="D311" s="8" t="str">
         <f t="shared" si="26"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E311" t="s">
+      <c r="E311" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G311" s="4" t="s">
@@ -10947,11 +10949,11 @@
         <f t="shared" si="25"/>
         <v>17588</v>
       </c>
-      <c r="D312" t="str">
+      <c r="D312" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E312" t="s">
+      <c r="E312" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G312" s="4" t="s">
@@ -10981,11 +10983,11 @@
         <f t="shared" si="25"/>
         <v>17656</v>
       </c>
-      <c r="D313" t="str">
+      <c r="D313" s="8" t="str">
         <f t="shared" si="26"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E313" t="s">
+      <c r="E313" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G313" s="4" t="s">
@@ -11013,11 +11015,11 @@
         <f t="shared" si="25"/>
         <v>17723</v>
       </c>
-      <c r="D314" t="str">
+      <c r="D314" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E314" t="s">
+      <c r="E314" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G314" s="4" t="s">
@@ -11047,11 +11049,11 @@
         <f t="shared" si="25"/>
         <v>17791</v>
       </c>
-      <c r="D315" t="str">
+      <c r="D315" s="8" t="str">
         <f t="shared" si="26"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E315" t="s">
+      <c r="E315" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G315" s="4" t="s">
@@ -11079,11 +11081,11 @@
         <f t="shared" si="25"/>
         <v>17859</v>
       </c>
-      <c r="D316" t="str">
+      <c r="D316" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E316" t="s">
+      <c r="E316" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G316" s="4" t="s">
@@ -11113,11 +11115,11 @@
         <f t="shared" si="25"/>
         <v>17926</v>
       </c>
-      <c r="D317" t="str">
+      <c r="D317" s="8" t="str">
         <f t="shared" si="26"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E317" t="s">
+      <c r="E317" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G317" s="4" t="s">
@@ -11145,11 +11147,11 @@
         <f t="shared" si="25"/>
         <v>17994</v>
       </c>
-      <c r="D318" t="str">
+      <c r="D318" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E318" t="s">
+      <c r="E318" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G318" s="4" t="s">
@@ -11179,11 +11181,11 @@
         <f t="shared" si="25"/>
         <v>18061</v>
       </c>
-      <c r="D319" t="str">
+      <c r="D319" s="8" t="str">
         <f t="shared" si="26"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E319" t="s">
+      <c r="E319" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G319" s="4" t="s">
@@ -11211,11 +11213,11 @@
         <f t="shared" si="25"/>
         <v>18129</v>
       </c>
-      <c r="D320" t="str">
+      <c r="D320" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E320" t="s">
+      <c r="E320" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G320" s="4" t="s">
@@ -11245,11 +11247,11 @@
         <f t="shared" si="25"/>
         <v>18197</v>
       </c>
-      <c r="D321" t="str">
+      <c r="D321" s="8" t="str">
         <f t="shared" si="26"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E321" t="s">
+      <c r="E321" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G321" s="4" t="s">
@@ -11277,11 +11279,11 @@
         <f t="shared" ref="C322:C338" si="30">B323</f>
         <v>18264</v>
       </c>
-      <c r="D322" t="str">
+      <c r="D322" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E322" t="s">
+      <c r="E322" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G322" s="4" t="s">
@@ -11311,11 +11313,11 @@
         <f t="shared" si="30"/>
         <v>18332</v>
       </c>
-      <c r="D323" t="str">
+      <c r="D323" s="8" t="str">
         <f t="shared" si="26"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E323" t="s">
+      <c r="E323" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G323" s="4" t="s">
@@ -11343,11 +11345,11 @@
         <f t="shared" si="30"/>
         <v>18400</v>
       </c>
-      <c r="D324" t="str">
+      <c r="D324" s="8" t="str">
         <f t="shared" si="26"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E324" t="s">
+      <c r="E324" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G324" s="4" t="s">
@@ -11377,11 +11379,11 @@
         <f t="shared" si="30"/>
         <v>18468</v>
       </c>
-      <c r="D325" t="str">
+      <c r="D325" s="8" t="str">
         <f t="shared" ref="D325:D388" si="31">E324</f>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E325" t="s">
+      <c r="E325" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G325" s="4" t="s">
@@ -11409,11 +11411,11 @@
         <f t="shared" si="30"/>
         <v>18535</v>
       </c>
-      <c r="D326" t="str">
+      <c r="D326" s="8" t="str">
         <f t="shared" si="31"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E326" t="s">
+      <c r="E326" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G326" s="4" t="s">
@@ -11443,11 +11445,11 @@
         <f t="shared" si="30"/>
         <v>18627</v>
       </c>
-      <c r="D327" t="str">
+      <c r="D327" s="8" t="str">
         <f t="shared" si="31"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E327" t="s">
+      <c r="E327" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G327" s="4" t="s">
@@ -11475,11 +11477,11 @@
         <f t="shared" si="30"/>
         <v>18721</v>
       </c>
-      <c r="D328" t="str">
+      <c r="D328" s="8" t="str">
         <f t="shared" si="31"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E328" t="s">
+      <c r="E328" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G328" s="4" t="s">
@@ -11509,10 +11511,10 @@
         <f t="shared" si="30"/>
         <v>18789</v>
       </c>
-      <c r="D329" t="s">
-        <v>7</v>
-      </c>
-      <c r="E329" t="s">
+      <c r="D329" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E329" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G329" s="4" t="s">
@@ -11540,11 +11542,11 @@
         <f t="shared" si="30"/>
         <v>18857</v>
       </c>
-      <c r="D330" t="str">
+      <c r="D330" s="8" t="str">
         <f t="shared" si="31"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E330" t="s">
+      <c r="E330" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G330" s="4" t="s">
@@ -11574,11 +11576,11 @@
         <f t="shared" si="30"/>
         <v>18924</v>
       </c>
-      <c r="D331" t="str">
+      <c r="D331" s="8" t="str">
         <f t="shared" si="31"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E331" t="s">
+      <c r="E331" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G331" s="4" t="s">
@@ -11606,11 +11608,11 @@
         <f t="shared" si="30"/>
         <v>18992</v>
       </c>
-      <c r="D332" t="str">
+      <c r="D332" s="8" t="str">
         <f t="shared" si="31"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E332" t="s">
+      <c r="E332" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G332" s="4" t="s">
@@ -11640,11 +11642,11 @@
         <f t="shared" si="30"/>
         <v>19059</v>
       </c>
-      <c r="D333" t="str">
+      <c r="D333" s="8" t="str">
         <f t="shared" si="31"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E333" t="s">
+      <c r="E333" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G333" s="4" t="s">
@@ -11672,11 +11674,11 @@
         <f t="shared" si="30"/>
         <v>19127</v>
       </c>
-      <c r="D334" t="str">
+      <c r="D334" s="8" t="str">
         <f t="shared" si="31"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E334" t="s">
+      <c r="E334" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G334" s="4" t="s">
@@ -11706,11 +11708,11 @@
         <f t="shared" si="30"/>
         <v>19195</v>
       </c>
-      <c r="D335" t="str">
+      <c r="D335" s="8" t="str">
         <f t="shared" si="31"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E335" t="s">
+      <c r="E335" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G335" s="4" t="s">
@@ -11738,11 +11740,11 @@
         <f t="shared" si="30"/>
         <v>19262</v>
       </c>
-      <c r="D336" t="str">
+      <c r="D336" s="8" t="str">
         <f t="shared" si="31"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E336" t="s">
+      <c r="E336" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F336"/>
@@ -11773,10 +11775,10 @@
         <f t="shared" si="30"/>
         <v>19270</v>
       </c>
-      <c r="D337" t="s">
-        <v>7</v>
-      </c>
-      <c r="E337" t="s">
+      <c r="D337" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E337" s="8" t="s">
         <v>44</v>
       </c>
       <c r="G337" s="4" t="s">
@@ -11804,11 +11806,11 @@
         <f t="shared" si="30"/>
         <v>19279</v>
       </c>
-      <c r="D338" t="str">
+      <c r="D338" s="8" t="str">
         <f t="shared" si="31"/>
         <v>De Noorderlaaik 8, 1511 BX, Landsmeer</v>
       </c>
-      <c r="E338" t="s">
+      <c r="E338" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G338" s="4" t="s">
@@ -11838,11 +11840,11 @@
         <f t="shared" ref="C339:C346" si="32">B340</f>
         <v>19347</v>
       </c>
-      <c r="D339" t="str">
+      <c r="D339" s="8" t="str">
         <f t="shared" si="31"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E339" t="s">
+      <c r="E339" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G339" s="4" t="s">
@@ -11870,11 +11872,11 @@
         <f t="shared" si="32"/>
         <v>19415</v>
       </c>
-      <c r="D340" t="str">
+      <c r="D340" s="8" t="str">
         <f t="shared" si="31"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E340" t="s">
+      <c r="E340" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G340" s="4" t="s">
@@ -11904,10 +11906,10 @@
         <f t="shared" si="32"/>
         <v>19482</v>
       </c>
-      <c r="D341" t="s">
-        <v>7</v>
-      </c>
-      <c r="E341" t="s">
+      <c r="D341" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E341" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G341" s="4" t="s">
@@ -11935,11 +11937,11 @@
         <f t="shared" si="32"/>
         <v>19550</v>
       </c>
-      <c r="D342" t="str">
+      <c r="D342" s="8" t="str">
         <f t="shared" si="31"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E342" t="s">
+      <c r="E342" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G342" s="4" t="s">
@@ -11969,11 +11971,11 @@
         <f t="shared" si="32"/>
         <v>19617</v>
       </c>
-      <c r="D343" t="str">
+      <c r="D343" s="8" t="str">
         <f t="shared" si="31"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E343" t="s">
+      <c r="E343" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G343" s="4" t="s">
@@ -12001,11 +12003,11 @@
         <f t="shared" si="32"/>
         <v>19685</v>
       </c>
-      <c r="D344" t="str">
+      <c r="D344" s="8" t="str">
         <f t="shared" si="31"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E344" t="s">
+      <c r="E344" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G344" s="4" t="s">
@@ -12035,11 +12037,11 @@
         <f t="shared" si="32"/>
         <v>19752</v>
       </c>
-      <c r="D345" t="str">
+      <c r="D345" s="8" t="str">
         <f t="shared" si="31"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E345" t="s">
+      <c r="E345" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G345" s="4" t="s">
@@ -12067,11 +12069,11 @@
         <f t="shared" si="32"/>
         <v>19820</v>
       </c>
-      <c r="D346" t="str">
+      <c r="D346" s="8" t="str">
         <f t="shared" si="31"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E346" t="s">
+      <c r="E346" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G346" s="4" t="s">
@@ -12101,11 +12103,11 @@
         <f t="shared" ref="C347:C410" si="33">B348</f>
         <v>19826</v>
       </c>
-      <c r="D347" t="str">
+      <c r="D347" s="8" t="str">
         <f t="shared" si="31"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E347" t="s">
+      <c r="E347" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G347" s="4" t="s">
@@ -12133,11 +12135,11 @@
         <f t="shared" si="33"/>
         <v>19833</v>
       </c>
-      <c r="D348" t="str">
+      <c r="D348" s="8" t="str">
         <f t="shared" si="31"/>
         <v xml:space="preserve">1511  BX, Landsmeer </v>
       </c>
-      <c r="E348" t="s">
+      <c r="E348" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G348" s="4" t="s">
@@ -12167,11 +12169,11 @@
         <f t="shared" si="33"/>
         <v>19900</v>
       </c>
-      <c r="D349" t="str">
+      <c r="D349" s="8" t="str">
         <f t="shared" si="31"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E349" t="s">
+      <c r="E349" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G349" s="4" t="s">
@@ -12199,11 +12201,11 @@
         <f t="shared" si="33"/>
         <v>19968</v>
       </c>
-      <c r="D350" t="str">
+      <c r="D350" s="8" t="str">
         <f t="shared" si="31"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E350" t="s">
+      <c r="E350" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G350" s="4" t="s">
@@ -12233,11 +12235,11 @@
         <f t="shared" si="33"/>
         <v>20035</v>
       </c>
-      <c r="D351" t="str">
+      <c r="D351" s="8" t="str">
         <f t="shared" si="31"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E351" t="s">
+      <c r="E351" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G351" s="4" t="s">
@@ -12265,11 +12267,11 @@
         <f t="shared" si="33"/>
         <v>20103</v>
       </c>
-      <c r="D352" t="str">
+      <c r="D352" s="8" t="str">
         <f t="shared" si="31"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E352" t="s">
+      <c r="E352" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G352" s="4" t="s">
@@ -12299,11 +12301,11 @@
         <f t="shared" si="33"/>
         <v>20170</v>
       </c>
-      <c r="D353" t="str">
+      <c r="D353" s="8" t="str">
         <f t="shared" si="31"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E353" t="s">
+      <c r="E353" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G353" s="4" t="s">
@@ -12331,11 +12333,11 @@
         <f t="shared" si="33"/>
         <v>20238</v>
       </c>
-      <c r="D354" t="str">
+      <c r="D354" s="8" t="str">
         <f t="shared" si="31"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E354" t="s">
+      <c r="E354" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G354" s="4" t="s">
@@ -12365,11 +12367,11 @@
         <f t="shared" si="33"/>
         <v>20243</v>
       </c>
-      <c r="D355" t="s">
-        <v>7</v>
-      </c>
-      <c r="E355" s="19" t="s">
-        <v>48</v>
+      <c r="D355" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E355" s="20" t="s">
+        <v>65</v>
       </c>
       <c r="G355" s="4" t="s">
         <v>16</v>
@@ -12396,11 +12398,11 @@
         <f t="shared" si="33"/>
         <v>20248</v>
       </c>
-      <c r="D356" t="str">
+      <c r="D356" s="8" t="str">
         <f t="shared" si="31"/>
-        <v> Kleine Tocht 19, 1507 CB Zaandam</v>
-      </c>
-      <c r="E356" t="s">
+        <v>Kleine Tocht 19, 1507 CB Zaandam</v>
+      </c>
+      <c r="E356" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G356" s="4" t="s">
@@ -12430,11 +12432,11 @@
         <f t="shared" si="33"/>
         <v>20256</v>
       </c>
-      <c r="D357" t="str">
+      <c r="D357" s="8" t="str">
         <f t="shared" si="31"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E357" t="s">
+      <c r="E357" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G357" s="4" t="s">
@@ -12462,11 +12464,11 @@
         <f t="shared" si="33"/>
         <v>20264</v>
       </c>
-      <c r="D358" t="str">
+      <c r="D358" s="8" t="str">
         <f t="shared" si="31"/>
         <v>Dizze Gillespiestraat 10, Zaandijk</v>
       </c>
-      <c r="E358" t="s">
+      <c r="E358" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G358" s="4" t="s">
@@ -12496,11 +12498,11 @@
         <f t="shared" si="33"/>
         <v>20332</v>
       </c>
-      <c r="D359" t="str">
+      <c r="D359" s="8" t="str">
         <f t="shared" si="31"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E359" t="s">
+      <c r="E359" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G359" s="4" t="s">
@@ -12528,11 +12530,11 @@
         <f t="shared" si="33"/>
         <v>20400</v>
       </c>
-      <c r="D360" t="str">
+      <c r="D360" s="8" t="str">
         <f t="shared" si="31"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E360" t="s">
+      <c r="E360" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G360" s="4" t="s">
@@ -12562,11 +12564,11 @@
         <f t="shared" si="33"/>
         <v>20467</v>
       </c>
-      <c r="D361" t="str">
+      <c r="D361" s="8" t="str">
         <f t="shared" si="31"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E361" t="s">
+      <c r="E361" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G361" s="4" t="s">
@@ -12594,11 +12596,11 @@
         <f t="shared" si="33"/>
         <v>20535</v>
       </c>
-      <c r="D362" t="str">
+      <c r="D362" s="8" t="str">
         <f t="shared" si="31"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E362" t="s">
+      <c r="E362" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G362" s="4" t="s">
@@ -12628,11 +12630,11 @@
         <f t="shared" si="33"/>
         <v>20602</v>
       </c>
-      <c r="D363" t="str">
+      <c r="D363" s="8" t="str">
         <f t="shared" si="31"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E363" t="s">
+      <c r="E363" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G363" s="4" t="s">
@@ -12660,11 +12662,11 @@
         <f t="shared" si="33"/>
         <v>20670</v>
       </c>
-      <c r="D364" t="str">
+      <c r="D364" s="8" t="str">
         <f t="shared" si="31"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E364" t="s">
+      <c r="E364" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G364" s="4" t="s">
@@ -12694,11 +12696,11 @@
         <f t="shared" si="33"/>
         <v>20737</v>
       </c>
-      <c r="D365" t="str">
+      <c r="D365" s="8" t="str">
         <f t="shared" si="31"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E365" t="s">
+      <c r="E365" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G365" s="4" t="s">
@@ -12726,11 +12728,11 @@
         <f t="shared" si="33"/>
         <v>20805</v>
       </c>
-      <c r="D366" t="str">
+      <c r="D366" s="8" t="str">
         <f t="shared" si="31"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E366" t="s">
+      <c r="E366" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G366" s="4" t="s">
@@ -12760,11 +12762,11 @@
         <f t="shared" si="33"/>
         <v>20873</v>
       </c>
-      <c r="D367" t="str">
+      <c r="D367" s="8" t="str">
         <f t="shared" si="31"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E367" t="s">
+      <c r="E367" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G367" s="4" t="s">
@@ -12792,11 +12794,11 @@
         <f t="shared" si="33"/>
         <v>20940</v>
       </c>
-      <c r="D368" t="str">
+      <c r="D368" s="8" t="str">
         <f t="shared" si="31"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E368" t="s">
+      <c r="E368" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G368" s="4" t="s">
@@ -12826,11 +12828,11 @@
         <f t="shared" si="33"/>
         <v>21008</v>
       </c>
-      <c r="D369" t="str">
+      <c r="D369" s="8" t="str">
         <f t="shared" si="31"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E369" t="s">
+      <c r="E369" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G369" s="4" t="s">
@@ -12858,11 +12860,11 @@
         <f t="shared" si="33"/>
         <v>21075</v>
       </c>
-      <c r="D370" t="str">
+      <c r="D370" s="8" t="str">
         <f t="shared" si="31"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E370" t="s">
+      <c r="E370" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G370" s="4" t="s">
@@ -12892,11 +12894,11 @@
         <f t="shared" si="33"/>
         <v>21143</v>
       </c>
-      <c r="D371" t="str">
+      <c r="D371" s="8" t="str">
         <f t="shared" si="31"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E371" t="s">
+      <c r="E371" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G371" s="4" t="s">
@@ -12924,11 +12926,11 @@
         <f t="shared" si="33"/>
         <v>21211</v>
       </c>
-      <c r="D372" t="str">
+      <c r="D372" s="8" t="str">
         <f t="shared" si="31"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E372" t="s">
+      <c r="E372" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G372" s="4" t="s">
@@ -12958,11 +12960,11 @@
         <f t="shared" si="33"/>
         <v>21278</v>
       </c>
-      <c r="D373" t="str">
+      <c r="D373" s="8" t="str">
         <f t="shared" si="31"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E373" t="s">
+      <c r="E373" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G373" s="4" t="s">
@@ -12990,11 +12992,11 @@
         <f t="shared" si="33"/>
         <v>21346</v>
       </c>
-      <c r="D374" t="str">
+      <c r="D374" s="8" t="str">
         <f t="shared" si="31"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E374" t="s">
+      <c r="E374" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G374" s="4" t="s">
@@ -13024,11 +13026,11 @@
         <f t="shared" si="33"/>
         <v>21414</v>
       </c>
-      <c r="D375" t="str">
+      <c r="D375" s="8" t="str">
         <f t="shared" si="31"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E375" t="s">
+      <c r="E375" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G375" s="4" t="s">
@@ -13056,11 +13058,11 @@
         <f>B377</f>
         <v>21481</v>
       </c>
-      <c r="D376" t="str">
+      <c r="D376" s="8" t="str">
         <f t="shared" si="31"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E376" t="s">
+      <c r="E376" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G376" s="4" t="s">
@@ -13090,11 +13092,11 @@
         <f>B378</f>
         <v>21549</v>
       </c>
-      <c r="D377" t="str">
+      <c r="D377" s="8" t="str">
         <f t="shared" si="31"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E377" t="s">
+      <c r="E377" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G377" s="4" t="s">
@@ -13122,11 +13124,11 @@
         <f t="shared" si="33"/>
         <v>21616</v>
       </c>
-      <c r="D378" t="str">
+      <c r="D378" s="8" t="str">
         <f t="shared" si="31"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E378" t="s">
+      <c r="E378" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G378" s="4" t="s">
@@ -13156,12 +13158,12 @@
         <f t="shared" si="33"/>
         <v>21672</v>
       </c>
-      <c r="D379" t="str">
+      <c r="D379" s="8" t="str">
         <f t="shared" si="31"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E379" t="s">
-        <v>49</v>
+      <c r="E379" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="G379" s="4" t="s">
         <v>10</v>
@@ -13188,11 +13190,11 @@
         <f t="shared" si="33"/>
         <v>21684</v>
       </c>
-      <c r="D380" t="str">
+      <c r="D380" s="8" t="str">
         <f>E379</f>
         <v>Vivaldiplantsoen 100, Utrecht</v>
       </c>
-      <c r="E380" t="s">
+      <c r="E380" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G380" s="4" t="s">
@@ -13220,11 +13222,11 @@
         <f t="shared" si="33"/>
         <v>21751</v>
       </c>
-      <c r="D381" t="str">
+      <c r="D381" s="8" t="str">
         <f t="shared" si="31"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E381" t="s">
+      <c r="E381" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G381" s="4" t="s">
@@ -13252,11 +13254,11 @@
         <f t="shared" si="33"/>
         <v>21760</v>
       </c>
-      <c r="D382" t="str">
+      <c r="D382" s="8" t="str">
         <f t="shared" si="31"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E382" t="s">
+      <c r="E382" s="8" t="s">
         <v>39</v>
       </c>
       <c r="G382" s="4" t="s">
@@ -13284,11 +13286,11 @@
         <f t="shared" si="33"/>
         <v>21769</v>
       </c>
-      <c r="D383" t="str">
+      <c r="D383" s="8" t="str">
         <f t="shared" si="31"/>
         <v>Dizze Gillespiestraat 10, Zaandijk</v>
       </c>
-      <c r="E383" t="s">
+      <c r="E383" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G383" s="4" t="s">
@@ -13318,11 +13320,11 @@
         <f t="shared" si="33"/>
         <v>21836</v>
       </c>
-      <c r="D384" t="str">
+      <c r="D384" s="8" t="str">
         <f t="shared" si="31"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E384" t="s">
+      <c r="E384" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G384" s="4" t="s">
@@ -13350,11 +13352,11 @@
         <f t="shared" si="33"/>
         <v>21838</v>
       </c>
-      <c r="D385" t="str">
+      <c r="D385" s="8" t="str">
         <f t="shared" si="31"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E385" t="s">
+      <c r="E385" s="8" t="s">
         <v>14</v>
       </c>
       <c r="G385" s="4" t="s">
@@ -13382,11 +13384,11 @@
         <f t="shared" si="33"/>
         <v>21904</v>
       </c>
-      <c r="D386" t="str">
+      <c r="D386" s="8" t="str">
         <f t="shared" si="31"/>
         <v>Waterveste 4, Houten</v>
       </c>
-      <c r="E386" t="s">
+      <c r="E386" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G386" s="4" t="s">
@@ -13416,11 +13418,11 @@
         <f t="shared" si="33"/>
         <v>21972</v>
       </c>
-      <c r="D387" t="str">
+      <c r="D387" s="8" t="str">
         <f t="shared" si="31"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E387" t="s">
+      <c r="E387" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G387" s="4" t="s">
@@ -13448,11 +13450,11 @@
         <f t="shared" si="33"/>
         <v>22039</v>
       </c>
-      <c r="D388" t="str">
+      <c r="D388" s="8" t="str">
         <f t="shared" si="31"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E388" t="s">
+      <c r="E388" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G388" s="4" t="s">
@@ -13482,11 +13484,11 @@
         <f t="shared" si="33"/>
         <v>22107</v>
       </c>
-      <c r="D389" t="str">
+      <c r="D389" s="8" t="str">
         <f t="shared" ref="D389:D452" si="37">E388</f>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E389" t="s">
+      <c r="E389" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G389" s="4" t="s">
@@ -13514,11 +13516,11 @@
         <f t="shared" si="33"/>
         <v>22174</v>
       </c>
-      <c r="D390" t="str">
+      <c r="D390" s="8" t="str">
         <f t="shared" si="37"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E390" t="s">
+      <c r="E390" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G390" s="4" t="s">
@@ -13548,11 +13550,11 @@
         <f t="shared" si="33"/>
         <v>22241</v>
       </c>
-      <c r="D391" t="str">
+      <c r="D391" s="8" t="str">
         <f t="shared" si="37"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E391" t="s">
+      <c r="E391" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G391" s="4" t="s">
@@ -13580,11 +13582,11 @@
         <f t="shared" si="33"/>
         <v>22309</v>
       </c>
-      <c r="D392" t="str">
+      <c r="D392" s="8" t="str">
         <f t="shared" si="37"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E392" t="s">
+      <c r="E392" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G392" s="4" t="s">
@@ -13614,11 +13616,11 @@
         <f t="shared" si="33"/>
         <v>22376</v>
       </c>
-      <c r="D393" t="str">
+      <c r="D393" s="8" t="str">
         <f t="shared" si="37"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E393" t="s">
+      <c r="E393" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G393" s="4" t="s">
@@ -13646,11 +13648,11 @@
         <f t="shared" si="33"/>
         <v>22444</v>
       </c>
-      <c r="D394" t="str">
+      <c r="D394" s="8" t="str">
         <f t="shared" si="37"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E394" t="s">
+      <c r="E394" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G394" s="4" t="s">
@@ -13680,11 +13682,11 @@
         <f t="shared" si="33"/>
         <v>22511</v>
       </c>
-      <c r="D395" t="str">
+      <c r="D395" s="8" t="str">
         <f t="shared" si="37"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E395" t="s">
+      <c r="E395" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G395" s="4" t="s">
@@ -13712,11 +13714,11 @@
         <f t="shared" si="33"/>
         <v>22579</v>
       </c>
-      <c r="D396" t="str">
+      <c r="D396" s="8" t="str">
         <f t="shared" si="37"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E396" t="s">
+      <c r="E396" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G396" s="4" t="s">
@@ -13746,11 +13748,11 @@
         <f t="shared" si="33"/>
         <v>22647</v>
       </c>
-      <c r="D397" t="str">
+      <c r="D397" s="8" t="str">
         <f t="shared" si="37"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E397" t="s">
+      <c r="E397" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G397" s="4" t="s">
@@ -13778,11 +13780,11 @@
         <f t="shared" si="33"/>
         <v>22714</v>
       </c>
-      <c r="D398" t="str">
+      <c r="D398" s="8" t="str">
         <f t="shared" si="37"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E398" t="s">
+      <c r="E398" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G398" s="4" t="s">
@@ -13812,11 +13814,11 @@
         <f t="shared" si="33"/>
         <v>22781</v>
       </c>
-      <c r="D399" t="str">
+      <c r="D399" s="8" t="str">
         <f t="shared" si="37"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E399" t="s">
+      <c r="E399" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G399" s="4" t="s">
@@ -13844,11 +13846,11 @@
         <f t="shared" si="33"/>
         <v>22849</v>
       </c>
-      <c r="D400" t="str">
+      <c r="D400" s="8" t="str">
         <f t="shared" si="37"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E400" t="s">
+      <c r="E400" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G400" s="4" t="s">
@@ -13878,11 +13880,11 @@
         <f t="shared" si="33"/>
         <v>22932</v>
       </c>
-      <c r="D401" t="s">
-        <v>7</v>
-      </c>
-      <c r="E401" t="s">
-        <v>50</v>
+      <c r="D401" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E401" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="G401" s="4" t="s">
         <v>10</v>
@@ -13909,15 +13911,15 @@
         <f t="shared" si="33"/>
         <v>23024</v>
       </c>
-      <c r="D402" t="str">
+      <c r="D402" s="8" t="str">
         <f t="shared" si="37"/>
         <v>Zuidelijk Halfrond 11, 2801 DD Gouda</v>
       </c>
-      <c r="E402" t="s">
+      <c r="E402" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F402" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G402" s="4" t="s">
         <v>10</v>
@@ -13946,11 +13948,11 @@
         <f t="shared" si="33"/>
         <v>23092</v>
       </c>
-      <c r="D403" t="str">
+      <c r="D403" s="8" t="str">
         <f t="shared" si="37"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E403" t="s">
+      <c r="E403" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G403" s="4" t="s">
@@ -13978,11 +13980,11 @@
         <f t="shared" si="33"/>
         <v>23160</v>
       </c>
-      <c r="D404" t="str">
+      <c r="D404" s="8" t="str">
         <f t="shared" si="37"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E404" t="s">
+      <c r="E404" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G404" s="4" t="s">
@@ -14012,11 +14014,11 @@
         <f t="shared" si="33"/>
         <v>23226</v>
       </c>
-      <c r="D405" t="str">
+      <c r="D405" s="8" t="str">
         <f t="shared" si="37"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E405" t="s">
+      <c r="E405" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G405" s="4" t="s">
@@ -14044,11 +14046,11 @@
         <f t="shared" si="33"/>
         <v>23293</v>
       </c>
-      <c r="D406" t="str">
+      <c r="D406" s="8" t="str">
         <f t="shared" si="37"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E406" t="s">
+      <c r="E406" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G406" s="4" t="s">
@@ -14078,11 +14080,11 @@
         <f t="shared" si="33"/>
         <v>23297</v>
       </c>
-      <c r="D407" t="str">
+      <c r="D407" s="8" t="str">
         <f t="shared" si="37"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E407" t="s">
+      <c r="E407" s="8" t="s">
         <v>32</v>
       </c>
       <c r="G407" s="4" t="s">
@@ -14110,11 +14112,11 @@
         <f t="shared" si="33"/>
         <v>23301</v>
       </c>
-      <c r="D408" t="str">
+      <c r="D408" s="8" t="str">
         <f t="shared" si="37"/>
         <v>Pieter Ghijsenlaan 21a, 1506 PW, Zaandam</v>
       </c>
-      <c r="E408" t="s">
+      <c r="E408" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G408" s="4" t="s">
@@ -14144,11 +14146,11 @@
         <f t="shared" si="33"/>
         <v>23369</v>
       </c>
-      <c r="D409" t="str">
+      <c r="D409" s="8" t="str">
         <f t="shared" si="37"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E409" t="s">
+      <c r="E409" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G409" s="4" t="s">
@@ -14176,11 +14178,11 @@
         <f t="shared" si="33"/>
         <v>23437</v>
       </c>
-      <c r="D410" t="str">
+      <c r="D410" s="8" t="str">
         <f t="shared" si="37"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E410" t="s">
+      <c r="E410" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G410" s="4" t="s">
@@ -14210,11 +14212,11 @@
         <f t="shared" ref="C411:C475" si="38">B412</f>
         <v>23504</v>
       </c>
-      <c r="D411" t="str">
+      <c r="D411" s="8" t="str">
         <f t="shared" si="37"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E411" t="s">
+      <c r="E411" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G411" s="4" t="s">
@@ -14242,11 +14244,11 @@
         <f t="shared" si="38"/>
         <v>23572</v>
       </c>
-      <c r="D412" t="str">
+      <c r="D412" s="8" t="str">
         <f t="shared" si="37"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E412" t="s">
+      <c r="E412" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G412" s="4" t="s">
@@ -14276,12 +14278,12 @@
         <f t="shared" si="38"/>
         <v>23641</v>
       </c>
-      <c r="D413" t="str">
+      <c r="D413" s="8" t="str">
         <f t="shared" si="37"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E413" t="s">
-        <v>52</v>
+      <c r="E413" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="G413" s="4" t="s">
         <v>10</v>
@@ -14308,11 +14310,11 @@
         <f t="shared" si="38"/>
         <v>23712</v>
       </c>
-      <c r="D414" t="str">
+      <c r="D414" s="8" t="str">
         <f t="shared" si="37"/>
         <v>Meerkoetenweg 26, 8218 NA, Lelystad</v>
       </c>
-      <c r="E414" t="s">
+      <c r="E414" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G414" s="4" t="s">
@@ -14340,12 +14342,12 @@
         <f t="shared" si="38"/>
         <v>23736</v>
       </c>
-      <c r="D415" t="str">
+      <c r="D415" s="8" t="str">
         <f t="shared" si="37"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E415" t="s">
-        <v>53</v>
+      <c r="E415" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="G415" s="4" t="s">
         <v>16</v>
@@ -14372,11 +14374,11 @@
         <f t="shared" si="38"/>
         <v>23761</v>
       </c>
-      <c r="D416" t="str">
+      <c r="D416" s="8" t="str">
         <f t="shared" si="37"/>
         <v>De Flinesstraat 6, 1114 AL, Amsterdam</v>
       </c>
-      <c r="E416" t="s">
+      <c r="E416" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G416" s="4" t="s">
@@ -14395,7 +14397,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="10">
         <v>43741</v>
       </c>
@@ -14406,11 +14408,11 @@
         <f t="shared" si="38"/>
         <v>23828</v>
       </c>
-      <c r="D417" t="str">
+      <c r="D417" s="8" t="str">
         <f t="shared" si="37"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E417" t="s">
+      <c r="E417" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G417" s="4" t="s">
@@ -14429,7 +14431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="6"/>
       <c r="B418" s="6">
         <v>23828</v>
@@ -14438,11 +14440,11 @@
         <f t="shared" si="38"/>
         <v>23896</v>
       </c>
-      <c r="D418" t="str">
+      <c r="D418" s="8" t="str">
         <f t="shared" si="37"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E418" t="s">
+      <c r="E418" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G418" s="4" t="s">
@@ -14461,7 +14463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="10">
         <v>43742</v>
       </c>
@@ -14472,11 +14474,11 @@
         <f t="shared" si="38"/>
         <v>23963</v>
       </c>
-      <c r="D419" t="str">
+      <c r="D419" s="8" t="str">
         <f t="shared" si="37"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E419" t="s">
+      <c r="E419" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G419" s="4" t="s">
@@ -14495,7 +14497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="6"/>
       <c r="B420" s="6">
         <v>23963</v>
@@ -14504,11 +14506,11 @@
         <f t="shared" si="38"/>
         <v>24031</v>
       </c>
-      <c r="D420" t="str">
+      <c r="D420" s="8" t="str">
         <f t="shared" si="37"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E420" t="s">
+      <c r="E420" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G420" s="4" t="s">
@@ -14527,7 +14529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="10">
         <v>43745</v>
       </c>
@@ -14538,11 +14540,11 @@
         <f t="shared" si="38"/>
         <v>24099</v>
       </c>
-      <c r="D421" t="str">
+      <c r="D421" s="8" t="str">
         <f t="shared" si="37"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E421" t="s">
+      <c r="E421" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G421" s="4" t="s">
@@ -14561,7 +14563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="6"/>
       <c r="B422" s="6">
         <v>24099</v>
@@ -14570,11 +14572,11 @@
         <f t="shared" si="38"/>
         <v>24166</v>
       </c>
-      <c r="D422" t="str">
+      <c r="D422" s="8" t="str">
         <f t="shared" si="37"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E422" t="s">
+      <c r="E422" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G422" s="4" t="s">
@@ -14593,7 +14595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="10">
         <v>43747</v>
       </c>
@@ -14604,12 +14606,12 @@
         <f t="shared" si="38"/>
         <v>24260</v>
       </c>
-      <c r="D423" t="str">
+      <c r="D423" s="8" t="str">
         <f t="shared" si="37"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E423" t="s">
-        <v>54</v>
+      <c r="E423" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="G423" s="4" t="s">
         <v>10</v>
@@ -14627,7 +14629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="6"/>
       <c r="B424" s="6">
         <v>24260</v>
@@ -14636,11 +14638,11 @@
         <f t="shared" si="38"/>
         <v>24354</v>
       </c>
-      <c r="D424" t="str">
+      <c r="D424" s="8" t="str">
         <f t="shared" si="37"/>
         <v>Hogeweg 3, 5301 LB, Zaltbommel</v>
       </c>
-      <c r="E424" t="s">
+      <c r="E424" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G424" s="4" t="s">
@@ -14659,7 +14661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="10">
         <v>43749</v>
       </c>
@@ -14670,11 +14672,11 @@
         <f t="shared" si="38"/>
         <v>24421</v>
       </c>
-      <c r="D425" t="str">
+      <c r="D425" s="8" t="str">
         <f t="shared" si="37"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E425" t="s">
+      <c r="E425" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G425" s="4" t="s">
@@ -14693,7 +14695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="6"/>
       <c r="B426" s="6">
         <v>24421</v>
@@ -14702,11 +14704,11 @@
         <f t="shared" si="38"/>
         <v>24489</v>
       </c>
-      <c r="D426" t="str">
+      <c r="D426" s="8" t="str">
         <f t="shared" si="37"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E426" t="s">
+      <c r="E426" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G426" s="4" t="s">
@@ -14724,11 +14726,8 @@
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="L426" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="10"/>
       <c r="B427" s="6">
         <v>24489</v>
@@ -14737,15 +14736,15 @@
         <f t="shared" si="38"/>
         <v>24490</v>
       </c>
-      <c r="D427" t="str">
+      <c r="D427" s="8" t="str">
         <f t="shared" si="37"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E427" t="s">
-        <v>55</v>
+      <c r="E427" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="G427" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I427" s="9">
         <f t="shared" si="36"/>
@@ -14753,18 +14752,14 @@
       </c>
       <c r="J427" s="6">
         <f t="shared" si="39"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K427" s="9">
         <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="L427" s="4">
-        <f>SUM(K146:K801)</f>
-        <v>415</v>
-      </c>
-    </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="10">
         <v>43752</v>
       </c>
@@ -14775,12 +14770,12 @@
         <f t="shared" si="38"/>
         <v>24584</v>
       </c>
-      <c r="D428" t="str">
+      <c r="D428" s="8" t="str">
         <f t="shared" si="37"/>
         <v>Prinsenstraat 35, Zaandam</v>
       </c>
-      <c r="E428" t="s">
-        <v>54</v>
+      <c r="E428" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="G428" s="4" t="s">
         <v>10</v>
@@ -14798,7 +14793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="10"/>
       <c r="B429" s="6">
         <v>24584</v>
@@ -14807,11 +14802,11 @@
         <f t="shared" si="38"/>
         <v>24678</v>
       </c>
-      <c r="D429" t="str">
+      <c r="D429" s="8" t="str">
         <f t="shared" si="37"/>
         <v>Hogeweg 3, 5301 LB, Zaltbommel</v>
       </c>
-      <c r="E429" t="s">
+      <c r="E429" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G429" s="4" t="s">
@@ -14830,7 +14825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="10">
         <v>43753</v>
       </c>
@@ -14841,12 +14836,12 @@
         <f t="shared" si="38"/>
         <v>24772</v>
       </c>
-      <c r="D430" t="str">
+      <c r="D430" s="8" t="str">
         <f t="shared" si="37"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E430" t="s">
-        <v>54</v>
+      <c r="E430" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="G430" s="4" t="s">
         <v>10</v>
@@ -14864,7 +14859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="10"/>
       <c r="B431" s="6">
         <v>24772</v>
@@ -14873,11 +14868,11 @@
         <f t="shared" si="38"/>
         <v>24865</v>
       </c>
-      <c r="D431" t="str">
+      <c r="D431" s="8" t="str">
         <f>E430</f>
         <v>Hogeweg 3, 5301 LB, Zaltbommel</v>
       </c>
-      <c r="E431" t="s">
+      <c r="E431" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G431" s="4" t="s">
@@ -14896,7 +14891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="10">
         <v>43755</v>
       </c>
@@ -14907,12 +14902,12 @@
         <f t="shared" si="38"/>
         <v>24944</v>
       </c>
-      <c r="D432" t="str">
+      <c r="D432" s="8" t="str">
         <f t="shared" si="37"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E432" t="s">
-        <v>56</v>
+      <c r="E432" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="G432" s="4" t="s">
         <v>10</v>
@@ -14939,15 +14934,15 @@
         <f t="shared" si="38"/>
         <v>25020</v>
       </c>
-      <c r="D433" t="str">
+      <c r="D433" s="8" t="str">
         <f t="shared" si="37"/>
         <v>Burgemeester Crezeelaan 40, De Lier</v>
       </c>
-      <c r="E433" t="s">
+      <c r="E433" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F433" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G433" s="4" t="s">
         <v>10</v>
@@ -14976,15 +14971,15 @@
         <f t="shared" si="38"/>
         <v>25095</v>
       </c>
-      <c r="D434" t="str">
+      <c r="D434" s="8" t="str">
         <f t="shared" si="37"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E434" t="s">
+      <c r="E434" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F434" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G434" s="4" t="s">
         <v>10</v>
@@ -15011,11 +15006,11 @@
         <f t="shared" si="38"/>
         <v>25164</v>
       </c>
-      <c r="D435" t="str">
+      <c r="D435" s="8" t="str">
         <f t="shared" si="37"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E435" t="s">
+      <c r="E435" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G435" s="4" t="s">
@@ -15045,15 +15040,15 @@
         <f t="shared" si="38"/>
         <v>25238</v>
       </c>
-      <c r="D436" t="str">
+      <c r="D436" s="8" t="str">
         <f t="shared" si="37"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E436" t="s">
+      <c r="E436" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F436" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G436" s="4" t="s">
         <v>10</v>
@@ -15080,11 +15075,11 @@
         <f t="shared" si="38"/>
         <v>25305</v>
       </c>
-      <c r="D437" t="str">
+      <c r="D437" s="8" t="str">
         <f t="shared" si="37"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E437" t="s">
+      <c r="E437" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G437" s="4" t="s">
@@ -15114,15 +15109,15 @@
         <f t="shared" si="38"/>
         <v>25381</v>
       </c>
-      <c r="D438" t="str">
+      <c r="D438" s="8" t="str">
         <f t="shared" si="37"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E438" t="s">
+      <c r="E438" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F438" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G438" s="4" t="s">
         <v>10</v>
@@ -15149,11 +15144,11 @@
         <f t="shared" si="38"/>
         <v>25448</v>
       </c>
-      <c r="D439" t="str">
+      <c r="D439" s="8" t="str">
         <f t="shared" si="37"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E439" t="s">
+      <c r="E439" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G439" s="4" t="s">
@@ -15183,15 +15178,15 @@
         <f t="shared" si="38"/>
         <v>25523</v>
       </c>
-      <c r="D440" t="str">
+      <c r="D440" s="8" t="str">
         <f t="shared" si="37"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E440" t="s">
+      <c r="E440" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F440" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G440" s="4" t="s">
         <v>10</v>
@@ -15218,11 +15213,11 @@
         <f t="shared" si="38"/>
         <v>25591</v>
       </c>
-      <c r="D441" t="str">
+      <c r="D441" s="8" t="str">
         <f t="shared" si="37"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E441" t="s">
+      <c r="E441" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G441" s="4" t="s">
@@ -15252,15 +15247,15 @@
         <f t="shared" si="38"/>
         <v>25666</v>
       </c>
-      <c r="D442" t="str">
+      <c r="D442" s="8" t="str">
         <f t="shared" si="37"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E442" t="s">
+      <c r="E442" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F442" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G442" s="4" t="s">
         <v>10</v>
@@ -15287,11 +15282,11 @@
         <f t="shared" si="38"/>
         <v>25734</v>
       </c>
-      <c r="D443" t="str">
+      <c r="D443" s="8" t="str">
         <f t="shared" si="37"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E443" t="s">
+      <c r="E443" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G443" s="4" t="s">
@@ -15321,15 +15316,15 @@
         <f t="shared" si="38"/>
         <v>25805</v>
       </c>
-      <c r="D444" t="str">
+      <c r="D444" s="8" t="str">
         <f t="shared" si="37"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E444" t="s">
+      <c r="E444" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F444" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G444" s="4" t="s">
         <v>10</v>
@@ -15356,11 +15351,11 @@
         <f t="shared" si="38"/>
         <v>25872</v>
       </c>
-      <c r="D445" t="str">
+      <c r="D445" s="8" t="str">
         <f t="shared" si="37"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E445" t="s">
+      <c r="E445" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G445" s="4" t="s">
@@ -15390,11 +15385,11 @@
         <f t="shared" si="38"/>
         <v>25879</v>
       </c>
-      <c r="D446" t="str">
+      <c r="D446" s="8" t="str">
         <f t="shared" si="37"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E446" t="s">
+      <c r="E446" s="8" t="s">
         <v>47</v>
       </c>
       <c r="G446" s="4" t="s">
@@ -15422,11 +15417,11 @@
         <f t="shared" si="38"/>
         <v>25885</v>
       </c>
-      <c r="D447" t="str">
+      <c r="D447" s="8" t="str">
         <f t="shared" si="37"/>
         <v xml:space="preserve">1511  BX, Landsmeer </v>
       </c>
-      <c r="E447" t="s">
+      <c r="E447" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G447" s="4" t="s">
@@ -15456,15 +15451,15 @@
         <f t="shared" si="38"/>
         <v>25963</v>
       </c>
-      <c r="D448" t="str">
+      <c r="D448" s="8" t="str">
         <f t="shared" si="37"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E448" t="s">
+      <c r="E448" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F448" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G448" s="4" t="s">
         <v>10</v>
@@ -15491,11 +15486,11 @@
         <f t="shared" si="38"/>
         <v>26030</v>
       </c>
-      <c r="D449" t="str">
+      <c r="D449" s="8" t="str">
         <f t="shared" si="37"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E449" t="s">
+      <c r="E449" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G449" s="4" t="s">
@@ -15523,12 +15518,12 @@
         <f t="shared" si="38"/>
         <v>26035</v>
       </c>
-      <c r="D450" t="str">
+      <c r="D450" s="8" t="str">
         <f t="shared" si="37"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E450" t="s">
-        <v>62</v>
+      <c r="E450" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="G450" s="4" t="s">
         <v>16</v>
@@ -15555,11 +15550,11 @@
         <f t="shared" si="38"/>
         <v>26039</v>
       </c>
-      <c r="D451" t="str">
+      <c r="D451" s="8" t="str">
         <f t="shared" si="37"/>
         <v>1511 BX, Landsmeer</v>
       </c>
-      <c r="E451" t="s">
+      <c r="E451" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G451" s="4" t="s">
@@ -15589,11 +15584,11 @@
         <f t="shared" si="38"/>
         <v>26107</v>
       </c>
-      <c r="D452" t="str">
+      <c r="D452" s="8" t="str">
         <f t="shared" si="37"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E452" t="s">
+      <c r="E452" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G452" s="4" t="s">
@@ -15621,11 +15616,11 @@
         <f t="shared" si="38"/>
         <v>26174</v>
       </c>
-      <c r="D453" t="str">
+      <c r="D453" s="8" t="str">
         <f t="shared" ref="D453:D516" si="42">E452</f>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E453" t="s">
+      <c r="E453" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G453" s="4" t="s">
@@ -15655,11 +15650,11 @@
         <f>B455</f>
         <v>26242</v>
       </c>
-      <c r="D454" t="str">
+      <c r="D454" s="8" t="str">
         <f t="shared" si="42"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E454" t="s">
+      <c r="E454" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G454" s="4" t="s">
@@ -15686,11 +15681,11 @@
       <c r="C455" s="6">
         <v>26310</v>
       </c>
-      <c r="D455" t="str">
+      <c r="D455" s="8" t="str">
         <f>E454</f>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E455" t="s">
+      <c r="E455" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G455" s="4" t="s">
@@ -15719,11 +15714,11 @@
       <c r="C456" s="6">
         <v>26377</v>
       </c>
-      <c r="D456" t="str">
+      <c r="D456" s="8" t="str">
         <f>E455</f>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E456" t="s">
+      <c r="E456" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G456" s="11" t="s">
@@ -15751,11 +15746,11 @@
         <f t="shared" si="38"/>
         <v>26445</v>
       </c>
-      <c r="D457" t="str">
+      <c r="D457" s="8" t="str">
         <f>E456</f>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E457" t="s">
+      <c r="E457" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G457" s="4" t="s">
@@ -15785,12 +15780,12 @@
         <f t="shared" si="38"/>
         <v>26450</v>
       </c>
-      <c r="D458" t="str">
+      <c r="D458" s="8" t="str">
         <f t="shared" si="42"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E458" t="s">
-        <v>61</v>
+      <c r="E458" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="G458" s="4" t="s">
         <v>16</v>
@@ -15817,11 +15812,11 @@
         <f t="shared" si="38"/>
         <v>26455</v>
       </c>
-      <c r="D459" t="str">
+      <c r="D459" s="8" t="str">
         <f t="shared" si="42"/>
         <v>Hollandschdiep, Zaandam</v>
       </c>
-      <c r="E459" t="s">
+      <c r="E459" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G459" s="4" t="s">
@@ -15851,11 +15846,11 @@
         <f t="shared" si="38"/>
         <v>26463</v>
       </c>
-      <c r="D460" t="str">
+      <c r="D460" s="8" t="str">
         <f t="shared" si="42"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E460" t="s">
+      <c r="E460" s="8" t="s">
         <v>24</v>
       </c>
       <c r="G460" t="s">
@@ -15883,11 +15878,11 @@
         <f t="shared" si="38"/>
         <v>26471</v>
       </c>
-      <c r="D461" t="str">
+      <c r="D461" s="8" t="str">
         <f t="shared" si="42"/>
         <v>Doktersland 20, Koog aan de Zaan</v>
       </c>
-      <c r="E461" t="s">
+      <c r="E461" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G461" t="s">
@@ -15917,12 +15912,12 @@
         <f t="shared" si="38"/>
         <v>26658</v>
       </c>
-      <c r="D462" t="str">
+      <c r="D462" s="8" t="str">
         <f>E461</f>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E462" t="s">
-        <v>60</v>
+      <c r="E462" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="G462" t="s">
         <v>10</v>
@@ -15949,11 +15944,11 @@
         <f t="shared" si="38"/>
         <v>26846</v>
       </c>
-      <c r="D463" t="str">
+      <c r="D463" s="8" t="str">
         <f t="shared" si="42"/>
         <v>Oosmolenweg 101, 4481PM, Kloetinge</v>
       </c>
-      <c r="E463" t="s">
+      <c r="E463" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G463" t="s">
@@ -15983,11 +15978,11 @@
         <f t="shared" si="38"/>
         <v>26889</v>
       </c>
-      <c r="D464" t="str">
+      <c r="D464" s="8" t="str">
         <f t="shared" si="42"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E464" t="s">
+      <c r="E464" s="8" t="s">
         <v>20</v>
       </c>
       <c r="G464" t="s">
@@ -16015,11 +16010,11 @@
         <f t="shared" si="38"/>
         <v>26932</v>
       </c>
-      <c r="D465" t="str">
+      <c r="D465" s="8" t="str">
         <f t="shared" si="42"/>
         <v>Veluwezoom 4, 1327AG, Almere</v>
       </c>
-      <c r="E465" t="s">
+      <c r="E465" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G465" t="s">
@@ -16049,11 +16044,11 @@
         <f t="shared" si="38"/>
         <v>27001</v>
       </c>
-      <c r="D466" t="str">
+      <c r="D466" s="8" t="str">
         <f t="shared" si="42"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E466" t="s">
+      <c r="E466" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G466" t="s">
@@ -16081,11 +16076,11 @@
         <f t="shared" si="38"/>
         <v>27069</v>
       </c>
-      <c r="D467" t="str">
+      <c r="D467" s="8" t="str">
         <f t="shared" si="42"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E467" t="s">
+      <c r="E467" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G467" t="s">
@@ -16115,11 +16110,11 @@
         <f t="shared" si="38"/>
         <v>27137</v>
       </c>
-      <c r="D468" t="str">
+      <c r="D468" s="8" t="str">
         <f t="shared" si="42"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E468" t="s">
+      <c r="E468" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G468" t="s">
@@ -16147,11 +16142,11 @@
         <f t="shared" si="38"/>
         <v>27205</v>
       </c>
-      <c r="D469" t="str">
+      <c r="D469" s="8" t="str">
         <f t="shared" si="42"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E469" t="s">
+      <c r="E469" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G469" t="s">
@@ -16181,11 +16176,11 @@
         <f t="shared" si="38"/>
         <v>27272</v>
       </c>
-      <c r="D470" t="str">
+      <c r="D470" s="8" t="str">
         <f t="shared" si="42"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E470" t="s">
+      <c r="E470" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G470" t="s">
@@ -16213,11 +16208,11 @@
         <f t="shared" si="38"/>
         <v>27340</v>
       </c>
-      <c r="D471" t="str">
+      <c r="D471" s="8" t="str">
         <f t="shared" si="42"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E471" t="s">
+      <c r="E471" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G471" t="s">
@@ -16247,11 +16242,11 @@
         <f t="shared" si="38"/>
         <v>27408</v>
       </c>
-      <c r="D472" t="str">
+      <c r="D472" s="8" t="str">
         <f t="shared" si="42"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E472" t="s">
+      <c r="E472" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G472" t="s">
@@ -16279,11 +16274,11 @@
         <f t="shared" si="38"/>
         <v>27476</v>
       </c>
-      <c r="D473" t="str">
+      <c r="D473" s="8" t="str">
         <f t="shared" si="42"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E473" t="s">
+      <c r="E473" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G473" t="s">
@@ -16313,11 +16308,11 @@
         <f t="shared" si="38"/>
         <v>27544</v>
       </c>
-      <c r="D474" t="str">
+      <c r="D474" s="8" t="str">
         <f>E473</f>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E474" t="s">
+      <c r="E474" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G474" t="s">
@@ -16345,11 +16340,11 @@
         <f t="shared" si="38"/>
         <v>27611</v>
       </c>
-      <c r="D475" t="str">
+      <c r="D475" s="8" t="str">
         <f t="shared" si="42"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E475" t="s">
+      <c r="E475" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G475" t="s">
@@ -16379,11 +16374,11 @@
         <f t="shared" ref="C476:C486" si="43">B477</f>
         <v>27620</v>
       </c>
-      <c r="D476" t="str">
+      <c r="D476" s="8" t="str">
         <f t="shared" si="42"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E476" t="s">
+      <c r="E476" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G476" t="s">
@@ -16411,11 +16406,11 @@
         <f t="shared" si="43"/>
         <v>27627</v>
       </c>
-      <c r="D477" t="str">
+      <c r="D477" s="8" t="str">
         <f t="shared" si="42"/>
         <v>Zuiderhoofdstraat 32, Krommenie</v>
       </c>
-      <c r="E477" t="s">
+      <c r="E477" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G477" t="s">
@@ -16445,11 +16440,11 @@
         <f t="shared" si="43"/>
         <v>27695</v>
       </c>
-      <c r="D478" t="str">
+      <c r="D478" s="8" t="str">
         <f t="shared" si="42"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E478" t="s">
+      <c r="E478" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G478" t="s">
@@ -16477,11 +16472,11 @@
         <f t="shared" si="43"/>
         <v>27763</v>
       </c>
-      <c r="D479" t="str">
+      <c r="D479" s="8" t="str">
         <f t="shared" si="42"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E479" t="s">
+      <c r="E479" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G479" t="s">
@@ -16511,11 +16506,11 @@
         <f t="shared" si="43"/>
         <v>27831</v>
       </c>
-      <c r="D480" t="str">
+      <c r="D480" s="8" t="str">
         <f t="shared" si="42"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E480" t="s">
+      <c r="E480" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G480" t="s">
@@ -16543,11 +16538,11 @@
         <f t="shared" si="43"/>
         <v>27899</v>
       </c>
-      <c r="D481" t="str">
+      <c r="D481" s="8" t="str">
         <f t="shared" si="42"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E481" t="s">
+      <c r="E481" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G481" t="s">
@@ -16577,11 +16572,11 @@
         <f t="shared" si="43"/>
         <v>27967</v>
       </c>
-      <c r="D482" t="str">
+      <c r="D482" s="8" t="str">
         <f t="shared" si="42"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E482" t="s">
+      <c r="E482" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G482" t="s">
@@ -16609,11 +16604,11 @@
         <f t="shared" si="43"/>
         <v>28034</v>
       </c>
-      <c r="D483" t="str">
+      <c r="D483" s="8" t="str">
         <f t="shared" si="42"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E483" t="s">
+      <c r="E483" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G483" t="s">
@@ -16643,12 +16638,12 @@
         <f t="shared" si="43"/>
         <v>28125</v>
       </c>
-      <c r="D484" t="str">
+      <c r="D484" s="8" t="str">
         <f t="shared" si="42"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E484" t="s">
-        <v>54</v>
+      <c r="E484" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="G484" t="s">
         <v>10</v>
@@ -16675,11 +16670,11 @@
         <f t="shared" si="43"/>
         <v>28218</v>
       </c>
-      <c r="D485" t="str">
+      <c r="D485" s="8" t="str">
         <f t="shared" si="42"/>
         <v>Hogeweg 3, 5301 LB, Zaltbommel</v>
       </c>
-      <c r="E485" t="s">
+      <c r="E485" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G485" t="s">
@@ -16709,11 +16704,11 @@
         <f t="shared" si="43"/>
         <v>28286</v>
       </c>
-      <c r="D486" t="str">
+      <c r="D486" s="8" t="str">
         <f>E485</f>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E486" t="s">
+      <c r="E486" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G486" t="s">
@@ -16740,11 +16735,11 @@
       <c r="C487" s="6">
         <v>28354</v>
       </c>
-      <c r="D487" t="str">
+      <c r="D487" s="8" t="str">
         <f t="shared" si="42"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E487" s="4" t="s">
+      <c r="E487" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G487" t="s">
@@ -16773,11 +16768,11 @@
       <c r="C488" s="6">
         <v>28422</v>
       </c>
-      <c r="D488" t="str">
+      <c r="D488" s="8" t="str">
         <f t="shared" si="42"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E488" s="11" t="s">
+      <c r="E488" s="19" t="s">
         <v>6</v>
       </c>
       <c r="G488" t="s">
@@ -16805,11 +16800,11 @@
         <f t="shared" ref="C489:C552" si="46">B490</f>
         <v>28489</v>
       </c>
-      <c r="D489" t="str">
+      <c r="D489" s="8" t="str">
         <f t="shared" si="42"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E489" s="11" t="s">
+      <c r="E489" s="19" t="s">
         <v>7</v>
       </c>
       <c r="G489" t="s">
@@ -16828,7 +16823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A490" s="10">
         <v>43811</v>
       </c>
@@ -16839,12 +16834,15 @@
         <f t="shared" si="46"/>
         <v>28582</v>
       </c>
-      <c r="D490" t="str">
+      <c r="D490" s="8" t="str">
         <f t="shared" si="42"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E490" s="11" t="s">
+      <c r="E490" s="19" t="s">
         <v>20</v>
+      </c>
+      <c r="F490" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="G490" t="s">
         <v>10</v>
@@ -16871,11 +16869,11 @@
         <f t="shared" si="46"/>
         <v>28650</v>
       </c>
-      <c r="D491" t="str">
+      <c r="D491" s="8" t="str">
         <f t="shared" si="42"/>
         <v>Veluwezoom 4, 1327AG, Almere</v>
       </c>
-      <c r="E491" s="11" t="s">
+      <c r="E491" s="19" t="s">
         <v>7</v>
       </c>
       <c r="G491" t="s">
@@ -16905,11 +16903,11 @@
         <f t="shared" si="46"/>
         <v>28718</v>
       </c>
-      <c r="D492" t="str">
+      <c r="D492" s="8" t="str">
         <f t="shared" si="42"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E492" s="11" t="s">
+      <c r="E492" s="19" t="s">
         <v>6</v>
       </c>
       <c r="G492" t="s">
@@ -16937,12 +16935,12 @@
         <f t="shared" si="46"/>
         <v>28784</v>
       </c>
-      <c r="D493" t="str">
+      <c r="D493" s="8" t="str">
         <f t="shared" si="42"/>
         <v>Duwboot 20, Houten</v>
       </c>
       <c r="E493" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G493" t="s">
         <v>10</v>
@@ -16971,11 +16969,11 @@
         <f t="shared" si="46"/>
         <v>28786</v>
       </c>
-      <c r="D494" t="str">
+      <c r="D494" s="8" t="str">
         <f t="shared" si="42"/>
         <v>Hoofdveste 25, 3992 DH, Houten</v>
       </c>
-      <c r="E494" s="11" t="s">
+      <c r="E494" s="19" t="s">
         <v>6</v>
       </c>
       <c r="G494" t="s">
@@ -17003,12 +17001,12 @@
         <f t="shared" si="46"/>
         <v>28787</v>
       </c>
-      <c r="D495" t="str">
+      <c r="D495" s="8" t="str">
         <f t="shared" si="42"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E495" s="11" t="s">
-        <v>63</v>
+      <c r="E495" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="G495" t="s">
         <v>10</v>
@@ -17037,11 +17035,11 @@
         <f t="shared" si="46"/>
         <v>28854</v>
       </c>
-      <c r="D496" t="str">
+      <c r="D496" s="8" t="str">
         <f t="shared" si="42"/>
         <v>Hoofdveste 25, 3992 DH, Houten</v>
       </c>
-      <c r="E496" s="11" t="s">
+      <c r="E496" s="19" t="s">
         <v>7</v>
       </c>
       <c r="G496" t="s">
@@ -17060,7 +17058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A497" s="10">
         <v>43815</v>
       </c>
@@ -17071,11 +17069,11 @@
         <f t="shared" si="46"/>
         <v>28897</v>
       </c>
-      <c r="D497" t="str">
+      <c r="D497" s="8" t="str">
         <f t="shared" si="42"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E497" s="11" t="s">
+      <c r="E497" s="19" t="s">
         <v>20</v>
       </c>
       <c r="G497" t="s">
@@ -17094,7 +17092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A498" s="10"/>
       <c r="B498" s="6">
         <v>28897</v>
@@ -17103,11 +17101,11 @@
         <f t="shared" si="46"/>
         <v>28944</v>
       </c>
-      <c r="D498" t="str">
+      <c r="D498" s="8" t="str">
         <f t="shared" si="42"/>
         <v>Veluwezoom 4, 1327AG, Almere</v>
       </c>
-      <c r="E498" s="11" t="s">
+      <c r="E498" s="19" t="s">
         <v>7</v>
       </c>
       <c r="G498" t="s">
@@ -17126,7 +17124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A499" s="6"/>
       <c r="B499" s="6">
         <v>28944</v>
@@ -17135,11 +17133,11 @@
         <f t="shared" si="46"/>
         <v>28946</v>
       </c>
-      <c r="D499" t="str">
+      <c r="D499" s="8" t="str">
         <f t="shared" si="42"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E499" s="11" t="s">
+      <c r="E499" s="19" t="s">
         <v>14</v>
       </c>
       <c r="G499" t="s">
@@ -17158,7 +17156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A500" s="6"/>
       <c r="B500" s="6">
         <v>28946</v>
@@ -17167,11 +17165,11 @@
         <f t="shared" si="46"/>
         <v>29012</v>
       </c>
-      <c r="D500" t="str">
+      <c r="D500" s="8" t="str">
         <f t="shared" si="42"/>
         <v>Waterveste 4, Houten</v>
       </c>
-      <c r="E500" s="11" t="s">
+      <c r="E500" s="19" t="s">
         <v>7</v>
       </c>
       <c r="G500" t="s">
@@ -17190,7 +17188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A501" s="10">
         <v>43816</v>
       </c>
@@ -17200,11 +17198,11 @@
       <c r="C501" s="6">
         <v>28490</v>
       </c>
-      <c r="D501" t="str">
+      <c r="D501" s="8" t="str">
         <f t="shared" si="42"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
-      <c r="E501" s="11" t="s">
+      <c r="E501" s="19" t="s">
         <v>6</v>
       </c>
       <c r="G501" t="s">
@@ -17223,7 +17221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A502" s="10"/>
       <c r="B502" s="6">
         <v>29080</v>
@@ -17231,11 +17229,11 @@
       <c r="C502" s="6">
         <v>28558</v>
       </c>
-      <c r="D502" t="str">
+      <c r="D502" s="8" t="str">
         <f t="shared" si="42"/>
         <v>Duwboot 20, Houten</v>
       </c>
-      <c r="E502" s="11" t="s">
+      <c r="E502" s="19" t="s">
         <v>7</v>
       </c>
       <c r="G502" t="s">
@@ -17254,52 +17252,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A503" s="6"/>
+    <row r="503" spans="1:12" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A503" s="10">
+        <v>43822</v>
+      </c>
       <c r="B503" s="6">
         <v>29148</v>
       </c>
       <c r="C503" s="6">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="D503" t="str">
+        <v>29179</v>
+      </c>
+      <c r="D503" s="8" t="str">
         <f t="shared" si="42"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
+      <c r="E503" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="G503" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I503" s="9">
         <f t="shared" si="41"/>
-        <v>-29148</v>
+        <v>31</v>
       </c>
       <c r="J503" s="6">
         <f t="shared" si="44"/>
-        <v>-29148</v>
+        <v>0</v>
       </c>
       <c r="K503" s="6">
         <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A504" s="6"/>
-      <c r="B504" s="6"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="504" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A504" s="10"/>
+      <c r="B504" s="6">
+        <v>29179</v>
+      </c>
       <c r="C504" s="6">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="D504">
+        <v>29209</v>
+      </c>
+      <c r="D504" s="8" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>Duin- en Kruidbergerweg 60, 2071 LE Santpoort-Noord</v>
+      </c>
+      <c r="E504" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G504" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I504" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J504" s="6">
         <f t="shared" si="44"/>
@@ -17307,26 +17315,33 @@
       </c>
       <c r="K504" s="6">
         <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A505" s="6"/>
-      <c r="B505" s="6"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="505" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A505" s="10">
+        <v>43830</v>
+      </c>
+      <c r="B505" s="6">
+        <v>29209</v>
+      </c>
       <c r="C505" s="6">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="D505">
+        <v>29222</v>
+      </c>
+      <c r="D505" s="8" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E505" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="G505" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I505" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J505" s="6">
         <f t="shared" si="44"/>
@@ -17334,26 +17349,36 @@
       </c>
       <c r="K505" s="6">
         <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A506" s="6"/>
-      <c r="B506" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="L505" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="506" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A506" s="10">
+        <v>43831</v>
+      </c>
+      <c r="B506" s="6">
+        <v>29222</v>
+      </c>
       <c r="C506" s="6">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="D506">
+        <v>29234</v>
+      </c>
+      <c r="D506" s="8" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>Zuiderhoofdstraat 32, Krommenie</v>
+      </c>
+      <c r="E506" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G506" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I506" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J506" s="6">
         <f t="shared" si="44"/>
@@ -17361,73 +17386,99 @@
       </c>
       <c r="K506" s="6">
         <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A507" s="6"/>
-      <c r="B507" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="L506" s="4">
+        <f>SUM(K146:K505)</f>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="507" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A507" s="10">
+        <v>43833</v>
+      </c>
+      <c r="B507" s="6">
+        <v>29234</v>
+      </c>
       <c r="C507" s="6">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="D507">
+        <v>29302</v>
+      </c>
+      <c r="D507" s="8" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E507" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="G507" t="s">
         <v>10</v>
       </c>
       <c r="I507" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J507" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K507" s="6">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A508" s="6"/>
-      <c r="B508" s="6"/>
+      <c r="B508" s="6">
+        <v>29302</v>
+      </c>
       <c r="C508" s="6">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="D508">
+        <v>29370</v>
+      </c>
+      <c r="D508" s="8" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E508" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F508" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="G508" t="s">
         <v>10</v>
       </c>
       <c r="I508" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J508" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K508" s="6">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A509" s="6"/>
-      <c r="B509" s="6"/>
+    <row r="509" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A509" s="10">
+        <v>43834</v>
+      </c>
+      <c r="B509" s="6">
+        <v>29370</v>
+      </c>
       <c r="C509" s="6">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="D509">
+        <v>29370</v>
+      </c>
+      <c r="D509" s="8" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>Klampersstraat 43, Zaandam</v>
+      </c>
+      <c r="E509" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G509" t="s">
         <v>10</v>
@@ -17444,82 +17495,108 @@
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A510" s="6"/>
-      <c r="B510" s="6"/>
+      <c r="L509" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="510" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A510" s="10">
+        <v>43836</v>
+      </c>
+      <c r="B510" s="6">
+        <v>29370</v>
+      </c>
       <c r="C510" s="6">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="D510">
+        <v>29438</v>
+      </c>
+      <c r="D510" s="8" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E510" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="G510" t="s">
         <v>10</v>
       </c>
       <c r="I510" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J510" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K510" s="6">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L510" s="4">
+        <f>SUM(K506:K1000)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="511" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A511" s="6"/>
-      <c r="B511" s="6"/>
+      <c r="B511" s="6">
+        <v>29438</v>
+      </c>
       <c r="C511" s="6">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="D511">
+        <v>29506</v>
+      </c>
+      <c r="D511" s="8" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E511" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G511" t="s">
         <v>10</v>
       </c>
       <c r="I511" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J511" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K511" s="6">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A512" s="6"/>
-      <c r="B512" s="6"/>
+    <row r="512" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A512" s="10">
+        <v>43837</v>
+      </c>
+      <c r="B512" s="6">
+        <v>29506</v>
+      </c>
       <c r="C512" s="6">
         <f>B513</f>
-        <v>0</v>
-      </c>
-      <c r="D512">
+        <v>29574</v>
+      </c>
+      <c r="D512" s="8" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E512" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="G512" t="s">
         <v>10</v>
       </c>
       <c r="I512" s="9">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J512" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K512" s="6">
         <f t="shared" si="45"/>
@@ -17528,25 +17605,30 @@
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="6"/>
-      <c r="B513" s="6"/>
+      <c r="B513" s="6">
+        <v>29574</v>
+      </c>
       <c r="C513" s="6">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="D513">
+        <v>29641</v>
+      </c>
+      <c r="D513" s="8" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E513" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G513" t="s">
         <v>10</v>
       </c>
       <c r="I513" s="9">
         <f t="shared" ref="I513:I546" si="47">(C513-B513)</f>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J513" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K513" s="6">
         <f t="shared" si="45"/>
@@ -17554,26 +17636,32 @@
       </c>
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A514" s="6"/>
-      <c r="B514" s="6"/>
+      <c r="A514" s="10">
+        <v>43838</v>
+      </c>
+      <c r="B514" s="6">
+        <v>29641</v>
+      </c>
       <c r="C514" s="6">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="D514">
-        <f t="shared" si="42"/>
-        <v>0</v>
+        <v>29711</v>
+      </c>
+      <c r="D514" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E514" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="G514" t="s">
         <v>10</v>
       </c>
       <c r="I514" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J514" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="K514" s="6">
         <f t="shared" si="45"/>
@@ -17582,25 +17670,30 @@
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="6"/>
-      <c r="B515" s="6"/>
+      <c r="B515" s="6">
+        <v>29711</v>
+      </c>
       <c r="C515" s="6">
         <f>B516</f>
-        <v>0</v>
-      </c>
-      <c r="D515">
+        <v>29782</v>
+      </c>
+      <c r="D515" s="8" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>Meerkoetenweg 26, 8218 NA, Lelystad</v>
+      </c>
+      <c r="E515" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G515" t="s">
         <v>10</v>
       </c>
       <c r="I515" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="J515" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="K515" s="6">
         <f t="shared" si="45"/>
@@ -17608,26 +17701,33 @@
       </c>
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A516" s="6"/>
-      <c r="B516" s="6"/>
+      <c r="A516" s="10">
+        <v>43840</v>
+      </c>
+      <c r="B516" s="6">
+        <v>29782</v>
+      </c>
       <c r="C516" s="6">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="D516">
+        <v>29849</v>
+      </c>
+      <c r="D516" s="8" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E516" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="G516" t="s">
         <v>10</v>
       </c>
       <c r="I516" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J516" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K516" s="6">
         <f t="shared" si="45"/>
@@ -17636,25 +17736,30 @@
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="6"/>
-      <c r="B517" s="6"/>
+      <c r="B517" s="6">
+        <v>29849</v>
+      </c>
       <c r="C517" s="6">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="D517">
+      <c r="D517" s="8" t="str">
         <f t="shared" ref="D517:D580" si="48">E516</f>
-        <v>0</v>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E517" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G517" t="s">
         <v>10</v>
       </c>
       <c r="I517" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>-29849</v>
       </c>
       <c r="J517" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>-29849</v>
       </c>
       <c r="K517" s="6">
         <f t="shared" si="45"/>
@@ -17668,9 +17773,9 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="D518">
+      <c r="D518" s="8" t="str">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="G518" t="s">
         <v>10</v>
@@ -17695,7 +17800,7 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="D519">
+      <c r="D519" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -17722,7 +17827,7 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="D520">
+      <c r="D520" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -17749,7 +17854,7 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="D521">
+      <c r="D521" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -17776,7 +17881,7 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="D522">
+      <c r="D522" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -17803,7 +17908,7 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="D523">
+      <c r="D523" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -17830,7 +17935,7 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="D524">
+      <c r="D524" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -17857,7 +17962,7 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="D525">
+      <c r="D525" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -17884,7 +17989,7 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="D526">
+      <c r="D526" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -17911,7 +18016,7 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="D527">
+      <c r="D527" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -17938,7 +18043,7 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="D528">
+      <c r="D528" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -17965,7 +18070,7 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="D529">
+      <c r="D529" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -17992,7 +18097,7 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="D530">
+      <c r="D530" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18019,7 +18124,7 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="D531">
+      <c r="D531" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18046,7 +18151,7 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="D532">
+      <c r="D532" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18073,7 +18178,7 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="D533">
+      <c r="D533" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18100,7 +18205,7 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="D534">
+      <c r="D534" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18127,7 +18232,7 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="D535">
+      <c r="D535" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18154,7 +18259,7 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="D536">
+      <c r="D536" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18181,7 +18286,7 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="D537">
+      <c r="D537" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18208,7 +18313,7 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="D538">
+      <c r="D538" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18235,7 +18340,7 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="D539">
+      <c r="D539" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18262,7 +18367,7 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="D540">
+      <c r="D540" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18289,7 +18394,7 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="D541">
+      <c r="D541" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18316,7 +18421,7 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="D542">
+      <c r="D542" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18343,7 +18448,7 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="D543">
+      <c r="D543" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18370,7 +18475,7 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="D544">
+      <c r="D544" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18397,7 +18502,7 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="D545">
+      <c r="D545" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18424,7 +18529,7 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="D546">
+      <c r="D546" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18451,7 +18556,7 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="D547">
+      <c r="D547" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18466,7 +18571,7 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="D548">
+      <c r="D548" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18479,7 +18584,7 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="D549">
+      <c r="D549" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18492,7 +18597,7 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="D550">
+      <c r="D550" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18505,7 +18610,7 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="D551">
+      <c r="D551" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18518,7 +18623,7 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="D552">
+      <c r="D552" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18531,7 +18636,7 @@
         <f t="shared" ref="C553:C609" si="50">B554</f>
         <v>0</v>
       </c>
-      <c r="D553">
+      <c r="D553" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18544,7 +18649,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D554">
+      <c r="D554" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18557,7 +18662,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D555">
+      <c r="D555" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18570,7 +18675,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D556">
+      <c r="D556" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18583,7 +18688,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D557">
+      <c r="D557" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18596,7 +18701,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D558">
+      <c r="D558" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18609,7 +18714,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D559">
+      <c r="D559" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18622,7 +18727,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D560">
+      <c r="D560" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18635,7 +18740,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D561">
+      <c r="D561" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18648,7 +18753,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D562">
+      <c r="D562" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18661,7 +18766,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D563">
+      <c r="D563" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18674,7 +18779,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D564">
+      <c r="D564" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18687,7 +18792,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D565">
+      <c r="D565" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18700,7 +18805,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D566">
+      <c r="D566" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18713,7 +18818,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D567">
+      <c r="D567" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18726,7 +18831,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D568">
+      <c r="D568" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18739,7 +18844,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D569">
+      <c r="D569" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18752,7 +18857,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D570">
+      <c r="D570" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18765,7 +18870,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D571">
+      <c r="D571" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18778,7 +18883,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D572">
+      <c r="D572" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18791,7 +18896,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D573">
+      <c r="D573" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18804,7 +18909,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D574">
+      <c r="D574" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18817,7 +18922,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D575">
+      <c r="D575" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18830,7 +18935,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D576">
+      <c r="D576" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18843,7 +18948,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D577">
+      <c r="D577" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18856,7 +18961,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D578">
+      <c r="D578" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18869,7 +18974,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D579">
+      <c r="D579" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18882,7 +18987,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D580">
+      <c r="D580" s="8">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
@@ -18895,7 +19000,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D581">
+      <c r="D581" s="8">
         <f t="shared" ref="D581:D612" si="51">E580</f>
         <v>0</v>
       </c>
@@ -18908,7 +19013,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D582">
+      <c r="D582" s="8">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
@@ -18921,7 +19026,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D583">
+      <c r="D583" s="8">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
@@ -18934,7 +19039,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D584">
+      <c r="D584" s="8">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
@@ -18947,7 +19052,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D585">
+      <c r="D585" s="8">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
@@ -18960,7 +19065,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D586">
+      <c r="D586" s="8">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
@@ -18973,7 +19078,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D587">
+      <c r="D587" s="8">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
@@ -18986,7 +19091,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D588">
+      <c r="D588" s="8">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
@@ -18999,7 +19104,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D589">
+      <c r="D589" s="8">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
@@ -19012,7 +19117,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D590">
+      <c r="D590" s="8">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
@@ -19025,7 +19130,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D591">
+      <c r="D591" s="8">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
@@ -19038,7 +19143,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D592">
+      <c r="D592" s="8">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
@@ -19051,7 +19156,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D593">
+      <c r="D593" s="8">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
@@ -19064,7 +19169,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D594">
+      <c r="D594" s="8">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
@@ -19077,7 +19182,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D595">
+      <c r="D595" s="8">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
@@ -19090,7 +19195,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D596">
+      <c r="D596" s="8">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
@@ -19103,7 +19208,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D597">
+      <c r="D597" s="8">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
@@ -19116,7 +19221,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D598">
+      <c r="D598" s="8">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
@@ -19129,7 +19234,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D599">
+      <c r="D599" s="8">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
@@ -19142,7 +19247,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D600">
+      <c r="D600" s="8">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
@@ -19155,7 +19260,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D601">
+      <c r="D601" s="8">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
@@ -19168,7 +19273,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D602">
+      <c r="D602" s="8">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
@@ -19181,7 +19286,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D603">
+      <c r="D603" s="8">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
@@ -19194,7 +19299,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D604">
+      <c r="D604" s="8">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
@@ -19207,7 +19312,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D605">
+      <c r="D605" s="8">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
@@ -19220,7 +19325,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D606">
+      <c r="D606" s="8">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
@@ -19233,7 +19338,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D607">
+      <c r="D607" s="8">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
@@ -19246,7 +19351,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D608">
+      <c r="D608" s="8">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
@@ -19259,7 +19364,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="D609">
+      <c r="D609" s="8">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
@@ -19268,7 +19373,7 @@
       </c>
     </row>
     <row r="610" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D610">
+      <c r="D610" s="8">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
@@ -19277,7 +19382,7 @@
       </c>
     </row>
     <row r="611" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D611">
+      <c r="D611" s="8">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
@@ -19286,7 +19391,7 @@
       </c>
     </row>
     <row r="612" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D612">
+      <c r="D612" s="8">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224E4F6A-8D8F-4C63-B560-577F17BDBD3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007D09AA-D390-4C59-AEE9-53B402C2058A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="69">
   <si>
     <t>Datum</t>
   </si>
@@ -705,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:L613"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A473" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A509" sqref="A509"/>
+    <sheetView tabSelected="1" topLeftCell="A493" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F528" sqref="F528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17741,7 +17741,7 @@
       </c>
       <c r="C517" s="6">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>29917</v>
       </c>
       <c r="D517" s="8" t="str">
         <f t="shared" ref="D517:D580" si="48">E516</f>
@@ -17755,11 +17755,11 @@
       </c>
       <c r="I517" s="9">
         <f t="shared" si="47"/>
-        <v>-29849</v>
+        <v>68</v>
       </c>
       <c r="J517" s="6">
         <f t="shared" si="44"/>
-        <v>-29849</v>
+        <v>68</v>
       </c>
       <c r="K517" s="6">
         <f t="shared" si="45"/>
@@ -17767,26 +17767,33 @@
       </c>
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A518" s="6"/>
-      <c r="B518" s="6"/>
+      <c r="A518" s="10">
+        <v>43843</v>
+      </c>
+      <c r="B518" s="6">
+        <v>29917</v>
+      </c>
       <c r="C518" s="6">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>30011</v>
       </c>
       <c r="D518" s="8" t="str">
         <f t="shared" si="48"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
+      <c r="E518" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="G518" t="s">
         <v>10</v>
       </c>
       <c r="I518" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="J518" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="K518" s="6">
         <f t="shared" si="45"/>
@@ -17795,25 +17802,30 @@
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="6"/>
-      <c r="B519" s="6"/>
+      <c r="B519" s="6">
+        <v>30011</v>
+      </c>
       <c r="C519" s="6">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="D519" s="8">
+        <v>30105</v>
+      </c>
+      <c r="D519" s="8" t="str">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>Hogeweg 3, 5301 LB, Zaltbommel</v>
+      </c>
+      <c r="E519" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G519" t="s">
         <v>10</v>
       </c>
       <c r="I519" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="J519" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="K519" s="6">
         <f t="shared" si="45"/>
@@ -17821,26 +17833,33 @@
       </c>
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A520" s="6"/>
-      <c r="B520" s="6"/>
+      <c r="A520" s="10">
+        <v>43844</v>
+      </c>
+      <c r="B520" s="6">
+        <v>30105</v>
+      </c>
       <c r="C520" s="6">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="D520" s="8">
+        <v>30173</v>
+      </c>
+      <c r="D520" s="8" t="str">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E520" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="G520" t="s">
         <v>10</v>
       </c>
       <c r="I520" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J520" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K520" s="6">
         <f t="shared" si="45"/>
@@ -17849,25 +17868,30 @@
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="6"/>
-      <c r="B521" s="6"/>
+      <c r="B521" s="6">
+        <v>30173</v>
+      </c>
       <c r="C521" s="6">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="D521" s="8">
+        <v>30240</v>
+      </c>
+      <c r="D521" s="8" t="str">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E521" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G521" t="s">
         <v>10</v>
       </c>
       <c r="I521" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J521" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K521" s="6">
         <f t="shared" si="45"/>
@@ -17875,26 +17899,33 @@
       </c>
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A522" s="6"/>
-      <c r="B522" s="6"/>
+      <c r="A522" s="10">
+        <v>43845</v>
+      </c>
+      <c r="B522" s="6">
+        <v>30240</v>
+      </c>
       <c r="C522" s="6">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="D522" s="8">
+        <v>30310</v>
+      </c>
+      <c r="D522" s="8" t="str">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E522" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="G522" t="s">
         <v>10</v>
       </c>
       <c r="I522" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J522" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="K522" s="6">
         <f t="shared" si="45"/>
@@ -17903,25 +17934,30 @@
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="6"/>
-      <c r="B523" s="6"/>
+      <c r="B523" s="6">
+        <v>30310</v>
+      </c>
       <c r="C523" s="6">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="D523" s="8">
+        <v>30380</v>
+      </c>
+      <c r="D523" s="8" t="str">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>Meerkoetenweg 26, 8218 NA, Lelystad</v>
+      </c>
+      <c r="E523" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G523" t="s">
         <v>10</v>
       </c>
       <c r="I523" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="J523" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="K523" s="6">
         <f t="shared" si="45"/>
@@ -17929,26 +17965,33 @@
       </c>
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A524" s="6"/>
-      <c r="B524" s="6"/>
+      <c r="A524" s="10">
+        <v>43847</v>
+      </c>
+      <c r="B524" s="6">
+        <v>30380</v>
+      </c>
       <c r="C524" s="6">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="D524" s="8">
+        <v>30448</v>
+      </c>
+      <c r="D524" s="8" t="str">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E524" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="G524" t="s">
         <v>10</v>
       </c>
       <c r="I524" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J524" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K524" s="6">
         <f t="shared" si="45"/>
@@ -17957,25 +18000,30 @@
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="6"/>
-      <c r="B525" s="6"/>
+      <c r="B525" s="6">
+        <v>30448</v>
+      </c>
       <c r="C525" s="6">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="D525" s="8">
+        <v>30516</v>
+      </c>
+      <c r="D525" s="8" t="str">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E525" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G525" t="s">
         <v>10</v>
       </c>
       <c r="I525" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J525" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K525" s="6">
         <f t="shared" si="45"/>
@@ -17983,26 +18031,33 @@
       </c>
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A526" s="6"/>
-      <c r="B526" s="6"/>
+      <c r="A526" s="10">
+        <v>43850</v>
+      </c>
+      <c r="B526" s="6">
+        <v>30516</v>
+      </c>
       <c r="C526" s="6">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="D526" s="8">
+        <v>30584</v>
+      </c>
+      <c r="D526" s="8" t="str">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E526" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="G526" t="s">
         <v>10</v>
       </c>
       <c r="I526" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J526" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K526" s="6">
         <f t="shared" si="45"/>
@@ -18011,25 +18066,30 @@
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="6"/>
-      <c r="B527" s="6"/>
+      <c r="B527" s="6">
+        <v>30584</v>
+      </c>
       <c r="C527" s="6">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="D527" s="8">
+        <v>30652</v>
+      </c>
+      <c r="D527" s="8" t="str">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E527" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G527" t="s">
         <v>10</v>
       </c>
       <c r="I527" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J527" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K527" s="6">
         <f t="shared" si="45"/>
@@ -18037,26 +18097,32 @@
       </c>
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A528" s="6"/>
-      <c r="B528" s="6"/>
+      <c r="A528" s="10">
+        <v>43851</v>
+      </c>
+      <c r="B528" s="6">
+        <v>30652</v>
+      </c>
       <c r="C528" s="6">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="D528" s="8">
-        <f t="shared" si="48"/>
-        <v>0</v>
+        <v>30695</v>
+      </c>
+      <c r="D528" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E528" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="G528" t="s">
         <v>10</v>
       </c>
       <c r="I528" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="J528" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="K528" s="6">
         <f t="shared" si="45"/>
@@ -18065,25 +18131,30 @@
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="6"/>
-      <c r="B529" s="6"/>
+      <c r="B529" s="6">
+        <v>30695</v>
+      </c>
       <c r="C529" s="6">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="D529" s="8">
+        <v>30738</v>
+      </c>
+      <c r="D529" s="8" t="str">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>Veluwezoom 4, 1327AG, Almere</v>
+      </c>
+      <c r="E529" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G529" t="s">
         <v>10</v>
       </c>
       <c r="I529" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="J529" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="K529" s="6">
         <f t="shared" si="45"/>
@@ -18092,25 +18163,27 @@
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="6"/>
-      <c r="B530" s="6"/>
+      <c r="B530" s="6">
+        <v>30738</v>
+      </c>
       <c r="C530" s="6">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="D530" s="8">
+      <c r="D530" s="8" t="str">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="G530" t="s">
         <v>10</v>
       </c>
       <c r="I530" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>-30738</v>
       </c>
       <c r="J530" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>-30738</v>
       </c>
       <c r="K530" s="6">
         <f t="shared" si="45"/>

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007D09AA-D390-4C59-AEE9-53B402C2058A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E1225E-42AB-4856-A2B0-FB4D4C4BBB8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="70">
   <si>
     <t>Datum</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t>Privé parkeerplaats bezet</t>
+  </si>
+  <si>
+    <t>Maliebaan 26, Amsterdam</t>
   </si>
 </sst>
 </file>
@@ -706,7 +709,7 @@
   <dimension ref="A1:L613"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A493" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F528" sqref="F528"/>
+      <selection activeCell="F533" sqref="F533"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17534,7 +17537,7 @@
       </c>
       <c r="L510" s="4">
         <f>SUM(K506:K1000)</f>
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="511" spans="1:12" x14ac:dyDescent="0.25">
@@ -18162,28 +18165,33 @@
       </c>
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A530" s="6"/>
+      <c r="A530" s="10">
+        <v>43853</v>
+      </c>
       <c r="B530" s="6">
         <v>30738</v>
       </c>
       <c r="C530" s="6">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>30806</v>
       </c>
       <c r="D530" s="8" t="str">
         <f t="shared" si="48"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
+      <c r="E530" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="G530" t="s">
         <v>10</v>
       </c>
       <c r="I530" s="9">
         <f t="shared" si="47"/>
-        <v>-30738</v>
+        <v>68</v>
       </c>
       <c r="J530" s="6">
         <f t="shared" si="44"/>
-        <v>-30738</v>
+        <v>68</v>
       </c>
       <c r="K530" s="6">
         <f t="shared" si="45"/>
@@ -18192,25 +18200,30 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="6"/>
-      <c r="B531" s="6"/>
+      <c r="B531" s="6">
+        <v>30806</v>
+      </c>
       <c r="C531" s="6">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="D531" s="8">
+        <v>30874</v>
+      </c>
+      <c r="D531" s="8" t="str">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E531" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G531" t="s">
         <v>10</v>
       </c>
       <c r="I531" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J531" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K531" s="6">
         <f t="shared" si="45"/>
@@ -18218,22 +18231,29 @@
       </c>
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A532" s="6"/>
-      <c r="B532" s="6"/>
+      <c r="A532" s="10">
+        <v>43854</v>
+      </c>
+      <c r="B532" s="6">
+        <v>30874</v>
+      </c>
       <c r="C532" s="6">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="D532" s="8">
+        <v>30899</v>
+      </c>
+      <c r="D532" s="8" t="str">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E532" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="G532" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I532" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J532" s="6">
         <f t="shared" si="44"/>
@@ -18241,26 +18261,33 @@
       </c>
       <c r="K532" s="6">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A533" s="6"/>
-      <c r="B533" s="6"/>
+      <c r="A533" s="10">
+        <v>43855</v>
+      </c>
+      <c r="B533" s="6">
+        <v>30899</v>
+      </c>
       <c r="C533" s="6">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="D533" s="8">
+        <v>30925</v>
+      </c>
+      <c r="D533" s="8" t="str">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>Maliebaan 26, Amsterdam</v>
+      </c>
+      <c r="E533" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G533" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I533" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J533" s="6">
         <f t="shared" si="44"/>
@@ -18268,30 +18295,36 @@
       </c>
       <c r="K533" s="6">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A534" s="6"/>
-      <c r="B534" s="6"/>
+      <c r="A534" s="10">
+        <v>43857</v>
+      </c>
+      <c r="B534" s="6">
+        <v>30925</v>
+      </c>
       <c r="C534" s="6">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="D534" s="8">
-        <f t="shared" si="48"/>
-        <v>0</v>
+        <v>30993</v>
+      </c>
+      <c r="D534" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E534" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="G534" t="s">
         <v>10</v>
       </c>
       <c r="I534" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J534" s="6">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K534" s="6">
         <f t="shared" si="45"/>
@@ -18300,25 +18333,30 @@
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="6"/>
-      <c r="B535" s="6"/>
+      <c r="B535" s="6">
+        <v>30993</v>
+      </c>
       <c r="C535" s="6">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="D535" s="8">
+      <c r="D535" s="8" t="str">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E535" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G535" t="s">
         <v>10</v>
       </c>
       <c r="I535" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>-30993</v>
       </c>
       <c r="J535" s="6">
         <f t="shared" ref="J535:J542" si="49">IF(AND(G535 = "Zakelijk", H535 = ""), I535, IF(AND(G535 = "Zakelijk", NOT(H535 = "")), I535 - H535, 0))</f>
-        <v>0</v>
+        <v>-30993</v>
       </c>
       <c r="K535" s="6">
         <f t="shared" si="45"/>
@@ -18332,9 +18370,9 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="D536" s="8">
+      <c r="D536" s="8" t="str">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="G536" t="s">
         <v>10</v>

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E1225E-42AB-4856-A2B0-FB4D4C4BBB8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12F01CB-BAAD-4628-993E-C59A9F4244F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
   <sheets>
     <sheet name="Kilometers" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="70">
   <si>
     <t>Datum</t>
   </si>
@@ -708,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:L613"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A493" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F533" sqref="F533"/>
+    <sheetView tabSelected="1" topLeftCell="A512" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F538" sqref="F538"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18338,7 +18338,7 @@
       </c>
       <c r="C535" s="6">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>31060</v>
       </c>
       <c r="D535" s="8" t="str">
         <f t="shared" si="48"/>
@@ -18352,11 +18352,11 @@
       </c>
       <c r="I535" s="9">
         <f t="shared" si="47"/>
-        <v>-30993</v>
+        <v>67</v>
       </c>
       <c r="J535" s="6">
         <f t="shared" ref="J535:J542" si="49">IF(AND(G535 = "Zakelijk", H535 = ""), I535, IF(AND(G535 = "Zakelijk", NOT(H535 = "")), I535 - H535, 0))</f>
-        <v>-30993</v>
+        <v>67</v>
       </c>
       <c r="K535" s="6">
         <f t="shared" si="45"/>
@@ -18364,26 +18364,33 @@
       </c>
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A536" s="6"/>
-      <c r="B536" s="6"/>
+      <c r="A536" s="10">
+        <v>43858</v>
+      </c>
+      <c r="B536" s="6">
+        <v>31060</v>
+      </c>
       <c r="C536" s="6">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>31155</v>
       </c>
       <c r="D536" s="8" t="str">
         <f t="shared" si="48"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
+      <c r="E536" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="G536" t="s">
         <v>10</v>
       </c>
       <c r="I536" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="J536" s="6">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="K536" s="6">
         <f t="shared" si="45"/>
@@ -18392,25 +18399,30 @@
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="6"/>
-      <c r="B537" s="6"/>
+      <c r="B537" s="6">
+        <v>31155</v>
+      </c>
       <c r="C537" s="6">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="D537" s="8">
+        <v>31189</v>
+      </c>
+      <c r="D537" s="8" t="str">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>Hogeweg 3, 5301 LB, Zaltbommel</v>
+      </c>
+      <c r="E537" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="G537" t="s">
         <v>10</v>
       </c>
       <c r="I537" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J537" s="6">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="K537" s="6">
         <f t="shared" si="45"/>
@@ -18419,25 +18431,30 @@
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="6"/>
-      <c r="B538" s="6"/>
+      <c r="B538" s="6">
+        <v>31189</v>
+      </c>
       <c r="C538" s="6">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="D538" s="8">
+      <c r="D538" s="8" t="str">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E538" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G538" t="s">
         <v>10</v>
       </c>
       <c r="I538" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>-31189</v>
       </c>
       <c r="J538" s="6">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>-31189</v>
       </c>
       <c r="K538" s="6">
         <f t="shared" si="45"/>
@@ -18451,9 +18468,9 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="D539" s="8">
+      <c r="D539" s="8" t="str">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="G539" t="s">
         <v>10</v>

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12F01CB-BAAD-4628-993E-C59A9F4244F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8FFAEC-AF13-4B8F-B356-94479F6A869E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="70">
   <si>
     <t>Datum</t>
   </si>
@@ -708,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:L613"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A512" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F538" sqref="F538"/>
+    <sheetView tabSelected="1" topLeftCell="A516" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A543" sqref="A543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18436,7 +18436,7 @@
       </c>
       <c r="C538" s="6">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>31257</v>
       </c>
       <c r="D538" s="8" t="str">
         <f t="shared" si="48"/>
@@ -18450,11 +18450,11 @@
       </c>
       <c r="I538" s="9">
         <f t="shared" si="47"/>
-        <v>-31189</v>
+        <v>68</v>
       </c>
       <c r="J538" s="6">
         <f t="shared" si="49"/>
-        <v>-31189</v>
+        <v>68</v>
       </c>
       <c r="K538" s="6">
         <f t="shared" si="45"/>
@@ -18462,26 +18462,33 @@
       </c>
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A539" s="6"/>
-      <c r="B539" s="6"/>
+      <c r="A539" s="10">
+        <v>43860</v>
+      </c>
+      <c r="B539" s="6">
+        <v>31257</v>
+      </c>
       <c r="C539" s="6">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>31325</v>
       </c>
       <c r="D539" s="8" t="str">
         <f t="shared" si="48"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
+      <c r="E539" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="G539" t="s">
         <v>10</v>
       </c>
       <c r="I539" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J539" s="6">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K539" s="6">
         <f t="shared" si="45"/>
@@ -18490,25 +18497,30 @@
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="6"/>
-      <c r="B540" s="6"/>
+      <c r="B540" s="6">
+        <v>31325</v>
+      </c>
       <c r="C540" s="6">
         <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="D540" s="8">
+        <v>31460</v>
+      </c>
+      <c r="D540" s="8" t="str">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E540" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G540" t="s">
         <v>10</v>
       </c>
       <c r="I540" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="J540" s="6">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="K540" s="6">
         <f t="shared" si="45"/>
@@ -18516,26 +18528,33 @@
       </c>
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A541" s="6"/>
-      <c r="B541" s="6"/>
+      <c r="A541" s="10">
+        <v>43864</v>
+      </c>
+      <c r="B541" s="6">
+        <v>31460</v>
+      </c>
       <c r="C541" s="6">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="D541" s="8">
+      <c r="D541" s="8" t="str">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E541" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="G541" t="s">
         <v>10</v>
       </c>
       <c r="I541" s="9">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>-31460</v>
       </c>
       <c r="J541" s="6">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>-31460</v>
       </c>
       <c r="K541" s="6">
         <f t="shared" si="45"/>
@@ -18549,9 +18568,12 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="D542" s="8">
+      <c r="D542" s="8" t="str">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E542" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="G542" t="s">
         <v>10</v>
@@ -18576,9 +18598,9 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="D543" s="8">
+      <c r="D543" s="8" t="str">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="G543" t="s">
         <v>10</v>

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B546C546-0214-47B7-AFC3-FAC27ECCE998}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AB3F9F-A5D2-4F78-8CD2-71BDF92F840F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
   <sheets>
     <sheet name="Kilometers" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="70">
   <si>
     <t>Datum</t>
   </si>
@@ -715,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:L613"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A534" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D554" sqref="D554"/>
+    <sheetView tabSelected="1" topLeftCell="A530" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E561" sqref="E561"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17542,7 +17542,7 @@
         <v>10</v>
       </c>
       <c r="I513" s="8">
-        <f t="shared" ref="I513:I552" si="47">(C513-B513)</f>
+        <f t="shared" ref="I513:I560" si="47">(C513-B513)</f>
         <v>67</v>
       </c>
       <c r="J513" s="5">
@@ -18521,11 +18521,11 @@
         <v>68</v>
       </c>
       <c r="J543" s="5">
-        <f>IF(AND(G543 = "Zakelijk", H543 = ""), I543, IF(AND(G543 = "Zakelijk", NOT(H543 = "")), I543 - H543, 0))</f>
+        <f t="shared" ref="J543:J560" si="50">IF(AND(G543 = "Zakelijk", H543 = ""), I543, IF(AND(G543 = "Zakelijk", NOT(H543 = "")), I543 - H543, 0))</f>
         <v>68</v>
       </c>
       <c r="K543" s="5">
-        <f>IF(AND(G543 = "Zakelijk", NOT(H543 = "")), H543, IF(G543 = "Privé", I543, 0))</f>
+        <f t="shared" ref="K543:K560" si="51">IF(AND(G543 = "Zakelijk", NOT(H543 = "")), H543, IF(G543 = "Privé", I543, 0))</f>
         <v>0</v>
       </c>
     </row>
@@ -18552,11 +18552,11 @@
         <v>67</v>
       </c>
       <c r="J544" s="5">
-        <f>IF(AND(G544 = "Zakelijk", H544 = ""), I544, IF(AND(G544 = "Zakelijk", NOT(H544 = "")), I544 - H544, 0))</f>
+        <f t="shared" si="50"/>
         <v>67</v>
       </c>
       <c r="K544" s="5">
-        <f>IF(AND(G544 = "Zakelijk", NOT(H544 = "")), H544, IF(G544 = "Privé", I544, 0))</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
@@ -18586,11 +18586,11 @@
         <v>68</v>
       </c>
       <c r="J545" s="5">
-        <f>IF(AND(G545 = "Zakelijk", H545 = ""), I545, IF(AND(G545 = "Zakelijk", NOT(H545 = "")), I545 - H545, 0))</f>
+        <f t="shared" si="50"/>
         <v>68</v>
       </c>
       <c r="K545" s="5">
-        <f>IF(AND(G545 = "Zakelijk", NOT(H545 = "")), H545, IF(G545 = "Privé", I545, 0))</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
@@ -18617,11 +18617,11 @@
         <v>68</v>
       </c>
       <c r="J546" s="5">
-        <f>IF(AND(G546 = "Zakelijk", H546 = ""), I546, IF(AND(G546 = "Zakelijk", NOT(H546 = "")), I546 - H546, 0))</f>
+        <f t="shared" si="50"/>
         <v>68</v>
       </c>
       <c r="K546" s="5">
-        <f>IF(AND(G546 = "Zakelijk", NOT(H546 = "")), H546, IF(G546 = "Privé", I546, 0))</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
@@ -18651,11 +18651,11 @@
         <v>67</v>
       </c>
       <c r="J547" s="14">
-        <f>IF(AND(G547 = "Zakelijk", H547 = ""), I547, IF(AND(G547 = "Zakelijk", NOT(H547 = "")), I547 - H547, 0))</f>
+        <f t="shared" si="50"/>
         <v>67</v>
       </c>
       <c r="K547" s="14">
-        <f>IF(AND(G547 = "Zakelijk", NOT(H547 = "")), H547, IF(G547 = "Privé", I547, 0))</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
@@ -18682,11 +18682,11 @@
         <v>68</v>
       </c>
       <c r="J548" s="14">
-        <f>IF(AND(G548 = "Zakelijk", H548 = ""), I548, IF(AND(G548 = "Zakelijk", NOT(H548 = "")), I548 - H548, 0))</f>
+        <f t="shared" si="50"/>
         <v>68</v>
       </c>
       <c r="K548" s="14">
-        <f>IF(AND(G548 = "Zakelijk", NOT(H548 = "")), H548, IF(G548 = "Privé", I548, 0))</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
@@ -18716,11 +18716,11 @@
         <v>68</v>
       </c>
       <c r="J549" s="14">
-        <f>IF(AND(G549 = "Zakelijk", H549 = ""), I549, IF(AND(G549 = "Zakelijk", NOT(H549 = "")), I549 - H549, 0))</f>
+        <f t="shared" si="50"/>
         <v>68</v>
       </c>
       <c r="K549" s="14">
-        <f>IF(AND(G549 = "Zakelijk", NOT(H549 = "")), H549, IF(G549 = "Privé", I549, 0))</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
@@ -18747,11 +18747,11 @@
         <v>67</v>
       </c>
       <c r="J550" s="14">
-        <f>IF(AND(G550 = "Zakelijk", H550 = ""), I550, IF(AND(G550 = "Zakelijk", NOT(H550 = "")), I550 - H550, 0))</f>
+        <f t="shared" si="50"/>
         <v>67</v>
       </c>
       <c r="K550" s="14">
-        <f>IF(AND(G550 = "Zakelijk", NOT(H550 = "")), H550, IF(G550 = "Privé", I550, 0))</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
@@ -18781,11 +18781,11 @@
         <v>68</v>
       </c>
       <c r="J551" s="14">
-        <f>IF(AND(G551 = "Zakelijk", H551 = ""), I551, IF(AND(G551 = "Zakelijk", NOT(H551 = "")), I551 - H551, 0))</f>
+        <f t="shared" si="50"/>
         <v>68</v>
       </c>
       <c r="K551" s="14">
-        <f>IF(AND(G551 = "Zakelijk", NOT(H551 = "")), H551, IF(G551 = "Privé", I551, 0))</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
@@ -18795,55 +18795,73 @@
       </c>
       <c r="C552" s="5">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>32140</v>
       </c>
       <c r="D552" s="7" t="str">
         <f t="shared" si="48"/>
         <v>Duwboot 20, Houten</v>
       </c>
       <c r="E552" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G552" t="s">
         <v>10</v>
       </c>
       <c r="I552" s="14">
         <f t="shared" si="47"/>
-        <v>-32137</v>
+        <v>3</v>
       </c>
       <c r="J552" s="14">
-        <f>IF(AND(G552 = "Zakelijk", H552 = ""), I552, IF(AND(G552 = "Zakelijk", NOT(H552 = "")), I552 - H552, 0))</f>
-        <v>-32137</v>
+        <f t="shared" si="50"/>
+        <v>3</v>
       </c>
       <c r="K552" s="14">
-        <f>IF(AND(G552 = "Zakelijk", NOT(H552 = "")), H552, IF(G552 = "Privé", I552, 0))</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B553" s="14">
+        <v>32140</v>
+      </c>
       <c r="C553" s="5">
-        <f t="shared" ref="C553:C609" si="50">B554</f>
-        <v>0</v>
+        <f t="shared" ref="C553:C609" si="52">B554</f>
+        <v>32141</v>
       </c>
       <c r="D553" s="7" t="str">
         <f t="shared" si="48"/>
-        <v>De Boeg 26, Zaandam</v>
+        <v>Waterveste 4, Houten</v>
       </c>
       <c r="E553" s="6" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G553" t="s">
         <v>10</v>
       </c>
+      <c r="I553" s="14">
+        <f t="shared" si="47"/>
+        <v>1</v>
+      </c>
+      <c r="J553" s="14">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+      <c r="K553" s="14">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B554" s="14">
+        <v>32141</v>
+      </c>
       <c r="C554" s="5">
-        <f t="shared" si="50"/>
-        <v>0</v>
+        <f t="shared" si="52"/>
+        <v>32209</v>
       </c>
       <c r="D554" s="7" t="str">
         <f t="shared" si="48"/>
-        <v>Waterveste 4, Houten</v>
+        <v>Duwboot 20, Houten</v>
       </c>
       <c r="E554" s="6" t="s">
         <v>7</v>
@@ -18851,93 +18869,222 @@
       <c r="G554" t="s">
         <v>10</v>
       </c>
+      <c r="I554" s="14">
+        <f t="shared" si="47"/>
+        <v>68</v>
+      </c>
+      <c r="J554" s="14">
+        <f t="shared" si="50"/>
+        <v>68</v>
+      </c>
+      <c r="K554" s="14">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A555" s="16">
+        <v>43875</v>
+      </c>
+      <c r="B555" s="14">
+        <v>32209</v>
+      </c>
       <c r="C555" s="5">
-        <f t="shared" si="50"/>
-        <v>0</v>
+        <f t="shared" si="52"/>
+        <v>32277</v>
       </c>
       <c r="D555" s="7" t="str">
         <f t="shared" si="48"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
+      <c r="E555" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="G555" t="s">
         <v>10</v>
       </c>
+      <c r="I555" s="14">
+        <f t="shared" si="47"/>
+        <v>68</v>
+      </c>
+      <c r="J555" s="14">
+        <f t="shared" si="50"/>
+        <v>68</v>
+      </c>
+      <c r="K555" s="14">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B556" s="14">
+        <v>32277</v>
+      </c>
       <c r="C556" s="5">
+        <f t="shared" si="52"/>
+        <v>32344</v>
+      </c>
+      <c r="D556" s="7" t="str">
+        <f t="shared" si="48"/>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E556" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G556" t="s">
+        <v>10</v>
+      </c>
+      <c r="I556" s="14">
+        <f t="shared" si="47"/>
+        <v>67</v>
+      </c>
+      <c r="J556" s="14">
         <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="D556" s="7">
+        <v>67</v>
+      </c>
+      <c r="K556" s="14">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A557" s="16">
+        <v>43878</v>
+      </c>
+      <c r="B557" s="14">
+        <v>32344</v>
+      </c>
+      <c r="C557" s="5">
+        <f t="shared" si="52"/>
+        <v>32414</v>
+      </c>
+      <c r="D557" s="7" t="str">
         <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="G556" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C557" s="5">
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E557" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G557" t="s">
+        <v>10</v>
+      </c>
+      <c r="I557" s="14">
+        <f t="shared" si="47"/>
+        <v>70</v>
+      </c>
+      <c r="J557" s="14">
         <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="D557" s="7">
+        <v>70</v>
+      </c>
+      <c r="K557" s="14">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B558" s="14">
+        <v>32414</v>
+      </c>
+      <c r="C558" s="5">
+        <f t="shared" si="52"/>
+        <v>32484</v>
+      </c>
+      <c r="D558" s="7" t="str">
         <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="G557" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C558" s="5">
+        <v>Meerkoetenweg 26, 8218 NA, Lelystad</v>
+      </c>
+      <c r="E558" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G558" t="s">
+        <v>10</v>
+      </c>
+      <c r="I558" s="14">
+        <f t="shared" si="47"/>
+        <v>70</v>
+      </c>
+      <c r="J558" s="14">
         <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="D558" s="7">
+        <v>70</v>
+      </c>
+      <c r="K558" s="14">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A559" s="16">
+        <v>43880</v>
+      </c>
+      <c r="B559" s="14">
+        <v>32484</v>
+      </c>
+      <c r="C559" s="5">
+        <f t="shared" si="52"/>
+        <v>32552</v>
+      </c>
+      <c r="D559" s="7" t="str">
         <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="G558" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C559" s="5">
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E559" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G559" t="s">
+        <v>10</v>
+      </c>
+      <c r="I559" s="14">
+        <f t="shared" si="47"/>
+        <v>68</v>
+      </c>
+      <c r="J559" s="14">
         <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="D559" s="7">
+        <v>68</v>
+      </c>
+      <c r="K559" s="14">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B560" s="14">
+        <v>32552</v>
+      </c>
+      <c r="C560" s="5">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="D560" s="7" t="str">
         <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="G559" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C560" s="5">
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E560" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G560" t="s">
+        <v>10</v>
+      </c>
+      <c r="I560" s="14">
+        <f t="shared" si="47"/>
+        <v>-32552</v>
+      </c>
+      <c r="J560" s="14">
         <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="D560" s="7">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="G560" t="s">
-        <v>10</v>
+        <v>-32552</v>
+      </c>
+      <c r="K560" s="14">
+        <f t="shared" si="51"/>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C561" s="5">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="D561" s="7">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="D561" s="7" t="str">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="G561" t="s">
         <v>10</v>
@@ -18945,7 +19092,7 @@
     </row>
     <row r="562" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C562" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D562" s="7">
@@ -18958,7 +19105,7 @@
     </row>
     <row r="563" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C563" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D563" s="7">
@@ -18971,7 +19118,7 @@
     </row>
     <row r="564" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C564" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D564" s="7">
@@ -18984,7 +19131,7 @@
     </row>
     <row r="565" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C565" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D565" s="7">
@@ -18997,7 +19144,7 @@
     </row>
     <row r="566" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C566" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D566" s="7">
@@ -19010,7 +19157,7 @@
     </row>
     <row r="567" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C567" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D567" s="7">
@@ -19023,7 +19170,7 @@
     </row>
     <row r="568" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C568" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D568" s="7">
@@ -19036,7 +19183,7 @@
     </row>
     <row r="569" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C569" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D569" s="7">
@@ -19049,7 +19196,7 @@
     </row>
     <row r="570" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C570" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D570" s="7">
@@ -19062,7 +19209,7 @@
     </row>
     <row r="571" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C571" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D571" s="7">
@@ -19075,7 +19222,7 @@
     </row>
     <row r="572" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C572" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D572" s="7">
@@ -19088,7 +19235,7 @@
     </row>
     <row r="573" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C573" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D573" s="7">
@@ -19101,7 +19248,7 @@
     </row>
     <row r="574" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C574" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D574" s="7">
@@ -19114,7 +19261,7 @@
     </row>
     <row r="575" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C575" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D575" s="7">
@@ -19127,7 +19274,7 @@
     </row>
     <row r="576" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C576" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D576" s="7">
@@ -19140,7 +19287,7 @@
     </row>
     <row r="577" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C577" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D577" s="7">
@@ -19153,7 +19300,7 @@
     </row>
     <row r="578" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C578" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D578" s="7">
@@ -19166,7 +19313,7 @@
     </row>
     <row r="579" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C579" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D579" s="7">
@@ -19179,7 +19326,7 @@
     </row>
     <row r="580" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C580" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D580" s="7">
@@ -19192,11 +19339,11 @@
     </row>
     <row r="581" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C581" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D581" s="7">
-        <f t="shared" ref="D581:D612" si="51">E580</f>
+        <f t="shared" ref="D581:D612" si="53">E580</f>
         <v>0</v>
       </c>
       <c r="G581" t="s">
@@ -19205,11 +19352,11 @@
     </row>
     <row r="582" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C582" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D582" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G582" t="s">
@@ -19218,11 +19365,11 @@
     </row>
     <row r="583" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C583" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D583" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G583" t="s">
@@ -19231,11 +19378,11 @@
     </row>
     <row r="584" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C584" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D584" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G584" t="s">
@@ -19244,11 +19391,11 @@
     </row>
     <row r="585" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C585" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D585" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G585" t="s">
@@ -19257,11 +19404,11 @@
     </row>
     <row r="586" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C586" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D586" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G586" t="s">
@@ -19270,11 +19417,11 @@
     </row>
     <row r="587" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C587" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D587" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G587" t="s">
@@ -19283,11 +19430,11 @@
     </row>
     <row r="588" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C588" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D588" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G588" t="s">
@@ -19296,11 +19443,11 @@
     </row>
     <row r="589" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C589" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D589" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G589" t="s">
@@ -19309,11 +19456,11 @@
     </row>
     <row r="590" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C590" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D590" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G590" t="s">
@@ -19322,11 +19469,11 @@
     </row>
     <row r="591" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C591" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D591" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G591" t="s">
@@ -19335,11 +19482,11 @@
     </row>
     <row r="592" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C592" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D592" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G592" t="s">
@@ -19348,11 +19495,11 @@
     </row>
     <row r="593" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C593" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D593" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G593" t="s">
@@ -19361,11 +19508,11 @@
     </row>
     <row r="594" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C594" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D594" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G594" t="s">
@@ -19374,11 +19521,11 @@
     </row>
     <row r="595" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C595" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D595" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G595" t="s">
@@ -19387,11 +19534,11 @@
     </row>
     <row r="596" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C596" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D596" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G596" t="s">
@@ -19400,11 +19547,11 @@
     </row>
     <row r="597" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C597" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D597" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G597" t="s">
@@ -19413,11 +19560,11 @@
     </row>
     <row r="598" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C598" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D598" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G598" t="s">
@@ -19426,11 +19573,11 @@
     </row>
     <row r="599" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C599" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D599" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G599" t="s">
@@ -19439,11 +19586,11 @@
     </row>
     <row r="600" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C600" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D600" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G600" t="s">
@@ -19452,11 +19599,11 @@
     </row>
     <row r="601" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C601" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D601" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G601" t="s">
@@ -19465,11 +19612,11 @@
     </row>
     <row r="602" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C602" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D602" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G602" t="s">
@@ -19478,11 +19625,11 @@
     </row>
     <row r="603" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C603" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D603" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G603" t="s">
@@ -19491,11 +19638,11 @@
     </row>
     <row r="604" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C604" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D604" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G604" t="s">
@@ -19504,11 +19651,11 @@
     </row>
     <row r="605" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C605" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D605" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G605" t="s">
@@ -19517,11 +19664,11 @@
     </row>
     <row r="606" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C606" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D606" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G606" t="s">
@@ -19530,11 +19677,11 @@
     </row>
     <row r="607" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C607" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D607" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G607" t="s">
@@ -19543,11 +19690,11 @@
     </row>
     <row r="608" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C608" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D608" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G608" t="s">
@@ -19556,11 +19703,11 @@
     </row>
     <row r="609" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C609" s="5">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="D609" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G609" t="s">
@@ -19569,7 +19716,7 @@
     </row>
     <row r="610" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D610" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G610" t="s">
@@ -19578,7 +19725,7 @@
     </row>
     <row r="611" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D611" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G611" t="s">
@@ -19587,7 +19734,7 @@
     </row>
     <row r="612" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D612" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="G612" t="s">

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9154FA10-D4F4-4A28-84E0-3021D8F0431E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E14C3E1-4A39-43CF-BA76-71EF4DD3A697}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="71">
   <si>
     <t>Datum</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>Oostmolenweg 101, 4481PM, Kloetinge</t>
+  </si>
+  <si>
+    <t>Vertrokken en omgekeerd, tellen als privé omrij-kilometers</t>
   </si>
 </sst>
 </file>
@@ -715,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:L1184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A546" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B577" sqref="B577"/>
+    <sheetView tabSelected="1" topLeftCell="A555" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G580" sqref="G580"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17455,7 +17458,7 @@
       </c>
       <c r="L510" s="4">
         <f>SUM(K506:K1001)</f>
-        <v>63</v>
+        <v>95</v>
       </c>
     </row>
     <row r="511" spans="1:12" x14ac:dyDescent="0.25">
@@ -19571,7 +19574,7 @@
       </c>
       <c r="C576" s="5">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>33607</v>
       </c>
       <c r="D576" s="7" t="str">
         <f t="shared" si="48"/>
@@ -19585,82 +19588,109 @@
       </c>
       <c r="I576" s="14">
         <f t="shared" si="47"/>
-        <v>-33539</v>
+        <v>68</v>
       </c>
       <c r="J576" s="14">
         <f t="shared" si="50"/>
-        <v>-33539</v>
+        <v>68</v>
       </c>
       <c r="K576" s="14">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A577" s="16">
+        <v>43895</v>
+      </c>
+      <c r="B577" s="14">
+        <v>33607</v>
+      </c>
       <c r="C577" s="5">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>33675</v>
       </c>
       <c r="D577" s="7" t="str">
         <f t="shared" si="48"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
+      <c r="E577" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="G577" t="s">
         <v>10</v>
       </c>
       <c r="I577" s="14">
         <f t="shared" ref="I577:I640" si="53">(C577-B577)</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J577" s="14">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K577" s="14">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B578" s="14">
+        <v>33675</v>
+      </c>
       <c r="C578" s="5">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="D578" s="7">
+        <v>33742</v>
+      </c>
+      <c r="D578" s="7" t="str">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>Duwboot 20, Houten</v>
+      </c>
+      <c r="E578" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="G578" t="s">
         <v>10</v>
       </c>
       <c r="I578" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J578" s="14">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K578" s="14">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A579" s="16">
+        <v>43898</v>
+      </c>
+      <c r="B579" s="14">
+        <v>33742</v>
+      </c>
       <c r="C579" s="5">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="D579" s="7">
+        <v>33749</v>
+      </c>
+      <c r="D579" s="7" t="str">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E579" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F579" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="G579" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I579" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J579" s="14">
         <f t="shared" si="50"/>
@@ -19668,24 +19698,33 @@
       </c>
       <c r="K579" s="14">
         <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="580" spans="3:11" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A580" s="16">
+        <v>43905</v>
+      </c>
+      <c r="B580" s="14">
+        <v>33749</v>
+      </c>
       <c r="C580" s="5">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="D580" s="7">
+        <v>33762</v>
+      </c>
+      <c r="D580" s="7" t="str">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E580" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="G580" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I580" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J580" s="14">
         <f t="shared" si="50"/>
@@ -19693,24 +19732,30 @@
       </c>
       <c r="K580" s="14">
         <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="581" spans="3:11" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B581" s="14">
+        <v>33762</v>
+      </c>
       <c r="C581" s="5">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="D581" s="7">
+        <v>33774</v>
+      </c>
+      <c r="D581" s="7" t="str">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>Zuiderhoofdstraat 32, Krommenie</v>
+      </c>
+      <c r="E581" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="G581" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I581" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J581" s="14">
         <f t="shared" si="50"/>
@@ -19718,35 +19763,38 @@
       </c>
       <c r="K581" s="14">
         <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="582" spans="3:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B582" s="14">
+        <v>33774</v>
+      </c>
       <c r="C582" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="D582" s="7">
+      <c r="D582" s="7" t="str">
         <f t="shared" ref="D582:D645" si="54">E581</f>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="G582" t="s">
         <v>10</v>
       </c>
       <c r="I582" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>-33774</v>
       </c>
       <c r="J582" s="14">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>-33774</v>
       </c>
       <c r="K582" s="14">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C583" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -19771,7 +19819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C584" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -19796,7 +19844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C585" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -19821,7 +19869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C586" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -19846,7 +19894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C587" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -19871,7 +19919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C588" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -19896,7 +19944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C589" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -19921,7 +19969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C590" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -19946,7 +19994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C591" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -19971,7 +20019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C592" s="5">
         <f t="shared" si="52"/>
         <v>0</v>

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E14C3E1-4A39-43CF-BA76-71EF4DD3A697}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB027A04-DB52-473E-AD56-33CAD025AED2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
   <sheets>
     <sheet name="Kilometers" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="72">
   <si>
     <t>Datum</t>
   </si>
@@ -283,6 +283,9 @@
   </si>
   <si>
     <t>Vertrokken en omgekeerd, tellen als privé omrij-kilometers</t>
+  </si>
+  <si>
+    <t>Garenkokerskade 49, Haarlem</t>
   </si>
 </sst>
 </file>
@@ -718,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:L1184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A555" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G580" sqref="G580"/>
+    <sheetView tabSelected="1" topLeftCell="A583" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A595" sqref="A595"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17458,7 +17461,7 @@
       </c>
       <c r="L510" s="4">
         <f>SUM(K506:K1001)</f>
-        <v>95</v>
+        <v>167</v>
       </c>
     </row>
     <row r="511" spans="1:12" x14ac:dyDescent="0.25">
@@ -19767,44 +19770,56 @@
       </c>
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A582" s="16">
+        <v>43916</v>
+      </c>
       <c r="B582" s="14">
         <v>33774</v>
       </c>
       <c r="C582" s="5">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>33775</v>
       </c>
       <c r="D582" s="7" t="str">
         <f t="shared" ref="D582:D645" si="54">E581</f>
         <v>De Boeg 26, Zaandam</v>
       </c>
+      <c r="E582" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="G582" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I582" s="14">
         <f t="shared" si="53"/>
-        <v>-33774</v>
+        <v>1</v>
       </c>
       <c r="J582" s="14">
         <f t="shared" si="50"/>
-        <v>-33774</v>
+        <v>0</v>
       </c>
       <c r="K582" s="14">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B583" s="14">
+        <v>33775</v>
+      </c>
       <c r="C583" s="5">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="D583" s="7">
+        <v>33775</v>
+      </c>
+      <c r="D583" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>Prinsenstraat 35, Zaandam</v>
+      </c>
+      <c r="E583" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="G583" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I583" s="14">
         <f t="shared" si="53"/>
@@ -19820,20 +19835,29 @@
       </c>
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A584" s="16">
+        <v>43924</v>
+      </c>
+      <c r="B584" s="14">
+        <v>33775</v>
+      </c>
       <c r="C584" s="5">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="D584" s="7">
+        <v>33776</v>
+      </c>
+      <c r="D584" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E584" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="G584" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I584" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J584" s="14">
         <f t="shared" si="50"/>
@@ -19841,20 +19865,26 @@
       </c>
       <c r="K584" s="14">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B585" s="14">
+        <v>33776</v>
+      </c>
       <c r="C585" s="5">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="D585" s="7">
+        <v>33776</v>
+      </c>
+      <c r="D585" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>Prinsenstraat 35, Zaandam</v>
+      </c>
+      <c r="E585" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="G585" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I585" s="14">
         <f t="shared" si="53"/>
@@ -19870,20 +19900,29 @@
       </c>
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A586" s="16">
+        <v>43935</v>
+      </c>
+      <c r="B586" s="14">
+        <v>33776</v>
+      </c>
       <c r="C586" s="5">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="D586" s="7">
+        <v>33777</v>
+      </c>
+      <c r="D586" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E586" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="G586" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I586" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J586" s="14">
         <f t="shared" si="50"/>
@@ -19891,20 +19930,26 @@
       </c>
       <c r="K586" s="14">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B587" s="14">
+        <v>33777</v>
+      </c>
       <c r="C587" s="5">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="D587" s="7">
+        <v>33777</v>
+      </c>
+      <c r="D587" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>Prinsenstraat 35, Zaandam</v>
+      </c>
+      <c r="E587" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="G587" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I587" s="14">
         <f t="shared" si="53"/>
@@ -19920,20 +19965,29 @@
       </c>
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A588" s="16">
+        <v>43938</v>
+      </c>
+      <c r="B588" s="14">
+        <v>33777</v>
+      </c>
       <c r="C588" s="5">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="D588" s="7">
+        <v>33782</v>
+      </c>
+      <c r="D588" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E588" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="G588" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I588" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J588" s="14">
         <f t="shared" si="50"/>
@@ -19941,24 +19995,30 @@
       </c>
       <c r="K588" s="14">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B589" s="14">
+        <v>33782</v>
+      </c>
       <c r="C589" s="5">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="D589" s="7">
+        <v>33787</v>
+      </c>
+      <c r="D589" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>Hollandschdiep, Zaandam</v>
+      </c>
+      <c r="E589" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="G589" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I589" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J589" s="14">
         <f t="shared" si="50"/>
@@ -19966,20 +20026,29 @@
       </c>
       <c r="K589" s="14">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A590" s="16">
+        <v>43946</v>
+      </c>
+      <c r="B590" s="14">
+        <v>33787</v>
+      </c>
       <c r="C590" s="5">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="D590" s="7">
+        <v>33787</v>
+      </c>
+      <c r="D590" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E590" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="G590" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I590" s="14">
         <f t="shared" si="53"/>
@@ -19995,20 +20064,27 @@
       </c>
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A591" s="16"/>
+      <c r="B591" s="14">
+        <v>33787</v>
+      </c>
       <c r="C591" s="5">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="D591" s="7">
+        <v>33788</v>
+      </c>
+      <c r="D591" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>Prinsenstraat 35, Zaandam</v>
+      </c>
+      <c r="E591" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="G591" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I591" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J591" s="14">
         <f t="shared" si="50"/>
@@ -20016,24 +20092,33 @@
       </c>
       <c r="K591" s="14">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A592" s="16">
+        <v>43947</v>
+      </c>
+      <c r="B592" s="14">
+        <v>33788</v>
+      </c>
       <c r="C592" s="5">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="D592" s="7">
+        <v>33816</v>
+      </c>
+      <c r="D592" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E592" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="G592" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I592" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J592" s="14">
         <f t="shared" si="50"/>
@@ -20041,24 +20126,30 @@
       </c>
       <c r="K592" s="14">
         <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="593" spans="3:11" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B593" s="14">
+        <v>33816</v>
+      </c>
       <c r="C593" s="5">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="D593" s="7">
+        <v>33846</v>
+      </c>
+      <c r="D593" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>Garenkokerskade 49, Haarlem</v>
+      </c>
+      <c r="E593" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="G593" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I593" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J593" s="14">
         <f t="shared" si="50"/>
@@ -20066,85 +20157,103 @@
       </c>
       <c r="K593" s="14">
         <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="594" spans="3:11" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A594" s="16">
+        <v>43957</v>
+      </c>
+      <c r="B594" s="14">
+        <v>33846</v>
+      </c>
       <c r="C594" s="5">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="D594" s="7">
+        <v>33913</v>
+      </c>
+      <c r="D594" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E594" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="G594" t="s">
         <v>10</v>
       </c>
       <c r="I594" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J594" s="14">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K594" s="14">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B595" s="14">
+        <v>33913</v>
+      </c>
       <c r="C595" s="5">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="D595" s="7">
+        <v>33980</v>
+      </c>
+      <c r="D595" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>Waterveste 4, Houten</v>
+      </c>
+      <c r="E595" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="G595" t="s">
         <v>10</v>
       </c>
       <c r="I595" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J595" s="14">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K595" s="14">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B596" s="14">
+        <v>33980</v>
+      </c>
       <c r="C596" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="D596" s="7">
+      <c r="D596" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="G596" t="s">
         <v>10</v>
       </c>
       <c r="I596" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>-33980</v>
       </c>
       <c r="J596" s="14">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>-33980</v>
       </c>
       <c r="K596" s="14">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C597" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -20169,7 +20278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C598" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -20194,7 +20303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C599" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -20219,7 +20328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C600" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -20244,7 +20353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C601" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -20269,7 +20378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C602" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -20294,7 +20403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C603" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -20319,7 +20428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C604" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -20344,7 +20453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C605" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -20369,7 +20478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C606" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -20394,7 +20503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C607" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
@@ -20419,7 +20528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C608" s="5">
         <f t="shared" si="52"/>
         <v>0</v>

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB027A04-DB52-473E-AD56-33CAD025AED2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC74E9BE-679A-4523-B872-6EF7CA5D5013}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
   <sheets>
     <sheet name="Kilometers" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="72">
   <si>
     <t>Datum</t>
   </si>
@@ -721,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:L1184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A583" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A595" sqref="A595"/>
+    <sheetView tabSelected="1" topLeftCell="A575" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D606" sqref="D606"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17461,7 +17461,7 @@
       </c>
       <c r="L510" s="4">
         <f>SUM(K506:K1001)</f>
-        <v>167</v>
+        <v>196</v>
       </c>
     </row>
     <row r="511" spans="1:12" x14ac:dyDescent="0.25">
@@ -20226,48 +20226,60 @@
       </c>
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A596" s="16">
+        <v>43961</v>
+      </c>
       <c r="B596" s="14">
         <v>33980</v>
       </c>
       <c r="C596" s="5">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>33989</v>
       </c>
       <c r="D596" s="7" t="str">
         <f t="shared" si="54"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
+      <c r="E596" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="G596" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I596" s="14">
         <f t="shared" si="53"/>
-        <v>-33980</v>
+        <v>9</v>
       </c>
       <c r="J596" s="14">
         <f t="shared" si="50"/>
-        <v>-33980</v>
+        <v>0</v>
       </c>
       <c r="K596" s="14">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B597" s="14">
+        <v>33989</v>
+      </c>
       <c r="C597" s="5">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="D597" s="7">
+        <v>33997</v>
+      </c>
+      <c r="D597" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>Doktersland 20, Koog aan de Zaan</v>
+      </c>
+      <c r="E597" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="G597" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I597" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J597" s="14">
         <f t="shared" si="50"/>
@@ -20275,20 +20287,26 @@
       </c>
       <c r="K597" s="14">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B598" s="14">
+        <v>33997</v>
+      </c>
       <c r="C598" s="5">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="D598" s="7">
+        <v>33997</v>
+      </c>
+      <c r="D598" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E598" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="G598" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I598" s="14">
         <f t="shared" si="53"/>
@@ -20304,20 +20322,26 @@
       </c>
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B599" s="14">
+        <v>33997</v>
+      </c>
       <c r="C599" s="5">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="D599" s="7">
+        <v>33998</v>
+      </c>
+      <c r="D599" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>Prinsenstraat 35, Zaandam</v>
+      </c>
+      <c r="E599" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="G599" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I599" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J599" s="14">
         <f t="shared" si="50"/>
@@ -20325,24 +20349,30 @@
       </c>
       <c r="K599" s="14">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B600" s="14">
+        <v>33998</v>
+      </c>
       <c r="C600" s="5">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="D600" s="7">
+        <v>34002</v>
+      </c>
+      <c r="D600" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E600" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="G600" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I600" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J600" s="14">
         <f t="shared" si="50"/>
@@ -20350,24 +20380,30 @@
       </c>
       <c r="K600" s="14">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B601" s="14">
+        <v>34002</v>
+      </c>
       <c r="C601" s="5">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="D601" s="7">
+        <v>34008</v>
+      </c>
+      <c r="D601" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>Kleine Tocht 19, 1507 CB Zaandam</v>
+      </c>
+      <c r="E601" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="G601" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I601" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J601" s="14">
         <f t="shared" si="50"/>
@@ -20375,24 +20411,33 @@
       </c>
       <c r="K601" s="14">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A602" s="16">
+        <v>43979</v>
+      </c>
+      <c r="B602" s="14">
+        <v>34008</v>
+      </c>
       <c r="C602" s="5">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="D602" s="7">
+        <v>34009</v>
+      </c>
+      <c r="D602" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E602" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="G602" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I602" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J602" s="14">
         <f t="shared" si="50"/>
@@ -20400,20 +20445,26 @@
       </c>
       <c r="K602" s="14">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B603" s="14">
+        <v>34009</v>
+      </c>
       <c r="C603" s="5">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="D603" s="7">
+        <v>34009</v>
+      </c>
+      <c r="D603" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>Prinsenstraat 35, Zaandam</v>
+      </c>
+      <c r="E603" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="G603" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I603" s="14">
         <f t="shared" si="53"/>
@@ -20429,24 +20480,27 @@
       </c>
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B604" s="14">
+        <v>34009</v>
+      </c>
       <c r="C604" s="5">
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="D604" s="7">
+      <c r="D604" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
       </c>
       <c r="G604" t="s">
         <v>10</v>
       </c>
       <c r="I604" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>-34009</v>
       </c>
       <c r="J604" s="14">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>-34009</v>
       </c>
       <c r="K604" s="14">
         <f t="shared" si="51"/>

--- a/Ritgegevens.xlsx
+++ b/Ritgegevens.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGR\Desktop\Administratie\Ritgegevens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC74E9BE-679A-4523-B872-6EF7CA5D5013}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6446D62C-ECE3-4BE1-B472-96FA48856697}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{E1CDE313-428E-477A-B89C-B5B20550DB53}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="92">
   <si>
     <t>Datum</t>
   </si>
@@ -286,6 +286,66 @@
   </si>
   <si>
     <t>Garenkokerskade 49, Haarlem</t>
+  </si>
+  <si>
+    <t>Catalpastraat 23, Almere</t>
+  </si>
+  <si>
+    <t>Radio Oranjelaan 7, Almere</t>
+  </si>
+  <si>
+    <t>Metropolestraat 64, 1315 KM, Almere</t>
+  </si>
+  <si>
+    <t>Symon Spiersweg 7, 1506RZ, Zaandam</t>
+  </si>
+  <si>
+    <t>Cornelis Ouwejanstraat 7, 1506SX, Zaandam</t>
+  </si>
+  <si>
+    <t>Pieter Ghijsenlaan 18a, 1506 PV, Zaandam</t>
+  </si>
+  <si>
+    <t>Pieter Ghijsenlaan 16D, 1506 PV, Zaandam</t>
+  </si>
+  <si>
+    <t>Kaarsenmakersstraat 3, Zaandam</t>
+  </si>
+  <si>
+    <t>Symon Spiersweg 6, 1506RZ, Zaandam</t>
+  </si>
+  <si>
+    <t>Pieter Ghijsenlaan 16C, Zaandam</t>
+  </si>
+  <si>
+    <t>Symon Spiersweg 2, Zaandam</t>
+  </si>
+  <si>
+    <t>Stormhoek 9, Zaandam</t>
+  </si>
+  <si>
+    <t>Symon Spiersweg 6, Zaandam</t>
+  </si>
+  <si>
+    <t>Billie Holidaystraat 22, Almere</t>
+  </si>
+  <si>
+    <t>Verplaatsing van voertuig ivm verhuizing</t>
+  </si>
+  <si>
+    <t>Croeselaan, Utrecht</t>
+  </si>
+  <si>
+    <t>Lang vastgestaan op invoegstrook onderweg naar werk, omgekeerd bij eerste afslag "Hemweg"</t>
+  </si>
+  <si>
+    <t>Markerkant 13, Almere</t>
+  </si>
+  <si>
+    <t>Editiestraat 20, Almere</t>
+  </si>
+  <si>
+    <t>Euphoneumweg 5, Almere</t>
   </si>
 </sst>
 </file>
@@ -721,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C79BF-5DF7-4F63-ABB9-74D4FAF6D5B0}">
   <dimension ref="A1:L1184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A575" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D606" sqref="D606"/>
+    <sheetView tabSelected="1" topLeftCell="A624" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A636" sqref="A636"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17461,7 +17521,7 @@
       </c>
       <c r="L510" s="4">
         <f>SUM(K506:K1001)</f>
-        <v>196</v>
+        <v>495</v>
       </c>
     </row>
     <row r="511" spans="1:12" x14ac:dyDescent="0.25">
@@ -20485,43 +20545,52 @@
       </c>
       <c r="C604" s="5">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>34055</v>
       </c>
       <c r="D604" s="7" t="str">
         <f t="shared" si="54"/>
         <v>De Boeg 26, Zaandam</v>
       </c>
+      <c r="E604" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="G604" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I604" s="14">
         <f t="shared" si="53"/>
-        <v>-34009</v>
+        <v>46</v>
       </c>
       <c r="J604" s="14">
         <f t="shared" si="50"/>
-        <v>-34009</v>
+        <v>0</v>
       </c>
       <c r="K604" s="14">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B605" s="14">
+        <v>34055</v>
+      </c>
       <c r="C605" s="5">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="D605" s="7">
+        <v>34058</v>
+      </c>
+      <c r="D605" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>Catalpastraat 23, Almere</v>
+      </c>
+      <c r="E605" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="G605" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I605" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J605" s="14">
         <f t="shared" si="50"/>
@@ -20529,24 +20598,30 @@
       </c>
       <c r="K605" s="14">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B606" s="14">
+        <v>34058</v>
+      </c>
       <c r="C606" s="5">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="D606" s="7">
+        <v>34106</v>
+      </c>
+      <c r="D606" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>Metropolestraat 64, 1315 KM, Almere</v>
+      </c>
+      <c r="E606" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="G606" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I606" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="J606" s="14">
         <f t="shared" si="50"/>
@@ -20554,24 +20629,30 @@
       </c>
       <c r="K606" s="14">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B607" s="14">
+        <v>34106</v>
+      </c>
       <c r="C607" s="5">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="D607" s="7">
+        <v>34113</v>
+      </c>
+      <c r="D607" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>Doktersland 20, Koog aan de Zaan</v>
+      </c>
+      <c r="E607" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="G607" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I607" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J607" s="14">
         <f t="shared" ref="J607:J670" si="55">IF(AND(G607 = "Zakelijk", H607 = ""), I607, IF(AND(G607 = "Zakelijk", NOT(H607 = "")), I607 - H607, 0))</f>
@@ -20579,24 +20660,33 @@
       </c>
       <c r="K607" s="14">
         <f t="shared" ref="K607:K670" si="56">IF(AND(G607 = "Zakelijk", NOT(H607 = "")), H607, IF(G607 = "Privé", I607, 0))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A608" s="16">
+        <v>43996</v>
+      </c>
+      <c r="B608" s="14">
+        <v>34113</v>
+      </c>
       <c r="C608" s="5">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="D608" s="7">
+        <v>34125</v>
+      </c>
+      <c r="D608" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E608" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="G608" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I608" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J608" s="14">
         <f t="shared" si="55"/>
@@ -20604,24 +20694,30 @@
       </c>
       <c r="K608" s="14">
         <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="609" spans="3:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B609" s="14">
+        <v>34125</v>
+      </c>
       <c r="C609" s="5">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="D609" s="7">
+        <v>34133</v>
+      </c>
+      <c r="D609" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>Doktersland 20, Koog aan de Zaan</v>
+      </c>
+      <c r="E609" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="G609" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I609" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J609" s="14">
         <f t="shared" si="55"/>
@@ -20629,24 +20725,33 @@
       </c>
       <c r="K609" s="14">
         <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="610" spans="3:11" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A610" s="16">
+        <v>44006</v>
+      </c>
+      <c r="B610" s="14">
+        <v>34133</v>
+      </c>
       <c r="C610" s="5">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="D610" s="7">
+        <v>34179</v>
+      </c>
+      <c r="D610" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E610" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="G610" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I610" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="J610" s="14">
         <f t="shared" si="55"/>
@@ -20654,24 +20759,30 @@
       </c>
       <c r="K610" s="14">
         <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="611" spans="3:11" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B611" s="14">
+        <v>34179</v>
+      </c>
       <c r="C611" s="5">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="D611" s="7">
+        <v>34181</v>
+      </c>
+      <c r="D611" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>Radio Oranjelaan 7, Almere</v>
+      </c>
+      <c r="E611" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="G611" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I611" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J611" s="14">
         <f t="shared" si="55"/>
@@ -20679,24 +20790,30 @@
       </c>
       <c r="K611" s="14">
         <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="612" spans="3:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B612" s="14">
+        <v>34181</v>
+      </c>
       <c r="C612" s="5">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="D612" s="7">
+        <v>34227</v>
+      </c>
+      <c r="D612" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>Metropolestraat 64, 1315 KM, Almere</v>
+      </c>
+      <c r="E612" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="G612" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I612" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="J612" s="14">
         <f t="shared" si="55"/>
@@ -20704,24 +20821,33 @@
       </c>
       <c r="K612" s="14">
         <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="613" spans="3:11" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A613" s="16">
+        <v>44026</v>
+      </c>
+      <c r="B613" s="14">
+        <v>34227</v>
+      </c>
       <c r="C613" s="5">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="D613" s="7">
+        <v>34232</v>
+      </c>
+      <c r="D613" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E613" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="G613" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I613" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J613" s="14">
         <f t="shared" si="55"/>
@@ -20729,24 +20855,30 @@
       </c>
       <c r="K613" s="14">
         <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="614" spans="3:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B614" s="14">
+        <v>34232</v>
+      </c>
       <c r="C614" s="5">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="D614" s="7">
+        <v>34233</v>
+      </c>
+      <c r="D614" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>Symon Spiersweg 7, 1506RZ, Zaandam</v>
+      </c>
+      <c r="E614" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="G614" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I614" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J614" s="14">
         <f t="shared" si="55"/>
@@ -20754,24 +20886,30 @@
       </c>
       <c r="K614" s="14">
         <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="615" spans="3:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B615" s="14">
+        <v>34233</v>
+      </c>
       <c r="C615" s="5">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="D615" s="7">
+        <v>34234</v>
+      </c>
+      <c r="D615" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>Cornelis Ouwejanstraat 7, 1506SX, Zaandam</v>
+      </c>
+      <c r="E615" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="G615" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I615" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J615" s="14">
         <f t="shared" si="55"/>
@@ -20779,24 +20917,30 @@
       </c>
       <c r="K615" s="14">
         <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="616" spans="3:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B616" s="14">
+        <v>34234</v>
+      </c>
       <c r="C616" s="5">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="D616" s="7">
+        <v>34239</v>
+      </c>
+      <c r="D616" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>Pieter Ghijsenlaan 18a, 1506 PV, Zaandam</v>
+      </c>
+      <c r="E616" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="G616" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I616" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J616" s="14">
         <f t="shared" si="55"/>
@@ -20804,24 +20948,33 @@
       </c>
       <c r="K616" s="14">
         <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="617" spans="3:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A617" s="16">
+        <v>44037</v>
+      </c>
+      <c r="B617" s="14">
+        <v>34239</v>
+      </c>
       <c r="C617" s="5">
         <f t="shared" ref="C617:C680" si="57">B618</f>
-        <v>0</v>
-      </c>
-      <c r="D617" s="7">
+        <v>34242</v>
+      </c>
+      <c r="D617" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E617" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="G617" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I617" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J617" s="14">
         <f t="shared" si="55"/>
@@ -20829,24 +20982,30 @@
       </c>
       <c r="K617" s="14">
         <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="618" spans="3:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B618" s="14">
+        <v>34242</v>
+      </c>
       <c r="C618" s="5">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="D618" s="7">
+        <v>34246</v>
+      </c>
+      <c r="D618" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>Pieter Ghijsenlaan 16D, 1506 PV, Zaandam</v>
+      </c>
+      <c r="E618" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="G618" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I618" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J618" s="14">
         <f t="shared" si="55"/>
@@ -20854,24 +21013,33 @@
       </c>
       <c r="K618" s="14">
         <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="619" spans="3:11" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A619" s="16">
+        <v>44070</v>
+      </c>
+      <c r="B619" s="14">
+        <v>34246</v>
+      </c>
       <c r="C619" s="5">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="D619" s="7">
+        <v>34253</v>
+      </c>
+      <c r="D619" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E619" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="G619" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I619" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J619" s="14">
         <f t="shared" si="55"/>
@@ -20879,24 +21047,30 @@
       </c>
       <c r="K619" s="14">
         <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="620" spans="3:11" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B620" s="14">
+        <v>34253</v>
+      </c>
       <c r="C620" s="5">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="D620" s="7">
+        <v>34259</v>
+      </c>
+      <c r="D620" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>Kaarsenmakersstraat 3, Zaandam</v>
+      </c>
+      <c r="E620" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="G620" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I620" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J620" s="14">
         <f t="shared" si="55"/>
@@ -20904,24 +21078,31 @@
       </c>
       <c r="K620" s="14">
         <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="621" spans="3:11" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A621" s="16"/>
+      <c r="B621" s="14">
+        <v>34259</v>
+      </c>
       <c r="C621" s="5">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="D621" s="7">
+        <v>34263</v>
+      </c>
+      <c r="D621" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>Symon Spiersweg 6, 1506RZ, Zaandam</v>
+      </c>
+      <c r="E621" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="G621" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I621" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J621" s="14">
         <f t="shared" si="55"/>
@@ -20929,49 +21110,70 @@
       </c>
       <c r="K621" s="14">
         <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="622" spans="3:11" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="622" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A622" s="16">
+        <v>44074</v>
+      </c>
+      <c r="B622" s="14">
+        <v>34263</v>
+      </c>
       <c r="C622" s="5">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="D622" s="7">
+        <v>34280</v>
+      </c>
+      <c r="D622" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E622" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F622" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="G622" t="s">
         <v>10</v>
       </c>
       <c r="I622" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J622" s="14">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K622" s="14">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A623" s="16">
+        <v>44077</v>
+      </c>
+      <c r="B623" s="14">
+        <v>34280</v>
+      </c>
       <c r="C623" s="5">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="D623" s="7">
+        <v>34283</v>
+      </c>
+      <c r="D623" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E623" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="G623" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I623" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J623" s="14">
         <f t="shared" si="55"/>
@@ -20979,24 +21181,30 @@
       </c>
       <c r="K623" s="14">
         <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="624" spans="3:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B624" s="14">
+        <v>34283</v>
+      </c>
       <c r="C624" s="5">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="D624" s="7">
+        <v>34285</v>
+      </c>
+      <c r="D624" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>Pieter Ghijsenlaan 16C, Zaandam</v>
+      </c>
+      <c r="E624" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="G624" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I624" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J624" s="14">
         <f t="shared" si="55"/>
@@ -21004,24 +21212,30 @@
       </c>
       <c r="K624" s="14">
         <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="625" spans="3:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B625" s="14">
+        <v>34285</v>
+      </c>
       <c r="C625" s="5">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="D625" s="7">
+        <v>34288</v>
+      </c>
+      <c r="D625" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>Symon Spiersweg 2, Zaandam</v>
+      </c>
+      <c r="E625" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="G625" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I625" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J625" s="14">
         <f t="shared" si="55"/>
@@ -21029,24 +21243,33 @@
       </c>
       <c r="K625" s="14">
         <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="626" spans="3:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A626" s="16">
+        <v>44080</v>
+      </c>
+      <c r="B626" s="14">
+        <v>34288</v>
+      </c>
       <c r="C626" s="5">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="D626" s="7">
+        <v>34292</v>
+      </c>
+      <c r="D626" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E626" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="G626" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I626" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J626" s="14">
         <f t="shared" si="55"/>
@@ -21054,24 +21277,30 @@
       </c>
       <c r="K626" s="14">
         <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="627" spans="3:11" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B627" s="14">
+        <v>34292</v>
+      </c>
       <c r="C627" s="5">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="D627" s="7">
+        <v>34293</v>
+      </c>
+      <c r="D627" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>Stormhoek 9, Zaandam</v>
+      </c>
+      <c r="E627" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="G627" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I627" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J627" s="14">
         <f t="shared" si="55"/>
@@ -21079,24 +21308,30 @@
       </c>
       <c r="K627" s="14">
         <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="628" spans="3:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B628" s="14">
+        <v>34293</v>
+      </c>
       <c r="C628" s="5">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="D628" s="7">
+        <v>34295</v>
+      </c>
+      <c r="D628" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>Symon Spiersweg 6, Zaandam</v>
+      </c>
+      <c r="E628" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="G628" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I628" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J628" s="14">
         <f t="shared" si="55"/>
@@ -21104,24 +21339,30 @@
       </c>
       <c r="K628" s="14">
         <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="629" spans="3:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B629" s="14">
+        <v>34295</v>
+      </c>
       <c r="C629" s="5">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="D629" s="7">
+        <v>34299</v>
+      </c>
+      <c r="D629" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>Stormhoek 9, Zaandam</v>
+      </c>
+      <c r="E629" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="G629" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I629" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J629" s="14">
         <f t="shared" si="55"/>
@@ -21129,24 +21370,30 @@
       </c>
       <c r="K629" s="14">
         <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="630" spans="3:11" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B630" s="14">
+        <v>34299</v>
+      </c>
       <c r="C630" s="5">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="D630" s="7">
+        <v>34300</v>
+      </c>
+      <c r="D630" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>Prinsenstraat 35, Zaandam</v>
+      </c>
+      <c r="E630" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="G630" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I630" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J630" s="14">
         <f t="shared" si="55"/>
@@ -21154,99 +21401,131 @@
       </c>
       <c r="K630" s="14">
         <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="631" spans="3:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A631" s="16">
+        <v>44081</v>
+      </c>
+      <c r="B631" s="14">
+        <v>34300</v>
+      </c>
       <c r="C631" s="5">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="D631" s="7">
+        <v>34341</v>
+      </c>
+      <c r="D631" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>De Boeg 26, Zaandam</v>
+      </c>
+      <c r="E631" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F631" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="G631" t="s">
         <v>10</v>
       </c>
       <c r="I631" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="J631" s="14">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="K631" s="14">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B632" s="14">
+        <v>34341</v>
+      </c>
       <c r="C632" s="5">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="D632" s="7">
+        <v>34391</v>
+      </c>
+      <c r="D632" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>Billie Holidaystraat 22, Almere</v>
+      </c>
+      <c r="E632" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="G632" t="s">
         <v>10</v>
       </c>
       <c r="I632" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J632" s="14">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K632" s="14">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B633" s="14">
+        <v>34391</v>
+      </c>
       <c r="C633" s="5">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="D633" s="7">
+        <v>34440</v>
+      </c>
+      <c r="D633" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>Croeselaan, Utrecht</v>
+      </c>
+      <c r="E633" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="G633" t="s">
         <v>10</v>
       </c>
       <c r="I633" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="J633" s="14">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="K633" s="14">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A634" s="16">
+        <v>44098</v>
+      </c>
+      <c r="B634" s="14">
+        <v>34440</v>
+      </c>
       <c r="C634" s="5">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="D634" s="7">
+        <v>34446</v>
+      </c>
+      <c r="D634" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>Billie Holidaystraat 22, Almere</v>
+      </c>
+      <c r="E634" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="G634" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I634" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J634" s="14">
         <f t="shared" si="55"/>
@@ -21254,24 +21533,30 @@
       </c>
       <c r="K634" s="14">
         <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="635" spans="3:11" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B635" s="14">
+        <v>34446</v>
+      </c>
       <c r="C635" s="5">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="D635" s="7">
+        <v>34452</v>
+      </c>
+      <c r="D635" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>Markerkant 13, Almere</v>
+      </c>
+      <c r="E635" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="G635" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I635" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J635" s="14">
         <f t="shared" si="55"/>
@@ -21279,24 +21564,30 @@
       </c>
       <c r="K635" s="14">
         <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="636" spans="3:11" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B636" s="14">
+        <v>34452</v>
+      </c>
       <c r="C636" s="5">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="D636" s="7">
+        <v>34458</v>
+      </c>
+      <c r="D636" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>Billie Holidaystraat 22, Almere</v>
+      </c>
+      <c r="E636" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="G636" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I636" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J636" s="14">
         <f t="shared" si="55"/>
@@ -21304,24 +21595,30 @@
       </c>
       <c r="K636" s="14">
         <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="637" spans="3:11" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B637" s="14">
+        <v>34458</v>
+      </c>
       <c r="C637" s="5">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="D637" s="7">
+        <v>34462</v>
+      </c>
+      <c r="D637" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>Editiestraat 20, Almere</v>
+      </c>
+      <c r="E637" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="G637" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I637" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J637" s="14">
         <f t="shared" si="55"/>
@@ -21329,24 +21626,33 @@
       </c>
       <c r="K637" s="14">
         <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="638" spans="3:11" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A638" s="16">
+        <v>44167</v>
+      </c>
+      <c r="B638" s="14">
+        <v>34462</v>
+      </c>
       <c r="C638" s="5">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="D638" s="7">
+        <v>34464</v>
+      </c>
+      <c r="D638" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>Billie Holidaystraat 22, Almere</v>
+      </c>
+      <c r="E638" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="G638" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I638" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J638" s="14">
         <f t="shared" si="55"/>
@@ -21354,24 +21660,30 @@
       </c>
       <c r="K638" s="14">
         <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="639" spans="3:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B639" s="14">
+        <v>34464</v>
+      </c>
       <c r="C639" s="5">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="D639" s="7">
+        <v>34465</v>
+      </c>
+      <c r="D639" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>Euphoneumweg 5, Almere</v>
+      </c>
+      <c r="E639" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="G639" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I639" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J639" s="14">
         <f t="shared" si="55"/>
@@ -21379,28 +21691,31 @@
       </c>
       <c r="K639" s="14">
         <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="640" spans="3:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B640" s="14">
+        <v>34465</v>
+      </c>
       <c r="C640" s="5">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="D640" s="7">
+      <c r="D640" s="7" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>Billie Holidaystraat 22, Almere</v>
       </c>
       <c r="G640" t="s">
         <v>10</v>
       </c>
       <c r="I640" s="14">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>-34465</v>
       </c>
       <c r="J640" s="14">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>-34465</v>
       </c>
       <c r="K640" s="14">
         <f t="shared" si="56"/>
